--- a/profile_data.xlsx
+++ b/profile_data.xlsx
@@ -186,7 +186,7 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -226,7 +226,7 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -266,7 +266,7 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -306,7 +306,7 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -346,7 +346,7 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -386,7 +386,7 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -426,7 +426,7 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -466,7 +466,7 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -506,7 +506,7 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -546,7 +546,7 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -586,7 +586,7 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId41"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -626,7 +626,7 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId42"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -666,7 +666,7 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId43"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -706,7 +706,7 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId41"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId44"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -746,7 +746,7 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId42"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId45"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -786,7 +786,7 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId43"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId46"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -826,7 +826,7 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId44"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId47"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -866,7 +866,7 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId45"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId48"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -906,7 +906,7 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId46"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId49"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -946,7 +946,7 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId47"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId50"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -986,7 +986,7 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId48"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId51"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -1026,7 +1026,7 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId49"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId52"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -1066,7 +1066,7 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId50"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId53"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -1106,7 +1106,7 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId51"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId54"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -1146,7 +1146,7 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId52"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId55"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -1919,6 +1919,115 @@
         <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
         </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>53</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="53" name="Image 53" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId28"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>54</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="54" name="Image 54" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId29"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>55</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="55" name="Image 55" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId30"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>56</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="56" name="Image 56" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId56"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -2215,7 +2324,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:M53"/>
+  <dimension ref="A1:M57"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A14" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
@@ -4940,6 +5049,204 @@
       <c r="M53" s="3" t="inlineStr">
         <is>
           <t>Animal Behavior | Invasive Species | Ecology | Conservation</t>
+        </is>
+      </c>
+    </row>
+    <row r="54" ht="80" customHeight="1" s="4">
+      <c r="B54" s="3" t="inlineStr">
+        <is>
+          <t>Dr. Balvinder Singh</t>
+        </is>
+      </c>
+      <c r="C54" s="3" t="inlineStr">
+        <is>
+          <t>Dr-Balvinder-Singh</t>
+        </is>
+      </c>
+      <c r="D54" s="3" t="inlineStr">
+        <is>
+          <t>Guru Jambheshwar University of Science &amp; Technology</t>
+        </is>
+      </c>
+      <c r="E54" s="3" t="n">
+        <v>2877</v>
+      </c>
+      <c r="F54" s="3" t="n">
+        <v>278</v>
+      </c>
+      <c r="G54" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="H54" s="3" t="inlineStr">
+        <is>
+          <t>Navish-Kataria | Savita-Budhwar | Anoop-Yadav-2 | Manali-Chakraborty-3 | Serap-Mor-2 | Renu-Daulta-2 | Ranjeet-Dalal | Poonam-Yadav-53 | Megha-Jakhar | R-S-Kundu | Anshu-Sharma-44 | Kuldeep-Singh-157 | Sonal-Kadam-6 | Aayushi-Miglani | Pritam-Yadav-7 | M-P-Chougaonkar | Sanjeev-Menon-2 | Mahavir-Singh-10 | Amanjeet-Panghal-2 | Suman-Mor-2 | Himanshu-Sharma-10 | Manbir-Singh | Vk-Garg | Vandana-Pulhani | Poonam-Yadava-2047614187 | Nawal-Kishore-2047615873 | Takdir-Singh-2051637052 | Mukul-Bishnoi-2068075731 | Neeraj-Dilbaghi-2130738426 | Suneel-Kumar-2208182880 | Kavita-Chahal-2231462895 | Shakuntala-Rani-2235056635 | Rajender-Singh-Kundu-2247813717</t>
+        </is>
+      </c>
+      <c r="I54" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="J54" s="3" t="inlineStr">
+        <is>
+          <t>V.K. Garg | Dr Sabyasachi Rout | D.P.S. RATHORE | Said Muhammad | Ajay Kumar | Vandana Pulhani | Madhoolika Agrawal | Manjeet Kumar | Prof(Dr)SK Chakarvarti | Asha Rani | Vivekanand Jha | Anoop Yadav | Joga Singh | Sardar Khan | Pradyumna Lenka | Naregundi Karunakara | Balvinder K Sapra | Bijay Kumar Sahoo | Rohit Mehra | Vijay Dev Puranik | Surinder Singh | Mohammad Tahir Shah | Sumesh cg | Y. P. Gautam | Amit Kumar | V. Balaram | Jitendra Jalindar Gaware | A C Patra | R P Chauhan | Rajesh Kumar Sharma | Vikas Duggal | Raj Mangal Tripathi | Dipankar Chakraborti | Suman Mor | Manbir Singh | Parminder Singh | Raj Kumar Rattan | Mohammad Mahmudur Rahman | Pranab Kumar Tarafder | B. S. Bajwa | Fiona Marshall | Eappen Kp | Sudeshna Mohapatra | G.F.W. Haenlein | Mrinal Sengupta | Sunil Sahoo | Poonam Yadav | Uttam Chowdhury | Avinash Kumar | Abhishek Kumar</t>
+        </is>
+      </c>
+      <c r="K54" s="3" t="n">
+        <v>17</v>
+      </c>
+      <c r="L54" s="3" t="inlineStr">
+        <is>
+          <t>Radon and thoron exhalation rate in the soil of Western Haryana, India | Radon and Thoron Exhalation Rate in the soil of Western Haryana, India | Minerals and trace elements status of blood serum of lactating goats in a semi-arid region of southwest of Haryana State, India | Carcinogenic and non – carcinogenic health risks of heavy metals in drinking water of district Mahendergarh, Haryana, India | A PROCESS FOR FORMULATING MORINGA FLAVORED MULTIBRAN BREAD | Assessment of Arsenic in Groundwater of Southwestern Haryana, India and Chemical Body Burden Caused by its Ingestion | Transfer Factors and Effective Dose Evaluation Due to Natural Radioactivity in Staple Food Grains from the Vicinity of Proposed Nuclear Power Plant | Assessment of uranium concentration in the drinking water and associated health risks in Eastern Haryana, India | Assessment of bio-concentration factor of heavy metals in Indian soil-crop system | Bioaccumulation and health risks of heavy metals associated with consumption of rice grains from croplands in Northern India | Uranium quantification in groundwater and health risk from its ingestion in Haryana, India | Authors response to Dr. Rathore’s comments on Singh B, Garg VK, Yadav P, Kishore N, Pulhani V (2014) uranium in groundwater from western Haryana, India. J Radioanal Nucl Chem 301: 427–433 | Quantification of minerals and trace elements in raw caprine milk using flame atomic absorption spectrophotometry and flame photometry | Uranium in groundwater from Western Haryana, India | Heavy Metals Bioconcentration from Soil to Vegetables and Assessment of Health Risk Caused by Their Ingestion | Quantification and health risk assessment due to heavy metals in potable water to the population living in the vicinity of a proposed nuclear power project site in Haryana, India | Measurement of Environmental Gamma Radiation Dose in Kumharia, Haryana</t>
+        </is>
+      </c>
+      <c r="M54" s="3" t="inlineStr">
+        <is>
+          <t>Radioactivity | Condensed Matter Physics | Environment | Heavy Metals | Multivariate Statistics | Radiation Detection | Radiation Protection | Radiation | Radiation Physics | Sampling</t>
+        </is>
+      </c>
+    </row>
+    <row r="55" ht="80" customHeight="1" s="4">
+      <c r="B55" s="3" t="inlineStr">
+        <is>
+          <t>Navish Kataria</t>
+        </is>
+      </c>
+      <c r="C55" s="3" t="inlineStr">
+        <is>
+          <t>Navish-Kataria</t>
+        </is>
+      </c>
+      <c r="E55" s="3" t="n">
+        <v>5264</v>
+      </c>
+      <c r="F55" s="3" t="n">
+        <v>981</v>
+      </c>
+      <c r="G55" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="H55" s="3" t="inlineStr">
+        <is>
+          <t>Michelle-Teo | Dr-Balvinder-Singh | Ravindran-Balasubramani-2 | K-Kadirvelu | Anoop-Yadav-2 | Mohd-Nasrullah | Deepak-Kumar-58 | Brij-Mohan-4 | Amit-Chauhan-21 | Vivek-Kumar-233 | Parita-Basnet-2 | Suresh-Ghotekar-2 | Ya-Fen-Wang-4 | Khanderao_Pagar | Jyoti_Saini5 | Ashok-Kumar-261 | Kuan-Shiong-Khoo | Pradeep-Khyalia | Onkar-Pardeshi | Wai-Siong-Chai | Wandit-Ahlawat | Suman-Suman-5 | Renu-Daulta-2 | Deepak-Pathania | Fahir-Hassan | Chong-Jun-Roy | Poonam-Yadav-53 | Jihan-Hanun | Renuka-Gupta-5 | Sandeep-Kumar-321 | Himani-Sabherwal | Pau-Loke-Show | Sandeep-Kumar-43 | Lakhveer-Singh-3 | Monika-Jain | Manbir-Singh | Jheng-Jie-Jiang | Parmod-Kumar-4 | Smita-Kumar-4 | Ha-Bui-7 | Vk-Garg | Pawan-Rose-2 | Vandana-Pulhani | Pooja-Ghosh-3 | Saurabh-Singh-114 | Saravanan-Rajendran-2113922825 | Seema-Joshi-2147782609 | Sangita-Yadav-2221999392 | Ravi-Kumar-2227563449 | Vinod-Kumar-Garg-2255152481</t>
+        </is>
+      </c>
+      <c r="I55" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="J55" s="3" t="inlineStr">
+        <is>
+          <t>V.K. Garg | Mika Sillanpää | Parmod Kumar | Youn-Joo An | Violette Geissen | Ahmad Umar | Prof. Imran Ali | Weimin Wu | Ali Daneshfar | K. Kadirvelu | Malik Maaza | Gérard Férey | Tejraj M Aminabhavi | Kun-Yi Andrew Lin | Matthias C Rillig | Parveen Akhter | Charles U Pittman | Yuh-Shan Ho | Gordon Mckay | Mohammad Khalid | Shaaker Hajati | Joseph Hupp | Dai-Viet N. Vo | Vinod K Gupta | Surinder Singh | Omar Farha | Rama Rao Karri | Huahong Shi | Murid Hussain | Ezzat Chan Abdullah | Tamara Susan Galloway | Neeraj Dilbaghi | Sandeep Kumar | Iqrash Shafiq | Christian Serre | Raj Mangal Tripathi | Monika Jain | Amin Ansari | Dinesh Mohan | Jheng-Jie Jiang | Mehrorang Ghaedi | Reza Sahraei | Jaesool Shim | Suresh K. Ghotekar | Md. Rabiul Awual | Kuan Shiong Khoo | Arash Asfaram | Sunil Sahoo | Mubarak N Mujawar | Daoji Li</t>
+        </is>
+      </c>
+      <c r="K55" s="3" t="n">
+        <v>35</v>
+      </c>
+      <c r="L55" s="3" t="inlineStr">
+        <is>
+          <t>Optimizing leachate treatment with titanium oxide-impregnated activated carbon (TiO2@ASC) in a fixed-bed column: characterization, modeling, and prediction study | Pharmaceuticals in the Aquatic Environment | Pharmaceuticals in Aquatic Environments: Toxicity, Monitoring, and Remediation Technologies | Plastic Waste-Derived Carbon Dots: Insights of Recycling Valuable Materials Towards Environmental Sustainability | Assessing the biomass-based carbon dots and their composites for photocatalytic treatment of wastewater | Microplastic contamination in sewage sludge: Abundance, characteristics, and impacts on the environment and human health | Bio-inspired synthesis of CdO nanoparticles using Citrus limetta peel extract and their diverse biomedical applications | Recent Advancement in Nanotechnology for the Treatment of Pharmaceutical Wastewater: Sources, Toxicity, and Remediation Technology | Weathering effect triggers the sorption enhancement of microplastics against oxybenzone | Recent analytical techniques, and potential eco-toxicological impacts of textile fibrous microplastics (FMPs) and its associated contaminates: A review | Microplastics in multimedia environment: A systematic review on its fate, transport, quantification, health risk, and remedial measures | Biogenic fabrication of ZnO@EC and MgO@EC using Eucalyptus leaf extract for the removal of hexavalent chromium Cr(VI) ions from water | Hybrid nanomaterials for the removal of organic pollutants from wastewater | Current progress in treatment technologies for plastic waste (bisphenol A) in aquatic environment: Occurrence, toxicity and remediation mechanisms | Sequestration of heavy metals from contaminated water using magnetic carbon nanocomposites | Chemical and physical properties of nanoparticles and hybrid materials | Advanced membrane technology for the removal of pesticides from water and wastewater | Metal−Organic Framework and Its Nanocomposites as Chemical Sensors | Metal−Organic Frameworks for Capturing Carbon Dioxide from Flue Gas | Photocatalytic Activity of α-Fe2O3@CeO2 and CeO2@α-Fe2O3 core-shell nanospheres for degradation of Rose Bengal dye | The Role of Conductive Nanoparticles in Anaerobic Digestion: Mechanism, Current Status and Future Perspectives | Pb2+ and Cd2+ recovery from water using residual tea waste and SiO2@TW nanocomposite | Green fabrication of ZnO nanoparticles using Eucalyptus spp. leaves extract and their application in wastewater remediation | Carbonaceous nanomaterials as effective and efficient platforms for removal of dyes from aqueous systems | Applications of Fe3O4@AC nanoparticles for dye removal from simulated wastewater | Application of EDTA modified Fe3O4/Sawdust Carbon nanocomposites to ameliorate Methylene Blue and Brilliant Green dye laden water | Optimization of Pb (II) and Cd (II) adsorption onto ZnO nanoflowers using central composite design: isotherms and kinetics modelling | Green synthesis of Fe 3 O 4 nanoparticles loaded sawdust carbon for Cadmium (II) removal from water: regeneration and mechanism | Assessment of uranium concentration in the drinking water and associated health risks in Eastern Haryana, India | Removal of Congo red and Brilliant green dye from aqueous solution using flower shaped ZnO nanoparticles | Removal of Orange G and Rhodamine B dyes from aqueous system using hydrothermally synthesized zinc oxide loaded activated carbon (ZnO-AC) | Nanomaterial-Based Sorbents for the Removal of Heavy Metal Ions from Water | Preparation, characterization and potential use of flower shaped Zinc oxide nanoparticles (ZON) for the adsorption of Victoria Blue B dye from aqueous solution | Uranium quantification in groundwater and health risk from its ingestion in Haryana, India</t>
+        </is>
+      </c>
+      <c r="M55" s="3" t="inlineStr">
+        <is>
+          <t>Adsorption | Water Purification Technologies | Heavy metals and dyes removal | Environmental monitoring and remidiation | uranium analysis | Water Treatment | Nanomaterials | Soil management practice | Solid Waste Management | Environment Quality Sensor</t>
+        </is>
+      </c>
+    </row>
+    <row r="56" ht="80" customHeight="1" s="4">
+      <c r="B56" s="3" t="inlineStr">
+        <is>
+          <t>Ravindran Balasubramani</t>
+        </is>
+      </c>
+      <c r="C56" s="3" t="inlineStr">
+        <is>
+          <t>Ravindran-Balasubramani-2</t>
+        </is>
+      </c>
+      <c r="E56" s="3" t="n">
+        <v>45785</v>
+      </c>
+      <c r="F56" s="3" t="n">
+        <v>4252</v>
+      </c>
+      <c r="G56" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="H56" s="3" t="inlineStr">
+        <is>
+          <t>Balamuralikrishnan-Balasubramanian | Ramamoorthy-Ayyamperumal | Manikandan-Sivasubramanian | Mukesh-Kumar-Awasthi | Ammaiyappan-Selvam | Subbaiya-Ramasamy | Rajinikanth-Rajagopal | Van-Khanh-Nguyen-2 | Mayur-Kurade | Ananthanarayanan-Yuvaraj | Byong-Hun-Jeon | Pearson-Mnkeni | Suresh-Ghotekar-2 | Nur-Izyan-Wan-Azelee | Saud-Alarifi-2 | Dr-M-Saiyad-Musthafa | Prof-Kantha-Arunachalam | Gursharan-Singh-3 | Pandion-Kumar | Shailendra-Arya | Mariadhas-Valan-Arasu-2 | Naif-Al-Dhabi | Uma-Nallal | Ganesan-Sekaran | Mohammed-Junaid-Hussain | Xuan-Nguyen-19 | Hupenyu-Mupambwa | Debnath-Ovi | Soon-Woong-Chang | Alagarsamy-Arun | Asit-Mandal-3 | Joungdu-Shin | Dinh-Duc-Nguyen | Zengqiang-Zhang-2 | Kumarasamy-Murugesan | Jung-Hoon-Kwag | Ramasundaram-Thangaraj | Natchimuthu-Karmegam | Arokiyaraj-Selvaraj | Jonathan-Wong-24 | Kwang-Hwa-Jeong-2034229599 | Won-Mo-Cho-2051256887 | Jung-Kon-Kim-2091616338 | M-Vasanthy-2092003022 | Ashraf-Atef-Hatamleh-2169233084 | Woo-Jin-Chung-2172691364 | Murugesan-Chandrasekaran-2195893819 | Ahmed-Alfarhan-2238130876 | M-Razia-35757831</t>
+        </is>
+      </c>
+      <c r="I56" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="J56" s="3" t="inlineStr">
+        <is>
+          <t>V.K. Garg | Mukesh Kumar Awasthi | Surindra Suthar | Sindhu Raveendran | Ramasundaram Thangaraj | Ajay S. Kalamdhad | Natchimuthu Karmegam | Jaswinder Singh | J. Arockia John Paul | Arokiyaraj Selvaraj | Satya Sundar Bhattacharya | Reshmy R. | Subbaiya Ramasamy | Anoop Yadav | Byong-Hun Jeon | Pearson N S Mnkeni | Sanjay P Govindwar | Binod Parameswaran | Maria Gómez-Brandón | Ganesan Sekaran | Hupenyu Allan Mupambwa | Yong Sik Ok | Zengqiang Zhang | Ashok Pandey | Silvia Maribel contreras-Ramos | Ronghua li | Steven Wainaina | Sartaj Ahmad Bhat | Adarsh Pal Vig | Jonathan Wong | Ammaiyappan Selvam | Ranjna Sirohi | Quan Wang | Sunita J. Varjani | Ananthanarayanan Yuvaraj | Surendra Sarsaiya | Shreyas Pansambal | Hongyu Chen | Suresh K. Ghotekar | Tao Liu | Karunai Selvi | Theerthagiri Jayaraman | Govarthanan Muthusamy | Muniyandi Biruntha | Xiuna Ren | Mariadhas Valan Arasu | Mohammad J. Taherzadeh | Soon-Woong Chang | Yumin Duan | Sunil Kumar</t>
+        </is>
+      </c>
+      <c r="K56" s="3" t="n">
+        <v>195</v>
+      </c>
+      <c r="L56" s="3" t="inlineStr">
+        <is>
+          <t>Seasonal influence on physicochemical properties of the sediments from Bay of Bengal coast with statistical approach | Article Impact of biomass recycling and fertilization on soil microbio-2 logical characteristics and wheat productivity in semi-arid envi-3 ronment | Biohydrogen production coupled with wastewater treatment using selected microalgae | Biohydrogen production coupled with wastewater treatment using selected microalgae | Phyto-mediated synthesis of zinc oxide nanoparticles using Clematis montana extract and evaluation of its antibacterial activity | Biomass degradation: Challenges and strategies in extraction and fractionation of hemicellulose | Simultaneous photocatalytic removal of organic dye and heavy metal from textile wastewater over N-doped TiO2 on reduced graphene oxide | Biohydrogen production coupled with wastewater treatment using selected microalgae from marine environment | Biochar-based compost: a bibliometric and visualization analysis | Impact of Biomass Recycling and Fertilization on Soil Microbiological Characteristics and Wheat Productivity in Semi-Arid Environment | Ixora coccinea L. - A reliable source of nanocellulose for bio-adsorbent applications | Exploration of Compost Soil for the Production of Thermo-Stable Bacillus Protease to Synthesize Bioactive Compounds through Soy Protein Hydrolysis | Impact of reactivity controlled compression ignition (RCCI) mode engine operation in diesel engine powered with B20 blend of waste cooking oil biodiesel | Bio-inspired synthesis of CdO nanoparticles using Citrus limetta peel extract and their diverse biomedical applications | Polyaromatic hydrocarbons (PAHs) in the water environment: A review on toxicity, microbial biodegradation, systematic biological advancements, and environmental fate | Health risk assessment of heavy metals in the seafood at Kalpakkam coast, Southeast Bay of Bengal | Critical Review of Biochemical Pathways to Transformation of Waste and Biomass into Bioenergy | A novel approach toward the bio-inspired synthesis of CuO nanoparticles for phenol degradation and antimicrobial applications | A Mini-Review on Syngas Fermentation to Bio-Alcohols: Current Status and Challenges | Special Issue "Nanotechnology-Driven Agricultural Innovations"- Agronomy | Xylopentose production from crop residue employing xylanase enzyme | Bacterial cell immobilized packed bed reactor for the elimination of dissolved organics from biologically treated post-tanning wastewater and its microbial community profile | Biochar as smart organic catalyst to regulate bacterial dynamics during food waste composting | Editorial: Vermiremediation in contaminated soils: An approach for soil stabilization | An alternative approach towards nitrification and bioremediation of wastewater from aquaponics using biofilm-based bioreactors: A review | Evaluation of Anti-Microbial Activity and In-Silico Docking and Adme Studies of Green Synthesised Copper Oxide Nanoparticle from Aegle Marmelos Leaf Extract | Effect of Biochar Amendments on the Co-Composting of Food Waste and Livestock Manure | The spatial distribution of physicochemical parameters in coastal sediments along the Bay of Bengal Coastal Zone with statistical analysis | Appraisal of groundwater chemistry, its suitability for crop productivity in Sonipat district and human health risk evaluation | CALL FOR PAPERS: Journal of Chemistry Special Issue on Chemical Contamination of Groundwater: Sources, Geochemical Mechanisms, Health Risks, and Remediation (Impact Factor : 3.241; Science Citation Index Expanded, Scopus, Web of Science, and many other databases) | Methodical study implicating the effectiveness of Microbial treatment over Xylanase Enzymatic treatment for Pulp Bio-bleaching | Valorization of spent mushroom substrate in combination with agro-residues to improve the nutrient and phytohormone contents of vermicompost | Quercetin functionalized hybrid electrospun nanofibers for wound dressing application | Design of 1,4-Dihydropyridine Hybrid Benzamide Derivatives: Synthesis and Evaluation of Analgesic Activity and Their Molecular Docking Studies | Pollutant removal from cheese processing effluent using effective indigenous natural scavengers | Impact of sublethal phenol in freshwater fish Labeo rohita on biochemical and haematological parameters | Bio-Inspired Synthesis of Carbon-Based Nanomaterials and Their Potential Environmental Applications: A State-of-the-Art Review | Synthesis of biodiesel from castor oil catalyzed by sodium hydroxide dispersed on bentonite | Identification and environment-friendly biocontrol potential of five different bacteria against Aphis punicae and Aphis illinoisensis (Hemiptera: Aphididae) | Environmental Evidence and Behaviour of Mercury Emissions, Biogeochemical Cycle, and Remediation in Earth Systems | Laccase-assisted degradation of emerging recalcitrant compounds- A review | Unraveling the Importance of Forest Structure and Composition Driving Soil Microbial and Enzymatic Responses in the Subtropical Forest Soils | Advances in Bioremediation of Emerging Contaminants from Industrial Wastewater by Oxidoreductase Enzymes | Highly sustainable cascade pretreatment of low-pressure steam heating and organic acid on pineapple waste biomass for efficient delignification | Nickel-modified sulfated zirconia catalyst: Synthesis and application for transforming waste cooking oil into biogasoline via a hydrocracking process | Juxtaposing the quality of compost and vermicompost produced from organic waste amended with cow dung | Call for Papers - Bioinorganic Chemistry and Applications Special Issue on Recent Developments in Bioinorganic Issues for Wastewater and Solid Waste Management | Enhanced biogas production from food waste and activated sludge using advanced techniques – A review | Environmental risk assessment of floating gardens in Inle Lake, Myanmar | Environmental and anthropogenic impact on conservation and sustainability of marine fish diversity | Utilization of natural polysaccharide from Tamarindus indica L. seeds for the effective reduction of pollutants in cheese processed wastewater | Effect of rice husk and palm tree-based biochar addition on the anaerobic digestion of food waste/sludge | Microbial biotechnology approaches for conversion of pineapple waste in to emerging source of healthy food for sustainable environment | Bioremediation by oil degrading marine bacteria: An overview of supplements and pathways in key processes | Efficacious Bioconversion of waste walnut shells to Xylotetrose and Xylopentose by free Xylanase (Xy) and MOF immobilized Xylanase (Xy-Cu-BTC) | Solanum pubescens Wild Fruits Essential Oil - A Golden Casket for its Antimicrobial and Anti-inflammatory Mediated Wound Healing Efficacy in Vertebrate Model Mus musculus | Calotropis gigantea Assisted Synthesis of Zinc Oxide Nanoparticle Catalysis: Synthesis of Novel 3-Amino Thymoquinone Connected 1,4-Dihyropyridine Derivatives and Their Cytotoxic Activity | Various Fertilization Managements Influence the Flowering Attributes, Yield Response, Biochemical Activity and Soil Nutrient Status of Chrysanthemum (Chrysanthemum morifolium Ramat.) | Recovery of Plant Nutrient through Agro-waste Management | sustainability-14-04561 | Environmental and Anthropogenic impact on Conservation and Sustainability of Marine Fish Diversity | Plant microbe based remediation approaches in dye removal: A review Plant microbe based remediation approaches in dye removal: A review | Biosurfactants: Potential and Eco-Friendly Material for Sustainable Agriculture and Environmental Safety—A Review | Risk assessment of potential toxicity induced by bio and synthetic plastic microspheres in Lates calcarifer | Impact of Nanomaterials on Waste Management: An Insight to the Modern Concept of Waste Abatement | Valorization of food waste and poultry manure through co-composting amending saw dust, biochar and mineral salts for value-added compost production | Nanoplastics enhance the toxic effects of titanium dioxide nanoparticle in freshwater algae Scenedesmus obliquus | Eco-Friendly Synthesis of Multishaped Crystalline Silver Nanoparticles Using Hill Garlic Extract and Their Potential Application as an Antifungal Agent | Structural and Optical Properties of CdSe/CdTe Core-Shell Quantum Dots | Co-composting of food waste and swine manure augmenting biochar and salts: Nutrient dynamics, gaseous emissions and microbial activity | Novel Chitosan Polymer Design, Synthesis Using Mentha piperita of ZnO NPs as a Catalyst: Antibacterial Evaluation against Gram-Negative Multidrug-Resistant Pathogens | Sublethal Effects of Arsenic on Oxygen Consumption, Hematological and Gill Histopathological Indices in Chanos chanos | Hexavalent chromium removal from aqueous solutions using biogenic iron nanoparticles: Kinetics and equilibrium study | Improved performance and microbial community dynamics in anaerobic fermentation of triticale silages at different stages | Potential health risk caused by heavy metal associated with seafood consumption around coastal area | Preparation and antibacterial application of hydroxyapatite doped Silver nanoparticles prepared using hydroxyapatite derived from chicken bone | Enhanced catalytic conversion of palm oil into biofuels by Cr-incorporated sulphated zirconia | Nanobiochar amended compost maturity evaluation using commercial vegetable crops seedlings through phytotoxicity germination bioassay | Application of wheat bran based biomaterials and nano-catalyst in textile wastewater | Inhibition of multi-drug resistant microbial pathogens using an eco-friendly root extract of Furcraea foetida mediated silver nanoparticles | Characterization of cheese processed wastewater and treatment using calcium nanoparticles synthesised by Senna auriculata L flower extract | Valorization of food waste and poultry manure through co-composting amending saw dust, biochar and mineral salts for value-added compost production | Assessment of seasonal variation in distribution and abundance of plankton and ichthyofaunal diversity in relation to environmental indices of Karankadu Mangrove, South East Coast of India | Isolation and characterisation of Streptomyces sp. Strain GLD25 with antimicrobial and antioxidant effects from Gueldaman cave (GLD1), Akbou-Algeria | Synthesis of Isatin Derivatives Using Silver Nanoparticles as Green Catalyst: Study of Molecular Docking Interactions in SARS-CoV-2 3c-Like Protease and Determination of Cytotoxic Activities of the Compounds | Greener production of compost from agricultural biomass residues amended with mule dung for agronomic application | Pharmakinetics studies, molecular docking and discovery of anti- proliferative agents and its targeting EGFR inhibitors | Defluoridation of water with a coagulant, Strychnos potatorum L. seed –agglutinin | Isolation and characterization of novel Streptomyces strain from Algeria and its in-vitro antimicrobial properties against microbial pathogens | Statistical optimization of silver nanoparticle synthesis by green tea extract and its efficacy on colorimetric detection of mercury from industrial waste water | Effective removal of pharmaceutical impurities and nutrients using biocatalyst from the municipal wastewater with moving bed packed reactor | Biofilm producing indigenous bacteria isolated from municipal sludge and their nutrient removal ability in moving bed biofilm reactor from the wastewater | Synthesis and characterization of magnetite carbon nanocomposite from agro waste as chromium adsorbent for effluent treatment | Effect of biochar amendment on compost quality, gaseous emissions and pathogen reduction during in-vessel composting of chicken manure | In-Vitro disintegration and dissolution of facile synthesised vegetable capsule films from Abelmoscus esculentus and Gracilaria corticata polysaccharides | Comparison of characteristics and biocompatibility of green synthesized iron oxide nanoparticles with chemical synthesized nanoparticles | Anaerobic digestion of food waste with the addition of conductive material | Sunlight-driven rapid and facile synthesis of Silver nanoparticles using Allium ampeloprasum extract with enhanced antioxidant and antifungal activity | The efficiency of potential food waste‐degrading bacteria under harsh conditions | Banner 3</t>
+        </is>
+      </c>
+      <c r="M56" s="3" t="inlineStr">
+        <is>
+          <t>Biotechnology | Microbiology | Energy | Environment | Water Treatment | Water and Wastewater Treatment | Environmental Impact Assessment | Water Quality | Wastewater Treatment | Wastewater Engineering</t>
+        </is>
+      </c>
+    </row>
+    <row r="57" ht="80" customHeight="1" s="4">
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Ramamoorthy Ayyamperumal</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Ramamoorthy-Ayyamperumal</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Lanzhou University</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>9582</v>
+      </c>
+      <c r="F57" t="n">
+        <v>245</v>
+      </c>
+      <c r="G57" t="n">
+        <v>50</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Selvam-s | Karthick-Velu | Venkatramanan-Senapathi | Ramesh-Patel | Muthukumaravel-Kannayiram | Seshachalam-Srinivasalu | Ravindran-Balasubramani-2 | Rajinikanth-Rajagopal | Thirunavukkarasu-Ramkumar | Sm-Tauseef | Chidambaram-Sabarathinam | Deog-Hwan-Oh | Mohamed-S-B | Ahmad-Sana | Fengjie-Li-4 | Dr-M-Saiyad-Musthafa | Prof-Kantha-Arunachalam | Shankar-Karuppannan | Prerna-Gahlaut | Pandion-Kumar | Shengli-Yang-3 | Soon-Woong-Chang | Monica-Chakraborty-3 | Nusrat-Nazir | Yu-Xin-Fan | Javed-Akhtar-11 | Rajkumar-Perumal-2 | Xiaozhong-Huang-2 | Zaijun-Li-2 | Barathi-Kannan-2 | Xuemei-Chen-8 | Natchimuthu-Karmegam | Manikandabharath-K-R | Gajendran-C | Usha-Natesan | Amitava-Mukherjee-2 | Ramasamy-Sooriamuthu-2 | Li-Baofeng-2 | Gnanachandrasamy-Gopalakrishnan | Zhang-Chengjun-2022034980 | Rajakrishnan-Rajagopal-2166895648 | Murugesan-Chandrasekaran-2195893819 | Parmeswari-Kaliyaperumal-2200100782 | Humayun-Sarkar-2200167028 | Soon-Wang-Chang-2207389516 | Ekambaran-Gayathiri-2219132981 | Francisca-Kalavathi-2219152110 | Yang-Liu-2230727991 | Ahmed-Alfarhan-2238130876 | Chuleemas-Boonthai-Iwai-2247824000</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
+        <v>50</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>Zhengtang Guo | Shankar Karuppannan | Elango Lakshmanan | Krishnaraj Srinivasmoorthy | Gnanachandrasamy Gopalakrishnan | Selvam .S | Venkatramanan Senapathi | Ramesh Patel | Xinbin Feng | Chidambaram Sabarathinam | Hongliang Zhang | Fahu Chen | Zicheng Yu | Biswajeet Pradhan | Zhonghui Liu | Huayu Lu | Jan Bloemendal | M.V Prasanna | Jianhui Chen | Jiawu Zhang | Yan Zhao | Jianbao Liu | Cheng-Bang An | Mingrui Qiang | Sandeep Gupta | Aifeng Zhou | Jérôme Lavé | Dr. Juan Pedro Rodríguez-López | Jule Xiao | Jean-Philippe Avouac | Bodo Bookhagen | Xiaozhong Huang | Huahong Shi | Xin Wang | Zaijun Li | N. Chandrasekar | Huanye Wang | Bin Luo | Manfred R Strecker | Shengrui Zhang | Xuewu Fu | Mahesh Perugu | Li Baofeng | Indra Prakash | Donghuai Sun | Jean-Louis Mugnier | Fei Wang | Steven Wesnousky | Sri Harsha Kota | Zhisheng An</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>40</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>Call for papers: Environmental fate of contaminants and effects on soil, water, and sediments: Records of prehistoric environmental conditions and human activities | Early Cretaceous (late Barremian−Early Albian) expanding aeolian activity in East Asia: Evidence from the stratigraphic evolution of aeolian deposition in the Baiyin-Jingyuan Basin, northern China | Influence of water vapor sorption of NaCl-Na2SO4-containing mural earthen plaster and preliminary deterioration analysis | Combined tactic of seasonal changes and ionic processes of groundwater in Tamirabarani river basin, India | The Impacts of Land Use Spatial Form Changes on Carbon Emissions in Qinghai-Tibet Plateau from 2000 to 2020: A Case Study of the Lhasa Metropolitan Area | Pollution characteristics and Groundwater ion source analysis of the last 20 years in a semi-arid region of northwest China | Human impacts and Anthropocene characters in a Holocene background recorded by Multiple proxies from the Lake sediments | Investigation of microplastic contamination in the sediments of Noyyal River-Southern India | Hydrochemical characteristics and paleoclimate changes recorded from Sugan Lake on the northern boundary of Tibetan Plateau since mid-Holocene | Enhanced drying of the Tengger desert, northwest margin of East Asian summer monsoon during warming interglacials after 500 ka | Environmental Evidence and Behaviour of Mercury Emissions, Biogeochemical Cycle, and Remediation in Earth Systems | Pollution, sources, and human health risk assessment of heavy metals in urban areas around industrialization and urbanization-Northwest China | Evaluation of hydrophilicity and moisture adsorption characteristics of inorganic mineral pigments to sustain ancient paintings | Antibacterial Efficacy of Phytosynthesized Multi-Metal Oxide Nanoparticles against Drug-Resistant Foodborne Pathogens | Environmental and anthropogenic impact on conservation and sustainability of marine fish diversity | Effects of human activities on mountain forest in northern China during the middle Holocene | A comprehensive review on zircon ( U–Pb ) geochronology, geochemistry and geological significance of granite rocks, provenance, tectonic implications, exhumation history, current status, and perspectives | Environmental and Anthropogenic impact on Conservation and Sustainability of Marine Fish Diversity | Risk assessment of potential toxicity induced by bio and synthetic plastic microspheres in Lates calcarifer | Environmental Science and Pollution Research Evaluating the groundwater potential of Wadi Al-Jizi, Sultanate of Oman, by integrating remote sensing and GIS techniques | Isotopic signatures, hydrochemical and multivariate statistical analysis of seawater intrusion in the coastal aquifers of Chennai and Tiruvallur District, Tamil Nadu, India | GIS and remote sensing based NRCS-CN runoff modeling techniques in coastal Cauvery deltaic region, India | Assessment of Recent Tectonic Activity along the Yamuna Basin, Garhwal Region | Potential health risk caused by heavy metal associated with seafood consumption around coastal area | Assessment of seasonal variation in distribution and abundance of plankton and ichthyofaunal diversity in relation to environmental indices of Karankadu Mangrove, South East Coast of India | GIS-based landslide susceptibility mapping method and Shannon entropy model: a case study on Sakaleshapur Taluk, Western Ghats, Karnataka, India | Characteristics of atmospheric total gaseous mercury concentrations (TGM) and meteorological parameters observed in Chennai metropolis, South India | Evaluating The Groundwater Potential of Wadi Al-Jizi, Sultanate of Oman By Intergrating Remote Sensing &amp; GIS Techniques | Site Suitability analysis for artificial groundwater recharge potential zone using a GIS approach in Basaltic terrain, Buldhana District, Maharashtra, India | Microplastics as an emerging threat to the freshwater ecosystems of Veeranam lake in south India: A multidimensional approach Chemosphere | Diffusion, textural characteristics, and source identification of the heavy metals in the Karankadu mangrove sediments, South India | Micropalaeontological and Geochemical Evidence of the Late Jurassic Radiolarians Cherts of Naga Ophiolite Hill, Nagaland, Northeast-India | Assessment of Recent Tectonic Activity along the Yamuna Basin, Garhwal Region, NW-Himalaya, India: Based on Morphotectonic Analysis | Air pollution improvement and mortality rate during COVID-19 pandemic in India: global intersectional study | Air pollution improvement and mortality rate during COVID-19 pandemic in India: global intersectional study | Air pollution improvement and mortality rate during COVID-19 pandemic in India: global intersectional study | INDO-BURMESE COLLISION OCCURRED AT EOCENE EVIDENCE FROM THE DETRITAL FISSION TRACK THERMOCHRONOLOGY OF NORTHEAST INDIA | Provenance, Tectonic Settings And Weathering Of Gondwana Sediments, Lingaraj Area, Talchir, Odisha, India - Insights From Petrography, Heavy Minerals, X Ray Diffraction And Geochemistry | PETROGRAPHY AND HEAVY MINERAL ANALYSIS OF BARAIL SANDSTONES, ZUBZA VILLAGE, KOHIMA DISTRICT, NAGALAND INDIA | Petrography and Provenance of Surface Barail Sandstones, Kohima, Nagaland, India</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>Sedimentology | Sedimentary Basins | Sequence Stratigraphy | Geological Mapping | Stratigraphy | Geological Processes | Field Geology | Isotope Geochemistry | Geochemistry | Geology</t>
         </is>
       </c>
     </row>

--- a/profile_data.xlsx
+++ b/profile_data.xlsx
@@ -186,7 +186,7 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -226,7 +226,7 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -266,7 +266,7 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -306,7 +306,7 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -346,7 +346,7 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId41"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -386,7 +386,7 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId42"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -426,7 +426,7 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId43"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -466,7 +466,7 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId44"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -506,7 +506,7 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId45"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -546,7 +546,7 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId46"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -586,7 +586,7 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId41"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId47"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -626,7 +626,7 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId42"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId48"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -666,7 +666,7 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId43"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId49"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -706,7 +706,7 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId44"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId50"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -746,7 +746,7 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId45"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId51"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -786,7 +786,7 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId46"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId52"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -826,7 +826,7 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId47"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId53"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -866,7 +866,7 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId48"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId54"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -906,7 +906,7 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId49"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId55"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -946,7 +946,7 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId50"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId56"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -986,7 +986,7 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId51"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId57"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -1026,7 +1026,7 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId52"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId58"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -1066,7 +1066,7 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId53"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId59"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -1106,7 +1106,7 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId54"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId60"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -1146,7 +1146,7 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId55"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId61"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -2021,7 +2021,175 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId56"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId31"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>57</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="57" name="Image 57" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId32"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>58</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="58" name="Image 58" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId33"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>59</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="59" name="Image 59" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId34"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>60</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="60" name="Image 60" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId35"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>61</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="61" name="Image 61" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId36"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>62</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="62" name="Image 62" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId62"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -2324,7 +2492,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:M57"/>
+  <dimension ref="A1:M63"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A14" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
@@ -5199,54 +5367,346 @@
       </c>
     </row>
     <row r="57" ht="80" customHeight="1" s="4">
-      <c r="B57" t="inlineStr">
+      <c r="B57" s="3" t="inlineStr">
         <is>
           <t>Ramamoorthy Ayyamperumal</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="C57" s="3" t="inlineStr">
         <is>
           <t>Ramamoorthy-Ayyamperumal</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="D57" s="3" t="inlineStr">
         <is>
           <t>Lanzhou University</t>
         </is>
       </c>
-      <c r="E57" t="n">
+      <c r="E57" s="3" t="n">
         <v>9582</v>
       </c>
-      <c r="F57" t="n">
+      <c r="F57" s="3" t="n">
         <v>245</v>
       </c>
-      <c r="G57" t="n">
-        <v>50</v>
-      </c>
-      <c r="H57" t="inlineStr">
+      <c r="G57" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="H57" s="3" t="inlineStr">
         <is>
           <t>Selvam-s | Karthick-Velu | Venkatramanan-Senapathi | Ramesh-Patel | Muthukumaravel-Kannayiram | Seshachalam-Srinivasalu | Ravindran-Balasubramani-2 | Rajinikanth-Rajagopal | Thirunavukkarasu-Ramkumar | Sm-Tauseef | Chidambaram-Sabarathinam | Deog-Hwan-Oh | Mohamed-S-B | Ahmad-Sana | Fengjie-Li-4 | Dr-M-Saiyad-Musthafa | Prof-Kantha-Arunachalam | Shankar-Karuppannan | Prerna-Gahlaut | Pandion-Kumar | Shengli-Yang-3 | Soon-Woong-Chang | Monica-Chakraborty-3 | Nusrat-Nazir | Yu-Xin-Fan | Javed-Akhtar-11 | Rajkumar-Perumal-2 | Xiaozhong-Huang-2 | Zaijun-Li-2 | Barathi-Kannan-2 | Xuemei-Chen-8 | Natchimuthu-Karmegam | Manikandabharath-K-R | Gajendran-C | Usha-Natesan | Amitava-Mukherjee-2 | Ramasamy-Sooriamuthu-2 | Li-Baofeng-2 | Gnanachandrasamy-Gopalakrishnan | Zhang-Chengjun-2022034980 | Rajakrishnan-Rajagopal-2166895648 | Murugesan-Chandrasekaran-2195893819 | Parmeswari-Kaliyaperumal-2200100782 | Humayun-Sarkar-2200167028 | Soon-Wang-Chang-2207389516 | Ekambaran-Gayathiri-2219132981 | Francisca-Kalavathi-2219152110 | Yang-Liu-2230727991 | Ahmed-Alfarhan-2238130876 | Chuleemas-Boonthai-Iwai-2247824000</t>
         </is>
       </c>
-      <c r="I57" t="n">
-        <v>50</v>
-      </c>
-      <c r="J57" t="inlineStr">
+      <c r="I57" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="J57" s="3" t="inlineStr">
         <is>
           <t>Zhengtang Guo | Shankar Karuppannan | Elango Lakshmanan | Krishnaraj Srinivasmoorthy | Gnanachandrasamy Gopalakrishnan | Selvam .S | Venkatramanan Senapathi | Ramesh Patel | Xinbin Feng | Chidambaram Sabarathinam | Hongliang Zhang | Fahu Chen | Zicheng Yu | Biswajeet Pradhan | Zhonghui Liu | Huayu Lu | Jan Bloemendal | M.V Prasanna | Jianhui Chen | Jiawu Zhang | Yan Zhao | Jianbao Liu | Cheng-Bang An | Mingrui Qiang | Sandeep Gupta | Aifeng Zhou | Jérôme Lavé | Dr. Juan Pedro Rodríguez-López | Jule Xiao | Jean-Philippe Avouac | Bodo Bookhagen | Xiaozhong Huang | Huahong Shi | Xin Wang | Zaijun Li | N. Chandrasekar | Huanye Wang | Bin Luo | Manfred R Strecker | Shengrui Zhang | Xuewu Fu | Mahesh Perugu | Li Baofeng | Indra Prakash | Donghuai Sun | Jean-Louis Mugnier | Fei Wang | Steven Wesnousky | Sri Harsha Kota | Zhisheng An</t>
         </is>
       </c>
-      <c r="K57" t="n">
+      <c r="K57" s="3" t="n">
         <v>40</v>
       </c>
-      <c r="L57" t="inlineStr">
+      <c r="L57" s="3" t="inlineStr">
         <is>
           <t>Call for papers: Environmental fate of contaminants and effects on soil, water, and sediments: Records of prehistoric environmental conditions and human activities | Early Cretaceous (late Barremian−Early Albian) expanding aeolian activity in East Asia: Evidence from the stratigraphic evolution of aeolian deposition in the Baiyin-Jingyuan Basin, northern China | Influence of water vapor sorption of NaCl-Na2SO4-containing mural earthen plaster and preliminary deterioration analysis | Combined tactic of seasonal changes and ionic processes of groundwater in Tamirabarani river basin, India | The Impacts of Land Use Spatial Form Changes on Carbon Emissions in Qinghai-Tibet Plateau from 2000 to 2020: A Case Study of the Lhasa Metropolitan Area | Pollution characteristics and Groundwater ion source analysis of the last 20 years in a semi-arid region of northwest China | Human impacts and Anthropocene characters in a Holocene background recorded by Multiple proxies from the Lake sediments | Investigation of microplastic contamination in the sediments of Noyyal River-Southern India | Hydrochemical characteristics and paleoclimate changes recorded from Sugan Lake on the northern boundary of Tibetan Plateau since mid-Holocene | Enhanced drying of the Tengger desert, northwest margin of East Asian summer monsoon during warming interglacials after 500 ka | Environmental Evidence and Behaviour of Mercury Emissions, Biogeochemical Cycle, and Remediation in Earth Systems | Pollution, sources, and human health risk assessment of heavy metals in urban areas around industrialization and urbanization-Northwest China | Evaluation of hydrophilicity and moisture adsorption characteristics of inorganic mineral pigments to sustain ancient paintings | Antibacterial Efficacy of Phytosynthesized Multi-Metal Oxide Nanoparticles against Drug-Resistant Foodborne Pathogens | Environmental and anthropogenic impact on conservation and sustainability of marine fish diversity | Effects of human activities on mountain forest in northern China during the middle Holocene | A comprehensive review on zircon ( U–Pb ) geochronology, geochemistry and geological significance of granite rocks, provenance, tectonic implications, exhumation history, current status, and perspectives | Environmental and Anthropogenic impact on Conservation and Sustainability of Marine Fish Diversity | Risk assessment of potential toxicity induced by bio and synthetic plastic microspheres in Lates calcarifer | Environmental Science and Pollution Research Evaluating the groundwater potential of Wadi Al-Jizi, Sultanate of Oman, by integrating remote sensing and GIS techniques | Isotopic signatures, hydrochemical and multivariate statistical analysis of seawater intrusion in the coastal aquifers of Chennai and Tiruvallur District, Tamil Nadu, India | GIS and remote sensing based NRCS-CN runoff modeling techniques in coastal Cauvery deltaic region, India | Assessment of Recent Tectonic Activity along the Yamuna Basin, Garhwal Region | Potential health risk caused by heavy metal associated with seafood consumption around coastal area | Assessment of seasonal variation in distribution and abundance of plankton and ichthyofaunal diversity in relation to environmental indices of Karankadu Mangrove, South East Coast of India | GIS-based landslide susceptibility mapping method and Shannon entropy model: a case study on Sakaleshapur Taluk, Western Ghats, Karnataka, India | Characteristics of atmospheric total gaseous mercury concentrations (TGM) and meteorological parameters observed in Chennai metropolis, South India | Evaluating The Groundwater Potential of Wadi Al-Jizi, Sultanate of Oman By Intergrating Remote Sensing &amp; GIS Techniques | Site Suitability analysis for artificial groundwater recharge potential zone using a GIS approach in Basaltic terrain, Buldhana District, Maharashtra, India | Microplastics as an emerging threat to the freshwater ecosystems of Veeranam lake in south India: A multidimensional approach Chemosphere | Diffusion, textural characteristics, and source identification of the heavy metals in the Karankadu mangrove sediments, South India | Micropalaeontological and Geochemical Evidence of the Late Jurassic Radiolarians Cherts of Naga Ophiolite Hill, Nagaland, Northeast-India | Assessment of Recent Tectonic Activity along the Yamuna Basin, Garhwal Region, NW-Himalaya, India: Based on Morphotectonic Analysis | Air pollution improvement and mortality rate during COVID-19 pandemic in India: global intersectional study | Air pollution improvement and mortality rate during COVID-19 pandemic in India: global intersectional study | Air pollution improvement and mortality rate during COVID-19 pandemic in India: global intersectional study | INDO-BURMESE COLLISION OCCURRED AT EOCENE EVIDENCE FROM THE DETRITAL FISSION TRACK THERMOCHRONOLOGY OF NORTHEAST INDIA | Provenance, Tectonic Settings And Weathering Of Gondwana Sediments, Lingaraj Area, Talchir, Odisha, India - Insights From Petrography, Heavy Minerals, X Ray Diffraction And Geochemistry | PETROGRAPHY AND HEAVY MINERAL ANALYSIS OF BARAIL SANDSTONES, ZUBZA VILLAGE, KOHIMA DISTRICT, NAGALAND INDIA | Petrography and Provenance of Surface Barail Sandstones, Kohima, Nagaland, India</t>
         </is>
       </c>
-      <c r="M57" t="inlineStr">
+      <c r="M57" s="3" t="inlineStr">
         <is>
           <t>Sedimentology | Sedimentary Basins | Sequence Stratigraphy | Geological Mapping | Stratigraphy | Geological Processes | Field Geology | Isotope Geochemistry | Geochemistry | Geology</t>
+        </is>
+      </c>
+    </row>
+    <row r="58" ht="80" customHeight="1" s="4">
+      <c r="B58" s="3" t="inlineStr">
+        <is>
+          <t>Monica C Robotin</t>
+        </is>
+      </c>
+      <c r="C58" s="3" t="inlineStr">
+        <is>
+          <t>Monica-Robotin</t>
+        </is>
+      </c>
+      <c r="D58" s="3" t="inlineStr">
+        <is>
+          <t>The University of Sydney</t>
+        </is>
+      </c>
+      <c r="E58" s="3" t="n">
+        <v>3394</v>
+      </c>
+      <c r="F58" s="3" t="n">
+        <v>1161</v>
+      </c>
+      <c r="G58" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="H58" s="3" t="inlineStr">
+        <is>
+          <t>Guy-Mazmanian | Megan-Smith-76 | Miguel-Uva | Sandra-Jones-11 | Steven-Tipper | Rajah-Supramaniam | Miriam-Levy-2 | Freddy-Sitas | Louiza-Velentzis | David-Smith-242 | Marianne-Weber | Helen-Gooden | Ian-Olver | Carolyn-Nickson | Francois-Lacour-Gayet-2 | Jenean-Spencer | Regine-Roussin-2 | Carla-Saunders-2 | Clare-Kahn | John-Bourke-11 | Katie-Armstrong-6 | Melanie-Kansil | Xue-Qin-Yu-2 | Eleonora-Feletto-2 | Kirsten-Howard-2 | John-Kaldor | Mamta-Porwal | Jacob-George-14574207 | Yumi-Patton-2003096058 | David-C-Johnson-2010401072 | Alison-Gibberd-2021502002 | Alex-SB-Yip-2035032833 | J-George-2068585381 | Yaping-Liu-2101050774 | Ying-Zhao-2101057936 | Barbara-I-Dewsnap-2202592032 | Helene-Detruit-3696427 | Karen-Canfell-38276502 | Gregory-J-Dore-38743062 | Alain-Serraf-38979382 | Andrew-Penman-39120806 | C-Planche-39344944 | John-B-Uther-39684722 | David-L-Ross-39749594 | Dianne-OConnell-43690828 | J-Bruniaux-45629795 | Mark-A-McGuire-47328761 | Nicolas-Bonnet-65862953 | May-Chiew-73735401 | Cath-Holliday-84420111</t>
+        </is>
+      </c>
+      <c r="I58" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="J58" s="3" t="inlineStr">
+        <is>
+          <t>Brian Mcmahon | Yun-Fan Liaw | Steven P Tipper | Chris Bullen | Miriam T Levy | Freddy Sitas | David Smith | Mireille J M Broeders | Alan Robert Denniss | Phyllis N Butow | Douglas Dieterich | Carolyn Nickson | Guan-Tarn Huang | Jun Su | Mehlika Toy | Janaki Amin | Grace X Ma | James L Cox | Ellen Chang | Eugene R Schiff | Pamela S Hinds | Jami S Gattuso | Daniel Lavanchy | Man-Fung Yuen | David B Rein | Richard Guan | Sue Moss | Harry J de Koning | Robert de Man | Melanie Kansil | Leanne Monterosso | Emily Banks | Xue Qin Yu | Elizabeth Tracey | Robert G Gish | Kirsten Howard | David M Roder | Irene Veldhuijzen | Nancy W Y Leung | Jan Hendrik Richardus | Hwai-I Yang | John Kaldor | Hans Lilja | Eugenio Paci | Freddie Bray | Stuart Roberts | Melvin Scheinman | Lisa Anne Walters | Bin Jalaludin | Paul Martin</t>
+        </is>
+      </c>
+      <c r="K58" s="3" t="n">
+        <v>55</v>
+      </c>
+      <c r="L58" s="3" t="inlineStr">
+        <is>
+          <t>Community-Based Strategies to Improve Screening, Diagnosis and Linkage to Care for Patients with Chronic Hepatitis B | Using a chronic hepatitis B Registry to support population-level liver cancer prevention in Sydney, Australia | Using consensus methods to develop a country-specific Master of Public Health curriculum for the Republic of Maldives | Listening to the consumer voice: Developing multilingual cancer information resources for people affected by liver cancer | RISING CANCER INCIDENCE AND REDUCTIONS IN MORTALITY IN AUSTRALIA FROM 1987-2007 | CAN MEDIA COVERAGE INFLUENCE RESEARCH ARTICLE CITATIONS? | Community-based hepatitis B screening: what works? | Clinical Oncology Society of Australia position statement on the use of complementary and alternative medicine by cancer patients | Community-based prevention of hepatitis-B-related liver cancer: Australian insights | HOW IS CANCER RESEARCH REPORTED BY THE CANCER COUNCIL'S CANCER DAILY NEWS | CHANGES IN CANCER MORTALITY AND INCIDENCE IN AUSTRALIA 1987-2007 | Cancer incidence and mortality in people aged less than 75 years: Changes in Australia over the period 1987–2007 | Getting it right:The impact of a continuing medical education program on hepatitis B knowledge of Australian primary care providers | Cost of treating chronic hepatitis B: Comparison of current treatment guidelines | Defining research priorities in complementary medicine in oncology | Randomised controlled trials in the primary treatment of hepatocellular carcinoma | BACK MATTER | Hepatitis B prevention and control: Lessons from the East and the West | Enquiring about cancer patients' use of complementary and alternative medicines: Is our job done? | The Delphi process: A solution for reviewing novel grant applications | Additional file 2 | Additional file 1 | Additional file 3 | Additional file 4 | Additional file 5 | Using a population-based approach to prevent hepatocellular cancer in New South Wales, Australia: Effects on health services utilisation | Defining research priorities for pancreatic cancer in Australia: Results of a consensus development process | 716 MOVING FROM PATIENT TO POPULATION-LEVEL HEPATITIS B MANAGEMENT IN AUSTRALIA | As the bell tolls: A foundation study on pancreatic cancer consumer's research priorities | Epidemiology of primary liver cancer | Antiviral therapy for hepatitis B-related liver cancer prevention is more cost-effective than cancer | By invitation only - The case for breast cancer screening reminders for women over 69 years | Modeling population-based chronic hepatitis B screening and treatment to prevent cirrhosis and liver cancer among high risk populations in Australia | Successful lung transplantation for adolescents at a hospital for adults | Preventing primary liver cancer: How well are we faring towards a national hepatitis B strategy? | Future cancer trends to be influenced by past and future migration | Integrating Complementary Therapies into mainstream Cancer care: which way forward? | Clinical features and predictors of survival of AIDS-related non-Hodgkin's lymphoma in a population-based case series in Sydney, Australia | Surveillance for newly acquired hepatitis C in Australia | Evaluation of the Australian CJD surveillance system | Outcomes from the first two years of the Australian hepatitis C surveillance strategy | Vascular Endothelium Viability and Function after Total Cardiopulmonary Bypass in Neonatal Piglets | An experimental model of small intestinal submucosa as a growing vascular graft | Alteration of the neonatal pulmonary physiology after total cardiopulmonary bypass | Prevention of Unbalanced Lung Perfusion and Atrial Arrhythmias After the Lateral Tunnel Operation | Repair of interrupted aortic arch: A ten-year experience | Unusual forms of tracheobronchial compression in infants with congenital heart disease | Heart transplantation for chyloptysis after Fontan operation | Surgical procedure for the cure of atrioventricular junctional (“AV node”) reentrant tachycardia: Anatomic and electrophysiologic effects of dissection of the anterior atrionodal connections in a canine model | Electrophysiologic and histologic effects of dissection of the connections between the atrium and posterior part of the atrioventricular node | High resolution mapping of Koch's triangle using sixty electrodes in humans with atrioventricular junctional (AV nodal) reentrant tachycardia | Dimensions of the triangle of Koch in humans | Ascending aortic aneurysms associated with aortic valve regurgitation: St Vincent's Hospital's experience | Serum bilirubin after surgery for obstructive jaundice | HighResolution Mapping ofKoch's Triangle UsingSixtElectrodes inHumansWith Atrioventricular Junctional (AVNodal) Reentrant Tachycardia</t>
+        </is>
+      </c>
+      <c r="M58" s="3" t="inlineStr">
+        <is>
+          <t>Epidemiology | Liver Cancer | Cardiothoracic Surgery | Hepatitis | Viral Hepatitis | Hepatocellular Carcinoma | Clinical Assessment | Knowledge Translation | Quantitative Analysis | Research Administration</t>
+        </is>
+      </c>
+    </row>
+    <row r="59" ht="80" customHeight="1" s="4">
+      <c r="B59" s="3" t="inlineStr">
+        <is>
+          <t>Guy Mazmanian</t>
+        </is>
+      </c>
+      <c r="C59" s="3" t="inlineStr">
+        <is>
+          <t>Guy-Mazmanian</t>
+        </is>
+      </c>
+      <c r="E59" s="3" t="n">
+        <v>1036</v>
+      </c>
+      <c r="F59" s="3" t="n">
+        <v>1227</v>
+      </c>
+      <c r="G59" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="H59" s="3" t="inlineStr">
+        <is>
+          <t>Pasqua-Herve | Philippe-De-Mazancourt | Elie-Fadel | Patrice-Dervanian | Kirkiacharian-Serge | Myriam-Wartski-2 | Ludovic-Drouet | Monica-Robotin | Saadia-Eddahibi | Sacha-Mussot | Vincent-Thomas-De-Montpreville | Xavier-Norel | Jean-Jacques-Mercadier | Michel-Bonneau-2 | Carlos-Labat | Magnus-Baeck | Emile-Bacha | Virginie-Lambert | Charles-Brink | Soly-Fattal | Robert-Rieben-2 | Franck-Joucher-2 | R-P-Michel-2039409942 | P-Dartevelle-2068218700 | Philippe-Herve-2072290835 | S-Murakami-2084945632 | Michele-Fattal-2120965046 | Florence-Guiard-2167088709 | Elisabeth-M-Dulmet-2206640566 | A-Chapelier-36200740 | Helene-Detruit-3696427 | Michele-German-Fattal-38215263 | Paolo-Macchiarini-38364850 | Alain-Chapelier-38478293 | Laurence-Walch-38897810 | Alain-Serraf-38979382 | M-Fattal-39115386 | C-Planche-39344944 | Bruno-Baudet-39451168 | B-Lenot-39507456 | Philippe-Dartevelle-39534510 | R-Molimard-39936787 | E-Dulmet-39954234 | J-M-Libert-55075934 | A-MONSAINGEON-60363517 | M-WEISS-65833205 | Nicolas-Bonnet-65862953 | Shinya-Murakami-67418914 | Florence-Mathonnet-6965112 | Hassan-Sellak-9742572</t>
+        </is>
+      </c>
+      <c r="I59" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="J59" s="3" t="inlineStr">
+        <is>
+          <t>Patricia Lemarchand | Charles Marc Samama | Ludovic Drouet | John H Dark | Daniel Neil Granger | Vincent Thomas de Montpréville | Xavier Norel | Johnson Haynes | Christopher G A Mcgregor | Peter Fedullo | Stuart W Jamieson | Carlos Labat | Trygve Sjöberg | Emile Bacha | Jacob Rand | Martin A Nørgaard | Henri Bismuth | Alec Patterson | Andrea Maria D'Armini | Bruce A Freeman | Thomas M Egan | Charles Brink | David J G White | Robert L Reddick | Akira Matsumura | Yoshifumi Naka | Rosemary Kraemer | François Parquin | Robert Rieben | Shu Fang Liu | Guy M Mazmanian | Kevin Mullane | Steven H Abman | John Wallwork | Fred W Cheney | Michael Horgan | Asrar Malik | Peter J Barnes | Teta Hakim | Agustin Dalmasso | Pasqua Hervé | Michael L. Jones | Philippe de Mazancourt | Elie Fadel | Francisca Neethling | Thierry Ragot | Bernhard Lämmle | Robert Michler | Shaf Keshavjee | Tim Higenbottam</t>
+        </is>
+      </c>
+      <c r="K59" s="3" t="n">
+        <v>48</v>
+      </c>
+      <c r="L59" s="3" t="inlineStr">
+        <is>
+          <t>Inhaled nitric oxide does not prevent postpneumonectomy pulmonary edema in pigs | Role of E-selectin in Cell Apoptosis Induced by Allogeneic Blood Perfusion in Isolated Mouse Lung | E-Selectin Early Overexpression Induced by Allogeneic Activation in Isolated Mouse Lung | Heterotopic en bloc tracheobronchial transplantation with direct revascularization in pigs | Regression of postobstructive vasculopathy after revascularization of chronically obstructed pulmonary artery | Induction of pulmonary angiogenesis by adenoviral-mediated gene transfer of vascular endothelial growth factor | Fibrinogen Poissy II (γN361K): a novel dysfibrinogenemia associated with defective polymerization and peptide B release | Adenovirus-mediated gene transfer to the transplanted piglet heart after intracoronary injection | Endothelial cell early activation induced by allogeneic lymphocytes in isolated perfused mouse lung | Fibrinogen Saint-Germain I: A case of the heterozygous Aα GLY 12 → VAL fibrinogen variant | Modulation of vascular tone and reactivity by nitric oxide in porcine pulmonary arteries and veins | Low molecular weight dextran sulfate prevents complement activation and delays hyperacute rejection in pig‐to‐human xenotransplantation models | Changes in venous return parameters associated with univentricular Fontan circulations | Endothelial Nitric Oxide Synthase Function in Pig Lung after Chronic Pulmonary Artery Obstruction | Antagonist resistant contractions of the porcine pulmonary artery by cysteinyl-leukotrienes | Left Ventricular Alterations in a Model of Fetal Left Ventricular Overload | In Vivo Regulation of von Willebrand Factor Synthesis von Willebrand Factor Production in Endothelial Cells After Lung Transplantation Between Normal Pigs and von Willebrand Factor–Deficient Pigs | Vascular Endothelium Viability and Function after Total Cardiopulmonary Bypass in Neonatal Piglets | Lung Reperfusion Injury after Chronic or Acute Unilateral Pulmonary Artery Occlusion | Ex vivo lung model of pig-to-human hyperacute xenograft rejection | Effects of various timings and concentrations of inhaled nitric oxide in lung ischemia-reperfusion | Inhaled nitric oxide attenuates reperfusion injury in non-heartbeating-donor lung transplantation. Paris-Sud University Lung Transplantation Group | Inhaled nitric oxide and pentoxifylline in rat lung transplantation from non-heart-beating donors. The Paris-Sud University Lung Transplantation Group | Inhaled nitric oxide attenuates reperfusion injury in non-heartbeating-donor lung transplantation | Prevention of ischemia-reperfusion lung injury by sulfated Lewis(a) pentasaccharide. The Paris-Sud University Lung Transplantation Group | Inhaled nitric oxide and pentoxifylline in rat lung transplantation from non-heart-beating donors | Tracheal growth after slide tracheoplasty | Cholinesterase activity in pig airways and epithelial cells | Prevention of reperfusion injury by inhaled nitric oxide in lungs harvested from non-heart-beating donors. Paris-Sud University Lung Transplantation Group | Prevention of Reperfusion Injury by Inhaled Nitric Oxide in Lungs Harvested From Non-Heart-Beating Donors | Lasting beneficial effect of short-term inhaled nitric oxide on graft function after lung transplantation. Paris-Sud University Lung Transplantation Group | Lasting beneficial effect of short-term inhaled nitric oxide on graft function after lung transplantation | Maximal preservation time of tracheal allografts. The Paris-Sud University Lung Transplantation Group | Maximal preservation time of tracheal allografts | Experimental tracheal and tracheoesophageal allotransplantation. Paris-Sud University Lung Transplantation Group | L-arginine and pentoxifylline attenuate endothelial dysfunction after lung reperfusion injury in the rabbit. The Paris-Sud University Lung Transplant Group | Experimental tracheal and tracheoesophageal allotransplantation | Endothelial dysfunction in venous pulmonary hypertension in the neonatal piglet | Heterotopic pig model for direct revascularization and venous drainage of tracheal allografts. Paris-Sud University Lung Transplantation Group | Heterotopic pig model for direct revascularization and venous drainage of tracheal allografts | Influence of pulmonary blood flow on gas exchange in piglets | Pressor Responses of Rat Isolated Tail Arteries to Contractile Stimulation after Methylene Blue Treatment: Effect of Adventitial versus Intimal Entry | Methylene blue potentiates vascular reactivity in isolated rat lungs | Postoperative liver insufficiency: Prevention and management | [Variations in O2 consumption in skin burns in rats] | Local change in tissue potential in burned and normal skin, during and after the application of heat | [Collagen modifications after deep cutaneous burns in rats] | [Variating of oxidoreduction potential in skin tubular flaps during acute ischemia]</t>
+        </is>
+      </c>
+    </row>
+    <row r="60" ht="80" customHeight="1" s="4">
+      <c r="B60" s="3" t="inlineStr">
+        <is>
+          <t>Miguel Sousa Uva</t>
+        </is>
+      </c>
+      <c r="C60" s="3" t="inlineStr">
+        <is>
+          <t>Miguel-Uva</t>
+        </is>
+      </c>
+      <c r="E60" s="3" t="n">
+        <v>335100</v>
+      </c>
+      <c r="F60" s="3" t="n">
+        <v>53373</v>
+      </c>
+      <c r="G60" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="H60" s="3" t="inlineStr">
+        <is>
+          <t>Steffen-Petersen | Ulf-Landmesser | Juhani-Knuuti | Patrizio-Lancellotti | Steen-Kristensen-2 | Bela-Merkely | Stuart-Head | Victoria-Delgado-2 | Benedetto-Umberto | Dimitrios-Richter | Anders-Ahlsson | Hector-Bueno-2 | Donna-Fitzsimons-2 | Stefan-Agewall | Francois-Lacour-Gayet-2 | Regine-Roussin-2 | Massimo-Piepoli | Evgeny-Shlyakhto | Victor-Aboyans | Davide-Capodanno-2 | Maddalena-Lettino | Basil-Lewis | Rhian-Touyz | Piotr-Ponikowski | Susanna-Price | Jean-Fabiani | Peter-Juni | Jose-Luis-Zamorano-2122039711 | Pedro-Magro-2141882464 | Volkmar-Falk-38397570 | V-Jebara-38618948 | Anna-Sonia-Petronio-38626465 | Bernard-Iung-38753956 | Jean-Philippe-Collet-38826326 | Bulent-Gorenek-38934123 | Alain-Serraf-38979382 | Johann-Bauersachs-39046914 | Veronica-Dean-39151531 | Christophe-Leclercq-39168876 | Stephan-Windecker-39226172 | C-Planche-39344944 | Sigrun-Halvorsen-39422807 | Marco-Roffi-39473696 | Franz-Josef-Neumann-39695015 | Hugo-A-Katus-40024551 | Gerhard-Hindricks-40061729 | J-Bruniaux-45629795 | Petar-Seferovic-56476324 | Iain-A-Simpson-63175429</t>
+        </is>
+      </c>
+      <c r="I60" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="J60" s="3" t="inlineStr">
+        <is>
+          <t>Juhani M Knuuti | Philippe Kolh | Patrizio Lancellotti | Per Anton Sirnes | Keith A A Fox | Béla Merkely | Arie Pieter Kappetein | Stuart J Head | Philippe Gabriel Steg | Lars Wallentin | Karl Swedberg | Marco Valgimigli | Dimitrios J Richter | Paulus Kirchhof | José Luis Zamorano | Scott Solomon | Patrick W Serruys | Héctor Bueno | Faiez Zannad | Andrew J Stewart Coats | Michael J Mack | Stefan Agewall | Arno Hoes | Julinda Mehilli | Michele Brignole | Petros Nihoyannopoulos | Massimo Piepoli | Stefan James | Victor Aboyans | Adnan Kastrati | Bryan Williams | Zeljko Reiner | Michal Tendera | Basil S Lewis | Deepak L Bhatt | Michael Böhm | Holger Thiele | Robert A Byrne | Piotr Ponikowski | John J V Mcmurray | Christian Funck-Brentano | Peter Juni | William Wijns | Adam Torbicki | Ulf Landmesser | Victoria delgado | Lars Rydén | David Taggart | Aldo P Maggioni | Stuart Connolly</t>
+        </is>
+      </c>
+      <c r="K60" s="3" t="n">
+        <v>178</v>
+      </c>
+      <c r="L60" s="3" t="inlineStr">
+        <is>
+          <t>Post-infarction ventricular septal defect surgery in Portugal | How to assess risk and counsel patients before cardiac surgery: Beyond an age cut-off | Direct oral anticoagulants and surgical bioprosthetic valves: State of the art | Pretreatment with a P2Y12 receptor inhibitor and delay to coronary artery bypass surgery in patients with non-ST segment elevation acute coronary syndrome | Poster No. 104 Impact of pre-treatment with a P2Y12 receptor inhibitor on delay to CABG surgery in a real-world population with non-ST segment elevation acute coronary syndrome | How to deal with nonsevere stenoses in coronary artery bypass grafting – a critical perspective on competitive flow and surgical precision | Uncertainties, trade-offs, and avoidance of harm | Triple valve surgery: long-term follow-up from a single centre | The heart valve team: It goes both ways | What is the role of septal myectomy in aortic stenosis? | 2021 ESC Guidelines for the diagnosis and treatment of acute and chronic heart failure: Developed by the Task Force for the diagnosis and treatment of acute and chronic heart failure of the European Society of Cardiology (ESC). With the special contribution of the Heart Failure Association (HFA) of the ESC | LUNG RESECTION FOR NON-SMALL-CELL LUNG CANCER - A NEW RISK SCORE TO PREDICT MAJOR PERIOPERATIVE COMPLICATIONS | Five-year outcomes in trials comparing transcatheter aortic valve implantation versus surgical aortic valve replacement: a pooled meta-analysis of reconstructed time-to-event data | Complete surgical revascularization: Different definitions, same impact? | POSTOPERATIVE ATRIAL FIBRILLATION - VIDEO-ASSISTED THORACOSCOPIC SURGERY VERSUS OPEN SURGERY | TAVI via alternative access routes: patient selection and 10-year center experience | Major Bleeding of Transjugular Native Kidney Biopsies. A French Nationwide Cohort Study | 2021 ESC Guidelines on cardiovascular disease prevention in clinical practice | 2021 ESC Guidelines on cardiac pacing and cardiac resynchronization therapy | Surgical versus transcatheter aortic valve replacement in low‐risk patients: A long‐term propensity score‐matched analysis | 2021 ESC Guidelines on cardiovascular disease prevention in clinical practice | 2021 ESC Guidelines on cardiac pacing and cardiac resynchronization therapy | 2021 ESC Guidelines on cardiac pacing and cardiac resynchronization therapy | 2021 ESC/EACTS Guidelines for the management of valvular heart disease | 2021 ESC/EACTS Guidelines for the management of valvular heart disease | 2021 ESC Guidelines for the diagnosis and treatment of acute and chronic heart failure | In low-risk patients aged &gt;70-75 with severe aortic stenosis, is transcatheter superior to surgical aortic valve replacement in terms of reported cardiovascular composite outcomes and survival? | Left main stenosis: Can a consensus be reached? | The ISCHEMIA trial: beyond the facts and interpretations, can we reach a consensus? | Left main stenosis: Can a consensus be reached? | Complete surgical revascularization: different definitions, same impact? | Guía ESC 2020 para el tratamiento de las cardiopatías congénitas del adulto | Guía ESC 2020 para el tratamiento de las cardiopatías congénitas del adulto | Long-term follow-up of triple valve surgery: a single center analysis | Guía ESC 2020 para el tratamiento de las cardiopatías congénitas del adulto | Differences and similarities between American and European myocardial revascularization guidelines | Composition, structure, and function of heart teams: a joint position paper of the ACVC, EAPCI, EACTS, and EACTA focused on the management of patients with complex coronary artery disease requiring myocardial revascularization | Composition, structure, and function of heart teams: A joint position paper of the ACVC, EAPCI, EACTS, and EACTA focused on the management of patients with complex coronary artery disease requiring myocardial revascularization | Does routine topical antimicrobial administration prevent sternal wound infection after cardiac surgery? | Artificial chordae repair for post-traumatic tricuspid regurgitation | 2020 ESC Guidelines for the diagnosis and management of atrial fibrillation developed in collaboration with the European Association of Cardio-Thoracic Surgery (EACTS) | 2020 ESC Guidelines for the management of adult congenital heart disease | 2020 ESC Guidelines for the diagnosis and management of atrial fibrillation developed in collaboration with the European Association of Cardio-Thoracic Surgery (EACTS) | Mapping decision making for bypass surgery in the era of interventional medicine: Towards an integrative model of patient-centeredness | Guía ESC 2019 sobre diabetes, prediabetes y enfermedades cardiovasculares, en colaboración con la European Association for the Study of Diabetes (EASD) | P1328 A bridge to sucess | Reply to Evora and Albuquerque | Erratum to “2019 ESC/EAS guidelines for the management of dyslipidemias: Lipid modification to reduce cardiovascular risk” [Atherosclerosis 290 (2019) 140–205] | Corrigendum to “2019 ESC/EAS Guidelines for the management of dyslipidaemias: lipid modification to reduce cardiovascular risk” [Atherosclerosis 290 (2019) 140–205] | 2018 ESC/EACTS guidelines on myocardial revascularization | 2019 ESC Guidelines for the diagnosis and management of chronic coronary syndromes | 2019 ESC Guidelines on diabetes, pre-diabetes, and cardiovascular diseases developed in collaboration with the EASD | 2019 ESC Guidelines for the diagnosis and management of acute pulmonary embolism developed in collaboration with the European Respiratory Society (ERS) | 2019 ESC/EAS Guidelines for the management of dyslipidaemias: Lipid modification to reduce cardiovascular risk | 2019 ESC Guidelines for the management of patients with supraventricular tachycardiaThe Task Force for the management of patients with supraventricular tachycardia of the European Society of Cardiology (ESC) | 2019 ESC/EAS guidelines for the management of dyslipidaemias: Lipid modification to reduce cardiovascular risk | 2018 ESC/EACTS Guidelines on myocardial revascularization. The Task Force on myocardial revascularization of the European Society of Cardiology (ESC) and European Association for Cardio-Thoracic Surgery (EACTS) | 2018 ESC/EACTS Guidelines on myocardial revascularization | ‘Ten commandments’ for the 2018 ESC/EACTS Guidelines on Myocardial Revascularization | Corrigendum to ‘Radial artery as a conduit for coronary artery bypass grafting: a state-of-the-art primer’ [Eur J Cardiothorac Surg 2018; 54:971–976]† | 2018 ESC/EACTS Guidelines on myocardial revascularization | Special conditions: revascularization | ‘Ten commandments’ for the 2018 ESC/EACTS Guidelines on Myocardial Revascularization | Linee guida ESC/ESH 2018 per la diagnosi e il trattamento dell'ipertensione arteriosa: Task Force per la Diagnosi e il Trattamento dell'Ipertensione Arteriosa della Società Europea di Cardiologia (ESC) e della Società Europea dell'Ipertensione Arteriosa (ESH) | Radial artery as a conduit for coronary artery bypass grafting: a state-of-the-art primer | Perioperative medication management in adult cardiac surgery: the 2017 EACTS Guidelines | 2018 ESC/ESH Guidelines for the management of arterial hypertension | 2018 ESC/EACTS guidelines on myocardial revascularization | 2018 ESC Guidelines for the management of cardiovascular diseases during pregnancy | 2018 ESC/EACTS Guidelines on myocardial revascularization | 2018 ESC/ESH Guidelines for the management of arterial hypertension | Considerations for the choice between coronary artery bypass grafting and percutaneous coronary intervention as revascularization strategies in major categories of patients with stable multivessel coronary artery disease: an accompanying article of the task force of the 2018 ESC/EACTS guidelines on myocardial revascularization | 2018 ESC Guidelines for the diagnosis and management of syncope | The 2017 EACTS guidelines on perioperative medication in adult cardiac surgery and patient blood management | 2017 EACTS Guidelines on perioperative medication in adult cardiac surgery | Mixing 'apples and oranges' in meta-analytic studies: Dangerous or delicious? | New generation stents compared to coronary bypass surgery for unprotected left main disease: A word of caution | 2017 EACTS/EACTA Guidelines on patient blood management for adult cardiac surgery: The Task Force on Patient Blood Management for Adult Cardiac Surgery of the European Association for Cardio-Thoracic Surgery (EACTS) and the European Association of Cardiothoracic Anaesthesiology (EACTA) | Corrigendum to ‘2017 ESC/EACTS Guidelines for the management of valvular heart disease’ [Eur J Cardiothorac Surg 2017;52:616-664]† | 2017 EACTS/EACTA Guidelines on patient blood management for adult cardiac surgery | ESC Joint Working Groups on Cardiovascular Surgery and the Cellular Biology of the Heart Position Paper: Peri-operative myocardial injury and infarction in patients undergoing coronary artery bypass graft surgery | A multinational and multidisciplinary approach to treat CHD in paediatric age in Angola: initial experience of a medical-surgical centre for children with heart disease in Angola | Bilateral Internal Thoracic Artery Grafting in Patients with Diabetes Mellitus | CABG: To CBP or Not To CBP - A Propensity Score Matched Survival | Pulmonary Hypertension in Valvular Heart Disease Surgery: Risk and Prognosis | The flaws in the detail of an observational study on transcatheter aortic valve implantation versus surgical aortic valve replacement in intermediate-risks patients | Adverse events while awaiting myocardial revascularization: A systematic review and meta-analysis | The flaws in the detail of an observational study on transcatheter aortic valve implantation versus surgical aortic valve replacement in intermediate-risks patients † | Clinical guidelines for the management of patients with transposition of the great arteries with intact ventricular septum: The Task Force on Transposition of the Great Arteries of the European Association for Cardio-Thoracic Surgery (EACTS) and the Association for European Paediatric and Congenital Cardiology (AEPC) | European Association for Cardio-Thoracic Surgery expert consensus statement on the prevention and management of mediastinitis | The flaws in the detail of an observational study on transcatheter aortic valve implantation versus surgical aortic valve replacement in intermediate-risks patients | Apples, Orange and Pears. Trans-catheter Aortic Valve Implantation in intermediate risk patients bore fruit | EACTS clinical statement: guidance for the provision of adult cardiac surgery | Submitral aneurysm in children | Rupture of Right Sinus of Valsalva Aneurysm into Right Cardiac Chambers: The Role of Different Imaging Modalities | Movie 1 | Movie 3 | Movie 2 | The on-pump/off-pump saga: An enduring conundrum | Portuguese Society of Cardiothoracic and Vascular Surgery/Portuguese Society of Cardiology recommendations for waiting times for cardiac surgery</t>
+        </is>
+      </c>
+    </row>
+    <row r="61" ht="80" customHeight="1" s="4">
+      <c r="B61" s="3" t="inlineStr">
+        <is>
+          <t>Pasqua Hervé</t>
+        </is>
+      </c>
+      <c r="C61" s="3" t="inlineStr">
+        <is>
+          <t>Pasqua-Herve</t>
+        </is>
+      </c>
+      <c r="D61" s="3" t="inlineStr">
+        <is>
+          <t>University of Nice Sophia Antipolis</t>
+        </is>
+      </c>
+      <c r="E61" s="3" t="n">
+        <v>13384</v>
+      </c>
+      <c r="F61" s="3" t="n">
+        <v>13720</v>
+      </c>
+      <c r="G61" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="H61" s="3" t="inlineStr">
+        <is>
+          <t>Eddy-Tamayo | Denis-Chemla | Eric-Robinet | Philippe-Saas | Eric-Deconinck | Christophe-Ferrand | Olivier-Sitbon | Eliane-Gluckman | Gerard-Rifle | Marcelo-Bittencourt-2 | Florence-Parent-3 | Emmanuel-Contassot | Emmanuel-Plouvier-2 | Nir-Gorin | Noel-Milpied | Pascal-Morel-3 | Gerald-Simonneau | Valerie-Lapierre | Thilani-Philip | Pierre-Charbord | Jean-Yves-Cahn | Regis-Angonin | Bernard-Lamy | Jean-Marc-Chalopin | Thierry-Fest | Guy-Mazmanian-2 | Pierre-Tiberghien-2 | Bernard-Delbosc | Marc-Humbert-3 | C-Coffe-2065819081 | P-Dartevelle-2068218700 | A-Chapelier-36200740 | F-Brenot-38269975 | J-Reiffers-38365685 | A-Noir-38555559 | D-Maraninchi-38872267 | P-Bordigoni-38898932 | J-P-Bergerat-38974950 | J-Wijdenes-39101185 | E-Racadot-39143632 | J-Cerrina-39436594 | R-Leconte-des-Floris-39654590 | P-Petitpretz-39784727 | A-Rozenbaum-40062528 | M-Masse-47600961 | V-Pina-50848263 | Francois-Le-Roy-Ladurie-5581745 | A-Peters-60394396 | M-Flesch-65326046 | P-Duroux-66417915</t>
+        </is>
+      </c>
+      <c r="I61" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="J61" s="3" t="inlineStr">
+        <is>
+          <t>Dan Longo | Gary Spitzer | Eric Robinet | Philippe Saas | Eric Deconinck | Jonathan R Keller | Christophe Ferrand | Jean E Sanders | Ludovic Drouet | Jerome Ritz | James L M Ferrara | Olivier Sitbon | Eliane Gluckman | Hans-Jochem Kolb | Edward D Thomas | Daniel A Vallera | Beverly Torok-Storb | Marcelo De Carvalho Bittencourt | John A Hansen | Keith M Sullivan | Jack W Singer | Emmanuel Contassot | Robert Peter Gale | Emmanuel Plouvier | Axel R. Zander | Allen M Gown | Noël Milpied | George Janossy | Gerald Simonneau | Pierre Charbord | Jean-Yves Cahn | Regis Angonin | Nazzareno Galié | wm Bensinger | Pierre Tiberghien | Michael Krowka | Marie Deschaseaux | Paul Simmons | Marc Humbert | jean-marie Launay | Bruno Lioure | Adam Torbicki | Hj Deeg | Eddy Tamayo | Connie Eaves | Florence Parent | Stuart Rich | Nir Gorin | Tim Higenbottam | Luc Douay</t>
+        </is>
+      </c>
+      <c r="K61" s="3" t="n">
+        <v>484</v>
+      </c>
+      <c r="L61" s="3" t="inlineStr">
+        <is>
+          <t>Screening for Pulmonary Arterial Hypertension in Adults Carrying a BMPR2 Mutation | P4690Effects of pulmonary artery wedge pressure on right ventricular pulsatile loading in pulmonary hypertension: a reappraisal based on pulmonary arterial isobaric stiffness | Non-Invasive Determination of Cardiac Output in Pre-Capillary Pulmonary Hypertension | ACCURATE DIAGNOSIS OF PULMONARY HYPERTENSION AT EXERCISE USING COMBINED ASSESSMENT OF MAXIMAL MEAN PULMONARY ARTERY PRESSURE AND TOTAL PULMONARY RESISTANCE | Indices of Right Ventricular Contractility in a Model of Chronic Pulmonary Hypertension | pentamidine and pancreatitis | pentamidine and pancreatitis | Cost analysis of allogenic bone marrow transplantation | Invasive Rest and Exercise Hemodynamics in the Modern Management of Pulmonary Vascular Disease: An Expanding Role in the Future | Infrared technique for simultaneous determination of temperature and emissivity | The association between resting and mild-to-moderate exercise pulmonary artery pressure | From the authors | Nitric oxide production by the alveolar compartment of the lungs in cirrhotic patients | Hurdles to Transplant Tolerance Induction | What Part Can Mesenchymal Stem Cells Play in Transplantation Tolerance Induction? | Cirrhosis ameliorates monocrotaline-induced pulmonary hypertension in rats | Sorafenib, a VEGF and PDGF Antagonist, Decreases Systemic Blood Flow to the Lung and Post-Obstructive Vasculopathy Induced by Chronic Lung Ischemia in Piglets. | Amélioration de la précision de la mesure de la température par thermographie. Application aux essais dynamiques | 081 La production de monoxyde d’azote par le compartiment alvéolaire est augmentée chez les patients cirrhotiques | Temperature field measurement in titanium alloy during high strain rate loading—Adiabatic shear bands phenomenon | Changes in exercise hemodynamics during treatment in pulmonary arterial hypertension | AUTOGRAFTING FOR CHRONIC GRANULOCYTIC LEUKAEMIA IN ACCELERATED PHASE | Pulmonary arterial hypertension associated with fenfluramine exposure: Report of 109 cases | Development of a method for predicting the ignition of explosive atmospheres by mechanical friction and impacts (MECHEX) | Fractalkine-induced smooth muscle cell proliferation in pulmonary hypertension | Infusion of allogeneic-related HLA mismatched mesenchymal stem cells for the treatment of incomplete engraftment following autologous haematopoietic stem cell transplantation [8] | Human and rodent bone marrow mesenchymal stem cells that express primitive stem cell markers can be directly enriched by using the CD49a molecule | Dendritic cell recruitment in lesions of human and experimental pulmonary hypertension | 403 Recrutement de cellules dendritiques dans les lésions vasculaires de l’hypertension pulmonaire humaine et expérimentale | 509 Facteurs pronostics de l’hypertension portopulmonaire | Portopulmonary hypertension | Hypertension portopulmonaire | Urinary cytotoxic molecular markers for a noninvasive diagnosis in acute renal transplant rejection | Theoretical and numerical study of strain localization under high strain rate solicitation | Mechanical behaviour and temperature measurement during dynamic deformation on split Hopkinson bar of 304L stainless steel and 5754 aluminium alloy | Endothelial Cells in Organ Transplantation: Friends or Foes? | The mesure of temperature in a process with frictionnal heating | Evidence for a Control of Plasma Serotonin Levels by 5-Hydroxytryptamine2B Receptors in Mice | Heart rate responses during 6-minute walk test in pulmonary arterial hypertension | Differential sensitivity of T lymphocytes and hematopoietic precursor cells to photochemotherapy with 8-methoxypsoralen and ultraviolet A light | Shock-to-detonation transition of nitromethane: Time-resolved emission spectroscopy measurements | analysis – a valuable tool for ultrasonic fatigue testing", Through the Lens (Cedip Infrared Systems) | Lung Circulation Distensibility in Patients with Pulmonary Hypertension (Abstract) | Application d'une méthode de pyrométrie optique pour l'étude des frottements secs dans les machines : application à la sécurité industrielle | 003 Caractérisation de la réponse inflammatoire artérielle pulmonaire chez le rat exposé à la monocrotaline (MCT) | Inversion of spectroscopic data, application on CO2 radiation of flame combustion | In vitro functional defects of bone marrow-derived CD34+ progenitors from newly diagnosed mature B-cell malignancies with bone marrow tumor involvement | The French Haemovigilance System: Organization and results for 2003 | T‐cell flow‐cytometry crossmatch and long‐term renal graft survival | 83 Utilisation des cellules souches ostéorégénératrices : étude in vivo préliminaire | Intravenous Infusion of Apoptotic Cells Simultaneously With Allogeneic Hematopoietic Graft Alters Anti-Donor Humoral Immune Responses | Intravenous apoptotic cell administration simultaneously with bone marrow induces the expansion of CD4+CD25+ regulatory T cells via a TGF-[beta] dependent mechanism | Genetic basis of pulmonary arterial hypertension: Current understanding and future directions | Preferential retroviral-mediated transduction of EBV- and CMV-specific T cells after polyclonal T-cell activation | Prevention of hepatopulmonary syndrome and hyperdynamic state by pentoxifylline in cirrhotic rats | Thermographie synchrone pulsée: application à la caractérisation énergétique d’un laser de puissance | Unambiguous identification of implanted cells after cellular cardiomyoplasty: A critical issue - Response | Chronic thromboembolic pulmonary hypertension | Retrovirus-Mediated Gene Transfer in Human Primary T Lymphocytes Induces an Activation- and Transduction/Selection-Dependent TCR-B Variable Chain Repertoire Skewing of Gene-Modified Cells | Regulatory (suppressor) T cells in peripheral allograft tolerance and graft-versus-host reaction | Third Beaune Seminar in Transplant Research - Foreword | Etude du comportement statique et dynamique de matériaux métalliques par pyrométrie ultraviolet, visible et infrarouge | Pulmonary arterial hypertension: genetics, reversibility testing and follow-up | Tolerance in transplantation: Potential contribution of haematopoietic transplantation and cell therapy | Intravenous apoptotic cell administration simultaneously to bone marrow induces the expansion of CD4+CD25+ regulatory T cells that control allo-immune response. | Cytokines active on granulomonopoiesis: Release and consumption by human marrow myeloid stromal cells | Mesenchymal Progenitor Cells Differentiate into an Endothelial Phenotype, Enhance Vascular Density, and Improve Heart Function in a Rat Cellular Cardiomyoplasty Model | [Is GB virus C alias "hepatitis" G virus involved in human pathology?] | Direct selection of human bone marrow mesenchymal stem cells using an anti-CD49a antibody reveals their CD45med,low phenotype | Retrovirus-mediated gene transfer in polyclonal T cells results in lower apoptosis and enhanced ex vivo cell expansion of CMV-reactive CD8 T cells as compared with EBV-reactive CD8 T cells | Le virus GB-C ou virus « dit » de l’hépatite G est-il impliqué en pathologie humaine ? | Experimental study of temperature heterogeneity in metallic materials under high strain rate solicitation | Allorecognition of the recipient after hematopoietic tranplantation | [Allogeneic adoptive immunotherapy] | Second Beaune Seminar in Transplant Research | Bacterial Contamination of a Cornea Tissue Bank: Implications for the Safety of Graft Engineering | Immunothérapie adoptive allogénique | Retrovirus -mediated gene transfer in polyclonal T cells results in lower apoptosis and enhanced ex vivo cell expansion of CMV -reactive CD8 T cells as compared to EBV -reactive CD8 T cells Running title: EBV - and CMV -reactivity of gene -modified polyclonal CD 8 T cells | Prevention of hepatopulmonary syndrome by pentoxifylline in rats with cirrhosis | Influence of Ex Vivo Expansion and Retrovirus-Mediated Gene Transfer on Primary T Lymphocyte Phenotype and Functions | THERMOGRAMM 2003 PHOTOTHERMOMETRIE DANS LE DOMAINE VISIBLE D'UNE SCENE A HAUTE TEMPERATURE EN DETECTION SYNCHRONE | Étude numérique du comportement de l'équation de transfert radiatif des milieux semi-transparents Inversion de données spectroscopiques pour le CO_2 | Photothermométrie dans le domaine visible d'une scène à haute température en détection synchrone. | Haemodynamic evaluation of pulmonary hypertension | Hemovigilance network in France: Organization and analysis of immediate transfuse incident reports from 1994 to 1998 | Function of the serotonin 5-hydroxytryptamine 2B receptor in pulmonary hypertension | Polybrene and interleukin-4: Two opposing factors for retroviral transduction of bone-marrow-derived dendritic cells | Pulmonary arterial hypertension and type-I glycogen-storage disease: The serotonin hypothesis | Investigative method for radiative properties of water vapor in the 0.8 μM region by optical diagnostic of H 2 Air combustion | Value of two mortality assessment techniques for organ cultured corneal endothelium: trypan blue versus TUNEL technique | Retrovirus-mediated gene transfer in primary T lymphocytes impairs their anti-Epstein-Barr virus potential through both culture-dependent and selection process-dependent mechanisms | Quality control of leucoreduced cellular blood components in France | First Beaune Seminar in Transplant Research - Foreword | Exposure to exogenous DNA can modify the sensitivity of the Fas apoptotic pathway | TEMPERATURE PROFILE CALCULATION FROM EMISSION SPECTROSCOPY MEASUREMENTS IN NITROMETHANE SUBMITTED TO PLATE IMPACTS | Noninvasive ventilation after lung resection | Diagnosis of pulmonary embolism in patients with proximal deep vein thrombosis: Specificity of symptoms and perfusion defects at baseline and during anticoagulant therapy | Enhanced activation of B cells in a granulocyte colony-stimulating factor-mobilized peripheral blood stem cell graft | Plateletpheresis concentrates produced with the COMTEC cell separator: The French experience | Intravenous injection of apoptotic leukocytes enhances bone marrow engraftment across major histocompatibility barriers</t>
+        </is>
+      </c>
+      <c r="M61" s="3" t="inlineStr">
+        <is>
+          <t>Ancient Philosophy</t>
+        </is>
+      </c>
+    </row>
+    <row r="62" ht="80" customHeight="1" s="4">
+      <c r="B62" s="3" t="inlineStr">
+        <is>
+          <t>Elie Fadel</t>
+        </is>
+      </c>
+      <c r="C62" s="3" t="inlineStr">
+        <is>
+          <t>Elie-Fadel</t>
+        </is>
+      </c>
+      <c r="D62" s="3" t="inlineStr">
+        <is>
+          <t>Université Paris-Sud 11</t>
+        </is>
+      </c>
+      <c r="E62" s="3" t="n">
+        <v>41381</v>
+      </c>
+      <c r="F62" s="3" t="n">
+        <v>17454</v>
+      </c>
+      <c r="G62" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="H62" s="3" t="inlineStr">
+        <is>
+          <t>David-Boulate | Laurent-Savale | Ly-Tu-2 | Florent-Soubrier | Frederic-Perros | Barbara-Girerd | David-Montani | Christophe-Guignabert | Andrei-Seferian | Saadia-Eddahibi | Sacha-Mussot | Vincent-Thomas-De-Montpreville | Dominique-Fabre | Olivier-Sitbon | Philippe-Brenot | Francois-Haddad | Fabrice-Antigny | Florence-Parent-3 | Mitja-Jevnikar | Olaf-Mercier | Sonia-Berrih-Aknin | Gerald-Simonneau | Sacha-Mussot-2 | Benoit-Decante | Julien-Guihaire | Sebastien-Hascoet | Adrian-Crutu | Peter-Dorfmuller | Myriam-Amsallem | Raphael-Thuillet | Marc-Humbert-3 | Xavier-Jais | Pauline-Pradere-2033219291 | Francois-Stephan-2036585434 | Lilia-Lamrani-2051330546 | P-Dartevelle-2068218700 | Philippe-Herve-2072290835 | Marc-Humbert-2093385392 | Gerald-Simonneau-2134145478 | Delphine-Mitilian-2138901864 | J-Guihaire-30196460 | Marc-de-Perrot-38420705 | Alain-Chapelier-38478293 | Serge-Adnot-38820809 | Benjamin-Besse-39106869 | J-Cerrina-39436594 | Philippe-Dartevelle-39534510 | Jerome-Le-Pavec-46577200 | Alice-Huertas-53591809</t>
+        </is>
+      </c>
+      <c r="I62" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="J62" s="3" t="inlineStr">
+        <is>
+          <t>Georg Hansmann | Peter Dorfmuller | Ly Tu | Frederic Perros | Barbara Girerd | David Montani | Christophe Guignabert | Sylvia Cohen-Kaminsky | Vincent Cottin | Marion Delcroix | Saadia Eddahibi | Sacha Mussot | Dominique Fabre | Olivier Sitbon | Peter Fedullo | Paul Corris | Irene Lang | Kim M Kerr | Stuart W Jamieson | Maurice Beghetti | Sean P Gaine | Joan Albert Barbera | Sonia Berrih-Aknin | Andrea Maria D'Armini | Harm-Jan Bogaard | Pavel Jansa | Gerald Simonneau | Andrew John Peacock | Paul Bresser | Benoit Decante | Friedrich Grimminger | Rogério Souza | Rozen Le Panse | Walter Klepetko | Nazzareno Galié | Jean-Luc Vachiery | Kurt Stenmark | Nick H Kim | Michel D. Hamon | Miguel Angel Gomez Sanchez | Marc Humbert | Xavier Jaïs | Pasqua Hervé | Laurent Savale | Adam Torbicki | Shaf Keshavjee | Francois Haddad | Carmen Treacy | Florence Parent | Olaf Mercier</t>
+        </is>
+      </c>
+      <c r="K62" s="3" t="n">
+        <v>638</v>
+      </c>
+      <c r="L62" s="3" t="inlineStr">
+        <is>
+          <t>Clinical Phenotype and Outcomes of Pulmonary Hypertension Associated with Myeloproliferative Neoplasms: A Population-based Study | Successful Pulmonary Endarterectomy after Heart Transplantation | Clinical relevance and prognostic value of renal Doppler in acute decompensated precapillary pulmonary hypertension | Associations Between Serum Activin A and Follistatine-Like 3 Levels and Outcomes in Pulmonary Arterial Hypertension | Serum and Pulmonary Expression Profiles of the Activin Signaling System in Pulmonary Arterial Hypertension | mTOR Inhibition Impairs the Activation and Function of Belatacept-Resistant CD4+CD57+ T Cells In Vivo and In Vitro | Pressure Controlled Hypothermic Lung Perfusion is not Better Than Cold Storage for Lung Preservation | Severe Pediatric Pulmonary Arterial Hypertension. Long-Term Outcomes of Reverse Potts Shunt and Transplantation | Intimal Granulomatous Angiitis in Sarcoid Pulmonary Vasculitis: Worth Remembering | Controlled Donation after Circulatory Death Lung Transplantation: Results of the French Protocol Including In Situ Abdominal Normothermic Regional Perfusion and Ex Vivo Lung Perfusion. | A Patient-Centered Model of Fast-Track Lung Cancer Diagnosis | Outcomes of Extended Resection for Locally Advanced Thymic Malignancies | Recurrence-Free Survival in Early and Locally Advanced Large Cell Neuroendocrine Carcinoma of the Lung after Complete Tumor Resection | Highlights from the International Chronic Thromboembolic Pulmonary Hypertension Congress 2021 | Single-cell mass cytometry on peripheral cells in Myasthenia Gravis identifies dysregulation of innate immune cells | Transplantation pulmonaire pour hypertension pulmonaire sévère | Severe pediatric pulmonary arterial hypertension: Long-term outcomes of reverse Potts shunt and transplantation | Epidemiological Study to Assess the Prevalence of Lung Cancer in patients with smoking-associated atherosclerotic cardiovascular diseases: PREVALUNG study protocol | Central Role of Macrophages and Nucleic Acid Release in Myasthenia Gravis Thymus | AB008. Activated pathways of Thymic Epithelial Tumors: a RYTHMIC study | Medical bridging therapy before pulmonary endarterectomy? | Characteristics and management of chronic thromboembolic pulmonary disease patients without pulmonary hypertension in an expert centre | Evaluación multiparamétrica de la función ventricular derecha en la hipertensión arterial pulmonar asociada a cardiopatías congénitas | 4D flow cardiovascular magnetic resonance recovery profiles following pulmonary endarterectomy in chronic thromboembolic pulmonary hypertension | Physiopathologie de l’hypertension pulmonaire thromboembolique chronique et traitement des formes non chirurgicales (inopérables)* | Retrospective Study of Outcomes after Extended Resection for Tracheobronchial Adenoid Cystic Carcinoma | Transplantation pulmonaire en France : actualisation des indications et contre-indications en 2022 | Traitement chirurgical de l’hypertension pulmonaire thromboembolique | 2022 Update of Indications and Contraindications for Lung Transplantation in France | Feasibility and Long-Term Outcomes of Surgery for Primary Thoracic Synovial Sarcoma | Long-term outcomes after chest wall resection and repair with titanium bars and sternal plates | Primary Thoracic Endografting for T4 Lung Cancer Aortic Involvement | Single‐agent gemcitabine in patients with advanced, pre‐treated angiosarcoma: A multicenter, retrospective study | Balloon pulmonary angioplasty versus riociguat for the treatment of inoperable chronic thromboembolic pulmonary hypertension (RACE): a multicentre, phase 3, open-label, randomised controlled trial and ancillary follow-up study | Multiparametric evaluation of right ventricular function in pulmonary arterial hypertension associated with congenital heart disease | Bleeding and thrombotic events in patients with severe COVID-19 supported with extracorporeal membrane oxygenation: a nationwide cohort study | Effect of 4% albumin priming solution on postoperative pulmonary edema in patients undergoing pulmonary thrombo-endarterectomy: a propensity-matched analysis | Risk stratification in patients with pulmonary arterial hypertension at the time of listing for lung transplantation | ISHLT CONSENSUS STATEMENT: Peri-operative Management of Patients with Pulmonary Hypertension and Right Heart Failure Undergoing Surgery | An emerging phenotype of pulmonary arterial hypertension patients carrying SOX17 variants | Deciphering a New Phenotype of Pulmonary Arterial Hypertension in Patients Carrying SOX17 Variants | Lung transplantation in HIV-positive patients: a European retrospective cohort study | Evaluation of Diaphragmatic Function After Lung Transplantation (DIATRIBE) | Induction and Phenotyping of Acute Right Heart Failure in a Large Animal Model of Chronic Thromboembolic Pulmonary Hypertension | Induction and Phenotyping of Acute Right Heart Failure in a Large Animal Model of Chronic Thromboembolic Pulmonary Hypertension | Management of Etonogestrel implant migration into the pulmonary artery | Pulmonary thromboendarterectomy: The Marie Lannelongue Hospital experience | Pulsatile pulmonary artery pressure in a large animal model of chronic thromboembolic pulmonary hypertension: similarities and differences with human data.: Pulmonary artery pulsatile pressure in a CTEPH model | Altered expression of fragile X mental retardation-1 (FMR1) in the thymus in autoimmune myasthenia gravis | Double-lung transplantation followed by delayed percutaneous repair for atrial septal defect-associated pulmonary arterial hypertension | Risk stratification in patients with pulmonary arterial hypertension (PAH) and candidates for lung or heart-lung transplantation | Current strategies for managing CTEPH | Transplantation for Pulmonary Arterial Hypertension with Congenital Heart Disease: Impact of current therapeutic approach including a high-priority allocation programme on outcomes | Pulmonary Endarterectomy in Patients With Myeloproliferative Neoplasms | 1735P Circulating T-cell immunosenescence in patients with thymic epithelial tumors (TETs) | Evaluation and Management of Patients with Chronic Thromboembolic Pulmonary Hypertension - Consensus Statement from the ISHLT | Outcomes after Pulmonary Lobectomy in Patients with History of Head and Neck Carcinoma | Superior vena cava prosthetic replacement for non-small cell lung cancer: is it worthwhile? | Surgical Resection of Tumors Invading the Inferior Vena Cava at the Hepatic Vein and Thoracic Levels | Current strategies for managing chronic thromboembolic pulmonary hypertension: results of the worldwide prospective CTEPH Registry | Right Ventricle Remodeling Metabolic Signature in Experimental Pulmonary Hypertension Models of Chronic Hypoxia and Monocrotaline Exposure | Five-year survival after an acute episode of decompensated pulmonary arterial hypertension in the modern management era of right heart failure | A Ten-year Single-center Surgical Experience With Symptomatic Complete Vascular Rings | Activity of single-agent gemcitabine in patients (pts) with advanced angiosarcoma: A retrospective study. | Cancer activation pathways of thymic epithelial tumors (TETs) by targeted gene expression analysis. | Can MRI differentiate surrounding vertebral invasion from reactive inflammatory changes in superior sulcus tumor? | BPA and Riociguat for the Management of Inoperable CTEPH: Results of the Extension Study Following the RACE Randomized Controlled Trial (RCT) | Fully Integrated Quantitative Multiparametric Analysis of Non–Small Cell Lung Cancer at 3-T PET/MRI: Toward One-Stop-Shop Tumor Biological Characterization at the Supervoxel Level | Lung and Heart-Lung Transplantation for Children with PAH: Dramatic Benefits from the Implementation of High-Priority Allocation Program in France | Retraction notice to ICAM-1 PROMOTES THE ABNORMAL ENDOTHELIAL CELL PHENOTYPE IN CHRONIC THROMBOEMBOLIC PULMONARY HYPERTENSION | Transplantation for Pulmonary Arterial Hypertension with Congenital Heart Disease: Impact on Outcomes of Current Therapeutic Approach Including a High‐Priority Allocation Program | Immunomodulation Therapy Using Tolerogenic Macrophages in a Rodent Model of Pulmonary Hypertension | Lung and heart-lung transplantation for children with PAH: Dramatic benefits from the implementation of a high-priority allocation program in France | Video-Assisted Thoracoscopic En Bloc Vertebrectomy for Spine Tumors: Technique and Outcomes in a Series of 33 Patients | Risk of Lung Allograft Dysfunction Associated With Aspergillus Infection | Cannabis use and lung cancer: time to stop overlooking the problem? | Lung transplantation for sarcoidosis: outcome and prognostic factors | Serum and Pulmonary Uric Acid in Pulmonary Arterial Hypertension | Stratification du risque chez les patients avec hypertension artérielle pulmonaire et inscrits sur liste de transplantation pulmonaire ou cardio-pulmonaire | Résultats anatomiques et fonctionnels à long terme des résections laryngotrachéales pour sténoses bénignes | Cannabis et cancer bronchique du sujet jeune, il est temps d’en parler ! | Immunodynamics of explanted human tumors for immuno‐oncology | Targeted Proteomics of Right Heart Adaptation to Pulmonary Arterial Hypertension | ERS Statement on Chronic Thromboembolic Pulmonary Hypertension | Core Mediastinal Lymph Node Biopsy with Transbronchial Forceps – 14 Case Serie In A Single Center | Description, Staging and Quantification of Pulmonary Artery Angiophagy in a Large Animal Model of Chronic Thromboembolic Pulmonary Hypertension | Our current understanding of and approach to the management of lung cancer with pulmonary hypertension | Decreased expression of miR-29 family associated with autoimmune myasthenia gravis | Long-Term Results and Functional Outcomes After Surgical Repair Of Benign Laryngotracheal Stenosis | Radiofrequency ablation versus surgical resection for the treatment of oligometastatic lung disease | GCN2 regulates BMP signaling: consequence for PVOD pathobiology and therapeutic management | Sequential multimodal therapy in patients with chronic thromboembolic pulmonary hypertension (CTEPH) | Initial dual oral combination therapy prior to pulmonary endarterectomy (PEA) in patients with operable chronic thromboembolic pulmonary hypertension (CTEPH) and high preoperative pulmonary vascular resistance (PVR) | Long-term Outcomes of Oral Vinorelbine in Advanced, Progressive Desmoid Fibromatosis and Influence of CTNNB1 Mutational Status | Carotid webs management in symptomatic patients | 1215O - SC Neoadjuvant atezolizumab (A) for resectable non-small cell lung cancer (NSCLC): Results from the phase II PRINCEPS trial | Protocol of supra-visceral aortic ischemic preconditioning for open surgical repair of thoracoabdominal aortic aneurysm: The EPICATA study (Evaluation of the Efficacy of Ischemic PreConditioning on morbidity and mortality in open ThoracoAbdominal Aortic surgery) | Fatal Covid‐19 vasoplegic shock in a recipient few hours before double lung transplantation in high emergency | 18F-FDG PET and DCE kinetic modeling and their correlations in primary NSCLC: first voxel-wise correlative analysis of human simultaneous [18F]FDG PET-MRI data | Multimodal Imaging Mass Spectrometry to Identify Markers of Pulmonary Arterial Hypertension in Human Lung Tissue using MALDI-ToF, ToF-SIMS and Hybrid SIMS</t>
+        </is>
+      </c>
+      <c r="M62" s="3" t="inlineStr">
+        <is>
+          <t>Pulmonary Hypertension | Pulmonary Embolism | Aneurysm | Lung Cancer | Heart Failure | Pulmonary Circulation | Pulmonary Medicine | Thoracic Diseases | Mediastinal Diseases | Thoracic Surgery</t>
+        </is>
+      </c>
+    </row>
+    <row r="63" ht="80" customHeight="1" s="4">
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Ulf Landmesser</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Ulf-Landmesser</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Charité Universitätsmedizin Berlin</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>260512</v>
+      </c>
+      <c r="F63" t="n">
+        <v>82593</v>
+      </c>
+      <c r="G63" t="n">
+        <v>49</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Arnold-Von-Eckardstein | Francois-Mach | Nicolle-Kraenkel | Marco-Valgimigli | Victoria-Delgado-2 | Dimitrios-Richter | Christian-Matter | Brunilda-Alushi | Mario-Kasner | Youssef-Abdelwahed | Christian-Besler | Kausik-Ray | Lorenz-Raeber | Roland-Klingenberg | Markus-Reinthaler | Barbara-Staehli | Lawrence-Leiter | Alexander-Lauten | Victor-Aboyans | Verena-Tscholl-2 | Bettina-Heidecker-2 | Basil-Lewis | Rhian-Touyz | Maja-Mueller | Holger-Thiele | Carsten-Skurk | Julian-Friebel | Peter-Juni | David-Kallend | Philipp-Jakob | Arash-Haghikia-15458702 | Thomas-F-Luescher-2066063902 | Stephan-Windecker-2150856240 | Christian-Templin-38180505 | Wolfgang-Poller-38264009 | Helmut-Drexler-38379156 | Volkmar-Falk-38397570 | Anna-Sonia-Petronio-38626465 | Jean-Philippe-Collet-38826326 | Frank-Ruschitzka-38867316 | Thomas-F-Luescher-39095647 | Stephan-Windecker-39226172 | Sigrun-Halvorsen-39422807 | Marco-Roffi-39473696 | Ulrich-Laufs-39599709 | Stefan-Blankenberg-39918946 | Hugo-A-Katus-40024551 | Gerhard-Hindricks-40061729 | David-M-Leistner-54246144</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
+        <v>50</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>Ian Graham | Stefan Anker | Juhani M Knuuti | Philippe Kolh | Patrizio Lancellotti | Kurt Huber | Keith A A Fox | G. Kees Hovingh | Harvey White | Philippe Gabriel Steg | Lars Wallentin | Karl Swedberg | Robert Giugliano | Marco Valgimigli | Dimitrios J Richter | Paulus Kirchhof | José Luis Zamorano | Patrick W Serruys | Kausik K Ray | Héctor Bueno | Stefan Agewall | John J P Kastelein | Arno Hoes | Alberico L Catapano | Marja-Riitta Taskinen | Julinda Mehilli | Massimo Piepoli | Stefan James | Victor Aboyans | Mr John Chapman | Adnan Kastrati | Zeljko Reiner | Guy De Backer | Michal Tendera | Basil S Lewis | Deepak L Bhatt | Michael Böhm | Daniel J Rader | Holger Thiele | Piotr Ponikowski | John J V Mcmurray | Christian Funck-Brentano | Eva Prescott | Peter Juni | William Wijns | Adam Torbicki | Stefanie Dimmeler | Victoria delgado | Aldo P Maggioni | Andreas M Zeiher</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>868</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>Safety and Healthcare Resource Utilization in Patients Undergoing Left Atrial Appendage Closure — A Nationwide Analysis | Initial therapeutic anticoagulation with rivaroxaban compared to prophylactic therapy with heparins in moderate to severe COVID-19: results of the COVID-PREVENT randomized controlled trial | Coronary microevaginations characterize culprit plaques and their inflammatory microenvironment in a subtype of acute coronary syndrome with intact fibrous cap: results from the prospective translational OPTICO-ACS study | Understanding Who Responds to M-TEER in Heart Failure With SMR | Culprit plaque morphology determines inflammatory risk and clinical outcomes in acute coronary syndrome | Toll-like receptor 2, hyaluronan, and neutrophils play a key role in plaque erosion: the OPTICO-ACS study | Cardiovascular health-related quality of life in cancer: a prospective study comparing the ESC HeartQoL and EORTC QLQ-C30 questionnaire | Atlas of gut microbe-derived products from aromatic amino acids and risk of cardiovascular morbidity and mortality | Mitral valve thickness: A promising echocardiographic parameter for distinguishing between cardiac amyloidosis and Fabry disease | Hand grip strength in patients with advanced cancer: A prospective study | Patient-reported ability to walk 4 m and to wash: New clinical endpoints and predictors of survival in patients with pre-terminal cancer | A single exercise exertion initiates antioxidant and vascular-protective mechanisms in patients with heart failure | Patient Phenotype Profiling in Heart Failure with Preserved Ejection Fraction to Guide Therapeutic Decision Making A Scientific Statement of the Heart Failure Association (HFA) and the European Heart Rhythm Association (EHRA) of the ESC, and the European Society of Hypertension (ESH) | Double “full moon” CTO plaque detected by computed tomography could predict high‐grade debulking techniques: A case‐report | Kardiologische Rehabilitation bei Patienten mit HerzinsuffizienzCardiac rehabilitation in patients with heart failure: Gemeinsame Empfehlungen der Deutschen Gesellschaft für Kardiologie (DGK) und der Deutschen Gesellschaft für Prävention und Rehabilitation von Herz-Kreislauferkrankungen (DGPR)Joint recommendations of the German Cardiac Society (DGK) and the German Society for Prevention and Rehabilitation of Cardiovascular Diseases (DGPR) | The Role of NETosis and Complement Activation in COVID-19-Associated Coagulopathies | Efficacy and safety of inclisiran in patients with cerebrovascular disease: ORION-9, ORION-10, and ORION-11 | Cystic fibrosis transmembrane conductance regulator potentiators attenuate platelet activation and aggregation in blood of healthy donors and COVID-19 patients | Galectin-3 as a Marker for Increased Thrombogenicity in COVID-19 | Prognostic impact of fractional flow reserve measurements in patients with acute coronary syndromes: a subanalysis of the FLORIDA study | Large-scale microRNA functional high-throughput screening identifies miR-515-3p and miR-519e-3p as inducers of human cardiomyocyte proliferation | Clinical and Prognostic Relevance of Cardiac Wasting in Patients With Advanced Cancer | Der koronarkranke Diabetiker: moderne Therapieansätze und Behandlungspfade | Cystic fibrosis transmembrane conductance regulator modulators attenuate platelet activation and aggregation in blood of healthy donors and COVID-19 patients | Medical history predicts phenome-wide disease onset | The DZHK research platform: maximisation of scientific value by enabling access to health data and biological samples collected in cardiovascular clinical studies | EFFICACY AND SAFETY OF INCLISIRAN BY BASELINE BODY MASS INDEX: A POST HOC POOLED ANALYSIS OF THE ORION-9, ORION-10 AND ORION-11 PHASE III RANDOMIZED CONTROLLED TRIALS | Left-ventricular Unloading in Extracorporeal Cardiopulmonary Resuscitation due to Acute Myocardial Infarction – A Multicenter Study | The artificial sweetener erythritol and cardiovascular event risk | Phasic left atrial strain to predict worsening of diastolic function: results from the prospective Berlin Female Risk Evaluation (BEFRI) follow-up trial | Addressing current challenges in optimization of lipid management following an ACS event: Outcomes of the ACS EuroPath III initiative | Implementation of the ESC STEMI guidelines in female and elderly patients over a 20-year period in a large German registry | The first taxonomic and functional characterization of human CAVD-associated microbiota | Application of Magnetocardiography to Screen for Inflammatory Cardiomyopathy and Monitor Treatment Response | New Cerebral Microbleeds After Catheter-Based Structural Heart Interventions: An Exploratory Analysis | Use of mechanical circulatory support in patients with non‐ischemic cardiogenic shock | FOXO3A acts as immune response modulator in human virus-negative inflammatory cardiomyopathy | Left atrial appendage closure in end‐stage renal disease and hemodialysis: Data from a German multicenter registry | Quantitative flow ratio versus fractional flow reserve for guiding percutaneous coronary intervention: design and rationale of the randomised FAVOR III Europe Japan trial | Cardiac sarcoidosis presenting with complex conduction abnormalities as the first manifestation of widespread systemic sarcoidosis: a case report | Timing of Active Left Ventricular Unloading in Patients on Venoarterial Extracorporeal Membrane Oxygenation Therapy | Intestinal Barrier Dysfunction and Microbial Translocation in Patients with First-Diagnosed Atrial Fibrillation | “Very low attenuated plaque on CT appearing as a cyst-like structure in IVUS” | Long-term efficacy and safety of inclisiran in patients with high cardiovascular risk and elevated LDL cholesterol (ORION-3): results from the 4-year open-label extension of the ORION-1 trial | Cytotoxic CD8+ T Cells Are Involved in the Thrombo-Inflammatory Response during First-Diagnosed Atrial Fibrillation | Gut Microbiota-Generated Phenylacetylglutamine and Heart Failure | 521 IMPACT OF CORONARY COMPUTED TOMOGRAPHY ANGIOGRAPHY DERIVED “FULL MOON“ CALCIFICATIONS IN CHRONIC TOTAL OCCLUSION PERCUTANEOUS CORONARY INTERVENTIONS (CTO-PCI) | Kommentar zu den neuen Leitlinien (2021) der Europäischen Gesellschaft für Kardiologie (ESC) zur kardiovaskulären PräventionComments on the 2021 European Society of Cardiology (ESC) Guidelines on cardiovascular disease prevention in clinical practice | Mammalian Target of Rapamycin Inhibition in Patients With ST-Segment Elevation Myocardial Infarction | Abstract 14714: Marked Gradient Reduction Through a Transcoronary Alcohol Ablation of Septal Hypertrophy in a Patient With Cardiac Amyloidosis and Hypertrophic Cardiomyopathy | Effect of inclisiran on lipids in primary prevention: the ORION-11 trial | Inclisiran and cardiovascular events: a patient-level analysis of phase III trials | Case report: Refractory cardiac arrest supported with veno-arterial-venous extracorporeal membrane oxygenation and left-ventricular Impella CP®–Physiological insights and pitfalls of ECMELLA | Endothelial Shear Stress Metrics Correlate With Inflammatory Markers at the Culprit Site of Erosion in Patients With an Acute Coronary Syndrome: An OPTICO-ACS Substudy | Closed loop stimulation in patients with chronic heart failure and severe chronotropic incompetence: Responders versus non-responders | Electrocardiographic changes after TAVR and their clinical impact according to new ESC Pacing Guidelines | Impact of early readmission to the cardiac ICUon in-hospital mortality and hospital length of stay in 30,942 cardiac patients | Thrombin receptor protease-activated receptor 1 (PAR1) related cytotoxic CD8+ T cell activity is associated with atrial myopathy and pro-inflammatory immune response in early atrial fibrillation | RNA-sequencing reveals significant differences in the inflammatory response of iPSC-derived endothelial cells from ACS patients and healthy controls | NK cells are associated with immunometabolic response to a single exercise exertion in heart failure patients | A large-scale functional high-throughput screening identifies miR-515 and miR-519e as potent inducers of human iPSC-cardiomyocyte proliferation | Galectin-3 as a possible marker for increased thrombogenicity in COVID-19 | Investigations in plaque erosion and ruptured in acute coronary syndromes via novel methods in multimodal and VDJ sequencing | Treatment with Impella and veno-arterial extracorporeal membrane oxygenation during cardiac arrest on survival in a multicenter cohort | Lipoprotein(a) levels in a global population with established atherosclerotic cardiovascular disease | The mega COMBO collaboration: An individual patient data pooled analysis of patients undergoing PCI with COMBO stent | Cardiovascular and metabolic determinants of quality of life in patients with cancer | Metabolomic profiles predict individual multidisease outcomes | Potential implications for atherosclerotic cardiovascular disease | 2022 ESC Guidelines on cardio-oncology developed in collaboration with the European Hematology Association (EHA), the European Society for Therapeutic Radiology and Oncology (ESTRO) and the International Cardio-Oncology Society (IC-OS) | 2022 ESC Guidelines for the management of patients with ventricular arrhythmias and the prevention of sudden cardiac death | 2022 ESC Guidelines on cardiovascular assessment and management of patients undergoing non-cardiac surgery | 2022 ESC Guidelines on cardio-oncology developed in collaboration with the European Hematology Association (EHA), the European Society for Therapeutic Radiology and Oncology (ESTRO) and the International Cardio-Oncology Society (IC-OS) | Effect of transcatheter edge-to-edge repair device position on diastolic hemodynamic parameters: An echocardiography-based simulation study | Impact of moderate or severe left ventricular outflow tract calcification on clinical outcomes of patients with severe aortic stenosis undergoing transcatheter aortic valve implantation with self- and balloon-expandable valves: a post hoc analysis from the SOLVE-TAVI trial | Deadly emotional argument: Sudden cardiac death in catecholaminergic polymorphic ventricular tachycardia (CPVT) | Outcomes After Transcatheter Aortic Valve Implantation in Men Versus Women | Randomized Trial of Early mTOR Inhibition in Patients with Acute ST-Segment Elevation Myocardial Infarction | Icosapent ethyl for reduction of persistent cardiovascular risk: a critical review of major medical society guidelines and statements | Valve embolization during transcatheter aortic valve implantation: Incidence, risk factors and follow-up by computed tomography | Bail-Out Implantation of an Embolized Balloon-Expandable Transcatheter Heart Valve in the Aortic Arch Using Self-Expandable Stents | †Efficacy and Safety of Inclisiran in Patients with Established Cerebrovascular Disease: Pooled Post hoc Analysis of the Phase 3 ORION-9, ORION-10, and ORION-11 Randomized Controlled Trials | †Efficacy and Safety of Inclisiran in Patients with Polyvascular Disease: Pooled Post hoc Analysis of the phase 3 ORION-9, ORION-10, and ORION-11 Randomized Controlled Trials | Achievement of ESC/EAS LDL-C treatment goals after an acute coronary syndrome with statin and alirocumab | “Precision-CT(O)”: CTO-lesions unraveled by multimodality cardiac imaging | CT-Guided CTO-PCI Overcoming Bypass Surgery-Induced Native Coronary Artery Tenting | Prognostic value of pre-interventional cerebral oxygen saturation in transcatheter aortic valve replacement: a prespecified secondary analysis of the SOLVE–TAVI trial | Perkutaner Vorhofohrverschluss nach Schlaganfall: Zusammenfassung der Datenlage unter besonderer Berücksichtigung der CLOSURE-AF-Studie | Structured, Harmonized, and Interoperable Integration of Clinical Routine Data to Compute Heart Failure Risk Scores | MINS (Myocardial Injury After Noncardiac Surgery) | Cardiovascular diseases: Strengthen prevention | Gender-Specific Performance of One- Compared to Two-Catheter Concepts in Transradial Coronary Angiography – Insights From the Randomized UDDC-Radial-Trial | Severe heart failure in the setting of inflammatory cardiomyopathy with likely pathogenic titin variant | Transcatheter Caval Valve Implantation for Tricuspid Regurgitation After Single Leaflet Device Attachment | Rapid Inflammasome Activation Is Attenuated in Post-Myocardial Infarction Monocytes | Disease Severity in Moderate-to-Severe COVID-19 Is Associated With Platelet Hyperreactivity and Innate Immune Activation | Pleiotropic Effects of PCSK9: Focus on Thrombosis and Haemostasis | THE EFFECT OF INCLISIRAN IN PATIENTS WITH PRIOR MYOCARDIAL INFARCTION: A POST HOC POOLED ANALYSIS FROM THE ORION-10 AND ORION-11 RANDOMIZED CONTROLLED TRIALS | MALE SEX, HLA-C*04:01 AND COVID-19: A RISKY CONSTELLATION | A DEADLY EMOTIONAL ARGUMENT: PREVENTION OF SUDDEN CARDIAC DEATH IN CATECHOLAMINERGIC POLYMORPHIC VENTRICULAR TACHYCARDIA (CPVT)</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>Small RNA | Acute Coronary Syndrome | Myocardial Infarction | Interventional Cardiology | Atherosclerosis | Clinical Cardiology | Coronary Angioplasty | Cardiac Catheterization | Cardiovascular Medicine</t>
         </is>
       </c>
     </row>

--- a/profile_data.xlsx
+++ b/profile_data.xlsx
@@ -186,7 +186,7 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -226,7 +226,7 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -266,7 +266,7 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -306,7 +306,7 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId41"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -346,7 +346,7 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId41"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId42"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -386,7 +386,7 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId42"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId43"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -426,7 +426,7 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId43"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId44"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -466,7 +466,7 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId44"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId45"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -506,7 +506,7 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId45"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId46"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -546,7 +546,7 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId46"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId47"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -586,7 +586,7 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId47"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId48"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -626,7 +626,7 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId48"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId49"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -666,7 +666,7 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId49"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId50"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -706,7 +706,7 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId50"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId51"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -746,7 +746,7 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId51"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId52"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -786,7 +786,7 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId52"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId53"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -826,7 +826,7 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId53"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId54"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -866,7 +866,7 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId54"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId55"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -906,7 +906,7 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId55"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId56"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -946,7 +946,7 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId56"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId57"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -986,7 +986,7 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId57"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId58"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -1026,7 +1026,7 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId58"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId59"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -1066,7 +1066,7 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId59"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId60"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -1106,7 +1106,7 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId60"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId61"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -1146,7 +1146,7 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId61"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId62"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -2189,7 +2189,35 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId62"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId37"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>63</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="63" name="Image 63" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId63"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -2492,7 +2520,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:M63"/>
+  <dimension ref="A1:M64"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A14" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
@@ -5659,54 +5687,101 @@
       </c>
     </row>
     <row r="63" ht="80" customHeight="1" s="4">
-      <c r="B63" t="inlineStr">
+      <c r="B63" s="3" t="inlineStr">
         <is>
           <t>Ulf Landmesser</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="C63" s="3" t="inlineStr">
         <is>
           <t>Ulf-Landmesser</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="D63" s="3" t="inlineStr">
         <is>
           <t>Charité Universitätsmedizin Berlin</t>
         </is>
       </c>
-      <c r="E63" t="n">
+      <c r="E63" s="3" t="n">
         <v>260512</v>
       </c>
-      <c r="F63" t="n">
+      <c r="F63" s="3" t="n">
         <v>82593</v>
       </c>
-      <c r="G63" t="n">
+      <c r="G63" s="3" t="n">
         <v>49</v>
       </c>
-      <c r="H63" t="inlineStr">
+      <c r="H63" s="3" t="inlineStr">
         <is>
           <t>Arnold-Von-Eckardstein | Francois-Mach | Nicolle-Kraenkel | Marco-Valgimigli | Victoria-Delgado-2 | Dimitrios-Richter | Christian-Matter | Brunilda-Alushi | Mario-Kasner | Youssef-Abdelwahed | Christian-Besler | Kausik-Ray | Lorenz-Raeber | Roland-Klingenberg | Markus-Reinthaler | Barbara-Staehli | Lawrence-Leiter | Alexander-Lauten | Victor-Aboyans | Verena-Tscholl-2 | Bettina-Heidecker-2 | Basil-Lewis | Rhian-Touyz | Maja-Mueller | Holger-Thiele | Carsten-Skurk | Julian-Friebel | Peter-Juni | David-Kallend | Philipp-Jakob | Arash-Haghikia-15458702 | Thomas-F-Luescher-2066063902 | Stephan-Windecker-2150856240 | Christian-Templin-38180505 | Wolfgang-Poller-38264009 | Helmut-Drexler-38379156 | Volkmar-Falk-38397570 | Anna-Sonia-Petronio-38626465 | Jean-Philippe-Collet-38826326 | Frank-Ruschitzka-38867316 | Thomas-F-Luescher-39095647 | Stephan-Windecker-39226172 | Sigrun-Halvorsen-39422807 | Marco-Roffi-39473696 | Ulrich-Laufs-39599709 | Stefan-Blankenberg-39918946 | Hugo-A-Katus-40024551 | Gerhard-Hindricks-40061729 | David-M-Leistner-54246144</t>
         </is>
       </c>
-      <c r="I63" t="n">
-        <v>50</v>
-      </c>
-      <c r="J63" t="inlineStr">
+      <c r="I63" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="J63" s="3" t="inlineStr">
         <is>
           <t>Ian Graham | Stefan Anker | Juhani M Knuuti | Philippe Kolh | Patrizio Lancellotti | Kurt Huber | Keith A A Fox | G. Kees Hovingh | Harvey White | Philippe Gabriel Steg | Lars Wallentin | Karl Swedberg | Robert Giugliano | Marco Valgimigli | Dimitrios J Richter | Paulus Kirchhof | José Luis Zamorano | Patrick W Serruys | Kausik K Ray | Héctor Bueno | Stefan Agewall | John J P Kastelein | Arno Hoes | Alberico L Catapano | Marja-Riitta Taskinen | Julinda Mehilli | Massimo Piepoli | Stefan James | Victor Aboyans | Mr John Chapman | Adnan Kastrati | Zeljko Reiner | Guy De Backer | Michal Tendera | Basil S Lewis | Deepak L Bhatt | Michael Böhm | Daniel J Rader | Holger Thiele | Piotr Ponikowski | John J V Mcmurray | Christian Funck-Brentano | Eva Prescott | Peter Juni | William Wijns | Adam Torbicki | Stefanie Dimmeler | Victoria delgado | Aldo P Maggioni | Andreas M Zeiher</t>
         </is>
       </c>
-      <c r="K63" t="n">
+      <c r="K63" s="3" t="n">
         <v>868</v>
       </c>
-      <c r="L63" t="inlineStr">
+      <c r="L63" s="3" t="inlineStr">
         <is>
           <t>Safety and Healthcare Resource Utilization in Patients Undergoing Left Atrial Appendage Closure — A Nationwide Analysis | Initial therapeutic anticoagulation with rivaroxaban compared to prophylactic therapy with heparins in moderate to severe COVID-19: results of the COVID-PREVENT randomized controlled trial | Coronary microevaginations characterize culprit plaques and their inflammatory microenvironment in a subtype of acute coronary syndrome with intact fibrous cap: results from the prospective translational OPTICO-ACS study | Understanding Who Responds to M-TEER in Heart Failure With SMR | Culprit plaque morphology determines inflammatory risk and clinical outcomes in acute coronary syndrome | Toll-like receptor 2, hyaluronan, and neutrophils play a key role in plaque erosion: the OPTICO-ACS study | Cardiovascular health-related quality of life in cancer: a prospective study comparing the ESC HeartQoL and EORTC QLQ-C30 questionnaire | Atlas of gut microbe-derived products from aromatic amino acids and risk of cardiovascular morbidity and mortality | Mitral valve thickness: A promising echocardiographic parameter for distinguishing between cardiac amyloidosis and Fabry disease | Hand grip strength in patients with advanced cancer: A prospective study | Patient-reported ability to walk 4 m and to wash: New clinical endpoints and predictors of survival in patients with pre-terminal cancer | A single exercise exertion initiates antioxidant and vascular-protective mechanisms in patients with heart failure | Patient Phenotype Profiling in Heart Failure with Preserved Ejection Fraction to Guide Therapeutic Decision Making A Scientific Statement of the Heart Failure Association (HFA) and the European Heart Rhythm Association (EHRA) of the ESC, and the European Society of Hypertension (ESH) | Double “full moon” CTO plaque detected by computed tomography could predict high‐grade debulking techniques: A case‐report | Kardiologische Rehabilitation bei Patienten mit HerzinsuffizienzCardiac rehabilitation in patients with heart failure: Gemeinsame Empfehlungen der Deutschen Gesellschaft für Kardiologie (DGK) und der Deutschen Gesellschaft für Prävention und Rehabilitation von Herz-Kreislauferkrankungen (DGPR)Joint recommendations of the German Cardiac Society (DGK) and the German Society for Prevention and Rehabilitation of Cardiovascular Diseases (DGPR) | The Role of NETosis and Complement Activation in COVID-19-Associated Coagulopathies | Efficacy and safety of inclisiran in patients with cerebrovascular disease: ORION-9, ORION-10, and ORION-11 | Cystic fibrosis transmembrane conductance regulator potentiators attenuate platelet activation and aggregation in blood of healthy donors and COVID-19 patients | Galectin-3 as a Marker for Increased Thrombogenicity in COVID-19 | Prognostic impact of fractional flow reserve measurements in patients with acute coronary syndromes: a subanalysis of the FLORIDA study | Large-scale microRNA functional high-throughput screening identifies miR-515-3p and miR-519e-3p as inducers of human cardiomyocyte proliferation | Clinical and Prognostic Relevance of Cardiac Wasting in Patients With Advanced Cancer | Der koronarkranke Diabetiker: moderne Therapieansätze und Behandlungspfade | Cystic fibrosis transmembrane conductance regulator modulators attenuate platelet activation and aggregation in blood of healthy donors and COVID-19 patients | Medical history predicts phenome-wide disease onset | The DZHK research platform: maximisation of scientific value by enabling access to health data and biological samples collected in cardiovascular clinical studies | EFFICACY AND SAFETY OF INCLISIRAN BY BASELINE BODY MASS INDEX: A POST HOC POOLED ANALYSIS OF THE ORION-9, ORION-10 AND ORION-11 PHASE III RANDOMIZED CONTROLLED TRIALS | Left-ventricular Unloading in Extracorporeal Cardiopulmonary Resuscitation due to Acute Myocardial Infarction – A Multicenter Study | The artificial sweetener erythritol and cardiovascular event risk | Phasic left atrial strain to predict worsening of diastolic function: results from the prospective Berlin Female Risk Evaluation (BEFRI) follow-up trial | Addressing current challenges in optimization of lipid management following an ACS event: Outcomes of the ACS EuroPath III initiative | Implementation of the ESC STEMI guidelines in female and elderly patients over a 20-year period in a large German registry | The first taxonomic and functional characterization of human CAVD-associated microbiota | Application of Magnetocardiography to Screen for Inflammatory Cardiomyopathy and Monitor Treatment Response | New Cerebral Microbleeds After Catheter-Based Structural Heart Interventions: An Exploratory Analysis | Use of mechanical circulatory support in patients with non‐ischemic cardiogenic shock | FOXO3A acts as immune response modulator in human virus-negative inflammatory cardiomyopathy | Left atrial appendage closure in end‐stage renal disease and hemodialysis: Data from a German multicenter registry | Quantitative flow ratio versus fractional flow reserve for guiding percutaneous coronary intervention: design and rationale of the randomised FAVOR III Europe Japan trial | Cardiac sarcoidosis presenting with complex conduction abnormalities as the first manifestation of widespread systemic sarcoidosis: a case report | Timing of Active Left Ventricular Unloading in Patients on Venoarterial Extracorporeal Membrane Oxygenation Therapy | Intestinal Barrier Dysfunction and Microbial Translocation in Patients with First-Diagnosed Atrial Fibrillation | “Very low attenuated plaque on CT appearing as a cyst-like structure in IVUS” | Long-term efficacy and safety of inclisiran in patients with high cardiovascular risk and elevated LDL cholesterol (ORION-3): results from the 4-year open-label extension of the ORION-1 trial | Cytotoxic CD8+ T Cells Are Involved in the Thrombo-Inflammatory Response during First-Diagnosed Atrial Fibrillation | Gut Microbiota-Generated Phenylacetylglutamine and Heart Failure | 521 IMPACT OF CORONARY COMPUTED TOMOGRAPHY ANGIOGRAPHY DERIVED “FULL MOON“ CALCIFICATIONS IN CHRONIC TOTAL OCCLUSION PERCUTANEOUS CORONARY INTERVENTIONS (CTO-PCI) | Kommentar zu den neuen Leitlinien (2021) der Europäischen Gesellschaft für Kardiologie (ESC) zur kardiovaskulären PräventionComments on the 2021 European Society of Cardiology (ESC) Guidelines on cardiovascular disease prevention in clinical practice | Mammalian Target of Rapamycin Inhibition in Patients With ST-Segment Elevation Myocardial Infarction | Abstract 14714: Marked Gradient Reduction Through a Transcoronary Alcohol Ablation of Septal Hypertrophy in a Patient With Cardiac Amyloidosis and Hypertrophic Cardiomyopathy | Effect of inclisiran on lipids in primary prevention: the ORION-11 trial | Inclisiran and cardiovascular events: a patient-level analysis of phase III trials | Case report: Refractory cardiac arrest supported with veno-arterial-venous extracorporeal membrane oxygenation and left-ventricular Impella CP®–Physiological insights and pitfalls of ECMELLA | Endothelial Shear Stress Metrics Correlate With Inflammatory Markers at the Culprit Site of Erosion in Patients With an Acute Coronary Syndrome: An OPTICO-ACS Substudy | Closed loop stimulation in patients with chronic heart failure and severe chronotropic incompetence: Responders versus non-responders | Electrocardiographic changes after TAVR and their clinical impact according to new ESC Pacing Guidelines | Impact of early readmission to the cardiac ICUon in-hospital mortality and hospital length of stay in 30,942 cardiac patients | Thrombin receptor protease-activated receptor 1 (PAR1) related cytotoxic CD8+ T cell activity is associated with atrial myopathy and pro-inflammatory immune response in early atrial fibrillation | RNA-sequencing reveals significant differences in the inflammatory response of iPSC-derived endothelial cells from ACS patients and healthy controls | NK cells are associated with immunometabolic response to a single exercise exertion in heart failure patients | A large-scale functional high-throughput screening identifies miR-515 and miR-519e as potent inducers of human iPSC-cardiomyocyte proliferation | Galectin-3 as a possible marker for increased thrombogenicity in COVID-19 | Investigations in plaque erosion and ruptured in acute coronary syndromes via novel methods in multimodal and VDJ sequencing | Treatment with Impella and veno-arterial extracorporeal membrane oxygenation during cardiac arrest on survival in a multicenter cohort | Lipoprotein(a) levels in a global population with established atherosclerotic cardiovascular disease | The mega COMBO collaboration: An individual patient data pooled analysis of patients undergoing PCI with COMBO stent | Cardiovascular and metabolic determinants of quality of life in patients with cancer | Metabolomic profiles predict individual multidisease outcomes | Potential implications for atherosclerotic cardiovascular disease | 2022 ESC Guidelines on cardio-oncology developed in collaboration with the European Hematology Association (EHA), the European Society for Therapeutic Radiology and Oncology (ESTRO) and the International Cardio-Oncology Society (IC-OS) | 2022 ESC Guidelines for the management of patients with ventricular arrhythmias and the prevention of sudden cardiac death | 2022 ESC Guidelines on cardiovascular assessment and management of patients undergoing non-cardiac surgery | 2022 ESC Guidelines on cardio-oncology developed in collaboration with the European Hematology Association (EHA), the European Society for Therapeutic Radiology and Oncology (ESTRO) and the International Cardio-Oncology Society (IC-OS) | Effect of transcatheter edge-to-edge repair device position on diastolic hemodynamic parameters: An echocardiography-based simulation study | Impact of moderate or severe left ventricular outflow tract calcification on clinical outcomes of patients with severe aortic stenosis undergoing transcatheter aortic valve implantation with self- and balloon-expandable valves: a post hoc analysis from the SOLVE-TAVI trial | Deadly emotional argument: Sudden cardiac death in catecholaminergic polymorphic ventricular tachycardia (CPVT) | Outcomes After Transcatheter Aortic Valve Implantation in Men Versus Women | Randomized Trial of Early mTOR Inhibition in Patients with Acute ST-Segment Elevation Myocardial Infarction | Icosapent ethyl for reduction of persistent cardiovascular risk: a critical review of major medical society guidelines and statements | Valve embolization during transcatheter aortic valve implantation: Incidence, risk factors and follow-up by computed tomography | Bail-Out Implantation of an Embolized Balloon-Expandable Transcatheter Heart Valve in the Aortic Arch Using Self-Expandable Stents | †Efficacy and Safety of Inclisiran in Patients with Established Cerebrovascular Disease: Pooled Post hoc Analysis of the Phase 3 ORION-9, ORION-10, and ORION-11 Randomized Controlled Trials | †Efficacy and Safety of Inclisiran in Patients with Polyvascular Disease: Pooled Post hoc Analysis of the phase 3 ORION-9, ORION-10, and ORION-11 Randomized Controlled Trials | Achievement of ESC/EAS LDL-C treatment goals after an acute coronary syndrome with statin and alirocumab | “Precision-CT(O)”: CTO-lesions unraveled by multimodality cardiac imaging | CT-Guided CTO-PCI Overcoming Bypass Surgery-Induced Native Coronary Artery Tenting | Prognostic value of pre-interventional cerebral oxygen saturation in transcatheter aortic valve replacement: a prespecified secondary analysis of the SOLVE–TAVI trial | Perkutaner Vorhofohrverschluss nach Schlaganfall: Zusammenfassung der Datenlage unter besonderer Berücksichtigung der CLOSURE-AF-Studie | Structured, Harmonized, and Interoperable Integration of Clinical Routine Data to Compute Heart Failure Risk Scores | MINS (Myocardial Injury After Noncardiac Surgery) | Cardiovascular diseases: Strengthen prevention | Gender-Specific Performance of One- Compared to Two-Catheter Concepts in Transradial Coronary Angiography – Insights From the Randomized UDDC-Radial-Trial | Severe heart failure in the setting of inflammatory cardiomyopathy with likely pathogenic titin variant | Transcatheter Caval Valve Implantation for Tricuspid Regurgitation After Single Leaflet Device Attachment | Rapid Inflammasome Activation Is Attenuated in Post-Myocardial Infarction Monocytes | Disease Severity in Moderate-to-Severe COVID-19 Is Associated With Platelet Hyperreactivity and Innate Immune Activation | Pleiotropic Effects of PCSK9: Focus on Thrombosis and Haemostasis | THE EFFECT OF INCLISIRAN IN PATIENTS WITH PRIOR MYOCARDIAL INFARCTION: A POST HOC POOLED ANALYSIS FROM THE ORION-10 AND ORION-11 RANDOMIZED CONTROLLED TRIALS | MALE SEX, HLA-C*04:01 AND COVID-19: A RISKY CONSTELLATION | A DEADLY EMOTIONAL ARGUMENT: PREVENTION OF SUDDEN CARDIAC DEATH IN CATECHOLAMINERGIC POLYMORPHIC VENTRICULAR TACHYCARDIA (CPVT)</t>
         </is>
       </c>
-      <c r="M63" t="inlineStr">
+      <c r="M63" s="3" t="inlineStr">
         <is>
           <t>Small RNA | Acute Coronary Syndrome | Myocardial Infarction | Interventional Cardiology | Atherosclerosis | Clinical Cardiology | Coronary Angioplasty | Cardiac Catheterization | Cardiovascular Medicine</t>
+        </is>
+      </c>
+    </row>
+    <row r="64" ht="80" customHeight="1" s="4">
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Eddy Tamayo</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Eddy-Tamayo</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Universidad Técnica de Manabí (UTM)</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>317</v>
+      </c>
+      <c r="F64" t="n">
+        <v>307</v>
+      </c>
+      <c r="G64" t="n">
+        <v>50</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Erik-Kelder | Pasqua-Herve | Herve-Lerat | Jacqueline_De_Guerra | Eric-Deconinck | Steinar-Saeland-2 | Carlos-Dominguez-25 | Ugo-Lafont | Emmanuel-Plouvier-2 | Marie-Galmiche-2 | Paloma-Tejedor | Allen-Gown | Jaime-Santos-Perez-2 | Luc-Sensebe | Raquel-Blasco-Redondo | Gerardo-Pastor | Frederic-Deschaseaux | Pierre-Charbord | Jean-Yves-Cahn | Bernard-Lamy | Pablo-Fernandez-Crehuet | Sem-Saeland | Elizabeth-Dominguez-2 | Anca-Anastasopol | Laurent-Pelletier-2032135929 | A-Payo-2044686884 | M-L-Deschaseaux-2047112287 | P-Hernandez-Mateo-2085698656 | R-Mendez-Fernandez-2085745516 | B-Marquez-2111001362 | M-Tang-2111022064 | J-Bachiller-Alonso-27746917 | A-Vielba-28181676 | G-Pena-Blanco-29656083 | J-M-Sierra-Roman-30245152 | JV-Ruiz-Jaldo-30301418 | MA-Vazquez-Hermoso-31090988 | Bruno-Peault-38240614 | D-Morais-Perez-38438408 | A-Noir-38555559 | Jean-Paul-Remy-Martin-38918585 | R-Lenys-38984247 | V-Duvert-39174395 | A-Alarcos-Llorach-39467911 | R-Leconte-des-Floris-39654590 | A-Rozenbaum-40062528 | Gabrielle-Bernard-44563178 | J-Poulet-45976192 | A-Peters-60394396 | M-Flesch-65326046</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
+        <v>50</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>Andrew Will | Richard Shadduck | Hervé Lerat | Terence David Allen | Gary Spitzer | Manuela Tavian | Ivo P Touw | Jean E Sanders | Giulio Gabbiani | Allan D Hess | Heather J Sutherland | Chong Chen | Joop Schoonman | Beverly Torok-Storb | Evis Sala | Edmund K Waller | Jack W Singer | Ugo Lafont | Emmanuel Plouvier | Marie C. Galmiche | Axel R. Zander | Allen M Gown | Thalia Papayannopoulou | Luc Sensebé | Pierre Charbord | Gary E Striker | Jean-Yves Cahn | Kateri A Moore | Caroline Reinhold Md | Maria Frid | Marina A Glukhova | Peter Quesenberry | Laurent Humeau | Keith Humphries | William G Hocking | Sem Saeland | David Munao | Paul Simmons | Daniel Ryan | Erik Kelder | Pasqua Hervé | Peter Newburger | Jacob Keyser Brennan | Celine Abboud | Lone Ronnov-Jessen | Connie Eaves | Jiren Li | Jane Liesveld | Paul Killen | Luc Douay</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>50</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>CONSTRUCTURA S | Uterine sarcoma vs adenocarcinoma: Can the MRI distinguish between them? | Sarcoma uterino frente a adenocarcinoma: ¿es posible distinguirlos mediante resonancia magnética? | Analysis of the Microenvironment Necessary for Engraftment: Role of the Vascular Smooth Muscle-like Stromal Cells | The Hematopoietic Microenvironment: Phenotypic and Functional Characterization of Human Marrow Vascular Stromal Cells. | Phenotypic and Functional Characterization of Human Marrow Vascular Stromal Cells | What can be learnt from the study of the phenotype of human marrow stromal cells | [Congenital cysts of the nasopharynx. Report of a case] | [Food habits in the school population from rural areas] | [Tracheocele: a case report] | Hábitos ali-mentarios entre la población escolar del medio rural | A quantitative assay that evaluates the capacity of human stromal cells to support granulomonopoiesis in situ | [ORL manifestations in HIV patients. Report of 156 cases] | A glomus tumor of the nasal fossa and ethmoid sinus | Stromal cell mediated granulopoiesis: The role of myofibroblasts | Granulocyte-macrophage colony-stimulating factor (GM-CSF) in human long-term bone marrow cultures: Endogenous production in the adherent layer and effect of exogeneous GM-CSF on granulomonopoiesis | Granulocyte-macrophage colony-stimulating factor (GM-CSF) in human long- term bone marrow cultures: endogenous production in the adherent layer and effect of exogenous GM-CSF on granulomonopoiesis | In vitro chemosensitivity of leukemic progenitor cells (AML-CFU) to a combination of mafosfamide lysine (ASTA-Z 7654) and etoposide (VP16-213) | [Evaluation of the 1st phonatory results in fistuloplasty patients using the Kaplan and Polow scales] | Preclinical studies of the combination of mafosfamide (Asta-Z 7654) and etoposide (VP-16-213) for purging leukemic autologous marrow | [Culture of leukemic progenitor cells in acute non-T lymphoid leukemia] | Polysilicon from amorphous silicon obtained by LPCVD | Elimination of residual AML from autologous bone marrow grafts with in vitro chemotherapy | Photovoltaic amorphous silicon starting with Si2H6 in a LPCVD system | Attempts to eliminate residual acute myeloid leukemia cells from autologous bone marrow grafts through in vitro chemotherapy. A review | Mezclas SiH4/H2 y SiH4/N2 para la obtención del polisilicio utilizado en microelectrónica | Crystallinity changes in silicon deposited by SiH2Cl2/H2 and SiHCl3/H2 at different temperatures in hot wall reactors | Comparative studies between mafosfamide and etoposide on myeloid progenitor cells, T-cell response and clonogenic cell lines | Consideraciones sobre el crecimiento de polisilicio por LPCVD a partir de silicio puro | Estudio del límite entre las zonas policristalinas y amorfa de las deposiciones de silicio policristalino utilizado en microelectrónica | Autologous bone marrow transplantation for acute leukemia using transplant chemopurified with metabolite of oxazaphosphorines (ASTA Z 7557, INN mafosfamide) | [Acute leukemias. Intensive treatment followed by a graft of autologous hematopoietic stem cells treated in vitro with an active derivative of cyclophosphamide] | Autologous bone marrow transplantation for acute leukemia using transplant chemopurified with metabolite of oxazaphosphorines (ASTA Z 7557, INN mafosfamide). First clinical results | A study of the homogenity of the deposit policrystalline silicon starting with SiH4 in LPCVD siystems | Autologous stem cell grafting in acute myeloid leukaemia: technical approach of marrow incubation in vitro with pharmacological agents (prerequisite for clinical … | Autologous stem cell grafting in acute myeloblastic leukemia: technical approach of marrow incubation in vitro with pharmacological agents (prerequisite for clinical applications) | Sistema de CVD a diferentes presiones para deposición de silicio fotovoltaico | Study of the action of six strains of Rhizobium on four legumesEstudio de la accion de siete cepas de Rhizobium sobre cuatro leguminosas | Study of the action of six strains of Rhizobium on four legumesEstudio de la accion de siete cepas de Rhizobium sobre cuatro leguminosas | Análisis termodinámico de la carga de espacio | Planteamiento de un modelo no Shockleiano de unión p-n | Explicación de las características I-V en uniones p-n teniendo en cuenta los efectos del campo eléctrico inducido | [Kinetics of CFU.c population after autoiogous bone marrow graft (author's transl)] | Kinetics of CFU-c population after autologous bone marrow graft | Características corriente-voltaje en uniones de transistores de comercio | A new model of the P-N junction | Estudio de la difusión de fósforo en silicio con vistas a su aplicación en células solares | Cryopreservation of human bone marrow with a view to autologous bone marrow transplantation in « Bone marrow transplantation in Europe | Electrochemical Performance of Nanocomposite Fe2O3 and CuO Negative Electrodes for Li-Ion Batteries | Synthesis and Deposition of Nanostructured Lithium Nickel Manganese Film as Material for 3D Microbatteries</t>
         </is>
       </c>
     </row>

--- a/profile_data.xlsx
+++ b/profile_data.xlsx
@@ -186,7 +186,7 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId77"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -226,7 +226,7 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId78"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -266,7 +266,7 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId79"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -306,7 +306,7 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId41"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId80"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -346,7 +346,7 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId42"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId81"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -386,7 +386,7 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId43"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId82"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -426,7 +426,7 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId44"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId83"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -466,7 +466,7 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId45"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId84"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -506,7 +506,7 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId46"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId85"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -546,7 +546,7 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId47"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId86"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -586,7 +586,7 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId48"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId87"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -626,7 +626,7 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId49"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId88"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -666,7 +666,7 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId50"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId89"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -706,7 +706,7 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId51"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId90"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -746,7 +746,7 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId52"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId91"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -786,7 +786,7 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId53"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId92"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -826,7 +826,7 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId54"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId93"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -866,7 +866,7 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId55"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId94"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -906,7 +906,7 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId56"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId95"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -946,7 +946,7 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId57"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId96"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -986,7 +986,7 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId58"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId97"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -1026,7 +1026,7 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId59"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId98"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -1066,7 +1066,7 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId60"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId99"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -1106,7 +1106,7 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId61"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId100"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -1146,7 +1146,7 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId62"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId101"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -2217,7 +2217,1099 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId38"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>64</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="64" name="Image 64" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId39"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>65</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="65" name="Image 65" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId40"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>66</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="66" name="Image 66" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId41"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>67</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="67" name="Image 67" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId42"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>68</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="68" name="Image 68" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId43"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>69</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="69" name="Image 69" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId44"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>70</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="70" name="Image 70" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId45"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>71</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="71" name="Image 71" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId46"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>72</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="72" name="Image 72" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId47"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>73</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="73" name="Image 73" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId48"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>74</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="74" name="Image 74" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId49"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>75</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="75" name="Image 75" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId50"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>76</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="76" name="Image 76" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId51"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>77</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="77" name="Image 77" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId52"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>78</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="78" name="Image 78" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId53"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>79</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="79" name="Image 79" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId54"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>80</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="80" name="Image 80" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId55"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>81</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="81" name="Image 81" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId56"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>82</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="82" name="Image 82" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId57"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>83</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="83" name="Image 83" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId58"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>84</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="84" name="Image 84" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId59"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>85</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="85" name="Image 85" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId60"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>86</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="86" name="Image 86" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId61"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>87</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="87" name="Image 87" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId62"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>88</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="88" name="Image 88" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
         <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId63"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>89</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="89" name="Image 89" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId64"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>90</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="90" name="Image 90" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId65"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>91</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="91" name="Image 91" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId66"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>92</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="92" name="Image 92" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId67"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>93</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="93" name="Image 93" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId68"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>94</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="94" name="Image 94" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId69"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>95</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="95" name="Image 95" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId70"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>96</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="96" name="Image 96" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId71"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>97</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="97" name="Image 97" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId72"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>98</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="98" name="Image 98" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId73"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>99</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="99" name="Image 99" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId74"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>100</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="100" name="Image 100" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId75"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>101</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="101" name="Image 101" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId76"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>102</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="102" name="Image 102" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId102"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -2520,7 +3612,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:M103"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A14" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
@@ -5739,49 +6831,2012 @@
       </c>
     </row>
     <row r="64" ht="80" customHeight="1" s="4">
-      <c r="B64" t="inlineStr">
+      <c r="B64" s="3" t="inlineStr">
         <is>
           <t>Eddy Tamayo</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="C64" s="3" t="inlineStr">
         <is>
           <t>Eddy-Tamayo</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="D64" s="3" t="inlineStr">
         <is>
           <t>Universidad Técnica de Manabí (UTM)</t>
         </is>
       </c>
-      <c r="E64" t="n">
+      <c r="E64" s="3" t="n">
         <v>317</v>
       </c>
-      <c r="F64" t="n">
+      <c r="F64" s="3" t="n">
         <v>307</v>
       </c>
-      <c r="G64" t="n">
-        <v>50</v>
-      </c>
-      <c r="H64" t="inlineStr">
+      <c r="G64" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="H64" s="3" t="inlineStr">
         <is>
           <t>Erik-Kelder | Pasqua-Herve | Herve-Lerat | Jacqueline_De_Guerra | Eric-Deconinck | Steinar-Saeland-2 | Carlos-Dominguez-25 | Ugo-Lafont | Emmanuel-Plouvier-2 | Marie-Galmiche-2 | Paloma-Tejedor | Allen-Gown | Jaime-Santos-Perez-2 | Luc-Sensebe | Raquel-Blasco-Redondo | Gerardo-Pastor | Frederic-Deschaseaux | Pierre-Charbord | Jean-Yves-Cahn | Bernard-Lamy | Pablo-Fernandez-Crehuet | Sem-Saeland | Elizabeth-Dominguez-2 | Anca-Anastasopol | Laurent-Pelletier-2032135929 | A-Payo-2044686884 | M-L-Deschaseaux-2047112287 | P-Hernandez-Mateo-2085698656 | R-Mendez-Fernandez-2085745516 | B-Marquez-2111001362 | M-Tang-2111022064 | J-Bachiller-Alonso-27746917 | A-Vielba-28181676 | G-Pena-Blanco-29656083 | J-M-Sierra-Roman-30245152 | JV-Ruiz-Jaldo-30301418 | MA-Vazquez-Hermoso-31090988 | Bruno-Peault-38240614 | D-Morais-Perez-38438408 | A-Noir-38555559 | Jean-Paul-Remy-Martin-38918585 | R-Lenys-38984247 | V-Duvert-39174395 | A-Alarcos-Llorach-39467911 | R-Leconte-des-Floris-39654590 | A-Rozenbaum-40062528 | Gabrielle-Bernard-44563178 | J-Poulet-45976192 | A-Peters-60394396 | M-Flesch-65326046</t>
         </is>
       </c>
-      <c r="I64" t="n">
-        <v>50</v>
-      </c>
-      <c r="J64" t="inlineStr">
+      <c r="I64" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="J64" s="3" t="inlineStr">
         <is>
           <t>Andrew Will | Richard Shadduck | Hervé Lerat | Terence David Allen | Gary Spitzer | Manuela Tavian | Ivo P Touw | Jean E Sanders | Giulio Gabbiani | Allan D Hess | Heather J Sutherland | Chong Chen | Joop Schoonman | Beverly Torok-Storb | Evis Sala | Edmund K Waller | Jack W Singer | Ugo Lafont | Emmanuel Plouvier | Marie C. Galmiche | Axel R. Zander | Allen M Gown | Thalia Papayannopoulou | Luc Sensebé | Pierre Charbord | Gary E Striker | Jean-Yves Cahn | Kateri A Moore | Caroline Reinhold Md | Maria Frid | Marina A Glukhova | Peter Quesenberry | Laurent Humeau | Keith Humphries | William G Hocking | Sem Saeland | David Munao | Paul Simmons | Daniel Ryan | Erik Kelder | Pasqua Hervé | Peter Newburger | Jacob Keyser Brennan | Celine Abboud | Lone Ronnov-Jessen | Connie Eaves | Jiren Li | Jane Liesveld | Paul Killen | Luc Douay</t>
         </is>
       </c>
-      <c r="K64" t="n">
-        <v>50</v>
-      </c>
-      <c r="L64" t="inlineStr">
+      <c r="K64" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="L64" s="3" t="inlineStr">
         <is>
           <t>CONSTRUCTURA S | Uterine sarcoma vs adenocarcinoma: Can the MRI distinguish between them? | Sarcoma uterino frente a adenocarcinoma: ¿es posible distinguirlos mediante resonancia magnética? | Analysis of the Microenvironment Necessary for Engraftment: Role of the Vascular Smooth Muscle-like Stromal Cells | The Hematopoietic Microenvironment: Phenotypic and Functional Characterization of Human Marrow Vascular Stromal Cells. | Phenotypic and Functional Characterization of Human Marrow Vascular Stromal Cells | What can be learnt from the study of the phenotype of human marrow stromal cells | [Congenital cysts of the nasopharynx. Report of a case] | [Food habits in the school population from rural areas] | [Tracheocele: a case report] | Hábitos ali-mentarios entre la población escolar del medio rural | A quantitative assay that evaluates the capacity of human stromal cells to support granulomonopoiesis in situ | [ORL manifestations in HIV patients. Report of 156 cases] | A glomus tumor of the nasal fossa and ethmoid sinus | Stromal cell mediated granulopoiesis: The role of myofibroblasts | Granulocyte-macrophage colony-stimulating factor (GM-CSF) in human long-term bone marrow cultures: Endogenous production in the adherent layer and effect of exogeneous GM-CSF on granulomonopoiesis | Granulocyte-macrophage colony-stimulating factor (GM-CSF) in human long- term bone marrow cultures: endogenous production in the adherent layer and effect of exogenous GM-CSF on granulomonopoiesis | In vitro chemosensitivity of leukemic progenitor cells (AML-CFU) to a combination of mafosfamide lysine (ASTA-Z 7654) and etoposide (VP16-213) | [Evaluation of the 1st phonatory results in fistuloplasty patients using the Kaplan and Polow scales] | Preclinical studies of the combination of mafosfamide (Asta-Z 7654) and etoposide (VP-16-213) for purging leukemic autologous marrow | [Culture of leukemic progenitor cells in acute non-T lymphoid leukemia] | Polysilicon from amorphous silicon obtained by LPCVD | Elimination of residual AML from autologous bone marrow grafts with in vitro chemotherapy | Photovoltaic amorphous silicon starting with Si2H6 in a LPCVD system | Attempts to eliminate residual acute myeloid leukemia cells from autologous bone marrow grafts through in vitro chemotherapy. A review | Mezclas SiH4/H2 y SiH4/N2 para la obtención del polisilicio utilizado en microelectrónica | Crystallinity changes in silicon deposited by SiH2Cl2/H2 and SiHCl3/H2 at different temperatures in hot wall reactors | Comparative studies between mafosfamide and etoposide on myeloid progenitor cells, T-cell response and clonogenic cell lines | Consideraciones sobre el crecimiento de polisilicio por LPCVD a partir de silicio puro | Estudio del límite entre las zonas policristalinas y amorfa de las deposiciones de silicio policristalino utilizado en microelectrónica | Autologous bone marrow transplantation for acute leukemia using transplant chemopurified with metabolite of oxazaphosphorines (ASTA Z 7557, INN mafosfamide) | [Acute leukemias. Intensive treatment followed by a graft of autologous hematopoietic stem cells treated in vitro with an active derivative of cyclophosphamide] | Autologous bone marrow transplantation for acute leukemia using transplant chemopurified with metabolite of oxazaphosphorines (ASTA Z 7557, INN mafosfamide). First clinical results | A study of the homogenity of the deposit policrystalline silicon starting with SiH4 in LPCVD siystems | Autologous stem cell grafting in acute myeloid leukaemia: technical approach of marrow incubation in vitro with pharmacological agents (prerequisite for clinical … | Autologous stem cell grafting in acute myeloblastic leukemia: technical approach of marrow incubation in vitro with pharmacological agents (prerequisite for clinical applications) | Sistema de CVD a diferentes presiones para deposición de silicio fotovoltaico | Study of the action of six strains of Rhizobium on four legumesEstudio de la accion de siete cepas de Rhizobium sobre cuatro leguminosas | Study of the action of six strains of Rhizobium on four legumesEstudio de la accion de siete cepas de Rhizobium sobre cuatro leguminosas | Análisis termodinámico de la carga de espacio | Planteamiento de un modelo no Shockleiano de unión p-n | Explicación de las características I-V en uniones p-n teniendo en cuenta los efectos del campo eléctrico inducido | [Kinetics of CFU.c population after autoiogous bone marrow graft (author's transl)] | Kinetics of CFU-c population after autologous bone marrow graft | Características corriente-voltaje en uniones de transistores de comercio | A new model of the P-N junction | Estudio de la difusión de fósforo en silicio con vistas a su aplicación en células solares | Cryopreservation of human bone marrow with a view to autologous bone marrow transplantation in « Bone marrow transplantation in Europe | Electrochemical Performance of Nanocomposite Fe2O3 and CuO Negative Electrodes for Li-Ion Batteries | Synthesis and Deposition of Nanostructured Lithium Nickel Manganese Film as Material for 3D Microbatteries</t>
+        </is>
+      </c>
+    </row>
+    <row r="65" ht="80" customHeight="1" s="4">
+      <c r="B65" s="3" t="inlineStr">
+        <is>
+          <t>Denis Chemla</t>
+        </is>
+      </c>
+      <c r="C65" s="3" t="inlineStr">
+        <is>
+          <t>Denis-Chemla</t>
+        </is>
+      </c>
+      <c r="E65" s="3" t="n">
+        <v>21773</v>
+      </c>
+      <c r="F65" s="3" t="n">
+        <v>9336</v>
+      </c>
+      <c r="G65" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="H65" s="3" t="inlineStr">
+        <is>
+          <t>Pasqua-Herve | Laurent-Savale | Massika-Brahimi | Frederic-Lador | David-Montani | Sven-Guenther-3 | Kaveh-Zamani-2 | Anouar-Benmalek | Vincent-Algalarrondo | Christian-Richard-5 | Yves-Lecarpentier-2 | Catherine-Coirault | Olivier-Sitbon | Frederic-Michard-2 | Florence-Parent-3 | Ludivine-Eliahou | Vincent-Castelain | Jean-Louis-Teboul | Gerald-Simonneau | Slama-Michel | Pierre-Attal | Francois-Xavier-Blanc | David-Adams-46 | B-Lamia | Laurent-Godinas | Sandrine-Millasseau | Edmund-Lau-2 | Nicolas-Creuze | Jean-Louis-Martin-5 | Emmanuelle-Berthelot | Steeve-Provencher | Guy-Fontaine-2 | Marc-Humbert-3 | Xavier-Jais | Philippe-Herve-2072290835 | Marc-Humbert-2093385392 | David-Osman-2163019519 | Isabelle-Antony-2163429326 | J-C-Pourny-2849053 | Bruno-Riou-38440381 | A-Nitenberg-38636742 | Jean-Louis-Hebert-38980328 | Elizabeth-Scalbert-39402712 | Xavier-Monnet-39603962 | P-Assayag-39949771 | M-Clergue-4946230 | I-Suard-5302599 | Susana-Hoette-57108533 | Pierre-Desche-5894939 | F-Lambert-62130088</t>
+        </is>
+      </c>
+      <c r="I65" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="J65" s="3" t="inlineStr">
+        <is>
+          <t>Chen-Huan Chen | David Kass | Nicolaas Westerhof | Alberto Avolio | Alain Mercat | Frederic Lador | David Montani | Jean-Louis Vincent | Christian Richard | Yves Lecarpentier | James A Spudich | Ole B Suhr | Olivier Sitbon | Frederic Michard | Michael F O'Rourke | Dirk L Brutsaert | Pieter Edsge Postmus | Gerald Simonneau | Slama Michel | Serge Brimioulle | Andrew John Peacock | Dinesh Khanna | Rogério Souza | David Adams | Barry A Borlaug | Robert Frank | Nazzareno Galié | Jean-Luc Vachiery | Philippe Housmans | Horst Olschewski | Edmund M Lau | Gabor Kovacs | Jean-Louis Martin | Steeve Provencher | Guy Fontaine | Marc Humbert | Xavier Jaïs | Pasqua Hervé | Laurent Savale | Adam Torbicki | David B Badesch | Kaveh Zamani | Catherine Coirault | Florence Parent | Stuart Rich | Vincent Castelain | Charalambos Vlachopoulos | Rajeev Saggar | Jean-Louis Teboul | François-Xavier Blanc</t>
+        </is>
+      </c>
+      <c r="K65" s="3" t="n">
+        <v>266</v>
+      </c>
+      <c r="L65" s="3" t="inlineStr">
+        <is>
+          <t>New Method to Estimate Central Systolic Blood Pressure From Peripheral Pressure: A Proof of Concept and Validation Study | Pulsatile pulmonary artery pressure in a large animal model of chronic thromboembolic pulmonary hypertension: similarities and differences with human data.: Pulmonary artery pulsatile pressure in a CTEPH model | A systematic review of invasive, high-fidelity pressure studies documenting the amplification of blood pressure from the aorta to the brachial and radial arteries | Screening for Pulmonary Arterial Hypertension in Adults Carrying a BMPR2 Mutation | The isobaric pulmonary arterial compliance in pulmonary hypertension | Brachial mean arterial pressure: extremely high accuracy, good precision and pressure dependence of currently used formulas | Screening for pulmonary arterial hypertension in adults carrying a BMPR2 mutation | Screening of pulmonary arterial hypertension in BMPR2 mutation carriers | P1272 Echocardiographic evaluation of left ventricular filling pressure in patients with heart failure with preserved ejection fraction : usefulness of inferior vena cava measurement | P4690Effects of pulmonary artery wedge pressure on right ventricular pulsatile loading in pulmonary hypertension: a reappraisal based on pulmonary arterial isobaric stiffness | Chronic thromboembolic and pulmonary arterial hypertension share right ventricular and pulmonary artery CMR features | Cause of death analysis and temporal trends in survival after liver transplantation for transthyretin familial amyloid polyneuropathy | Arterial Pulse Pressure Variation with Mechanical Ventilation | Physiopathologie hémodynamique du ventricule droit | Hemodynamic correlates of right ventricular dilation in pulmonary hypertension due to HFpEF | Are indexed values better for defining exercise pulmonary hypertension? | Influence of critical closing pressure on systemic vascular resistance and total arterial compliance: A clinical invasive study | P4362What influences right ventricle dilation in HFpEF? | Pulmonary hypertension due to left heart disease | Cardiac dysautonomia predicts long term survival in transthyretin amyloidosis | Proceedings of Réanimation 2017, the French Intensive Care Society International Congress | Proceedings of Réanimation 2017, the French Intensive Care Society International Congress | Hemodynamic correlates of the left ventricular mean ejection pressure: a carotid tonometry study | Non-invasive estimation of central systolic pressure: a comparison between radial artery tonometry and a new direct central blood pressure estimation method (DCBP) | Form factor of the femoral artery: an invasive study | Kinetics of Cardiac Output at the Onset of Exercise in Precapillary Pulmonary Hypertension | Cardiac Dysautonomia Predicts Long-Term Survival in Hereditary Transthyretin Amyloidosis After Liver Transplantation | Cardiac Dysautonomia Predicts Long-Term Survival in Hereditary Transthyretin Amyloidosis After Liver Transplantation | A Clinical and Echocardiographic Score to Identify Pulmonary Hypertension Due to HFpEF | Faisabilité de la mesure de la pression centrale pendant la dialyse avec l’appareil Complior Analyse | OP.6B.01] DIRECT ESTIMATION OF CENTRAL SYSTOLIC PRESSURE FROM PERIPHERAL PRESSURES: A PROOF OF CONCEPT BASED ON THE META-ANALYSIS OF HIGH-FIDELITY PRESSURE STUDIES | Prehospital shock index and pulse pressure/heart rate ratio to predict massive transfusion after severe trauma: Retrospective analysis of a large regional trauma database | Does exercise pulmonary hypertension exist? | Diagnostic concordance of different criteria for exercise pulmonary hypertension in subjects with normal resting pulmonary artery pressure | Resting pulmonary artery pressure of 21–24 mmHg predicts abnormal exercise haemodynamics | 0295: Characteristics of pulmonary hypertension in heart failure with preserved ejection fraction or pre capillary pulmonary hypertension | Autonomic dysfunction and prediction of long term survival in transthyretin amyloidosis | Applicability of pulse pressure variation: How many shades of grey? | Feasibility of using complior analyse to measure central systolic blood pressure during dialysis | Estimation of central systolic pressure: Are peripheral waveforms and transfer function necessary? | Prediction of Long-Term Survival After Liver Transplantation for Familial Transthyretin Amyloidosis | Pulmonary vascular resistance and compliance relationship in pulmonary hypertension | Clinical and haemodynamic predictors of abnormal pulmonary vascular response at exercise | Non-Invasive Determination of Cardiac Output in Pre-Capillary Pulmonary Hypertension | Non-Invasive Determination of Cardiac Output in Pre-Capillary Pulmonary Hypertension | Loss of Vascular Distensibility During Exercise Is an Early Hemodynamic Marker of Pulmonary Vascular Disease | Criteria for diagnosis of exercise pulmonary hypertension | Usefulness of Cardiovascular Magnetic Resonance Indices to Rule In or Rule Out Precapillary Pulmonary Hypertension | Systolic and Mean Pulmonary Artery Pressures | ACCURATE DIAGNOSIS OF PULMONARY HYPERTENSION AT EXERCISE USING COMBINED ASSESSMENT OF MAXIMAL MEAN PULMONARY ARTERY PRESSURE AND TOTAL PULMONARY RESISTANCE | Relation between left ventricular ejection time and pulmonary hemodynamics in pulmonary hypertension | Changes in ventricular arterial coupling during decongestive therapy in acute heart failure | Physiologie du couplage entre le ventricule droit et la circulation pulmonaire | Impact of Successful Treatment of Acromegaly on Overnight Heart Rate Variability and Sleep Apnea | Effects of Acute Volume Loading on the Chronically Pressure Overloaded Right Ventricle | A Porcine Model of Chronic Right Ventricular Pressure Overload: Pulmonary Hemodynamics Over 16 Weeks, and Effects of Acute Enbucrylate Embolisation | La pression artérielle : modèles physiologiques pour le réanimateur | Letter to the editor: "Pulsatile pulmonary artery pressure: are fluid-filled catheters accurate in pulmonary hypertension?" | Re: The significance of splenectomy in experimental swine models of hemorrhagic shock Reply | Beneficial Hemodynamic Effects of Prone Positioning in Patients with Acute Respiratory Distress Syndrome | Derivation of Mean Pulmonary Artery Pressure from Systolic Pressure: Implications for the Diagnosis of Pulmonary Hypertension | Strong linear relationship between heart rate and mean pulmonary artery pressure in exercising patients with severe precapillary pulmonary hypertension | The pulse pressure/heart rate ratio as a marker of stroke volume changes during hemorrhagic shock and resuscitation in anesthetized swine | Validation of the new Complior sensor to record pressure signals non-invasively | Left Ventricular Ejection Time in Acute Heart Failure Complicating Precapillary Pulmonary Hypertension | Estimating Right Ventricular Stroke Work and the Pulsatile Work Fraction in Pulmonary Hypertension | Decreased stroke volume–brachial pulse pressure ratio in patients with type 2 diabetes over 50 years: The role of peripheral neuropathy | Physiology in respiratory medicine | Large deviations estimates for the multiscale analysis of heart rate variability | Overnight heart rate variability in patients with obstructive sleep apnoea: A time and frequency domain study | Effects Of Norepinephrine On Mean Systemic Pressure And Venous Return In Human Septic Shock | La myosîne, moteur moléculaire musculaire | Prediction of fluid responsiveness by a continuous non-invasive assessment of arterial pressure in critically ill patients: Comparison with four other dynamic indices | Heart Rate Accurately Reflects Mean Pulmonary Artery Pressure In Pulmonary Hypertension Patients Performing Mild-To-Moderate Exercise | A New Definition Of Exercise Induced Pulmonary Hypertension | Variabilité de la fréquence cardiaque et syndrome d’apnées hypopnées du sommeil : optimisation des bornes spectrales de la composante à très basse fréquence | Invasive Rest and Exercise Hemodynamics in the Modern Management of Pulmonary Vascular Disease: An Expanding Role in the Future | Invasive rest and exercise hemodynamics in the modern management of pulmonary vascular disease: An expanding role in the future | Prophylactic pacemaker implantation in familial amyloid polyneuropathy | 260 Dipping pattern on 24h ambulatory blood pressure monitoring (ABPM) is related to cardiac infiltration in cardiac amyloidosis | 234 Electrophysiological characteristics in cardiac amyloidosis due to familial amyloid polyneuropathy | Système cardiovasculaire et particularités du choc chez les personnes âgées | Echocardiographic evaluation of systolic and mean pulmonary artery pressure in patients with pulmonary hypertension | SHOULD PACEMAKERS BE IMPLANTED IN FAMILIAL AMYLOID POLYNEUROPATHY WITH MINOR CONDUCTION DISORDERS ? | The association between resting and mild-to-moderate exercise pulmonary artery pressure | The Angle Between The Interventricular Septum And The Left Ventricular Free Wall As A New Index Of Right Ventricular Overload In Pulmonary Hypertension Patients: A Cardiac Magnetic Resonance Study | Correcting For Age And Sex Unmasks Decreased Right Ventricular Ejection Fraction In Pulmonary Hypertension | Imagerie par résonance magnétique et hypertension artérielle pulmonaire : vers une meilleure exploration du coeur droit et de la circulation pulmonaire | Hémodynamique de repos et d’effort dans l’hypertension artérielle pulmonaire | [Magnetic resonance imaging and pulmonary hypertension: towards an improved evaluation of right heart and pulmonary circulation]. | [Resting and exercise hemodynamics in pulmonary arterial hypertension]. | Changes in pulse pressure following fluid loading: A comparison between aortic root (non-invasive tonometry) and femoral artery (invasive recordings) | Arterial Pressure Allows Monitoring The Changes In Cardiac Output Induced By Volume Expansion But Not By Norepinephrine | Total arterial compliance estimated from the time constant of aortic pressure decay: the influence of downstream pressure | Contrôle circulatoire normal et pathologique | Pression artérielle | Auteurs | Cardiac function index provided by transpulmonary thermodilution behaves as an indicator of left ventricular systolic function | Hemodynamic impact of a positive end-expiratory pressure setting in acute respiratory distress syndrome: Importance of the volume status | Mean Pulmonary Artery Pressure Estimated from Systolic and Diastolic Pulmonary Artery Pressure in Children with Congenital Heart Disease: An Invasive Study</t>
+        </is>
+      </c>
+      <c r="M65" s="3" t="inlineStr">
+        <is>
+          <t>Arteries | Hypertension | Pulmonary Hypertension | Muscle Contraction | Vascular Diseases | Blood Pressure | Cardiovascular Physiology | Heart Failure | Cardiac Function | Cardiac Catheterization</t>
+        </is>
+      </c>
+    </row>
+    <row r="66" ht="80" customHeight="1" s="4">
+      <c r="B66" s="3" t="inlineStr">
+        <is>
+          <t>David Boulate</t>
+        </is>
+      </c>
+      <c r="C66" s="3" t="inlineStr">
+        <is>
+          <t>David-Boulate</t>
+        </is>
+      </c>
+      <c r="D66" s="3" t="inlineStr">
+        <is>
+          <t>Université Paris-Sud 11</t>
+        </is>
+      </c>
+      <c r="E66" s="3" t="n">
+        <v>5492</v>
+      </c>
+      <c r="F66" s="3" t="n">
+        <v>665</v>
+      </c>
+      <c r="G66" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="H66" s="3" t="inlineStr">
+        <is>
+          <t>Elie-Fadel | Yukari-Kobayashi | Frederic-Perros | David-Montani | Denis-Chemla | Pascal-Thomas-3 | Saadia-Eddahibi | Sacha-Mussot | Vincent-Thomas-De-Montpreville | Dominique-Fabre | Olivier-Sitbon | Philippe-Brenot | Francois-Haddad | Roham-Zamanian | Olaf-Mercier | Gerald-Simonneau | Pierre-Attal | Sacha-Mussot-2 | Tatiana-Kuznetsova-9 | Benoit-Decante | Joseph-Wu-12 | Julien-Guihaire | Jason-Weatherald | Denis-Chemla-2 | Edmund-Lau-2 | Adrian-Crutu | Peter-Dorfmuller | Xavier-Benoit-Djourno | Myriam-Amsallem | Marc-Humbert-3 | Xavier-Jais | Pauline-Pradere-2033219291 | Francois-Stephan-2036585434 | Lilia-Lamrani-2051330546 | Alex-Fourdrain-2067915916 | P-Dartevelle-2068218700 | Philippe-Herve-2072290835 | Genevieve-Giraldeau-2075011983 | Marc-Humbert-2093385392 | Fanny-Loisel-2129133874 | Justine-Mougin-2133495430 | Delphine-Mitilian-2138901864 | Justin-Issard-2185126112 | Alban-Todesco-2193267634 | J-Guihaire-30196460 | Stephan-Haulon-38902384 | Ingela-Schnittger-39505091 | Philippe-Dartevelle-39534510 | Jerome-Le-Pavec-46577200</t>
+        </is>
+      </c>
+      <c r="I66" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="J66" s="3" t="inlineStr">
+        <is>
+          <t>Nicolaas Westerhof | Peter Dorfmuller | Patrizio Lancellotti | Frederic Perros | David Montani | Marion Delcroix | Saadia Eddahibi | Olivier Sitbon | Luigi P Badano | Peter Fedullo | Irene Lang | Kim M Kerr | Stuart W Jamieson | Patricia A Thistlethwaite | Sean P Gaine | Frances S de Man | Ana Garcia Alvarez | Pieter Edsge Postmus | Andrea Maria D'Armini | Harm-Jan Bogaard | Pavel Jansa | Gerald Simonneau | Serge Brimioulle | Andrew John Peacock | Paul Bresser | Tatiana Kuznetsova | Benoit Decante | Benoit Rondelet | Rogério Souza | Julien Guihaire | Walter Klepetko | Nazzareno Galié | Kurt Stenmark | Nick H Kim | Valentin Fuster | Myriam Amsallem | Naohide Sakakibara | Miguel Angel Gomez Sanchez | Marc Humbert | Xavier Jaïs | Laurent Savale | Elie Fadel | Adam Torbicki | Denis Chemla | Francois Haddad | Florence Parent | Roham T Zamanian | Vincent Castelain | Olaf Mercier | André Denault</t>
+        </is>
+      </c>
+      <c r="K66" s="3" t="n">
+        <v>87</v>
+      </c>
+      <c r="L66" s="3" t="inlineStr">
+        <is>
+          <t>Peripheral location of lung cancer is associated with higher local disease recurrence | Benignant and malignant epidemiology among surgical resections for suspicious solitary lung cancer without preoperative tissue diagnosis | Epidemiological Study to Assess the Prevalence of Lung Cancer in patients with smoking-associated atherosclerotic cardiovascular diseases: PREVALUNG study protocol | Proposal for Simplified Endoscopic Standardized Grading of Central Airway Complications After Lung Transplantation According to the Long-Term Prognosis Value of the Current MDS Classification | Induction and Phenotyping of Acute Right Heart Failure in a Large Animal Model of Chronic Thromboembolic Pulmonary Hypertension | Induction and Phenotyping of Acute Right Heart Failure in a Large Animal Model of Chronic Thromboembolic Pulmonary Hypertension | Pulsatile pulmonary artery pressure in a large animal model of chronic thromboembolic pulmonary hypertension: similarities and differences with human data.: Pulmonary artery pulsatile pressure in a CTEPH model | A programmable pulse generator for atrial pacing in rats for studies on Pulmonary Arterial Hypertension | Anévrismes de la crosse aortique | P62.01 PREVALUNG: Evaluation of Lung Cancer Prevalence in Patients With Smocking-associated Atherosclerotic Cardiovascular Diseases | Gastric conduit obstruction after oesophagectomy: A comprehensive approach for surgical revision | Outcomes after Pulmonary Lobectomy in Patients with History of Head and Neck Carcinoma | Superior vena cava prosthetic replacement for non-small cell lung cancer: is it worthwhile? | Surgical Resection of Tumors Invading the Inferior Vena Cava at the Hepatic Vein and Thoracic Levels | Risk Prediction Model of 90-Day Mortality After Esophagectomy for Cancer | Extrapleural cervico-manubriotomy and clavicular swing for the management of a mesenchymal tumour of the middle scalenus: an adapted anterior thoracic inlet approach | Lung and Heart-Lung Transplantation for Children with PAH: Dramatic Benefits from the Implementation of High-Priority Allocation Program in France | The isobaric pulmonary arterial compliance in pulmonary hypertension | Lung and heart-lung transplantation for children with PAH: Dramatic benefits from the implementation of a high-priority allocation program in France | Video-Assisted Thoracoscopic En Bloc Vertebrectomy for Spine Tumors: Technique and Outcomes in a Series of 33 Patients | Commentary: Transoral Endoscopic Repair of Zenker’s Diverticulum by a Thoracic Surgical Service | Early-stage non-small cell lung cancer beyond life expectancy: Still not too old for surgery? | Description, Staging and Quantification of Pulmonary Artery Angiophagy in a Large Animal Model of Chronic Thromboembolic Pulmonary Hypertension | Evolution of the false lumen after occlusion by a Candy Plug in the management of chronic aortic dissections | Carotid webs management in symptomatic patients | EXPRESS: Hemodynamic Trajectories and Outcomes in Patients with Pulmonary Arterial Hypertension | Transplantation pulmonaire pour fibrose idiopathique | Switching from Heart-Lung to Double Lung Transplantations in Patients with Pre-Capillary Pulmonary Hypertension: A Monocentric Experience | Non-small cell lung carcinomas with CTNNB1 (beta-catenin) mutations: A clinicopathological study of 26 cases | Anévrismes de la crosse aortique | Bénéfices sur la fonction ventriculaire droite de l’ECMO en pré-transplantation | Description de la période de transition des transplantations cardiopulmonaires vers les transplantations bipulmonaires pour hypertension pulmonaire | Echocardiographic evaluations of right ventriculo–arterial coupling in experimental and clinical pulmonary hypertension | P2.17-24 Minimally Invasive Surgery for Lung Cancer Improves Short Term Outcomes in Patients with History of Head and Neck Carcinoma | P4690Effects of pulmonary artery wedge pressure on right ventricular pulsatile loading in pulmonary hypertension: a reappraisal based on pulmonary arterial isobaric stiffness | Smooth Muscle Phenotype in Idiopathic Pulmonary Hypertension: Hyper-Proliferative but not Cancerous | Evaluation of the Effects of the Correction of Hydroelectrolytic Disorders during Prolonged Ex-Vivo Lung Perfusion | Golden Ratio and the Proportionality Between Pulmonary Pressure Components in Pulmonary Arterial Hypertension | P2.16-26 Lung Cancer Resection in Patients with Criteria for Lung Cancer Screening Provides Satisfactory Short Term Results | Lower than expected pulsatile pulmonary arterial load in a thromboembolic pulmonary hypertension model | Effects of acute increases in right ventricular preload and afterload on pulmonary artery pulse pressure in a chronic thromboembolic hypertension model | Autologous Endothelial Progenitor Cell Therapy Improves Right Ventricular Function in a Model of Chronic Thromboembolic Pulmonary Hypertension | Impact of the Initiation of Balloon Pulmonary Angioplasty Program on Referral of Patients with Chronic Thromboembolic Pulmonary Hypertension to Surgery | Simple Echocardiographic Parameters to Capture Acute Changes in Right Ventricle-Pulmonary Artery Coupling in a Large Animal Model of Pulmonary Hypertension | Ascending aorta, aortic arch and supra-aortic vessels rupture in blunt thoracic trauma | IMPACT OF INITIATION OF BALLOON PULMONARY ANGIOPLASTY PROGRAM ON REFERRAL OF PATIENTS WITH CHRONIC THROMBOEMBOLIC PULMONARY HYPERTENSION TO SURGERY | Pulmonary nodules and immunotherapy: Disease progression or toxicity of anti-PD1/anti-PDL1 checkpoint inhibitors? | L'évaluation du ventricule droit dans l'hypertension pulmonaire | Early Development of Right Ventricular Ischemic Lesions in a Novel Large Animal Model of Acute Right Heart Failure in Chronic Thromboembolic Pulmonary Hypertension | Incremental value of right heart metrics and exercise performance to well-validated risk scores in dilated cardiomyopathy | Investigating the value of right heart echocardiographic metrics for detection of pulmonary hypertension in patients with advanced lung disease | Load Adaptability in Patients With Pulmonary Arterial Hypertension | Ipertensione polmonare post-embolica ed endoarteriectomia delle arterie polmonari | Extracorporeal Life Support After Pulmonary Endarterectomy as a Bridge to Recovery or Transplantation: Lessons From 31 Consecutive Patients | Regional right ventricular dysfunction in acute pulmonary embolism: relationship with clot burden and biomarker profile | Figure S1: | Heart-Lung Vs. Double-Lung Transplantation for Idiopathic Pulmonary Arterial Hypertension | Microvascular disease in chronic thromboembolic pulmonary hypertension- a role for pulmonary veins and systemic vasculature (2) | Microvascular disease in chronic thromboembolic pulmonary hypertension- a role for pulmonary veins and systemic vasculature (2) | The Independent Predictive Value of Peak Oxygen Consumption, Left ventricular Strain and Atrial Remodelling in Patients With Dilated Cardiomyopathy | Late Diastolic Strain Index Is a Marker of Right Ventricular Fibrosis Content in Precapillary Pulmonary Hypertension | Normalized Right Isovolumic Relaxation Time and Post-Stress Myocardial Deformation Imaging Reveal Early Signs of Precapillary Pulmonary Hypertension: Insights From a Large Animal Model of Chronic Pressure Overload and Clinical Validation | Pulmonary Circulatory – Right Ventricular Uncoupling: New Insights Into Pulmonary Hypertension Pathophysiology | Right ventricular reserve in a piglet model of chronic pulmonary hypertension | Abstract 15528: Myocardial Deformation Imaging and Obstruction in Hypertrophic Cardiomyopathy, Insights from Cross-sectional and Post-myectomy Analysis | Biventricular VAD versus LVAD for right heart failure | Microvascular disease in chronic thromboembolic pulmonary hypertension: a role for pulmonary veins and systemic vasculature. Dorfmüller P, Günther S, Ghigna MR, Thomas de Montpréville V, Boulate D, Paul JF, Jaïs X, Decante B, Simonneau G, Dartevelle P, Humbert M, Fadel E, Mercier O. Eur Respir J. 2014 Aug 19. pii: erj01691-2013. [Epub ahead of print] | Microvascular disease in chronic thromboembolic pulmonary hypertension: a role for pulmonary veins and systemic vasculature | Pulmonary Microvascular Lesions Regress in Reperfused Chronic Thromboembolic Pulmonary Hypertension | Effects of Acute Volume Loading on the Chronically Pressure Overloaded Right Ventricle | A Porcine Model of Chronic Right Ventricular Pressure Overload: Pulmonary Hemodynamics Over 16 Weeks, and Effects of Acute Enbucrylate Embolisation | Prise en charge chirurgicale de la dissection aortique | Right ventricular plasticity in a porcine model of chronic pressure overload | Acute lung injury after mechanical circulatory support implantation in patients on extracorporeal life support: an unrecognized problem DISCUSSION | Right ventricular plasticity in a porcine model of chronic pulmonary hypertension | Indices of Right Ventricular Contractility in a Model of Chronic Pulmonary Hypertension | Pulmonary Arterial Bed Reperfusion Induces Regression of Distal Vasculopathy in a Chronic Thromboembolic Pulmonary Hypertension Piglet Model | SGC-Stimulation Vs. PDE5-Inhibition In A Model Of Chronic Thromboembolic Pulmonary Hypertension (CTEPH) | Regression Of Pulmonary Vasculopathy After Surgical Treatment For Chronic Thromboembolic Pulmonary Hypertension In Piglets | The Relationship Between Right Ventricular Pulmonary Arterial Coupling And Right Ventricular Function In A Porcine Model Of Chronic Thrombo-Embolic Pulmonary Hypertension | Venous Remodeling As A New Feature Of Post-Obstructive Vasculopathy In Experimental CTEPH | 213 The Relationship between Right Ventricular Pulmonary Arterial Coupling and Right Ventricular Structure and Function in a Porcine Model of Pulmonary Hypertension | 618 Characteristics and Early Outcomes of Patients Requiring Extra Corporeal Life Support after Pulmonary Endarterectomy for Chronic Thromboembolic Pulmonary Hypertension | 214 Improvement in Right Ventricular Function after Surgical Treatment of Chronic Thromboembolic Pulmonary Hypertension in a Porcine Model | 158 Definition and Functional Correlates of Right Ventricular Reserve in a Model of Chronic Thromboembolic Pulmonary Hypertension | Anévrismes de l'aorte abdominale sous-rénale | Transluminal Interventional Radiology for Hepatic Artery Stenosis after Liver Transplant: Short and Mild Term Results</t>
+        </is>
+      </c>
+      <c r="M66" s="3" t="inlineStr">
+        <is>
+          <t>Pulmonary Hypertension | Cardiac Function</t>
+        </is>
+      </c>
+    </row>
+    <row r="67" ht="80" customHeight="1" s="4">
+      <c r="B67" s="3" t="inlineStr">
+        <is>
+          <t>Laurent Savale</t>
+        </is>
+      </c>
+      <c r="C67" s="3" t="inlineStr">
+        <is>
+          <t>Laurent-Savale</t>
+        </is>
+      </c>
+      <c r="D67" s="3" t="inlineStr">
+        <is>
+          <t>Assistance Publique – Hôpitaux de Paris</t>
+        </is>
+      </c>
+      <c r="E67" s="3" t="n">
+        <v>44491</v>
+      </c>
+      <c r="F67" s="3" t="n">
+        <v>13047</v>
+      </c>
+      <c r="G67" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="H67" s="3" t="inlineStr">
+        <is>
+          <t>Athenais-Boucly | Elie-Fadel | Ly-Tu-2 | Florent-Soubrier | Frederic-Perros | Barbara-Girerd | David-Montani | Laurent-Bertoletti | Christophe-Guignabert | Sven-Guenther-3 | Andrei-Seferian | Emmanuel-Bergot | Marie-Camille-Chaumais | Cecile-Tromeur | Denis-Chemla | Bernard-Maitre | Vincent-Cottin | Melanie-Eyries | Olivier-Sitbon | Florence-Parent-3 | Mitja-Jevnikar | Olaf-Mercier | Gerald-Simonneau | Jason-Weatherald | Dermot-Ocallaghan-3 | Etienne-Marie-Jutant | Caroline-Oconnell-4 | Edmund-Lau-2 | Sophie-Bulifon | Claire-Dauphin | Peter-Dorfmuller | Marc-Humbert-3 | Xavier-Jais | Celine-Chabanne-12784031 | Delphine-Natali-15050680 | Caroline-Sattler-2038713942 | Philippe-Herve-2072290835 | Marc-Humbert-2093385392 | Athenais-Boucly-2131350659 | Gregoire-Prevot-2147105533 | Florence-Parent-39139330 | Antoine-Beurnier-2178551371 | Nicolas-Favrolt-38303984 | Ari-Chaouat-38683931 | Martine-Reynaud-Gaubert-38702377 | Pascal-de-Groote-38709642 | Serge-Adnot-38820809 | Jerome-Le-Pavec-46577200 | Alice-Huertas-53591809</t>
+        </is>
+      </c>
+      <c r="I67" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="J67" s="3" t="inlineStr">
+        <is>
+          <t>Georg Hansmann | Dermot S O'Callaghan | Peter Dorfmuller | Patrizio Lancellotti | Ly Tu | Frederic Perros | Barbara Girerd | David Montani | Christophe Guignabert | Marie-Camille Chaumais | Luke S Howard | Vincent Cottin | Marion Delcroix | Alessandra Manes | Saadia Eddahibi | Christian F Opitz | Olivier Sitbon | Raymond Benza | Paul Corris | Irene Lang | Maurice Beghetti | Sean P Gaine | Luc A Pierard | Joan Albert Barbera | Michael J Krowka | Gerald Simonneau | Victor F Tapson | Andrew John Peacock | Friedrich Grimminger | Zhi-Cheng Jing | Rogério Souza | Walter Klepetko | Nazzareno Galié | Jean-Luc Vachiery | Virginie Gressin | Horst Olschewski | Miguel Angel Gomez Sanchez | David Langleben | Adaani Frost | Gilles Garcia | Marc Humbert | Xavier Jaïs | Simon Gibbs | Greg Elliott | Elie Fadel | Adam Torbicki | Florent Soubrier | David B Badesch | Florence Parent | Olaf Mercier</t>
+        </is>
+      </c>
+      <c r="K67" s="3" t="n">
+        <v>390</v>
+      </c>
+      <c r="L67" s="3" t="inlineStr">
+        <is>
+          <t>Management of Acutely Decompensated Pulmonary Hypertension | Clinical Phenotype and Outcomes of Pulmonary Hypertension Associated with Myeloproliferative Neoplasms: A Population-based Study | Bone Morphogenetic Protein-9 Controls Pulmonary Vascular Growth and Remodeling | Hepatopulmonary syndrome: a liver-induced oxygenation defect | Determinants of Ventricular Arrhythmias in Sickle Cell Anemia: Towards a Better Prevention of Sudden Cardiac Death | Clinical relevance and prognostic value of renal Doppler in acute decompensated precapillary pulmonary hypertension | Serum and Pulmonary Expression Profiles of the Activin Signaling System in Pulmonary Arterial Hypertension | Physiopathology and treatment of pulmonary arterial hypertension | Syndrome post-COVID-19 | Functional respiratory complaints among COVID-19 survivors: a prospective cohort study | Corimmuno19-BEVA : essai ouvert contrôlé randomisé évaluant l’efficacité et l’innocuité du bevacizumab (BEV) (Zirabev®) en addition du traitement standard (STD) chez les patients atteints de pneumonie COVID-19 hypoxémique sévère (ClinicalTrials.gov, NCT04822818) | Cytokines as Prognostic Biomarkers in Pulmonary Arterial Hypertension | Efficacy of plasma exchange in patients with anti-MDA5 rapidly progressive interstitial lung disease | Evaluación multiparamétrica de la función ventricular derecha en la hipertensión arterial pulmonar asociada a cardiopatías congénitas | Physiopathologie et traitement de l’hypertension artérielle pulmonaire* | 2022 Update of Indications and Contraindications for Lung Transplantation in France | Incidental finding of elevated pulmonary arterial pressures during liver transplantation and postoperative pulmonary complications | Interest of TAPSE/sPAP ratio for Noninvasive Pulmonary Arterial Hypertension Risk Assessment | A Dancing Trapped Intracardiac Thrombus | Balloon pulmonary angioplasty versus riociguat for the treatment of inoperable chronic thromboembolic pulmonary hypertension (RACE): a multicentre, phase 3, open-label, randomised controlled trial and ancillary follow-up study | Multiparametric evaluation of right ventricular function in pulmonary arterial hypertension associated with congenital heart disease | Lung transplantation for interstitial lung disease in idiopathic inflammatory myositis: A cohort study | Incidental Finding of Elevated Pulmonary Arterial Pressures During Liver Transplantation and Postoperative Pulmonary Complications | Outcomes of cirrhotic patients with pre-capillary pulmonary hypertension and pulmonary vascular resistance between 2 and 3 Wood Units | Risk stratification in patients with pulmonary arterial hypertension at the time of listing for lung transplantation | ISHLT CONSENSUS STATEMENT: Peri-operative Management of Patients with Pulmonary Hypertension and Right Heart Failure Undergoing Surgery | An emerging phenotype of pulmonary arterial hypertension patients carrying SOX17 variants | The risk of COVID-19 death is much greater and age dependent with type I IFN autoantibodies | Erythrocytes are altered in pulmonary arterial hypertension | Lung transplantation in HIV-positive patients: a European retrospective cohort study | COVID-19 in Patients with Pulmonary Hypertension: A National Prospective Cohort Study | Tocilizumab plus dexamethasone versus dexamethasone in patients with moderate-to-severe COVID-19 pneumonia: A randomised clinical trial from the CORIMUNO-19 study group | WASOG statement on the diagnosis and management of sarcoidosis-associated pulmonary hypertension | Post-acute COVID-19 syndrome | Sequential combination therapy with parenteral prostacyclin in BMPR2 mutations carriers | Lung Ventilation/Perfusion Scintigraphy for the Screening of Chronic Thromboembolic Pulmonary Hypertension (CTEPH): Which Criteria to Use? | Epidemiological Characterisation of Omicron Variant Cases in the APHP Critical Care Units | Respiratory symptoms and radiologic findings in post-acute COVID-19 syndrome | Double-lung transplantation followed by delayed percutaneous repair for atrial septal defect-associated pulmonary arterial hypertension | External validation of a refined 4-strata risk assessment score from the French pulmonary hypertension Registry | Sarilumab in adults hospitalised with moderate-to-severe COVID-19 pneumonia (CORIMUNO-SARI-1): An open-label randomised controlled trial | Reply to: Jin et al. and Sun et al. | Pulmonary Hypertension in Patients with Common Variable Immunodeficiency | Endothelial dysfunction and hypercoagulability in severe sickle cell acute chest syndrome | Frequency and risk factors for Chronic Thromboembolic Pulmonary Hypertension after a first unprovoked Pulmonary Embolism: results from PADIS-studies | Whipple’s disease: a rare and life-threatening cause of pulmonary hypertension | Prognostic value of respiratory variables in candidates for liver transplantation | Pulmonary arterial hypertension in Adult-Onset Still’s Disease | Outcomes of patients with decreased arterial oxyhaemoglobin saturation on pulmonary arterial hypertension drugs | Association between Leflunomide and Pulmonary Hypertension | Risk stratification in patients with pulmonary arterial hypertension (PAH) and candidates for lung or heart-lung transplantation | Prognostic value of renal doppler in acute decompensated precapillary pulmonary hypertension | Cardiovascular Phenotypes Predict Clinical Outcomes in Sickle Cell Disease: An echocardiography‐based cluster analysis | Transplantation for Pulmonary Arterial Hypertension with Congenital Heart Disease: Impact of current therapeutic approach including a high-priority allocation programme on outcomes | Relationship between right ventricle remodeling index and outcomes in patients with pulmonary arterial hypertension and pre-tricuspid shunts | Acute Right-Heart Failure in Patients with Chronic Precapillary Pulmonary Hypertension | A CELSR1 variant in a patient with pulmonary arterial hypertension | Seasonal Burden of Severe Influenza Virus Infection in the Critically Ill Patients, Using the Assistance Publique-Hôpitaux de Paris Clinical Data Warehouse: A Pilot Study | Association Between Initial Treatment Strategy and Long-term Survival in Pulmonary Arterial Hypertension | EXPRESS: Pulmonary hypertension associated with busulfan | EXPRESS: Pulmonary hypertension associated with busulfan | Right Ventricle Remodeling Metabolic Signature in Experimental Pulmonary Hypertension Models of Chronic Hypoxia and Monocrotaline Exposure | Diffuse cystic lung disease in sickle cell anaemia: a series of 22 cases and a case–control study | Different cardiovascular and pulmonary phenotypes for single- and double-knock-out mice deficient in BMP9 and BMP10 | Five-year survival after an acute episode of decompensated pulmonary arterial hypertension in the modern management era of right heart failure | Multidisciplinary approach for post-acute COVID-19 syndrome: Time to break down the walls | Outcomes of patients with decreased arterial oxyhaemoglobin saturation on pulmonary arterial hypertension drugs | Transplantation for Pulmonary Arterial Hypertension with Congenital Heart Disease: Impact on Outcomes of Current Therapeutic Approach Including a High‐Priority Allocation Program | Four-Month Clinical Status of a Cohort of Patients After Hospitalization for COVID-19 | The isobaric pulmonary arterial compliance in pulmonary hypertension | Prevalence of pulmonary embolism in patients with COVID 19 at the time of hospital admission | Effect of anakinra versus usual care in adults in hospital with COVID-19 and mild-to-moderate pneumonia (CORIMUNO-ANA-1)- a randomised controlled trial.pdf | Lung and heart-lung transplantation for children with PAH: Dramatic benefits from the implementation of a high-priority allocation program in France | Risk of Lung Allograft Dysfunction Associated With Aspergillus Infection | Association between Leflunomide and Pulmonary Hypertension | Effect of anakinra versus usual care in adults in hospital with COVID-19 and mild-to-moderate pneumonia (CORIMUNO-ANA-1): a randomised controlled trial | Lung transplantation for sarcoidosis: outcome and prognostic factors | Serum and Pulmonary Uric Acid in Pulmonary Arterial Hypertension | Effect of Tocilizumab vs Usual Care in Adults Hospitalized With COVID-19 and Moderate or Severe Pneumonia | Frequency and risk factors for Chronic Thromboembolic Pulmonary Hypertension after a first unprovoked Pulmonary Embolism: results from PADIS-studies | Effect of Tocilizumab vs Usual Care in Adults Hospitalized With COVID-19 and Moderate or Severe Pneumonia | Effect of Tocilizumab vs Usual Care in Adults Hospitalized With COVID-19 and Moderate or Severe Pneumonia | Screening for pulmonary arterial hypertension in adults carrying a BMPR2 mutation | Glucocorticoids with low-dose anti-IL1 anakinra rescue in severe non-ICU COVID-19 infection: A cohort study | Risks and outcomes of gastrointestinal endoscopy with anaesthesia in patients with pulmonary hypertension | Our current understanding of and approach to the management of lung cancer with pulmonary hypertension | Pulmonary Vascular Resistance in Pulmonary Arterial Hypertension: La Pièce De Résistance? | Reversible pulmonary hypertension associated with multivisceral Whipple's disease | Characteristics and Long-Term Outcomes of Pulmonary Venoocclusive Disease Induced by Mitomycin C | Corrigendum to: "Portopulmonary hypertension in the current era of pulmonary hypertension management" [J Hepatol (2020);73:130-139 | Screening of pulmonary arterial hypertension in BMPR2 mutation carriers | Prevalence of hyperventilation syndrome in pulmonary arterial hypertension | Phenotype and outcome of PAH patients carrying a TBX4 mutation | Sequential multimodal therapy in patients with chronic thromboembolic pulmonary hypertension (CTEPH) | Predictors of a precapillary component in patients with postcapillary pulmonary hypertension | LTI-201: Evaluation of the hemodynamics and safety of inhaled LIQ861 (treprostinil) in pulmonary arterial hypertension (WHO Group 1) patients | Long-term outcomes in incident pulmonary arterial hypertension (PAH) patients initiated with triple combination therapy including parenteral prostacyclin (PGI2) | Initial dual oral combination therapy prior to pulmonary endarterectomy (PEA) in patients with operable chronic thromboembolic pulmonary hypertension (CTEPH) and high preoperative pulmonary vascular resistance (PVR) | Additive protective effects of sacubitril/valsartan and bosentan on vascular remodeling in experimental pulmonary hypertension | Adherence to guidelines of anticoagulant prescription in pulmonary arterial hypertension and chronic thromboembolic pulmonary hypertension: an observational study</t>
+        </is>
+      </c>
+      <c r="M67" s="3" t="inlineStr">
+        <is>
+          <t>Pulmonary Hypertension | Lung Transplantation | Lung Diseases | Pulmonary Circulation | Thoracic Diseases | Pulmonary Arterial Hypertension | Pulmonary | Pulmonary Vascular Disease | Respiratory</t>
+        </is>
+      </c>
+    </row>
+    <row r="68" ht="80" customHeight="1" s="4">
+      <c r="B68" s="3" t="inlineStr">
+        <is>
+          <t>Ly Tu</t>
+        </is>
+      </c>
+      <c r="C68" s="3" t="inlineStr">
+        <is>
+          <t>Ly-Tu-2</t>
+        </is>
+      </c>
+      <c r="D68" s="3" t="inlineStr">
+        <is>
+          <t>French Institute of Health and Medical Research</t>
+        </is>
+      </c>
+      <c r="E68" s="3" t="n">
+        <v>16228</v>
+      </c>
+      <c r="F68" s="3" t="n">
+        <v>5365</v>
+      </c>
+      <c r="G68" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="H68" s="3" t="inlineStr">
+        <is>
+          <t>Marie-Jose-Goumans | Laurent-Savale | Elie-Fadel | Bailly-Sabine | Frederic-Perros | Barbara-Girerd | David-Montani | Christophe-Guignabert | Andrei-Seferian | Marie-Camille-Chaumais | Nicolas-Ricard | Bernard-Maitre | Laurence-Dewachter | Carole-Phan | Saadia-Eddahibi | Carole-Nicco | Olivier-Sitbon | Ignacio-Anegon | Frederic-Batteux | Nihel-Berrebeh-3 | Yuichi-Tamura | Frances-De-Man | Roger-Marthan | Jennifer_Bordenave | Ingrid-Schalij | Benjamin-Vely | Mustapha-Chelgham | Gerald-Simonneau | Mohamed-Izikki | Mina-Ottaviani | Etienne-Marie-Jutant | Kondababu-Kurakula | Zongye-Cai-3 | Chris-Happe | Jerome-Avouac-2 | Peter-Dorfmuller | Veronique-Freund-Michel | Raphael-Thuillet | Morane-Hiress | Marc-Humbert-3 | Caroline-Sattler-2038713942 | Marc-Humbert-2093385392 | Anne-Cauvet-2100923081 | Amelie-Cumont-2150134178 | Carole-Phan-2174960635 | Yannick-Allanore-38795036 | Serge-Adnot-38820809 | Philippe-Dartevelle-39534510 | Alice-Huertas-53591809</t>
+        </is>
+      </c>
+      <c r="I68" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="J68" s="3" t="inlineStr">
+        <is>
+          <t>Peter Dorfmuller | Soni S Pullamsetti | Frederic Perros | Barbara Girerd | David Montani | Christophe Guignabert | Andrei Seferian | Sylvia Cohen-Kaminsky | Marie-Camille Chaumais | Nicolas Ricard | Mark R Nicolls | Bernard Maitre | Vincent Cottin | Laurence Dewachter | Sébastien Bonnet | Saadia Eddahibi | Olivier Sitbon | Rubin M Tuder | Ralph Schermuly | Yuichi Tamura | Rajiv D Machado | Frances S de Man | Paul Upton | Pieter Edsge Postmus | Harm-Jan Bogaard | Gerald Simonneau | Mohamed IZIKKI | Friedrich Grimminger | Rogério Souza | Nazzareno Galié | Kurt Stenmark | Charlène François | Etienne-Marie Jutant | Michel D. Hamon | Horst Olschewski | Norbert Weissmann | Raphaël Thuillet | Morane Le Hiress | Mark Southwood | Marc Humbert | Xavier Jaïs | Laurent Savale | Elie Fadel | Bailly Sabine | Florent Soubrier | Carole Phan | Ingrid Schalij | M. L. Handoko | Richard Bucala | Lu Lu Long</t>
+        </is>
+      </c>
+      <c r="K68" s="3" t="n">
+        <v>173</v>
+      </c>
+      <c r="L68" s="3" t="inlineStr">
+        <is>
+          <t>Bone Morphogenetic Protein-9 Controls Pulmonary Vascular Growth and Remodeling | Hepatopulmonary syndrome: a liver-induced oxygenation defect | Enhanced Pulmonary Vascular Density in Bone Morphogenetic Protein-9 Deficient Rats Is Associated With an Increased Vascular Endothelial Growth Factor Signaling | Associations Between Serum Activin A and Follistatine-Like 3 Levels and Outcomes in Pulmonary Arterial Hypertension | Cytokines as Prognostic Biomarkers in Pulmonary Arterial Hypertension | Serum and Pulmonary Expression Profiles of the Activin Signaling System in Pulmonary Arterial Hypertension | AMPK activation by metformin protects against pulmonary hypertension in rats and relaxes isolated human pulmonary artery | Inhibition of Soluble Epoxide Hydrolase Does Not Promote or Aggravate Pulmonary Hypertension in Rats | BMP-9 loss alters lung vascular integrity and partially attenuates experimental pulmonary hypertension | Dysfonction de la signalisation endothéliale du BMP-9 dans les maladies vasculaires pulmonaires | Cytokines as Prognostic Biomarkers in Pulmonary Arterial Hypertension | Biomarkers of haemodynamic severity of systemic sclerosis-associated pulmonary arterial hypertension by serum proteome analysis | Cytokines as prognostic biomarkers in pulmonary arterial hypertension | Loss of lung microvascular endothelial Piezo2 expression impairs NO synthesis, induces EndMT and is associated with pulmonary hypertension | Mineralocorticoid Receptor Antagonism by Finerenone Attenuates Established Pulmonary Hypertension in Rats | Driving Role of Interleukin‐2–Related Regulatory CD4 + T Cell Deficiency in the Development of Lung Fibrosis and Vascular Remodeling in a Mouse Model of Systemic Sclerosis | Kynurenine metabolites predict survival in pulmonary arterial hypertension: A role for IL-6/IL-6Rα | Erythrocytes are altered in pulmonary arterial hypertension | Loss of cAbl Tyrosine Kinase in Pulmonary Arterial Hypertension Causes Dysfunction of Vascular Endothelial Cells | Bone Morphogenetic Protein 9 (BMP)-9 Loss Alters Lung Vascular Integrity and Partially Attenuates Experimental Pulmonary Hypertension | Platelet‐Derived Growth Factor Receptor Type α Activation Drives Pulmonary Vascular Remodeling Via Progenitor Cell Proliferation and Induces Pulmonary Hypertension | IL ‐2‐related regulatory CD4 T‐cell deficiency leads to the development of lung fibrosis and vascular remodeling | Syndrome hépatopulmonaire : prévalence, physiopathologie et implications cliniques | Acazicolcept (ALPN-101), a dual ICOS/CD28 antagonist, demonstrates efficacy in systemic sclerosis preclinical mouse models Open Access | Kynurenine Metabolites Predict Survival in Pulmonary Arterial Hypertension: A Role for IL-6/IL-6Rα | AMPK Activation Protects Against Pulmonary Hypertension in Rats and Relaxes Isolated Human Pulmonary Artery | Preventing the Increase in Lysophosphatidic Acids: A New Therapeutic Target in Pulmonary Hypertension? | Cibler les ligands du récepteur de l’activine de type IIA pour traiter l’hypertension artérielle pulmonaire | ALPN-101 (Acazicolcept) a Dual ICOS/CD28 Antagonist, Demonstrates Efficacy in Systemic Sclerosis Preclinical Mouse Models | Role of Connexin 43 increased expression in pulmonary arterial hyperreactivityinduced by the nerve growth factor NGF | Therapeutic potential of melatonin and melatonergic drugs on K18‐hACE2 mice infected with SARS‐CoV‐2 | Lysophospholipids, Lysophosphatidic Acids and Monoacylglycerols: New Therapeutic Targets in Cardiovascular Diseases? | Phenotypic Diversity of Vascular Smooth Muscle Cells in Pulmonary Arterial Hypertension: Implications for Therapy | EXPRESS: Pulmonary Hypertension Associated With Neurofibromatosis Type 2 | Different cardiovascular and pulmonary phenotypes for single- and double-knock-out mice deficient in BMP9 and BMP10 | NGF induces pulmonary arterial hyperreactivity through Connexin 43 increased expression | Regulation of Type I cytokine receptors as a target for pulmonary arterial hypertension treatment? | Bone Morphogenetic Protein9Loss Partially Attenuates Lung Vascular Remodeling in Experimental Pulmonary Hypertension | Activation of Endothelial c-Abelson Is Required for DNA Integrity in Pulmonary Arterial Hypertension | Regulation of Type I Cytokine Receptors as a Target for Pulmonary Arterial Hypertension Treatment | An endothelial activin A-bone morphogenetic protein receptor type 2 link is overdriven in pulmonary hypertension | Serum and Pulmonary Uric Acid in Pulmonary Arterial Hypertension | Altered TGFβ/SMAD Signaling in Human and Rat Models of Pulmonary Hypertension: An Old Target Needs Attention | Identification de biomarqueurs de sévérité hémodynamique de l’hypertension artérielle pulmonaire associée à la sclérodermie systémique par analyse du protéome sérique | Different tryptophan-kynurenine metabolism profiles in human pulmonary arterial hypertension and animal models of pulmonary hypertension | Lower plasma melatonin levels predict worse long-term survival in pulmonary arterial hypertension | NGF induces pulmonary arterial hyperreactivity through Connexin 43 increased expression | Regulation of Type I cytokine receptors as a target for pulmonary arterial hypertension treatment? | Loss of Bmp9 does not lead to spontaneous pulmonary hypertension, but attenuates vascular remodeling in experimental models | NGF induces pulmonary arterial hyperreactivity through connexin 43 increased expression | Additive protective effects of sacubitril/valsartan and bosentan on vascular remodeling in experimental pulmonary hypertension | Role of c-Abelson in the loss of genome integrity in endothelial cells in pulmonary arterial hypertension | Purinergic Dysfunction in Pulmonary Arterial Hypertension | The Thousand Faces of Leptin in the Lung | Additive Protective Effects of Sacubitril/Valsartan and Bosentan on Vascular Remodeling in Experimental Pulmonary Hypertension | Endothelial cell dysfunction: a major player in SARS-CoV-2 infection (COVID-19)? | The BMP Receptor 2 in Pulmonary Arterial Hypertension: When and Where the Animal Model Matches the Patient | FRI0590 BIOMARKERS OF HEMODYNAMIC SEVERITY OF SYSTEMIC-SCLEROSIS ASSOCIATED PULMONARY ARTERIAL HYPERTENSION BY SERUM PROTEOME ANALYSIS | Lower Plasma Melatonin Levels Predict Worse Long-Term Survival in Pulmonary Arterial Hypertension | Lineage Tracing Reveals the Dynamic Contribution of Pericytes to the Blood Vessel Remodeling in Pulmonary Hypertension | Connexin 43 Is a Promising Target for Pulmonary Hypertension due To Hypoxemic Lung Disease | Chronic Inflammation Within the Vascular Wall in Pulmonary Arterial Hypertension: More than a Spectator | Prevention of progression of pulmonary hypertension by the Nur77 agonist 6-mercaptopurine: role of BMP signalling | 6-mercaptopurine, an agonist of Nur77, reduces progression of pulmonary hypertension by enhancing BMP signalling | Neutralization of CXCL12 attenuates established pulmonary hypertension in rats | Response by Guignabert et al to Letter Regarding Article, “Selective BMP-9 Inhibition Partially Protects Against Experimental Pulmonary Hypertension” | Nouveau regard sur la physiopathologie de l’hypertension artérielle pulmonaire | Selective BMP-9 Inhibition Partially Protects Against Experimental Pulmonary Hypertension | Macrophage Migration Inhibitory Factor (MIF) Inhibition in a Murine Model of Bleomycin-Induced Pulmonary Fibrosis | Pathophysiological mechanisms in pulmonary hypertension | Therapeutic effect of pirfenidone in the sugen/hypoxia rat model of severe pulmonary hypertension | Expression ectopique du récepteur membranaire de l’interleukine 6 dans l’hypertension artérielle pulmonaire | [IL6R is the key therapeutical target in pulmonary arterial hypertension] | Late Breaking Abstract - MIF inhibition in a murine model of bleomycin-induced lung fibrosis | Uric acid contributes to the progression of pulmonary hypertension in rodents and humans | Pirfenidone protects against pulmonary hypertension in the Sugen5416/hypoxia rat model | Pulmonary vascular remodeling mediated by ADORA2B in pulmonary artery smooth muscle cells | T-cell costimulation blockade is effective in experimental digestive and lung tissue fibrosis | Nintedanib improves cardiac fibrosis but leaves pulmonary vascular remodeling unaltered in experimental pulmonary hypertension | Switching-Off Adora2b in Vascular Smooth Muscle Cells Halts the Development of Pulmonary Hypertension | Supplementary Material 3 | Supplementary Material 2 | Supplementary Material 1 | Supplementary Material 4 | OP0089 Abatacept is effective in experimental digestive and lung tissue fibrosis | Ectopic upregulation of membrane-bound IL6R drives vascular remodeling in pulmonary arterial hypertension | Dasatinib increases endothelial permeability leading to pleural effusion | Design, Synthesis and Biological Activity of New N-(Phenylmethyl)-benzoxazol-2-thiones as Macrophage Migration Inhibitory Factor (MIF) Antagonists: Efficacies in Experimental Pulmonary Hypertension | Dasatinib increases endothelial permeability leading to pleural effusion | Supplementary Material 1 | Supplementary Material 3 | Supplementary Material 4 | Supplementary Material 5 | Supplementary Material 2 | Contribution of Impaired Parasympathetic Activity to Right Ventricular Dysfunction and Pulmonary Vascular Remodeling in Pulmonary Arterial Hypertension | Dasatinib increases endothelial permeability leading to pleural effusion | Neutralization of CXCL12 reverses established pulmonary hypertension in the sugen-hypoxia rat model | Contribution of BMP9 to Pulmonary Arterial Hypertension | A genome-wide association analysis identifies PDE1A|DNAJC10 locus on chromosome 2 associated with idiopathic pulmonary arterial hypertension in a Japanese population | Supplementary Material</t>
+        </is>
+      </c>
+      <c r="M68" s="3" t="inlineStr">
+        <is>
+          <t>Pulmonary Hypertension | Molecular Biology | Phosphorylation | Autoimmunity | Inflammation | Kinase | Cellular Biology | Cell Biology | Hypertension | Arteries</t>
+        </is>
+      </c>
+    </row>
+    <row r="69" ht="80" customHeight="1" s="4">
+      <c r="B69" s="3" t="inlineStr">
+        <is>
+          <t>Arnold von Eckardstein</t>
+        </is>
+      </c>
+      <c r="C69" s="3" t="inlineStr">
+        <is>
+          <t>Arnold-Von-Eckardstein</t>
+        </is>
+      </c>
+      <c r="D69" s="3" t="inlineStr">
+        <is>
+          <t>University of Zurich</t>
+        </is>
+      </c>
+      <c r="E69" s="3" t="n">
+        <v>90339</v>
+      </c>
+      <c r="F69" s="3" t="n">
+        <v>35009</v>
+      </c>
+      <c r="G69" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="H69" s="3" t="inlineStr">
+        <is>
+          <t>Medea-Imboden | Ulf-Landmesser | Christian-Schindler-3 | Martin-Hersberger | Florian-Kronenberg | Joan-Walter-3 | Francois-Mach | Joanna-Gawinecka | Walter-Riesen | Christian-Matter | Raphael-Twerenbold | Nicolas-Rodondi | Tobias-Reichlin | Desiree-Wussler | Nicole-Probst-Hensch | Roland-Klingenberg | Alaa-Othman-5 | Nicolas-Geigy-2 | Danielle-Hof | Thorsten-Hornemann | Maria-Rubini-Gimenez | Hagen-Schulte | Paul-Cullen-6 | Katharina-Rentsch | Yadong-Huang-7 | Oscar-Miro | Samyut-Shrestha-2 | Jasper-Boeddinghaus | Lucia-Rohrer | Karin-Wildi-2 | Christian-Puelacher | Lanja-Saleh | Thomas-Nestelberger | Beata-Morawiec | FJ-Martin-Sanchez-16258500 | Luca-Koechlin-2049717918 | H-Schulte-2050058120 | Thomas-F-Luescher-2066063902 | Jeanne-du-Fay-de-Lavallaz-2093688568 | Patrick-Badertscher-2113419848 | Ivo-Strebel-2120361633 | Gerd-Assmann-2121830563 | G-Assmann-38186057 | Dagmar-I-Keller-38810285 | Thomas-F-Luescher-39095647 | Ralf-Junker-39438838 | Harald-Funke-39440130 | Michael-Freese-56132058 | Claus-Langer-61110489</t>
+        </is>
+      </c>
+      <c r="I69" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="J69" s="3" t="inlineStr">
+        <is>
+          <t>Alaa Othman | Florian Kronenberg | Robert A Hegele | G. Kees Hovingh | Jose M Ordovas | Ronald M Krauss | George H Rothblat | Alan T Remaley | Hans Dieplinger | Samia Mora | Raphael Twerenbold | Aldons J Lusis | Tobias Reichlin | Kausik K Ray | Nan Wang | Anatol Kontush | John J P Kastelein | Alberico L Catapano | Mohamad Navab | Marja-Riitta Taskinen | Thorsten Hornemann | Petri T Kovanen | Maria Rubini Gimenez | Paul Cullen | Katharina M Rentsch | Yadong Huang | Jan Albert Kuivenhoven | Gm Anantharamaiah | Luis Masana | Christian Paul Ehnholm | Winfried März | Michael Walter | Lucia Rohrer | Mr John Chapman | Chris Fielding | Karin Wildi | Guy De Backer | Daniel J Rader | Jean-Pierre Després | Naveed Sattar | Ulf Landmesser | John J P Kastelein | Michael Hayden | Jan Breslow | Mira Santica | Gerd Schmitz | Jonathan D. Smith | Ernst Schaefer | Stanley Hazen | Jean-Charles Fruchart</t>
+        </is>
+      </c>
+      <c r="K69" s="3" t="n">
+        <v>700</v>
+      </c>
+      <c r="L69" s="3" t="inlineStr">
+        <is>
+          <t>Occlusion of the infarct-related coronary artery presenting as acute coronary syndrome with and without ST-elevation: impact of inflammation and outcomes in a real-world prospective cohort | Growth differentiation factor-15 and prediction of cancer-associated thrombosis and mortality: A prospective cohort study | Low-density lipoprotein electronegativity and risk of death after acute coronary syndromes: A case-cohort analysis | HDL - Quo vadis | Value of troponin T versus I in the diagnosis of immune checkpoint inhibitor-related myocarditis and myositis: rechallenge? | Regulation of the low-density lipoprotein transport through endothelial cells by caveolae | From the EAS:* frequent questions and responses on the 2022 lipoprotein(a) consensus statement of the European Atherosclerosis Society | RNF130 Adds Further Complexity to the Regulation of LDL Receptor Activity | Altered Distribution of Unesterified Cholesterol among Lipoprotein Subfractions of Patients with Diabetes Mellitus Type 2 | Hyperacute T Wave in the Early Diagnosis of Acute Myocardial Infarction | Continuous population-level monitoring of SARS-CoV-2 seroprevalence in a large European metropolitan region | Trimethylamine-N-oxide is associated with cardiovascular mortality and vascular brain lesions in patients with atrial fibrillation | Serum S-100B adds incremental value for the prediction of symptomatic intracranial hemorrhage and brain edema after acute ischemic stroke | COVID-19 in Fabry disease: a reference center prospective study | Cardiovascular Biomarkers for the Prediction of Adverse Cardiovascular Events and Mortality in Patients with Cancer | Mammalian Target of Rapamycin Inhibition in Patients With ST-Segment Elevation Myocardial Infarction | High-density lipoprotein revisited: biological functions and clinical relevance | Diagnostic discrimination of a novel high-sensitivity cardiac troponin I assay and derivation/validation of an assay-specific 0/1h-algorithm | Adherence to the Mediterranean Diet and Incidence of Pre-Frailty and Frailty in Community-Dwelling Adults 70+: The 3-Year DO-HEALTH Study | Brain Endothelial Cells in Contrary to the Aortic Do Not Transport but Degrade Low-Density Lipoproteins via Both LDLR and ALK1 | Clinical Utility of D-Dimer for Rule-Out or Rule-In of Venous Thromboembolism in Syncope | Lipoprotein(a) in atherosclerotic cardiovascular disease and aortic stenosis: a European Atherosclerosis Society consensus statement | Iron Deficiency and Incident Infections among Community-Dwelling Adults Age 70 Years and Older: Results from the DO-HEALTH Study | Decoding Functional High-Density Lipoprotein Particle Surfaceome Interactions | Influence of Trimethylamine N-Oxide on Platelet Activation | Randomized Trial of Early mTOR Inhibition in Patients with Acute ST-Segment Elevation Myocardial Infarction | Both COVID-19 infection and vaccination induce high-affinity cross-clade responses to SARS-CoV-2 variants | Clinical Effect of Obesity on NT‐proBNP Cut‐off Concentrations for the Diagnosis of Acute Heart Failure | PD11-02 EVALUATION OF VARIETY AND PERFORMANCE BETWEEN PSA ASSAYS AND PHI IN A CLINICAL COHORT OF MEN UNDERGOING PROSTATE BIOPSY FOR SUSPECTED PROSTATE CANCER | The spoils of war and the long-term spoiling of health conditions of entire nations | Performance of the American Heart Association/American College of Cardiology/Heart Rhythm Society versus European Society of Cardiology Guideline Criteria for Hospital Admission of Patients with Syncope | Both COVID-19 infection and vaccination induce high-affinity cross-clade responses to SARS-CoV-2 variants | Effect of Alirocumab Added to High-Intensity Statin Therapy on Coronary Atherosclerosis in Patients With Acute Myocardial Infarction: The PACMAN-AMI Randomized Clinical Trial | Measurement of Midregional Pro-Atrial Natriuretic Peptide to Discover Atrial Fibrillation in Patients With Ischemic Stroke | HDL, heart disease, and the lung | Soluble lectin-like oxidized low-density lipoprotein receptor-1 predicts premature death in acute coronary syndromes | Decoding functional high-density lipoprotein particle surfaceome interactions | Prevalence and incidence of iron deficiency in European community-dwelling older adults: an observational analysis of the DO-HEALTH trial | Calorie restriction improves metabolic state independently of gut microbiome composition: a randomized dietary intervention trial | Characteristics and Outcomes of Type 2 Myocardial Infarction | A 0/1h-algorithm using cardiac myosin-binding protein C for early diagnosis of myocardial infarction | Lower diagnostic accuracy of hs-cTnI in patients with prior coronary artery bypass grafting | Eyes on amyloidosis: microvascular retinal dysfunction in cardiac amyloidosis | Beyond HDL-Cholesterol: The Search for Functional Biomarkers of High Density Lipoproteins | Elevated levels of apolipoprotein D predict poor outcome in patients with suspected or established coronary artery disease | Posttranscriptional Regulation of the Human LDL Receptor by the U2-Spliceosome | Pathophysiologische Prinzipien von Dyslipoproteinämien | Reproducible Determination of High-Density Lipoprotein Proteotypes | Cysteine‐Rich Angiogenic Inducer 61 Improves Prognostic Accuracy of GRACE (Global Registry of Acute Coronary Events) 2.0 Risk Score in Patients With Acute Coronary Syndromes | Novel Plasma Biomarkers Predicting Biventricular Involvement in Arrhythmogenic Right Ventricular Cardiomyopathy | Utility of Echocardiography in Patients With Suspected Acute Myocardial Infarction and Left Bundle‐Branch Block | Reply to: “Correspondence to: “Atherogenic index of plasma and the risk of rapid progression of coronary atherosclerosis beyond traditional risk factors”” | Metabolism of HSAN1- and T2DM-associated 1-deoxy-sphingolipids inhibits the migration of fibroblasts | Apolipoprotein M and Sphingosine-1-Phosphate Receptor 1 Promote the Transendothelial Transport of High-Density Lipoprotein | Cholesterol Efflux Capacity Associates with the Ankle-Brachial Index but Not All-Cause Mortality in Patients with Peripheral Artery Disease | HDL in the 21st Century: A Multifunctional Roadmap for Future HDL Research | Improving 1-year mortality prediction in ACS patients using machine learning | External Validation of the No Objective Testing Rules in Acute Chest Pain | The Endothelium Is Both a Target and a Barrier of HDL’s Protective Functions | The year 2020 in Atherosclerosis | Novel Blood Biomarkers for a Diagnostic Workup of Acute Aortic Dissection | Lipoprotein(a) is associated with large artery atherosclerosis stroke aetiology and stroke recurrence among patients below the age of 60 years: Results from the BIOSIGNAL study | Taking action: European Atherosclerosis Society targets the United Nations Sustainable Development Goals 2030 Agenda to fight atherosclerotic cardiovascular disease in Europe | Residual inflammatory risk at 12 months after acute coronary syndromes is frequent and associated with combined adverse events | Cardiac Myosin‐Binding Protein C in the Diagnosis and Risk Stratification of Acute Heart Failure | Lipoproteins in chronic kidney disease: from bench to bedside | Disturbed Flow Promotes Atherosclerotic Plaque Development in Human 3D Tissue-Engineered Vessels On-a-Chip | Prognostic role of plasma galectin-3 levels in acute coronary syndrome | Transendothelial transport of lipoproteins | Sensitive and reproducible determination of clinical HDL proteotypes | Subunit composition of the mammalian serine-palmitoyltransferase defines the spectrum of straight and methyl-branched long-chain bases | Population-wide evolution of SARS-CoV-2 immunity tracked by a ternary immunoassay | Replik | Replik | Apolipoprotein M and Sphingosine-1-Phosphate: A Potentially Antidiabetic Tandem Carried by HDL | Sphingosine-1-phosphate receptors 1 and 3 regulate the expression of SR-B1 in human aortic endothelial cells | Early Diagnosis of Myocardial Infarction With Point-of-Care High-Sensitivity Cardiac Troponin I | The year 2019 in Atherosclerosis | Neue ESC/EAS-Dyslipidämie-Guidelines | Nouvelles lignes directrices ESC/EAS sur les dyslipidémies | Inborn errors of apolipoprotein A-I metabolism: implications for disease, research and development | Quantifying atherogenic lipoproteins for lipid-lowering strategies: Consensus-based recommendations from EAS and EFLM | HDL inhibits endoplasmic reticulum stress-induced apoptosis of pancreatic β-cells in vitro by activation of Smoothened | FADS3 is a delta14Z sphingoid base desaturase that contributes to gender differences to the human plasma sphingolipidome | Quantifying atherogenic lipoproteins for lipid-lowering strategies: Consensus-based recommendations from EAS and EFLM | Structure-function relationships of HDL in diabetes and coronary heart disease | Angeborene Störungen des High-density-Lipoprotein-StoffwechselsInborn errors of high-density lipoprotein metabolism | Diabetes and baseline glucose are associated with inflammation, left ventricular function and short- and long-term outcome in acute coronary syndromes: role of the novel biomarker Cyr 61 | Clinical Utility of Procalcitonin in the Diagnosis of Pneumonia | Rare dyslipidaemias, from phenotype to genotype to management: a European Atherosclerosis Society task force consensus statement | Prevalence of Pulmonary Embolism in Patients With Syncope | Predicting Major Adverse Events in Patients With Acute Myocardial Infarction | Retinal microvascular dysfunction in patients with coronary artery disease with and without heart failure: a continuum? | Early Diagnosis of Myocardial Infarction in Patients With a History of Coronary Artery Bypass Grafting | Risk stratification of elderly patients with acute pulmonary embolism | The hepatic WASH complex is required for efficient plasma LDL and HDL cholesterol clearance | A Novel Variant (Asn177Asp) in SPTLC2 Causing Hereditary Sensory Autonomic Neuropathy Type 1C | Impact of a single oral dose of 100,000 IU vitamin D3 on profiles of serum 25(OH)D3 and its metabolites 24,25(OH)2D3, 3-epi-25(OH)D3, and 1,25(OH)2D3 in adults with vitamin D insufficiency | Growth differentiation factor-15 and all-cause mortality in patients with suspected myocardial infarction | Prospective validation of N‐terminal pro B‐type natriuretic peptide cut‐off concentrations for the diagnosis of acute heart failure</t>
+        </is>
+      </c>
+      <c r="M69" s="3" t="inlineStr">
+        <is>
+          <t>Lipoproteins | Atherosclerosis | Lipid Biochemistry | Metabolic Diseases | Metabolism | Insulin Resistance | Lipid Metabolism | Insulin Signaling | Disease Prevention | Lipids</t>
+        </is>
+      </c>
+    </row>
+    <row r="70" ht="80" customHeight="1" s="4">
+      <c r="B70" s="3" t="inlineStr">
+        <is>
+          <t>François Mach</t>
+        </is>
+      </c>
+      <c r="C70" s="3" t="inlineStr">
+        <is>
+          <t>Francois-Mach</t>
+        </is>
+      </c>
+      <c r="D70" s="3" t="inlineStr">
+        <is>
+          <t>Hôpitaux Universitaires de Genève</t>
+        </is>
+      </c>
+      <c r="E70" s="3" t="n">
+        <v>77084</v>
+      </c>
+      <c r="F70" s="3" t="n">
+        <v>36055</v>
+      </c>
+      <c r="G70" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="H70" s="3" t="inlineStr">
+        <is>
+          <t>Arnold-Von-Eckardstein | Nikolaos-Stergiopulos | Ulf-Landmesser | Robson-Santos-9 | Domenico-Palombo-2 | Aldo-Pende | Nicolas-Vuilleumier | Vincent-Braunersreuther | Karim-Brandt | Reto-Auer | Christian-Matter | Nicolas-Rodondi | Osman-Ratib | David-Nanchen | Lorenz-Raeber | Baris-Gencer-2 | Roland-Klingenberg | Aline-Roth-2 | Sabine-Steffens | Maria-Bertolotto | Dik-Heg | Sabrina-Pagano | Olivier-Muller-5 | Gabriella-Vincenti | Rodrigo-Fraga-Silva | Federico-Carbone-2 | Konstantinos-Koskinas-2 | Sebastien-Lenglet | Claire-Arnaud-4 | Rene-Nkoulou | Fabrizio-Montecucco-2 | Katia-Galan | Alessandra-Quercioli | Thomas-Schindler | Slayman-Obeid | Peter-Juni | Thomas-F-Luescher-2066063902 | Stephan-Windecker-2150856240 | David-Carballo-36338842 | Peter-Libby-38323427 | Uwe-Schoenbeck-39073604 | Thomas-F-Luescher-39095647 | Stephan-Windecker-39226172 | Marco-Roffi-39473696 | Jean-Paul-Vallee-39600629 | Graziano-Pelli-39631379 | Fabienne-Burger-39773684 | Franco-Dallegri-39980210 | Brenda-R-Kwak-40017300 | Sebastian-Carballo-50091109</t>
+        </is>
+      </c>
+      <c r="I70" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="J70" s="3" t="inlineStr">
+        <is>
+          <t>Ian Graham | Keith A A Fox | Robson Santos | Domenico Palombo | Aldo Pende | Philippe Gabriel Steg | Nicolas Vuilleumier | Vincent Braunersreuther | Robert Giugliano | Marco Valgimigli | Frederick J Raal | Christian M Matter | Nicolas Rodondi | Patrick W Serruys | Kausik K Ray | Lorenz Räber | Roland Klingenberg | Wolfgang Koenig | Jonathan Emberson | Stefan Agewall | Maria Bertolotto | John J P Kastelein | Arno Hoes | Alberico L Catapano | Marja-Riitta Taskinen | Pascale Roux-Lombard | Sabrina Pagano | Massimo Piepoli | Fabrizio Montecucco | Giovanni Spinella | Mr John Chapman | Zeljko Reiner | Guy De Backer | Basil S Lewis | Deepak L Bhatt | John J V Mcmurray | Göran K Hansson | Peter Juni | Naveed Sattar | Ulf Landmesser | John J P Kastelein | Lars Rydén | Baris Gencer | Peter Sever | Sabine Steffens | Scott M Wasserman | Dik Heg | Aldo P Maggioni | Mark Woodward | Sébastien Lenglet</t>
+        </is>
+      </c>
+      <c r="K70" s="3" t="n">
+        <v>577</v>
+      </c>
+      <c r="L70" s="3" t="inlineStr">
+        <is>
+          <t>In-hospital initiation of PCSK9 inhibitors in ACS: pros and cons | « Heart Team » : le cœur de la cardiologie | Low-density lipoprotein electronegativity and risk of death after acute coronary syndromes: A case-cohort analysis | 2022 Saudi Guidelines for the Management of Dyslipidemia | From the EAS:* frequent questions and responses on the 2022 lipoprotein(a) consensus statement of the European Atherosclerosis Society | Clinical outcomes in STEMI patients undergoing percutaneous coronary interventions later than 48 hours after symptom onset | History of peripheral artery disease and cardiovascular risk of real-word patients with acute coronary syndrome: Role of inflammation and comorbidities | Association Between Achieved Low-Density Lipoprotein Cholesterol Levels and Long-Term Cardiovascular and Safety Outcomes: An Analysis of FOURIER-OLE | Ten-Year Evolution of Statin Eligibility and Use in a Population-Based Cohort | Productivity loss and indirect costs in the year following acute coronary events in Switzerland | Cardiovascular therapy use, modification, and in-hospital death in patients with COVID-19: A cohort study | Mammalian Target of Rapamycin Inhibition in Patients With ST-Segment Elevation Myocardial Infarction | Enoxaparin for outpatients with COVID-19: 90-day results from the randomised, open-label, parallel-group, multinational, phase III OVID trial | Epitope of antiphospholipid antibodies retrieved from peptide microarray based on R39‐R43 of β2‐glycoprotein I | Evolocumab treatment reduces carotid intima-media thickness in paediatric patients with heterozygous familial hypercholesterolaemia | A practitioner's perspective of the latest lipid guidelines | Paediatric patients with heterozygous familial hypercholesterolaemia treated with evolocumab for 80 weeks (HAUSER-OLE): a single-arm, multicentre, open-label extension of HAUSER-RCT | Lipoprotein(a) in atherosclerotic cardiovascular disease and aortic stenosis: a European Atherosclerosis Society consensus statement | Evolocumab in Pediatric Heterozygous Familial Hypercholesterolemia | Randomized Trial of Early mTOR Inhibition in Patients with Acute ST-Segment Elevation Myocardial Infarction | Long-term effects of systematic smoking cessation counselling during acute coronary syndrome, a multicentre before-after study | Optimized Treatment of Refractory Hypercholesterolemia in Patients With Atherosclerotic Cardiovascular Disease or Heterozygous Familial Hypercholesterolemia With Alirocumab (OPTIMIZE) | Smoking Cessation in People With and Without Diabetes After Acute Coronary Syndrome | Cognitive Function With Evolocumab in Pediatric Heterozygous Familial Hypercholesterolemia | Smoking cessation and depression after acute coronary syndrome | 2021 ESC Guidelines on cardiovascular disease prevention in clinical practice | Enoxaparin for primary thromboprophylaxis in symptomatic outpatients with COVID-19 (OVID): a randomised, open-label, parallel-group, multicentre, phase 3 trial | HeART museum : soigner son cœur au musée après un infarctus du myocarde | Effect of Alirocumab Added to High-Intensity Statin Therapy on Coronary Atherosclerosis in Patients With Acute Myocardial Infarction: The PACMAN-AMI Randomized Clinical Trial | No association between APOE genotype and lipid lowering with cognitive function in a randomized controlled trial of evolocumab | Effect of Alirocumab Added to High-Intensity Statin Therapy on Coronary Atherosclerosis in Patients With Acute Myocardial Infarction: The PACMAN-AMI Randomized Clinical Trial | Guía ESC 2021 sobre la prevención de la enfermedad cardiovascular en la práctica clínica | Soluble lectin-like oxidized low-density lipoprotein receptor-1 predicts premature death in acute coronary syndromes | EVOLOCUMAB IN PEDIATRIC HETEROZYGOUS FAMILIAL HYPERCHOLESTEROLEMIA: RESULTS FROM THE HAUSER OPEN-LABEL EXTENSION STUDY | Single-Cell Analysis Uncovers Osteoblast Factor Growth Differentiation Factor 10 as Mediator of Vascular Smooth Muscle Cell Phenotypic Modulation Associated with Plaque Rupture in Human Carotid Artery Disease | Controlled-Level EVERolimus in Acute Coronary Syndrome (CLEVER-ACS) - A phase II, randomized, double-blind, multi-center, placebo-controlled trial | Single-Cell RNA-Seq Reveals a Crosstalk between Hyaluronan Receptor LYVE-1-Expressing Macrophages and Vascular Smooth Muscle Cells | Optimized Treatment of Refractory Hypercholesterolemia in Patients with Atherosclerotic Cardiovascular Disease or Heterozygous Familial Hypercholesterolemia with Alirocumab (OPTIMIZE) | NLRP3 Inflammasome Activation Controls Vascular Smooth Muscle Cells Phenotypic Switch in Atherosclerosis | Symptoms and quality of life at 1-year follow up of patients discharged after an acute COVID-19 episode | Prevention guidelines 2021 | Association between self-reported motivation to quit smoking with effectiveness of smoking cessation intervention among patients hospitalized for acute coronary syndromes in Switzerland | Effectiveness, Adherence, and Safety of Evolocumab in a Swiss Multicenter Prospective Observational Study | Abstract 11043: Clinical Safety Outcomes in Relation to Lipoprotein(a) Concentration: Insights from the FOURIER Trial | European Society of Cardiology Quality Indicators for Cardiovascular Disease Prevention: developed by the Working Group for Cardiovascular Disease Prevention Quality Indicators in collaboration with the European Association for Preventive Cardiology of the European Society of Cardiology | Combination lipid-lowering therapy as first-line strategy in very high-risk patients | Cysteine‐Rich Angiogenic Inducer 61 Improves Prognostic Accuracy of GRACE (Global Registry of Acute Coronary Events) 2.0 Risk Score in Patients With Acute Coronary Syndromes | Changes of lipoprotein(a) levels with endogenous steroid hormones | Prognosis of Laboratory-Confirmed Influenza and Respiratory Syncytial Virus in Acute Heart Failure | 2021 ESC Guidelines on cardiovascular disease prevention in clinical practice | 2021 ESC Guidelines on cardiovascular disease prevention in clinical practice: Developed by the Task Force for cardiovascular disease prevention in clinical practice with representatives of the European Society of Cardiology and 12 medical societies With the special contribution of the European Association of Preventive Cardiology (EAPC) | CCN family member 1 (CCN1) is an early marker of infarct size and left ventricular dysfunction in STEMI patients | 2021 ESC Guidelines on cardiovascular disease prevention in clinical practice | Vascular endothelial Tissue Factor contributes to trimethylamine N-oxide-enhanced arterial thrombosis | PCSK9 Inhibition could be Effective for Acute Myocardial Infarction | Effect of evolocumab on cognition in pediatric patients with familial hypercholesterolemia: Results from the HAUSER-RCT study | Cardiovascular risk and testosterone – from subclinical atherosclerosis to lipoprotein function to heart failure | Cardiac rehabilitation : a multidisciplinary program of cardiovascular prevention of essential importance | Improving 1-year mortality prediction in ACS patients using machine learning | Effects of the PCSK9 Antibody Alirocumab on Coronary Atherosclerosis in Patients with Acute Myocardial Infarction: A Serial, Multivessel, Intravascular Ultrasound, Near-Infrared Spectroscopy and Optical Coherence Tomography Imaging Study Rationale and Design of the PACMAN-AMI trial | Physical properties as antigenic determinant: the example of antiphospholipid antibodies | Mortality and high risk of major adverse events in patients with COVID-19 and history of cardiovascular disease | Lipid-lowering therapy and percutaneous coronary interventions | Novel Blood Biomarkers for a Diagnostic Workup of Acute Aortic Dissection | Prognostic value of inflammatory biomarkers and GRACE score for cardiac death and acute kidney injury after acute coronary syndromes | Air pollution triggers inflammation and cardiovascular events: Now is the time to act | Residual inflammatory risk at 12 months after acute coronary syndromes is frequent and associated with combined adverse events | Current perceptions and practices in lipid management: results of a European Society of Cardiology/European Atherosclerosis Society Survey | Cardiovascular Therapy and Mortality in Hospitalized Patients With COVID-19: A Cohort Study | La réadaptation cardiaque : un programme multidisciplinaire de prévention cardiovasculaire indispensable | Une baisse du cholestérol LDL de longue durée : enfin le silence | Von Kräutern zu Pillen, Biologics und Nukleinsäuren: Das Lipid-Management der Zukunft | New cardiovascular prevention guidelines: How to optimally manage dyslipidaemia and cardiovascular risk in 2021 in patients needing secondary prevention? | Prognostic and therapeutic considerations of antibodies against c‐ter apolipoprotein A‐1 in the general population | Association of APOE genotype and lipid lowering with cognitive function in a randomized placebo‐controlled trial of Evolocumab: Developing topics | Impact of malignancy on clinical outcomes in patients with acute coronary syndromes | Prognostic role of plasma galectin-3 levels in acute coronary syndrome | Lipid-lowering therapy and low-density lipoprotein cholesterol goal achievement in patients with acute coronary syndromes: The ACS patient pathway project | Abstract 15491: Effects of Intensive Smoking Cessation Counseling After Acute Coronary Syndrome on 5-year Incidence of Major Adverse Cardiovascular Events and Smoking Abstinence | Atherosclerotic plaque vulnerability is increased in mouse model of lupus | Anti-Apolipoprotein A-1 IgG Influences Neutrophil Extracellular Trap Content at Distinct Regions of Human Carotid Plaques | Evolocumab in Pediatric Heterozygous Familial Hypercholesterolemia | Prognosis of Patients with Chronic and Hospital-Acquired Anaemia After Acute Coronary Syndromes | Eligibility for PCSK9 inhibitors based on the 2019 ESC/EAS and 2018 ACC/AHA guidelines | 2019 ESC/EAS Guidelines for themanagement of dyslipidaemias: lipid modification to reduce cardiovascular risk | Spontaneous coronary artery dissection : primum nihil nocere | Cognition After Lowering LDL-Cholesterol With Evolocumab | Guía ESC 2019 sobre diabetes, prediabetes y enfermedades cardiovasculares, en colaboración con la European Association for the Study of Diabetes (EASD) | An Exploratory Analysis of Proprotein Convertase Subtilisin/Kexin Type 9 Inhibition and Aortic Stenosis in the FOURIER Trial | Cardiotrophin-1 Deficiency Abrogates Atherosclerosis Progression | Follicular regulatory helper T cells control the response of regulatory B cells to a high-cholesterol diet | Optimal Timing of Invasive Coronary Angiography following NSTEMI | PCSK9 INHIBITION AND AORTIC STENOSIS IN THE FOURIER TRIAL | Contribution of exome sequencing to the identification of genes involved in the response to clopidogrel in cardiovascular patients | Potential of Lipoprotein(a)-Lowering Strategies in Treating Coronary Artery Disease | Erratum to “2019 ESC/EAS guidelines for the management of dyslipidemias: Lipid modification to reduce cardiovascular risk” [Atherosclerosis 290 (2019) 140–205] | Cardiomyocyte-Specific JunD Overexpression Increases Infarct Size following Ischemia/Reperfusion Cardiac Injury by Downregulating Sirt3 | Intensified lipid lowering using ezetimibe after publication of the IMPROVE-IT trial: A contemporary analysis from the SPUM-ACS cohort | Corrigendum to “2019 ESC/EAS Guidelines for the management of dyslipidaemias: lipid modification to reduce cardiovascular risk” [Atherosclerosis 290 (2019) 140–205] | Interleukin-1β Mediates Arterial Thrombus Formation via NET-Associated Tissue Factor</t>
+        </is>
+      </c>
+    </row>
+    <row r="71" ht="80" customHeight="1" s="4">
+      <c r="B71" s="3" t="inlineStr">
+        <is>
+          <t>Nicolle Kränkel</t>
+        </is>
+      </c>
+      <c r="C71" s="3" t="inlineStr">
+        <is>
+          <t>Nicolle-Kraenkel</t>
+        </is>
+      </c>
+      <c r="D71" s="3" t="inlineStr">
+        <is>
+          <t>Charité Universitätsmedizin Berlin</t>
+        </is>
+      </c>
+      <c r="E71" s="3" t="n">
+        <v>16868</v>
+      </c>
+      <c r="F71" s="3" t="n">
+        <v>6324</v>
+      </c>
+      <c r="G71" s="3" t="n">
+        <v>48</v>
+      </c>
+      <c r="H71" s="3" t="inlineStr">
+        <is>
+          <t>Denitsa-Meteva | Aiden-Haghikia | Ulf-Landmesser | Volker-Adams-2 | Marcus-Doerr-2 | Katharina-Lechner-3 | Johannes-Scherr-2 | Andrea-Caporali | Giuseppe-Mangialardi | Claudio-Seppelt | Pia-Von-Korn | Youssef-Abdelwahed | Barbara-Staehli | Luciola-Barcelos | Martin-Bahls | Gaia-Spinetti | Stephan-Gielen | Himanshu-Rai-13 | Costanza-Emanueli | Axel-Linke | Rajesh-Katare | Sven-Moebius-Winkler | Andre-Duvinage | Paola-Campagnolo-2 | Elisabeth-Straessler | Sandra-Erbs-2 | Martin-Halle | Maja-Mueller | Paolo-Madeddu | Carsten-Skurk | Kira-Kuschnerus | Marianna-Puccini | Julian-Friebel | Dominique-Hansen | Philipp-Jakob | Pavani-Mocharla-15085227 | Arash-Haghikia-15458702 | S-Briand-2002813012 | Thomas-F-Luescher-2066063902 | Ursula-Rauch-Kroehnert-2075028197 | R-Hambrecht-2128337342 | U-Landmesser-2140155918 | Kai-Jakobs-2180661351 | T-F-Luescher-2204108673 | Thomas-F-Luescher-39095647 | Rainer-Hambrecht-39206539 | David-M-Leistner-54246144 | Gerhard-Schuler-54721844</t>
+        </is>
+      </c>
+      <c r="I71" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="J71" s="3" t="inlineStr">
+        <is>
+          <t>Christian Besler | Veronique Cornelissen | Angelo Avogaro | Marco Meloni | Takayuki Asahara | Massimo Piepoli | Paul Dendale | William C Sessa | Ronald M Krauss | Gallia Graiani | Emeline M Van Craenenbroeck | Christopher Heeschen | Renu Virmani | Héctor Bueno | Douglas W Losordo | Patrick Doherty | J.K. Chao | Birgit Assmus | Christoph Kalka | Gaia Spinetti | Paul J Beckers | Stephan Gielen | Costanza Emanueli | Axel Linke | Rajesh Katare | Sven Möbius-Winkler | Massimo Piepoli | Heinz-Peter Schultheiss | Haruchika Masuda | Alexandra Aicher | Paola Campagnolo | Guy De Backer | Sandra Erbs | Julie Chao | Maja Franziska Mueller | Michael Böhm | Paolo Madeddu | Maurizio C Capogrossi | Dominique Hansen | Eva Prescott | Kenneth Walsh | Ulf Landmesser | Volker Adams | Stefanie Dimmeler | Josef Niebauer | Georg Nickenig | Ulrik Wisloff | Stanley Hazen | Nikos Werner | Andreas M Zeiher</t>
+        </is>
+      </c>
+      <c r="K71" s="3" t="n">
+        <v>158</v>
+      </c>
+      <c r="L71" s="3" t="inlineStr">
+        <is>
+          <t>Coronary microevaginations characterize culprit plaques and their inflammatory microenvironment in a subtype of acute coronary syndrome with intact fibrous cap: results from the prospective translational OPTICO-ACS study | Culprit plaque morphology determines inflammatory risk and clinical outcomes in acute coronary syndrome | Toll-like receptor 2, hyaluronan, and neutrophils play a key role in plaque erosion: the OPTICO-ACS study | A single exercise exertion initiates antioxidant and vascular-protective mechanisms in patients with heart failure | The Role of NETosis and Complement Activation in COVID-19-Associated Coagulopathies | Galectin-3 as a Marker for Increased Thrombogenicity in COVID-19 | Exercise benefits in cardiovascular diseases: from mechanisms to clinical implementation | RNA-sequencing reveals significant differences in the inflammatory response of iPSC-derived endothelial cells from ACS patients and healthy controls | NK cells are associated with immunometabolic response to a single exercise exertion in heart failure patients | Galectin-3 as a possible marker for increased thrombogenicity in COVID-19 | Parameters of coagulation and platelet hyperreactivity reflect an increased mortality in patients with moderate to severe COVID-19 | IMPLEMENTATION OF ESC GUIDELINES ON CARDIOVASCULAR DISEASE PREVENTION IN CLINICAL PRACTICE ACROSS 13 EUROPEAN COUNTRIES: CHANGES BETWEEN 2011 AND 2021 | Rapid Inflammasome Activation Is Attenuated in Post-Myocardial Infarction Monocytes | Disease Severity in Moderate-to-Severe COVID-19 Is Associated With Platelet Hyperreactivity and Innate Immune Activation | The "real world" is relative-and biased | Pleiotropic Effects of the Protease-Activated Receptor 1 (PAR1) Inhibitor, Vorapaxar, on Atherosclerosis and Vascular Inflammation | The Dynamic of Extracellular Vesicles in Patients With Subacute Stroke: Results of the “Biomarkers and Perfusion—Training-Induced Changes After Stroke” (BAPTISe) Study | Prognostic implications of cholesterol chrystals at ACS causing culprit lesions, insights from the translational OPTICO-ACS study program | Propionate attenuates atherosclerosis by immune-dependent regulation of intestinal cholesterol metabolism | Adenine Nucleotide Translocase 1 Expression Modulates the Immune Response in Ischemic Hearts | Immune-metabolome response to an acute exercise exertion reveals dysfunctional metabolic recovery in heart failure | Personalized exercise prescription in the prevention and treatment of arterial hypertension: a Consensus Document from the European Association of Preventive Cardiology (EAPC) and the ESC Council on Hypertension | Future of preventive cardiology: EAPC vision 2020–22 | IPSC-derived endothelial cells from high-risk cad patients demonstrate increased inducible adhesion molecule upregulation by inflammatory stimulation and gap closure delay compared to healthy controls | Inter-individual differences in the response to an exercise training intervention in patients with metabolic syndrome | The Effect of Exercise Intensity and Volume on Metabolic Phenotype in Patients with Metabolic Syndrome: A Randomized Controlled Trial | Endothelial and Leukocyte-Derived Microvesicles and Cardiovascular Risk After Stroke: PROSCIS-B | Delphi consensus recommendations on how to provide cardiovascular rehabilitation in the COVID-19 era Cardiac rehabilitation | Types and Origin of Stem Cells | TLR2 signalling orchestrates neutrophil activation in acute coronary syndrome with intact fibrous cap – results from the OPTICO-ACS study | Novel effects of Foxo3a on immune system and cardiac remodeling after myocardial infarction | Differential immunological signature at the culprit site distinguishes acute coronary syndrome with intact from acute coronary syndrome with ruptured fibrous cap: Results from the prospective translational OPTICO-ACS study | The Immune Response To Cardiorespiratory Exercise Testing In Heart Failure Patients With Reduced Ejection Fraction: 118 May 27 10:30 AM - 10:45 AM | Concepts and Software Package for Efficient Quality Control in Targeted Metabolomics Studies - MeTaQuaC | Impact of the Gut Microbiota on Atorvastatin Mediated Effects on Blood Lipids | Extracellular vesicle species differentially affect endothelial cell functions and differentially respond to exercise training in patients with chronic coronary syndromes | Inter-individual differences in the response to an exercise training intervention in patients with metabolic syndrome | A supervised 16 week exercise intervention in patients with metabolic syndrome improved cardiorespiratory fitness, regardless of exercise intensity, and volume, but had no effect on metabolic control | Exercise and Vascular Function | Secondary prevention through comprehensive cardiovascular rehabilitation: From knowledge to implementation. 2020 update. A position paper from the Secondary Prevention and Rehabilitation Section of the European Association of Preventive Cardiology | High-Risk Atherosclerosis and Metabolic Phenotype: The Roles of Ectopic Adiposity, Atherogenic Dyslipidemia, and Inflammation | High-Risk Atherosclerosis and Metabolic Phenotype: The Roles of Ectopic Adiposity, Atherogenic Dyslipidemia, and Inflammation | Figure 1 The ectopic adiposity phenotype | Figure 2 Inflammation and plaque phenotype | Concepts and Software Package for Efficient Quality Control in Targeted Metabolomics Studies - MeTaQuaC | Structure-function relationships of HDL in diabetes and coronary heart disease | Management of patients with type 2 diabetes in cardiovascular rehabilitation | Long noncoding RNA NEAT1 modulates immune cell functions and is suppressed in early onset myocardial infarction patients | PP144 - Ko-regulation of immune parameters by exercise training in patients with metabolic syndrome | Towards a personalised approach in exercise-based cardiovascular rehabilitation: How can translational research help? A ‘call to action’ from the Section on Secondary Prevention and Cardiac Rehabilitation of the European Association of Preventive Cardiology | P6394Neutrophil activation patterns in acute coronary syndrome with intact fibrous cap - results from the OPTICO-ACS study | P4418Temporal analysis of leukocyte extravasation and morphological activation after standard cardiopulmonary exercise testing in patients with heart failure with reduced ejection fraction | Lifestyle factors and high-risk atherosclerosis: Pathways and mechanisms beyond traditional risk factors | Figure 1 Lifestyle and high-risk atherosclerosis | Figure 2 Marine n-3 fatty acids and mechanisms related to cardiovascular risk | P270 - Exercise intensity and volume differentially impact on innate and adaptive immunity in patients with metabolic syndrome | V133 - Exercise intensity and volume differentially impact on innate and adaptive immunity in patients with metabolic syndrome | Exercise training in women with cardiovascular disease: Differential response and barriers – review and perspective | Exercise training for patients with type 2 diabetes and cardiovascular disease: What to pursue and how to do it. A Position Paper of the European Association of Preventive Cardiology (EAPC) | You don’t know them until you challenge them – micro ribonucleic acid changes in response to acute exercise in patients with coronary artery disease | Exercise training to reduce cardiovascular risk in patients with metabolic syndrome and type 2 diabetes mellitus: How does it work? | Increased Expression of miR-483-3p Impairs the Vascular Response to Injury in Type 2 Diabetes | P2467Gut microbiota-dependent TMAO and risk of cardiovascular events in patients with stroke: relation to pro-inflammatory monocytes | P572 Angiographic guided PCI of ACS causing culprit lesions - Just a gamble? | P767 Identification of circulating miRNA-abundances in ruptured versus eroded lesions: A combined optical coherence tomography and miRNA-profiling approach in patients with acute coronary syndrome | Gut Microbiota–Dependent Trimethylamine N -Oxide Predicts Risk of Cardiovascular Events in Patients With Stroke and Is Related to Proinflammatory Monocytes | The pattern of a broken heart: Can circulating miRs help to distinguish cardiac pathologies from normal post-exercise recovery? | Sitagliptin Accelerates Endothelial Regeneration after Vascular Injury Independent from GLP1 Receptor Signaling | Age Is Relative—Impact of Donor Age on Induced Pluripotent Stem Cell-Derived Cell Functionality | 5918Ischemia-driven exosome release of human iPSC-CM-derived cardiomyocytes increase viability of endothelial cells via pro-survival factors | P1760Local coronary activation of neutrophils at the site of the culprit lesion in patients with an acute coronary syndrome | P6269Next-generation-sequencing reveals diverse inflammasome components within monocyte subpopulations: differential activation in healthy subjects and patients with acute coronary syndrome | Differences in the Inflammasome Gene Signature of Human Monocyte Subpopulations: Impact of Coronary Disease | Increased Proangiogenic Activity of Mobilized CD34 + Progenitor Cells of Patients With Acute ST-Segment–Elevation Myocardial Infarction: Role of Differential Micro-RNA-378 Expression | Early detection of myocardial infarction—microRNAs right at the time? | Dabigatran-related platelet thrombin response during triple anti-thrombotic therapy: A matter of time? | Vascular Remodeling in Cardiovascular Disease231Absence of PI3Kg leads to increased reendothelialization in mice through modulation of IP-10 secretion.232DPP4 inhibition mediates vascular protection in acute and chronic vascular injury233Effects of transforming growth factor beta signalling on smooth muscle cell phenotype in the angiotensin II-induced abdominal aortic aneurysm model | Micro-RNA-126 Reduces the Blood Thrombogenicity in Diabetes Mellitus via Targeting of Tissue Factor | Reprogramming ageing and longevity genes restores paracrine angiogenic properties of early outgrowth cells | Vascular repair strategies in type 2 diabetes: Novel insights | Dynamic microvesicle release and clearance within the cardiovascular system: Triggers and mechanisms | DPP-4 inhibition ameliorates atherosclerosis by priming monocytes into M2 macrophages | Stoppage of Atherosclerosis by Gliptin-Treatment in ApoE-knock-out-Mouse Model | Post-ischaemic silencing of p66Shc reduces ischaemia/reperfusion brain injury and its expression correlates to clinical outcome in stroke | Migration towards SDF-1 selects angiogenin-expressing bone marrow monocytes endowed with cardiac reparative activity in patients with previous myocardial infarction | Short-term inhibition of DPP-4 enhances endothelial regeneration after acute arterial injury via enhanced recruitment of circulating progenitor cells | Microparticles and exosomes differentially impact on endothelial cell function in coronary artery disease | Aging and longevity genes p66shc and junD mediate age-related dysfunction of angiogenic early outgrowth cells: mechanistic insights into vascular repair | Reduced microRNA-130a expression in early outgrowth cells from patients with coronary disease: a novel mechanism limiting capacity of early outgrowth cells for vascular repair | miR-483 impairs endothelial homeostasis and response to vascular injury: upregulation by high-glucose and in patients with type-2 diabetes | Myeloid calcifying cells promote atherosclerotic calcification via paracrine activity and allograft inflammatory factor-1 overexpression | Novel Insights into Vascular Repair Mechanisms | You can teach an old dog new tricks: Angiopoietin-1 instructs Tie2pos myeloid cells to promote neovascularization in ischemic limbs | Supplementary material 1 | An unbalanced monocyte polarisation in peripheral blood and bone marrow of patients with type 2 diabetes has an impact on microangiopathy | Systemic VEGF inhibition accelerates experimental atherosclerosis and disrupts endothelial homeostasis - Implications for cardiovascular safety | Abnormal High-Density Lipoprotein Induces Endothelial Dysfunction via Activation of Toll-Like Receptor-2. | REPROGRAMMING OF AGING AND LONGEVITY GENES p66SHC AND JUND BLUNTS AGE-RELATED DYSFUNCTION OF ANGIOGENIC EARLY OUTGROWTH CELLS | THE ROLE OF miR-483-3P IN ENDOTHELIAL HOMEOSTASIS AND RESPONSE TO VASCULAR INJURY | Novel Insights Into the Critical Role of Bradykinin and the Kinin B2 Receptor for Vascular Recruitment of Circulating Endothelial Repair-Promoting Mononuclear Cell Subsets Alterations in Patients With Coronary Disease</t>
+        </is>
+      </c>
+      <c r="M71" s="3" t="inlineStr">
+        <is>
+          <t>Cell Biology | Endothelial Function | Angiogenesis | Nitric Oxide | Endothelial Dysfunction | Vascular Medicine | Cardiovascular System | Vascular Diseases | Chronic Heart Failure | Physiology</t>
+        </is>
+      </c>
+    </row>
+    <row r="72" ht="80" customHeight="1" s="4">
+      <c r="B72" s="3" t="inlineStr">
+        <is>
+          <t>Erik Kelder</t>
+        </is>
+      </c>
+      <c r="C72" s="3" t="inlineStr">
+        <is>
+          <t>Erik-Kelder</t>
+        </is>
+      </c>
+      <c r="D72" s="3" t="inlineStr">
+        <is>
+          <t>Delft University of Technology</t>
+        </is>
+      </c>
+      <c r="E72" s="3" t="n">
+        <v>18110</v>
+      </c>
+      <c r="F72" s="3" t="n">
+        <v>5432</v>
+      </c>
+      <c r="G72" s="3" t="n">
+        <v>46</v>
+      </c>
+      <c r="H72" s="3" t="inlineStr">
+        <is>
+          <t>Shibabrata-Basak | Violetta-Arszelewska | Esteban-Garcia-Tamayo | Niek-De-Klerk | Chong-Chen-10 | Marnix-Wagemaker | Joop-Schoonman | Alan-Chadwick | Helena-Berg | Fokko-Mulder | Ugo-Lafont | Alireza-Mirhabibi | Han-Huang | Tammo-Schwietert | Nitte-Landschoot | Marcus-Fehse | J-Ruud-Van-Ommen | John-Nijenhuis | Hqn-Huang | Maria-Alfredsson-2 | Swapna-Ganapathy-2 | Wouter-Borghols | Rein-Andre-Roos | David-Munao | Chuang-Yu-2 | Anca-Anastasopol | Hans-Kungl-14601571 | PJ-Van-der-Put-17697363 | JGM-Becht-17697620 | MJG-Jak-18482829 | JCM-Marijnissen-18488548 | I-M-de-Schepper-18491647 | V-W-J-Verhoeven-18493303 | Frans-Ooms-20350462 | Alper-Evirgen-2053366504 | Jart-Hageman-2147069207 | R-Beetstra-2162752532 | D-R-Simon-2162981477 | Ernst-R-H-van-Eck-39685495 | Arno-P-M-Kentgens-39844768 | A-V-Nikonov-42442076 | V-A-Vons-50818684 | Mario-Valvo-55910112 | A-Goossens-60179626 | Jan-van-Erven-79821114 | L-Simonin-82283055</t>
+        </is>
+      </c>
+      <c r="I72" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="J72" s="3" t="inlineStr">
+        <is>
+          <t>Moulay Tahar Sougrati | Shibabrata Basak | Lorenzo Stievano | Esteban García-Tamayo | Werner Weppner | Anthony R West | Chong Chen | Robert A Huggins | Michel Armand | Philippe Poizot | Marnix Wagemaker | Joop Schoonman | Christian Masquelier | Mathieu Morcrette | Fokko M Mulder | A.A. Van Well | Dominique Larcher | Bernard Lestriez | Ugo Lafont | Rosalind June Gummow | J.T Vaughey | Miran Gaberscek | S.M. George | Lambert van Eijck | Michael Thackeray | Chunsheng Wang | Hong Li | Anthony Robert Armstrong | Linda F. Nazar | Jun Yang | Swapna Ganapathy | Wouter J. H. Borghols | Jose L. Tirado | Laure Monconduit | Yong-Sheng Hu | Robert Dominko | Doron Aurbach | David Munao | Clare P Grey | Jan N. Reimers | Pedro Lavela | Gerbrand Ceder | Chuang Yu | Khalil Amine | Dominique Guyomard | Yi Cui | Gordon Kearley | J. Maier | Yair Ein-Eli | Alan Weimer</t>
+        </is>
+      </c>
+      <c r="K72" s="3" t="n">
+        <v>170</v>
+      </c>
+      <c r="L72" s="3" t="inlineStr">
+        <is>
+          <t>Characterisation of defects in porous silicon as an anode material using positron annihilation Doppler Broadening Spectroscopy | Operando Transmission Electron Microscopy of Battery Cycling: Thickness-dependent Breaking of TiO2 Coating on Si/SiO2 Nanoparticles | Scanning Probe Microscopy Facility for Operando Study of Redox Processes on Lithium ion Battery Electrodes | Monitoring and quantifying morphological and structural changes in electrode materials under operando conditions | Accessing Lithium–Oxygen Battery Discharge Products in Their Native Environments via Transmission Electron Microscopy Grid Electrode | Active sites and acidic water oxidation mechanisms on metal-doped cubic spinel Li1–xMn2O4 and similar transition metal oxides. | SI.pdf | Operando Transmission Electron Microscopy Study of All-Solid-State Battery Interface: Redistribution of Lithium among Interconnected Particles | Clarifying the relationship between redox activity and electrochemical stability in solid electrolytes | Scalable route to Electroactive and Light active Perylene diimide dye polymer Binder for Li ion Batteries | Bulk Sensitive Soft X-Ray Edge Probing for Elucidation of Charge Compensation in Battery Electrodes | The relationship between the redox activity and electrochemical stability of solid electrolytes for solid-state batteries | Materials for Electrochemical Energy Storage Devices: Underlying Causes and Sustainable Mitigation Strategies | Designing Reliable Operando TEM Experiments to Study (De)lithiation Mechanism of Battery Electrodes | Investigation of Li-ion transport in Li 7 P 3 S 11 and solid-state lithium batteries | Supplementary Material | Facile Synthesis toward the Optimal Structure-Conductivity Characteristics of the Argyrodite Li6PS5Cl Solid-State Electrolyte | EDHA for Energy Production, Storage and Conversion Devices | Optimisation of Proton-Conducting sPEEK Membranes through a Thermal Treatment Method Monitored by Dielectric Spectroscopy | Protecting the MoSi 2 healing particles for Thermal Barrier Coatings using a sol-gel produced Al 2 O 3 coating | In-Depth Analysis of the Conversion Mechanism of TiSnSb vs Li by Operando Triple-Edge X-ray Absorption Spectroscopy: A Chemometric Approach | Special Issue for the E-MRS Spring Meeting Symposium D on Solid State Ionics | Optimizing Synthesis of Maghemite Nanoparticles as an Anode for Li-Ion Batteries by Exploiting Design of Experiment | Synthesis and characterization of porous maghemite as an anode for Li-ion batteries | Manufacturing of LiNi0.5Mn1.5O4 Positive Composite Electrodes with Industry-Relevant Surface Capacities for Lithium Ion-Cells | EMRS 2014 Solid State Ionics issue | Method for covering particles, especially a battery electrode material particles, and particles obtained with such method and a battery comprising such particle | In situ Fe K-edge X-Ray Absorption Spectroscopy study during cycling of Li2FeSiO4 and Li2.2Fe0.9SiO4 Li ion battery materials | Preparation, characterisation and optimisation of lithium battery anodes consisting of silicon synthesised using Laser assisted Chemical Vapour Pyrolysis | Characterization of Nb-doped WO3 thin films produced by Electrostatic Spray Deposition | Special Issue for the E-MRS Spring Meeting Symposium C: "Solid State Ionics: Mass and Charge Transport Across and Along Interfaces of Functional Material" Strasbourg/France, May 14-17, 2012 Preface | Electrostatic spray pyrolysis of LiNi0.5Mn1.5O4 films for 3D Li-ion microbatteries | Electrostatic spray pyrolysis of LiNi0.5Mn1.5O4 films for 3D Li-ion microbatteries | New Composite PEM for High Temperature Fuel Cells | Effect of Cr-Oxide Partial Coating on the Electrochemical Behavior of Thin Film High-Voltage Spinel | Improving the cyclability of sodium-ion cathodes by selection of electrolyte solvent | Silicon-based nanocomposite for advanced thin film anodes in lithium-ion batteries | Direct synthesis and coating of advanced nanocomposite negative electrodes for Li-ion batteries via electrospraying | STRUCTURE AND PROPERTIES OF TITANIUM–POLYMER THIN FILM NANOCOMPOSITES | Silicon nanoparticles produced by spark discharge | A practical circuit-based model for Li-ion battery cells in electric vehicle applications | Nanostructured Fe2O3 and CuO composite electrodes for Li ion batteries synthesized and deposited in one step | Role of the binder on the failure mechanism of Si nano-composite electrodes for Li-ion batteries | Aerosol technology and Si nano-composite electrode assembly for Li-ion batteries | Development of an Electroactive Membrane for Lithium Recovery by Electrochemical Means | An Electrochemical Study of High Voltage Cathode Materials in Contact with Mixtures of Ionic Liquids and Commercial Electrolytes | Ammonia removal from an aqueous solution and method for the production of a fertilizer material | Scalable gas-phase processes to create nanostructured particles | An Aerosol-Based Route to Nanostructured Powders Synthesis in Liquids | Sol-Gel and Hard Template Assisted Synthesis of 3D Nanostructured SnO(2) Electrodes | Lithium Storage in Amorphous TiO2 Nanoparticles | ChemInform Abstract: Thin Film Solid Electrolytes and Electrodes for Rechargeable Lithium-Ion Batteries | ChemInform Abstract: Size Effects in the Li4+xTi5O12 Spinel. | ChemInform Abstract: Functional Ceramic Films with Reticular Structures Prepared by Electrostatic Spray Deposition Technique | Synthesis of Anisotropic Gold Nanoparticles by Electrospraying into a Reductive-Surfactant Solution | Synthesis of Silicon Nano-particles for Thin Film Electrodes Preparation | Electro spraying of titania for nitrogen oxide abatement | Size Effects in the Li4+xTi5O12 Spinel | Size effects in the Li(4+x)Ti(5)O(12) spinel. | Atmospheric Pressure Process for Coating Particles Using Atomic Layer Deposition | Physical and electrochemical properties of LiFe 0.5 Mn 1.5 O 4 spinel synthesized by different methods | Synthesis of Nanoparticles of Cu, Sb, Sn, SnSb and Cu2Sb by Densification and Atomization Process | Electrospraying-assisted synthesis of tin nanoparticles for Li-ion battery electrodes | Nanosized high voltage cathode material LiMg0.05M0.45Mn1.5O4: Structural, electrochemical and in situ investigation | Interaction between carbon dioxide and ionic liquids: Novel electrolyte candidates for safer Li-ion batteries | In Situ Structural Changes upon Electrochemical Lithium Insertion in Nanosized Anatase TiO2 | The Improvement and Upscaling of a Laser Chemical Vapor Pyrolysis Reactor | SnSb micron-sized particles for Li-ion batteries | Impact of Nanosizing on Lithiated Rutile TiO 2 | Physical and electrochemical properties of iron-doped lithium-manganese-spinels prepared by different methods | Sn–Co compound for Li-ion battery made via advanced electrospraying | Carbon coating via an alkyl phosphonic acid grafting route: Application on TiO2 | Mg-doped LiNi0.5Mn1.5O4 spinel for cathode materials | Sb/O Nano-Composites Produced via Spark Discharge Generation for Lithium-Ion Battery Anodes | Method for Covering Particles, Especially a Battery Electrode Material Particles, and Particles Obtained with Such Method and a Battery Comprising Such Particle | Nanopowders of spinel-type electrode materials for Li-ion batteries | A Kinetic Two-Phase and Equilibrium Solid Solution in Spinel Li4+xTi5O12 | Characteristic changes under pulsed pressure action in electrode materials based on LiMn2O4 and Li4Ti5O12 spinels | Characterization of proton exchanged Li 4Ti 5O 12 spinel material | Impedance Simulation of a Li-Ion Battery with Porous Electrodes and Spherical Li+ Intercalation Particles | A structural investigation of the influence of dopants on the electronic properties of LiCoVO4 | Influence of Dynamic Compaction on Structure and Mechanical Strength of Composite Spinel-Based (LiMn 2 O 4 , Li 4 Ti 5 O 12 ) Foil Electrodes | Magnetic Pulsed Compaction of Nanopowders Based on Lithium-Containing Spinels | Structural and ionic bond strength investigation using Pauling ESB rules of nonstochiometric spinel comtounds LixMn2O4 and stoichiometric Li1+yMn2-yO4, as cathode materials for rechargeable lithium-ion batteries | Electrochemical performance of Al2O3-coated Fe doped LiCOVO4 | Extensive Migration of Ni and Mn by Lithiation of Ordered LiMg 0.1 Ni 0.4 Mn 1.5 O 4 Spinel | Proton positions in spinel H0.9Li0.1[Li0.33Ti1.67]O4, an ion-exchanged spinel Li1[Li0.33Ti1.67]O4 | Citric acid-assisted synthesis and characterization of doped LiCOVO4 | Synthesis and characterization of LiCo1-xFexVO4 prepared by a citric acid complex method | 6Li MAS NMR study of stoichiometric and chemically delithiated LixMn2O4 spinels | Structure determination of high-voltage LiMgdNi0.5-dMn1.5O4 spinels for Li-ion batteries | High-voltage LiMgδNi0.5−δMn1.5O4 spinels for Li-ion batteries | Conduction mechanism in operating a LiMn2O4 cathode | CORRELATION BETWEEN HYDROGEN STORAGE AND LI-INTERCALATION IN CARBON-BASED MATERIALS AT AMBIENT CONDITIONS | Graphite–metal oxide composites as anode for Li-ion batteries | Performance of Solupor (R) separator materials in lithium ion batteries | Li1+δMn2−δO4 performance measured by leaching | Lithium dynamics in LiMn2O4 probed directly by two-dimensional Li-7 NMR | Composite cell components for elevated temperature all-solid-state Li-ion batteries | Lithium intercalation characteristics of BCN and CBSiN carbon alloys</t>
+        </is>
+      </c>
+      <c r="M72" s="3" t="inlineStr">
+        <is>
+          <t>Thin Films and Nanotechnology | Thin Film Fabrication</t>
+        </is>
+      </c>
+    </row>
+    <row r="73" ht="80" customHeight="1" s="4">
+      <c r="B73" s="3" t="inlineStr">
+        <is>
+          <t>Hervé Lerat</t>
+        </is>
+      </c>
+      <c r="C73" s="3" t="inlineStr">
+        <is>
+          <t>Herve-Lerat</t>
+        </is>
+      </c>
+      <c r="D73" s="3" t="inlineStr">
+        <is>
+          <t>Université Grenoble Alpes</t>
+        </is>
+      </c>
+      <c r="E73" s="3" t="n">
+        <v>2789</v>
+      </c>
+      <c r="F73" s="3" t="n">
+        <v>2424</v>
+      </c>
+      <c r="G73" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="H73" s="3" t="inlineStr">
+        <is>
+          <t>Pasqua-Herve | Gael-Roth | Solange-Desagher | Iciar-Echeverria | Steven-Weinman | Patrice-Marche | Thomas-Decaens-2 | Jessica-Zucman-Rossi | Christophe-Magnan | Christian-Trepo | Jack-Singer | Francois-Habersetzer | Marion-Mercey-Ressejac | Mary-Anne-Trabaud | Jesus-Prieto-4 | Masao-Honda | Virginia-Belsue | Jean-Michel-Pawlotsky | Pierre-Charbord | Nancy-Diaz-Valdes | Juan-Lasarte | Lydie-Carreres | Jose-Riezu-Boj | Urszula-Hibner | Esther-Larrea | Genevieve-Inchauspe | Martin-Higgs-2 | Zuzana-Macek-Jilkova-2 | Olivier-Disson | Fb-Hollinger | Kurma-Keerthi-2 | Mohamed-Imache | Diana-Llopiz | Pablo-Sarobe | Emilie-Merour | Muhammad-Ahmad-Maqbool | Sophie-Carmouse-2011159109 | M-Higgs-2045651013 | J-Polyte-2076759410 | Marion-Mercey-Ressejac-2203141983 | Kim-Loesch-34616775 | Francoise-Berby-38127214 | Fabienne-Foufelle-38136992 | Philippe-Chouteau-39069623 | Nathalie-Sturm-39099728 | J-M-Pawlotsky-40038793 | Stanley-M-Lemon-57009107 | S-Rumin-5826004 | A-Gaudin-75911778</t>
+        </is>
+      </c>
+      <c r="I73" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="J73" s="3" t="inlineStr">
+        <is>
+          <t>Shigekazu Nagata | Shin-ichi Kimura | Solange Desagher | Moriya Kyoji | Francesco Negro | Steven A Weinman | Patrice Marche | Tania Roskams | Jessica Zucman-Rossi | Yujin Hoshida | Stephen J Polyak | Rainer Gosert | Keisuke Hino | T. Jake Liang | Michinori Kohara | Masao Honda | Michael R Beard | Betty Slagle | Jean-Michel Pawlotsky | Charles Balabaud | Jiaren Sun | Takanobu Kato | Yoshiharu Matsuura | Tobias Goeser | Urszula Hibner | Scott L Friedman | Tatsuo Miyamura | Geneviève Inchauspé | Masaaki Korenaga | Martin R. Higgs | Zuzana Macek Jílková | Olivier Disson | Christian Bréchot | Toshiyuki Tsutsumi | Charles R Madden | Takaji Wakita | Kurma Keerthi | Josep M. Llovet | Curtis Harris | Yi Yu | Adrian M Di Bisceglie | Leonard B Seeff | Robert Harry Purcell | Ratna Ray | Gaël S Roth | Frank Chisari | Thomas Decaens | Keigo Machida | Patrick Marcellin | Sohji Nishina</t>
+        </is>
+      </c>
+      <c r="K73" s="3" t="n">
+        <v>56</v>
+      </c>
+      <c r="L73" s="3" t="inlineStr">
+        <is>
+          <t>Effect of Novel AKT Inhibitor Vevorisertib as Single Agent and in Combination with Sorafenib on Hepatocellular Carcinoma in a Cirrhotic Rat Model | Chronic Intermittent Hypoxia Increases Cell Proliferation in Hepatocellular Carcinoma | A multicentre study on spontaneous in-cage activity and micro-environmental conditions of IVC housed C57BL/6J mice during consecutive cycles of bi-weekly cage-change | DEN-Induced Rat Model Reproduces Key Features of Human | Pandemic Preparedness in Animal Facilities | Modeling Diet-Induced NAFLD and NASH in Rats: A Comprehensive Review | Targeting Akt in Hepatocellular Carcinoma and Its Tumor Microenvironment | Plan de préparation à une pandémie mondiale dans les animaleries de laboratoire : l’exemple du COVID-19 | Abstract 3717: Animal model of cirrhosis with hepatocellular carcinoma: A reliable tool for testing new therapies | Abstract 3717: Animal model of cirrhosis with hepatocellular carcinoma: A reliable tool for testing new therapies | Functional microRNA screen uncovers O-linked N-acetylglucosamine transferase as a host factor modulating hepatitis C virus morphogenesis and infectivity | Apico-basal polarity in epithelial cell morphogenesis and liver pathogenesis | Hepatitis C virus induces a pre-diabetic state by directly impairing hepatic glucose metabolism in mice | Isoform-specific activation of Akt involvement in hepatocarcinogenesis | P0671 : Mechanisms of HCV-induced diabetes through impaired insulin-driven gluconeogenesis shut-down by HCV proteins as a result of uncoupling of FoxO1/AKT signaling | P0673 : Pathophysiology of HCV-related hepatocellular carcinoma: HCV protein expression induces the activation of AKT1 in hepatocytes through an mTORC2 dependent pathway | 'Liver let die': Oxidative DNA damage and hepatotropic viruses | Regulation of Hepatitis C Virus Replication by Nuclear Translocation of Nonstructural 5A Protein and Transcriptional Activation of Host Genes | 1164 INDUCTION OF A PREDIABETIC STATE IN TRANSGENIC MICE EXPRESSING THE HCV PROTEINS | 282 CELL CYCLE DEREGULATION BY HCV PROTEIN EXPRESSION, A POTENTIAL HEPATOCARCINOGENIC TRIGGER | Regulation of Hepatitis C Virus Replication by Nuclear Translocation of Nonstructural 5A Protein and Transcriptional Activation of Host Genes | Hepatitis C virus-induced activation of β-catenin promotes c-Myc expression and a cascade of pro-carcinogenetic events | Hepatitis C virus (HCV) protein expression enhances hepatic fibrosis in HCV transgenic mice exposed to a fibrogenic agent | 854 REGULATION OF HEPATITIS C VIRUS REPLICATION BY NUCLEAR TRANSLOCATION OF NONSTRUCTURAL 5A PROTEIN AND TRANSCRIPTIONAL ACTIVATION OF HOST GENES | Animal models in the study of hepatitis C virus-associated liver pathologies | 222 PROMOTION OF LIVER CARCINOGENESIS BY HEPATITIS C VIRUS THROUGH ENHANCED C-MYC EXPRESSION, LEADING TO DNA DAMAGE AND OXIDATIVE STRESS | Improved dendritic cell-based immunization against hepatitis C virus using peptide inhibitors of interleukin 10 | Improved Dendritic Cell-Based Immunization Against Hepatitis C Virus Using Peptide Inhibitors of Interleukin 10 | Downregulation of Gadd45 Expression by Hepatitis C Virus Leads to Defective Cell Cycle Arrest | 659 HCV NS5A PROTEIN BEARS TRANSACTIVATION PROPERTIES THAT CORRELATE WITH HCV REPLICATION CAPACITY IN VITRO | 874 EPIGENETIC MODULATION OF TUMOUR SUPPRESSOR GADD45 BETA EXPRESSION BY HCV LEADS TO DEFECTIVE CELL CYCLE ARREST AND MAY PLAY A ROLE IN LIVER CARCINOGENESIS | Calpain Activation by Hepatitis C Virus Proteins Inhibits the Extrinsic Apoptotic Signaling Pathway | HCV Research 20 Years After Discovery: A Summary of the 16th International Symposium on Hepatitis C Virus and Related Viruses | Hepatitis C Virus Proteins Induce Lipogenesis and Defective Triglyceride Secretion in Transgenic Mice | Fundamental and translational research on hepatocellular carcinoma in 2008: Forces and priorities | Functional compartmentalization of HCVNS5A variants within the tumoral and non-tumoral tissue from patients with hepatocellular carcinoma | Morphological changes in intracellular lipid droplets induced by different hepatitis C virus genotype core sequences and relationship with steatosis | No fat free for HCV | Mechanisms of hepatitis C virus (HCV)-induced hepatic steatosis in transgenic mice | Increased liver pathology in hepatitis C virus transgenic mice expressing the hepatitis B virus X protein | Impaired Clearance of Virus-Infected Hepatocytes in Transgenic Mice Expressing the Hepatitis C Virus Polyprotein | Hepatitis C virus (HCV) occult infection or occult HCV RNA detection? | The hepatitis C virus NS2 protein is an inhibitor of CIDE-B-induced apoptosis | Hepatocytes Transgenic for the Full Hepatitis C Virus Open Reading Frame Are Resistant to Fas‐Induced Cell Death | Steatosis and liver cancer in transgenic mice expressing the structural and nonstructural proteins of hepatitis C virus | Cell Type-Specific Enhancement of Hepatitis C Virus Internal Ribosome Entry Site-Directed Translation due to 5' Nontranslated Region Substitutions Selected during Passage of Virus in Lymphoblastoid Cells | A transgenic mouse model of steatosis and hepatocellular carcinoma associated with chronic hepatitis C virus infection in humans | In Vivo Tropism of Hepatitis C Virus Genomic Sequences in Hematopoietic Cells: Influence of Viral Load, Viral Genotype, and Cell Phenotype | In Vivo Tropism of Hepatitis C Virus Genomic Sequences in Hematopoietic Cells: Influence of Viral Load, Viral Genotype, and Cell Phenotype | Lerat H, Rumin S, Habersetzer F, Berby F, Trabaud MA, Trepo C &amp; Inchauspe GIn vivo tropism of hepatitis C virus genomic sequences in hematopoietic cells: influence of viral load, viral genotype, and cell phenotype. Blood 91: 3841-3849 | Tropisme extrahépatique du virus de l'hépatite C | Specific detection of HCV minus strand RNA in hematopoietic cells | Role of stromal cells and macrophages in fibronectin biosynthesis and matrix assembly in human long-term marrow cultures | Role of stromal cells and macrophages in fibronectin biosynthesis and matrix assembly in human long-term marrow cultures | Stromal cell mediated granulopoiesis: The role of myofibroblasts | The cytoskelton of stromal cells from human bone marrow cultures resembles that of cultured smooth muscle cells</t>
+        </is>
+      </c>
+      <c r="M73" s="3" t="inlineStr">
+        <is>
+          <t>Hepatocellular Carcinoma | Chronic Hepatitis C</t>
+        </is>
+      </c>
+    </row>
+    <row r="74" ht="80" customHeight="1" s="4">
+      <c r="B74" s="3" t="inlineStr">
+        <is>
+          <t>Massika Brahimi</t>
+        </is>
+      </c>
+      <c r="C74" s="3" t="inlineStr">
+        <is>
+          <t>Massika-Brahimi</t>
+        </is>
+      </c>
+      <c r="E74" s="3" t="n">
+        <v>1351</v>
+      </c>
+      <c r="F74" s="3" t="n">
+        <v>470</v>
+      </c>
+      <c r="G74" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="H74" s="3" t="inlineStr">
+        <is>
+          <t>Joel-Belmin | S-Chiheb | Denis-Chemla | Christian-Richard-5 | Paul-Valensi | Bernard-Levy-2 | Abdenour-Benmansour | Abbas-Fouzia | Rabah-Bensaha | Hanene-Bensouyad | Eric-Billaud | Jean-Louis-Teboul | Isabelle-Pham | Roland-Asmar-2 | Hubert-Dabire | Emmanuel-Cosson-2 | Leila-Dehmani | Marinos-Fysekidis | Athanase-Benetos | Charles-Chazot-3 | Sandrine-Millasseau | Jocelyne-Raison | Heider-Dehdouh-2 | Bruce_Pannier | Sedrati-Hichem | Minh-Nguyen-57 | Zineb-Nehar | R-Duteil-2011342207 | B-Guillou-2030476905 | Rachid-Mojaat-2085714386 | Martine-Catherine-2085824858 | R-Valensi-2100129313 | M-E-Safar-2116469449 | F-Hadj-Brahim-33989155 | P-Coulon-38224579 | P-Couillin-38539022 | A-Nitenberg-38636742 | J-Paries-38842177 | M-Benhassine-39187331 | H-Le-Clesiau-39187356 | Xavier-Monnet-39603962 | N-Moatti-40085457 | J-R-Attali-45960002 | O-Akacem-5028771 | A-Michault-60385663 | K-Soufi-64525521 | Doan-Kim-Son-72689836 | B-Toubal-79429853 | P-Platon-9210365</t>
+        </is>
+      </c>
+      <c r="I74" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="J74" s="3" t="inlineStr">
+        <is>
+          <t>Julien Hoffman | Nicolaas Westerhof | Faiza Meriche | Pier Paolo Lottici | John Cockcroft | Alberto Avolio | N H Fiebach | Danilo Bersani | Ulf de Faire | Emelia Benjamin | Marco Spadafora | Yves Lecarpentier | Alain Simon | James D Cameron | Paul Valensi | Isabel Ferreira | Letizia Spinelli | Bernard Levy | Jon Godwin | Mile Ivanda | Bernhard Dietzschold | Marijan Gotić | Carlo Duilio | Michael F O'Rourke | Rabah Bensaha | Renata Reisfeld | Carl V Leier | Roland Asmar | Christophe Prehaud | J Kennedy Cruickshank | Stavros Liatis | R. Mechiakh | Noël Tordo | Athanase Benetos | Nicholas Tentolouris | Nawab Qizilbash | Patrick Cyril Brunel | Joseph A Vita | Gil Salles | Luc Van Bortel | Kaveh Zamani | Denis Chemla | Claudia RL Cardoso | Catherine Coirault | Gláucia de Salles Ferro | Pierre Boutouyrie | Stanko Popovic | Charalambos Vlachopoulos | Thomas Pollare | Jean-Claude Barthelemy</t>
+        </is>
+      </c>
+      <c r="K74" s="3" t="n">
+        <v>44</v>
+      </c>
+      <c r="L74" s="3" t="inlineStr">
+        <is>
+          <t>Faisabilité de la mesure de la pression centrale pendant la dialyse avec l’appareil Complior Analyse | Feasibility of using complior analyse to measure central systolic blood pressure during dialysis | Arterial stiffness is elevated in normotensive type 2 diabetic patients with peripheral neuropathy | P158 Évaluation de l’activité métabolique de la graisse abdominale par TEP 18 F-FDG au froid dans un cas de diabète lipoatrophique | Correlation between structural and optical properties of SiO 2 /TiO 2 multibilayers processed by sol-gel technique and applied to Bragg reflectors Full Paper | Correlation between structural and optical properties of TiO2:ZnO thin films prepared by sol–gel method | Structural, thermal and optical characterization of TiO 2:ZrO 2 thin films prepared by sol–gel method | P39 Déterminants de la viabilité myocardique chez les diabétiques et non diabétiques | P43 Viabilité myocardique sous-endocardique à jeun et après charge orale en glucose chez les obèses. Influence d’une dysfonction autonome cardiaque | Determinants of myocardial viability in diabetic and non diabetic | Subendocardial myocardial viability on an empty stomach after an oral glucose load in obese people. Influence of independent cardiac dysfunction | Subendocardial viability index is related to the diastolic/systolic time ratio and left ventricular filling pressure, not to aortic pressure: An invasive study in resting humans | Subendocardial viability ratio estimated by arterial tonometry: A critical evaluation in elderly hypertensive patients with increased aortic stiffness | P96 Altération de la vasorelaxation périphérique après glucose chez l’obèse hypertendu non diabétique : rôle de l’insulinorésistance vasculaire ? | Thumb-rule for the proper assessment of mean blood pressure at the brachial artery level: What should be changed? [4] | Microalbuminuria, a marker of artery rigidity and cardiac dysfunction | Coronary endothelial dysfunction and arterial stiffness, but not microalbuminuria, are of poor cardiovascular prognosis in diabetics without other cardiovascular risk factor | Influence of the vagosympathetic activity on the tensional evolution after glucose. Effect of diabetes and ageing | Endothelial coronary disfunction and arterial rigidity, but not microalbuminuria, are bad prognosis for patients with diabetes type 2 without classical risk factors as well as coronar antiographic damage | New tools for estimating mean arterial pressure in radial artery and ascending aorta: The harmonic and geometric average of systolic and diastolic pressure | Relationship between left ventricular ejection time and the systolic pressure amplification from ascending aorta to radial artery in men | Role of vagosympathetic balance in obesity-induced hypertension | DETERMINANTS OF LEFT VENTRICULAR MASS IN PATENTS WITH END STAGE RENAL FAILURE UNDERGOING HEMODIALYSIS | INFLUENCE OF TYPE 2 DIABETES AND AGEING ON THE HEMODYNAMIC RESPONSE TO GLUCOSE AND A MIXED MEAL. RELATIONSHIP WITH VAGOSYMPATHETIC ACTIVITY: 4C.1 | Role of vagosympathetic balance in hypertension associated with type 2 diabetes | Relationship between vagosympathetic activity and insulin resistance in normotensive and mildly hypertensive obese patients | Arterial rigidity and cardiovascular vagosympathetic activity in normotensive and hypertensive obese patients and type 2 diabetes | Impact of pulse pressure on degree of cardiac hypertrophy in patients with chronic uraemia | Arterial Rigidity And Cardiovascular Sympathetic Tone In Hypertensive Obese And Type 2 Diabetic Patients | Cardiovascular vagosympathetic balance in normotensive and hypertensive obese and type 2 diabetic patients. | Plasma insulin, plasminogen activator inhibitor, and ankle-brachial systolic blood pressure ratio in overweight hypertensive subjects | Factor determining cardiac hypertrophy in hypertensive patients with or without peripheral vascular disease | Plasma insulin and ankle on brachial systolic blood pressure ratio in overweight men with hypertension | Dose-Related Changes in the Mechanical Properties of the Carotid Artery in WKY Rats and SHR following Relaxation of Arterial Smooth Muscle | Arterial and Antihypertensive Effects of Nitrendipine: A Double-Blind Comparison Versus Placebo | Rapid sequence evolution of street rabies glycoprotein is related to the highly heterogeneous nature of the viral population | Ambulatory blood pressure measurement, smoking and abnormalities of glucose and lipid metabolism in essential hypertension | Production of monoclonal antibodies against a wild strain of rabies virus | Structure turbulente de l'écoulement d'interaction de deux panaches thermiques | [Diagnosis of rabies infection in animals using monoclonal antibodies] | [Production of monoclonal antibodies against a strain of rabies virus] | Turbulent structure of thermal plume. Velocity field | Turbulent Structure of a Thermal Plume. Dynamic Aspect. | Interaction between two turbulent plumes in close proximity</t>
+        </is>
+      </c>
+      <c r="M74" s="3" t="inlineStr">
+        <is>
+          <t>Heart Failure</t>
+        </is>
+      </c>
+    </row>
+    <row r="75" ht="80" customHeight="1" s="4">
+      <c r="B75" s="3" t="inlineStr">
+        <is>
+          <t>Yukari Kobayashi</t>
+        </is>
+      </c>
+      <c r="C75" s="3" t="inlineStr">
+        <is>
+          <t>Yukari-Kobayashi</t>
+        </is>
+      </c>
+      <c r="D75" s="3" t="inlineStr">
+        <is>
+          <t>Stanford University</t>
+        </is>
+      </c>
+      <c r="E75" s="3" t="n">
+        <v>5382</v>
+      </c>
+      <c r="F75" s="3" t="n">
+        <v>900</v>
+      </c>
+      <c r="G75" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="H75" s="3" t="inlineStr">
+        <is>
+          <t>Juyong-Kim | David-Boulate | Hiroyuki-Okura | Kegan-Moneghetti | Ryotaro-Yamada | Gianfranco-Sinagra | Atsushi-Hirohata | Eva-Maret | Francois-Haddad | Marco-Perez-4 | David-Liang-3 | Jeff-Christle | Kirk-Knowlton | Kiyoshi-Yoshida-2 | Jeffrey-Christle | Thu-Vu-35 | Bojan-Vrtovec | Martin-Willemink | Tatiana-Kuznetsova-9 | Gherardo-Finocchiaro | Joseph-Wu-12 | Kristofer-Hedman | Teruyoshi-Kume | Nicholas-Cauwenberghs | Euan-Ashley | Myriam-Amsallem | Mehmet-Ozen-2 | Vedant-Pargaonkar | Kenzo-Fukuhara | Daniel-A-Brenner-2023651329 | Genevieve-Giraldeau-2075011983 | Michael-Fischbein-2075029069 | Mirela-Tuzovic-2082059563 | Ryan-OMalley-2082895094 | Kalyani-Boralkar-2115489487 | Sara-Bouajila-2119371780 | Anson-M-Lee-2121029735 | Tatiana-Kouznetsova-2124829782 | Latha-Palaniappan-2127682099 | Dominik-Fleischmann-2163852559 | Terumasa-Koyama-37741446 | Alan-C-Yeung-38220681 | D-Craig-Miller-38854228 | William-F-Fearon-38923166 | Jennifer-A-Tremmel-39101329 | Yoji-Neishi-39404130 | Ingela-Schnittger-39505091 | Jonathan-Myers-39733222 | Yuhei-Kobayashi-59195446 | Matthew-T-Wheeler-9987984</t>
+        </is>
+      </c>
+      <c r="I75" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="J75" s="3" t="inlineStr">
+        <is>
+          <t>Bogdan Alexandru Popescu | Denisa Muraru | Patrizio Lancellotti | Jean Dumesnil | Hiroyuki Okura | Ross Arena | Emelia Benjamin | Thor Edvardsen | Ernst R Rietzschel | Lutgarde Thijs | Scott Solomon | Luigi P Badano | Harry Rakowski | Jae K Oh | Maurizio Galderisi | Victor F Froelicher | Laura Ernande | Kiyoshi Yoshida | Bojan Vrtovec | Thomas H Marwick | Jamil Tajik | Anderson Da Costa Armstrong | Tatiana Kuznetsova | Patricia Pellikka | Keith George | Petros Nihoyannopoulos | Roberto M Lang | Jens-Uwe Voigt | Thierry C Gillebert | Gregg C. Fonarow | Richard J Rodeheffer | Judita Knez | Nicholas Cauwenberghs | Euan Ashley | Myriam Amsallem | Allan Klein | Clyde W Yancy | John J V Mcmurray | Miguel Quinones | James Seward | Elyse Foster | Francois Haddad | Mark Drazner | Victor Mor-Avi | Jan A Staessen | David Henchi Liang | Catherine m Otto | Frank Flachskampf | Lieven Herbots | James D Thomas</t>
+        </is>
+      </c>
+      <c r="K75" s="3" t="n">
+        <v>83</v>
+      </c>
+      <c r="L75" s="3" t="inlineStr">
+        <is>
+          <t>Clinical and Echocardiographic Diversity Associated With Physical Fitness in the Project Baseline Health Study: Implications for Heart Failure Staging | Defining left ventricular remodeling using lean body mass allometry: a UK Biobank study | Effectiveness of a Community-Based Structured Physical Activity Program for Adults With Type 2 Diabetes: A Randomized Clinical Trial | Association of Left Ventricular Diastolic Function with Coronary Artery Calcium Score: A Project Baseline Health Study | Evaluation of diastole by echocardiography for detecting early cardiac dysfunction: an outcome study | Peripheral Oxygen Extraction and Exercise Limitation in Asymptomatic Patients with Diabetes Mellitus | CTA Pulmonary Artery Enlargement in Patients With Severe Aortic Stenosis: Prognostic Impact After TAVR | Subclinical left atrial dysfunction profiles for prediction of cardiac outcome in the general population | Subclinical Heart Dysfunction in Relation to Metabolic and Inflammatory Markers: A Community-Based Study | Subclinical left atrial dysfunction profiles for prediction of cardiac outcome in the general population | Cardiopulmonary Differences Between Normal And Overweight Diabetics: 497 Board #313 May 27 10:30 AM - 12:00 PM | Incremental value of diastolic stress test in identifying subclinical heart failure in patients with diabetes mellitus | High Dimensional Flow Cytometry Characterization of Cardiac Allograft Vasculopathy Highlights Monocyte Activation Pathways | Molecular Choreography of Acute Exercise | Echocardiographic Assessment of Left Ventricular Remodeling in American Style Footballers | Incremental Value of Aortomitral Continuity Calcification for Risk Assessment after Transcatheter Aortic Valve Replacement | Total Microfluidic chip for Multiplexed diagnostics (ToMMx) | Utility of High-Sensitivity and Conventional Troponin in Patients Undergoing Transcatheter Aortic Valve Replacement: Incremental Prognostic Value to B-type Natriuretic Peptide | The 2013 ACC/AHA risk score and subclinical cardiac remodeling and dysfunction: Complementary in cardiovascular disease prediction | A Changing Landscape of Mortality for Systemic Light Chain Amyloidosis | P2488The 2013 ACC/AHA pooled cohort equations and insulin resistance status for detection of early-stage heart failure in the community | Value of Neutrophil to Lymphocyte Ratio and Its Trajectory in Patients Hospitalized With Acute Heart Failure and Preserved Ejection Fraction | Approaching Higher Dimension Imaging Data Using Cluster-Based Hierarchical Modeling in Patients with Heart Failure Preserved Ejection Fraction | Improving risk stratification in heart failure with preserved ejection fraction by combining two validated risk scores | INDEPENDENT PROGNOSTIC VALUES OF CLINICAL RISK SCORES, RIGHT VENTRICULAR SYSTOLIC PRESSURE, AND N-TERMINAL PRO-B-TYPE PEPTIDE IN HEART FAILURE WITH PRESERVED EJECTION FRACTION: INSIGHTS FROM SUPERVISED AND UNSUPERVISED MODELS | Cytokines profile of reverse cardiac remodeling following transcatheter aortic valve replacement | Forgotten No More | Optimizing right ventricular focused four-chamber views using three-dimensional imaging, a comparative magnetic resonance based study | Time based versus strain based myocardial performance indices in hypertrophic cardiomyopathy, the merging role of left atrial strain | Long-term prognostic value of invasive and non-invasive measures early after heart transplantation | Differences in cardiorespiratory fitness in obese and non-obese patients with type 2 diabetes | THE COMPLEMENTARY VALUE OF THE GET WITH THE GUIDELINES: HEART FAILURE RISK SCORE AND LABORATORY MARKERS AT DISCHARGE IN PREDICTING MORTALITY IN PATIENTS HOSPITALIZED WITH HEART FAILURE WITH PRESERVED EJECTION FRACTION | THE PROGNOSTIC VALUE OF COMPUTED TOMOGRAPHY FRAILTY MEASURES FOR PROLONGED HOSPITAL STAY AFTER TAVR IN 429 PATIENTS | SUBCLINICAL LEFT VENTRICULAR DYSFUNCTION IN WOMEN WITH ANGINA IN THE ABSENCE OF OBSTRUCTIVE CORONARY ARTERY DISEASE: A COMPREHENSIVE INVASIVE AND ECHOCARDIOGRAPHIC STUDY | INTEGRATING CORRELATION BASED NETWORKS INTO RISK PROGNOSTICATION OF CARDIOMYOPATHY | PREDICTING MORTALITY WITH AORTOMITRAL CALCIFICATIONS IN 317 TAVR PATIENTS | IMMUNE PROFILE OF HEALTHY CARDIOVASCULAR AGING: INSIGHTS FROM A POPULATION-BASED STUDY AND NETWORK MODELING | Value of Circulating Cytokine Profiling During Submaximal Exercise Testing in Myalgic Encephalomyelitis/Chronic Fatigue Syndrome | Athletic Remodeling in Female College Athletes: The "Morganroth Hypothesis" Revisited | Biomarker and cardiovascular profiles of healthy aging, putting multiple biomarkers in perspective | Incremental Value of Deformation Imaging and Hemodynamics Following Heart Transplantation | GDF-15 (Growth Differentiation Factor 15) Is Associated With Lack of Ventricular Recovery and Mortality After Transcatheter Aortic Valve Replacement | Dynamic changes in aortic impedance after transcatheter aortic valve replacement and its impact on exploratory outcome | TCT-858 Long-Term Prognostic Value of Invasive and Non-Invasive Measures Early after Heart Transplantation | Moving Beyond Linear Formulas for Left Ventricular Mass in Aortic Valve Replacement | Incremental value of right heart metrics and exercise performance to well-validated risk scores in dilated cardiomyopathy | Contractile reserve and cardiopulmonary exercise parameters in patients with dilated cardiomyopathy, the two dimensions of exercise testing | Value of Strain Imaging and Maximal Oxygen Consumption in Patients With Hypertrophic Cardiomyopathy | Functional Cardiac Recovery and Hematologic Response to Chemotherapy in Patients with Light Chain Amyloidosis (From the Stanford University Amyloidosis Registry) | Left atrial function and phenotypes in asymmetric hypertrophic cardiomyopathy | Left ventricular myocardial function assessed by three‐dimensional speckle tracking echocardiography in Takotsubo cardiomyopathy | IDENTIFYING THE OPTIMAL ECHOCARDIOGRAPHIC VARIABLES TO PREDICT OUTCOME THROUGH CORRELATION MAPPING IN PATIENTS WITH DILATED CARDIOMYOPATHY | THE INFLAMMASOME PATHWAY IS ASSOCIATED WITH ADVERSE VENTRICULAR REMODELING FOLLOWING TRANSCATHETER AORTIC VALVE REPLACEMENT | INTEGRATING MYOCARDIAL STRAIN AND EXERCISE PERFORMANCE INTO PROGNOSTICATION OF HYPERTROPHIC CARDIOMYOPATHY | TCT-737 Baseline growth differentiation factor 15 (GDF15) is an independent predictor of reverse left atrial remodeling and mortality at 1-year following Transcatheter Aortic Valve Replacement | TCT-518 The Interaction between Aortic and Coronary Pressures for Fractional Flow Reserve Value in Patients with an Intermediate Coronary Artery Stenosis | Challenging the complementarity of different metrics of left atrial function: Insight from a cardiomyopathy-based study | Additive value of nicorandil on ATP for further inducing hyperemia in patients with an intermediate coronary artery stenosis | Regional right ventricular dysfunction in acute pulmonary embolism: relationship with clot burden and biomarker profile | Comparison of left ventricular manual versus automated derived longitudinal strain: implications for clinical practice and research | Impact of Septal Reduction on Left Atrial Size and Diastole in Hypertrophic Cardiomyopathy | 0038: Addressing the controversy of estimating right ventricular systolic pressure by echocardiography: insights from 307 patients with advanced lung disease or pulmonary arterial hypertension | Addressing the Controversy of Estimating Pulmonary Arterial Pressure by Echocardiography | Exercise Strain Echocardiography in Patients With a Hemodynamically Significant Myocardial Bridge Assessed by Physiological Study | TCT-645 Poorer Left Ventricular Global Longitudinal Strain and Less Tricuspid Regurgitation Predicts Improvement in Left Ventricular Function Following Transcatheter Aortic Valve Replacement | TCT-346 Association between Increased Number of Septal Branches within the Myocardial Bridge and Abnormal Diastolic-Fractional Flow Reserve | Figure S1: | Sex Differences in Ventricular Remodeling and Function in College Athletes, Insights from Lean Body Mass Scaling and Deformation Imaging | Prognostic Utility of Right Atrial Emptying Fractions in Pulmonary Arterial Hypertension | Direct relationship of local C-reactive protein production and lipid pool characterized by integrated backscatter intravascular ultrasound: A preliminary observation | The Independent Predictive Value of Peak Oxygen Consumption, Left ventricular Strain and Atrial Remodelling in Patients With Dilated Cardiomyopathy | Late Diastolic Strain Index Is a Marker of Right Ventricular Fibrosis Content in Precapillary Pulmonary Hypertension | IMPACT OF MYOCARDIAL DEFORMATION IMAGING ON THE DIAGNOSIS OF MYOCARDIAL BRIDGE: PHYSIOLOGIC AND STRAIN ECHOCARDIOGRAPHIC STUDY | Prevalence and Prognostic Role of Right Ventricular Involvement in Stress-Induced Cardiomyopathy | Abstract 15528: Myocardial Deformation Imaging and Obstruction in Hypertrophic Cardiomyopathy, Insights from Cross-sectional and Post-myectomy Analysis | Assessment of Atrial Synchrony in Paroxysmal Atrial Fibrillation and Impact of Pulmonary Vein Isolation for Atrial Dyssynchrony and Global Strain by Three-Dimensional Strain Echocardiography | TCT-385 Association of Target Lesion Coronary Calcification with Stent Expansion and Eccentricity: An Optical Coherence Tomography Study | TCT-562 Impact of Target Lesion Coronary Calcification on Stent Expansion: An Optical Coherence Tomography Study | Acute Myocardial Infarction After Kawasaki Disease | Pheochromocytoma Found in Takotsubo Cardiomyopathy Patients | TCT-638 Plaque Characteristics and Local Release of C-reactive Protein: An Integrated Backscatter Intravascular Ultrasound Study | Left Main Coronary Thrombotic Occlusion Due to Secondary Polycythemia in a Normal Sinus of Valsalva | IMPACT OF PULMONARY VEIN ISOLATION TO PAROXISMAL ATRIAL FIBRILLATION FOR ATRIAL ASYNCHRONY AND GLOBAL STRAIN ASSESSED BY 3D STRAIN ECHOCARDIOGRAPHY</t>
+        </is>
+      </c>
+    </row>
+    <row r="76" ht="80" customHeight="1" s="4">
+      <c r="B76" s="3" t="inlineStr">
+        <is>
+          <t>Frederic Perros</t>
+        </is>
+      </c>
+      <c r="C76" s="3" t="inlineStr">
+        <is>
+          <t>Frederic-Perros</t>
+        </is>
+      </c>
+      <c r="D76" s="3" t="inlineStr">
+        <is>
+          <t>French Institute of Health and Medical Research</t>
+        </is>
+      </c>
+      <c r="E76" s="3" t="n">
+        <v>32888</v>
+      </c>
+      <c r="F76" s="3" t="n">
+        <v>10530</v>
+      </c>
+      <c r="G76" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="H76" s="3" t="inlineStr">
+        <is>
+          <t>Laurent-Savale | Elie-Fadel | Ly-Tu-2 | Florent-Soubrier | Barbara-Girerd | David-Montani | Christophe-Guignabert | Sven-Guenther-3 | Andrei-Seferian | Natalia-Gambaryan | Laura-Price-15 | Sylvia-Cohen-Kaminsky | Marie-Camille-Chaumais | Sebastien-Bonnet-2 | Stephen-Wort | Dongmin-Shao | Saadia-Eddahibi | Olivier-Sitbon | Fabrice-Antigny | Melanie-Lambert-3 | Rozenn-Quarck | Florence-Lecerf | Gregoire-Manaud | Sebastien-Dumas | Bart-Lambrecht-4 | Olaf-Mercier | Audrey-Courboulin | Gerald-Simonneau | Hamida-Hammad | Boris-Manoury | Rogerio-Souza-12 | Catherine-Rucker-Martin | Nicolas-Raymond | Colas-Tcherakian | Guy-Mazmanian-2 | Morad-Nakhleh-2 | Benoit-Ranchoux | Edmund-Lau-2 | Peter-Dorfmuller | Aurelie-Hautefort-2 | Steeve-Provencher | Marc-Humbert-3 | Xavier-Jais | Angele-Boet | Ian-Adcock | Marc-Humbert-2093385392 | Christine-Pechoux-39836012 | Jerome-Le-Pavec-46577200 | Alice-Huertas-53591809</t>
+        </is>
+      </c>
+      <c r="I76" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="J76" s="3" t="inlineStr">
+        <is>
+          <t>Peter Dorfmuller | Ly Tu | Soni S Pullamsetti | Barbara Girerd | David Montani | Ingrid Durand-Gasselin | Christophe Guignabert | Laura C Price | Sylvia Cohen-Kaminsky | Marie-Camille Chaumais | Carlyne Cool | Sébastien Bonnet | Saadia Eddahibi | Sacha Mussot | Jason X-J Yuan | Mélanie Eyries | Olivier Sitbon | Rubin M Tuder | Ralph Schermuly | Rajiv D Machado | William Nichols | Fabrice Antigny | Roxane Paulin | Paul Upton | Harm-Jan Bogaard | Gerald Simonneau | Andrew John Peacock | Friedrich Grimminger | Jolyane Meloche | Rogério Souza | Nicolas Raymond | Nazzareno Galié | Kurt Stenmark | Benoît Ranchoux | Horst Olschewski | Edmund M Lau | Norbert Weissmann | Aurélie Hautefort | Dupret Emilie | Michael W Pauciulo | Steeve Provencher | Marc Humbert | Xavier Jaïs | Laurent Savale | Greg Elliott | Elie Fadel | Florent Soubrier | David B Badesch | Florence Parent | Olaf Mercier</t>
+        </is>
+      </c>
+      <c r="K76" s="3" t="n">
+        <v>227</v>
+      </c>
+      <c r="L76" s="3" t="inlineStr">
+        <is>
+          <t>Interest of minigene splicing reporter assay in familial hypobetalipoproteinemia genetic diagnosis: the example of the missense mutation APOB c.1468C&gt;T | Impairment of Angiogenesis-Driven Clot Resolution Is a Key Event in the Progression to Chronic Thromboembolic Pulmonary Hypertension: Validation in a Novel Rabbit Model | Phosphodiesterase type 9 opposes relaxation of mouse pulmonary artery but does not influence chronic hypoxia-induced pulmonary hypertension in mouse | Physiopathology and treatment of pulmonary arterial hypertension | Monitoring of Hemodynamics With Right Heart Catheterization in Children With Pulmonary Arterial Hypertension | T-cell dysregulation and inflammatory process in Gcn2 (Eif2ak4-/-) deficient rats in basal and stress conditions | Differential responsesof pulmonary vascular cells from PAH patients and controls to TNFα and the effect of the BET inhibitor JQ1 | Bleomycin‐induced lung injury: Revisiting an old tool to model group III PH associated with pulmonary fibrosis | The thromboxane receptor antagonist NTP42 promotes beneficial adaptation and preserves cardiac function in experimental models of right heart overload | Lipidomic Profile Analysis of Lung Tissues Revealed Lipointoxication in Pulmonary Veno-Occlusive Disease | Disruption of GCN2 Pathway Aggravates Vascular and Parenchymal Remodeling During Pulmonary Fibrosis | Molecular Function and Contribution of TBX4 in Development and Disease | Cardiac and Pulmonary Vascular Dysfunction in Vitamin D–Deficient Bmpr2 -Mutant Rats | An Overview of Circulating Pulmonary Arterial Hypertension Biomarkers | An emerging phenotype of pulmonary arterial hypertension patients carrying SOX17 variants | Deciphering a New Phenotype of Pulmonary Arterial Hypertension in Patients Carrying SOX17 Variants | Vasorelaxant and anti-proliferative effects of lefluomide | Author Correction: Deficiency of Axl aggravates pulmonary arterial hypertension via BMPR2 | Targeting peptidyl-prolyl isomerase 1 in experimental pulmonary arterial hypertension | Pulsatile pulmonary artery pressure in a large animal model of chronic thromboembolic pulmonary hypertension: similarities and differences with human data.: Pulmonary artery pulsatile pressure in a CTEPH model | Smouldering fire or conflagration? An illustrated update on the concept of inflammation in pulmonary arterial hypertension | Single-cell RNA sequencing reveals that BMPR2 mutation regulates right ventricular function via ID genes | A programmable pulse generator for atrial pacing in rats for studies on Pulmonary Arterial Hypertension | Abstract 10253: Sin3a Gene Delivery Restores Bmpr2 Expression Through Foxk2 in Pulmonary Arterial Endothelial Cells and Inhibits Sugen/Hypoxia-Induced Pah | Abstract 10248: Regulation of the Methylation and Expression Levels of the Bmpr2 Gene by Sin3a as a Novel Therapeutic Mechanism in Pulmonary Arterial Hypertension | Supplementary information.pdf | Association between Leflunomide and Pulmonary Hypertension | Deficiency of Axl aggravates pulmonary arterial hypertension via BMPR2 | Regulation of The Methylation and Expression Levels of the BMPR2 Gene by SIN3a As A Novel Therapeutic Mechanism in Pulmonary Arterial Hypertension | EXPRESS: Iron Deficiency in Pulmonary Arterial Hypertension: Perspectives | Leflunomide, an immunomodulator, inhibits vascular tone ex vivo | Involvement of CFTR in the pathogenesis of pulmonary arterial hypertension | Immunology in pulmonary vascular disorders: Focus on pulmonary arterial hypertension | Extracellular matrix degradation pathways and fatty acid metabolism regulate distinct pulmonary vascular cell types in Pulmonary Arterial Hypertension.: | Iron Deficiency in Pulmonary Arterial Hypertension: A Deep Dive into the Mechanisms | Central Role of Dendritic Cells in Pulmonary Arterial Hypertension in Human and Mice | Association between Leflunomide and Pulmonary Hypertension | Kcnk3 Dysfunction Exaggerates The Development Of Pulmonary Hypertension Induced By Left Ventricular Pressure Overload | Abstract 13932: Lung-targeted Sin3a Gene Therapy as a Promising Strategy to Restore Bmpr2 Expression in Pulmonary Arterial Hypertension | Description, Staging and Quantification of Pulmonary Artery Angiophagy in a Large Animal Model of Chronic Thromboembolic Pulmonary Hypertension | GCN2 regulates BMP signaling: Consequence for PVOD pathobiology and therapeutic management | Characteristics and Long-Term Outcomes of Pulmonary Venoocclusive Disease Induced by Mitomycin C | GCN2 regulates BMP signaling: consequence for PVOD pathobiology and therapeutic management | Phenotype and outcome of PAH patients carrying a TBX4 mutation | CFTR involvement in the pathogenesis of pulmonary arterial hypertension | Abstract MP155: Oxidized Lipids Diet Causes Pulmonary Hypertension Through T-cell Dependent Endothelial Cell Apoptosis | Vitamin D deficiency downregulates TASK-1 channels and induces pulmonary vascular dysfunction | Oral 15-Hydroxyeicosatetraenoic Acid Induces Pulmonary Hypertension in Mice by Triggering T Cell–Dependent Endothelial Cell Apoptosis | In vivo miR-138-5p inhibition alleviates monocrotaline-induced pulmonary hypertension and normalizes pulmonary KCNK3 and SLC45A3 expression | Pulmonary capillary haemangiomatosis: A distinct entity? | Phenotype and Outcomes of Pulmonary Hypertension Associated with Neurofibromatosis Type 1 | Phenotype and outcome of pulmonary arterial hypertension patients carrying a TBX4 mutation | Oxidized Lipids Induces Pulmonary Hypertension by Triggering T Cell Dependent Endothelial Cell Apoptosis | Comparison of Human and Experimental Pulmonary Veno-Occlusive Disease | GCN2 signalling is dysregulated in pulmonary fibrosis | Preliminary characterization of phosphodiesterase-9 in rodent and human pulmonary artery | Phenotype and outcome of PAH patients carrying a TBX4 mutation | EXPRESS: Trichloroethylene increases pulmonary endothelial permeability: implication for pulmonary veno-occlusive disease | Endothelial-to-Mesenchymal Transition in Pulmonary Hypertension | Familial pulmonary arterial hypertension by KDR heterozygous loss of function | Beyond the Lungs: Systemic Manifestations of Pulmonary Arterial Hypertension | BET Bromodomain Inhibitors and Pulmonary Arterial Hypertension: Take Care of the Heart | Response by Mendes-Ferreira et al to Letter Regarding Article, “Bmpr2 Mutant Rats Develop Pulmonary and Cardiac Characteristics of Pulmonary Arterial Hypertension” | Characterization of Kcnk3 -Mutated Rat, a Novel Model of Pulmonary Hypertension | Smooth Muscle Phenotype in Idiopathic Pulmonary Hypertension: Hyper-Proliferative but not Cancerous | Understanding the Similarities and Differences between Hepatic and Pulmonary Veno-Occlusive Disease | Evidence for Endothelial Barrier Dysfunction, Vascular Permeability and Altered Matrix Degradation in PAH Pathogenesis Using RNA-Sequence Analysis | The BET Bromodomain Inhibitor I-BET-151 Induces Structural and Functional Alterations of the Heart Mitochondria in Healthy Male Mice and Rats | Understanding Hepatic and Pulmonary Veno-Occlusive Disease | Bmpr2 Mutant Rats Develop Pulmonary and Cardiac Characteristics of Pulmonary Arterial Hypertension | Pulmonary hypertension associated with neurofibromatosis type 1 | KCNK3 channel inactivation leads to pulmonary vascular alterations in rat | Local inhibition of angiogenesis combined with repeated blood clot embolization induces chronic thromboembolic pulmonary hypertension in rabbits | Fine structural modifications of heparan sulfate sulfation patterns in lung are associated with functional effects in Precapillary Pulmonary Hypertension | Late Breaking Abstract - Development of an animal model for group 3 Pulmonary Hypertension | NMDA receptor activation promotes vascular remodeling and pulmonary arterial hypertension | Immune repertoire-based signatures in pre-capillary pulmonary hypertension | Pharmacovigilance in a rare disease: example of the VIGIAPATH program in pulmonary arterial hypertension | Pulmonary vascular remodeling patterns and expression of general control nonderepressible 2 (GCN2) in pulmonary veno-occlusive disease | Ca 2+ handling remodeling and STIM1L/Orai1/TRPC1/TRPC4 upregulation in monocrotaline-induced right ventricular hypertrophy | Identity crisis in pulmonary arterial hypertension | NMDA-Type Glutamate Receptor Activation Promotes Vascular Remodeling and Pulmonary Arterial Hypertension | The integrated stress response system in cardiovascular disease | Sirtuin 1 regulates pulmonary artery smooth muscle cell proliferation: Role in pulmonary arterial hypertension | Loss of KCNK3 is a hallmark of RV hypertrophy/dysfunction associated with pulmonary hypertension | Respiratory effects of trichloroethylene | Pulmonary Vascular Remodeling Patterns and Expression of GCN2 in Pulmonary Veno-Occlusive Disease | Administration of mitomycin results in pulmonary hypertension and vascular remodeling in rabbits | Bacterial translocation in pulmonary hypertension | Early Development of Right Ventricular Ischemic Lesions in a Novel Large Animal Model of Acute Right Heart Failure in Chronic Thromboembolic Pulmonary Hypertension | T-type Ca 2+ channels elicit pro-proliferative and anti-apoptotic responses through impaired PP2A/Akt1 signaling in PASMCs from patients with pulmonary arterial hypertension | Rescuing BMPR2-driven endothelial dysfunction in PAH: A novel treatment strategy for the future? | Pulmonary endothelial cell DNA methylation signature in pulmonary arterial hypertension | Use of β-Blockers in Pulmonary Hypertension | Gut–Lung Connection in Pulmonary Arterial Hypertension | Corrigendum to “A Simple Method to Assess In Vivo Proliferation in Lung Vasculature with EdU: The Case of MMC-Induced PVOD in Rat” | Supplementary Material | Supplementary Material | Diagnosis and Classification of 17 Diseases from 1404 Subjects via Pattern Analysis of Exhaled Molecules | Simple CLEM method to asses rare pulmonary vascular remodeling</t>
+        </is>
+      </c>
+      <c r="M76" s="3" t="inlineStr">
+        <is>
+          <t>Inflammation | Immunology | Immunohistochemistry | Physiology | Hypertension | Cell Culture | Flow Cytometry | Innate Immunity | Immunity | Cellular Immunology</t>
+        </is>
+      </c>
+    </row>
+    <row r="77" ht="80" customHeight="1" s="4">
+      <c r="B77" s="3" t="inlineStr">
+        <is>
+          <t>Athénaïs Boucly</t>
+        </is>
+      </c>
+      <c r="C77" s="3" t="inlineStr">
+        <is>
+          <t>Athenais-Boucly</t>
+        </is>
+      </c>
+      <c r="D77" s="3" t="inlineStr">
+        <is>
+          <t>Université Paris-Sud 11</t>
+        </is>
+      </c>
+      <c r="E77" s="3" t="n">
+        <v>7975</v>
+      </c>
+      <c r="F77" s="3" t="n">
+        <v>153</v>
+      </c>
+      <c r="G77" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="H77" s="3" t="inlineStr">
+        <is>
+          <t>Laurent-Savale | Elie-Fadel | Ly-Tu-2 | Barbara-Girerd | David-Montani | Laurent-Bertoletti | Christophe-Guignabert | Andrei-Seferian | Emmanuel-Bergot | Marie-Camille-Chaumais | Olivier-Sitbon | Florian-Bauer-12 | Mitja-Jevnikar | Gerald-Simonneau | Jason-Weatherald | Etienne-Marie-Jutant | Caroline-Oconnell-4 | Sophie-Bulifon | Francois-Picard-3 | Christopher-Rhodes-8 | Gregoire-Prevost | Marc-Humbert-3 | Xavier-Jais | Caroline-Sattler-2038713942 | A-Roche-2038947942 | David-Amar-2075930880 | Constance-Vuillard-2089879230 | Marc-Humbert-2093385392 | Coralie-Bloch-Queyrat-2107318721 | Stephane-Mitrovic-2119808340 | J-L-Vachiery-2129308818 | B-Fautrel-2133039441 | O-Sitbon-2140646279 | L-Savale-2143447551 | D-Fard-2161780780 | Jeremie-Pichon-2176559284 | Antoine-Beurnier-2178551371 | C-Christides-2208177667 | X-Jais-2216589583 | D-Montani-2224667328 | C-Fauvel-2233722172 | MJC-Humbert-2241189482 | J-Pouchot-38573263 | Ari-Chaouat-38683931 | Pascal-de-Groote-38709642 | N-Schleinitz-39110453 | Estibaliz-Lazaro-39491558 | Martin-R-Wilkins-40095394 | Arnaud-Bourdin-42695323 | Jerome-Le-Pavec-46577200</t>
+        </is>
+      </c>
+      <c r="I77" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="J77" s="3" t="inlineStr">
+        <is>
+          <t>Dermot S O'Callaghan | Peter Dorfmuller | Ly Tu | Frederic Perros | Barbara Girerd | David Montani | Christophe Guignabert | Andrei Seferian | Laura C Price | Emmanuel Bergot | Luke S Howard | Vincent Cottin | Allan Lawrie | Marion Delcroix | Mardi Gomberg-Maitland | Sacha Mussot | Dominique Fabre | Olivier Sitbon | Raymond Benza | Irene Lang | Robert C Bourge | Sean P Gaine | John Granton | Jasper Dingemanse | Gerald Simonneau | Victor F Tapson | Andrew John Peacock | Rogério Souza | Nazzareno Galié | Jean-Luc Vachiery | Horst Olschewski | Edmund M Lau | Aimee Doran | Miguel Angel Gomez Sanchez | David Langleben | Adaani Frost | Marc Humbert | Xavier Jaïs | Laurent Savale | Elie Fadel | Adam Torbicki | Florent Soubrier | David B Badesch | David Kiely | Kelly Chin | Florence Parent | Stuart Rich | Olaf Mercier | David Miller | Benjamin Sztrymf</t>
+        </is>
+      </c>
+      <c r="K77" s="3" t="n">
+        <v>41</v>
+      </c>
+      <c r="L77" s="3" t="inlineStr">
+        <is>
+          <t>Hypertension artérielle pulmonaire de la connectivite mixte : une étude française multicentrique | Associations Between Serum Activin A and Follistatine-Like 3 Levels and Outcomes in Pulmonary Arterial Hypertension | Cytokines as Prognostic Biomarkers in Pulmonary Arterial Hypertension | Noninvasive prediction of pre-capillary pulmonary hypertension (PH) component in patients with post-capillary PH | Vasoréactivité aiguë dans l’hypertension pulmonaire sévère associée à la bronchopneumopathie chronique obstructive : quelle signification ? | Cytokines as prognostic biomarkers in pulmonary arterial hypertension | Risk stratification in pulmonary veno-occlusive disease | Clinical phenotypes and outcomes of severe pulmonary hypertension associated with chronic obstructive pulmonary disease | Prognostic value of hemodynamic parameters in pulmonary arterial hypertension associated to congenital heart diseases | Deciphering a New Phenotype of Pulmonary Arterial Hypertension in Patients Carrying SOX17 Variants | Pulmonary Arterial Hypertension in Adult-Onset Still’s Disease | External Validation of a Refined 4 Strata Risk Assessment Score from the French Pulmonary Hypertension Registry | Risk Stratification in Patients with Pulmonary Arterial Hypertension and Candidates for Lung or Heart-Lung Transplantation | Symptômes respiratoires et anomalies radiologiques dans le COVID long | Hypertension artérielle pulmonaire associée à la maladie de Still | Inclusion of echocardiographic measure of right ventricular function in the non-invasive French pulmonary arterial hypertension risk stratification method | Inclusion of echocardiographic measure of right ventricular function in the non-invasive French pulmonary arterial hypertension risk stratification method | OP0094 PULMONARY ARTERIAL HYPERTENSION IN ADULT-ONSET STILL’S DISEASE: A CASE SERIES OF 13 PATIENTS | Stratification du risque chez les patients avec hypertension artérielle pulmonaire et inscrits sur liste de transplantation pulmonaire ou cardio-pulmonaire | Trithérapie initiale dans l’hypertension artérielle pulmonaire | Prévalence et impact pronostique des comorbidités respiratoires chez les patients candidats à une transplantation hépatique | Predictors of A Pre-Capillary Component in Patients with Post-Capillary Pulmonary Hypertension | Prise en charge de l’insuffisance ventriculaire droite aiguë compliquant les maladies vasculaires pulmonaires | Facteurs prédictifs de la composante précapillaire au sein d’une population d’hypertension pulmonaire post-capillaire | Impact of Initial Triple Combination Therapy on Long-Term Survival in Pulmonary Arterial Hypertension (PAH) | P2614Factors associated with survival in patients with not-operated chronic thromboembolic pulmonary hypertension (CTEPH) in the modern management era | La maladie veino-occlusive pulmonaire | Influence de la stratégie thérapeutique initiale sur la survie des patients atteints d’HTAP : trithérapie d’emblée, le tiercé gagnant | Hypertension pulmonaire sévère associée aux maladies pulmonaires chroniques post-tabagiques bronchiques ou emphysémateuses | Devenir à long terme des hypertensions porto-pulmonaires associées à une cirrhose compensée à l’ère des thérapeutiques ciblées de l’hypertension artérielle pulmonaire | Acute decompensated pulmonary hypertension | Caractéristiques et survie des patients souffrant d’hypertension pulmonaire pré-capillaire et admis en soins intensifs pour une défaillance ventriculaire droite aiguë | Hypertension pulmonaire | Devenir à long terme des hypertensions pulmonaires associées à une sarcoïdose à l’ère des thérapeutiques ciblées de l’hypertension artérielle pulmonaire | 10.1007 s40264-015-0365-x | Comparative Safety and Tolerability of Prostacyclins in Pulmonary Hypertension | Sarcoidosis-Associated Pulmonary Hypertension in the Modern PAH-Targeted Therapy Era: Experience from the French Registry | [Tunnelled central venous line-associated infections in patients with pulmonary arterial hypertension treated with intravenous prostacyclin] | Long-term outcome of sarcoidosis-associated pulmonary hypertension in the modern treatment era | Hypertension pulmonaire | Clinical Pharmacology of Endothelin Receptor Antagonists Used in the Treatment of Pulmonary Arterial Hypertension</t>
+        </is>
+      </c>
+      <c r="M77" s="3" t="inlineStr">
+        <is>
+          <t>Pulmonary Hypertension | Heart Failure | Echocardiography | Chronic Heart Failure | Cardiomyopathies | Blood Pressure | Cardiovascular Medicine | Cardiovascular Pharmacology | Catheterization | Cardiac Catheterization</t>
+        </is>
+      </c>
+    </row>
+    <row r="78" ht="80" customHeight="1" s="4">
+      <c r="B78" s="3" t="inlineStr">
+        <is>
+          <t>Marie Jose Goumans</t>
+        </is>
+      </c>
+      <c r="C78" s="3" t="inlineStr">
+        <is>
+          <t>Marie-Jose-Goumans</t>
+        </is>
+      </c>
+      <c r="D78" s="3" t="inlineStr">
+        <is>
+          <t>Leiden University Medical Centre</t>
+        </is>
+      </c>
+      <c r="E78" s="3" t="n">
+        <v>104950</v>
+      </c>
+      <c r="F78" s="3" t="n">
+        <v>21176</v>
+      </c>
+      <c r="G78" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="H78" s="3" t="inlineStr">
+        <is>
+          <t>Sjoerd-Duim | Robert-Szulcek | Boudewijn-Kruithof | Anna-Vegh-3 | Esther-Dronkers | Xiao-Qing-Sun | Joost-Sluijter | Adriana-C-Gittenberger-De-Groot | Franck-Lebrin | Robert-Klautz | Amaya-Garcia-De-Vinuesa | Anke-Smits-2 | Robert-Poelmann | Gonzalo-Sanchez-Duffhues | Frances-De-Man | Pieter-Doevendans | Ingrid-Schalij | Evangelia-Pardali | Monique-Jongbloed | Gerard-Pasterkamp | Gudrun-Valdimarsdottir | Dominique-Kleijn | Lukas-Hawinkels | Noortje-Bax | Marianna-Kruithof-De-Julio | Natasja-Groot | Susumu-Itoh-2 | Asja-Moerkamp | Kondababu-Kurakula | Beerend-Hierck | Chris-Happe | Rolf-Berger | Piet-Van-Vliet-2 | Marco-Deruiter | Margreet-De-Vries-2 | Antoine-De-Vries | Jessie-Van-Wezenbeek-2 | Carlijn-Bouten | Paul-Quax | Angelique-A-M-van-Oorschot-16182596 | Harm-Jan-Bogaard-2104480664 | Tessa-van-Herwaarden-2113201723 | Christine-Mummery-2221493148 | Corina-H-G-Metz-38124337 | Peter-ten-Dijke-38233048 | Christine-L-Mummery-38764310 | Anton-Vonk-Noordegraaf-38896154 | Imo-E-Hoefer-45487230 | Kirsten-Lodder-46904535 | PAFM-Doevendans-48852266</t>
+        </is>
+      </c>
+      <c r="I78" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="J78" s="3" t="inlineStr">
+        <is>
+          <t>Beerend Hierck | Carl-Henrik Heldin | Christophe Guignabert | Jean-Jacques Feige | Jose M Lopez-Novoa | Joost P G Sluijter | Paschalis Sideras | Michelle Letarte | Franck Lebrin | Anke M Smits | Heleen Lie-Venema | Rajiv D Machado | Frances S de Man | Douglas A Marchuk | Arnoud van der Laarse | Annarosa Leri | Akiko Hata | Pieter Doevendans | Linda W. Van Laake | Evangelia Pardali | Paul Upton | Gerard Pasterkamp | Carmelo Bernabeu | Harm-Jan Bogaard | Gerald Simonneau | Gudrun Valdimarsdottir | Paul Yu | Noortje A M Bax | Piero Anversa | Natasja M S de Groot | Jonas Larsson | Susumu Itoh | Bin Zhou | Kondababu Kurakula | An Zwijsen | Liesbeth Winter | Martin J Schalij | Piet van Vliet | Konrad Urbanek | Marco C Deruiter | Teun de Boer | Marc Humbert | Helen M Arthur | Stefano Chimenti | Toon van Veen | Bailly Sabine | Suvi Karlsson | Adriana C. Gittenberger-de Groot | Robert Poelmann | Dominique P V de Kleijn</t>
+        </is>
+      </c>
+      <c r="K78" s="3" t="n">
+        <v>459</v>
+      </c>
+      <c r="L78" s="3" t="inlineStr">
+        <is>
+          <t>Molecular mechanisms and targets of right ventricular fibrosis in pulmonary hypertension | Methacrylated human recombinant collagen peptide as a hydrogel for manipulating and monitoring stiffness-related cardiac cell behavior | Preservation of human heart valves for replacement in children with heart valve disease: past, present and future | Human pluripotent stem cell-derived cardiomyocytes align under cyclic strain when guided by cardiac fibroblasts | Chasing youth on the outside: unique features of the human fetal epicardium | MicroRNA-199b is involved in both LV and RV pathological remodeling through distinct molecular mechanisms | SMAD6-deficiency in human genetic disorders | Acute myocardial infarction induces remodeling of the murine superior cervical ganglia and the carotid body | Go with the flow….. | Developing regenerative therapies targeting cardiomyocytes using organotypic slice culture from human adult ventricular myocardium | Right Atrial Adaptation to Pressure-Overload in Pulmonary Arterial Hypertension | Increased Bone Morphogenetic Protein 10 Activity Is Associated with Increased Right Atrial Wall Stress and Disease Severity in Pulmonary Hypertension | BYL-719 administration prevents heterotopic ossification in FOP mice irrespective of ACVR1/ALK2 kinase activity | Conditional immortalization of human atrial myocytes for the generation of in vitro models of atrial fibrillation | R-SMAD in control of the R-smooth muscle cell | Pirfenidone Has Anti-fibrotic Effects in a Tissue-Engineered Model of Human Cardiac Fibrosis | Inhibtion of histone deacetylase activity reduces pulmonary vascular remodeling and inflammtion in experimental pulmonary hypertension | Interfering in the ALK1 Pathway Results in Macrophage-Driven Outward Remodeling of Murine Vein Grafts | Inhibition of the prolyl isomerase Pin1 improves endothelial function and attenuates vascular remodelling in pulmonary hypertension by inhibiting TGF-β signalling | Right Ventricular and Right Atrial Function Are Less Compromised in Pulmonary Hypertension Secondary to Heart Failure With Preserved Ejection Fraction: A Comparison With Pulmonary Arterial Hypertension With Similar Pressure Overload | Development of a 3-Dimensional Model to Study Right Heart Dysfunction in Pulmonary Arterial Hypertension: First Observations | Activin A and ALK4 Identified as Novel Regulators of Epithelial to Mesenchymal Transition (EMT) in Human Epicardial Cells | Oncofetal Protein CRIPTO Is Involved in Wound Healing and Fibrogenesis in the Regenerating Liver and Is Associated with the Initial Stages of Cardiac Fibrosis | Abstract 10462: Increased Bone Morphogenetic Protein 10 Activity is Associated with Increased Right Atrial Wall Stress and Disease Severity in Pulmonary Hypertension | Abstract 14033: Inhibition of the Prolyl Isomerase Pin1 Improves Endothelial Function and Attenuates Vascular Remodelling in Pulmonary Hypertension by Inhibiting TGF-β Signalling | Abstract 9675: Right Ventricular and Right Atrial Function in Pulmonary Hypertension Secondary to Heart Failure With Preserved Ejection Fraction: A Comparison With Pulmonary Arterial Hypertension | Cardiomyocytes Cellular Phenotypes After Myocardial Infarction | Interplay of sex hormones and long-term right ventricular adaptation in a Dutch PAH-cohort | Single-cell RNA sequencing of human fetal epicardium reveals novel markers and regulators of EMT | Deficient Myocardial Organization and Pathological Fibrosis in Fetal Aortic Stenosis—Association of Prenatal Ultrasound with Postmortem Histology | Derivation and characterisation of endothelial cells from patients with chronic thromboembolic pulmonary hypertension | Epicardial differentiation drives fibro-fatty remodeling in arrhythmogenic cardiomyopathy | Prrx1b restricts fibrosis and promotes Nrg1-dependent cardiomyocyte proliferation during zebrafish heart regeneration | Generation, Characterization, and Application of Inducible Proliferative Adult Human Epicardium-Derived Cells | Cripto favors chondrocyte hypertrophy via TGF ‐β SMAD1 /5 signaling during development of osteoarthritis | Oncofetal protein CRIPTO regulates wound healing and fibrogenesis in regenerating liver and is associated with the initial stages of cardiac fibrosis | Increased BMP10 Levels Are Associated with Pulmonary Hypertension | Endoglin/CD105-Based Imaging of Cancer and Cardiovascular Diseases: A Systematic Review | The Role of Cell Tracing and Fate Mapping Experiments in Cardiac Outflow Tract Development, New Opportunities through Emerging Technologies | The battle of new biomarkers for right heart failure in pulmonary hypertension: Is the queen of hearts NT-proBNP defeated at last? | Cripto favours chondrocyte hypertrophy via TGF-beta SMAD1/5 signaling in experimental osteoarthritis | Derivation and Characterisation of Endothelial Cells from Patients with Chronic Thromboembolic Pulmonary Hypertension. | The Inflammatory Profile of CTEPH-Derived Endothelial Cells Is a Possible Driver of Disease Progression | New calcification model for intact murine aortic valves | Volume Load-Induced Right Ventricular Failure in Rats Is Not Associated With Myocardial Fibrosis | Challenges and Opportunities for Drug Repositioning in Fibrodysplasia Ossificans Progressiva | BMP Receptor Inhibition Enhances Tissue Repair in Endoglin Heterozygous Mice | Endothelium-derived stromal cells contribute to hematopoietic bone marrow niche formation | Endothelial Dysfunction in Pulmonary Hypertension: Cause or Consequence? | Toward Biological Pacing by Cellular Delivery of Hcn2/SkM1 | Altered TGFβ/SMAD Signaling in Human and Rat Models of Pulmonary Hypertension: An Old Target Needs Attention | Increased MAO-A Activity Promotes Progression of Pulmonary Arterial Hypertension | Abstract 15161: Increased Right Atrial Stiffness in Patients With Heart Failure With Preserved Ejection Fraction and Pulmonary Hypertension | Exacerbated inflammatory signaling underlies aberrant response to BMP9 in pulmonary arterial hypertension lung endothelial cells | A small molecule screen identifies novel inducers of EMT that may increase epicardium-driven repair of the heart | Inhibition of BMP9 and BMP10 signalling by the ALK1-Fc Ligand Trap enhances systemic inflammation and increases vein graft atherosclerosis | Single-cell RNA sequencing of human fetal epicardium reveals novel markers and regulators of EMT | Selective inhibition of Histone deacetylases reverses vascular remodelling and improves right ventricle function in pulmonary hypertension | New ex vivo calcification model for intact murine aortic valves | Sex differences in the relation between sex hormones and right ventricular function in pulmonary arterial hypertension | HDAC inhibitor quisinostat reduces pulmonary vascular remodeling in experimentally induced pulmonary arterial hypertension | Exploiting the human amniotic fluid stem cell secretome for myocardial renewal | Disturbed NO signalling gives rise to congenital bicuspid aortic valve and aortopathy | Cellular senescence impairs the reversibility of pulmonary arterial hypertension | A combined CaMKII inhibition and mineralocorticoid receptor antagonism via eplerenone inhibits functional deterioration in chronic pressure overloaded mice | Prrx1b directs pro-regenerative fibroblasts during zebrafish heart regeneration | MnTBAP Reverses Pulmonary Vascular Remodeling and Improves Cardiac Function in Experimentally Induced Pulmonary Arterial Hypertension | The BMP Receptor 2 in Pulmonary Arterial Hypertension: When and Where the Animal Model Matches the Patient | Bone morphogenetic protein receptors: Structure, function and targeting by selective small molecule kinase inhibitors | Extracellular Matrix Analysis of Human Renal Arteries in Both Quiescent and Active Vascular State | The human amniotic fluid stem cell secretome exerts cardio-active paracrine potential for myocardial repair and regeneration | Anti-Proliferative Therapy with 6-Mercaptopurine Improves Hemodynamics and BMPR2 Expression in Pulmonary Arterial Hypertension | TGF-β-Induced Endothelial to Mesenchymal Transition in Disease and Tissue Engineering | The Effects of Mercaptopurine on Pulmonary Vascular Resistance and BMPR2 Expression in Pulmonary Arterial Hypertension | Blood biomarkers in patients with bicuspid aortic valve disease | Human epicardium-derived cells reinforce cardiac sympathetic innervation | Pim1 Maintains Telomere Length in Mouse Cardiomyocytes by Inhibiting TGFβ Signaling | Epicardial TGFβ and BMP Signaling in Cardiac Regeneration: What Lesson Can We Learn from the Developing Heart? | New Calcification Model for Intact Murine Aortic Valves | Endoglin: Beyond the Endothelium | Reply to: BET Signaling, A Novel Therapeutic Target for Pulmonary Hypertension? | Perivascular Adipose Tissue Controls Insulin-Stimulated Perfusion, Mitochondrial Protein Expression and Glucose Uptake in Muscle Through Adipomuscular Arterioles | Molecular therapies for bradyarrhythmias | LIM-only protein FHL2 attenuates inflammation in vascular smooth muscle cells through inhibition of the NFκB pathway | Effects of 6-mercaptopurine in pressure overload induced right heart failure | Generation of Fibrodysplasia ossificans progressiva and control integration free iPSC lines from periodontal ligament fibroblasts | Identification of atrial fibrillation associated genes and functional non-coding variants | P5392Epicardium derived cells promote sympathetic ganglionic outgrowth towards myocardium in vitro | P6307Harnessing epicardial-derived cells for myocardial repair: the importance of epithelial-to-mesenchymal transition | Prevention of progression of pulmonary hypertension by the Nur77 agonist 6-mercaptopurine: role of BMP signalling | Reply to: More Insights into the Association Between RVX-208 and Pulmonary Arterial Hypertension | Injectable Supramolecular Ureidopyrimidinone Hydrogels Provide Sustained Release of Extracellular Vesicle Therapeutics | Stress-induced remodelling of the mitral valve: A model for leaflet thickening and superimposed tissue formation in mitral valve disease | Pathogenic effect of a TGFBR1 mutation in a family with Loeys–Dietz syndrome | LIM-only protein FHL2 attenuates vascular tissue factor activity, inhibits thrombus formation in mice and FHL2 genetic variation associates with human venous thrombosis | Reply to Piquereau and Perros, and to Pullamsetti and de Jesus Perez | Development of Macrocycle Kinase Inhibitors for ALK2 Using Fibrodysplasia Ossificans Progressiva‐Derived Endothelial Cells | 6-mercaptopurine, an agonist of Nur77, reduces progression of pulmonary hypertension by enhancing BMP signalling | Endothelial Colony Forming Cells as an Autologous Model to Study Endothelial Dysfunction in Patients with a Bicuspid Aortic Valve | Autophagy contributes to BMP type 2 receptor degradation and development of pulmonary arterial hypertension</t>
+        </is>
+      </c>
+      <c r="M78" s="3" t="inlineStr">
+        <is>
+          <t>Heart | Stem Cell Biology | Myocardial Infarction | Epithelial-Mesenchymal Transition | Stem Cells | Cardiovascular Biology | Developmental Biology | Molecular Biology | Fibrosis | Transforming Growth Factor beta</t>
+        </is>
+      </c>
+    </row>
+    <row r="79" ht="80" customHeight="1" s="4">
+      <c r="B79" s="3" t="inlineStr">
+        <is>
+          <t>Medea Imboden</t>
+        </is>
+      </c>
+      <c r="C79" s="3" t="inlineStr">
+        <is>
+          <t>Medea-Imboden</t>
+        </is>
+      </c>
+      <c r="D79" s="3" t="inlineStr">
+        <is>
+          <t>Swiss Tropical and Public Health Institute</t>
+        </is>
+      </c>
+      <c r="E79" s="3" t="n">
+        <v>32764</v>
+      </c>
+      <c r="F79" s="3" t="n">
+        <v>11814</v>
+      </c>
+      <c r="G79" s="3" t="n">
+        <v>48</v>
+      </c>
+      <c r="H79" s="3" t="inlineStr">
+        <is>
+          <t>Ashish-Kumar-111 | Marjo-Riitta-Jarvelin | Jennie-Hui | Terho-Lehtimaeki | Alexander-Teumer | Christian-Schindler-3 | Florian-Kronenberg | Lenore-Launer | Georg-Homuth | Massimo-Mangino | Sarah-Harris-11 | Gudny-Eiriksdottir | Asa-Johansson-3 | Maria-Soler-Artigas | Gian-Thun | Nicole-Probst-Hensch | Nino-Kuenzli | Dirk-Keidel-2 | Stephen-Rich-3 | Vilmundur-Gudnason | Ikenna-Eze-2 | Jing-Hua-Zhao | John-Henderson-14 | Christian-Gieger | Erich-Russi | John-Holloway-5 | Emmanuel-Schaffner | Veronique-Vitart | Igor-Rudan-3 | Raquel-Granell | Caroline-Hayward | Thierry-Rochat | Maen-Obeidat | Nicole-Probst-Hensch-2009012428 | David-P-Strachan-2081190261 | Ayoung-Jeong-2101151504 | Olli-T-Raitakari-2127871039 | Albert-V-Smith-38354768 | James-F-Wilson-38492222 | Ulf-Gyllensten-38693556 | Deborah-Jarvis-38924114 | Alan-L-James-39154596 | Louise-V-Wain-39403876 | Ivan-Curjuric-39506889 | Stefan-Karrasch-39932100 | Sarah-H-Wild-39986262 | Martin-D-Tobin-40038863 | Kurt-Lohman-9481274</t>
+        </is>
+      </c>
+      <c r="I79" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="J79" s="3" t="inlineStr">
+        <is>
+          <t>John W Holloway | Terho Lehtimäki | Christian Schindler | Florian Kronenberg | Jerome I Rotter | Lenore J Launer | Georg Homuth | Massimo Mangino | Jennifer E Huffman | Ida Surakka | Adaikalavan Ramasamy | Ian Sayers | Asa Johansson | Maria Soler Artigas | Nicole Probst-Hensch | Nino Künzli | Joel Schwartz | Ursula A. Ackermann-Liebrich | Jing Hua Zhao | John Henderson | Judith M Vonk | Ivana Kolcic | Thomas Illig | Christian Gieger | Per S Bakke | Veronique Vitart | Igor Rudan | John Beilby | Caroline Hayward | Ian P Hall | Jean-Pierre Zellweger | Wendy Mcardle | Lyle John Palmer | Nora Franceschini | Stephanie London | Thierry Rochat | Amund Gulsvik | Otto Braendli | Nicole Soranzo | Ma’en Obeidat | Tim Spector | marjo-riitta Jarvelin | Jennie Hui | Gudny Eiriksdottir | William Cookson | Dirk Keidel | Vilmundur Gudnason | Ruth Loos | Goncalo Abecasis | Roland Keller</t>
+        </is>
+      </c>
+      <c r="K79" s="3" t="n">
+        <v>328</v>
+      </c>
+      <c r="L79" s="3" t="inlineStr">
+        <is>
+          <t>Development of hybrid immunity during a period of high incidence of Omicron infections | Factors Associated With COVID-19 Non-Vaccination in Switzerland: A Nationwide Study | An assessment on the interplay of digital proximity app use and vaccine uptake for SARS-CoV-2 transmission mitigation in Switzerland | Changes in socioeconomic resources and mental health after the second COVID-19 wave (2020-2021): a longitudinal study in Switzerland | Seroprevalence trends of anti-SARS-CoV-2 antibodies and associated risk factors: a population-based study | Multi-ancestry genome-wide association analyses improve resolution of genes and pathways influencing lung function and chronic obstructive pulmonary disease risk | Harmonized human biomonitoring in European children, teenagers and adults: EU-wide exposure data of 11 chemical substance groups from the HBM4EU Aligned Studies (2014-2021) | An assessment on the interplay of digital proximity app use and vaccine uptake for SARS-CoV-2 transmission mitigation in Switzerland | Depression trajectories during the COVID-19 pandemic in the high quality health care setting of Switzerland: the COVCO-Basel Cohort | European and multi-ancestry genome-wide association meta-analysis of atopic dermatitis highlights importance of systemic immune regulation | Genome-wide analyses identify SCN5A as a susceptibility locus for premature atrial contraction frequency | Results of the joint survey on HBM mixtures Deliverable Report D15.6 WP15 Mixtures, HBM and human health risks | Residential exposure to greenspace and life satisfaction in times of COVID-19: a cross-sectional analysis of 9444 participants from a population-based study in Basel-Stadt and Basel-Landschaft | Multi-ancestry genome-wide association study improves resolution of genes, pathways and pleiotropy for lung function and chronic obstructive pulmonary disease | Validity and cardio-metabolic risk profiles of DNA methylation clocks among adults in south-central Côte d’Ivoire | Depression and cardiovascular disease are not linked by high blood pressure: findings from the SAPALDIA cohort | The Corona Immunitas Digital Follow-Up eCohort to Monitor Impacts of the SARS-CoV-2 Pandemic in Switzerland: Study Protocol and First Results | Residential greenness-related DNA methylation changes | Long-term exposure to traffic noise and biomarkers of chronic inflammation: The SAPALDIA study | Genome-wide association studies identify 137 genetic loci for DNA methylation biomarkers of aging | Variants associated with HHIP expression have sex-differential effects on lung function | Causal Effects of Body Mass Index on Airflow Obstruction and Forced Mid-Expiratory Flow: A Mendelian Randomization Study Taking Interactions and Age-Specific Instruments Into Consideration Toward a Life Course Perspective | Perceived built environment, health-related quality of life and health care utilization | Short-term personal and outdoor exposure to ultrafine and fine particulate air pollution in association with blood pressure and lung function in healthy adults | Incidence of depression in relation to transportation noise exposure and noise annoyance in the SAPALDIA study | Corona Immunitas: study protocol of a nationwide program of SARS-CoV-2 seroprevalence and seroepidemiologic studies in Switzerland | The modifying role of physical activity in the cross-sectional and longitudinal association of health-related quality of life with physiological functioning-based latent classes and metabolic syndrome | Dental and periodontal health in a Swiss population‐based sample of older adults: a cross‐sectional study | The independent association of source-specific transportation noise exposure, noise annoyance and noise sensitivity with health-related quality of life | Chronic obstructive pulmonary disease and related phenotypes: polygenic risk scores in population-based and case-control cohorts | Genome-wide association studies identify 137 loci for DNA methylation biomarkers of ageing | Patterns of cross-sectional and predictive physical activity in Swiss adults aged 52+: Results from the SAPALDIA cohort | Role of DNA methylation in the association of lung function with body mass index: A two-step epigenetic Mendelian randomisation study | Regular Physical Activity Levels and Incidence of Restrictive Spirometry Pattern: A Longitudinal Analysis of 2 Population-Based Cohorts | Variants associated with HHIP expression have sex-differential effects on lung function | Epigenome-Wide Association Study of DNA Methylation and Adult Asthma in the Agricultural Lung Health Study | Genome-Wide DNA Methylation in Peripheral Blood and Long-Term Exposure to Source-Specific Transportation Noise and Air Pollution: The SAPALDIA Study | The haemochromatosis gene Hfe and Kupffer cells control LDL cholesterol homeostasis and impact on atherosclerosis development | microRNA expression profiles and personal monitoring of exposure to particulate matter | Incidence trends of airflow obstruction among European adults without asthma: a 20-year cohort study | Associations between modeled residential outdoor and measured personal exposure to ultrafine particles in four European study areas | Association of adult lung function with accelerated biological aging | Asymptomatic Plasmodium infection and glycemic control in adults: Results from a population-based survey in south-central Côte d'Ivoire | The mediating effect of immune markers on the association between ambient air pollution and adult-onset asthma | Author Correction: New genetic signals for lung function highlight pathways and chronic obstructive pulmonary disease associations across multiple ancestries | Association of long-term exposure to traffic-related PM10 with heart rate variability and heart rate dynamics in healthy subjects | SNPs associated with HHIP expression have differential effects on lung function in males and females | Epigenome-wide association study of lung function level and its change | New genetic signals for lung function highlight pathways and chronic obstructive pulmonary disease associations across multiple ancestries | DNA Methylation in Inflammatory Pathways Modifies the Association between BMI and Adult-Onset Non-Atopic Asthma | Association between helminth infections and diabetes mellitus in adults from the Lao People's Democratic Republic: A cross-sectional study | Restrictive spirometry pattern is associated with low physical activity levels. A population based international study | Supplementary Material 2 | Supplementary Material 3 | Supplementary Material 1 | Novel genes and insights in complete asthma remission: A genome-wide association study on clinical and complete asthma remission | Influence of gene-by-sex interaction on time-to-asthma onset: a large-scale genome-wide meta-analysis | Physical activity and incidence of restrictive spirometry pattern in adults | Body mass index and lung function: A two-step epigenetic Mendelian randomization study | Incidence of airflow obstruction over 20 years in Europe | Author Correction: Genome-wide association and HLA fine-mapping studies identify risk loci and genetic pathways underlying allergic rhinitis | Physical activity and incidence of restrictive spirometry pattern in adults | SERPINA1 methylation and lung function in tobacco-smoke exposed European children and adults: A meta-analysis of ALEC population-based cohorts | Meta-analysis of exome array data identifies six novel genetic loci for lung function | Supplementary Material | Genome-wide association and HLA fine-mapping studies identify risk loci and genetic pathways underlying allergic rhinitis | Perturbation of metabolic pathways mediates the association of air pollutants with asthma and cardiovascular diseases | Meta-analysis of exome array data identifies six novel genetic loci for lung function | New genetic signals for lung function highlight pathways and pleiotropy, and chronic obstructive pulmonary disease associations across multiple ancestries | Airway responsiveness to methacholine and incidence of COPD: An international prospective cohort study | Novel genes and insights in complete asthma remission | Alpha-1 antitrypsin deficiency: From the lung to the heart? | Meta-analysis of exome array data identifies six novel genetic loci for lung function | Supplementary Material 1 | Supplementary Material 4 | Supplementary Material 7 | Supplementary Material 3 | Supplementary Material 2 | Supplementary Material 5 | Supplementary Material 8 | Supplementary Material 9 | Supplementary Material 6 | Supplementary Material | Multiancestry association study identifies new asthma risk loci that colocalize with immune-cell enhancer marks | Exposure to Night-Time Traffic Noise, Melatonin-Regulating Gene Variants and Change in Glycemia in Adults | Supplementary Material | Côte d’Ivoire Dual Burden of Disease (CoDuBu): Study Protocol to Investigate the Co-occurrence of Chronic Infections and Noncommunicable Diseases in Rural Settings of Epidemiological Transition | Land use regression models for the oxidative potential of fine particles (PM2.5) in five European areas | Association between accelerated biological aging and adult lung function | Late Breaking Abstract - SERPINA1 methylation and lung function: Results from SAPALDIA, the Swiss population-based cohort study | Late Breaking Abstract - Repeated cross-sectional epigenome-wide association study (EWAS) on lung function: the ALEC Project | Supplementary Data | C�te d�Ivoire Dual Burden of Disease (CoDuBu): Study Protocol to Investigate the Co-occurrence of Chronic Infections and Noncommunicable Diseases in Rural Settings of Epidemiological Transition (Preprint) | Meta-analysis of exome array data identifies six novel genetic loci for lung function | Genes and pathways underlying susceptibility to impaired lung function in the context of environmental tobacco smoke exposure | Long-term exposure to road, railway, and aircraft noise levels and their association with incidence of obesity and obesity parameters | Corrigendum: 1000 Genomes-based meta-analysis identifies 10 novel loci for kidney function | 1000 Genomes-based meta-analysis identifies 10 novel loci for kidney function | Supplementary Information | Supplementary Material</t>
+        </is>
+      </c>
+      <c r="M79" s="3" t="inlineStr">
+        <is>
+          <t>Genetic Epidemiology | Asthma | Genetics | Spirometry | Lung Diseases</t>
+        </is>
+      </c>
+    </row>
+    <row r="80" ht="80" customHeight="1" s="4">
+      <c r="B80" s="3" t="inlineStr">
+        <is>
+          <t>Christian Schindler</t>
+        </is>
+      </c>
+      <c r="C80" s="3" t="inlineStr">
+        <is>
+          <t>Christian-Schindler-3</t>
+        </is>
+      </c>
+      <c r="D80" s="3" t="inlineStr">
+        <is>
+          <t>University of Basel</t>
+        </is>
+      </c>
+      <c r="E80" s="3" t="n">
+        <v>97472</v>
+      </c>
+      <c r="F80" s="3" t="n">
+        <v>32593</v>
+      </c>
+      <c r="G80" s="3" t="n">
+        <v>48</v>
+      </c>
+      <c r="H80" s="3" t="inlineStr">
+        <is>
+          <t>Arnold-Von-Eckardstein | Medea-Imboden | Leticia-Grize-2 | Martin-Roeoesli | Laura-Perez-28 | Florian-Hatz | Jardena-Puder | Nicole-Probst-Hensch | Nino-Kuenzli | Dirk-Keidel-2 | Joel-Schwartz-6 | Ursula-Ackermann-Liebrich | Werner-Karrer | Harish-Phuleria | Ikenna-Eze-2 | Daiana-Stolz | Ludwig-Kappos | Pierre-Olivier-Bridevaux | Marco-Pons | Peter-Fuhr | Jean-Michel-Gaspoz | Brunello-Wuethrich | Emmanuel-Schaffner | Robert-Bettschart | Seraina-Caviezel | Roland-Keller-3 | Regina-Ducret-Stich | Julia-Dratva | Jean-Pierre-Zellweger-3 | Martin-Hardmeier | Habib-Bousleiman-3 | Thierry-Rochat | Otto-Braendli | Elisabeth-Zemp | Arno-Schmidt-Trucksaess | Danielle-Vienneau-15025982 | Ming-Yi-Tsai-2006563523 | Nicole-Probst-Hensch-2009012428 | Philippe-Leuenberger-2205537275 | Charlotte-Braun-Fahrlaender-38251532 | A-P-Perruchoud-38865800 | W-Kirch-39090201 | P-Leuenberger-39288413 | Ivan-Curjuric-39506889 | Margaret-W-Gerbase-39820015 | Tamara-Schikowski-39823282 | Juerg-Utzinger-39981047 | Jean-Marie-Tschopp-40053235</t>
+        </is>
+      </c>
+      <c r="I80" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="J80" s="3" t="inlineStr">
+        <is>
+          <t>Medea Imboden | Michal Korek | Andrea Ranzi | Christer Janson | Giota Touloumi | Antonella Zanobetti | Bertil Forsberg | Nicole Probst-Hensch | Nino Künzli | Laurent Nicod | Joel Schwartz | Douglas W Dockery | Ursula A. Ackermann-Liebrich | Josep M Antó | Werner Karrer | Martin H Schoeni | Marco Pons | Gianfranco Domenighetti | Brunello Wüthrich | Audrey de Nazelle | Ursula Krämer | Rob Beelen | Kees Meliefste | Paul Fischer | Kurt Blaser | Christian Monn | Giulia Cesaroni | Kees de Hoogh | Kirsten Thorup Eriksen | Jean-Pierre Zellweger | Frank Speizer | Bert Brunekreef | C. Arden Pope | Josef Cyrys | Dorothea Sugiri | Thierry Rochat | Michael Brauer | Otto Braendli | Elisabeth Zemp | Denise Felber Dietrich | Beat Villiger | Birgit Kuna | Tom Bellander | Dirk Keidel | Marloes Eeftens | Jordi Sunyer | Sonia Chinn | Michael Jerrett | Lucy Bayer-Oglesby | Roland Keller</t>
+        </is>
+      </c>
+      <c r="K80" s="3" t="n">
+        <v>663</v>
+      </c>
+      <c r="L80" s="3" t="inlineStr">
+        <is>
+          <t>Brandt et al. 2022 cea14100-sup-0001-supinfo-1.pdf | Association between allergic sensitization and intestinal parasite infection in schoolchildren in Gqeberha, South Africa | Posttraumatic stress disorder predicts poor health-related quality of life in cardiac patients in Palestine | Causal Effects of Body Mass Index on Airflow Obstruction and Forced Mid-Expiratory Flow: A Mendelian Randomization Study Taking Interactions and Age-Specific Instruments Into Consideration Toward a Life Course Perspective | If I tweet will you cite later? Follow-up on the effect of social media exposure on article downloads and citations | The modifying role of physical activity in the cross-sectional and longitudinal association of health-related quality of life with physiological functioning-based latent classes and metabolic syndrome | Antenatal influenza vaccination in urban Pune, India: clinician and community stakeholders' awareness, priorities, and practices | Braun_etal_2017a_Supplementarymaterial.doc | Genome-Wide DNA Methylation in Peripheral Blood and Long-Term Exposure to Source-Specific Transportation Noise and Air Pollution: The SAPALDIA Study | Nutritional and health status of children 15 months after integrated school garden, nutrition, and water, sanitation and hygiene interventions: a cluster-randomised controlled trial in Nepal | Exposure to Air pollution and Risk of Hospitalization for Cardiovascular diseases amongst Vietnamese adults: Case-crossover study | Residential greenness and lung function in a prospective cohort of European adults: The ECRHS study | Asymptomatic Plasmodium infection and glycemic control in adults: Results from a population-based survey in south-central Côte d'Ivoire | Supplementary Information to: Short-term associations between daily mortality and ambient particulate matter, nitrogen dioxide, and the air quality index in a Middle Eastern megacity | Short-term associations between daily mortality and ambient particulate matter, nitrogen dioxide, and the air quality index in a Middle Eastern megacity | The Role of Socioeconomic Status in the Association of Lung Function and Air Pollution—A Pooled Analysis of Three Adult ESCAPE Cohorts | Explaining patient delay in healthcare seeking and loss to diagnostic follow-up among patients with presumptive tuberculosis in Tanzania: a mixed-methods study | Association of ambient air pollution with lengths of hospital stay for hanoi children with acute lower-respiratory infection, 2007–2016 | Pathways and associated costs of care in patients with confirmed and presumptive tuberculosis in Tanzania: A cross-sectional study | Multicentre assessment of motor and sensory evoked potentials in multiple sclerosis: reliability and implications for clinical trials | Influenza vaccination of pregnant women: Engaging clinicians to reduce missed opportunities for vaccination | Knowledge and practices of mothers and caregivers on diarrhoeal management among under 5-year-old children in a medium-size town of Senegal | DNA Methylation in Inflammatory Pathways Modifies the Association between BMI and Adult-Onset Non-Atopic Asthma | Association of objectively measured and perceived environment with accelerometer-based physical activity and cycling: a Swiss population-based cross-sectional study of children | Effect of a Multidimensional Physical Activity Intervention on Body Mass Index, Skinfolds and Fitness in South African Children: Results from a Cluster-Randomised Controlled Trial | Electronic Supplementary Material | Gender differences in the association between life history of body silhouettes and asthma incidence: Results from the SAPALDIA cohort study | Transportation noise exposure, noise annoyance and respiratory health in adults: A repeated-measures study | Intestinal parasite infections and associated risk factors among schoolchildren in Dolakha and Ramechhap districts, Nepal: a cross-sectional study | Supplementary Material 1 | Supplementary Material 2 | Short-Term Associations between Daily Mortality and Fine Particulate Matter, Nitrogen Dioxide, and the Air Quality Index in Tehran, Iran | Objectively measured physical activity in population-representative parent-child pairs: Parental modelling matters and is context-specific | Supplementary Material 1 | Supplementary Material 2 | Corrigendum to "Acute effects of ambient air pollution on lower respiratory infections in Hanoi children: An eight-year time series study" [Environ. Int. 110 (2018) 139-148 | Impact of climate variability on the transmission risk of malaria in northern Côte d'Ivoire | S1 Fig | S2 Fig | S3 Fig | S2 File | S3 File | S4 Fig | S1 File | Immunologic-Based Diagnosis of Latent Tuberculosis among Children Less Than 5 Years of Age Exposed and Unexposed to Tuberculosis in Tanzania: Implications for Tuberculosis Infection Screening | Associations between Dietary Patterns and Post-Bronchodilation Lung Function in the SAPALDIA Cohort | Sedentary Behaviour in Swiss Children and Adolescents: Disentangling Associations with the Perceived and Objectively Measured Environment | F107. Sensory and motor evoked potentials in a multicenter setting: Estimation of detectable group differences at varying sample sizes | T85. Sensory and motor evoked potentials in a multicenter setting: Definition of significant change in repeated measurements in healthy subjects on individual level | Supplementary Material | Hyperglycaemia is inversely correlated with live M. bovis BCG-specific CD4 + T cell responses in Tanzanian adults with latent or active tuberculosis: Diabetes and tuberculosis-specific CD4 + T cell response | Supplementary Material | Association between gastrointestinal tract infections and glycated hemoglobin in school children of poor neighborhoods in Port Elizabeth, South Africa | S1 STROBE checklist | S8 Table | S1 Fig | S3 Table | S4 Table | S5 Table | S6 Table | S1 Table | S2 Table | S7 Table | Prevalence and Clinical Significance of Respiratory Viruses and Bacteria Detected in Tuberculosis Patients Compared to Household Contact Controls in Tanzania: a cohort study | Land Use Regression Models for BTEX Volatile Organic Compounds in a Middle Eastern Megacity: Tehran Study of Exposure Prediction for Environmental Health Research (Tehran SEPEHR) | Prevalence and risk factors of undernutrition among schoolchildren in the Plateau Central and Centre-Ouest regions of Burkina Faso | Growth trends of beech and Norway spruce in Switzerland: The role of nitrogen deposition, ozone, mineral nutrition and climate | A systematic review of land use regression models for volatile organic compounds | Exposure to Night-Time Traffic Noise, Melatonin-Regulating Gene Variants and Change in Glycemia in Adults | Supplementary Material | Schistosoma, other helminth infections, and associated risk factors in preschool-aged children in urban Tanzania | S2 Table | S1 Checklist | S1 Table | Short-term association between ambient air pollution and pneumonia in children: A systematic review and meta-analysis of time-series and case-crossover studies | Acute effects of ambient air pollution on lower respiratory infections in Hanoi children: An eight-year time series study | Côte d’Ivoire Dual Burden of Disease (CoDuBu): Study Protocol to Investigate the Co-occurrence of Chronic Infections and Noncommunicable Diseases in Rural Settings of Epidemiological Transition | Factors associated with cessation of smoking among Swiss adults between 1991 and 2011: results from the SAPALDIA cohort | Exploring the association between heat and mortality in Switzerland between 1995 and 2013 | Residential Air Pollution and Associations with Wheeze and Shortness of Breath in Adults: A Combined Analysis of Cross-Sectional Data from Two Large European Cohorts | (418 KB) PDF | Spatiotemporal description of BTEX volatile organic compounds in a Middle Eastern megacity: Tehran Study of Exposure Prediction for Environmental Health Research (Tehran SEPEHR) | Land use regression models for BTEX volatile organic compounds in a Middle Eastern megacity: Tehran Study of Exposure Prediction for Environmental Health Research (Tehran SEPEHR) | Smoking cessation in workplace settings: quit rates and determinants in a group behaviour therapy programme | Association between Childhood Diarrhoeal Incidence and Climatic Factors in Urban and Rural Settings in the Health District of Mbour, Senegal | Exposure to Road, Railway, and Aircraft Noise and Arterial Stiffness in the SAPALDIA Study: Annual Average Noise Levels and Temporal Noise Characteristics | (276 KB) PDF | Supplementary Material | Land Use Regression Models for Alkylbenzenes in a Middle Eastern Megacity: Tehran Study of Exposure Prediction for Environmental Health Research (Tehran SEPEHR) | Supplementary Data | 2017 - Supplemental Information to ES&amp;T doi acs.est.7b02238 | Reviewer comments | Author's manuscript | C�te d�Ivoire Dual Burden of Disease (CoDuBu): Study Protocol to Investigate the Co-occurrence of Chronic Infections and Noncommunicable Diseases in Rural Settings of Epidemiological Transition (Preprint) | School Children's Intestinal Parasite and Nutritional Status One Year after Complementary School Garden, Nutrition, Water, Sanitation, and Hygiene Interventions in Burkina Faso | Prevalence of diarrhoea and risk factors among children under five years old in Mbour, Senegal: A cross-sectional study | Childhood hospitalisation and related deaths in Hanoi, Vietnam: A tertiary hospital database analysis from 2007 to 2014 | Effects of Radon and UV Exposure on Skin Cancer Mortality in Switzerland | Is physical activity a modifier of the association between air pollution and arterial stiffness in older adults: The SAPALDIA cohort study | Exposure to source-specific transportation noise levels and temporal noise characteristics in association with arterial stiffness</t>
+        </is>
+      </c>
+      <c r="M80" s="3" t="inlineStr">
+        <is>
+          <t>Lung Diseases | Air Pollution | Pulmonary Medicine | Respiration Disorders | Pharmacotherapy | Cervical Cancer | Asthma</t>
+        </is>
+      </c>
+    </row>
+    <row r="81" ht="80" customHeight="1" s="4">
+      <c r="B81" s="3" t="inlineStr">
+        <is>
+          <t>Nikolaos Stergiopulos</t>
+        </is>
+      </c>
+      <c r="C81" s="3" t="inlineStr">
+        <is>
+          <t>Nikolaos-Stergiopulos</t>
+        </is>
+      </c>
+      <c r="D81" s="3" t="inlineStr">
+        <is>
+          <t>École Polytechnique Fédérale de Lausanne</t>
+        </is>
+      </c>
+      <c r="E81" s="3" t="n">
+        <v>77474</v>
+      </c>
+      <c r="F81" s="3" t="n">
+        <v>14247</v>
+      </c>
+      <c r="G81" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="H81" s="3" t="inlineStr">
+        <is>
+          <t>Bram-Trachet | Patrick-Segers | Abigail-Swillens | Robson-Santos-9 | Stamatia-Pagoulatou-2 | Francois-Mach | Vasiliki-Bikia-2 | Sylvain-Roy-2 | Luciano-Capettini | Jan-Kips | Orestis-Vardoulis | Adan-Villamarin | Rana-Saitta-Rezakhaniha | Maiia-Bragina | Aristotelis-Agianniotis | Philippe-Reymond-3 | Theodore-Papaioannou | Berend-Westerhof | Georgios-Rovas | Bryn-Martin-3 | Jean-Jacques-Meister | Fabiana-Costa-Fraga | Alkiviadis-Tsamis | Rodrigo-Fraga-Silva | Fabrizio-Montecucco-2 | Mauro-Ferraro | Nicolaas-Westerhof | Daniel-Ruefenacht | Mikael-Sturny | Daniel-Hayoz | Mark-Noble-3 | Kozaburo-Hayashi | Pascal-Verdonck | Lydia-Aslanidou | Paolo-Silacci | Alexander-Rachev-2 | E-Fonck-15920514 | Tyler-N-Thacher-16209340 | Nicolaas-Westerhof-2136082680 | Dionysios-Adamopoulos-2150442546 | Martin-A-Zulliger-34922511 | Sebastien-Lenglet-38103832 | Veronica-Gambillara-38264910 | P-Fridez-38958378 | Graziano-Pelli-39631379 | Fabienne-Burger-39773684 | Franco-Dallegri-39980210 | Luca-Augsburger-40038958 | R-da-Silva-66846393</t>
+        </is>
+      </c>
+      <c r="I81" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="J81" s="3" t="inlineStr">
+        <is>
+          <t>Artin Shoukas | Chen-Huan Chen | David Kass | Nicolaas Westerhof | Kozaburo Hayashi | John Cockcroft | Alberto Avolio | Bram Trachet | Patrick Segers | Robson Santos | François Mach | Anderson José Ferreira | Sylvain Roy | Michael J Katovich | Ernst R Rietzschel | Arthur Burnett | Stephen E Greenwald | Hans R Brunner | Marc L De Buyzere | Alan Daugherty | Takeo Matsumoto | Philippe Reymond | Theodore Papaioannou | Kenji Sunagawa | Alain Tedgui | Berend E Westerhof | Francis Loth | Bryn Martin | Daniel Burkhoff | Pieter Sipkema | Jean-Jacques Meister | Fabiana P Costa-Fraga | Rodrigo A Fraga-Silva | Athanase Benetos | Rob Krams | Fabrizio Montecucco | Fabrice Merenda | Daniel André Rüfenacht | Joseph Paul Murgo | Daniel Hayoz | Rhian Touyz | Pascal Verdonck | Gerhard Holzapfel | Paolo Silacci | Alexander Ivanov Rachev | Luc Van Bortel | Fabienne Perren | Pierre Boutouyrie | Sabine Steffens | Charalambos Vlachopoulos</t>
+        </is>
+      </c>
+      <c r="K81" s="3" t="n">
+        <v>527</v>
+      </c>
+      <c r="L81" s="3" t="inlineStr">
+        <is>
+          <t>On the similarity between aortic and carotid pressure diastolic decay: a mathematical modelling study | Wet Adhesive Hydrogels to Correct Malacic Trachea (Tracheomalacia) A Proof of Concept | In Memoriam of Nico Westerhof (1937–2022) | The Impact of Left Ventricular Performance and Afterload on the Evaluation of Aortic Valve Stenosis: A 1D Mathematical Modeling Approach | Effect of the structural modification of Candesartan with Zinc on hypertension and left ventricular hypertrophy | Wet Adhesive Hydrogels to Correct Malacic Trachea (Tracheomalacia): A Proof of Concept | Prognostic Implications of the Novel Pulmonary Hypertension Definition in Patients with Aortic Stenosis after Transcatheter Valve Replacement | Arterial Wave Reflection and Aortic Valve Stenosis: Diagnostic Challenges and Prognostic Significance | p-Aminobenzamidine attenuates cardiovascular dysfunctions in spontaneously hypertensive rats | ASSESSMENT OF STIFFNESS OF LARGE TO SMALL ARTERIES IN MULTI-STAGE RENAL DISEASE: A NUMERICAL STUDY | Assessment of Stiffness of Large to Small Arteries in Multistage Renal Disease Model: A Numerical Study | Low-Intensity Electrostimulation Enhances Neuroregeneration and Improves Erectile Function in a Rat Model of Cavernous Nerve Injury | Validation of a Non-invasive Inverse Problem-Solving Method for Stroke Volume | Estimation of Left Ventricular End-Systolic Elastance From Brachial Pressure Waveform via Deep Learning | The effect of left ventricular contractility on arterial hemodynamics: A model-based investigation | On the assessment of arterial compliance from carotid pressure waveform | Acute and Long-Term Effects of Aortic Compliance Decrease on Central Hemodynamics: A Modeling Analysis | Determination of Aortic Characteristic Impedance and Total Arterial Compliance From Regional Pulse Wave Velocities Using Machine Learning: An in-silico Study | AI-Based Estimation of End-Systolic Elastance From Arm-Pressure and Systolic Time Intervals | Apelin-13 Protects Corpus Cavernosum Against Fibrosis Induced by High-Fat Diet in an MMP-Dependent Mechanism | In vivo application and validation of a novel non-invasive method to estimate the end-systolic elastance | The effect of the elongation of the proximal aorta on the estimation of the aortic wall distensibility | Flow driven robotic navigation of microengineered endovascular probes | Follicular regulatory helper t cells control the response of regulatory B cells to a high-cholesterol diet | TOLLIP controls atherogenesis through regulation of autophagy-mediated degradation of low-density lipoprotein receptor | YI 1.1 Aortic Impedance and Total Arterial Compliance from Regional Pulse Wave Velocities | Zinc complexation improves angiotensin II receptor type 1 blockade and in vivo antihypertensive activity of telmisartan | MRI after successful eyeWatch TM implantation | eyeWatch™ System Combined with Non-plated Intraorbital Tube Insertion for the Management of Refractory Glaucoma: A Case Series | Acute Effects of Transcatheter Aortic Valve Replacement on the Ventricular-Aortic Interaction | Early Morphofunctional Changes in AngII-Infused Mice Contribute to Regional Onset of Aortic Aneurysm and Dissection | Noninvasive estimation of aortic hemodynamics and cardiac contractility using machine learning | Characterization of the Renin-Angiotensin System in Aged Cavernosal Tissue and its Role in Penile Fibrosis | Standardization and Validation of Fluorescence-Based Quantitative Assay to Study Human Platelet Adhesion to Extracellular-Matrix in a 384-Well Plate | Biomechanics of Diastolic Dysfunction: a 1D Computational Modelling Approach | Performance and safety of treatment options for erectile dysfunction in patients with spinal cord injury: A review of the literature | The impact of heart rate on pulse wave velocity: an in-silico evaluation | PS-3-7 Low-Intensity Electrostimulation of Injured Cavernous Nerves Ameliorates Erectile Dysfunction and Promotes Penile Rehabilitation in Rats | Cardiotrophin-1 Deficiency Abrogates Atherosclerosis Progression | Follicular regulatory helper T cells control the response of regulatory B cells to a high-cholesterol diet | Co-localization of microstructural damage and excessive mechanical strain at aortic branches in angiotensin-II-infused mice | Comparison between the eyeWatchTM Device and the Ahmed Valve in Refractory Glaucoma | 2.7 Machine Learning on Central Hemodynamic Quantities Using Noninvasive Measurements: How Far Can We Go? | P125 Local Pulse Wave Velocity in the Arterial Tree: Site Matters! | P144 Augmentation Index is not a Reliable Measure of Wave Reflections in Patients with Severe Aortic Stenosis | EyeWatch Rescue of Refractory Hypotony After Baerveldt Drainage Device Implantation: Description of a New Technique | Noninvasive Cardiac Output and Central Systolic Pressure From Cuff-Pressure and Pulse Wave Velocity | Correction: A 1D computer model of the arterial circulation in horses: An important resource for studying global interactions between heart and vessels under normal and pathological conditions | From Patients to Platelets and Back Again: Pharmacological Approaches to Glycoprotein VI, a Thrilling Antithrombotic Target with Minor Bleeding Risks | On the importance of the nonuniform aortic stiffening in the hemodynamics of physiological aging | A 1D computer model of the arterial circulation in horses: An important resource for studying global interactions between heart and vessels under normal and pathological conditions | Synchrotron-based visualization and segmentation of elastic lamellae in the mouse carotid artery during quasi-static pressure inflation | PS-04-002 Long-term Low-intensity Electrostimulation of Injured Cavernosal Nerve Improves Erectile Function Recovery in a Rat Model of Postprostatectomy Erectile Dysfunction | Mapping the site-specific accuracy of loop-based local pulse wave velocity estimation and reflection magnitude: a 1D arterial network model analysis | Local electrostimulation of injured cavernosal nerve improves erectile function recovery in a rat model of neurogenic erectile dysfunction | Α systematic review and meta-analysis of the efficacy of aortic anastomotic devices | Initial Clinical Results of the eyeWatch™: a New Adjustable Glaucoma Drainage Device Used in Refractory Glaucoma Surgery | Elasticity: An Aid for Clinical Research and Graduate Education | The Pressure-Volume Relation: An Aid for Clinical Research and Graduate Education | Law of Laplace: An Aid for Clinical Research and Graduate Education | Cardiac Work, Energy and Power: An Aid for Clinical Research and Graduate Education | Pulmonary Hemodynamics: An Aid for Clinical Research and Graduate Education | Resistance: An Aid for Clinical Research and Graduate Education | Cardiac Oxygen Consumption and Hemodynamics: An Aid for Clinical Research and Graduate Education | Cardiac Power and Ventriculo-Arterial Coupling: An Aid for Clinical Research and Graduate Education | Blood Flow and Arterial Disease: An Aid for Clinical Research and Graduate Education | Wave Separation and Waveform Analysis: An Aid for Clinical Research and Graduate Education | Mechanotransduction and Vascular Remodeling: An Aid for Clinical Research and Graduate Education | Compliance: An Aid for Clinical Research and Graduate Education | Arterial Input Impedance: An Aid for Clinical Research and Graduate Education | Turbulence: An Aid for Clinical Research and Graduate Education | Bernoulli’s Equation: An Aid for Clinical Research and Graduate Education | Coronary Hemodynamics: An Aid for Clinical Research and Graduate Education | Wave Intensity Analysis: An Aid for Clinical Research and Graduate Education | Assessing Ventricular Function: An Aid for Clinical Research and Graduate Education | Wave Travel and Pulse Wave Velocity: An Aid for Clinical Research and Graduate Education | The Arterial Windkessel: An Aid for Clinical Research and Graduate Education | Cardiac Muscle Mechanics: An Aid for Clinical Research and Graduate Education | Transfer of Pressure: An Aid for Clinical Research and Graduate Education | Inertance: An Aid for Clinical Research and Graduate Education | Wave Travel and Reflection: An Aid for Clinical Research and Graduate Education | Comparative Physiology: An Aid for Clinical Research and Graduate Education | Oscillatory Flow Theory: An Aid for Clinical Research and Graduate Education | Arterial Stenosis: An Aid for Clinical Research and Graduate Education | Determinants of Pressure and Flow: An Aid for Clinical Research and Graduate Education | Distributed Models and Tube Models: An Aid for Clinical Research and Graduate Education | Viscosity: An Aid for Clinical Research and Graduate Education | Law of Poiseuille: An Aid for Clinical Research and Graduate Education | The Pump Function Graph: An Aid for Clinical Research and Graduate Education | Snapshots of Hemodynamics: An Aid for Clinical Research and Graduate Education | The Effect of the Elongation of the Proximal Aorta on the Estimation of Aortic Wall Distensibility | Age-induced increase in the energy transmitted towards the cerebral circulation as a contributor to impaired brain function | Elongation of the proximal aorta during the cardiac cycle plays an important role in the estimation of aortic compliance | Cardiac output estimation from beat-to-beat radial pressure and pulse wave velocity: A model-based study | Arterial wave dynamics in the horse: Insights obtained from a 1D arterial network model simulation | Estimating left ventricular elastance from noninvasive aortic flow and brachial pressure measurements | Novel Concept Enabling an Old Idea: A Flexible Electrode Array to Treat Neurogenic Erectile Dysfunction | Synchrotron-based phase contrast imaging of cardiovascular tissue in mice - Grating interferometry or phase propagation? | An optimized and validated 384-well plate assay to test platelet function in a high-throughput screening format | Abstract P250: Unveiling Binding Pocket Structure Of Mas Receptor And Its Interaction With Angiotensin-(1-7)</t>
+        </is>
+      </c>
+      <c r="M81" s="3" t="inlineStr">
+        <is>
+          <t>Blood Pressure | Medical Devices | Heart | Arteries | Flow | Aortic Diseases | Hemodynamics | Carotid Arteries | Elasticity | Hypertension</t>
+        </is>
+      </c>
+    </row>
+    <row r="82" ht="80" customHeight="1" s="4">
+      <c r="B82" s="3" t="inlineStr">
+        <is>
+          <t>Denitsa Meteva</t>
+        </is>
+      </c>
+      <c r="C82" s="3" t="inlineStr">
+        <is>
+          <t>Denitsa-Meteva</t>
+        </is>
+      </c>
+      <c r="D82" s="3" t="inlineStr">
+        <is>
+          <t>Charité Universitätsmedizin Berlin</t>
+        </is>
+      </c>
+      <c r="E82" s="3" t="n">
+        <v>1492</v>
+      </c>
+      <c r="F82" s="3" t="n">
+        <v>75</v>
+      </c>
+      <c r="G82" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="H82" s="3" t="inlineStr">
+        <is>
+          <t>Rafael-Cuadrat | Aiden-Haghikia | Michael-Joner | Altuna-Akalin | Alexander-Lauten-3 | Ulf-Landmesser | Johannes-Hartung | Nicolle-Kraenkel | Alexander-Blume | Katarzyna-Wreczycka | Claudio-Seppelt | Matthias-Riedel | Hans-Dieter-Volk | Aslihan-Erbay-2 | Youssef-Abdelwahed | Lara-Sieronski | Jens-Klotsche | Markus-Reinthaler | Filippo-Crea-2 | Tim-Kacprowski | Sabine-Ameling | Barbara-Staehli | Veronika_Ebenal | Fabian-Dirks | Tobias-Trippel | Brendan-Osberg | Himanshu-Rai-13 | David-Sinning | Elisabeth-Straessler | Carsten-Skurk | Teresa-Gerhardt | Uwe-Voelker | Arash-Haghikia-15458702 | Ursula-Rauch-Kroehnert-2075028197 | David-Manuel-Leistner-2126499090 | U-Landmesser-2140155918 | D-Leistner-2150707422 | Ursula-Rauch-Kroe-Hnert-2181944417 | Matthias-Riedel-2191992776 | Michael-Joner-2203066565 | Tiina-Mauno-2206734689 | Gregor-Nelles-2209721153 | Hector-Giral-Arnal-2254898274 | Gregor-Nelles-2254903097 | Henryk-Dreger-23114062 | Peter-Libby-38323427 | Fabian-Knebel-39127012 | David-M-Leistner-54246144 | Hans-Christian-Mochmann-58604873</t>
+        </is>
+      </c>
+      <c r="I82" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="J82" s="3" t="inlineStr">
+        <is>
+          <t>Haibo Jia | Carlo Trani | Italo Porto | Evelyn Regar | Jouke Dijkstra | Marco Valgimigli | Renu Virmani | Patrick W Serruys | Lorenz Räber | Jens Klotsche | Bo Yu | Shiro Uemura | Barbara E Stähli | Erling Falk | Gerard Pasterkamp | Rocco Vergallo | Taishi Yonetsu | Alexander Lauten | Carlo Di Mario | Thibaut Quillard | Tsunenari Soeda | Brett E Bouma | Himanshu Rai | Filippo Crea | Peter Barlis | Giulio Guagliumi | Rocco Antonio Montone | Michael Andrew Borger | Shaosong Zhang | Zhao Wang | Sining Hu | Francesco Prati | Francesco Fracassi | Carsten Skurk | Grégory Franck | Joshua Moss | Michael Joner | Ulf Landmesser | Hesham Refaat | Claudio Seppelt | Matthias Riedel | Guillermo Tearney | Youssef S. Abdelwahed | Erika Yamamoto | Filippo Crea | Yuval Dor | Hang Lee | Takashi Akasaka | Francesco Burzotta | Julia Steiner</t>
+        </is>
+      </c>
+      <c r="K82" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="L82" s="3" t="inlineStr">
+        <is>
+          <t>Coronary microevaginations characterize culprit plaques and their inflammatory microenvironment in a subtype of acute coronary syndrome with intact fibrous cap: results from the prospective translational OPTICO-ACS study | Culprit plaque morphology determines inflammatory risk and clinical outcomes in acute coronary syndrome | Toll-like receptor 2, hyaluronan, and neutrophils play a key role in plaque erosion: the OPTICO-ACS study | Cardiovascular disease biomarkers derived from circulating cell-free DNA methylation | Coexistence of calcified-and lipid-containing plaque components and their association with incidental rupture points in acute coronary syndrome-causing culprit lesions: results from the prospective OPTICO-ACS study | Cardiovascular disease biomarkers derived from circulating cell-free DNA methylation | Intrakoronare Bildgebung – wie die Plaque-Morphologie die Therapie personalisiert | Prognostic implications of cholesterol chrystals at ACS causing culprit lesions, insights from the translational OPTICO-ACS study program | Distinct pathological mechanisms distinguish acute coronary syndrome caused by plaque erosion from plaque rupture | Preclinical assessment of a modified Occlutech left atrial appendage closure device in a porcine model | TLR2 signalling orchestrates neutrophil activation in acute coronary syndrome with intact fibrous cap – results from the OPTICO-ACS study | Differential immunological signature at the culprit site distinguishes acute coronary syndrome with intact from acute coronary syndrome with ruptured fibrous cap: Results from the prospective translational OPTICO-ACS study | P6394Neutrophil activation patterns in acute coronary syndrome with intact fibrous cap - results from the OPTICO-ACS study | P572 Angiographic guided PCI of ACS causing culprit lesions - Just a gamble? | P767 Identification of circulating miRNA-abundances in ruptured versus eroded lesions: A combined optical coherence tomography and miRNA-profiling approach in patients with acute coronary syndrome | P1760Local coronary activation of neutrophils at the site of the culprit lesion in patients with an acute coronary syndrome</t>
+        </is>
+      </c>
+    </row>
+    <row r="83" ht="80" customHeight="1" s="4">
+      <c r="B83" s="3" t="inlineStr">
+        <is>
+          <t>Aiden Haghikia</t>
+        </is>
+      </c>
+      <c r="C83" s="3" t="inlineStr">
+        <is>
+          <t>Aiden-Haghikia</t>
+        </is>
+      </c>
+      <c r="D83" s="3" t="inlineStr">
+        <is>
+          <t>Otto-von-Guericke-Universität Magdeburg</t>
+        </is>
+      </c>
+      <c r="E83" s="3" t="n">
+        <v>31080</v>
+      </c>
+      <c r="F83" s="3" t="n">
+        <v>6505</v>
+      </c>
+      <c r="G83" s="3" t="n">
+        <v>48</v>
+      </c>
+      <c r="H83" s="3" t="inlineStr">
+        <is>
+          <t>Ulf-Landmesser | Nora-Prochnow | Ronit-Gold | Nicolle-Kraenkel | Tjalf-Ziemssen | Carsten-Lukas | Rolf-Dermietzel | Kerstin-Hellwig | Joerg-Epplen | Larissa-Arning | Denis-Akkad | Hayrettin-Tumani | Andrew-Chan-8 | Heinz-Wiendl | Tobias-Derfuss | Sven-Meuth | Hannes-Dambach | Bartosz-Pula | Luisa-Klotz-2 | Catharina-Gross | Alexander-Duscha | Pedro-Faustmann | Andreas-Schoebel | Volker-Limmroth-2 | Denise-Hilfiker-Kleiner | Clemens-Warnke-2 | Simon-Faissner | Reinhard-Hohlfeld | Ruth-Schneider | De-Hyung-Lee | Barbara-Gisevius | Stefanie-Joerg | Jan-Thoene | Arash-Haghikia-15458702 | E-Zuelow-2068952545 | C-Berthold-2068968264 | Stefanie-Haase-2135192563 | Johannes-Berg-2162071647 | Johannes-Kaisler-2162200715 | Ralf-Gold-2163174026 | Dominik-Mueller-38967646 | Uwe-Schlegel-38975511 | D-Smikalla-39188640 | D-Hinkerohe-39496038 | Ralf-A-Linker-39978518 | Martin-Stangel-47999692 | Uwe-K-Zettl-57269038 | Markus-Kleinewietfeld-84848179</t>
+        </is>
+      </c>
+      <c r="I83" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="J83" s="3" t="inlineStr">
+        <is>
+          <t>Arndt Manzel | Hans Lassmann | Michael Hutchinson | Sergio E Baranzini | Lars Alfredsson | Eva Havrdova | Helmut Butzkueven | Rolf Dermietzel | Kerstin Hellwig | Denis A. Akkad | Vittorio Martinelli | Andrew Chan | Stefan Kempa | Bernhard Hemmer | hans-peter Hartung | Jerry S Wolinsky | Per Soelberg Soerensen | Heinz Wiendl | Maria Trojano | Ludwig Kappos | Kjell-Morten Myhr | Dimitrios Tsikas | David A Hafler | Sven G Meuth | Douglas L Arnold | Luisa Klotz | Nils Helge Schebb | Emmanuelle Waubant | Alexander Duscha | Guillermo Izquierdo | J. Theodore Phillips | Jette Frederiksen | Tomas Olsson | Eva Havrdova | Jens Kuhle | Reinhard Hohlfeld | Amit Bar-Or | De-Hyung Lee | Stefanie Jörg | Anna Hammer | Jan Hillert | Jan Thöne | Ronit Gold | Diana A. Grohme | Nicola Wilck | Xavier Montalban | Frederik Barkhof | Alfred Sandrock | Hans-Peter Hartung | Davis Spray</t>
+        </is>
+      </c>
+      <c r="K83" s="3" t="n">
+        <v>198</v>
+      </c>
+      <c r="L83" s="3" t="inlineStr">
+        <is>
+          <t>Functional and structural readouts for early detection of retinal involvement in multiple sclerosis | Propionate exerts neuroprotective and neuroregenerative effects in the peripheral nervous system | A large-scale functional high-throughput screening identifies miR-515 and miR-519e as potent inducers of human iPSC-cardiomyocyte proliferation | Galectin-3 as a possible marker for increased thrombogenicity in COVID-19 | Parameters of coagulation and platelet hyperreactivity reflect an increased mortality in patients with moderate to severe COVID-19 | Propionic acid beneficially modifies osteoporosis biomarkers in patients with multiple sclerosis | Multiple sclerosis therapy consensus group (MSTCG): answers to the discussion questions | Prognostic implications of cholesterol chrystals at ACS causing culprit lesions, insights from the translational OPTICO-ACS study program | Propionate attenuates atherosclerosis by immune-dependent regulation of intestinal cholesterol metabolism | Multiple Sclerosis Therapy Consensus Group (MSTCG): position statement on disease-modifying therapies for multiple sclerosis (white paper) | Multiple Sklerose Therapie Konsensus Gruppe (MSTKG): Positionspapier zur verlaufsmodifizierenden Therapie der Multiplen Sklerose 2021 (White Paper)Multiple sclerosis treatment consensus group (MSTCG): position paper on disease-modifying treatment of multiple sclerosis 2021 (white paper) | Kommentar der Multiple Sklerose Therapie Konsensus Gruppe (MSTKG) zur S2k-Leitlinie Multiple SkleroseCommentary of the German multiple sclerosis therapy consensus group (MSTKG) on the S2k guideline on multiple sclerosis | Propionic Acid Rescues High-Fat Diet Enhanced Immunopathology in Autoimmunity via Effects on Th17 Responses | Sunlight exposure exerts immunomodulatory effects to reduce multiple sclerosis severity | Chitinase 3–like 1 and neurofilament light chain in CSF and CNS atrophy in MS | The role of the gut microbiota and microbial metabolites in neuroinflammation | Cerebrospinal fluid analysis in 108 patients with progressive multifocal leukoencephalopathy | CSF1R signaling is a regulator of pathogenesis in progressive MS | Acquisition of chromosome 1q duplication in parental and genome-edited human-induced pluripotent stem cell-derived neural stem cells results in their higher proliferation rate in vitro and in vivo | Recovery from COVID-19 in a B-cell-depleted multiple sclerosis patient | Multiple sclerosis and nutrition: back to the future? | Results of Cerebrospinal Fluid Analysis in 108 Patients With Progressive Multifocal Leukoencephalopathy | Cerebrospinal fluid analysis in 108 patients with progressive multifocal leukoencephalopathy | Results of cerebrospinal fluid analysis in 108 patients with progressive multifocal leukoencephalopathy | A Multiplex Assay for the Stratification of Patients with Primary Central Nervous System Lymphoma Using Targeted Mass Spectrometry | Propionic Acid and Fasudil as Treatment Against Rotenone Toxicity in an In Vitro Model of Parkinson’s Disease | Propionic Acid Shapes the Multiple Sclerosis Disease Course by an Immunomodulatory Mechanism. | Propionic Acid Shapes the Multiple Sclerosis Disease Course by an Immunomodulatory Mechanism | Rolle des Darmes bei der Multiplen Sklerose: Ansatz für neue Therapiekonzepte | Interventional Influence of the Intestinal Microbiome Through Dietary Intervention and Bowel Cleansing Might Improve Motor Symptoms in Parkinson’s Disease | Association between shorter leukocyte telomeres and multiple sclerosis | Conditional Deletion of LRP1 Leads to Progressive Loss of Recombined NG2-Expressing Oligodendrocyte Precursor Cells in a Novel Mouse Model | Elevated levels of miR-181c and miR-633 in the CSF of patients with MS: A validation study | PARP-1 deregulation in multiple sclerosis | Diagnostik und Therapie von Tuberkulose unter Immuntherapien für Multiple SkleroseDiagnostics and treatment of tuberculosis under immunotherapy for multiple sclerosis: Aktueller Stand und Empfehlungen in DeutschlandCurrent status and recommendations in Germany | Implications of Diet and The Gut Microbiome in Neuroinflammatory and Neurodegenerative Diseases | Evaluation of variation in genes of the arylhydrocarbon receptor pathway for an association with multiple sclerosis | Functional Neurosonology Reveals Impaired Cerebrovascular Reactivity in Multiple Sclerosis | Serum neurofilaments increase at PML onset in natalizumab‐treated MS patients | Predictors for Therapy Response to Intrathecal Corticosteroid Therapy in Multiple Sclerosis | Novel Immunotherapeutic Approaches to Target Alpha-Synuclein and Related Neuroinflammation in Parkinson’s Disease | Impact of Diet and the Gut Microbiome on Neurodegeneration and Regeneration in Neurological Disorders | Peripheral CD19+ B-cell counts and infusion intervals as a surrogate for long-term B-cell depleting therapy in multiple sclerosis and neuromyelitis optica/neuromyelitis optica spectrum disorders | Treatment of an acute motor and sensory axonal neuropathy with propionate in a 33-year-old male | Successful therapy with rituximab in three patients with probable neurosarcoidosis | Prospective multicenter validation of CSF protein biomarkers in patients with CIS and early MS on behalf of the German Competence Network Multiple Sclerosis (KKNMS) | Detection of JC virus archetype in cerebrospinal fluid in a MS patient with dimethylfumarate treatment without lymphopenia or signs of PML | Gut microbiota-dependent TMAO, aortic atherosclerosis and risk of cardiovascular events in patients with stroke | P2467Gut microbiota-dependent TMAO and risk of cardiovascular events in patients with stroke: relation to pro-inflammatory monocytes | Gut Microbiota–Dependent Trimethylamine N -Oxide Predicts Risk of Cardiovascular Events in Patients With Stroke and Is Related to Proinflammatory Monocytes | Breakthrough Treatment with bortezomib for a patient with anti-NMDAR encephalitis | Supplementary Material | Impacts of microbiome metabolites on immune regulation and autoimmunity | Ernährung, Mikrobiom und Multiple Sklerose: Aktuelle Erkenntnisse aus der Grundlagenforschung und der Klinik | Diät, Mikrobiom und Multiple Sklerose | Western lifestyle and immunopathology of multiple sclerosis: Western lifestyle and MS | Dietary fatty acids and susceptibility to multiple sclerosis | Diet, Microbiome and Multiple Sclerosis | Propionic Acid Shapes the Course of Multiple Sclerosis by a Distinct Immunomodulatory and Neuroprotective Mechanism | Role of Nuclear Factor (Erythroid-Derived 2)-Like 2 Signaling for Effects of Fumaric Acid Esters on Dendritic Cells | Supplementary Material | The NRF2 pathway as potential biomarker for dimethyl fumarate treatment in multiple sclerosis | Bromocriptine for the treatment of peripartum cardiomyopathy: A multicentre randomized study | Impact of combined sodium chloride and saturated long-chain fatty acid challenge on the differentiation of T helper cells in neuroinflammation | Testosterone Differentially Affects T Cells and Neurons in Murine and Human Models of Neuroinflammation and Neurodegeneration | The role of L-arginine/L-homoarginine/nitric oxide pathway for aortic distensibility and intima-media thickness in stroke patients | S1 Table | S1 Fig | Metabolic profiles by1 H-magnetic resonance spectroscopy in natalizumab-associated post-PML lesions of multiple sclerosis patients who survived progressive multifocal leukoencephalopathy (PML) | Severe B-cell-mediated CNS disease secondary to alemtuzumab therapy | 8. Gastrointestinale Funktionsstörungen bei neurodegenerativen Erkrankungen und Tumoren | Environmental factors in autoimmune diseases and their role in multiple Sclerosis | Active immunotherapy may delay disability in progressive MS | Listeria rhombencephalitis mimicking a demyelinating event in an immunocompetent young patient | Dimethyl fumarate in multiple sclerosis: latest developments, evidence and place in therapy | Plasmapheresis and immunoadsorption in patients with steroid refractory multiple sclerosis relapses | The immunomodulatory effect of laquinimod in CNS autoimmunity is mediated by the aryl hydrocarbon receptor | Immunoadsorption in patients with neuromyelitis optica spectrum disorder | Multiple Sclerosis Patient-Specific Primary Neurons Differentiated from Urinary Renal Epithelial Cells via Induced Pluripotent Stem Cells | S2 Fig | S1 Fig | Nerve ultrasound protocol in differentiating chronic immune-mediated neuropathies | Dietary Fatty Acids Directly Impact Central Nervous System Autoimmunity via the Small Intestine | Natalizumab-induced POU2AF1/Spi-B upregulation: A possible route for PML development | Data Supplement | Positive Effect on Multiple Sclerosis With Treatment of Metabolic Syndrome | High salt drives Th17 responses in experimental autoimmune encephalomyelitis without impacting myeloid dendritic cells | Monitoring von Blutparametern unter verlaufsmodifizierender MS-Therapie | Interferon-beta exposure during first trimester is safe in women with multiple sclerosis-A prospective cohort study from the German Multiple Sclerosis and Pregnancy Registry | Multiple sclerosis in families: risk factors beyond known genetic polymorphisms | Glatiramer acetate during early pregnancy: A prospective cohort study | Cutaneous sodium storage is a major driver of autoimmune responses in neuroinflammation. | Multiple sclerosis | Dietary Fatty Acids Directly Impact Central Nervous System Autoimmunity via the Small Intestine | Differential effects of sex steroid hormones on the chronic and acute phases of experimental autoimmune encephalomyelitis | Comparative Analysis of the Gut Microbiome in Multiple Sclerosis and Parkinson’s Disease Patients | Exclusive Breastfeeding and the Effect on Postpartum Multiple Sclerosis Relapses | Aktuelles zur Therapieumstellung bei Multipler Sklerose | Serum and cerebrospinal fluid concentrations of homoarginine, arginine, asymmetric and symmetric dimethylarginine, nitrite and nitrate in patients with multiple sclerosis and neuromyelitis optica | [In Process Citation]</t>
+        </is>
+      </c>
+      <c r="M83" s="3" t="inlineStr">
+        <is>
+          <t>Multiple Sclerosis | Neurology | Microglia</t>
+        </is>
+      </c>
+    </row>
+    <row r="84" ht="80" customHeight="1" s="4">
+      <c r="B84" s="3" t="inlineStr">
+        <is>
+          <t>Shibabrata Basak</t>
+        </is>
+      </c>
+      <c r="C84" s="3" t="inlineStr">
+        <is>
+          <t>Shibabrata-Basak</t>
+        </is>
+      </c>
+      <c r="D84" s="3" t="inlineStr">
+        <is>
+          <t>Forschungszentrum Jülich</t>
+        </is>
+      </c>
+      <c r="E84" s="3" t="n">
+        <v>8213</v>
+      </c>
+      <c r="F84" s="3" t="n">
+        <v>1040</v>
+      </c>
+      <c r="G84" s="3" t="n">
+        <v>47</v>
+      </c>
+      <c r="H84" s="3" t="inlineStr">
+        <is>
+          <t>Ruben-Geutjens | Erik-Kelder | Yasin-Emre-Durmus | Albert-Keri-2 | Shicheng-Yu-2 | Anna-Windmueller-4 | Hongying-He | Henny-Zandbergen | Osmane-Camara | Marnix-Wagemaker | Fokko-Mulder | Qi-Xu-48 | Lambert-Eijck | Krzysztof-Dzieciol | Pijus-Samanta | Bernard-Dam | Chandramohan-George | Yaolin-Xu | Evgeny-Alekseev | Vadim-Migunov | Zhaolong-Li-2 | Xiaoai-Guo | Hermann-Nirschl | Qiang-Xu-44 | Hector-Hugo-Perez-Garza | Jicheng-Feng | Zigeng-Liu-2 | Partha-Chaudhuri | E-Brueck | Swapna-Ganapathy-2 | Roland-Schierholz | George-Biskos | Gabor-Galbacs | Amir-Tavabi | Asit-Maity | Chih-Long-Tsai | Nguyen-Thang-18 | Stefan-Van-Waasen | Chuang-Yu-2 | Joachim-Mayer-14340622 | Hans-Kungl-14601571 | Xin-Lu-2127086081 | Rafal-E-Dunin-Borkowski-2149887062 | Anne-France-Beker-2176458399 | Junbeom-Park-2201540423 | Ernst-R-H-van-Eck-39685495 | Li-Lu-64987879</t>
+        </is>
+      </c>
+      <c r="I84" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="J84" s="3" t="inlineStr">
+        <is>
+          <t>Chongmin Wang | Henny Zandbergen | Jian Yu Huang | Ji-Guang Zhang | Marnix Wagemaker | Haoshen Zhou | Fokko M Mulder | Wu Xu | Pijus Kanti Samanta | Kazunori Takada | Chunsheng Wang | Ying Shirley Meng | Yuki Kato | Yoon Seok Jung | Xiaoai Guo | Hermann Nirschl | Linda F. Nazar | Hector Hugo Perez Garza | Anatoliy Senyshyn | Kiyoharu Tadanaga | Xueliang Sun | Jicheng Feng | Lincoln J. Miara | Martin Wilkening | Partha Roy Chaudhuri | Kota Suzuki | Dominik Alexander Weber | B. Layla Mehdi | Swapna Ganapathy | Roland Schierholz | Stefan A Freunberger | Yifei Mo | Xiayin Yao | Atsushi Sakuda | George Biskos | N. D. Browning | Alexander Kuhn | Chih-Long Tsai | Gerbrand Ceder | Chuang Yu | Erik Kelder | Nian Liu | Bryan Mccloskey | Robert Black | Shicheng Yu | Tobias Pfeiffer | Yuhui Chen | Dae Yang Oh | Brian D. Adams | Yi Cui</t>
+        </is>
+      </c>
+      <c r="K84" s="3" t="n">
+        <v>56</v>
+      </c>
+      <c r="L84" s="3" t="inlineStr">
+        <is>
+          <t>CO2 Electroreduction to Formate—Comparative Study Regarding the Electrocatalytic Performance of SnO2 Nanoparticles | Post-Synthesis Heat Treatment of Doped PtNi-Alloy Fuel-Cell Catalyst Nanoparticles Studied by In-Situ Electron Microscopy | High-resolution and analytical electron microscopy in a liquid flow cell via gas purging | Effect of Low Environmental Pressure on Sintering Behavior of NASICON-Type Li 1.3 Al 0.3 Ti 1.7 (PO 4 ) 3 Solid Electrolytes: An In Situ ESEM Study | Screening of Coatings for an All-Solid-State Battery using In Situ Transmission Electron Microscopy | Screening of Coatings for an All-Solid-State Battery using In Situ Transmission Electron Microscopy | Lithium phosphosulfide electrolytes for solid-state batteries: Part II | Erratum: Lithium phosphosulfide electrolytes for solid-state batteries: Part I | Characterizing battery materials and electrodes via in situ / operando transmission electron microscopy | Nanoscale visualization of metallic electrodeposition in a well-controlled chemical environment | Lithium Phosphosulfide Electrolytes for Solid-State Batteries: Part I | Active Interphase Enables Stable Performance for an All‐Phosphate‐Based Composite Cathode in an All‐Solid‐State Battery | Operando Transmission Electron Microscopy of Battery Cycling: Thickness-dependent Breaking of TiO2 Coating on Si/SiO2 Nanoparticles | Nanostructuring Germanium Nanowires by In Situ TEM Ion Irradiation | Improved Electrochemical Performance of Zinc Anodes by EDTA in Near‐Neutral Zinc‐Air Batteries | Structural Study of Polyacrylonitrile-Based Carbon Nanofibers for Understanding Gas Adsorption | Improved Electrochemical Performance of Zn Anodes by EDTA in Near‐Neutral Zn–air Batteries | Insights into the reactive sintering and separated specific grain/grain boundary conductivities of Li1.3Al0.3Ti1.7(PO4)3 | Accessing Lithium–Oxygen Battery Discharge Products in Their Native Environments via Transmission Electron Microscopy Grid Electrode | In situ electrochemistry inside a TEM with controlled mass transport | SI.pdf | Operando Transmission Electron Microscopy Study of All-Solid-State Battery Interface: Redistribution of Lithium among Interconnected Particles | Designing Reliable Operando TEM Experiments to Study (De)lithiation Mechanism of Battery Electrodes | 3D Quantification of the Facet Evolution of Pt Nanoparticles in a Variable Gaseous Environment | Facile Synthesis toward the Optimal Structure-Conductivity Characteristics of the Argyrodite Li6PS5Cl Solid-State Electrolyte | Ternary alloy nanoparticle production by spark mixing: A source of novel properties | Towards optimization of experimental parameters for studying Li-O 2 battery discharge products in TEM using in situ EELS | Supplementary Material | Magnetic Phase Transition in Spark-Produced Ternary LaFeSi Nanoalloys | acsami.7b15441 | Supporting Information-Magnetic Phase Transition in Spark-Produced Ternary LaFeSi Nanoalloys | 41467 2017 1187 MOESM1 ESM | Accessing the bottleneck in all-solid state batteries, lithium-ion transport over the solid-electrolyte-electrode interface | Supplementary Material 2 | Supplementary Material 1 | Revealing the relation between the structure, Li-ion conductivity and solid-state battery performance of the argyrodite Li6PS5Br solid electrolyte | 3-D Vertically Aligned Few Layer Graphene – Partially Reduced Graphene Oxide/Sulfur Electrodes for High Performance Lithium-Sulfur Batteries | Supporting info A high-performance Li-ion anode from direct deposition of Si nanoparticles | A High-performance Li-ion Anode from Direct Deposition of Si Nanoparticles | Operando Nano-beam Diffraction to Follow the Decomposition of Individual Li2O2 Grains in a Non-aqueous Li-O2 Battery | The Use of Nano Seed Crystals to Control Peroxide Morphology in a Non-Aqueous Li-O 2 Battery | Green Manufacturing of Metallic Nanoparticles: a Facile and Universal Approach to Scaling up | Reversible Na-Ion Uptake in Si Nanoparticles | Nano-Workbench: A Combined Hollow AFM Cantilever and Robotic Manipulator | The hydrogen permeability of Pd–Cu based thin film membranes in relation to their structure: A combinatorial approach | Improving Reversible Capacities of High-Surface Lithium Insertion Materials – The Case of Amorphous TiO2 | Wet chemical growth of ultra-long ZnO nanoplates and their optical property | Sol-Gel Synthesized aligned ZnO Nanorods Growth : Studies on Structural and Optoelectronic Properties Raman College of Engineering, Bhubaneawar, 8-10th December, 2011. [Conference publication in IEEE : http://ieeexplore.ieee.org/xpl/login.jsp? [ Digital Object Identifier : 10.1109/NSTSI.2011.6111777 ] | Sol-Gel Synthesized Aligned ZnO Nanorods Growth: Studies on Structural and Optoelectronic Properties | Characteristics of electrochemically grown dendritic metallic zinc | ZnO Microsphere towards Highly Luminescent Photonic Devices | Fern leaves | Fern leaves: The secret life of zinc oxide | Electrochemical Growth of ZnO Microspheres and Nanosheets | Fabrication of intensity based fiber optic pH Sensor | Fabrication of ZnO nanostructures: Effect of organic and inorganic compounds</t>
+        </is>
+      </c>
+      <c r="M84" s="3" t="inlineStr">
+        <is>
+          <t>In-Situ TEM | MEMS/NEMS | Battery | Catalysis</t>
+        </is>
+      </c>
+    </row>
+    <row r="85" ht="80" customHeight="1" s="4">
+      <c r="B85" s="3" t="inlineStr">
+        <is>
+          <t>Violetta Arszelewska</t>
+        </is>
+      </c>
+      <c r="C85" s="3" t="inlineStr">
+        <is>
+          <t>Violetta-Arszelewska</t>
+        </is>
+      </c>
+      <c r="D85" s="3" t="inlineStr">
+        <is>
+          <t>Delft University of Technology</t>
+        </is>
+      </c>
+      <c r="E85" s="3" t="n">
+        <v>4125</v>
+      </c>
+      <c r="F85" s="3" t="n">
+        <v>250</v>
+      </c>
+      <c r="G85" s="3" t="n">
+        <v>31</v>
+      </c>
+      <c r="H85" s="3" t="inlineStr">
+        <is>
+          <t>A-Vasileiadis | Erik-Kelder | Shibabrata-Basak | Paolo-Rosi | Ming-Liu-111 | Niek-De-Klerk | Marnix-Wagemaker | Eveline-Van-Der-Maas | Tammo-Schwietert | Kui-Lin-9 | Krzysztof-Dzieciol | Chandramohan-George | Yaolin-Xu | Vadim-Migunov | Swapna-Ganapathy-2 | Roland-Schierholz | Baohua-Li-4 | Thomas-Hupfer | Amir-Tavabi | Chuang-Yu-2 | Joachim-Mayer-14340622 | Hans-Kungl-14601571 | Frans-Ooms-20350462 | Chao-Wang-2080029492 | Jart-Hageman-2147069207 | Rafal-E-Dunin-Borkowski-2149887062 | Ingo-Kerkamm-2161835725 | Qing-Lee-2174607839 | Ashwin-Vijay-2174629948 | Chandramohan-George-2213718403 | Chenglong-Zhao-2221535326</t>
+        </is>
+      </c>
+      <c r="I85" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="J85" s="3" t="inlineStr">
+        <is>
+          <t>Chongmin Wang | Shibabrata Basak | Mehmet Kadri Aydinol | Jian Yu Huang | Joachim Sann | Marnix Wagemaker | Sylvio Indris | W.D. Nix | Lambert van Eijck | Vincent Seznec | Virginie Viallet | Scott X Mao | Chunsheng Wang | Ying Shirley Meng | Yuki Kato | Seok Woo Lee | Yizhou Zhu | William Richards | J. Hafner | Zhaolong Li | Bettina V Lotsch | Dominik Alexander Weber | Swapna Ganapathy | Stefan Sedlmaier | Yong-Sheng Hu | Jérémie Auvergniot | Yifei Mo | Xingfeng He | Raimund Koerver | Clare P Grey | Jae Chul Kim | Gerbrand Ceder | Chuang Yu | Heng Wang | Erik Kelder | Han Nguyen | Christian Dietrich | Xiulin Fan | Ming Liu | Takashi Hakari | Niek de Klerk | Fudong Han | Yoshiharu Uchimoto | Irek Roslon | Long Zhang | Tammo Schwietert | Darren Tan | Jie Yue | Yi Cui | J. Maier</t>
+        </is>
+      </c>
+      <c r="K85" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="L85" s="3" t="inlineStr">
+        <is>
+          <t>Clarifying the relationship between redox activity and electrochemical stability in solid electrolytes | Operando Transmission Electron Microscopy of Battery Cycling: Thickness-dependent Breaking of TiO2 Coating on Si/SiO2 Nanoparticles | Quantifying the local Li-ion diffusion over the grain boundaries of a protective coating, revealing the impact on the macroscopic Li-ion transport in an all-solid-state battery | SI.pdf | Operando Transmission Electron Microscopy Study of All-Solid-State Battery Interface: Redistribution of Lithium among Interconnected Particles | The relationship between the redox activity and electrochemical stability of solid electrolytes for solid-state batteries</t>
+        </is>
+      </c>
+      <c r="M85" s="3" t="inlineStr">
+        <is>
+          <t>Raman Spectroscopy | Material Characterization | Battery | X-ray Diffraction | Nuclear Magnetic Resonance | Lithium Ion Batteries | Solid State Electrochemistry | Materials Chemistry</t>
+        </is>
+      </c>
+    </row>
+    <row r="86" ht="80" customHeight="1" s="4">
+      <c r="B86" s="3" t="inlineStr">
+        <is>
+          <t>Esteban García-Tamayo</t>
+        </is>
+      </c>
+      <c r="C86" s="3" t="inlineStr">
+        <is>
+          <t>Esteban-Garcia-Tamayo</t>
+        </is>
+      </c>
+      <c r="E86" s="3" t="n">
+        <v>3532</v>
+      </c>
+      <c r="F86" s="3" t="n">
+        <v>210</v>
+      </c>
+      <c r="G86" s="3" t="n">
+        <v>39</v>
+      </c>
+      <c r="H86" s="3" t="inlineStr">
+        <is>
+          <t>Vladimir-Martinez-3 | Erik-Kelder | Stiven-Lopez-Guzman | Omid-Hosseinaei | Laura-Sabogal-Moncada-2 | Miguel-Bernal-3 | Rolf-Findeisen | Simon-Montoya-Bedoya-2 | Daniel-Rohrbach | Juan_Gaviria17 | Viktor-Popov-4 | Simon-Engelke-2 | Ugo-Lafont | Richard-Braatz | Raphael-Fredon | Wf-Florez-2 | Masaki-Adachi-3 | Michael-Thielke | David-Munao | Anca-Anastasopol | Jeffrey-Ros-2027537329 | Aletta-Kaas-2027541536 | Juan-Ospina-2167732999 | Paul-Gasper-2186871538 | Jorge-Pavel-Victoria-Tafoya-2186876827 | Ana-Jorge-Sobrido-2186901598 | Jack-Potter-2207209637 | Cristina-Isabel-Castro-Herazo-2221622918 | Joachim-Schaeffer-2221699641 | Andrew-Schiek-2238521727 | Rhys-Goodall-2243670302 | Anoushka-Bhutani-2243672272 | Juan-Pablo-Gaviria-Cardona-2243678461 | Juan-Pablo-Gaviria-Cardona-2252159036 | Rhys-Goodal-2252188941 | Raymond-Gasper-2255517630 | Mario-Valvo-55910112 | CA-Bustamante-70468649 | Jan-van-Erven-79821114</t>
+        </is>
+      </c>
+      <c r="I86" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="J86" s="3" t="inlineStr">
+        <is>
+          <t>Michael Pecht | Palani Balaya | Chong Chen | D. Cazorla-Amorós | Philippe Poizot | Magda Titirici | Marnix Wagemaker | Joop Schoonman | Kristina Edström | H. K. Liu | Fokko M Mulder | Yanlin Yu | Prashant N Kumta | Ugo Lafont | Stephen Joel Harris | Sylvie Grugeon | S.C. Danforth | Richard D Braatz | Shaurjo Biswas | Dirk Uwe Sauer | P. Simon | Languang Lu | Li Jianqiu | Jun Yang | Zhe Li | Rustam Stolkin | Nima Lotfi | Samuel Buteau | W.F. Florez | Alexandre Sydney Robert Goy | Mehdi Dehghan | Daniel-Ioan Stroe | Allan Walton | Jie Li | Daniel Brandell | Servann Herou | David Munao | Michael Holzapfel | Pice Chen | Yi Wu | Henry Power | Erik Kelder | Norman Jin | David Howey | Xuebing Han | Jiazhao Wang | Philipp Schlee | Guoxiu Wang | Yi Cui | J. Maier</t>
+        </is>
+      </c>
+      <c r="K86" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="L86" s="3" t="inlineStr">
+        <is>
+          <t>Machine Learning Benchmarks for the Classification of Equivalent Circuit Models from Electrochemical Impedance Spectra | Machine learning benchmarks for the classification of equivalent circuit models from solid-state electrochemical impedance spectra | Full Lignin-Derived Electrospun Carbon Materials as Electrodes for Supercapacitors | Engineering Analysis with Boundary Elements A local collocation method with radial basis functions for an electrospinning problem | Noninvasive ultrasound for Lithium-ion batteries state estimation | Noninvasive ultrasound for Lithium-ion batteries state estimation | Nondestructive state-of-charge assessment of Lithium-ion batteries using quantitative ultrasound spectroscopy | A Circular Economy of Electrochemical Energy Storage Systems: Critical Review of SOH/RUL Estimation Methods for Second-Life Batteries | Effect of Cr-Oxide Partial Coating on the Electrochemical Behavior of Thin Film High-Voltage Spinel | Electrostatic spray pyrolysis of LiNi0.5Mn1.5O4 films for 3D Li-ion microbatteries | Electrostatic spray pyrolysis of LiNi0.5Mn1.5O4 films for 3D Li-ion microbatteries | Direct synthesis and coating of advanced nanocomposite negative electrodes for Li-ion batteries via electrospraying | Nanostructured Fe2O3 and CuO composite electrodes for Li ion batteries synthesized and deposited in one step | Role of the binder on the failure mechanism of Si nano-composite electrodes for Li-ion batteries | Aerosol technology and Si nano-composite electrode assembly for Li-ion batteries | A Computer Algebra Algorithm for the Symbolic Solution of a Problem involving the diffusion of adatoms on a Circular Wafer when sculpting a Nanopore with an Ion Beam.</t>
+        </is>
+      </c>
+      <c r="M86" s="3" t="inlineStr">
+        <is>
+          <t>Cyclic Voltammetry | Battery cycler | Atomic Force Microscopy | Microsoft Office | Origin | Pro-Engineer | Latex | Solidworks | Materials Chemistry</t>
+        </is>
+      </c>
+    </row>
+    <row r="87" ht="80" customHeight="1" s="4">
+      <c r="B87" s="3" t="inlineStr">
+        <is>
+          <t>Gaël S Roth</t>
+        </is>
+      </c>
+      <c r="C87" s="3" t="inlineStr">
+        <is>
+          <t>Gael-Roth</t>
+        </is>
+      </c>
+      <c r="D87" s="3" t="inlineStr">
+        <is>
+          <t>Université Grenoble Alpes</t>
+        </is>
+      </c>
+      <c r="E87" s="3" t="n">
+        <v>3971</v>
+      </c>
+      <c r="F87" s="3" t="n">
+        <v>339</v>
+      </c>
+      <c r="G87" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="H87" s="3" t="inlineStr">
+        <is>
+          <t>Arnaud-Millet | Mohamed-Bouattour | Patrice-Marche | Az-Kuyucu | Thomas-Decaens-2 | Christian-Sengel | Marie-Malier | Antoine-Hollebecque | Auroux-Jean | Cindy-Neuzillet | Aurelien-Lambert-2 | P-Merle | Soraya-Mezouar | Nicolas-Williet | Eloine-Bestion | Francois-Dewaele-2 | Yann-Teyssier | Philippe-Bichard | Khaldoun-Gharzeddine | Eric-Raymond | Zuzana-Macek-Jilkova-2 | Gilles-Crehange | Nicolas-Reynoird-2 | Marie-Laverriere | Kurma-Keerthi-2 | Anthony-Turpin | Christelle-Ansaldi | Hubert-Roth | Isaac-Ruiz-3 | Vincent-Hautefeuille | Alexandre-Casanova-2 | Fabienne-Thomas | Ayca-Zeybek-Kuyucu | Yi-Yu-44 | Arnaud-Seigneurin-14884143 | Madani-Rachid-2079794608 | Michele-Fior-Gozlan-2090564280 | Olivier-Bouche-2098795586 | Bleuenn-Brusset-2132312880 | Julien-Ghelfi-2143114000 | Vincent-Leroy-2163499779 | Karim-Boudjema-38250187 | Janick-Selves-38266620 | Julien-Taieb-38606314 | Valerie-Boige-39076841 | Nathalie-Sturm-39099728 | Giovanni-Abbadessa-39130561 | Ivan-Bricault-39354643 | Philippe-Halfon-40049661 | Sabrina-Marsili-79984180</t>
+        </is>
+      </c>
+      <c r="I87" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="J87" s="3" t="inlineStr">
+        <is>
+          <t>Bruno Sangro | Markus Peck-Radosavljevic | Luigi Bolondi | Jean Gugenheim | Camillo Porta | Patrice Marche | Jessica Zucman-Rossi | Julien Sage | Augusto Villanueva | Michel Ducreux | Pål Ø Falnes | Ignacio Melero | Min-Shan Chen | Ryuji Hamamoto | Antoine Hollebecque | Christophe Duvoux | Gregory J Gores | Olivier Seror | Jean-Frédéric Blanc | WY Tak | Masatoshi Kudo | Alexis Laurent | Yoon-Koo Kang | Maria Reig | Jean-Charles Nault | Daniel Azoulay | Zuzana Macek Jílková | Yusuke Nakamura | Fabio Piscaglia | Bruno Daniele | Dimitris Voliotis | Kurma Keerthi | Josep M. Llovet | Yi Yu | Vincenzo Mazzaferro | Boris Guiu | Lorenza Rimassa | Andrew Zhu | Tim Greten | Thomas Yau | Armando Santoro | Thomas Decaens | Jordi Bruix | Nathalie Ganne | Ivan Borbath | Peter R Galle | P. Merle | Jean-François Seitz | Ahmed Kaseb | Riccardo Lencioni</t>
+        </is>
+      </c>
+      <c r="K87" s="3" t="n">
+        <v>66</v>
+      </c>
+      <c r="L87" s="3" t="inlineStr">
+        <is>
+          <t>Discrepancies between Dihydropyrimidine dehydrogenase phenotyping and genotyping: what are the explanatory factors? | Optimal treatment strategy after first-line induction therapy in advanced HER2-positive oeso-gastric adenocarcinoma-a retrospective, international, multicentric AGEO study | Zolbetuximab plus gemcitabine and nab-paclitaxel (GN) in first-line treatment of claudin 18.2–positive metastatic pancreatic cancer (mPC): Phase 2, open-label, randomized study. | Targeting PPT1 with ezurpimtrostat sensitives liver tumor to immunotherapy by switching cold into hot microenvironments | Quality of life of patients with solid malignancies at 3 months after unplanned admission in the intensive care unit: A prospective case-control study | Immunotherapy in hepatocellular carcinoma: How does underlying liver disease influence therapeutic strategy and outcomes? | Effect of Novel AKT Inhibitor Vevorisertib as Single Agent and in Combination with Sorafenib on Hepatocellular Carcinoma in a Cirrhotic Rat Model | Structural and Socio-Spatial Determinants Influencing Care and Survival of Patients with a Pancreatic Adenocarcinoma: Results of the PANDAURA Cohort | Impact of obesity on morbidity and oncologic outcomes after total mesorectal excision for mid and low rectal cancer | Cholangiocarcinoma: what are the options in all comers and how has the advent of molecular profiling opened the way to personalized medicine ? | Endovascular lymphatic decompression by thoracic duct stenting for refractory ascites in cirrhotic patients: pilot study | Impact of sarcopenia on tumor response and survival outcomes in patients with hepatocellular carcinoma treated by trans-arterial (chemo)-embolization | cd-21-0205_supplementary_data_5_suppsd5.pdf | cd-21-0205_supplementary_data_4_suppsd4.pdf | cd-21-0205_supplementary_data_6_suppsd6.pdf | cd-21-0205_supplementary_data_suppsm1.docx | cd-21-0205_supplementary_data_1_suppsd1.pdf | cd-21-0205_supplementary_data_3_suppsd3.pdf | cd-21-0205_supplementary_table_s3_suppst3.xlsx | cd-21-0205_supplementary_data_7_suppsd7.pdf | cd-21-0205_supplementary_data_2_suppsd2.pdf | cd-21-0205_supplementary_data_8_suppsd8.pdf | Evolution of Thoracic Duct Congestion after Portal Decompression by TIPS in Cirrhotic Patients | SMYD3 Impedes Small Cell Lung Cancer Sensitivity to Alkylation Damage through RNF113A Methylation–Phosphorylation Cross-talk | A randomized, non-comparative, phase II study of maintenance OSE2101 vaccine alone or in combination with nivolumab (nivo) or FOLFIRI after induction with FOLFIRINOX in patients (Pts) with advanced pancreatic ductal adenocarcinoma (aPDAC): First interim results of the TEDOPAM GERCOR D17-01 PRODIGE 63 STUDY. | FOLFIRI plus BEvacizumab or aFLIbercept after FOLFOX‐bevacizumab failure for COlorectal cancer (BEFLICO): an AGEO multicenter study | Zolbetuximab plus gemcitabine and nab-paclitaxel (GN) in first-line treatment of claudin 18.2-positive metastatic pancreatic cancer (mPC): Phase 2, open-label, randomized study. | Correction: Hypoxia Drives Dihydropyrimidine Dehydrogenase Expression in Macrophages and Confers Chemoresistance in Colorectal Cancer | Safety and Efficacy of Transarterial Chemoembolization in Elderly Patients with Intermediate Hepatocellular Carcinoma | Biliary cytology: A diagnostic tree for adenocarcinoma based on a cohort of 135 patients with endoscopic retrograde cholangiopancreatography for stenosis of the extrahepatic bile duct | Safety and Efficacy of Transarterial Chemoembolization in Elderly Patients with Intermediate Hepatocellular Carcinoma | Les macrophages associés à la tumeur: De nouvelles cibles pour contrecarrer la chimiorésistance au 5-fluorouracile dans les cancers colorectaux ? | First-In-Human Effects of PPT1 Inhibition Using the Oral Treatment with GNS561/Ezurpimtrostat in Patients with Primary and Secondary Liver Cancers | Impact of the COVID-19 pandemic on disease stage and treatment for patients with pancreatic adenocarcinoma: A French comprehensive multicentre ambispective observational cohort study (CAPANCOVID) | Brun et al Autophagy (PPT-1) Suppl files.pdf | GNS561, a clinical-stage PPT1 inhibitor, is efficient against hepatocellular carcinoma via modulation of lysosomal functions | Hypoxia Drives Dihydropyrimidine Dehydrogenase Expression in Macrophages and Confers Chemoresistance in Colorectal Cancer | Gemcitabine/Nab-Paclitaxel versus FOLFIRINOX in Locally Advanced Pancreatic Cancer: A European Multicenter Study | Carcinome hépatocellulaire (cancer primitif du foie) TNCD - Chapitre 7 version 03/06/2021 | First-in-human phase I, pharmacokinetic (PK), and pharmacodynamic (PD) study of oral GNS561, a palmitoyl-protein thioesterase 1 (PPT1) inhibitor, in patients with primary and secondary liver malignancies. | Hepatocellular carcinoma : French Intergroup Clinical Practice Guidelines for diagnosis, treatment and follow-up (SNFGE, FFCD, GERCOR, UNICANCER, SFCD, SFED, SFRO, AFEF, SIAD, SFR/FRI) | Comparison of Trans-Arterial Chemoembolization and Bland Embolization for the Treatment of Hepatocellular Carcinoma: A Propensity Score Analysis | Targeting Akt in Hepatocellular Carcinoma and Its Tumor Microenvironment | Lenvatinib in elderly hepatocellular carcinoma patients, a new therapeutic option in first line | Hypoxia Drives Dihydropyrimidine Dehydrogenase Expression in Macrophages and Confers Chemoresistance in Colorectal Cancer | Percutaneous Ablation-Induced Immunomodulation in Hepatocellular Carcinoma | From in vitro evaluation to human post-mortem pre-validation of a radiopaque and resorbable internal biliary stent for liver transplantation applications | Idarubicin vs doxorubicin in transarterial chemoembolization of intermediate stage hepatocellular carcinoma | Lysine Methyltransferases Signaling: Histones are Just the Tip of the Iceberg | Combination of AKT inhibitor ARQ 092 and sorafenib potentiates inhibition of tumor progression in cirrhotic rat model of hepatocellular carcinoma | Supplementary Material | Lysine methylation signaling in pancreatic cancer | AKT inhibitor ARQ 092 and sorafenib additively inhibit progression of hepatocellular carcinoma and improve immune system in cirrhotic rat model | Effect of novel AKT inhibitor ARQ 751 as single agent and its combination with sorafenib on hepatocellular carcinoma in a cirrhotic rat model | TNCD - Carcinome hépatocellulaire | Liver immunotolerance and hepatocellular carcinoma: Patho-physiological mechanisms and therapeutic perspectives | Abstract 5124: GNS561 a new quinoline derivative inhibits the growth of hepatocellular carcinoma in a cirrhotic rat and human PDX orthotopic mouse models | Efficacy of AKT Inhibitor ARQ 092 Compared with Sorafenib in a Cirrhotic Rat Model with Hepatocellular Carcinoma | Immunotolérance hépatique et immunothérapie du carcinome hépato-cellulaire | Chimiothérapie chez le patient cirrhotique : quelles précautions prendre ? - How to adapt anticancer treatments in cirrhotic patients? | Performance of bile aspiration plus brushing to diagnose malignant biliary strictures during endoscopic retrograde cholangiopancreatography | Performance of bile aspiration plus brushing to diagnose malignant biliary strictures during endoscopic retrograde cholangiopancreatography | Efficacy of AKT Inhibitor ARQ 092 Compared with Sorafenib in a Cirrhotic Rat Model with Hepatocellular Carcinoma | Abstract B111: Efficacy of AKT inhibitor ARQ 092 compared with Sorafenib in a cirrhotic rat model with hepatocellular carcinoma | Efficacy of AKT inhibitor ARQ 092 compared with sorafenib in a cirrhotic rat model with hepatocellular carcinoma | Evaluation prospective de la performance diagnostique de l'aspiration de bile avant et après brossage biliaire en association au brossage biliaire par CPRE dans le diagnostic des sténoses biliaires malignes</t>
+        </is>
+      </c>
+      <c r="M87" s="3" t="inlineStr">
+        <is>
+          <t>Hepatocellular Carcinoma | Pancreatic Ductal Carcinoma | Liver Cancer | Pancreatic Cancer | lysine methylation | Cholangiocarcinoma</t>
+        </is>
+      </c>
+    </row>
+    <row r="88" ht="80" customHeight="1" s="4">
+      <c r="B88" s="3" t="inlineStr">
+        <is>
+          <t>Solange Desagher</t>
+        </is>
+      </c>
+      <c r="C88" s="3" t="inlineStr">
+        <is>
+          <t>Solange-Desagher</t>
+        </is>
+      </c>
+      <c r="D88" s="3" t="inlineStr">
+        <is>
+          <t>French National Centre for Scientific Research</t>
+        </is>
+      </c>
+      <c r="E88" s="3" t="n">
+        <v>6885</v>
+      </c>
+      <c r="F88" s="3" t="n">
+        <v>7961</v>
+      </c>
+      <c r="G88" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="H88" s="3" t="inlineStr">
+        <is>
+          <t>Laurent-Fagni | Herve-Lerat | Olivier-Meurette | Magda-Magiera | Ian-Robbins-2 | Jean-Luc-Poyet | Patrick-Legembre | Manuel-Vazquez-Carrera | Christian-Larroque | Muriel-Priault | Sahil-Adriouch | Bernard-Mignotte | Annie-Andrieux | Joel-Bockaert | Bruno-Antonsson | Suzanne-Lesage-2 | Bertrand-Mollereau | Max-Holzer | Alexis-Brice | Abdel-Aouacheria | Delphine-Haouzi | Laurence-Dubrez | Jean-Christophe-Deloulme | Philippe-Marin-4 | Jozef-Bossowski | Sand-Astrid | Olivier-Micheau | Laurent-Prezeau | Sylvie-Montessuit | Olivier-Manzoni | Meenakshi-Basu-Shrivastava | Urszula-Hibner | Olivier-Disson | Barbara-Mojsa-2 | Irina-Lassot | Nicole-Bec | Guillaume-Bossis | Alexey-Lipkin-11896172 | Jacques-Glowinski-2121273399 | Stephan-Mora-2162673468 | Jonathan-Ham-37973545 | J-Premont-38159955 | Martine-Tence-38495521 | Jean-Claude-Martinou-38990241 | Robert-Eskes-39028031 | Laurent-Journot-39221217 | Marion-Maus-39765075 | Mark-Kristiansen-40053757 | J-Glowinski-63611375</t>
+        </is>
+      </c>
+      <c r="I88" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="J88" s="3" t="inlineStr">
+        <is>
+          <t>Guillaume Bossis | Ian Robbins | Alexandre Reymond | Vishva Dixit | Lisa M Ellerby | Stefano Cairo | Joseph Opferman | Joël Bockaert | Stephen W G Tait | Don Newmeyer | Bruno Antonsson | Bertrand Mollereau | Douglas R Green | Abdel Aouacheria | Ruth M Kluck | Stéphen Manon | Jozef Piotr Bossowski | Helena L A Vieira | Philippe Juin | Jérôme Kucharczak | Isabel Marzo | Marco J Herold | Catherine Brenner | Imawati Budihardjo | Shigemi Matsuyama | Sylvie Montessuit | Luisa Napolitano | Jonathan Whitfield | Oliver Kepp | Jean-Philippe Pin | Kevin Aaron Roth | Santosh R. D'Mello | Guido Kroemer | Atan Gross | David Devos | Barbara Mojsa | Zhengqin Xie | Andreas Strasser | Rita Rahmeh | Fanny Jaudon | Xiao-Ming Yin | Laurent Vanhille | Rémy Sadoul | Irina Lassot | Curt Milliman | Jean-Ehrland Ricci | Anthony Nichols | Magda Magiera | Andrea Ballabio | Sand Astrid</t>
+        </is>
+      </c>
+      <c r="K88" s="3" t="n">
+        <v>41</v>
+      </c>
+      <c r="L88" s="3" t="inlineStr">
+        <is>
+          <t>Keeping Cell Death Alive: An Introduction into the French Cell Death Research Network | Trim39 regulates neuronal apoptosis by acting as a SUMO-targeted E3 ubiquitin-ligase for the transcription factor NFATc3 | Cellular Function of TRIM E3 Ubiquitin Ligases in Health and Disease | To Ubiquitinate or Not to Ubiquitinate: TRIM17 in Cell Life and Death | Trim39 regulates neuronal apoptosis by acting as a SUMO-targeted E3 ubiquitin-ligase for the transcription factor NFATc3 | The E3 Ubiquitin Ligases TRIM17 and TRIM41 Modulate α-Synuclein Expression by Regulating ZSCAN21 | supp Lionnard et al 2018 | TRIM17 and TRIM28 antagonistically regulate the ubiquitination and anti-apoptotic activity of BCL2A1 | GNIP1 E3 ubiquitin ligase is a novel player in regulating glycogen metabolism in skeletal muscle | Executioners of Cell Death | Solange Desagher and Jean-Claude Martinou: Executioners of Cell Death | Control of neuronal apoptosis by reciprocal regulation of NFATc3 and Trim17 | Mcl-1 Ubiquitination: Unique Regulation of an Essential Survival Protein | Nitric Oxide-Induced blockade of NMDA receptors [Neuron 8 (1992) 653-662] | Trim17-mediated ubiquitination and degradation of Mcl-1 initiate apoptosis in neurons | Trim17, novel E3 ubiquitin-ligase, initiates neuronal apoptosis | NF-Y is essential for expression of the proapoptotic gene in sympathetic neurons | A Family of Protein-Deglutamylating Enzymes Associated with Neurodegeneration | Supplementary Material 1 | Supplementary Material 4 | Supplementary Material 2 | Supplementary Material 3 | Regulation de l'apoptose par le systeme ubiquitine-protéasome | Calpain Activation by Hepatitis C Virus Proteins Inhibits the Extrinsic Apoptotic Signaling Pathway | Genes Regulated in Neurons Undergoing Transcription-dependent Apoptosis Belong to Signaling Pathways Rather than the Apoptotic Machinery | Impaired Clearance of Virus-Infected Hepatocytes in Transgenic Mice Expressing the Hepatitis C Virus Polyprotein | Phosphorylation of Bid by Casein Kinases I and II Regulates Its Cleavage by Caspase 8 | Desagher S &amp; Martinou JC. Mitochondria as the central control point of apoptosis. Trends Cell Biol10: 369-377 10.1016/S0962-8924(00)01803-1 | Cytochrome c release from mitochondria: All or nothing | Bid Induces the Oligomerization and Insertion of Bax into the Outer Mitochondrial Membrane | The Release of Cytochrome c from Mitochondria during Apoptosis of NGF-deprived Sympathetic Neurons Is a Reversible Event | Bid-induced Conformational Change of Bax Is Responsible for Mitochondrial Cytochrome c Release during Apoptosis | Desagher S, Glowinski J, Premont JPyruvate protects neurons against hydrogen peroxide-induced toxicity. J Neurosci 17:9060-9067 | Piruvate protects neurons hydrogen peroxide-induced toxicity | Interleukin-1 Enhances the ATP-Evoked Release of Arachidonic Acid from Mouse Astrocytes | Endothelin Stimulates Phospholipase D in Striatal Astrocytes | Astrocytes protect neurons from hydrogen peroxide toxicity | Nicotine protects cultured striatal neurons against N-methyl-D-aspartate receptor-mediated toxicity | Nicotine: A new neuroprotective agent? | Nitric oxide-induced blockade of NMDA Receptors | Sodium nitroprusside blocks NMDA receptors via formation of ferrocyanide ions</t>
+        </is>
+      </c>
+      <c r="M88" s="3" t="inlineStr">
+        <is>
+          <t>Apoptosis | Cell Death | Ubiquitination | Signaling Pathways | Proteasome | Cell Biology | Molecular Biology | Mitochondria | Neuron | Kinase</t>
+        </is>
+      </c>
+    </row>
+    <row r="89" ht="80" customHeight="1" s="4">
+      <c r="B89" s="3" t="inlineStr">
+        <is>
+          <t>Joel Belmin</t>
+        </is>
+      </c>
+      <c r="C89" s="3" t="inlineStr">
+        <is>
+          <t>Joel-Belmin</t>
+        </is>
+      </c>
+      <c r="E89" s="3" t="n">
+        <v>32036</v>
+      </c>
+      <c r="F89" s="3" t="n">
+        <v>5032</v>
+      </c>
+      <c r="G89" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="H89" s="3" t="inlineStr">
+        <is>
+          <t>Mosnier-Isabelle | Bosson-Jean-Luc | Florence-Pasquier | Paul-Valensi | Eric-Truy | Pascal-Barone | Muriel-Rainfray | Jean-Jacques-Hauw | Stephane-Roman | Jean-Clement | Pascal-Couturier | Diane-Lazard | Cyril-Hazif-Thomas | Mathieu-Marx | Alain-Tedgui | Sylvie_Pariel | Pierre-Olivier-Lang | Gilles-Berrut | Elena-Paillaud | Carmelo-Lafuente-Lafuente | Patrick-Friocourt | Robert-Moulias | Smahane-Medjahed-2 | Jean-Pierre-Michel | Jean-Louis-Golmard | M-T-Barrellier | Renaud-Pequignot-2 | Francois-Piette-2006089794 | S-Pariel-2013690274 | Sophie-Chauvelier-2046770528 | C-Oasi-2066688856 | A-Bruhat-2069597829 | Olivier-Hanon-2074429988 | Witold-Jarzebowski-2083138523 | P-Folio-2089007253 | Sandrine-Andrieu-38146613 | Jacques-Boddaert-38615237 | M-Salahshour-39135094 | B-Vellas-39312622 | Cecile-Konrat-39679689 | Caroline-Geoffre-39698898 | F-Nourhashemi-39726591 | B-Godey-39851781 | N-Bojic-39877456 | Marc-Verny-39931082 | Caroline-Bussy-43320822 | Philippe-Le-Roux-48726654 | C-Trivalle-61213131 | J-Sibony-Prat-7858759</t>
+        </is>
+      </c>
+      <c r="I89" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="J89" s="3" t="inlineStr">
+        <is>
+          <t>Ph Scheltens | Keith A A Fox | Emelia Benjamin | Lars Wallentin | Paulus Kirchhof | Elaine M Hylek | John Camm | Günter Breithardt | Isabelle C Van Gelder | S. Bertil Olsson | Jean-Yves Le Heuzey | Jonas Oldgren | Martha J Radford | Alain Tedgui | Freek W A Verheugt | Alexander Parkhomenko | Dan Atar | Timo Erkinjuntti | Antonio G Hermosillo | Petr Janský | Lori E Henault | Christian Torp-Pedersen | John W Gnann | Alexander (Ander) Thomas Cohen | Andrzej Budaj | Raffaele De Caterina | jean-pierre Michel | Basil S Lewis | Isabelle Gouin | John Eikelboom | Elliott M Antman | Daniel Levy | Michael D Ezekowitz | Panos Vardas | Jun Zhu | Piotr Ponikowski | John J V Mcmurray | Sharon k. Inouye | Daniel E. Singer | Bruno Dubois | Bosson jean luc | Adam Torbicki | Harry Crijns | Paul R McHugh | Rafael Alejo Díaz | Marco Alings | Sallena Yusuf | Jonathan Halperin | Robert W Johnson | Stuart Connolly</t>
+        </is>
+      </c>
+      <c r="K89" s="3" t="n">
+        <v>341</v>
+      </c>
+      <c r="L89" s="3" t="inlineStr">
+        <is>
+          <t>Maladie de Parkinson à début tardif | Healthy aging in elderly cochlear implant recipients: A multinational observational study | Insufficienza cardiaca della persona anziana | Insuficiencia cardíaca en la persona anciana | Éducation thérapeutique des aidants familiaux de patients atteints de maladie d’Alzheimer ou de maladies apparentées : expérience au sein d’un hôpital gériatrique | Recommandations de la SFORL (version courte) sur l’indication de l’implant cochléaire chez l’enfant | Recommandations de la SFORL. Indication de l’implant cochléaire chez l’adulte | Guidelines (short version) of the French Society of Otorhinolaryngology (SFORL) on pediatric cochlear implant indications | French Society of ENT (SFORL) guidelines. Indications for cochlear implantation in adults | L’insuffisance cardiaque du sujet âgé, un défi pour le système de santé et un modèle pour la prise en charge des maladies chroniques | Knowledge and use of evidence-based medicine in daily practice by health professionals: A cross-sectional survey | Hypotensions du sujet âgé : aspects cliniques et thérapeutiques | Les traitements anticoagulants oraux chez les personnes âgées : faut-il encore prescrire des antivitamines K ? | Manual Dexterity and Aging: A Pilot Study Disentangling Sensorimotor From Cognitive Decline | Effects of standardized musical intervention on refusal of care and aggression during toileting in people with institutionalized neurocognitive disorders | Long-Term Cognitive Prognosis of Profoundly Deaf Older Adults After Hearing Rehabilitation Using Cochlear Implants: Cognitive prognosis after hearing rehabilitation | Le déremboursement des médicaments de la maladie d’Alzheimer ou la double peine pour les malades et leurs aidants | Plasma amyloid levels within the Alzheimer's process and correlations with central biomarkers | Fibrilación auricular en el anciano | The Confusion Assessment Method: Transcultural adaptation of a French version | Predisposing and precipitating factors for delirium in community-dwelling older adults admitted to hospital with this condition: A prospective case series | Plasma amyloid levels within the Alzheimer's process and correlations with central biomarkers | Les auteurs | Développement auditif, plasticité cérébrale, pathologie de privation et réhabilitation | Validation of the Greek translation of the Cognitive Disorders Examination (Codex) for the detection of dementia in primary care | Bleeding risk of antiplatelet drugs compared with oral anticoagulants in older patients with atrial fibrillation: A systematic review and meta-analysis | Repetitive transcranial magnetic stimulation: A potential therapy for cognitive disorders? | Patient journey in decompensated heart failure: An analysis in departments of cardiology and geriatrics in the Greater Paris University Hospitals | La stimulation magnétique transcrânienne répétée : une piste thérapeutique pour les maladies neurocognitives ? | Utilisation des anticoagulants chez les patients âgés atteints de fibrillation atriale dans un service de cardiogériatrie | Anticoagulation use in older patients with atrial fibrillation in a cardio-geriatric unit | [Drug treatment of agitation in emergency departments: The case of elderly persons. Letter to the article: "Drug management of agitation in emergency departments: Theoretical recommendations and studies of practices"] | Zoster and postherpetic neuralgia: vaccine prevention is available | Interleukin-10 Production in Response to Amyloid-β Differs between Slow and Fast Decliners in Patients with Alzheimer’s Disease | Leukocyte Telomere Length in Alzheimer’s Disease Patients with a Different Rate of Progression | Révision critique des prescriptions médicamenteuses par une collaboration médecin-pharmacien chez le sujet âgé hospitalisé : l’absence d’indication est la cible principale | Wrist Actigraphy: A Simple Way to Record Motor Activity in Elderly Patients with Dementia and Apathy or Aberrant Motor Behavior | Le Zona du sujet âgé | Les spécificités de l’éducation thérapeutique en gériatrie | Validation of the Test Your Memory (F-TYM Test) in a French Memory Clinic Population | Management of acute respiratori; infections in nursing homes | University trainings in geriatric medicine/gerontology in France: Situation in 2013 and outlooks | Delirium in older people after proximal femoral fracture repair: Role of a preoperative screening cognitive test | Expert consensus of the French society of geriatrics and gerontology and the French society of cardiology on the management of atrial fibrillation in elderly people | Expert consensus of the French Society of Geriatrics and Gerontology and the French Society of Cardiology on the management of atrial fibrillation in elderly people | Anticoagulation du sujet âgé : nouveautés thérapeutiques | Quelle prévention vaccinale et cardiovasculaire peut-on conseiller aux sujets âgés ? | Prescription des médicaments chez les personnes âgées : des améliorations sont nécessaires | L’éducation thérapeutique en gériatrie : quelles spécificités ? | Transport des protéines plasmatiques à travers la paroi arterielle et athérogenèse | Le vieillissement de la paroi artérielle | [Prescribing drugs in the elderly: Improvements are necessary.] | [Patient education in geriatrics: Which specificities?] | [Which vaccination and cardiovascular prevention in elderly?] | [Anticoagulation of older patients: What is new?] | Consensus d'experts de la Société française de gériatrie et gérontologie et de la Société française de cardiologie, sur la prise en charge de la fibrillation atriale du sujet âgé. [Expert consensus of the French society of geriatrics and gerontology and the French society of cardiology on the management of atrial fibrillation in elderly people.] | Comparison between the Three Most Popular Formulae to Estimate Renal Function, in Subjects 75 Years of Age or Older | Insulin-Like Growth Factor-I and Insulin-Like Growth Factor Binding Protein-3 in Alzheimer's Disease | Les nouveaux anticoagulants oraux | L’immunothérapie dans la maladie d’Alzheimer : le point en 2012 | Assessment and management of patients with cognitive impairment and dementia in primary care | Antiarrhythmics for maintaining sinus rhythm after cardioversion of atrial fibrillation | Pathy's Principles and Practice of Geriatric Medicine, Volume 1 &amp; 2, Fifth Edition | Pneumonia | La paralysie supranucléaire progressive : un diagnostic méconnu en gériatrie | Consensus d'experts de la Société Française de Gériatrie et Gérontologie (SFGG) et de la Société Française de Cardiologie (SFC) sur la prise en charge de la maladie coronaire chez le sujet âgé | Additional file 1 | Masitinib as an adjunct therapy for mild-to-moderate Alzheimer's disease: A randomised, placebo-controlled phase 2 trial | EHT0202 in Alzheimer's Disease: a 3-Month, Randomized, Placebo- Controlled, Double-Blind Study | French healthcare workers in geriatric healthcare settings staunchly opposed to influenza vaccination: The VESTA study | How to manage recurrent falls in clinical practice: Guidelines of the French society of geriatrics and gerontology | How to manage recurrent falls in clinical practice: Guidelines of the French Society of Geriatrics and Gerontology | What's new in geriatrics in 2010? | Herpes zoster-related pain in aged individuals: How to manage it safely | A global prescription for adult immunization: Time is catching up with us | Letter on the article "Plasma creatinine, Cockcroft and MDRD: Validity and limitations for evaluation of renal function in chronic kidney disease" | Revisiter la dépression gériatrique | 289 Improving safety of patient treated by vitamin K antagonists in geriatrics | Therapeutic education for caregivers of patients suffering from Alzheimer's disease | Rapid detection of cognitive dysfunction by nurses using CODEX is concordant to that done by physicians. | Estimation of renal function in older hospital patients comparison of 3 formulae: Cockcroft-Gault and Modification of Diet in Renal Disease formulae with 4 or 6 variables. | RESPONSE LETTER TO DRS. LAGRO AND CLAASSEN | Vaccination in older adults: Development of an educational tool, Vaxisenior, in France | The vertebroplasty in osteoporotic vertebral fractures of the elderly | Effect of Personalization of Private Spaces in Special Care Units on Institutionalized Elderly with Dementia of the Alzheimer Type. | Late onset primary achalasia in an old subject: A case report | Éducation thérapeutique des aidants familiaux de patients atteints de maladie d'Alzheimer ou de maladies apparentées | [Cardiovascular agents in the elderly: main rules to optimize their use] | Prevention of coronary heart disease and heart failure in the elderly | Improving the Vaccination Coverage of Geriatric Populations | Consensus of the French Society of Gerontology and Geriatrics and the French Society of Cardiology for the management of coronary artery disease in older adults | STOPP-START: Adaptation in the French language of a tool for monitoring inappropriate medical prescriptions in the elderly | Assessment of healthcare worker influenza vaccination program in French geriatric wards: A cluster-randomized controlled trial | STOPP-START: Adaptation of a French language screening tool for detecting inappropriate prescriptions in older people | Effect of Influenza Vaccination of Nursing Home Staff on Mortality of Residents: A Cluster‐Randomized Trial | Renal Function in Older Hospital Patients Is More Accurately Estimated Using the Cockcroft-Gault Formula Than the Modification Diet in Renal Disease Formula | Which patients benefit the most from a geriatrican's care? Defining geriatrics to force coalition and gain leverage | Educational vaccine tools: The French initiative | Mild Alzheimer’s disease: A «Position Paper» | Zona des sujets âgés</t>
+        </is>
+      </c>
+      <c r="M89" s="3" t="inlineStr">
+        <is>
+          <t>Alzheimer's Disease | Gerontology</t>
+        </is>
+      </c>
+    </row>
+    <row r="90" ht="80" customHeight="1" s="4">
+      <c r="B90" s="3" t="inlineStr">
+        <is>
+          <t>S. Chiheb</t>
+        </is>
+      </c>
+      <c r="C90" s="3" t="inlineStr">
+        <is>
+          <t>S-Chiheb</t>
+        </is>
+      </c>
+      <c r="D90" s="3" t="inlineStr">
+        <is>
+          <t>Hôpital Jean-Verdier –  Hôpitaux Universitaires Paris-Seine-Saint-Denis</t>
+        </is>
+      </c>
+      <c r="E90" s="3" t="n">
+        <v>5208</v>
+      </c>
+      <c r="F90" s="3" t="n">
+        <v>368</v>
+      </c>
+      <c r="G90" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="H90" s="3" t="inlineStr">
+        <is>
+          <t>Massika-Brahimi | Bruno-Verges | Marianne-Ziol | Michel-Marre | Isabela-Banu | Paul-Valensi | Elodie_Bousquet | Camille-Cussac-Pillegand | Qinda-Chen | Christophe-Barrat | Serge-Halimi | Eli-Hamo | Eric-Renard | Jean-Blickle | Isabelle-Pham | Corinne-Vons | Hubert-Dabire | Emmanuel-Cosson-2 | Bernard-Canaud | Helene-Leray-Moragues | Marinos-Fysekidis | Noori-Assad | Annick-Fontbonne-2 | Monique_Chambouleyron | Marinos-Fysekidis-3 | Nada-Helmy-2 | Minh-Nguyen-57 | B-Merioud | Amel-Rezki | I-Banu | S-Bathaei-2075022269 | Lucio-Bianchi-2108219476 | Francoise-Gary-2129704260 | Lionel-Carbillon-38198362 | L-Bordier-38341760 | A-Golay-38352210 | Nathalie-Charnaux-38357266 | B-Lormeau-38402939 | B-Bauduceau-38557681 | B-Vialettes-38588537 | Ronan-Roussel-38823602 | A-Grimaldi-39189524 | I-Pharisien-39311835 | O-Dupuy-39808735 | Florence-Galtier-40019964 | B-Chanu-58554498 | D-Sandre-Banon-5859979 | C-Pillegand-71420228 | K-Takbou-75176326</t>
+        </is>
+      </c>
+      <c r="I90" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="J90" s="3" t="inlineStr">
+        <is>
+          <t>Noel Barengo | Jaakko Tuomilehto | Robert J Heine | Aila Rissanen | Paul Valensi | Jonathan Shaw | Solomon Tesfaye | Mark C S Hall | Margalit (Margita) Goldfracht | Matti I J Uusitupa | Peter Egbert Hermann Schwarz | Markku Laakso | Eugene Sobngwi | George Alberti | Viswanathan Mohan | Victoria Telle Hjellset | Tsvetalina Tankova | Isabelle Pham | Emmanuel Cosson | Clinton H Joiner | Amélie Benbara | Robert M Cohen | Stavros Liatis | Konstantinos Makrilakis | Aleksandra Gilis-Januszewska | Anne Neumann | Eveline Eschwege | Timo Saaristo | Markku Peltonen | Jaana Lindström | Beverley Balkau | T-Y Wong | Decio L Eizirik | Eric P Smith | Minh Tuan Nguyen | Nils Welsh | I. Banu | Knut Borch-Johnsen | Mayer Davidson | Guido Grassi | Stephen Colagiuri | Martin Adler | Carel W Le Roux | Hertzel Gerstein | Pierre Boutouyrie | Christopher Lindsell | Michael Roden | Eli Hamo | Qing Qiao | Peter Kronsbein</t>
+        </is>
+      </c>
+      <c r="K90" s="3" t="n">
+        <v>110</v>
+      </c>
+      <c r="L90" s="3" t="inlineStr">
+        <is>
+          <t>Collaborateurs de la présente édition | Collaborateurs de la précédente édition | Neuropathie diabétique | Gradual increase in advanced glycation end-products from no diabetes to early and regular gestational diabetes: A case-control study | Intérêt d’une stratégie en deux étapes intégrant le score Findrisk et les dosages de la glycémie à jeun et de l’HbA 1c pour le dépistage des anomalies glycémiques chez les obèses | La respiration lente peut-elle révéler le syndrome d’apnées du sommeil chez les patients diabétiques de type 2 ou obèses ? | Recherche d’une dysglycémie en post-partum après un diabète gestationnel : cruciale mais encore insuffisamment réalisée | Modifications de l’activité sympatho-vagale et du syndrome d’apnées obstructives du sommeil après chirurgie bariatrique | La mesure de la rigidité artérielle permet de repérer les patients diabétiques de type 2 ou obèses ayant une fibrose hépatique | Effets de la prise en charge nutritionnelle des femmes obèses infertiles | Le diabète gestationnel précoce correspond-il à une dysglycémie méconnue avant la grossesse : argumentation à partir des marqueurs métaboliques au moment de la prise en charge | Mauvaise fiabilité de l’auto-surveillance glycémique dans le diabète gestationnel : constat et conséquences pronostiques | Influence de la dysfonction autonome cardiaque et de la rigidité artérielle sur la viabilité myocardique sous-endocardique chez les diabétiques de type 2 | Rôle de la variabilité glycémique dans l’altération de la fonction endothéliale microcirculatoire et l’élévation de la pression artérielle chez les patients intolérants au glucose ou diabétiques de type 2 | Auto-surveillance glycémique chez les femmes présentant un diabète gestationnel. Jusqu’à quel point peut-on se fier au carnet ? | Role of glycemic variability and lipids in the changes in cutaneous microcirculatory blood flow in patients with impaired glucose tolerance or type 2 diabetes | Influence of cardiac autonomic dysfunction and arterial stiffness on subendocardial myocardial viability in patients with type 2 diabetes | Neuropathie périphérique carentielle et encéphalopathie de Gayet-Wernicke après chirurgie bariatrique restrictive | Are Obese Individuals with no Feature of Metabolic Syndrome but Increased Waist Circumference Really Healthy? A Cross Sectional Study | CA-179: Forte prévalence de la stéatose hépatique non alcoolique chez les obèses métaboliquement sains. Rôle d'une hyperactivité sympathique | CA-189: Influence de l'activité vago-sympathique sur la fréquence cardiaque et la réponse insulinique à la charge orale en glucose chez les obèses métaboliquement sains | CA-037: Chez l'obèse, l'intolérance au glucose s'accompagne d'une hyperkinésie cardiaque. Rôle de l'hyperactivité sympathique | CO-59: Rôle de la variabilité glycémique dans l'altération du flux sanguin microcirculatoire chez les patients diabétiques et intolérants au glucose | CA-097: Jusqu'à quel point peut-on se fier au carnet d'auto-surveillance glycémique des femmes présentant un diabète gestationnel ? | CA-050: Variabilité glycémique et hyperkinésie cardiaque chez les obèses intolérants au glucose. Rôle de l'activité sympathique | Fetal gender is not associated with either gestational diabetes mellitus or placental weight: A cohort study | P4-28: Increase in cardiac output in obese patients with impaired glucose tolerance. Role of autonomic function | Arterial stiffness is elevated in normotensive type 2 diabetic patients with peripheral neuropathy | Cardio-vascular changes associated with impaired as compared with normal glucose tolerance in obese patients. Role of sympathetic activity | In massively obese patients with a metabolically healthy phenotype the prevalence of non alcoholic fatty liver disease is high and associated with sympathetic overactivity | Pregnancy adverse outcomes related to pregravid body mass index and gestational weight gain, according to the presence or not of gestational diabetes mellitus: A retrospective observational study | P273 Évolution pondérale et des besoins en insuline chez des diabétiques de type 1 après chirurgie bariatrique | P257 Chez les obèses métaboliquement sains, une faible activité parasympathique est associée à un défaut d’insulinosécrétion mais à une meilleure oxydation des lipides | P275 Évolution des glycémies et insulinémies et hypoglycémie réactionnelle après chirurgie bariatrique | P256 Prévalence de la NAFLD (Non Alcoholic Fatty Liver Disease)/ NASH (Non Alcoholic Steato-Hepatitis) chez les obèses métaboliquement sains | P199 Chez les patients obèses morbides la NAFLD (Non alcoholic fatty liver disease) est associée à un profil métabolique marqué et à une hyperactivité sympathique | PO24 Rôle de l’activité parasympathique dans la sécrétion d’insuline chez les obèses métaboliquement sains | P255 Augmentation plus marquée du débit cardiaque en cas d’intolérance au glucose chez l’obèse : rôle de l’hyperactivité sympathique | P215 Glycation excessive de l’hémoglobine et variabilité glycémique chez l’obèse sans dysglycémie connue | PO30 Relation entre élasticité hépatique et rigidité artérielle chez les patients diabétiques de type 2 avec ou sans hypertension artérielle | LAPAROSCOPIC BARIATRIC SURGERY IN ELDERLY OBESE PATIENTS: TO DO OR NOT TO DO? | P261 Association de la dysautonomie cardiaque et du syndrome d’apnées obstructives du sommeil (SAOS) chez les patients obèses non diabétiques et leur retentissement sur la masse ventriculaire gauche | P212 L’oxydation mitochondriale hépatique des acides gras est altérée chez des patients obèses morbides ayant une stéatohépatite non alcoolique | P266 Rôle de la conservation d’une bonne activité parasympathique dans le maintien de l’insulinosécrétion chez l’obèse indemne de syndrome métabolique | P267 Des obèses pas si « métaboliquement sains » | P97 Forte prévalence des dysglycémies méconnues et glycation de l’hémoglobine chez les obèses hypertendus | P40 Prise de poids pendant la grossesse chez des femmes sans diabète gestationnel selon l’IMC prégravidique. Quel optimum pour la croissance fœtale ? | P44 Grossesse chez les femmes maigres. Quels sont les risques ? | New perspectives in bariatric surgery? | Insulin- and glucagon-like peptide-1-induced changes in heart rate and vagosympathetic activity: Why they matter | O19 Elasticité hépatique et rigidité artérielle sont étroitement associées chez les patients diabétiques de type 2 ou en surpoids ou obèses sans traitement anti-hypertenseur | P2145 Contribution post-prandiale à l’hyperglycémie et à la variabilité glycémique chez des patients obèses sans diabète connu | Un stress cardiométabolique inhabituel | P1062 Forte prévalence de la fibrose hépatique dans une cohorte de patients présentant un syndrome métabolique | PO42 Augmentation de la perfusion cutanée et amélioration de la fonction endothéliale après 4 semaines d’insulinothérapie chez des diabétiques de type 2 (DT2) mal équilibrés sous traitement oral | P2150 La susceptibilité à la glycation est-elle impliquée dans les complications des patients en surpoids ou obèses sans diabète connu ? | P2152 La présence d’apnées du sommeil ou d’anomalies glycémiques s’oppose à la régression de la masse ventriculaire gauche après chirurgie bariatrique | Glycation Gap Is Associated With Macroproteinuria but Not With Other Complications in Patients With Type 2 Diabetes | Left Ventricular Hypertrophy in Obesity and Regression After Bariatric Surgery. Influence of Prediabetes | 096: Diabetic cardiomyopathy: data from a series of 656 asymptomatic diabetic patients with known cardiac ischemic status | Haemoglobin glycation may partly explain the discordance between HbA1c measurement and oral glucose tolerance test to diagnose dysglycaemia in overweight/obese subjects | Association between glycation gap and macroproteinuria in type 2 diabetic patients | De larges biopsies hépatiques réalisées chez les patients obèses morbides opérés permettent l’étude des flux du métabolisme lipidique dans le foie : étude pilote | Métyrozine et embolisation avant l’exérèse d’un volumineux paragangliome fonctionnel extrasurrénalien sous péridurale thoracique peropératoire | O61 Quels profils métaboliques permettent de caractériser la charge en glucose et le taux d’HbA1c lorsque la glycémie à jeun est normale ? | O5 Même à l’ère du traitement multifactoriel optimisé, l’ischémie myocardique et la maladie coronaire silencieuses prédisent les événements cardiovasculaires chez les diabétiques de type 2 à risque. | P49 Neuropathie périphérique et rigidité artérielle chez les diabétiques de type 2. | P29 La cardiomyopathie diabétique existe-t-elle ? Données à partir d’une série de 656 patients asymptomatiques. | P239 Relation entre « glycation gap » et rigidité artérielle chez les patients en surpoids ou obèses sans diabète connu. | PO23 Relation entre glycation gap et macroprotéinurie chez les diabétiques de type 2. | P271 Déterminants des altérations structurelles et fonctionnelles du myocarde chez l’obèse | Even in the era of optimized multifactorial treatment, myocardial ischemia and silent coronary disease predict cardiovascular events in type 2 diabetic patients at risk | Relationship between gap glycation and macroproteinuria in type 2 diabetics | RMN quantification of muscular perfusion and mitochondrial oxydative function in type 2 diabetic patients according to their microangiopathic complications | Peripheral neuropathy and arterial stiffness in type 2 diabetics | Does the cardiomyopathy diabetic exist? Data from a series of 656 asymptomatic patients | Use of clinical scores to detect dysglycaemia in overweight or obese women | Cardiovascular Risk Prediction Is Improved by Adding Asymptomatic Coronary Status to Routine Risk Assessment in Type 2 Diabetic Patients | What would be the outcome if the American Diabetes Association recommendations of 2010 had been followed in our pratice in 1998-2006? | P275 - Enregistrement glycémique continu chez des diabétiques de type 2 pendant le Ramadan Les hypoglycémies restent sous-estimées ! | P227 - La rigidité artérielle est associée aux complications microangiopathiques chez les diabétiques de type 2 | O63 Le fatty liver index, un index de stéatose hépatique, prédit l’existence d’une dysglycémie dans une population à risque | P44 - La dyslipidémie athérogène est associée à un risque élevé de sténoses coronaires silencieuses | O43 Quantification par RMN de la perfusion musculaire et de la fonction oxydative mitochondriale chez des patients diabétiques de type 2 selon leurs complications microangiopathiques | O71 Influence de la durée de la diastole sur la viabilité myocardique sous-endocardique chez les diabétiques de type 2 et les obèses | P23 - Influence de la dysfonction autonome cardiaque sur la durée de la diastole cardiaque chez les diabétiques de type 2 et les obèses | P36 - Rôle de l’ischémie et de la neuropathie autonome cardiaque dans les altérations de la fonction myocardique chez les patients diabétiques asymptomatiques | PO13 - La fructosamine et l’HbA1c comme critère diagnostique de dysglycémie ? Étude rétrospective dans une population à risque ayant eu une charge orale en glucose | The fatty liver index, an index of hepatic steatosis, predicts the existance of a dysglycemia in a population at risk | Fructosamine and the HbA1c as a diagnostic criterion dysglycemia? Retrospective study in a population at risk who underwent oral glucose load | Influence of duration of diastole on subendocardial myocardial viability in type 2 diabetic and obese | Influence of cardiac autonomic dysfunction on the duration of the diastolic heart failure in type 2 diabetics and the obese | Role of ischemia and cardiac autonomic neuropathy in the alterations of myocardial function in asymptomatic diabetic patients | Atherogenic dyslipidemia is associated with an increased risk of coronary stenoses stereo silent | Neuropathie diabétique | Liste des collaborateurs | Diagnosis of abnormal glucose levels in patients at high risk for the development of diabetes: A comparison of the oral glucose tolerance test and measurement of HbA(1c) following the American Diabetes Association recommendations 2010 | A large proportion of prediabetes and diabetes goes undiagnosed when only fasting plasma glucose and/or HbA1c are measured in overweight or obese patients | P276 Rôle d’une dysfonction autonome cardiaque dans l’insulinorésistance et l’élévation tensionnelle chez les obèses | P46 Il existe un continuum de risque cardiovasculaire a priori chez les patients obèses sans diabète connu selon les résultats de la charge orale en glucose</t>
+        </is>
+      </c>
+      <c r="M90" s="3" t="inlineStr">
+        <is>
+          <t>Diabetes | Metabolism | Metabolic Diseases | Nutrition | Metabolic Endocrinology</t>
+        </is>
+      </c>
+    </row>
+    <row r="91" ht="80" customHeight="1" s="4">
+      <c r="B91" s="3" t="inlineStr">
+        <is>
+          <t>Juyong Brian Kim</t>
+        </is>
+      </c>
+      <c r="C91" s="3" t="inlineStr">
+        <is>
+          <t>Juyong-Kim</t>
+        </is>
+      </c>
+      <c r="D91" s="3" t="inlineStr">
+        <is>
+          <t>Stanford University</t>
+        </is>
+      </c>
+      <c r="E91" s="3" t="n">
+        <v>5788</v>
+      </c>
+      <c r="F91" s="3" t="n">
+        <v>1209</v>
+      </c>
+      <c r="G91" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="H91" s="3" t="inlineStr">
+        <is>
+          <t>Yukari-Kobayashi | Kegan-Moneghetti | Sammy-Elmariah | Samir-Kapadia-2 | Eva-Maret | Lars-Maegdefessel | Francois-Haddad | Jung-Min-Ahn-3 | David-Liang-3 | Duk-Woo-Park | Dharam-Kumbhani | Ulf-Hedin | Jae-Seung-Kim-2 | Trieu-Nguyen-16 | Clint-Miller-2 | Michael-Fischbein-2 | Martin-Willemink | Brian-Lindman | Tatiana-Kuznetsova-9 | Joseph-Wu-12 | Linda-Gillam | Quanyi-Zhao | Nishath-Quader-2 | Megan-Coylewright-14754086 | Daniel-A-Brenner-2023651329 | Michael-Fischbein-2075029069 | Ryan-OMalley-2082895094 | Tina-Wang-2088891253 | Olga-Sazonova-2088894266 | Mary-Prunicki-2107633342 | Do-Yoon-Kang-2107976652 | Anson-M-Lee-2121029735 | Boxiang-Liu-2127500832 | Dharini-Iyer-2127531859 | Robert-Wirka-2132746203 | Eric-P-Cantey-2137579605 | Manabu-Nagao-2148268634 | Paul-Cheng-2148269507 | Dominik-Fleischmann-2163852559 | Hyun-Jung-Kim-2211756008 | Milos-Pjanic-2245742255 | Ljubica-Perisic-31038573 | Alan-C-Yeung-38220681 | Ramendra-K-Kundu-38493112 | D-Craig-Miller-38854228 | William-F-Fearon-38923166 | Thomas-Quertermous-39219132 | Ingela-Schnittger-39505091 | Brian-Whisenant-71893579 | Takeshi-Nishi-84964271</t>
+        </is>
+      </c>
+      <c r="I91" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="J91" s="3" t="inlineStr">
+        <is>
+          <t>George Dedoussis | Eric Olson | Terho Lehtimäki | Christopher J O'Donnell | Michelle Tallquist | Alexandre Stewart | Johan Björkegren | Colin N A Palmer | Ulf de Faire | Thomas Meitinger | Alistair S Hall | Ruth Mcpherson | Anthony J Balmforth | Samir Kapadia | Gudmundur Thorgeirsson | Aldons J Lusis | Lars Maegdefessel | Michael J Mack | Christian Gieger | Vinod Thourani | Eric Schadt | Mohamad Navab | Ulf Hedin | Clint Miller | Karin Leander | Devin Absher | Jemma C Hopewell | Sylvia T Nurnberg | Winfried März | Themistocles Assimes | Abbas Dehghan | Daniel J Rader | Rebecca T Hahn | Inke König | Peter Braund | Stefan Schreiber | Christian Hengstenberg | Nicholas J. Leeper | Danish Saleheen | Andreas Ziegler | Willem Ouwehand | Ting Wang | Olle Melander | E Murat Tuzcu | Vilmundur Gudnason | Stavroula Kanoni | Robert Roberts | Stanley Hazen | Trieu Nguyen | Carlos Iribarren</t>
+        </is>
+      </c>
+      <c r="K91" s="3" t="n">
+        <v>126</v>
+      </c>
+      <c r="L91" s="3" t="inlineStr">
+        <is>
+          <t>Metabolic Signatures of Cardiac Dysfunction, Multimorbidity, and Post-Transcatheter Aortic Valve Implantation Death | Air Pollution, Built Environment, and Early Cardiovascular Disease | Reduced Pulmonary Artery Distensibility Predicts Persistent Pulmonary Hypertension and 2-Year Mortality in Patients with Severe Aortic Stenosis Undergoing TAVR | METABOLIC SIGNATURES OF CARDIAC DYSFUNCTION ARE ASSOCIATED WITH MULTIMORBIDITY AND POST-TRANSCATHETER AORTIC VALVE IMPLANTATION MORTALITY | Discovery of Transacting Long Noncoding RNAs That Regulate Smooth Muscle Cell Phenotype | Race-Specific Impact of Conventional Surgical Risk Score on 1-Year Mortality After Transcatheter Aortic Valve Replacement | Correction: Immune biomarkers link air pollution exposure to blood pressure in adolescents | TCT-512 Differential Prognostic Impact of Conventional Surgical Risk Score on One-Year Mortality After Transcatheter Aortic Valve Replacement Among Asian and Non-Asian Populations: Insights From the Multinational Multicenter TP-TAVR Registry | Dissecting the Genomics of Spontaneous Coronary Artery Dissection | Abstract 319: Electronic Cigarettes Activate The Heat Shock Response In Vascular Smooth Muscle In Atherosclerosis | Smad3 regulates smooth muscle cell fate and mediates adverse remodeling and calcification of the atherosclerotic plaque | Inter-racial differences in patients undergoing transcatheter aortic valve implantation | ZEB2 Shapes the Epigenetic Landscape of Atherosclerosis | Distance between valvular leaflet and coronary ostium predicting risk of coronary obstruction during TAVR | Abstract 9564: Zeb2 Shapes the Epigenetic Landscape of Atherosclerosis and Modulates the Risk of Myocardial Infarction | Racial Differences in the Incidence and Impact of Prosthesis-Patient Mismatch After Transcatheter Aortic Valve Replacement | BIOMARKERS OF CARDIAC DAMAGE AND STRETCH BUT NOT LEFT VENTRICULAR MASS ALONE IDENTIFY PATIENTS WITH A MALADAPTIVE RESPONSE TO AORTIC STENOSIS AT INCREASED RISK OF MORTALITY | CTA Pulmonary Artery Enlargement in Patients With Severe Aortic Stenosis: Prognostic Impact After TAVR | Immune biomarkers link air pollution exposure to blood pressure in adolescents | Smad3 Regulates Smooth Muscle Cell Fate and Governs Adverse Remodeling and Calcification of Atherosclerotic Plaque | Molecular mechanisms of coronary disease revealed using quantitative trait loci for TCF21 binding, chromatin accessibility, and chromosomal looping | The Environment-Sensing Aryl-Hydrocarbon Receptor Inhibits the Chondrogenic Fate of Modulated Smooth Muscle Cells in Atherosclerotic Lesions | Quantifying the Influence of Wedge Pressure, Age, and Heart Rate on the Systolic Thresholds for Detection of Pulmonary Hypertension | The environment-sensing aryl-hydrocarbon receptor inhibits the chondrogenic fate of modulated smooth muscle cells in atherosclerotic lesions | Cumulative Lifetime Burden of Cardiovascular Disease From Early Exposure to Air Pollution | Immunologic effects of forest fire exposure show increases in IL‐1β and CRP | Quantitative trait loci mapped for TCF21 binding, chromatin accessibility and chromosomal looping in coronary artery smooth muscle cells reveal molecular mechanisms of coronary disease loci | Spontaneous Coronary Artery Dissection and ST-Segment Elevation Myocardial Infarction in an Anomalous LAD Artery | Coronary Disease Associated Gene TCF21 Inhibits Smooth Muscle Cell Differentiation by Blocking the Myocardin-Serum Response Factor Pathway | Incremental Value of Aortomitral Continuity Calcification for Risk Assessment after Transcatheter Aortic Valve Replacement | LncRNA de novo discovery reveals noncoding RNAs as major molecular mechanism associating coronary artery disease GWAS variants with causal genes to confer disease risk | TCT-714 Aortic Lumen Area Modifies the Association Between Aortic Calcification and Mortality After Transcatheter Aortic Valve Replacement | Atheroprotective roles of smooth muscle cell phenotypic modulation and the TCF21 disease gene as revealed by single-cell analysis | Supplementary Material 1 | Supplementary Material 2 | Supplementary Material 4 | Supplementary Material 5 | Supplementary Material 3 | TCF21 and AP-1 interact through epigenetic modifications to regulate coronary artery disease gene expression | Cytokines profile of reverse cardiac remodeling following transcatheter aortic valve replacement | Coronary artery disease genes SMAD3 and TCF21 promote opposing interactive genetic programs that regulate smooth muscle cell differentiation and disease risk. American Society of Human Genetics 68th Annual Meeting | Coronary artery disease genes SMAD3 and TCF21 promote opposing interactive genetic programs that regulate smooth muscle cell differentiation and disease risk | S1 Table | S2 Table | S3 Table | S3 Fig | S1 Fig | S2 Fig | S4 Table | S5 Table | S4 Fig | Expanding transcatheter aortic valve replacement into uncharted indications | THE PROGNOSTIC VALUE OF COMPUTED TOMOGRAPHY FRAILTY MEASURES FOR PROLONGED HOSPITAL STAY AFTER TAVR IN 429 PATIENTS | INTEGRATING CORRELATION BASED NETWORKS INTO RISK PROGNOSTICATION OF CARDIOMYOPATHY | PREDICTING MORTALITY WITH AORTOMITRAL CALCIFICATIONS IN 317 TAVR PATIENTS | GDF-15 (Growth Differentiation Factor 15) Is Associated With Lack of Ventricular Recovery and Mortality After Transcatheter Aortic Valve Replacement | Moving Beyond Linear Formulas for Left Ventricular Mass in Aortic Valve Replacement | TCF21 and the environmental sensor aryl-hydrocarbon receptor cooperate to activate a pro-inflammatory gene expression program in coronary artery smooth muscle cells | S3 Table | S5 Table | S3 Fig | S5 Fig | S10 Fig | S12 Fig | S2 Table | S6 Table | S7 Table | S8 Table | S2 Fig | S4 Fig | S6 Fig | S8 Fig | S11 Fig | S1 Table | S4 Table | S9 Table | S1 Fig | S7 Fig | S9 Fig | S13 Fig | IDENTIFYING THE OPTIMAL ECHOCARDIOGRAPHIC VARIABLES TO PREDICT OUTCOME THROUGH CORRELATION MAPPING IN PATIENTS WITH DILATED CARDIOMYOPATHY | DEPRESSION AS A POTENTIAL THERAPEUTIC TARGET TO IMPROVE QUALITY OF LIFE AFTER TRANSCATHETER AORTIC VALVE REPLACEMENT | THE INFLAMMASOME PATHWAY IS ASSOCIATED WITH ADVERSE VENTRICULAR REMODELING FOLLOWING TRANSCATHETER AORTIC VALVE REPLACEMENT | TCF21 and Aryl-Hydrocarbon Receptor Gene Cooperate to Activate a Pro-Atherosclerotic Gene Expression Program | TCT-737 Baseline growth differentiation factor 15 (GDF15) is an independent predictor of reverse left atrial remodeling and mortality at 1-year following Transcatheter Aortic Valve Replacement | GWAS candidate gene for coronary artery disease TCF21 interacts with the aryl-hydrocarbon receptor to modify coronary smooth muscle cell response to pro-atherogenic stimuli | Integrative functional genomics identifies regulatory mechanisms at coronary artery disease loci | Genetics and Genomics of Coronary Artery Disease | Integrative functional genomics identifies regulatory mechanisms at coronary artery disease loci | Supplementary Data 9 | Supplementary Data 10 | Supplementary Data 14 | Supplementary Data 15 | Supplementary Data 2 | Supplementary Data 3 | Supplementary Data 8 | Supplementary Data 11 | Supplementary Data 12 | Supplementary Data 16 | Supplementary Data 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="92" ht="80" customHeight="1" s="4">
+      <c r="B92" s="3" t="inlineStr">
+        <is>
+          <t>Hiroyuki Okura</t>
+        </is>
+      </c>
+      <c r="C92" s="3" t="inlineStr">
+        <is>
+          <t>Hiroyuki-Okura</t>
+        </is>
+      </c>
+      <c r="D92" s="3" t="inlineStr">
+        <is>
+          <t>Gifu University</t>
+        </is>
+      </c>
+      <c r="E92" s="3" t="n">
+        <v>14266</v>
+      </c>
+      <c r="F92" s="3" t="n">
+        <v>6495</v>
+      </c>
+      <c r="G92" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="H92" s="3" t="inlineStr">
+        <is>
+          <t>Tsutomu-Takagi | Kenji-Onoue | Ryotaro-Yamada | Atsushi-Hirohata | Noriko-Okahashi | Shiro-Uemura | Kenichi-Fujii-3 | Junichi_Yoshikawa | Yuki-Sahashi | Kiyoshi-Yoshida-2 | Toru-Kataoka | Nishida-Taku | Yasuhiro-Honda | Akihiro-Hayashida | Tsunenari-Soeda | Takashi-Akasaka | Yoshihiko-Saito-2 | Makoto-Watanabe-4 | Teruyoshi-Kume | Hiroyuki-Kawata-2 | Nobuyuki-Kagiyama-2 | Yasuki-Nakada | Yoshinori_Miyamoto2 | Yoshihiro-Miyamoto-2 | Takatomo-Watanabe | Kenzo-Fukuhara | Tomoya-Ueda-2007883435 | Rika-Kawakami-2040372686 | Daisuke-Kamon-2043981221 | Ken-Saito-2162748987 | K-Yoshida-2205412575 | Shintaro-Nezuo-32577909 | Terumasa-Koyama-37741446 | Takeshi-Hozumi-38324142 | Hiromitsu-Kanamori-38548886 | Haruyuki-Taguchi-38644719 | Minoru-Yoshiyama-38776150 | Koichiro-Imai-38884616 | Peter-J-Fitzgerald-39047125 | Tomoichiro-Kubo-39048589 | Yoji-Neishi-39404130 | Takahiro-Kawamoto-39612878 | Kikuko-Obase-39706486 | Eiji-Toyota-39707423 | Paul-G-Yock-39850961 | Nobuhiro-Takasugi-39892778 | Satoshi-Okayama-39977929 | Nozomi-Watanabe-40056765 | Iku-Toda-63263037 | Tomoko-Tamada-71257521</t>
+        </is>
+      </c>
+      <c r="I92" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="J92" s="3" t="inlineStr">
+        <is>
+          <t>Yoshito Sadahira | Tsutomu Takagi | Patrizio Lancellotti | Akiko Maehara | Philippe Pibarot | Yoshihiro Morino | Ryotaro Yamada | Kenei Shimada | Mitsuyasu Terashima | Hector M Garcia-Garcia | Fausto J Pinto | Renu Virmani | Patrick W Serruys | Alexandra J Lansky | Jae K Oh | Frank D Kolodgie | Shiro Uemura | Kiyoshi Yoshida | Shinjo Sonoda | Yasuhiro Honda | Carlo Di Mario | Tsunenari Soeda | Jamil Tajik | Robert J Siegel | Steven Bailey | Ken Kozuma | Yoshihiko Saito | Giulio Guagliumi | Genzou Takemura | Makoto Watanabe | Gaku Nakazawa | Teruyoshi Kume | Antonio Colombo | Hiroyuki Kawata | Masanori Kawasaki | John J V Mcmurray | William Wijns | Gregg Stone | Miguel Quinones | James Seward | E Murat Tuzcu | Catherine m Otto | Kenichi Fujii | Bruce Brodie | Akihiro Hayashida | George Dangas | Maurice Enriquez-Sarano | Aloke Finn | Takashi Akasaka | Takashi Kubo</t>
+        </is>
+      </c>
+      <c r="K92" s="3" t="n">
+        <v>334</v>
+      </c>
+      <c r="L92" s="3" t="inlineStr">
+        <is>
+          <t>Characteristic Cardiac Capillary Pericytes in a Fabry Disease Patient Receiving Enzyme Replacement Therapy | An Increase in Plasma MicroRNA-143 Levels in the Acute Phase Is Positively Correlated With Recovery of Cardiac Function in the Chronic Phase in Patients With Acute Myocardial Infarction | Revisiting exit block after entrance block: Investigation of ablation index‐guided pulmonary vein isolation | JCS 2021 Guideline on the Clinical Application of Echocardiography | Correction to: Current clinical use of intravascular ultrasound imaging to guide percutaneous coronary interventions (update) | Current clinical use of intravascular ultrasound imaging to guide percutaneous coronary interventions (update) | Relationship between tissue characteristics and mechanical properties of coronary plaques: a comparison between integrated backscatter intravascular ultrasound (IVUS) and speckle-tracking IVUS | A case of endomyocardial biopsy-proven early stage cardiac involvement in heterozygous Fabry disease | Vonoprazan-associated nephrotoxicity: extensive real-world evidence from spontaneous adverse drug reaction reports | Infective endocarditis with Osler’s nodule in a patient with Osler’s disease: a case report and review of the literature | Detection of myocardial bridge by optical coherence tomography | Incidence and prognostic impact of the calcified nodule in coronary artery disease patients with end-stage renal disease on dialysis | Sphingosine-1-phosphate receptor 2 agonist mobilizes endogenous reparative Muse cells that facilitate damaged myocardial tissue repair in rabbit | Impact of accelerated washout of Technetium-99m-sestamibi on exercise tolerance in patients with acute coronary syndrome: single-center experience | Observation of plaque behavior and tissue characterization of coronary plaque using speckle tracking intravascular ultrasound (ST-IVUS) and iMap imaging system | Impact of Autophagy on Prognosis of Patients With Dilated Cardiomyopathy | The Feasibility of a Newly Developed Local Network System for Cardiac Rehabilitation (the CR-GNet) in Disease Management and Physical Fitness after Acute Coronary Syndrome | Efficacy of cisplatin plus vinorelbine adjuvant chemotherapy with split‑dose administration of cisplatin after complete resection of stage II‑IIIA non‑small cell lung cancer | Electrocardiographic features of paradoxical ventriculophasic response | Incidence and Characteristics of Incomplete Stent Apposition in Calcified Lesions: An Optical Coherence Tomography Study | Radiofrequency ablation on the right ventricular septum changed a bundle branch block pattern of a ventricular tachycardia: What is the mechanism? | Correction to: Clinical expert consensus document on intravascular ultrasound from the Japanese Association of Cardiovascular Intervention and Therapeutics (2021) | Stem cell therapy for acute myocardial infarction - focusing on the comparison between Muse cells and mesenchymal stem cells | Clinical expert consensus document on intravascular ultrasound from the Japanese Association of Cardiovascular Intervention and Therapeutics (2021) | Prevalence of mitral annular calcification and its association with mitral valvular disease | A rare case in which a combination of steroid therapy and low‒density lipoprotein apheresis prolonged the survival of a patient with a cholesterol crystal embolism, acute worsening of renal function, and repeated small bowel perforationsコレステロール結晶塞栓症による急激な腎機能増悪および繰り返す小腸穿孔に対してステロイドとLDL吸着療法の併用により3か月以上生存しえた1例 | Two Stents for Non-Left Main Bifurcation Lesion ― Less Is More? ― | Low dose olanzapine for carboplatin-induced nausea and vomiting | 1673P Efficacy and safety of 5 mg olanzapine for the prevention of carboplatin-induced nausea and vomiting in patients with thoracic malignancies: A prospective multicenter phase II study | Impact of Atrial Fibrillation on the Prognosis of Acute Decompensated Heart Failure With and Without Mitral Regurgitation | Prognostic Impact of Calcified Plaque Morphology After Drug Eluting Stent Implantation ― An Optical Coherence Tomography Study ― | Atrial trigeminy induced at a specific pacing cycle length in a patient with residual pulmonary vein conduction gap | Low‐Dose Olanzapine Plus Granisetron and Dexamethasone for Carboplatin‐Induced Nausea and Vomiting in Patients with Thoracic Malignancies: A Prospective Multicenter Phase II Trial | A serial optical frequency-domain imaging study of early and late vascular responses to bioresorbable-polymer sirolimus-eluting stents for the treatment of acute myocardial infarction and stable coronary artery disease patients: results of the MECHANISM-ULTIMASTER study | Comparison of quantitative measurements between two different intravascular ultrasound catheters and consoles: in vitro and in vivo studies | Correction to: Multimodality imaging in takotsubo syndrome: a joint consensus document of the European Association of Cardiovascular Imaging (EACVI) and the Japanese Society of Echocardiography (JSE) | “Locked Tricuspid Valve” in Carcinoid Heart Disease | Clinical characteristics and in-hospital outcomes in patients aged 80 years or over with cardiac troponin-positive acute myocardial infarction -J-MINUET study | An unusual atrial tachycardia resulting from two levels of conduction block within the arrhythmogenic superior vena cava | Morphological characteristics in diabetic cardiomyopathy associated with autophagy | Multimodality imaging in takotsubo syndrome: A joint consensus document of the European Association of Cardiovascular Imaging (EACVI) and the Japanese Society of Echocardiography (JSE) | Effects of Fatty Acid Therapy in Addition to Strong Statin on Coronary Plaques in Acute Coronary Syndrome: An Optical Coherence Tomography Study | Atrial trigeminy occurred only at a specific pacing cycle length in a patient with gaps in pulmonary vein encircling lesions: what is the mechanism? | Tenascin-C expression in renal biopsies from patients with tubulointerstitial nephritis and its relation to disease activity and prognosis | Wide QRS Complexes in an Asymptomatic Elderly Man With Permanent Atrial Fibrillation | COVID-19-associated mild encephalitis/encephalopathy with a reversible splenial lesion | Upper loop re-entry atrial flutter with its critical isthmus identified in the vicinity of his bundle | Localized solitary left renal vein thrombus complicating nutcracker syndrome: a case report and review of the literature | Sudden Cardiac Arrest as the First Manifestation in a Patient with Catastrophic Antiphospholipid Syndrome | Guideline adherence and long-term clinical outcomes in patients with acute myocardial infarction: a Japanese Registry of Acute Myocardial Infarction Diagnosed by Universal Definition (J-MINUET) substudy | In situ nuclear DNA methylation in dilated cardiomyopathy: an endomyocardial biopsy study | Adenosine-induced atrial fibrillation arising from arrhythmogenic right atrial appendage | “Hidden” takotsubo cardiomyopathy in cardiac care unit | Association between the number of board-certified cardiologists and the risk of in-hospital mortality: A nationwide study involving the Japanese registry of all cardiac and vascular diseases | Migration of the fractured inferior vena cava filter strut to the right pulmonary artery successfully retrieved by a goose neck snare technique | Predictors and prognostic impact of secondary mitral regurgitation in myocardial infarction with preserved ejection fraction | Response to the Letter to the editor regarding Takasugi et al, Ann Noninvasiv Electrocardiol 2019;00:e12670 | Long-Term Levocarnitine Ameliorates Left Ventricular Diastolic as Well as Systolic Dysfunction in Hemodialysis Patients ― Multi-Center Study ― | P3392Potential of imaging-guided PCI for event suppression in Japanese acute myocardial infarction patients: J-MINUET substudy | Anterior early repolarization pattern and T‐wave inversion in a healthy African‐Japanese athlete | Number of Cardiologists per Cardiovascular Beds and In-Hospital Mortality for Acute Heart Failure: A Nationwide Study in Japan | Number of Cardiologists per Cardiovascular Beds and In-Hospital Mortality for Acute Heart Failure: A Nationwide Study in Japan | Conduction disturbances caused by severe respiratory acidosis | “Nonsignificant” early repolarization pattern on postresuscitation ECG as a harbinger of impending electrical storm | Cardiac memory‐related QT prolongation during right bundle‐branch block in a patient with pre‐existing left bundle‐branch block | Sinus impulse‐triggered firing within the superior vena cava as an unusual cause of atrial bigeminy | Clinical expert consensus document on standards for measurements and assessment of intravascular ultrasound from the Japanese Association of Cardiovascular Intervention and Therapeutics | Arteriovenous femoral fistula after insertion of leadless pacemaker—A case with an anomaly of the deep femoral artery | Differences in blood pressure riser pattern is patients with acute heart failure with reduced mid‐range and preserved ejection fraction | Current clinical use of intravascular ultrasound imaging to guide percutaneous coronary interventions | Importance of over-reading ambulatory ECG-based microvolt T-wave alternans to eliminate three main sources of measurement error | Three Different Types of Tachyarrhythmia and QT Prolongation in a Suicide Attempt | Hospitalization Costs for Patients With Acute Congestive Heart Failure in Japan | Plasma Renin Activity Is an Independent Prognosticator in Patients With Myocardial Infarction | Unusual manifestation of left ventricular electrical conduction delay on the surface 12-lead electrocardiogram in a patient with prior myocardial infarction | Simple Risk Score to Predict Survival in Acute Decompensated Heart Failure ― A2B Score ― | LOW IRON IS STRONGLY ASSOCIATED WITH ADVERSE OUTCOMES IN ACUTE DECOMPENSATED HEART FAILURE (ADHF) PATIENTS: FROM NARA-HF STUDY | Interference dissociation during a baseline complete left bundle-branch block with advanced right bundle-branch block | Value of Placental Growth Factor as a Predictor of Adverse Events During the Acute Phase of Acute Decompensated Heart Failure | Usefulness of longitudinal reconstructed optical coherence tomography images for predicting the need for the reverse wire technique during coronary bifurcation interventions | Frequency and prognostic impact of intravascular imaging-guided urgent percutaneous coronary intervention in patients with acute myocardial infarction: results from J-MINUET | Plaque modification of severely calcified coronary lesions by scoring balloon angioplasty using Lacrosse non-slip element: insights from an optical coherence tomography evaluation | Number of Board-Certified Cardiologists and Acute Myocardial Infarction-Related Mortality in Japan ― JROAD and JROAD-DPC Registry Analysis ― | TCT-52 Intravascular Imaging-guided Urgent Percutaneous Coronary Intervention for Acute Myocardial Infarction and Long-term (3 years) Prognosis: A Land Mark Analysis of J-MINUET | TCT-504 Incidence and natural course of incomplete stent apposition in heavily calcified lesions requiring rotational atherectomy prior to stenting: an optical coherence tomography study | TCT-423 Incidence and prognostic impact of the calcified nodule in coronary artery disease patients on hemodialysis | Progression of a Calcified Nodule Causing Acute Myocardial Infarction in a Patient on Hemodialysis ― Serial Optical Coherence Tomography ― | Alteration of β-Adrenoceptor Signaling in Left Ventricle of Acute Phase Takotsubo Syndrome: a Human Study | Supplementary Material | P2633Long-term impact of intravascular imaging-guided urgent percutaneous coronary intervention for acute myocardial infarction: 3-year results of J-MINUET | Inter-atrial Septal Thrombus without PFO | From Mitral Annular Calcification to Calcified Amorphous Tumor | Histological section of the resected mass. | Infective Endocarditis Complicated by Intraventricular Abscesses, Pericarditis, and Mycotic Aneurysm Due to an Emerging Strain of Serotype VI Streptococcus agalactiae | Impact of Placental Growth Factor on the First Day of Admission in Patients with Acute Decompensated Heart Failure | Low Iron at Discharge Related to Adverse Outcomes in Acute Decompensated Heart Failure (ADHF) Patients | Risk of Heart Failure in Myocardial Infarction with Reduced, mid Range and Preserved Ejection Fraction | P845Incidence and OCT characteristics of myocardial bridge and its cyclic changes | P3366Left vntricular diastolic function and prognosis in myocardial infarction with reduced, mid range and preserved ejection fraction | Progressive mitral regurgitation in a patient with tropical endomyocardial fibrosis</t>
+        </is>
+      </c>
+    </row>
+    <row r="93" ht="80" customHeight="1" s="4">
+      <c r="B93" s="3" t="inlineStr">
+        <is>
+          <t>Sjoerd N Duim</t>
+        </is>
+      </c>
+      <c r="C93" s="3" t="inlineStr">
+        <is>
+          <t>Sjoerd-Duim</t>
+        </is>
+      </c>
+      <c r="D93" s="3" t="inlineStr">
+        <is>
+          <t>Haaglanden Medisch Centrum</t>
+        </is>
+      </c>
+      <c r="E93" s="3" t="n">
+        <v>55034</v>
+      </c>
+      <c r="F93" s="3" t="n">
+        <v>318</v>
+      </c>
+      <c r="G93" s="3" t="n">
+        <v>39</v>
+      </c>
+      <c r="H93" s="3" t="inlineStr">
+        <is>
+          <t>Marie-Jose-Goumans | Boudewijn-Kruithof | Michelle-Tallquist | Anna-Vegh-3 | Daniela-Galli | Adriana-C-Gittenberger-De-Groot | Takao-Aoyagi | Sabata-Martino | Robert-Klautz | Anke-Smits-2 | Francesco-Dangelo | Robert-Poelmann | Lambertus-Wisse | Monique-Jongbloed | Ad-Bogers | Arend-Ten-Harkel | Salah-Mohamed-11 | Noortje-Bax | Stefania-Pagliari | Giancarlo-Forte | Bin-Zhou-27 | Asja-Moerkamp | Kondababu-Kurakula | Arti-Ahluwalia-2 | Roderick-Scherptong-2 | Flavio-Ronzoni | Tim-Kelder-2 | Marco-Deruiter | Annalisa-Tirella | Carlijn-Bouten | Rebecca-Vicente-Steijn-15275692 | Nimrat-Grewal-2044410268 | Johannes-H-N-Lindeman-2044449555 | Wilke-M-C-Koenraadt-2053269184 | Martin-J-Schalij-2054791907 | Thomas-C-van-Bavel-2083993769 | Silvio-Conte-2163337535 | William-T-Pu-38657729 | Hans-Hinrich-Sievers-39825491</t>
+        </is>
+      </c>
+      <c r="I93" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="J93" s="3" t="inlineStr">
+        <is>
+          <t>Monique Jongbloed | Nynke van den Akker | Marie Jose Goumans | Boudewijn Kruithof | Michelle Tallquist | Roger R Markwald | Nicole Wagner | Raymond B Runyan | Kay-Dietrich Wagner | Russell A Norris | Ofelia M. Martínez-Estrada | Manvendra K Singh | Robert J Schwartz | Nicola Smart | Maurice J B van den Hoff | Anke M Smits | Andreas Schedl | Ramón Muñoz-Chápuli | John van Tuyn | Heleen Lie-Venema | Lambertus J Wisse | Arnoud van der Laarse | Pieter Doevendans | Heinz Theres | Deborah J Henderson | Noortje A M Bax | Andreas Kispert | Natasja M S de Groot | Bin Zhou | Wohaib Hasan | Kondababu Kurakula | Pilar ruiz-lozano | Liesbeth Winter | Martin J Schalij | Qing Ma | Marco C Deruiter | Jose M Perez-Pomares | Rita Carmona | Andy Wessels | Aimee Phelps | Katherine Yutzey | Adriana C. Gittenberger-de Groot | Thomas Doetschman | Gregory McCarty | Clifford Tabin | Robert Poelmann | Randy Johnson | Jerry Pelletier | Edris Mahtab | Mark Vrancken Peeters</t>
+        </is>
+      </c>
+      <c r="K93" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="L93" s="3" t="inlineStr">
+        <is>
+          <t>In vivo and in vitro Approaches Reveal Novel Insight Into the Ability of Epicardium-Derived Cells to Create Their Own Extracellular EnvironmentImage_1.pdfImage_2.pdfImage_3.pdfImage_4.pdf | Part and Parcel of the Cardiac Autonomic Nerve System: Unravelling Its Cellular Building Blocks during Development | WT1 in Cardiac Development and Disease | The roadmap of WT1 protein expression in the human fetal heart | The epicardium as modulator of the cardiac autonomic response during early development | Regional differences in WT-1 and Tcf21 expression during ventricular development: Implications for myocardial compaction | Cardiac endothelial cells express Wilms’ tumor-1 | Bicuspid aortic valve: phosphorylation of c-Kit and downstream targets are prognostic for future aortopathy | A Multistep Procedure To Prepare Pre-Vascularized Cardiac Tissue Constructs Using Adult Stem Sells, Dynamic Cell Cultures And Porous Scaffolds | TGFΒ and BMP signaling in cardiac cushion formation: Lessons from mice and chicken | Enhancing myogenic commitment in adult stem cells by Magic-F1 recombinant protein and PCL scaffold</t>
+        </is>
+      </c>
+      <c r="M93" s="3" t="inlineStr">
+        <is>
+          <t>Heart | Adult Stem Cells | Regenerative Medicine | Heart Failure | Myocardial Infarction | Confocal Fluorescence Microscopy</t>
+        </is>
+      </c>
+    </row>
+    <row r="94" ht="80" customHeight="1" s="4">
+      <c r="B94" s="3" t="inlineStr">
+        <is>
+          <t>Boudewijn Kruithof</t>
+        </is>
+      </c>
+      <c r="C94" s="3" t="inlineStr">
+        <is>
+          <t>Boudewijn-Kruithof</t>
+        </is>
+      </c>
+      <c r="D94" s="3" t="inlineStr">
+        <is>
+          <t>Leiden University Medical Centre</t>
+        </is>
+      </c>
+      <c r="E94" s="3" t="n">
+        <v>6745</v>
+      </c>
+      <c r="F94" s="3" t="n">
+        <v>1485</v>
+      </c>
+      <c r="G94" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="H94" s="3" t="inlineStr">
+        <is>
+          <t>Marie-Jose-Goumans | Sjoerd-Duim | Michelle-Tallquist | Lut-Van-Laer | Anna-Vegh-3 | Daniela-Barge-Schaapveld | Bart-Van-Hoek | Roger-Markwald | Virgil-Schijns-2 | Adriana-C-Gittenberger-De-Groot | Maurice-Van-Den-Hoff | Anke-Smits-2 | Robert-Poelmann | Lambertus-Wisse | Aniek-Van-Wijngaarden | Monique-Jongbloed | Marian-Horzinek | Nina-Marsan | Hein-Verspaget | Noortje-Bax | Marianna-Kruithof-De-Julio | Samuel-Lieber | Ingmar-Heijnen | Melissa-Rogers-7 | Asja-Moerkamp | David-Frank-7 | Marco-Deruiter | Bart-Loeys | Vera-Van-De-Pol | Junwang-Xu | Andy-Wessels | Carlijn-Bouten | Meindert-Palmen-10118809 | Rebecca-Vicente-Steijn-15275692 | Martin-J-Schalij-2054791907 | Vincian-Gaussin-2084400122 | Danny-van-der-Helm-2099917510 | Tamara-Los-2170548997 | Sofia-Karkampouna-2190371594 | Babak-Mousavi-Gourabi-2191662785 | Semir-Somi-35415218 | Peter-ten-Dijke-38233048 | Antoon-F-M-Moorman-39328965 | Vinciane-Gaussin-39808361 | Douglas-P-Mortlock-40070152 | Kirsten-Lodder-46904535 | David-T-Fritz-54254196 | Carolina-S-Cabral-57791885 | Gottfried-Alber-62251358 | Martin-Schalij-80358358</t>
+        </is>
+      </c>
+      <c r="I94" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="J94" s="3" t="inlineStr">
+        <is>
+          <t>Eric Olson | Vincent Christoffels | Todd Camenisch | Marie Jose Goumans | Ricardo A Moreno-Rodriguez | Frederick Schoen | Roger R Markwald | Nicole Wagner | Raymond B Runyan | Kay-Dietrich Wagner | Russell A Norris | Cecilia W Lo | Robert Dettman | Corey Mjaatvedt | Maurice J B van den Hoff | Andreas Schedl | Daniel G.M. Molin | Nigel Andrew Brown | Ramón Muñoz-Chápuli | Heleen Lie-Venema | Lambertus J Wisse | Elena Aikawa | Nina Ajmone Marsan | Noortje A M Bax | Marianna Kruithof-de Julio | Natasja M S de Groot | Bin Zhou | Melissa B Rogers | Yukiko Sugi | Michael D Schneider | Liesbeth Winter | Martin J Schalij | Qing Ma | Marco C Deruiter | Jose M Perez-Pomares | Rita Carmona | Andy Wessels | Sjoerd N Duim | Aimee Phelps | Katherine Yutzey | John Lough | Adriana C. Gittenberger-de Groot | Wouter H Lamers | Victoria delgado | Thomas Doetschman | Mohamad Azhar | Scott Klewer | Robert Poelmann | Edris Mahtab | Mark Vrancken Peeters</t>
+        </is>
+      </c>
+      <c r="K94" s="3" t="n">
+        <v>48</v>
+      </c>
+      <c r="L94" s="3" t="inlineStr">
+        <is>
+          <t>PLATELET-DERIVED GROWTH FACTOR BETA GENE: A POTENTIAL NEW PATHOGENIC MUTATION FOR MITRAL VALVE PROLAPSE | Opposing USP19 splice variants in TGF-β signaling and TGF-β-induced epithelial–mesenchymal transition of breast cancer cells | Developing regenerative therapies targeting cardiomyocytes using organotypic slice culture from human adult ventricular myocardium | Oncofetal Protein CRIPTO Is Involved in Wound Healing and Fibrogenesis in the Regenerating Liver and Is Associated with the Initial Stages of Cardiac Fibrosis | Superimposed tissue formation in human aortic valve disease: differences between stenotic and regurgitant valves | Superimposed Tissue Formation in Human Aortic Valve Disease: Differences between Regurgitant and Stenotic Valves | Oncofetal protein CRIPTO regulates wound healing and fibrogenesis in regenerating liver and is associated with the initial stages of cardiac fibrosis | New calcification model for intact murine aortic valves | Characterization of Degenerative Mitral Valve Disease: Differences between Fibroelastic Deficiency and Barlow’s Disease | New ex vivo calcification model for intact murine aortic valves | New Calcification Model for Intact Murine Aortic Valves | Stress-induced remodelling of the mitral valve: A model for leaflet thickening and superimposed tissue formation in mitral valve disease | In vivo and in vitro Approaches Reveal Novel Insight Into the Ability of Epicardium-Derived Cells to Create Their Own Extracellular EnvironmentImage_1.pdfImage_2.pdfImage_3.pdfImage_4.pdf | Immunofluorescent Visualization of BMP Signaling Activation on Paraffin-Embedded Tissue Sections: Methods and Protocols | Endoglin is important for epicardial behaviour following cardiac injury | A new ex vivo model to study cardiac fibrosis | WT1 in Cardiac Development and Disease | The roadmap of WT1 protein expression in the human fetal heart | Culturing Mouse Cardiac Valves in the Miniature Tissue Culture System | The epicardium as modulator of the cardiac autonomic response during early development | Culturing Mouse Cardiac Valves in the Miniature Tissue Culture System | Regional differences in WT-1 and Tcf21 expression during ventricular development: Implications for myocardial compaction | Relationships Between Melanocytes, Mechanical Properties and Extracellular Matrix Composition in Mouse Heart Valves | Mutations in a TGF-b Ligand, TGFB3, Cause Syndromic Aortic Aneurysms and Dissections | Cardiac endothelial cells express Wilms’ tumor-1 | Tbx5 Is Required for Avian and Mammalian Epicardial Formation and Coronary Vasculogenesis | Evolution and Development of Ventricular Septation in the Amniote Heart | Novel Ex Vivo Culture Method for the Study of Dupuytren's Disease: Effects of TGFβ Type 1 Receptor Modulation by Antisense Oligonucleotides | Extraembryonic Endoderm cells as a model of endoderm development | Remodeling of the myocardium in early trabeculation and cardiac valve formation; a role for TGFβ2 | TGFΒ and BMP signaling in cardiac cushion formation: Lessons from mice and chicken | An In Vivo Map of Bone Morphogenetic Protein 2 Post-transcriptional Repression in the Heart | An in vivo map of bone morphogenetic protein 2 post-transcriptional repression in the heart | Turning off bone morphogenetic protein (BMP) 2 | An Autonomous BMP2 Regulatory Element in Mesenchymal Cells | Design of a Miniature Tissue Culture System to Culture Mouse Heart Valves | Regulation of Myocardium Formation after the Initial Development of the Linear Heart Tube | Atrioventricular valve development during late embryonic and postnatal stages involves condensation and extracellular matrix remodeling | Dilated cardiomyopathy and sarcomeric disarray following cardiac myocyte-specific deletion of Smad5 | BMP and FGF regulate the differentiation of multipotential pericardial mesoderm into myocardial and epicardial lineage | Making more heart muscle | BMP and FGF regulate the differentiation of multipotential pericardial mesoderm into the myocardial of epicardial lineage | Cardiac muscle cell formation after development of the linear heart tube | Recruitment of intra- and extracardiac cells into the myocardial lineage during mouse development | Formation of Myocardium after the Initial Development of the Linear Heart Tube | UDP-Galactose:Ceramide Galactosyltransferase Is a Class I Integral Membrane Protein of the Endoplasmic Reticulum | Mice Lacking IL-12 Develop Polarized Th1 Cells During Viral Infection | Th1 Cells During Viral Infection Mice Lacking IL12 Develop Polarized</t>
+        </is>
+      </c>
+      <c r="M94" s="3" t="inlineStr">
+        <is>
+          <t>Muscle | Extracellular Matrix | Cardiomyocytes</t>
+        </is>
+      </c>
+    </row>
+    <row r="95" ht="80" customHeight="1" s="4">
+      <c r="B95" s="3" t="inlineStr">
+        <is>
+          <t>marjo-riitta Jarvelin</t>
+        </is>
+      </c>
+      <c r="C95" s="3" t="inlineStr">
+        <is>
+          <t>Marjo-Riitta-Jarvelin</t>
+        </is>
+      </c>
+      <c r="D95" s="3" t="inlineStr">
+        <is>
+          <t>Imperial College London</t>
+        </is>
+      </c>
+      <c r="E95" s="3" t="n">
+        <v>86408</v>
+      </c>
+      <c r="F95" s="3" t="n">
+        <v>60736</v>
+      </c>
+      <c r="G95" s="3" t="n">
+        <v>48</v>
+      </c>
+      <c r="H95" s="3" t="inlineStr">
+        <is>
+          <t>Jaana-Laitinen-2 | Tim-Spector | Markus-Perola | Cecilia-Lindgren | Terho-Lehtimaeki | Dorret-Boomsma-2 | Jaakko-Kaprio | Jaakko-Tuomilehto | Gonneke-Willemsen | Olli-Raitakari | Eco-Geus | Inga-Prokopenko | Massimo-Mangino | Patricia-Munroe | Craig-Pennell | Philippe-Froguel | Ulla-Sovio | Susan-Ring | Markku-Laakso | Vilmundur-Gudnason | Ruth-Loos | Jing-Hua-Zhao | Paul-Elliott-11 | Thomas-Illig | Christian-Gieger | Veronique-Vitart | Igor-Rudan-3 | Caroline-Hayward | Wendy-Mcardle-2 | Lyle-Palmer | Serena-Sanna | George-Davey-Smith | Sylvain-Sebert | Nicole-Soranzo | David-P-Strachan-2081190261 | Unnur-Thorsteinsdottir-38174148 | Anna-Liisa-Hartikainen-38255216 | Gudmar-Thorleifsson-38542401 | Ulf-Gyllensten-38693556 | Jouke-Jan-Hottenga-38709798 | John-C-Chambers-38784934 | Nicholas-J-Timpson-38890254 | Samuli-Ripatti-39018909 | Michael-Boehnke-39219178 | Anneli-Pouta-39289923 | Karen-L-Mohlke-39452945 | Ben-A-Oostra-39633557 | Jaspal-S-Kooner-39993242</t>
+        </is>
+      </c>
+      <c r="I95" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="J95" s="3" t="inlineStr">
+        <is>
+          <t>Tõnu Esko | Jaana Laitinen | Terho Lehtimäki | Christopher J O'Donnell | Yurii Aulchenko | Jaakko Tuomilehto | Johanna Kuusisto | Eco J C de Geus | Mark Caulfield | Jerome I Rotter | Lenore J Launer | Harald Grallert | Massimo Mangino | Colin N A Palmer | Patricia B Munroe | Benjamin F Voight | Mark Daly | Philippe Froguel | Ulla Sovio | Markku Laakso | Dawn M Waterworth | Jing Hua Zhao | Thomas Illig | Christian Gieger | Veronique Vitart | Cristen J Willer | Igor Rudan | Caroline Hayward | Erik Ingelsson | Wendy Mcardle | Lyle John Palmer | Andrew Hattersley | Michael Weedon | Serena Sanna | George Davey Smith | Nicole Soranzo | Manuela Uda | Tim Spector | Christopher James Groves | Markus Perola | Cecilia Lindgren | Dorret I Boomsma | Gonneke Willemsen | Olli Raitakari | Susan Ring | Claudia Langenberg | Vilmundur Gudnason | Ruth Loos | Paul Elliott | Goncalo Abecasis</t>
+        </is>
+      </c>
+      <c r="K95" s="3" t="n">
+        <v>632</v>
+      </c>
+      <c r="L95" s="3" t="inlineStr">
+        <is>
+          <t>Understanding the genetic complexity of puberty timing across the allele frequency spectrum | Author Correction: Genetic effects on the timing of parturition and links to fetal birth weight | Association between circulating inflammatory markers and adult cancer risk: a Mendelian randomization analysis | Genetic effects on the timing of parturition and links to fetal birth weight | The genetic basis of endometriosis and comorbidity with other pain and inflammatory conditions | Genetic fine-mapping from summary data using a non-local prior improves detection of multiple causal variants | Genome-wide association study of placental weight in 179,025 children and parents reveals distinct and shared genetic influences between placental and fetal growth | Inflammatory Diseases, Inflammatory Biomarkers, and Alzheimer Disease: An Observational Analysis and Mendelian Randomization | Developmental origins of psycho-cardiometabolic multimorbidity in adolescence and their underlying pathways through methylation markers: A two cohort’s study | An optimal growth pattern during pregnancy and early childhood associates with better fertility in men | The iHealth-T2D study: a cluster randomised trial for the prevention of type 2 diabetes amongst South Asians with central obesity and prediabetes—a statistical analysis plan | The relationship of life-course patterns of adiposity with type 2 diabetes, depression, and their comorbidity in the Northern Finland Birth Cohort 1966 | Integrating multiple lines of evidence to assess the effects of maternal BMI on pregnancy and perinatal outcomes in up to 497,932 women | Author Correction: Genetic analysis of over half a million people characterises C-reactive protein loci | Association of Early Adulthood Hyperandrogenemia With Hypertension and Cardiovascular Events in Women | Genetic effects on the timing of parturition and links to fetal birth weight | Genetic analysis of over half a million people characterises C-reactive protein loci | Effect of common pregnancy and perinatal complications on offspring metabolic traits across the life course: a multi-cohort study | Genome-wide Association Meta-analysis of Childhood and Adolescent Internalizing Symptoms | Genome-wide analysis in over 1 million individuals reveals over 2,000 independent genetic signals for blood pressure | Circulating inflammatory cytokines and risk of five cancers: a Mendelian randomization analysis | Genetic variation influencing DNA methylation provides insights into molecular mechanisms regulating genomic function | The iHealth-T2D study, prevention of type 2 diabetes amongst South Asians with central obesity and prediabetes: study protocol for a randomised controlled trial | Meta-analyses identify DNA methylation associated with kidney function and damage | Fat metabolism is associated with telomere length in six population-based studies | DNA methylation and lipid metabolism: an EWAS of 226 metabolic measures | An agenda-setting paper on data sharing platforms: euCanSHare workshop | Rare variant analysis in eczema identifies exonic variants in DUSP1, NOTCH4 and SLC9A4 | Effects of a lifestyle intervention programme after 1 year of follow-up among South Asians at high risk of type 2 diabetes: a cluster randomised controlled trial | Genome-wide association study of susceptibility to hospitalised respiratory infections | Trans-ancestry genome-wide association study of gestational diabetes mellitus highlights genetic links with type 2 diabetes | W56. A MULTIVARIATE GENOME-WIDE ASSOCIATION STUDY OF PSYCHO-CARDIOMETABOLIC MULTIMORBIDITY | Rare and low-frequency exonic variants and gene-by-smoking interactions in pulmonary function | Markers of metabolic health and gut microbiome diversity: findings from two population-based cohort studies | An agenda-setting paper on data sharing platforms: euCanSHare workshop [version 1; peer review: awaiting peer review] | DNA methylation signature of chronic low-grade inflammation and its role in cardio-respiratory diseases | Genetic correlation and causal relationships between cardio-metabolic traits and lung function impairment | Epigenome-Wide Association Study Reveals Methylation Loci Associated With Offspring Gestational Diabetes Mellitus Exposure and Maternal Methylome | DNA methylation signatures of aggression and closely related constructs: A meta-analysis of epigenome-wide studies across the lifespan | Clinical and Biochemical Signs of Polycystic Ovary Syndrome in Young Women Born Preterm | Adolescents’ dietary habits and meal patterns influence school performance in the Northern Finland Birth Cohort 1986: mendelian randomisation study | Contribution of Obesity and Physical Inactivity to the Increased Type 2 Diabetes risk in Emiratis | Exploring the causal effect of maternal pregnancy adiposity on offspring adiposity: Mendelian randomization using polygenic risk scores | Genetic variation in cervical preinvasive and invasive disease: a genome-wide association study | Apt interpretation of comprehensive lipoprotein data in large-scale epidemiology - disclosure of fundamental structural and metabolic relationships | Global Analysis of Obesity and Physical Activity Rates and their Relation to Diabetes Risk | Body size during adulthood, but not in childhood associates with endometriosis, specifically in the peritoneal subtype– population‐based life‐course data from birth to late fertile age | Variation in the SERPINA6/SERPINA1 locus alters morning plasma cortisol, hepatic corticosteroid binding globulin expression, gene expression in peripheral tissues, and risk of cardiovascular disease | DNA methylation and body mass index from birth to adolescence: meta-analyses of epigenome-wide association studies | The iHealth-T2D study: Statistical analysis plan for a cluster randomised controlled trial with intensive family-based lifestyle modification programme to reduce type 2 diabetes risk amongst South Asians | The iHealth-T2D study: rationale and design of a cluster randomised trial for prevention of Type 2 Diabetes amongst South Asians with central obesity and prediabetes | Genetic correlation and causal relationships between cardio-metabolic traits and Lung function Impairment | Genome-wide association meta-analysis of childhood and adolescent internalising symptoms | Early life origins of lung ageing: A study of lung function decline the ECRHS and NFBC1966 cohorts | DNA methylation signatures of aggression and closely related constructs: A meta-analysis of epigenome-wide studies across the lifespan | Identifying Causative Mechanisms Linking Early-Life Stress to Psycho-Cardio-Metabolic Multi-Morbidity: The EarlyCause Project | Chronic obstructive pulmonary disease and related phenotypes: polygenic risk scores in population-based and case-control cohorts | Role of DNA methylation in the association of lung function with body mass index: A two-step epigenetic Mendelian randomisation study | Determinants of accelerated metabolomic and epigenetic aging in a UK cohort | A polygenic biomarker to identify patients with severe hypercholesterolemia of polygenic origin | Genetic Associations Between Childhood Psychopathology and Adult Depression and Associated Traits in 42 998 Individuals: A Meta-Analysis | Could Vitamin D reduce obesity-Associated inflammation? Observational and Mendelian randomization study | Common variation at 16p11.2 is associated with glycosuria in pregnancy: Findings from a genome-wide association study in European women | Common maternal and fetal genetic variants show expected polygenic effects on the probability of being born small- or large-for-gestational-age (SGA or LGA), except in the smallest 3% of babies | Epigenome-wide meta-analysis of blood DNA methylation in newborns and children identifies numerous loci related to gestational age | Association of adult lung function with accelerated biological aging | Genetic Correlation and Causal Relationships between Cardio-Metabolic Traits and Lung Function Impairment | Correction: Large-scale genome-wide meta-analysis of polycystic ovary syndrome suggests shared genetic architecture for different diagnosis criteria | Vitamin D and Insulin Sensitivity | Effect of Sex and Underlying Disease on the Genetic Association of QT Interval and Sudden Cardiac Death | Variants in the fetal genome near pro-inflammatory cytokine genes on 2q13 associate with gestational duration | New alcohol-related genes suggest shared genetic mechanisms with neuropsychiatric disorders | The effect of sex and underlying disease on the genetic association of QT interval and sudden cardiac death | methylSCOPA and META-methylSCOPA: software for the analysis and aggregation of epigenome-wide association studies of multiple correlated phenotypes | Author Correction: New genetic signals for lung function highlight pathways and chronic obstructive pulmonary disease associations across multiple ancestries | Exploring the role of genetic confounding in the association between maternal and offspring body mass index: evidence from three birth cohorts | Identification of disease-associated loci using machine learning for genotype and network data integration | Meta-analysis of epigenome-wide association studies in neonates reveals widespread differential DNA methylation associated with birthweight | Supplementary Material 10 | Supplementary Material 11 | Supplementary Material 16 | Supplementary Material 18 | Supplementary Material 2 | Supplementary Material 9 | Supplementary Material 17 | Supplementary Material 1 | Supplementary Material 4 | Supplementary Material 6 | Supplementary Material 12 | Supplementary Material 13 | Supplementary Material 14 | Supplementary Material 3 | Supplementary Material 5 | Supplementary Material 7 | Supplementary Material 8 | Supplementary Material 15 | Epigenome-wide association study of lung function level and its change | Genetic variation in apolipoprotein A-I concentrations and risk of coronary artery disease | New genetic signals for lung function highlight pathways and chronic obstructive pulmonary disease associations across multiple ancestries | Circulating metabolites and the risk of type 2 diabetes: a prospective study of 11,896 young adults from four Finnish cohorts</t>
+        </is>
+      </c>
+      <c r="M95" s="3" t="inlineStr">
+        <is>
+          <t>Cohort Studies | Observational Studies | Epidemiologic Studies | Case-Control Studies | Epidemiological Analysis | Epidemiological Statistics | Clinical Epidemiology | Descriptive Analysis | Longitudinal Studies | Multivariate Regression Analysis</t>
+        </is>
+      </c>
+    </row>
+    <row r="96" ht="80" customHeight="1" s="4">
+      <c r="B96" s="3" t="inlineStr">
+        <is>
+          <t>Jennie Hui</t>
+        </is>
+      </c>
+      <c r="C96" s="3" t="inlineStr">
+        <is>
+          <t>Jennie-Hui</t>
+        </is>
+      </c>
+      <c r="E96" s="3" t="n">
+        <v>49751</v>
+      </c>
+      <c r="F96" s="3" t="n">
+        <v>31160</v>
+      </c>
+      <c r="G96" s="3" t="n">
+        <v>48</v>
+      </c>
+      <c r="H96" s="3" t="inlineStr">
+        <is>
+          <t>Tim-Spector | Marjo-Riitta-Jarvelin | Terho-Lehtimaeki | Dorret-Boomsma-2 | Jaakko-Kaprio | Andrew-Hicks-5 | Eco-Geus | Harald-Grallert | Inga-Prokopenko | Massimo-Mangino | Peter-Kovacs | Ida-Surakka | Zoltan-Kutalik | Markku-Laakso | Claudia-Langenberg-2 | Vilmundur-Gudnason | Ruth-Loos | Jing-Hua-Zhao | M-Carola-Zillikens | Goncalo-Abecasis | Thomas-Illig | Christian-Gieger | Veronique-Vitart | John-Beilby-2 | Caroline-Hayward | Lyle-Palmer | Serena-Sanna | David-P-Strachan-2081190261 | Alan-F-Wright-38100876 | Daniel-I-Chasman-38134296 | James-F-Wilson-38492222 | Gudmar-Thorleifsson-38542401 | Valgerdur-Steinthorsdottir-38563041 | Arthur-W-Musk-38618462 | Ulf-Gyllensten-38693556 | Jouke-Jan-Hottenga-38709798 | Anne-U-Jackson-38985241 | Samuli-Ripatti-39018909 | Alan-L-James-39154596 | Michael-Boehnke-39219178 | Karen-L-Mohlke-39452945 | Jianan-Luan-39548146 | Richard-N-Bergman-39589071 | Andrew-P-Morris-39700295 | Antti-Jula-39902739 | Sarah-H-Wild-39986262 | Martin-D-Tobin-40038863 | Peter-S-Chines-56492060</t>
+        </is>
+      </c>
+      <c r="I96" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="J96" s="3" t="inlineStr">
+        <is>
+          <t>Tõnu Esko | Najaf Amin | Terho Lehtimäki | Yurii Aulchenko | Jaakko Tuomilehto | Johanna Kuusisto | Andrew A. Hicks | Eco J C de Geus | Mark Caulfield | Jerome I Rotter | Lenore J Launer | Harald Grallert | Massimo Mangino | Narisu Narisu | Colin N A Palmer | Patricia B Munroe | Ida Surakka | Benjamin F Voight | Mark Daly | Philippe Froguel | Markku Laakso | Dawn M Waterworth | Jing Hua Zhao | Thomas Illig | Christian Gieger | Veronique Vitart | Cristen J Willer | Igor Rudan | John Beilby | Caroline Hayward | Erik Ingelsson | Wendy Mcardle | Lyle John Palmer | Andrew Hattersley | Michael Weedon | Serena Sanna | Nicole Soranzo | Manuela Uda | Tim Spector | Christopher James Groves | Markus Perola | marjo-riitta Jarvelin | Cecilia Lindgren | Dorret I Boomsma | Gonneke Willemsen | Claudia Langenberg | Vilmundur Gudnason | Ruth Loos | Paul Elliott | Goncalo Abecasis</t>
+        </is>
+      </c>
+      <c r="K96" s="3" t="n">
+        <v>298</v>
+      </c>
+      <c r="L96" s="3" t="inlineStr">
+        <is>
+          <t>Plasma lipoprotein subclass variation in middle-aged and older adults: Sex-stratified distributions and associations with health status and cardiometabolic risk factors | Longitudinal Asthma Phenotypes from Childhood to Middle-Age: A Population-based Cohort Study | Serum testosterone and sex hormone-binding globulin are inversely associated with leucocyte telomere length in men: a cross-sectional analysis of the UK Biobank Study | Longitudinal Stability of Vitamin D Status and Its Association With Bone Mineral Density in Middle-aged Australians | Genome-wide association analyses of physical activity and sedentary behavior provide insights into underlying mechanisms and roles in disease prevention | Comprehensive genetic analysis of the human lipidome identifies loci associated with lipid homeostasis with links to coronary artery disease | Multi-ancestry genome-wide association study improves resolution of genes, pathways and pleiotropy for lung function and chronic obstructive pulmonary disease | Genome-wide analysis in over 1 million individuals reveals over 2,000 independent genetic signals for blood pressure | DXA-derived versus standard anthropometric measures for predicting cardiometabolic risk in middle-aged Australian men and women | Airway microbial communities, smoking and asthma in a general population sample | Comprehensive genetic analysis of the human lipidome identifies novel loci controlling lipid homeostasis with links to coronary artery disease | Prevalence and patterns of multimorbidity in Australian baby boomers: the Busselton healthy ageing study | The prevalence and comorbidities of obstructive sleep apnea in middle-aged men and women: the Busselton Healthy Ageing Study | Correction: High-coverage plasma lipidomics reveals novel sex-specific lipidomic fingerprints of age and BMI: Evidence from two large population cohort studies | Non-malignant pleural disease from asbestos and malignant pelural mesothelioma | High-coverage plasma lipidomics reveals novel sex-specific lipidomic fingerprints of age and BMI: Evidence from two large population cohort studies | Exposure to household air pollution over 10 years is related to asthma and lung function decline | U-Shaped Relationship of Leukocyte Telomere Length With All-Cause and Cancer-Related Mortality in Older Men | Chronic obstructive pulmonary disease and related phenotypes: polygenic risk scores in population-based and case-control cohorts | Asbestos-related diseases | Early life acetaminophen exposure, Glutathione S-Transferase genes and development of adolescent asthma in a high-risk birth cohort | Phenotype consensus is required to enable large‐scale genetic consortium studies of food allergy | Palm reading and water divining: A cross-sectional study of the accuracy of palmar hyper-linearity and trans-epidermal water loss to identify individuals with a filaggrin gene null mutation | The Wittenoom legacy | Why Not Use the Immunoglobulin G N -Glycans as Predictor Variables in Disease Biomarker–Phenotype Association Studies? A Multivariate Analysis | Early-Life Exposure to Oral Antibiotics and Lung Function Into Early Adulthood | Associations of plasma IGF1, IGFBP3 and estradiol with leucocyte telomere length, a marker of biological age, in men | Genome-wide Association Study of Change in Fasting Glucose over time in 13,807 non-diabetic European Ancestry Individuals | Author Correction: New genetic signals for lung function highlight pathways and chronic obstructive pulmonary disease associations across multiple ancestries | OR18-2 Higher Plasma Estradiol Concentration Is Independently Associated with Lower Biological Age, Assessed as Leucocyte Telomere Length, in Older Men | Distinctive airway microbial ecology of smokers and asthmatics | New genetic signals for lung function highlight pathways and chronic obstructive pulmonary disease associations across multiple ancestries | PEBBLES study protocol: A randomised controlled trial to prevent atopic dermatitis, food allergy and sensitisation in infants with a family history of allergic disease using a skin barrier improvement strategy | Interaction of Glutathione S-Transferase M1, T1, and P1 Genes With Early Life Tobacco Smoke Exposure on Lung Function in Adolescents | Cross-sectional associations of sex hormones with leucocyte telomere length, a marker of biological age, in a community-based cohort of older men | Genome-wide analyses identify a role for SLC17A4 and AADAT in thyroid hormone regulation | Supplementary Material 1 | Supplementary Material 2 | Supplementary Material 3 | Supplementary Material 5 | Supplementary Material 6 | Supplementary Material 8 | Supplementary Material 4 | Supplementary Material 7 | Supplementary Material 9 | A 5α-reductase ( SRD5A2 ) polymorphism is associated with serum testosterone and sex hormone-binding globulin in men, while aromatase ( CYP19A1 ) polymorphisms are associated with estradiol and luteinising hormone reciprocally | Early-life exposure to sibling modifies the relationship between CD14 polymorphisms and allergic sensitisation | Increased central adiposity is associated with pro-inflammatory immunoglobulin G N-glycans | New genetic signals for lung function highlight pathways and pleiotropy, and chronic obstructive pulmonary disease associations across multiple ancestries | Obstructive airway disease in 46-65-year-old people in Busselton, Western Australia, 1966-2015 | Vitamin D and respiratory health in the Busselton Healthy Ageing Study | A Canadian genome-wide association study and meta-analysis confirm HLA as a risk factor for peanut allergy independent of asthma | Pleiotropy of cardiometabolic syndrome with obesity-related anthropometric traits determined using empirically derived kinships from the Busselton Health Study | Supplementary Material 1 | Supplementary Material 4 | Supplementary Material 7 | Supplementary Material 3 | Supplementary Material 2 | Supplementary Material 5 | Supplementary Material 8 | Supplementary Material 9 | Supplementary Material 6 | Multiancestry association study identifies new asthma risk loci that colocalize with immune-cell enhancer marks | Cytokine levels and associations with symptom severity in male and female children with autism spectrum disorder | Supplementary Material 1 | Supplementary Material 2 | Genome-wide association study and meta-analysis in multiple populations identifies new loci for peanut allergy and establishes C11orf30/EMSY as a genetic risk factor for food allergy | Traffic-related air pollution exposure over a 5-year period is associated with increased risk of asthma and poor lung function in middle age | Correction: Genome-wide physical activity interactions in adiposity ― A meta-analysis of 200,452 adults | S9 Table | S7 Table | S12 Table | S11 Table | S8 Table | S10 Table | 0424 Risk of mesothelioma and risk of exposure to asbestos in people supposedly unexposed to asbestos | Novel Blood Pressure Locus and Gene Discovery Using Genome-Wide Association Study and Expression Data Sets From Blood and the Kidney | Effects of androgen deprivation therapy on telomere length | Genome-wide physical activity interactions in adiposity - A meta-analysis of 200,452 adults | S6 Table | S1 Fig | S2 Fig | S3 Fig | S4 Fig | S2 Table | S11 Table | S18 Table | S1 Acknowledgements | S4 Table | S5 Table | S10 Table | S14 Table | S17 Table | S19 Table | S21 Table | S1 Table | S3 Table | S8 Table | S12 Table | S15 Table</t>
+        </is>
+      </c>
+      <c r="M96" s="3" t="inlineStr">
+        <is>
+          <t>PCR | DNA | Gene Expression | DNA Extraction | RNA | DNA Sequencing | RNA Isolation | DNA Gel Electrophoresis | Protein Purification | Immunofluorescence</t>
+        </is>
+      </c>
+    </row>
+    <row r="97" ht="80" customHeight="1" s="4">
+      <c r="B97" s="3" t="inlineStr">
+        <is>
+          <t>Leticia Grize</t>
+        </is>
+      </c>
+      <c r="C97" s="3" t="inlineStr">
+        <is>
+          <t>Leticia-Grize-2</t>
+        </is>
+      </c>
+      <c r="D97" s="3" t="inlineStr">
+        <is>
+          <t>Swiss Tropical and Public Health Institute</t>
+        </is>
+      </c>
+      <c r="E97" s="3" t="n">
+        <v>10490</v>
+      </c>
+      <c r="F97" s="3" t="n">
+        <v>5425</v>
+      </c>
+      <c r="G97" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="H97" s="3" t="inlineStr">
+        <is>
+          <t>Triantafyllia-Koletsa | Kathrin-Scherer-Hofmeier | Nicole-Ruch | Desiree-Schumann | Christian-Schindler-3 | Anita-Riecher-Roessler | Martin-Roeoesli | Laura-Perez-28 | Michael-Osthoff | Michael-Tamm | Stephan-Rueegg | Renaud-Louis-2 | Christian-Schindler-5 | Andreas-Bircher | Daiana-Stolz | Ludwig-Kappos | Raoul-Sutter | Franzsika-Bernet | Marcus-Dsouza | Urs-Neu | Peter-Fuhr | Meropi-Karakioulaki | Brunello-Wuethrich | Markus-Gassner-2 | Stephan-Marsch | Regina-Schlaeger | Michel-Dard | Werner-Albrich | Hans-Reinhard-Zerkowski-2 | Kathleen-Jahn | Archie-Jones | Christine-Brombach | Bettina-Bringolf-Isler | Christoph-Minder | Urs-Maeder-12843572 | Nicole-Probst-Hensch-2009012428 | Andrei-Darie-2184738081 | Matthias-J-Herrmann-2200580981 | K-Takken-Sahli-34574976 | Werner-Strobel-38126442 | Charlotte-Braun-Fahrlaender-38251532 | Hans-H-Hirsch-38383448 | Michael-J-Zellweger-38648690 | Eleni-Papakonstantinou-39214320 | Nina-Khanna-39219140 | Felix-H-Sennhauser-39544025 | Spasenija-Savic-39631411 | H-S-Varonier-63113261 | J-C-Vuille-63444798 | Ch-Braun-Fahrlaender-74164120</t>
+        </is>
+      </c>
+      <c r="I97" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="J97" s="3" t="inlineStr">
+        <is>
+          <t>Daniel Buser | Johannes Blum | Christian Schindler | Marco Wieland | Mar Tintorè | Stefan Osswald | Giancarlo Logroscino | Vittorio Martinelli | Antonio Torres | Sir Aziz Sheikh | Phyllis N Butow | Nino Künzli | Dorothy kyerewah Yeboah-Manu | Stephan Rüegg | Ulrich Keil | Joel Schwartz | Ursula A. Ackermann-Liebrich | Renaud Louis | Letizia Leocani | Daiana Stolz | Stefania Medaglini | Ludwig Kappos | Alan R Towne | Marcus DSouza | Urs Neu | Peter Fuhr | Martin H N Tattersall | Brunello Wüthrich | Antonia L Wadley | Edwin A Mitchell | Marco Esposito | Regina Schlaeger | Daijin Ko | Michel Marcel Dard | Jan Claassen | Johnny K Lokin | Françoise Portaels | Erika von Mutius | Stephan Mayer | Paolo Rossi | Alistair W Stewart | Michael Tamm | Frederik Barkhof | Jo Salmon | Léon Mbiyangandu Kazumba | Gerd Pluschke | Peter Kamerman | Markus Gassner | Robert Delorenzo</t>
+        </is>
+      </c>
+      <c r="K97" s="3" t="n">
+        <v>138</v>
+      </c>
+      <c r="L97" s="3" t="inlineStr">
+        <is>
+          <t>Airway smooth muscle area to predict steroid responsiveness in COPD patients receiving triple therapy (HISTORIC): a randomised, placebo-controlled, double-blind, investigator-initiated trial | Ηeparan sulphate in infectious and non‐infectious exacerbations of COPD | RCT Abstract - Airway smooth muscle mass to predict response to ICS in COPD patients receiving triple therapy (HISTORIC study): a randomized, placebo-controlled, double-blind, investigator-initiated trial | Variability of fractional exhaled nitric oxide is associated with the risk and aetiology of COPD exacerbations | Peripheral arterial tonometry versus polysomnography in suspected obstructive sleep apnea | Fast multiplex assay of Gram-negative rods for antibiotic stewardship in patients hospitalised with pneumonia – a randomised controlled trial | Fast multiplex bacterial PCR of bronchoalveolar lavage for antibiotic stewardship in hospitalised patients with pneumonia at risk of Gram-negative bacterial infection (Flagship II): a multicentre, randomised controlled trial | Is sleep-disordered breathing a risk factor for COVID-19 or vice versa? | Post-COVID impairment: objective multidimensional assessment of long term effects in hospitalized, non-ICU patients | Effect of bronchial thermoplasty on histopathological parameters in distinct asthma endotypes/phenotypes | Serum heparan sulfate levels predict the etiology of acute exacerbations in COPD | RCT Abstract - Fast multiplex bacterial PCR in the bronchoalveolar lavage for antibiotic stewardship in hospitalized patients with pneumonia at risk for Gram negative bacteria infection–the randomized FLAGSHIP II Study | Bronchial thermoplasty in asthma: an exploratory histopathological evaluation in distinct asthma endotypes/phenotypes | Copeptin, pro-atrial natriuretic peptide and pro-adrenomedullin as markers of hypoxic stress in patients with obstructive sleep apnea—a prospective intervention study | Variability Of Fractional Exhaled Nitric Oxide is Associated with the Risk and Etiology of Acute Exacerbations in COPD | Dental and periodontal health in a Swiss population‐based sample of older adults: a cross‐sectional study | Sleeping hearts: 12 years after a follow up study on cardiac findings due to sleeping sickness | Hyaluronic acid in COPD exacerbations of different etiology | Collagen and elastin turnover increase at COPD exacerbation irrespectively its etiology | Bronchial thermoplasty for the treatment of asthma patientswith COPD characteristics: an exploratory histopathological evaluation | Histopathological Comparison of Endobronchial Biopsies from Different Pulmonary Lobes of Severe Asthmatic Patients | Gambiense Human African Trypanosomiasis Sequelae after Treatment: A Follow-Up Study 12 Years after Treatment | Characterization of viral infections in stable and exacerbated COPD | Time-course of upper respiratory tract viral infection and COPD exacerbation | Marginal bone loss 1 year after implantation: A systematic review for fixed and removable restorations | Marginal bone loss one year after implantation: a systematic review of different loading protocols | Peripheral neuropathy in patients with human immunodeficiency viral infection at a tertiary hospital in Ghana | Reply to: Does Dose Matter? | Metal hypersensitivity in patients with orthopaedic implant complications—A retrospective clinical study | Associations between Dietary Patterns and Post-Bronchodilation Lung Function in the SAPALDIA Cohort | Are overweight and obesity in children risk factors for anemia in early childhood? Results from a national nutrition survey in Tajikistan | Smoking cessation in workplace settings: quit rates and determinants in a group behaviour therapy programme | Patient-Identified Priorities Leading to Attempted Suicide: Life Is Lived in Interpersonal Relationships | Relative validation of a food frequency questionnaire to estimate food intake in an adult population | Quality of life as predictor for the development of cardiac ischemia in high-risk asymptomatic diabetic patients | Cardiorespiratory hospitalisation and mortality reductions after smoking bans in Switzerland | Sociocultural determinants of anticipated acceptance of pandemic influenza vaccine in Pune, India: a community survey using mixed-methods | Cover Image | Benefits of smoking bans on preterm and early-term births: A natural experimental design in Switzerland | Assessment of intensity, prevalence and duration of everyday activities in swiss school children: A cross-sectional analysis of accelerometer and diary data | Histological assessment of hard and soft tissues surrounding a novel ceramic implant: A pilot study in the minipig | Bone mineral density and its determinants in men with opioid dependence | Monitoring Multiple Sclerosis by Multimodal Evoked Potentials: numerically versus ordinally scaled scoring systems | Associations of daily levels of PM10 and NO2 with emergency hospital admissions and mortality in Switzerland: Trends and missed prevention potential over the last decade | Primary cultivation: Factors affecting contamination and Mycobacterium ulcerans growth after long turnover time of clinical specimens | Smoking Cessation in Workplace Settings: Determinants of Quit Rates in a Group Behaviour Therapy Programme in Switzerland (2006-2013): Yann Hausherr | Convergent methods assessing bone growth in an experimental model at dental implants in the minipig | Combined Visual and Motor Evoked Potentials Predict Multiple Sclerosis Disability after 20 Years | Prediction of MS disability by multimodal evoked potentials: Investigation during relapse or in the relapse-free interval? | Prevention potential of daily deaths in Switzerland between 2001 and 2010 under a realistic air pollution abatement scenario | Figure S1 | Table S1 | Dataset S1 | Checklist S1 | Table S2 | Electrophysiological Markers and Predictors of the Disease Course in Primary Progressive Multiple Sclerosis | Acute-Phase Proteins and Mortality in Status Epilepticus: A 5-Year Observational Cohort Study | Geographic Distribution, Age Pattern and Sites of Lesions in a Cohort of Buruli Ulcer Patients from the Mapé Basin of Cameroon | Patient-physician concordance and discordance in gynecology: Do physicians identify patients' reasons for visit and do patients understand physicians' actions? | Additional file 3 | Additional file 1 | Additional file 4 | Electrophysiological surrogate markers for primary progressive multiple sclerosis - a prospective study over 3 years | Associations between infections and clinical outcome parameters in status epilepticus: A retrospective 5-year cohort study | Evaluation of a food frequency questionnaire to determine dietary intake in a large cohort: The SAPALDIA study | Nonirritant intradermal skin test concentrations of ciprofloxacin, clarithromycin, and rifampicin | Acute phase proteins and white blood cell levels for prediction of infectious complications in status epilepticus | Tissue Integration of a New Titanium-Zirconium Dental Implant: A Comparative Histologic and Radiographic Study in the Canine | TRANSPORTATION, AIR POLLUTION AND PHYSICAL ACTIVITIES (TAPAS), A 6-CITY INTEGRATED HEALTH RISK ASSESSMENT PROGRAM OF ACTIVE TRAVEL POLICIES: THE BASEL CASE STUDY | Prediction of Long-Term Disability in Multiple Sclerosis | Combined Evoked Potentials as Markers and Predictors of Disability in Early Multiple Sclerosis | High prevalence of nonconvulsive and subtle status epilepticus in an ICU of a tertiary care center: A 3-year observational cohort study | Assessment of Intensity, Prevalence and Duration of Everyday Activities in Swiss School Children | Continuous video-EEG monitoring increases detection rate of nonconvulsive status epilepticus in the ICU | Tissue Integration of a New Titanium-Zirconium Dental implant: A Comparative Histologic and Radiographic Study in the Canine. | Trend in active transportation to school among Swiss school children and its associated factors: Three cross-sectional surveys 1994, 2000 and 2005 | Built environment, parents' perception, and children's vigorous outdoor play | Dynamic Assessment of Right Ventricular Volumes and Function by Real-Time Three-Dimensional Echocardiography: A Comparison Study With Magnetic Resonance Imaging in 100 Adult Patients | Short Term Associations Between Daily Cardiovascular and Respiratory Emergency Admissions and PM10-Levels in Switzerland | Parental Occupational Exposure to Extremely Low Frequency Magnetic Fields and Childhood Cancer: A German Case-Control Study | Implementation of continuous video-EEG monitoring on the intensive care unit (ICU) – Effect on diagnosis of patients with status epilepticus | Additional file 1 | Assessment of intensity, prevalence and duration of everyday activities in Swiss school children: A cross-sectional analysis of accelerometer and diary data | Bone Response to Loaded Implants With Non-Matching Implant-Abutment Diameters in the Canine Mandible | Prospective Study on Combined Visual, Motor and Somatosensory Evoked Potentials as Markers of the Disease Course over Two Years in Patients with Early Multiple Sclerosis | Diagnostic of anaphylactoid reactions to opiates | Is the ebb of asthma due to the decline of allergic asthma? A prospective consultation-based study by the Swiss Sentinel Surveillance Network, 1999-2005 | Swiss bike-to-work campaign: Did we reach the intended population? | Visual- and motor-evoked potentials as predictors of long-term clinical disability in multiple sclerosis | [Treatment recommendations in psychiatric disability insurance expertises: are they helpful]. | Nützen Behandlungsempfehlungen in psychiatrischen versicherungsrechtlichen Gutachten? | Improvements in physical and mental domains of quality of life by anti-ischaemic drug and revascularisation treatment in elderly men and women with chronic angina | Receiving the Diagnosis of Lung Cancer: Patient Recall of Information and Satisfaction With Physician Communication | Personal and environmental factors associated with active commuting to school in Switzerland | Electrophysiological surrogate markers for primary progressive multiple sclerosis (PPMS) – cross-sectional analysis of 23 patients | STATUS EPILEPTICUS IN A TERTIARY CARE CENTRE - EPIDEMIOLOGICAL AND CLINICAL CHARACTERISTICS AND A DICHOTOMIZED TREATMENT AND OUTCOME ANALYSIS | Environmental Factors Influencing Outdoor Activity of Swiss Schoolchildren | Validation of a rhinitis symptom questionnaire (ISAAC core questions) in a population of Swiss school children visiting the school health services. SCARPOL-team. Swiss Study on Childhood Allergy and Respiratory Symptom with respect to Air Pollution and Climate. International Study of Asthma and Allergies in Childhood | Single-center outcome analysis of 1,161 patients with St. Jude Medical and ATS Open Pivot Mechanical Heart Valves | Psychosoziale Evaluation von Menschen, die in Basel eine Niere spenden wollen. Dokumentation, Aufwand, Bedenken und Ablehnungen in einer Kohorte von 75 konsekutiven potenziellen Spendern</t>
+        </is>
+      </c>
+      <c r="M97" s="3" t="inlineStr">
+        <is>
+          <t>Allergy</t>
+        </is>
+      </c>
+    </row>
+    <row r="98" ht="80" customHeight="1" s="4">
+      <c r="B98" s="3" t="inlineStr">
+        <is>
+          <t>Bram Trachet</t>
+        </is>
+      </c>
+      <c r="C98" s="3" t="inlineStr">
+        <is>
+          <t>Bram-Trachet</t>
+        </is>
+      </c>
+      <c r="D98" s="3" t="inlineStr">
+        <is>
+          <t>École Polytechnique Fédérale de Lausanne</t>
+        </is>
+      </c>
+      <c r="E98" s="3" t="n">
+        <v>11362</v>
+      </c>
+      <c r="F98" s="3" t="n">
+        <v>1353</v>
+      </c>
+      <c r="G98" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="H98" s="3" t="inlineStr">
+        <is>
+          <t>Anne-De-Paepe | Laurence-Campens | Patrick-Segers | Nikolaos-Stergiopulos | Abigail-Swillens | Matthieu-Beule | Koen-Van-Canneyt | Francisco-Londono | Stamatia-Pagoulatou-2 | Stefaan-Vandenberghe | Gerlinde-Logghe | Goran-Lovric | Vasiliki-Bikia-2 | Christophe-Casteleyn | Benedict-Verhegghe | Van-Denis | Pieter-Cornillie | Bert-Vandeghinste | Jan-Kips | Guido-De-Meyer | Gianluca-De-Santis | Benedicte-Descamps | Lasse-Lovstakken | Michele-Conti | Ferdinando-Auricchio | Marc-De-Buyzere | Joris-Degroote | Philippe-Reymond-3 | Marco-Stampanoni-2 | Rodrigo-Fraga-Silva | Marjolijn-Renard | Alessandra-Piersigilli | Carole-Van-Der-Donckt | Mauro-Ferraro | David-De-Wilde | Pascal-Verdonck | Sebastian-Vermeersch | Lydia-Aslanidou | Bart-Loeys | Isabelle-Van-Herzeele | Jan-Vierendeels-13704153 | Joris-Bols-2006631813 | Jessica-Sordet-Dessimoz-2061199984 | Pablo-Villanueva-Perez-2098308729 | Dionysios-Adamopoulos-2150442546 | D-Devos-33802278 | Steven-Staelens-38113836 | Bert-Suys-38244991 | Daniel-Devos-61346013</t>
+        </is>
+      </c>
+      <c r="I98" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="J98" s="3" t="inlineStr">
+        <is>
+          <t>Marjolijn Renard | Nicolaas Westerhof | Bart Loeys | Anne De Paepe | Patrick Segers | Nikolaos Stergiopulos | Abigail Swillens | Matthieu De Beule | Christophe Casteleyn | Benedict Verhegghe | Van Loo Denis | Mark Henkelman | Guido R Y De Meyer | Gianluca De Santis | Bernard Timothy Baxter | W. Robert Taylor | Marc L De Buyzere | Don P Giddens | Alan Daugherty | Hong S. Lu | Debra L Rateri | David N Ku | Philippe Reymond | Jessica J Moorleghen | Alain Tedgui | Charles Taylor | Deborah Howatt | Alberto Astolfo | Natzi Sakalihasan | Marco Stampanoni | Peter Modregger | Rodrigo A Fraga-Silva | Alessandra Piersigilli | Rob Krams | C. Ross Ethier | Ji Zhang | Thierry C Gillebert | Carole Van der Donckt | Craig Goergen | Jonathan Golledge | Francesco Ramirez | M. W. Manning | Philip S Tsao | Pascal Verdonck | Lydia Aslanidou | Gerhard Holzapfel | Luc Van Bortel | Joan M. Greve | Ronald L. Dalman | Yu-Qing Zhou</t>
+        </is>
+      </c>
+      <c r="K98" s="3" t="n">
+        <v>79</v>
+      </c>
+      <c r="L98" s="3" t="inlineStr">
+        <is>
+          <t>Ascending Aortic Aneurysm in Angiotensin II–Infused Mice | Incidence, severity, mortality, and confounding factors for dissecting AAA detection in angiotensin II-infused mice: A meta-analysis | Dissecting Abdominal Aortic Aneurysm in Ang II-infused Mice: Suprarenal Branch Ruptures and Apparent Luminal Dilatation | An Animal-Specific FSI Model of the Abdominal Aorta in Anesthetized Mice | A 1D Model of the Arterial Circulation in Mice | Outflow Through Aortic Side Branches Drives False Lumen Patency in Type B Aortic Dissection | The effect of the elongation of the proximal aorta on the estimation of the aortic wall distensibility | Early Morphofunctional Changes in AngII-Infused Mice Contribute to Regional Onset of Aortic Aneurysm and Dissection | Co-localization of microstructural damage and excessive mechanical strain at aortic branches in angiotensin-II-infused mice | Multi-center Study on False Lumen Patency and Thrombosis in Type B Aortic Dissection Patients: Importance of (Minor) Side Branches | Noninvasive Cardiac Output and Central Systolic Pressure From Cuff-Pressure and Pulse Wave Velocity | On the importance of the nonuniform aortic stiffening in the hemodynamics of physiological aging | Synchrotron-based visualization and segmentation of elastic lamellae in the mouse carotid artery during quasi-static pressure inflation | The Effect of the Elongation of the Proximal Aorta on the Estimation of Aortic Wall Distensibility | Elongation of the proximal aorta during the cardiac cycle plays an important role in the estimation of aortic compliance | Synchrotron-based phase contrast imaging of cardiovascular tissue in mice - Grating interferometry or phase propagation? | Propagation-based phase-contrast synchrotron imaging of aortic dissection in mice: From individual elastic lamella to 3D analysis | Should We Ignore What We Cannot Measure? How Non-Uniform Stretch, Non-Uniform Wall Thickness and Minor Side Branches Affect Computational Aortic Biomechanics in Mice | TGFβ (Transforming Growth Factor-β) Blockade Induces a Human-Like Disease in a Nondissecting Mouse Model of Abdominal Aortic Aneurysm | Abstract 474: Early Events in Dissecting Aneurysms Induced by Angiotensin-II Infusion: The Geometry-Driven Aspect of a Multifaceted Problem | Abstract 473: Dissecting Aortic Aneurym in Angiotensin II - Infused Mice: The Mechanisms Behind Lesion Variability | the Influence of anesthesia and fluid-structure interaction on simulated shear stress patterns in the carotid bifurcation of mice | Pitfalls of Doppler Measurements for Arterial Blood Flow Quantification in Small Animal Research: A Study Based on Virtual Ultrasound Imaging | Shear Stress Metrics and Their Relation to Atherosclerosis: An In Vivo Follow-up Study in Atherosclerotic Mice | Assessment of Shear Stress Related Parameters in the Carotid Bifurcation using Mouse-Specific FSI Simulations | Editorial: Novel Insights on Aortic Aneurysm | Dissecting Abdominal Aortic Aneurysm in Angiotensin II-Infused Mice: The Importance of Imaging | Emerging Pharmacological Treatments to Prevent Abdominal Aortic Aneurysm Growth and Rupture | Editorial (Thematic Issue: Novel Insights on Aortic Aneurysm) | Intrinsic cardiomyopathy in Marfan syndrome: Results from in-vivo and ex-vivo studies of the Fbn1 C1039G/+ model and longitudinal findings in humans | Vulnerable Plaque Detection and Quantification with Gold Particle-Enhanced Computed Tomography in Atherosclerotic Mouse Models | Performance Comparison of Ultrasound-Based Methods to Assess Aortic Diameter and Stiffness in Normal and Aneurysmal Mice | A 1-D model of the systemic arterial tree in mice | A multi-angle plane wave imaging approach for high frequency 2D flow visualization in small animals: Simulation study in the murine arterial system | Longitudinal follow-up of ascending versus abdominal aortic aneurysm formation in angiotensin II-infused ApoE−/− mice | Absence of Cardiovascular Manifestations in a Haploinsufficient Tgfbr1 Mouse Model | Role of the renin-angiotensin system on abdominal aortic aneurysms | In vivo visualisation and reconstruction of the mouse cerebral vasculature using contrast enhanced micro-CT | A comparison of different methods to determine aortic pulse wave velocity in aneurysmatic and control mice | Characterization of Cardiovascular Involvement in Pseudoxanthoma Elasticum Families | Marfan related cardiomyopathy: an in vivo and in vitro study of the fbn1C1039G/+ mouse model | A computational method to assess the in vivo stresses and unloaded configuration of patient-specific blood vessels | Inverse modelling of image-based patient-specific blood vessels: Zero-pressure geometry and in vivo stress incorporation | A Computational Study of the Hemodynamic Impact of Open- Versus Closed-Cell Stent Design in Carotid Artery Stenting | Aortic hemodynamics and their role in aneurysm location: Can mice provide more insight? | Wall tracking for the assessment of aortic distensibility during a follow up of 49 days in Angiotensin II-infused ApoE-/- mice | Hemodynamics in Ascending and Abdominal Aorta Aneurysm Formation in the ApoE−/− Angiotensin II Mouse Model | CFD Challenge: Solutions Using the Commercial Finite Volume Solver, Fluent, and a pyFormex-Generated Full Hexahedral Mesh | Effect of the degree of LAD stenosis on “competitive flow” and flow field characteristics in LIMA-to-LAD bypass surgery | Left ventricular dysfunction in a mouse model of Marfan syndrome | The role of disturbed hemodynamics in aneurysm formation in mice | Haemodynamic impact of stent-vessel (mal)apposition following carotid artery stenting: Mind the gaps! | The Impact of Simplified Boundary Conditions and Aortic Arch Inclusion on CFD Simulations in the Mouse Aorta: A Comparison With Mouse-specific Reference Data | Validation of the arteriograph working principle: Questions still remain-reply 2 | A Quantitative Comparison Between Baseline Hemodynamics and End-Stage Aneurysm Formation in ApoE −/− Mice | Towards a Full-Scale Model of Carotid Artery Stenting: Virtual Stent Implantation and Its Hemodynamic Impact | Structural Simulation of a Mouse-Specific Abdominal Aorta | An Integrated Framework to Quantitatively Link Mouse-Specific Hemodynamics to Aneurysm Formation in Angiotensin II-infused ApoE −/− mice | Validation of the Arteriograph working principle: Questions still remain | The Ghent Marfan Trial — A randomized, double-blind placebo controlled trial with losartan in Marfan patients treated with β-blockers | Patienten-spezifisches Modell der Wandschubspannung von Aortenbogen | The Arteriograph: Correlated to Aortic Stiffness, but Measuring Axillo-brachial Artery Stiffness? | Investigating the role of hemodynamics in aaa formation through combined imaging and modeling: a longitudinal in-vivo study in apoe mice | Resolving in-vivo flow fields in the systemic circulation of the mouse through combined ultrasound imaging and computational fluid dynamics | Vascular corrosion casting: Analyzing wall shear stress in the portal vein and vascular abnormalities in portal hypertensive and cirrhotic rodents | The Arteriograph: Measuring Axillo-Brachial Rather Than Aortic Stiffness?: Pp.10.416 | Replacing Vascular Corrosion Casting by In Vivo Micro-CT Imaging for Building 3D Cardiovascular Models in Mice | Numerical Validation of a New Method to Assess Aortic Pulse Wave Velocity from a Single Recording of a Brachial Artery Waveform with an Occluding Cuff | Validation of the murine aortic arch as a model to study human vascular diseases | Measuring Mouse Abdominal Aorta Dimensions in Vivo: A Comparison between (3D) Ultrasound and Micro-CT | Comparison Of Three Different Methods To Calculate Aortic Pulse Wave Velocity (Pwv) Using A 1d Model Of The Systemic Circulation | Patient-Specific Modelling of Aortic Arch Wall Shear Stress Patterns in Patients With Marfan Syndrome | Limitations and pitfalls of non-invasive measurement of arterial pressure wave reflections and pulse wave velocity | The influence of aortic dimensions on calculated wall shear stress in the mouse aortic arch | NON-INVASIVE ASSESSMENT OF RENAL ARTERY STENOSIS SEVERITY IN THE INDIVIDUAL PATIENT | Wall shear stress in the mouse aortic arch : DDDoes size matter? | Towards non-invasive assessment of renal artery stenosis severity in the individual patient with the aid of numerical computer simulations | Validation of the working principle of the Arteriograph, a new device to measure pulse wave velocity | Does wall shear stress affect arterial growth?</t>
+        </is>
+      </c>
+      <c r="M98" s="3" t="inlineStr">
+        <is>
+          <t>Aorta | Aortic Aneurysm | Arteries | Abdominal Aortic Aneurysm | Abdominal Aorta | Aneurysm | Stents | Vascular Surgery | Endovascular Surgery | Carotid Arteries</t>
+        </is>
+      </c>
+    </row>
+    <row r="99" ht="80" customHeight="1" s="4">
+      <c r="B99" s="3" t="inlineStr">
+        <is>
+          <t>Patrick Segers</t>
+        </is>
+      </c>
+      <c r="C99" s="3" t="inlineStr">
+        <is>
+          <t>Patrick-Segers</t>
+        </is>
+      </c>
+      <c r="D99" s="3" t="inlineStr">
+        <is>
+          <t>Ghent University</t>
+        </is>
+      </c>
+      <c r="E99" s="3" t="n">
+        <v>106588</v>
+      </c>
+      <c r="F99" s="3" t="n">
+        <v>20816</v>
+      </c>
+      <c r="G99" s="3" t="n">
+        <v>47</v>
+      </c>
+      <c r="H99" s="3" t="inlineStr">
+        <is>
+          <t>Tom-Claessens | Anne-De-Paepe | Bram-Trachet | Nikolaos-Stergiopulos | Abigail-Swillens | Tine-Backer | Matthieu-Beule | Koen-Van-Canneyt | Francisco-Londono | Philippe-Kolh | Luc-Bortel | Christophe-Casteleyn | Benedict-Verhegghe | Van-Denis | Pieter-Cornillie | Charlotte-Debbaut | Jan-Kips | Diethard-Monbaliu | Ernst-Rietzschel | Ashraf-Khir | Gianluca-De-Santis | Lasse-Lovstakken | Marc-De-Buyzere | Joris-Degroote | Pierre-Boutouyrie | Peter-Ransbeeck | Gerardo-Catapano | Liesbeth-Taelman | Daniel-Duprez | Francesco-Iannaccone-2 | Frank-Vermassen | Stephane-Carlier | Thierry-Gillebert | Nicolaas-Westerhof | Guy-De-Backer-2 | Giuseppe-Falvo-Durso-Labate | Annette-Caenen | Pascal-Verdonck | Sebastian-Vermeersch | Bart-Loeys | Jan-Vierendeels-13704153 | Joris-Bols-2006631813 | Dirk-De-Bacquer-2075825710 | Pascal-Verdonck-39426195 | Nikos-Stergiopulos-2119211554 | Julio-A-Chirinos-39047090 | Peter-Mortier-39795983</t>
+        </is>
+      </c>
+      <c r="I99" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="J99" s="3" t="inlineStr">
+        <is>
+          <t>Chen-Huan Chen | David Kass | Nicolaas Westerhof | Bart Loeys | Harry Struijker-Boudier | John Cockcroft | Alberto Avolio | Bram Trachet | Nikolaos Stergiopulos | Abigail Swillens | Matthieu De Beule | Patrick Van oostveldt | Emelia Benjamin | Benedict Verhegghe | Van Loo Denis | Sofie Bekaert | Mathieu Pernot | Jan Kips | Mickaël Tanter | Ernst R Rietzschel | Ashraf Khir | Gianluca De Santis | Lasse Løvstakken | Marc L De Buyzere | Michael F O'Rourke | Alan Daugherty | Carmel Mceniery | Hans Torp | Berend E Westerhof | Roland Asmar | Daniel Burkhoff | Pieter Sipkema | Martin St John Sutton | Jean-Jacques Meister | Jørgen Arendt Jensen | Athanase Benetos | Alun David Hughes | Thierry C Gillebert | Guy De Backer | Daniel Levy | Pascal Verdonck | Sebastian Vermeersch | Gerhard Holzapfel | Luc Van Bortel | Raymond R Townsend | Martin Larson | Pierre Boutouyrie | Mathias Fink | David Bluemke | Charalambos Vlachopoulos</t>
+        </is>
+      </c>
+      <c r="K99" s="3" t="n">
+        <v>831</v>
+      </c>
+      <c r="L99" s="3" t="inlineStr">
+        <is>
+          <t>Arterial pulse wave modeling and analysis for vascular-age studies: a review from VascAgeNet | In Memoriam of Nico Westerhof (1937–2022) | Assessment of Early Diastolic Intraventricular Pressure Difference in Children by Blood Speckle Tracking Echocardiography | Fluid-Structure Interaction Modeling of the Aortic Hemodynamics in Adult Zebrafish: A Pilot Study Based on Synchrotron X-Ray Tomography | A CFD study on the interplay of torsion and vortex guidance by the mitral valve on the left ventricular wash-out making use of overset meshes (Chimera technique) | Poster No. 133 Local TGF-beta sequestration by fibrillin-1 regulates vascular wall homeostasis in the thoracic aorta | Central blood pressure estimation in type 1 diabetes: impact and implications of peripheral calibration method | Improving Peak Velocity Estimation Accuracy in EchoPIV using Anisotropic Windows | Local TGF-beta sequestration by fibrillin-1 regulates vascular wall homeostasis in the thoracic aorta | Transmural Wave Speed Gradient May Distinguish Intrinsic Myocardial Stiffening From Preload-Induced Changes in Operational Stiffness in Shear Wave Elastography | CENTRAL BLOOD PRESSURE ESTIMATION IN TYPE 1 DIABETES: IMPACT OF PERIPHERAL BLOOD PRESSURE CALIBRATION APPROACH | ASSESSMENT OF STIFFNESS OF LARGE TO SMALL ARTERIES IN MULTI-STAGE RENAL DISEASE: A NUMERICAL STUDY | Towards the biomimetic design of hollow fiber membrane bioreactors for bioartificial organs and tissue engineering: A micro-computed tomography (μCT) approach | Assessment of Stiffness of Large to Small Arteries in Multistage Renal Disease Model: A Numerical Study | On the interplay of loading, myocardial stiffness and contractility in transthoracic acoustic radiation force-induced shear wave measurements in pigs | Template Matching and Matrix Profile for Signal Quality Assessment of Carotid and Femoral Laser Doppler Vibrometer Signals | Biomechanical aspects of the normal and cancer-associated lymphatic system | Essential principles of pulsatile pressure-flow relations in the arterial tree | Arterial wall stiffness: basic principles and methods of measurement in vivo | Measurements of arterial pressure and flow in vivo | Chapter 3. Essential principles of pulsatile pressure-flow relations in the arterial tree | Assessing cardiac stiffness using ultrasound shear wave elastography | Outflow Through Aortic Side Branches Drives False Lumen Patency in Type B Aortic Dissection | Histological and biomechanical properties of systemic arteries in young and old Warmblood horses | On the assessment of arterial compliance from carotid pressure waveform | Right Ventricular Flow Dynamics in Dilated Right Ventricles: Energy Loss Estimation Based on Blood Speckle Tracking Echocardiography—A Pilot Study in Children | Guiding Myocardial Revascularization by Algorithmic Interpretation of FFR Pullback Curves: A Proof of Concept Study | Closed-chest measurement of diastolic and systolic shear wave speed to assess myocardial stiffness | Longitudinal Changes of Input Impedance, Pulse Wave Velocity, and Wave Reflection in a Middle-Aged Population: The Asklepios Study | Colour-Doppler echocardiography flow field velocity reconstruction using a streamfunction–vorticity formulation | YI 1.5 Ten Years of Ageing in the Middle-Aged Does not Increase Input Impedance or Wave Reflection–Insights from the Asklepios Study | Ex-Vivo inflation-extension tests show that age affects biomechanical properties of the equine arterial wall | Mechanism of pulsus bisferiens in thoracoabdominal thoracic aneurysms: Insights from wave intensity analysis | Physiological fluid mechanics: A special Issue with a taster of forefront research | Impact of varying diastolic pressure fitting technique for the reservoir-wave model on wave intensity analysis | Effect of aortic stiffness versus stenosis on ventriculo-arterial interaction in an experimental model of coarctation repair | Ambulatory Electrocardiographic Monitoring and Ectopic Beat Detection in Conscious Mice | Mechanical and morphometric study of mitral valve chordae tendineae and related papillary muscle | Silicon photonics-based laser Doppler vibrometer array for carotid-femoral pulse wave velocity (PWV) measurement | Implications of Changing the Asymptotic Diastolic Pressure in the Reservoir-wave Model on Wave Intensity Parameters: A Parametric Study | Analysis of multiple shear wave modes in a nonlinear soft solid: Experiments and finite element simulations with a tilted acoustic radiation force | Computed Post-Stenotic Flow Instabilities Correlate Phenotypically with Vibrations Measured Using Laser Doppler Vibrometry: Perspectives for a Promising In-Vivo Device for Early Detection of Moderate and Severe Carotid Stenosis | Supplementary Movie 1 | Co-localization of microstructural damage and excessive mechanical strain at aortic branches in angiotensin-II-infused mice | P125 Local Pulse Wave Velocity in the Arterial Tree: Site Matters! | Misconceptions About Arterial Stiffness May Lead to Erroneous Conclusions | Corrosion casting of the cardiovascular structure in adult zebrafish for analysis by scanning electron microscopy and X‐ray microtomography | Brief Review on How to Measure Arterial Stiffness in Humans | The aorta after coarctation repair - Effects of calibre and curvature on arterial haemodynamics | Correction to: The aorta after coarctation repair – effects of calibre and curvature on arterial haemodynamics | Using machine learning to characterize heart failure across the scales | Multi-center Study on False Lumen Patency and Thrombosis in Type B Aortic Dissection Patients: Importance of (Minor) Side Branches | Correction: A 1D computer model of the arterial circulation in horses: An important resource for studying global interactions between heart and vessels under normal and pathological conditions | 2.6 Validation of the Measurement of Aortic Stiffness by the CARDIS Laser Doppler Vibrometer | The Impact of Size and Position of a Mechanical Expandable Transcatheter Aortic Valve: Novel Insights Through Computational Modelling and Simulation | Muscle strength is a major determinant of the blood pressure response to isometric stress testing: the Asklepios population study | Non-invasive intraventricular pressure differences estimated with cardiac MRI in subjects without heart failure and with heart failure with reduced and preserved ejection fraction | Measuring elastic nonlinearity in a soft solid using a tilted acoustic radiation force for shear wave excitation | Large-Artery Stiffness in Health and Disease | A 1D computer model of the arterial circulation in horses: An important resource for studying global interactions between heart and vessels under normal and pathological conditions | Physics of Within-Tissue Wave Propagation Generated by Pulse Propagation in the Carotid Artery | Mixed impact of torsion on LV hemodynamics: A CFD study based on the Chimera technique | Synchrotron-based visualization and segmentation of elastic lamellae in the mouse carotid artery during quasi-static pressure inflation | MEASUREMENT OF AORTIC STIFFNESS BY LASER DOPPLER VIBROMETRY: THE CARDIS STUDY | Detecting carotid stenosis from skin vibrations using Laser Doppler Vibrometry – An in vitro proof-of-concept | Optimization of a Transcatheter Heart Valve Frame Using Patient-Specific Computer Simulation | High-Frequency Fluctuations in Post-stenotic Patient Specific Carotid Stenosis Fluid Dynamics: A Computational Fluid Dynamics Strategy Study | Use of a Right Ventricular Continuous Flow Pump to Validate the Distensible Model of the Pulmonary Vasculature | Supplementary Material | Mapping the site-specific accuracy of loop-based local pulse wave velocity estimation and reflection magnitude: a 1D arterial network model analysis | Tomographic PIV in a Model of the Left Ventricle: 3D Flow Past Biological and Mechanical Heart Valves | Drug Delivery A 3D CFD model of the interstitial fluid pressure and drug distribution in heterogeneous tumor nodules during intraperitoneal chemotherapy A 3D CFD model of the interstitial fluid pressure and drug distribution in heterogeneous tumor nodules during intraperitoneal chemotherapy | Analysis of several subcycling schemes in partitioned simulations of strongly coupled fluid-structure interaction | Impact of Diabetes Mellitus on Ventricular Structure, Arterial Stiffness, and Pulsatile Hemodynamics in Heart Failure With Preserved Ejection Fraction | Proximal pressure reducing effect of wave reflection in the pulmonary circulation disappear in obstructive disease: insight from a rabbit model | MRI-enabled noninvasive wave intensity analysis: an exciting tool for cardiovascular (patho)physiology research (in absence of local reflections) | Arterial Properties as Determinants of Left Ventricular Mass and Fibrosis in Severe Aortic Stenosis: Findings From ACRIN PA 4008 | Papillary Muscle Related Biomechanical Properties of Mitral Valve Chordae Tendineae | Supplementary Material | Streamfunction-Vorticity Flow Reconstruction for Color-Doppler Ultrasound Velocimetry | Effect of Obesity on Left Atrial Strain in Persons Aged 35 – 55 Years (The Asklepios Study) | Can Laser Doppler Vibrometer detect carotid stenosis from skin vibrations? Hydraulic bench tests on patient-specific model | Non-contact measurement of local carotid and carotid-femoral pulse wave velocity by Laser Doppler Vibrometry: Validation of a new device against reference techniques in hypertensive patients | Feasibility study of local pulse wave velocity estimation in the carotid artery with multi-beam Laser Doppler Vibrometer | Age-induced increase in the energy transmitted towards the cerebral circulation as a contributor to impaired brain function | Arterial wave dynamics in the horse: Insights obtained from a 1D arterial network model simulation | CFD MODEL OF THE INTERSTITIAL FLUID PRESSURE (IFP) IN REALISTIC TUMOR GEOMETRIES OF PERITONEAL METASTASES FROM OVARIAN CANCER | Synchrotron-based phase contrast imaging of cardiovascular tissue in mice - Grating interferometry or phase propagation? | A Fast 4D B-Spline Framework for Model-Based Reconstruction and Regularization in Vector Flow Imaging | Investigating the Degree of Shear Wave Speed Anisotropy as a Function of Studied Ventricular Zone | Analyzing the Shear Wave Mechanics in Cardiac Shear Wave Elastography Using Finite Element Simulations | Kinematic boundary conditions substantially impact in silico ventricular function | Modeling the interaction between the lymphatic vessels and the interstitium in normal and lymphedema conditions | Reply to Comment on 'Numerical assessment and comparison of pulse wave velocity methods aiming at measuring aortic stiffness' | A modular inverse elastostatics approach to resolve the pressure-induced stress state for in vivo imaging based cardiovascular modeling | EXPRESS: Measuring pulmonary arterial compliance: mission impossible? Insights from a novel in vivo continuous-flow based experimental model | Erratum to: An in silico biomechanical analysis of the stent–esophagus interaction | Application of the wave-reservoir approach to different aortic sites: overstretching the concept | A Unified Mechanism for the Water Hammer Pulse and Pulsus Bisferiens in Severe Aortic Regurgitation: Insights from Wave Intensity Analysis | EFFECT OF OBESITY ON LEFT ATRIAL STRAIN IN MIDDLE AGE: THE ASKLEPIOS STUDY</t>
+        </is>
+      </c>
+    </row>
+    <row r="100" ht="80" customHeight="1" s="4">
+      <c r="B100" s="3" t="inlineStr">
+        <is>
+          <t>Rafael Cuadrat</t>
+        </is>
+      </c>
+      <c r="C100" s="3" t="inlineStr">
+        <is>
+          <t>Rafael-Cuadrat</t>
+        </is>
+      </c>
+      <c r="D100" s="3" t="inlineStr">
+        <is>
+          <t>Eagle Genomics</t>
+        </is>
+      </c>
+      <c r="E100" s="3" t="n">
+        <v>12521</v>
+      </c>
+      <c r="F100" s="3" t="n">
+        <v>394</v>
+      </c>
+      <c r="G100" s="3" t="n">
+        <v>47</v>
+      </c>
+      <c r="H100" s="3" t="inlineStr">
+        <is>
+          <t>Altuna-Akalin | Emanuel-Wyler | James-Reecy | Matthias-Schulze | Adhemar-Zerlotini | Diogo-Tschoeke | Alberto-Davila-3 | Flavia-Bressani-Donatoni | Alexander-Blume | Haruki-Kitazawa | Luciana-Regitano | Tatiana-Borodina-4 | Maria-Campos-62 | Marta-Mattoso | Sergio-Cruz-19 | Tobias-Goris | Vic-Fabienne-Schumann | Claudia-Quedenau | Clemens-Wittenbecher | Luiz-Coutinho-2 | Hans-Peter-Grossart | Nikolaus-Rajewsky | Markus-Landthaler | Gerson-Mourao | Bora-Uyar | Julio-Villena | Felipe-Hernandes-Coutinho | Frederik-Zietzschmann-2 | Haithem-Afli-2 | Julio-Palhares-2 | Vedran-Franke | Sergio-Medeiros | Alexandre-Berndt-3 | James-Koltes | Bruno-Andrade-10 | Adriana-Froes | Juliano-Cury | Irena-Trbojevic-Akmacic | Priscila-S-N-Oliveira-2058018035 | Ricardo-Wurmus-2059106599 | Tobias-Goris-2188708305 | Jan-Dohmen-2204102484 | Aylina-Deter-2208786128 | Miriam-Faxel-2208792220 | Annett-Braune-39501555 | Edno-Silva-44156846 | Frederico-Tosta-44573733</t>
+        </is>
+      </c>
+      <c r="I100" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="J100" s="3" t="inlineStr">
+        <is>
+          <t>Daniella Castanheira Bartholomeu | Irena Trbojevic Akmacic | Yurii Aulchenko | Elmar Pruesse | Jaakko Tuomilehto | Weizhong Li | Massimo Mangino | Elodie Ghedin | Thomas Meitinger | Neil Hall | Elisabet V Caler | Robert Finn | Haruki Kitazawa | Luciana Regitano | Gordan Lauc | Bertram Ludäscher | Rob Knight | Markku Laakso | Hugenholtz Philip | Christopher Peacock | Maja Pucic Bakovic | Lucija Klarić | Matthew Berriman | John Wallace | Manfred Wuhrer | Jennifer Russo Wortman | Stephen Burgess | Anubha Mahajan | William J Kelly | Brian J Haas | Julio Villena | Torben Hansen | Kazutaka Katoh | Caroline Hayward | Timothy R Walsh | Henning Seedorf | Sandra Kittelmann | Ruth Ley | Frédéric Bringaud | George Davey Smith | Michael Blaut | Tim Spector | Jeroen Raes | Matthias Schulze | Alberto M. R. Dávila | Susana Alvarez | Oluf Pedersen | Claudia Langenberg | Owen White | Nita Forouhi</t>
+        </is>
+      </c>
+      <c r="K100" s="3" t="n">
+        <v>54</v>
+      </c>
+      <c r="L100" s="3" t="inlineStr">
+        <is>
+          <t>Cardiovascular disease biomarkers derived from circulating cell-free DNA methylation | Mapping of the gene network that regulates glycan clock of ageing | SARS-CoV-2 infection dynamics revealed by wastewater sequencing analysis and deconvolution | SARS-CoV-2 infection dynamics revealed by wastewater sequencing analysis and deconvolution | Stool and Ruminal Microbiome Components Associated With Methane Emission and Feed Efficiency in Nelore Beef Cattle | Deep Lipidomics in Human Plasma - Cardiometabolic Disease Risk and Effect of Dietary Fat Modulation | The role of respiratory microbiota in the protection against viral diseases: Respiratory commensal bacteria as next-generation probiotics for COVID-19 | Dihydroceramide- and ceramide-profiling provides insights into human cardiometabolic disease etiology | COVID-19 infection dynamics revealed by SARS-CoV-2 wastewater sequencing analysis and deconvolution | Obesity Partially Mediates the Diabetogenic Effect of Lowering LDL Cholesterol | Cardiovascular disease biomarkers derived from circulating cell-free DNA methylation | Identification and Characterization of Human Observational Studies in Nutritional Epidemiology on Gut Microbiomics for Joint Data Analysis Characterization of Human Observational Studies in Nutritional Epidemiology on Gut Microbiomics for Joint Data Analysis. Nutrients | Immunobiotic Lactobacilli Improve Resistance of Respiratory Epithelial Cells to SARS-CoV-2 Infection | Flavonoid-Modifying Capabilities of the Human Gut Microbiome—An In Silico Study | Putative mobilized colistin resistance genes in the human gut microbiome | Flavonoid modification by bacteria in the human gut - an in silico study (Poster @International Human Microbiome Conference IHMC2021) | Advanced glycation end-products, measured as skin autofluorescence, associate with vascular stiffness in diabetic, pre-diabetic and normoglycemic individuals: a cross-sectional study | Flavonoid-modifying capabilities of the gut microbiome – an in silico study | 357-P: Advanced Glycation End Products Associate with Vascular Stiffness in Diabetic, Prediabetic, and Normoglycemic Individuals | Dolosigranulum pigrum Modulates Immunity against SARS-CoV-2 in Respiratory Epithelial Cells | Nasopharyngeal Microbial Communities of Patients Infected With SARS-CoV-2 That Developed COVID-19 | Wide occurrence of putative mobilized colistin resistance genes in the human gut microbiome | Mendelian Randomization Study on Amino Acid Metabolism Suggests Tyrosine as Causal Trait for Type 2 Diabetes | Nasopharyngeal microbial communities of patients infected with SARS-COV-2 that developed COVID-19 | Fecal and Ruminal Microbiome Components Associated With Methane Emission in Beef Cattle. | Fecal and Ruminal Microbiome Components Associated With Methane Emission in Beef Cattle | Stool and ruminal microbiome components associated with methane emission and feed efficiency in Nelore beef cattle. | Replication of fifteen loci involved in human plasma protein N-glycosylation in 4,802 samples from 4 cohor | Desaturase Activity and the Risk of Type 2 Diabetes and Coronary Artery Disease: A Mendelian Randomization Study | Global ocean resistome revealed: Exploring antibiotic resistance gene abundance and distribution in TARA Oceans samples | The structure of microbial populations in Nelore GIT reveals inter-dependency of methanogens in feces and rumen | Global ocean resistome revealed: exploring Antibiotic Resistance Genes (ARGs) abundance and distribution on TARA oceans samples through machine learning tools | Homology Inference Based on a Reconciliation Approach for the Comparative Genomics of Protozoa | Supplementary Material | Recovering Genomics Clusters of Secondary Metabolites from Lakes Using Genome-Resolved Metagenomics | Table S1 | Table S7 | Table S3 | Table S2 | Table S4 | Table S5 | Table S6 | Recovering genomic clusters of secondary metabolites from lakes: a Metagenomics 2.0 approach | Supplementary Material | Distribution and Classification of Serine β-Lactamases in Brazilian Hospital Sewage and Other Environmental Metagenomes Deposited in Public Databases | Picoplankton Bloom in Global South? A High Fraction of Aerobic Anoxygenic Phototrophic Bacteria in Metagenomes from a Coastal Bay (Arraial do Cabo-Brazil) | Supplemental data | Supplemental data | Metagenomic Analysis of Upwelling-Affected Brazilian Coastal Seawater Reveals Sequence Domains of Type I PKS and Modular NRPS | An Orthology-Based Analysis of Pathogenic Protozoa Impacting Global Health: An Improved Comparative Genomics Approach with Prokaryotes and Model Eukaryote Orthologs | Towards a Comprehensive Search of Putative Chitinases Sequences in Environmental Metagenomic Databases | Detecting distant homologies on protozoans metabolic pathways using scientific workflows | OrthoSearch: A scientific workflow approach to detect distant homologies on protozoans | ProtozoaDB: Dynamic visualization and exploration of protozoan genomes</t>
+        </is>
+      </c>
+      <c r="M100" s="3" t="inlineStr">
+        <is>
+          <t>Bioinformatics | Bioinformatics and Computational Biology | R Statistical Package | Next Generation Sequencing | Genomics | Computational Biology | SQL | Transcriptomics | R | Epigenetics</t>
+        </is>
+      </c>
+    </row>
+    <row r="101" ht="80" customHeight="1" s="4">
+      <c r="B101" s="3" t="inlineStr">
+        <is>
+          <t>Michael Joner</t>
+        </is>
+      </c>
+      <c r="C101" s="3" t="inlineStr">
+        <is>
+          <t>Michael-Joner</t>
+        </is>
+      </c>
+      <c r="D101" s="3" t="inlineStr">
+        <is>
+          <t>Deutsches Herzzentrum München</t>
+        </is>
+      </c>
+      <c r="E101" s="3" t="n">
+        <v>45349</v>
+      </c>
+      <c r="F101" s="3" t="n">
+        <v>17241</v>
+      </c>
+      <c r="G101" s="3" t="n">
+        <v>47</v>
+      </c>
+      <c r="H101" s="3" t="inlineStr">
+        <is>
+          <t>Gert-Richardt | Christian-Hengstenberg-2 | Roisin-Colleran | Massimiliano-Fusaro | Oliver-Husser | Renu-Virmani | Salvatore-Cassese | Frank-Kolodgie-2 | Won-Keun-Kim-2 | Qi-Cheng-17 | Alp-Aytekin | Petra-Hoppmann | Shqipdona-Lahu | Himanshu-Rai-13 | Aloke-Finn | Sebastian-Kufner | Tareq-Ibrahim-2 | Jonathan-Michel | Adnan-Kastrati | Albert-Kasel | Teresa-Trenkwalder | Oscar-Sanchez-3 | Tobias-Rheude | Tobias-Koppara | Robert-Byrne-4 | Hiroyoshi-Mori | Erion-Xhepa | Tobias-Lenz-3 | Jens-Wiebe | Philipp-Nicol | Costanza-Pellegrini | Hendrik-Sager | Kazuyuki-Yahagi-2017345119 | Anna-Lena-Lahmann-2084852067 | Adnan-Kastrati-2120062513 | Heribert-Schunkert-2139967777 | Hector-A-Alvarez-Covarrubias-2159404129 | Maurizio-Menichelli-2162031891 | Gjin-Ndrepepa-38108330 | Karl-Ludwig-Laugwitz-38297906 | Steffen-Massberg-38388025 | Kenichi-Sakakura-38564872 | Heribert-Schunkert-38701938 | Michael-Haude-39086734 | Kristin-Steigerwald-39544714 | Franz-Josef-Neumann-39695015 | Katharina-Mayer-59136241</t>
+        </is>
+      </c>
+      <c r="I101" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="J101" s="3" t="inlineStr">
+        <is>
+          <t>Dirk Sibbing | Masataka Nakano | Christian W Hamm | Arie Pieter Kappetein | Stuart J Head | Helge Möllmann | Philippe Gabriel Steg | Pascal Vranckx | Hector M Garcia-Garcia | Massimiliano Fusaro | Evelyn Regar | Ron Waksman | Samir Kapadia | Marco Valgimigli | Renu Virmani | Patrick W Serruys | Alexandra J Lansky | Bernhard Meier | Lorenz Räber | Frank D Kolodgie | Michael J Mack | Robert Kutys | Philippe Genereux | Vinod Thourani | Julinda Mehilli | Vasilis C Babaliaros | Carlo Di Mario | Yoshinobu Onuma | Giulio Guagliumi | Gerrit-Anne Van Es | Sebastian Kufner | Stefan James | Raj Makkar | Robert-Jan Van Geuns | Gaku Nakazawa | Adnan Kastrati | Javier Escaned | Michael Böhm | Robert A Byrne | Erion Xhepa | Rebecca T Hahn | Peter Juni | William Wijns | Gregg Stone | Gert Richardt | Christian Hengstenberg | Salvatore Cassese | Tamburino Corrado | Aloke Finn | Takashi Akasaka</t>
+        </is>
+      </c>
+      <c r="K101" s="3" t="n">
+        <v>445</v>
+      </c>
+      <c r="L101" s="3" t="inlineStr">
+        <is>
+          <t>Final 3-Year Outcomes of a Randomized Trial Comparing a Self-Expanding to a Balloon-Expandable Transcatheter Aortic Valve | Coronary microevaginations characterize culprit plaques and their inflammatory microenvironment in a subtype of acute coronary syndrome with intact fibrous cap: results from the prospective translational OPTICO-ACS study | Novel bioresorbable scaffolds and lessons from recent history | Very long-term outlook of acute coronary syndromes after percutaneous coronary intervention with implantation of polymer-free versus durable-polymer new-generation drug-eluting stents | Near-infrared Spectroscopy-Intravascular Ultrasound to Improve Assessment of Coronary Artery Disease Severity in Patients Referred for Transcatheter Aortic Valve Implantation (The IMPACTavi registry): Design and Rationale | A new resorbable magnesium scaffold for de novo coronary lesions (DREAMS 3): one-year results of the BIOMAG-1 first-in-human study | Multicenter comparison of transcatheter aortic valve implantation with the self-expanding ACURATE neo2 versus Evolut PRO transcatheter heart valves | Safety and performance of the third-generation drug-eluting resorbable coronary magnesium scaffold system in the treatment of subjects with de novo coronary artery lesions: 6-month results of the prospective, multicenter BIOMAG-I first-in-human study | Safety and performance of the third-generation drug-eluting resorbable coronary magnesium scaffold system in the treatment of subjects with de novo coronary artery lesions: 6-month results of the prospective, multicenter BIOMAG-I first-in-human study | Epiphenomenon or Prognostically Relevant Interventional Target? A Novel Proportionality Framework for Severe Tricuspid Regurgitation | Fluoroscopic and tomographic correlation for aortic annulus measurements in transcatheter aortic valve implantation: �follow the right cusp� rule | Coronary artery restenosis treatment with plain balloon, drug-coated balloon, or drug-eluting stent: 10-year outcomes of the ISAR-DESIRE 3 trial | Derivation and validation of the ISAR score to predict the risk of repeat percutaneous coronary intervention for recurrent drug-eluting stent restenosis | Machine learning identifies pathophysiologically and prognostically informative phenotypes among patients with mitral regurgitation undergoing transcatheter edge-to-edge repair | Interleukin-10 -1082 G/A polymorphism and its association with early or severe presentation of coronary artery disease: A systematic review and meta-analysis | Vascular Access in Patients With Peripheral Arterial Disease Undergoing TAVR | CRT-100.8 Are There Coronary Plaque Characteristics Associated With Late Lumen Loss? Artificial Intelligence-Based Optical Coherence Tomography (OCT) Study From the First-in-Human Trial on DREAMS 3G Scaffold | CRT-600.03 Optical Coherence Tomography Characteristics of the Novel Resorbable Magnesium Scaffold at 6 Months: An Intravascular Imaging Analysis of the First-in-Human Trial on DREAMS 3G | Preclinical evaluation of the degradation kinetics of third-generation resorbable magnesium scaffolds | The impact of extra-valvular cardiac damage on mid-term clinical outcome following transcatheter aortic valve replacement in patients with severe aortic stenosis | Ten-year clinical outcomes of drug-eluting stents with different polymer coating strategies by degree of coronary calcification: a pooled analysis of the ISAR-TEST 4 and 5 randomised trials | EnVast Mechanical Thrombectomy After Thrombus Aspiration Failure in a STEMI With a Massive Thrombotic Burden | Randomized ComparIson of Strategies to PrepAre SeveRely CALCified Coronary Lesions 2: Design and rationale of the ISAR-CALC 2 trial | Association between Platelet Count and Treatment Effect of Ticagrelor or Prasugrel in Patients with Acute Coronary Syndromes | The Effect of a Prasugrel- versus a Ticagrelor-based Strategy on Total Ischemic and Bleeding Events in Patients with Acute Coronary Syndromes | Artificial intelligence-enabled phenotyping of patients with severe aortic stenosis: on the recovery of extra-aortic valve cardiac damage after transcatheter aortic valve replacement | Ticagrelor or Prasugrel in Patients With Acute Coronary Syndrome and High Bleeding Risk | ACURATE neo2 versus SAPIEN 3 Ultra for transcatheter aortic valve implantation | Echocardiographic evaluation of left ventricular function using an automated analysis algorithm is feasible for beginners and experts: comparison with invasive and non-invasive methods | 20 Interleukin-10 -1082 G/A polymorphism and its association with early or severe presentation of coronary artery disease: a systematic review and meta-analysis | 10 Stent sizing using optical coherence tomography imaging | Man-machine interaction-based phenotyping preprocedurally identifies patients with severe aortic stenosis, who will not recover from cardiac damage following transcatheter aortic valve replacement | Ticagrelor or prasugrel in patients with acute coronary syndrome and high bleeding risk | Single centre experience in transcatheter mitral valve implantation: valve in valve, valve in ring and valve in MAC | Man-machine interaction-based phenotyping identifies pathophysiologically and prognostically informative clusters among patients with mitral regurgitation undergoing transcatheter edge-to-edge repair | Changes in high-sensitivity troponin according to optical characteristics of neointima and treatment modality of in-stent restenosis | Clinical and angiographic outcomes following percutaneous treatment of non-occlusive vs. chronically total occluded coronary lesions | Ticagrelor or prasugrel in patients with acute coronary syndrome and prior myocardial infarction | Verwendung eines hypoglossalen Nervenstimulators während der Analgosedierung bei kathetergestützter AortenklappenimplantationUse of a hypoglossal nerve stimulator during analgosedation in transcatheter aortic valve implantation | Permanent pacemaker implantation and left bundle branch block with self-expanding valves - a SCOPE 2 subanalysis | TCT-596 Iliofemoral Artery Predilation Prior to Transfemoral Transcatheter Aortic Valve Implantation in Patients With Aortic Valve Stenosis and Advanced Peripheral Artery Disease | TCT-518 Bioprosthetic Valve Fracturing and Choice of Prosthesis Lowers Transvalvular Gradients in ViV-TAVR: A Linear Regression Model Analysis | Challenges of the newer generation of Resorbable magnesium scaffolds: Lessons from failure mechanisms of the past generation | Rotational Atherectomy or Balloon-Based Techniques to Prepare Severely Calcified Coronary Lesions | Intravascular molecular imaging: translating pathophysiology of atherosclerosis into human disease conditions | Timing and predictors of definite stent thrombosis in comatose survivors of out-of-hospital cardiac arrest undergoing percutaneous coronary intervention and therapeutic hypothermia (ST-OHCA study) | Ticagrelor or prasugrel in patients with acute coronary syndrome with off-hour versus on-hour presentation: a subgroup analysis of the ISAR-REACT 5 trial | Target and non-target vessel related events at 10 years post percutaneous coronary intervention | Periprocedural myocardial injury according to optical characteristics of neointima and treatment modality of in-stent restenosis | Prior Myocardial Infarction and Treatment Effect of Ticagrelor Versus Prasugrel in Patients With Acute Coronary Syndromes ‐ A Post‐hoc Analysis of the ISAR‐REACT 5 Trial | Blinded by the Lights: OCT-Guidance for Implantation of Magnesium-Based Bioresorbable Scaffolds? | Stent Optimization Using Optical Coherence Tomography and Its Prognostic Implications After Percutaneous Coronary Intervention | Harnessing feature extraction capacities from a pre-trained convolutional neural network (VGG-16) for the unsupervised distinction of aortic outflow velocity profiles in patients with severe aortic stenosis | Optical coherence tomography in coronary atherosclerosis assessment and intervention | Ten-Year Clinical Outcomes in Patients With Acute Coronary Syndrome Treated With Biodegradable, Permanent-Polymer or Polymer-Free Drug-Eluting Stents | Multicenter comparison of latest-generation balloon-expandable versus self-expanding transcatheter heart valves: Ultra versus Evolut | IMPACT OF EXTRAVALVULAR CARDIAC DAMAGE ON MID-TERM CLINICAL OUTCOME FOLLOWING TRANSCATHETER AORTIC VALVE REPLACEMENT IN PATIENTS WITH SEVERE AORTIC STENOSIS | Pre-admission antiplatelet therapy and treatment effect of ticagrelor vs. prasugrel in patients with acute coronary syndromes - a subgroup analysis of the ISAR-REACT 5 trial | Índice de masa corporal y eficacia y seguridad del ticagrelor frente al prasugrel en pacientes con síndrome coronario agudo | Solving the Pulmonary Hypertension Paradox in Patients With Severe Tricuspid Regurgitation by Employing Artificial Intelligence | Prediction of risk for bleeding, myocardial infarction and mortality after percutaneous coronary intervention in patients with acute coronary syndromes | Estudio fisiológico de la gravedad de las estenosis coronarias en pacientes con estenosis aórtica grave | Prognostic implications of impaired longitudinal left ventricular systolic function assessed by tissue Doppler imaging prior to transcatheter aortic valve implantation for severe aortic stenosis | Access Route and Clinical Outcomes After Ticagrelor Versus Prasugrel in Patients With Acute Coronary Syndrome Undergoing Invasive Treatment Strategy | Antithrombotic therapy with or without clopidogrel after transcatheter aortic valve replacement. A meta-analysis of randomized controlled trials | Histopathology-Based Deep-Learning Predicts Atherosclerotic Lesions in Intravascular Imaging | Coexistence of calcified-and lipid-containing plaque components and their association with incidental rupture points in acute coronary syndrome-causing culprit lesions: results from the prospective OPTICO-ACS study | The ACURATE neo2 valve system for transcatheter aortic valve implantation: 30-day and 1-year outcomes | Safety and efficacy of minimalist transcatheter aortic valve implantation using a new-generation balloon-expandable transcatheter heart valve in bicuspid and tricuspid aortic valves | Association of interleukin 6 -174 G/C polymorphism with coronary artery disease and circulating IL-6 levels: a systematic review and meta-analysis | Body mass index and efficacy and safety of ticagrelor versus prasugrel in patients with acute coronary syndromes | A prospective trial of a novel low‐dose paclitaxel‐coated balloon therapy in patients with restenosis in drug‐eluting coronary stents Intracoronary Stenting and Angiographic Results: Optimizing Treatment of Drug Eluting Stent In‐stent REstenosis 3A (ISAR‐DESIRE 3A) | Assessment of Impact of Patient Recruitment Volume on Risk Profile, Outcomes, and Treatment Effect in a Randomized Trial of Ticagrelor Versus Prasugrel in Acute Coronary Syndromes | TCT-409 Unsupervised Clustering of Structural and Functional Echocardiographic Parameters Identifies a High-Risk Phenotype Among Patients With Severe Mitral Regurgitation Undergoing Transcatheter Edge-to-Edge Repair | TCT-382 Optical Coherence Tomography–Based Characterization of Neointimal Atherosclerotic Changes in Patients Presenting With Very Late Stent Thrombosis or In-Stent Restenosis | TCT-337 Multicenter Propensity-Matched Comparison of Latest-Generation Self-Expanding and Balloon-Expandable Transcatheter Heart Valves | TCT-230 One-Year Results After Transcatheter Aortic Valve Replacement With Balloon-Expandable Valves: Comparison of SAPIEN 3 Ultra and SAPIEN 3 | Clinical outcomes of everolimus-eluting bioresorbable scaffolds or everolimus-eluting stents in patients with acute myocardial infarction: two-year results of the randomised ISAR-Absorb MI trial | Interleukin 6 –174 G/C polymorphism: its relation to coronary artery disease and circulating IL-6 levels – a systematic review and meta-analysis | Prognostic implications of cholesterol chrystals at ACS causing culprit lesions, insights from the translational OPTICO-ACS study program | Sub-phenotyping of patients with severe aortic stenosis undergoing transcatheter aortic valve replacement by unsupervised agglomerative clustering of echocardiographic and hemodynamic data | Ten-year clinical outcomes of polymer-free versus durable polymer new-generation drug-eluting stent in patients with coronary artery disease with and without diabetes mellitus: Results of the Intracoronary Stenting and Angiographic Results: Test Efficacy of Sirolimus- and Probucol- and Zotarolimus-Eluting Stents (ISAR-TEST 5) trial | Optical coherence tomography tissue coverage and characterization at six months after implantation of bioresorbable scaffolds versus conventional everolimus eluting stents in the ISAR-Absorb MI trial | Early spontaneous reperfusion after acute myocardial infarction: true association with plaque phenotype or simple clinical observation? | 1-Year Results After Transcatheter Aortic Valve Replacement With Balloon-Expandable Valves | Subphenotyping of Patients With Aortic Stenosis by Unsupervised Agglomerative Clustering of Echocardiographic and Hemodynamic Data | Predictors of Prosthetic Valve Regurgitation After Transcatheter Aortic Valve Implantation With ACURATE neo in the SCOPE I Trial | Prognostic Implications of Impaired Longitudinal Left Ventricular Systolic Function Assessed by Tissue Doppler Imaging Prior to Transcatheter Aortic Valve Implantation for Severe Aortic Stenosis | Long‐term clinical outcomes after drug eluting stent implantation with and without stent overlap | Twelve-month clinical outcomes in patients with acute coronary syndrome undergoing complex percutaneous coronary intervention: insights from the ISAR-REACT 5 trial | Prognostic value of glomerular function estimated by Cockcroft-Gault creatinine clearance, MDRD-4, CKD-EPI and European Kidney Function Consortium equations in patients with acute coronary syndromes | Prognostic value of haemoglobin drop in patients with acute coronary syndromes | Angiography after Out-of-Hospital Cardiac Arrest without ST-Segment Elevation | Pushing the limits for interventional treatment of aortic valve stenosisVerschiebung der Grenzen für die interventionelle Behandlung der Aortenklappenstenose | Ticagrelor or Prasugrel in Patients With Acute Coronary Syndrome in Relation to Estimated Glomerular Filtration Rate | Optimized Bioresorbable Scaffold Implantation: From PSP to CIAO and Back to Facts | Ticagrelor or Prasugrel for Patients With Acute Coronary Syndrome Treated With Percutaneous Coronary Intervention: A Prespecified Subgroup Analysis of a Randomized Clinical Trial | Ticagrelor or Prasugrel in Patients With Acute Coronary Syndrome Undergoing Complex Percutaneous Coronary Intervention | Ten‐Year Clinical Outcomes of Biodegradable Versus Durable Polymer New‐Generation Drug‐Eluting Stent in Patients With Coronary Artery Disease With and Without Diabetes Mellitus | Efficacy and safety of ticagrelor versus prasugrel in smokers and nonsmokers with acute coronary syndromes</t>
+        </is>
+      </c>
+      <c r="M101" s="3" t="inlineStr">
+        <is>
+          <t>Clinical Cardiology | Heart Failure | Stents</t>
+        </is>
+      </c>
+    </row>
+    <row r="102" ht="80" customHeight="1" s="4">
+      <c r="B102" s="3" t="inlineStr">
+        <is>
+          <t>Nora Prochnow</t>
+        </is>
+      </c>
+      <c r="C102" s="3" t="inlineStr">
+        <is>
+          <t>Nora-Prochnow</t>
+        </is>
+      </c>
+      <c r="D102" s="3" t="inlineStr">
+        <is>
+          <t>Ruhr-Universität Bochum</t>
+        </is>
+      </c>
+      <c r="E102" s="3" t="n">
+        <v>5384</v>
+      </c>
+      <c r="F102" s="3" t="n">
+        <v>870</v>
+      </c>
+      <c r="G102" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="H102" s="3" t="inlineStr">
+        <is>
+          <t>Eckart-Foerster | Sarah-Hoffmann-2 | Aiden-Haghikia | Eike-Hoffmann-3 | Georg-Zoidl | Stephan-Hollstein | Bodo-Schoenebeck | Maarten-Kamermans | Rolf-Dermietzel | Harald-Klein | Galina-Dvoriantchikova | Behnam-Bohluli | Andrew-Chan-8 | Stefanie-Bunse | Elisabeth-Petrasch-Parwez | Ralf-Schirrmacher | Johannes-W-Dietrich | Verena-Hagena | Peter-Maurer-4 | Val-Shestopalov | Lisa-Huemke | Hannes-Dambach | Joachim-Streckert | Stefan-Kurtenbach-4 | Mahboob-Ul-Hussain | Julian-Hanske | Ashkan-Rashad | Pedro-Faustmann | Andreas-Schoebel | Sara-Galozzi-2 | Inge-Schmitz | Rozan-Vroman-2 | Heiko-Richter-3 | Zahra-Moinfar-2 | Megan-Massa | Martin-Stienen | Tina-Gebing-2 | Jan-Klooster | Sajjad-Ashnagar | Oliver-Gautschi | Matthias-Schmidt-2035190653 | E-Zuelow-2068952545 | C-Berthold-2068968264 | Ralf-Gold-2163174026 | Pooyan-Sadr-Eshkevari-32027548 | Uwe-Schlegel-38975511 | Denise-Manahan-Vaughan-39318391 | D-Hinkerohe-39496038 | Claus-G-Haase-40025547 | Amr-Abdulazim-57768727</t>
+        </is>
+      </c>
+      <c r="I102" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="J102" s="3" t="inlineStr">
+        <is>
+          <t>Annamaria Vezzani | Aiden Haghikia | Georg R. Zoidl | Michael V L Bennett | William Howard Evans | Eliana Scemes | Mauricio A Retamal | Dmitry Ivanov | Maarten Kamermans | Rolf Dermietzel | Roger J Thompson | Silvia Penuela | Roberto Bruzzone | Teresita Bellido | Gerhard Paul Dahl | Stefanie Bunse | Juan C Sáez | Elisabeth Petrasch-Parwez | Johannes J van der Want | Daniela Boassa | Pablo Pelegrin | Rodolfo Iglesias | Claudia Distler | P. Gamlin | Al Fuchs | Chris Van der Togt | Val Shestopalov | Gerald Seifert | Klaus-Peter Hoffmann | Christian C Naus | Christian Giaume | Feng Qiu | Pedro M Faustmann | Roland Giolli | Joachim Bormann | Martha Bickford | Maria-Grazia De Simoni | Hans-Werner Habbes | Trijntje Sjoerdsma | Iris Fahrenfort | Jan Klooster | Marian Kremer | Bernhard Schaller | Nora Sandu | Wang Junjie | Carola Meier | Hannah Monyer | Davis Spray | Christian Steinhäuser | Petra Wahle</t>
+        </is>
+      </c>
+      <c r="K102" s="3" t="n">
+        <v>43</v>
+      </c>
+      <c r="L102" s="3" t="inlineStr">
+        <is>
+          <t>Dexamethasone and levetiracetam reduce hetero-cellular gap-junctional coupling between F98 glioma cells and glial cells in vitro | Multiple Sclerosis Patient-Specific Primary Neurons Differentiated from Urinary Renal Epithelial Cells via Induced Pluripotent Stem Cells | S2 Fig | S1 Fig | Estradiol Receptors Regulate Differential Connexin 43 Expression in F98 and C6 Glioma Cell Lines | S1 Table | Bisphosphonates and Connexin 43: A Critical Review of Evidence | Internal Ribosomal Entry Site (IRES) Activity Generates Endogenous Carboxyl-terminal Domains of Cx43 and Is Responsive to Hypoxic Conditions | Glia and epilepsy: Experimental investigation of antiepileptic drugs in an astroglia/microglia co-culture model of inflammation | Pannexin1 Channel Proteins in the Zebrafish Retina Have Shared and Unique Properties | An electrophysiologic approach to quantify impaired synaptic transmission and plasticity in experimental autoimmune encephalomyelitis | Correction: Pannexin1 Stabilizes Synaptic Plasticity and Is Needed for Learning | Pannexin1 Stabilizes Synaptic Plasticity and Is Needed for Learning | Figure S3 | Figure S4 | Table S1 | Movie S1 | Figure S1 | Figure S2 | Table S2 | Methods S1 | Functions of connexins and large pore channels on microglial cells: The gates to environment | Trigeminocardiac Reflex in Neurosurgery – Current Knowledge and Prospects | Material attrition and bone micromorphology after conventional and ultrasonic implant site preparation | TCR or not TCR? | Unified patch clamp protocol for the characterization of Pannexin 1 channels in isolated cells and acute brain slices | Electromagnetic Field Effect or Simply Stress? Effects of UMTS Exposure on Hippocampal Longterm Plasticity in the Context of Procedure Related Hormone Release | Protection from diabetes development by single-chain antibody-mediated delivery of a NF- B inhibitor specifically to -cells in vivo | Micromorphometrical analyses of five different ultrasonic osteotomy devices at the rabbit skull | Heat production during different ultrasonic and conventional osteotomy preparations for dental implants | Does Smoking Correlate with Low Back Pain and the Outcome of Spinal Surgery? | Intracellular Cysteine 346 Is Essentially Involved in Regulating Panx1 Channel Activity | Anti-inflammatory effects of the anticonvulsant drug levetiracetam on electrophysiological properties of astroglia are mediated via TGFβ1 regulation | Replacement of a single cysteine in the fourth transmembrane region of zebrafish pannexin1 alters hemichannel gating behavior | Wirkung des Chemokins CXCL-8 auf elektrophysiologische und morphologische Eigenschaften der Mikroglia | Aktivierte Mikroglia depolarisiert Astrozyten und Neuronen – Untersuchungen in einem Triple-Ko-Kultur-Modell | Effects of activated microglia on neurons and astrocytes - analyses on a triple-coculture-model | Pannexin1 in the outer retina of the zebrafish, Danio rerio | Mikrogliale Aktivierung bewirkt neuronale Depolarisation – ein Ko-Kultur-Modell für Neuroinflammation | Prochnow N, Dermietzel R.. Connexons and cell adhesion: a romantic phase. Histochem Cell Biol 130: 71-77 | In Vitro Properties of Neurons in the Rat Pretectal Nucleus of the Optic Tract | Spontaneous activity of rat pretectal nuclear complex neurons in vitro | NOT neurons in vitro</t>
+        </is>
+      </c>
+    </row>
+    <row r="103" ht="80" customHeight="1" s="4">
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Ronit Gold</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Ronit-Gold</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Tel Aviv Sourasky Medical Center</t>
+        </is>
+      </c>
+      <c r="E103" t="n">
+        <v>25992</v>
+      </c>
+      <c r="F103" t="n">
+        <v>8930</v>
+      </c>
+      <c r="G103" t="n">
+        <v>50</v>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>Christos-Krogias | Aiden-Haghikia | Hans-Lassmann | Carsten-Lukas | Kerstin-Hellwig | Carsten-Saft | Andrew-Chan-8 | Vissia-Viglietta | Niels-Kruse | Bernhard-Hemmer | Bjoern-Tackenberg | Christiane-Schneider-Gold | Hans-Peter-Hartung-3 | Heinz-Wiendl | Ludwig-Kappos | Douglas-Arnold-2 | Antonios-Kerasnoudis | Ray-Zhang-14 | Anke-Salmen | J-Phillips-7 | Jeremias-Motte | Eva-Havrdova | Gisa-Ellrichmann-2 | Reinhard-Hohlfeld | Amit-Bar-Or | Kalliopi-Pitarokoili | Peter-Rieckmann-2 | Minorva-Yang-2 | Franz-Weilbach | Alexandra-Schroeder-15356867 | Sarah-I-Sheikh-2008844932 | N-C-Kurukulasuriya-2029279835 | R-J-Fox-2047731328 | M-Maeurer-2069325694 | F-Zipp-2082596151 | Anna-Lena-Fisse-2085820593 | M-S-Yoon-2110448753 | A-Zhang-2162760893 | G-Giovannoni-29722973 | Katherine-T-Dawson-30749550 | B-Meurers-33514710 | W-Brueck-38385872 | Bernd-C-Kieseier-38471137 | Antonios-Bayas-38687496 | Krzysztof-Selmaj-39027185 | K-V-Toyka-39588660 | Ralf-A-Linker-39978518 | Heinz-Reichmann-2121583254 | Martin-Stangel-47999692 | Uwe-K-Zettl-57269038</t>
+        </is>
+      </c>
+      <c r="I103" t="n">
+        <v>50</v>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>Christopher Linington | Aiden Haghikia | Wolfgang Brück | Friedemann Paul | Ingo Kleiter | Pieter A van Doorn | Hans Lassmann | Alex Rovira | Michael Hutchinson | Mar Tintorè | Sven Jarius | Eva Havrdova | David G Macmanus | Kerstin Hellwig | Andrew Chan | Ernst W. Radue | Hugh J Willison | Bernhard Hemmer | Christiane Schneider-Gold | hans-peter Hartung | Jerry S Wolinsky | Bianca Weinstock-Guttman | Per Soelberg Soerensen | Heinz Wiendl | Ludwig Kappos | David K B Li | Eduardo Nobile-Orazio | Douglas L Arnold | Kurt Heininger | Antonios Kerasnoudis | Mara A Rocca | Emmanuelle Waubant | David B Clifford | Gerhard Giegerich | J. Theodore Phillips | Jette Frederiksen | Tomas Olsson | Moses Rodriguez | Reinhard Hohlfeld | Richard Rudick | Amit Bar-Or | Andreas Weishaupt | Peter Rieckmann | Tania Kümpfel | Sungmok Jung | Olaf Stuve | Xavier Montalban | Frederik Barkhof | Alfred Sandrock | David Cornblath</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>490</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>Characteristic retinal atrophy pattern allows differentiation between pediatric MOGAD and MS after a single optic neuritis episode | 114 Effect of siponimod on cognitive processing speed in SPMS patients with active and non-active disease | 115 Impact of siponimod on myelination across SPMS subgroups: post-hoc analysis from EXPAND MRI substudy | Bilateral giant cell arteritis with skin necrosis following SARS‐CoV‐2 vaccination | P 35. Nerve conduction studies and their clinical relevance in a cohort of patients with Parkinson's disease | FV 7. Cross-sectional area of the vagus nerve correlates with parasympathetic dysfunction in Parkinson's Disease | FV 10. Nerve conduction studies in CIDP at first diagnosis and during disease course: a cross-sectional study in a large cohort of patients | P 51. Sonographical study on morphological alterations of the peripheral nerves in a cohort of patients with Parkinson's Disease | POS0584 ULTRASONOGRAPHY OF THE MEDIAN NERVE IN PATIENTS WITH RHEUMATOID ARTHRITIS UNDER SUSPICION OF CARPAL TUNNEL SYNDROME | Autoren | Therapie der Myasthenie und myasthener Syndrome | Course of neuropsychological impairment during Natalizumab associated progressive multifocal leukoencephalopathy | FV6 Persistent pathological spontaneous activity in EMG is related to a worse outcome and atypical subtype in a cohort of CIDP patients | P42 Pain, fatigue and depressive symptoms in a cohort of 88 patients with chronic immune-mediated polyneuropathies | P37 High-resolution nerve ultrasound to distinguish chronic inflammatory demyelinating polyneuropathy from axonal polyneuropathies | P16 A case of anti-NF155 antibody-positive neuropathy: Clinical and electrophysiological course over one year in correlation with findings of high resolution nerve ultrasound and confocal corneal microscopy | P39 High resolution nerve ultrasound (HRUS) in criticall illness polyneuropathy (CIP) | FV 18 Corneal immune cell infiltration in corneal confocal microscopy confirm as biomarker for disease activity in autoimmune inflammatory neuropathies | P59 Novel approaches to establish transgenic T-cell-receptor experimental autoimmune neuritis in mice resulted in proximal dominant clinical impairments | P02 Hereditary defect of cobalamin metabolism with adolescence onset resembling multiple sclerosis: 41-year follow up | Wertigkeit der transorbitalen Sonografie bei akuter Optikusneuritis im Vergleich zur Optischen Kohärenztomografie | Schwangerschaft und multiple SklerosePregnancy and multiple sclerosis | Multiple sclerosis and family planning – Experiences from the German multiple sclerosis and pregnancy registry | Konsensuspapier zum Einsatz der therapeutischen Apherese in der Neurologie | Longer-term Safety with Siponimod Treatment in Multiple Sclerosis: Pooled Analysis of Data from the Bold and Expand Trials and their Extensions | Prospective multicenter validation of CSF protein biomarkers in patients with CIS and early MS on behalf of the German Competence Network Multiple Sclerosis (KKNMS) | P95. Immunmodulatory effects of intrathecal administration of triamcinolone in experimental autoimmune neuritis model in lewis rats | Charakteristika und Dynamik der stationären Behandlung von Parkinson-Patienten in Deutschland | High‐Resolution Nerve Ultrasound and Electrophysiological Findings in Restless Legs Syndrome | Neuroimmunological Registries in Germany | ECTRIMS/EAN Guideline on the pharmacological treatment of people with multiple sclerosis | P 26 Evaluation of clinical, electrophysiological, sonographic and MRI characteristics of the CIDP spectrum disorder | Evaluation quantitativer MRT-Biomarker bei chronisch entzündlicher demyelinisierender Polyneuropathie (CIDP) | Effect of delayed-release dimethyl fumarate on no evidence of disease activity in relapsing-remitting multiple sclerosis: Integrated analysis of the phase III DEFINE and CONFIRM studies | Oral Dimethyl Fumarate (BG-12; Tecfidera®) for Multiple Sclerosis | EPV 1. Coronal examination plane in transcranial sonography improves the discrimination between Parkinson’s disease and essential tremor. Additional benefits by sonographic determination of the tremor frequency | FV 7. Nerve ultrasound protocol in differentiating chronic neuritis | Safety and efficacy of dimethyl fumarate in multiple sclerosis: a multi-center observational study | Radiation-Induced Radiculopathy with Paresis of the Neck and Autochthonous Back Muscles with Additional Myopathy | 679 10-1055-s-0035-1552719-1 | Ablagerung von gadoliniumhaltigen Kontrastmitteln im Gehirn nach mehrfacher Anwendung: Konsequenzen für den Einsatz der MRT bei Diagnosestellung und Verlaufsbeurteilung der Multiplen Sklerose? | Cervical cord and ventricle affection in neuromyelitis optica | Development of a MS-Network for Children and Adolescents in the Rhine-Ruhr Region | Parkinson disease and multiple sclerosis are not associated with autoantibodies against structural proteins of the dermal-epidermal junction | Monitoring von Blutparametern unter verlaufsmodifizierender MS-Therapie | Longitudinal analyses of anti-JCV antibody index for risk assessment of progressive multifocal leukoencephalopathy | Daclizumab high-yield process reduced the evolution of new gadolinium-enhancing lesions to T1 black holes in patients with relapsing−remitting multiple sclerosis | Cidofovir for treatment of progressive multifocal leukoencephalopathy in a newly diagnosed sarcoidosis patient - A valid therapeutic option? | Cutaneous sodium storage is a major driver of autoimmune responses in neuroinflammation. | Therapie der Myasthenie und myasthener Syndrome | Investigation of sex-specific effects of apolipoprotein E on severity of EAE and MS | IQWiG Arbeitspapier GA15-02: "Stents zur Behandlung intrakranieller Stenosen: VISSIT Studie und Akutbehandlung in Deutschland". Kommentar des Berufsverbandes der Neuroradiologen (BDNR), der Deutschen Gesellschaft für Neuroradiologie (DGNR), der Deutschen Gesellschaft für Neurologie (DGN) und der Deutschen Schlaganfall-Gesellschaft (DSG) | Differential effects of sex steroid hormones on the chronic and acute phases of experimental autoimmune encephalomyelitis | Clinical efficacy of delayed-release dimethyl fumarate in Hispanic patients with relapsing-remitting multiple sclerosis: integrated analysis of define and confirm | Clinical efficacy of delayed-release dimethyl fumarate in Asian patients with relapsing-remitting multiple sclerosis: integrated analysis of define and confirm | Neurologische und psychiatrische Versorgung aus sektorenübergreifender Perspektive: Versorgung von Patienten mit Demenz | IQWiG-Arbeitspapier GA15-02: Stents zur Behandlung intrakranieller Stenosen: VISSIT-Studie und Akutbehandlung in Deutschland | Aktuelles zur Therapieumstellung bei Multipler Sklerose | P190. Nerve ultrasound and electrophysiology as monitoring methods of immune therapy in early onset chronic inflammatory demyelinating polyneuropathy | [People in view, brain in focus] | Comparison of clinical, electrophysiological, sonographic and MRI features in CIDP | [In Process Citation] | Erratum: MHCII-independent CD4+ T cells protect injured CNS neurons via IL-4 (Journal of Clinical Investigation (2015) 125:2 (699-714) DOI:10.1172/JCI76210) | Rate of brain volume loss under long-term delayed-release dimethyl fumarate treatment in relapsing-remitting multiple sclerosis patients: results from the ENDORSE study | Long-term efficacy of delayed-release dimethyl fumarate in newly diagnosed patients with RRMS: an integrated analysis of DEFINE, CONFIRM, and ENDORSE | Exome array GWAS in 10,000 Germans identifies association between MUC22 and multiple sclerosis | Relapses in patients treated with fingolimod after previous exposure to natalizumab | Cervical cord area is associated with infratentorial grey and white matter volume predominantly in relapsing-remitting multiple sclerosis: A study using semi-automated cord volumetry and voxel-based morphometry | Supplementary Material | Ist der Einsatz von Placebo als Kontrollgruppe in MS-Studien noch zeitgemäß? | Multiple Sklerose-Therapie so früh wie möglich – Pro | Neuropsychological impairment in natalizumab-associated progressive multifocal leukoencephalopathy: Implications for early diagnosis | Time course of clinical and neuroradiological effects of delayed-release dimethyl fumarate in multiple sclerosis | Therapieziele und Therapiemanagement bei schubförmig-remittierender Multipler Sklerose | Therapy and management of relapsing-remitting multiple sclerosis | Exome Array GWAS in 10,000 Germans Identifies Association between MUC22 and Multiple Sclerosis | Bochum ultrasound score allows distinction of chronic inflammatory from multifocal acquired demyelinating polyneuropathies | P036. Siponimod (BAF312) for the treatment of secondary progressive multiple sclerosis: Design of the phase 3 EXPAND trial | Severe Raynaud's phenomenon after treatment with interferon beta for multiple sclerosis | Family planning and multiple sclerosis | Neue Behandlungsziele bei Multipler Sklerose: Mögliche neuroprotektive Aspekte etablierter und neuer Immuntherapeutika | Review of current immunomodulatory treatment in multiple sclerosis. Summary and highlights of the new aspects in the treatment of multiple sclerosis after the approval of new oral and parenteral im- munmodulators | Long-term follow-up of the effect of delayed-release dimethyl fumarate on no evident disease activity in patients with multiple sclerosis | Five-year follow-up of delayed-release dimethyl fumarate in relapsing-remitting multiple sclerosis: MRI outcomes from DEFINE, CONFIRM, and ENDORSE | Efficacy of delayed-release dimethyl fumarate for RRMS in prior interferon users in the DEFINE and CONFIRM studies | Long-term follow-up of the safety of delayed-release dimethyl fumarate in RRMS: interim results from the ENDORSE extension study | Lymphocyte count reductions with delayed-release dimethyl fumarate: integrated analysis of the phase 2, phase 3, and extension studies | Pregnancy and fetal outcomes following natalizumab exposure in pregnancy. A prospective, controlled observational study | DGN-Leitlinie Diagnostik und Therapie der Multiplen Sklerose | Gestational Exposure to Natalizumab and Pregnancy Outcomes: Results from a Prospective Cohort with Relapsing Remitting Multiple Sclerosis | Handlungsrichtlinien der Deutschen Gesellschaft für Neurologie im Umgang mit wirtschaftlichen Interessen im Gesundheitswesen | 3-Year Follow-up of Oral BG-12 (Dimethyl Fumarate) for Relapsing-Remitting Multiple Sclerosis (RRMS): Integrated MRI Outcomes from the DEFINE, CONFIRM, and ENDORSE studies | Efficacy of Oral BG-12 (Dimethyl Fumarate) in Patients Newly Diagnosed with Relapsing-Remitting Multiple Sclerosis (RRMS): Integrated Analysis of DEFINE and CONFIRM | 3-Year Follow-up of Oral BG-12 (Dimethyl Fumarate) for Relapsing-Remitting Multiple Sclerosis (RRMS): Integrated Clinical Outcomes from the DEFINE, CONFIRM, and ENDORSE Studies | YIA4: Bochum ultrasound score versus clinical and electrophysiologal parameters in distinguishing acute-onset chronic from acute inflammatory demyelinating polyneuropathy | Natalizumab Use During the Third Trimester of Pregnancy. | Needle-free against multiple sclerosis: Dimethyl fumarate as a new oral treatment option | Efficacy of delayed-release dimethyl fumarate for relapsing-remitting multiple sclerosis (RRMS) in "non-responders'' to prior treatment with interferon beta | Interferon-beta specifically affects mitochondrial activity in CD4(+)-lymphocytes: potential mechanism of action | 4-year follow-up of delayed-release dimethyl fumarate treatment in relapsing-remitting multiple sclerosis (RRMS): integrated MRI outcomes from DEFINE, CONFIRM, and the ENDORSE extension study</t>
         </is>
       </c>
     </row>

--- a/profile_data.xlsx
+++ b/profile_data.xlsx
@@ -186,7 +186,7 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId77"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId165"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -226,7 +226,7 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId78"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId166"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -266,7 +266,7 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId79"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId167"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -306,7 +306,7 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId80"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId168"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -346,7 +346,7 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId81"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId169"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -386,7 +386,7 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId82"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId170"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -426,7 +426,7 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId83"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId171"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -466,7 +466,7 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId84"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId172"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -506,7 +506,7 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId85"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId173"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -546,7 +546,7 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId86"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId174"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -586,7 +586,7 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId87"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId175"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -626,7 +626,7 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId88"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId176"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -666,7 +666,7 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId89"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId177"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -706,7 +706,7 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId90"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId178"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -746,7 +746,7 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId91"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId179"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -786,7 +786,7 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId92"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId180"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -826,7 +826,7 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId93"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId181"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -866,7 +866,7 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId94"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId182"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -906,7 +906,7 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId95"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId183"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -946,7 +946,7 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId96"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId184"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -986,7 +986,7 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId97"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId185"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -1026,7 +1026,7 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId98"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId186"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -1066,7 +1066,7 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId99"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId187"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -1106,7 +1106,7 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId100"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId188"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -1146,7 +1146,7 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId101"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId189"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -3309,6 +3309,706 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId77"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>103</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="103" name="Image 103" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId78"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>104</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="104" name="Image 104" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId79"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>105</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="105" name="Image 105" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId80"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>106</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="106" name="Image 106" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId81"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>107</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="107" name="Image 107" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId82"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>108</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="108" name="Image 108" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId83"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>109</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="109" name="Image 109" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId84"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>110</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="110" name="Image 110" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId85"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>111</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="111" name="Image 111" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId86"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>112</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="112" name="Image 112" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId87"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>113</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="113" name="Image 113" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId88"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>114</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="114" name="Image 114" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId89"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>115</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="115" name="Image 115" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId90"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>116</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="116" name="Image 116" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId91"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>117</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="117" name="Image 117" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId92"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>118</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="118" name="Image 118" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId93"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>119</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="119" name="Image 119" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId94"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>120</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="120" name="Image 120" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId95"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>121</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="121" name="Image 121" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId96"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>122</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="122" name="Image 122" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId97"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>123</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="123" name="Image 123" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId98"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>124</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="124" name="Image 124" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId99"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>125</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="125" name="Image 125" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId100"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>126</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="126" name="Image 126" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId101"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>127</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="127" name="Image 127" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
         <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId102"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
@@ -3316,6 +4016,1745 @@
       </blipFill>
       <spPr>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>128</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="128" name="Image 128" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId103"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>129</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="129" name="Image 129" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId104"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>130</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="130" name="Image 130" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId105"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>131</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="131" name="Image 131" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId106"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>132</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="132" name="Image 132" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId107"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>133</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="133" name="Image 133" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId108"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>134</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="134" name="Image 134" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId109"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>135</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="135" name="Image 135" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId110"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>136</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="136" name="Image 136" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId111"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>137</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="137" name="Image 137" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId112"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>138</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="138" name="Image 138" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId113"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>139</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="139" name="Image 139" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId114"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>140</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="140" name="Image 140" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId115"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>141</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="141" name="Image 141" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId116"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>142</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="142" name="Image 142" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId117"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>143</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="143" name="Image 143" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId118"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>144</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="144" name="Image 144" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId119"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>145</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="145" name="Image 145" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId120"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>146</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="146" name="Image 146" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId121"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>147</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="147" name="Image 147" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId122"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>148</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="148" name="Image 148" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId123"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>149</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="149" name="Image 149" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId124"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>150</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="150" name="Image 150" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId125"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>151</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="151" name="Image 151" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId126"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>152</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="152" name="Image 152" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId127"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>153</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="153" name="Image 153" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId128"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>154</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="154" name="Image 154" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId129"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>155</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="155" name="Image 155" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId130"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>156</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="156" name="Image 156" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId131"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>157</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="157" name="Image 157" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId132"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>158</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="158" name="Image 158" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId133"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>159</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="159" name="Image 159" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId134"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>160</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="160" name="Image 160" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId135"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>161</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="161" name="Image 161" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId136"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>162</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="162" name="Image 162" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId137"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>163</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="163" name="Image 163" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId138"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>164</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="164" name="Image 164" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId139"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>165</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="165" name="Image 165" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId140"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>166</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="166" name="Image 166" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId141"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>167</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="167" name="Image 167" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId142"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>168</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="168" name="Image 168" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId143"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>169</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="169" name="Image 169" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId144"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>170</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="170" name="Image 170" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId145"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>171</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="171" name="Image 171" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId146"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>172</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="172" name="Image 172" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId147"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>173</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="173" name="Image 173" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId148"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>174</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="174" name="Image 174" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId149"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>175</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="175" name="Image 175" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId150"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>176</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="176" name="Image 176" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId151"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>177</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="177" name="Image 177" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId152"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>178</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="178" name="Image 178" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId153"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>179</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="179" name="Image 179" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId154"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>180</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="180" name="Image 180" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId155"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>181</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="181" name="Image 181" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId156"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>182</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="182" name="Image 182" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId157"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>183</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="183" name="Image 183" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId158"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>184</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="184" name="Image 184" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId159"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>185</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="185" name="Image 185" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId160"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>186</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="186" name="Image 186" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId161"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>187</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="187" name="Image 187" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId162"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>188</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="188" name="Image 188" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId163"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>189</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="189" name="Image 189" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId164"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -3612,7 +6051,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:M103"/>
+  <dimension ref="A1:M190"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A14" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
@@ -8794,49 +11233,4412 @@
       </c>
     </row>
     <row r="103" ht="80" customHeight="1" s="4">
-      <c r="B103" t="inlineStr">
+      <c r="B103" s="3" t="inlineStr">
         <is>
           <t>Ronit Gold</t>
         </is>
       </c>
-      <c r="C103" t="inlineStr">
+      <c r="C103" s="3" t="inlineStr">
         <is>
           <t>Ronit-Gold</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr">
+      <c r="D103" s="3" t="inlineStr">
         <is>
           <t>Tel Aviv Sourasky Medical Center</t>
         </is>
       </c>
-      <c r="E103" t="n">
+      <c r="E103" s="3" t="n">
         <v>25992</v>
       </c>
-      <c r="F103" t="n">
+      <c r="F103" s="3" t="n">
         <v>8930</v>
       </c>
-      <c r="G103" t="n">
-        <v>50</v>
-      </c>
-      <c r="H103" t="inlineStr">
+      <c r="G103" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="H103" s="3" t="inlineStr">
         <is>
           <t>Christos-Krogias | Aiden-Haghikia | Hans-Lassmann | Carsten-Lukas | Kerstin-Hellwig | Carsten-Saft | Andrew-Chan-8 | Vissia-Viglietta | Niels-Kruse | Bernhard-Hemmer | Bjoern-Tackenberg | Christiane-Schneider-Gold | Hans-Peter-Hartung-3 | Heinz-Wiendl | Ludwig-Kappos | Douglas-Arnold-2 | Antonios-Kerasnoudis | Ray-Zhang-14 | Anke-Salmen | J-Phillips-7 | Jeremias-Motte | Eva-Havrdova | Gisa-Ellrichmann-2 | Reinhard-Hohlfeld | Amit-Bar-Or | Kalliopi-Pitarokoili | Peter-Rieckmann-2 | Minorva-Yang-2 | Franz-Weilbach | Alexandra-Schroeder-15356867 | Sarah-I-Sheikh-2008844932 | N-C-Kurukulasuriya-2029279835 | R-J-Fox-2047731328 | M-Maeurer-2069325694 | F-Zipp-2082596151 | Anna-Lena-Fisse-2085820593 | M-S-Yoon-2110448753 | A-Zhang-2162760893 | G-Giovannoni-29722973 | Katherine-T-Dawson-30749550 | B-Meurers-33514710 | W-Brueck-38385872 | Bernd-C-Kieseier-38471137 | Antonios-Bayas-38687496 | Krzysztof-Selmaj-39027185 | K-V-Toyka-39588660 | Ralf-A-Linker-39978518 | Heinz-Reichmann-2121583254 | Martin-Stangel-47999692 | Uwe-K-Zettl-57269038</t>
         </is>
       </c>
-      <c r="I103" t="n">
-        <v>50</v>
-      </c>
-      <c r="J103" t="inlineStr">
+      <c r="I103" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="J103" s="3" t="inlineStr">
         <is>
           <t>Christopher Linington | Aiden Haghikia | Wolfgang Brück | Friedemann Paul | Ingo Kleiter | Pieter A van Doorn | Hans Lassmann | Alex Rovira | Michael Hutchinson | Mar Tintorè | Sven Jarius | Eva Havrdova | David G Macmanus | Kerstin Hellwig | Andrew Chan | Ernst W. Radue | Hugh J Willison | Bernhard Hemmer | Christiane Schneider-Gold | hans-peter Hartung | Jerry S Wolinsky | Bianca Weinstock-Guttman | Per Soelberg Soerensen | Heinz Wiendl | Ludwig Kappos | David K B Li | Eduardo Nobile-Orazio | Douglas L Arnold | Kurt Heininger | Antonios Kerasnoudis | Mara A Rocca | Emmanuelle Waubant | David B Clifford | Gerhard Giegerich | J. Theodore Phillips | Jette Frederiksen | Tomas Olsson | Moses Rodriguez | Reinhard Hohlfeld | Richard Rudick | Amit Bar-Or | Andreas Weishaupt | Peter Rieckmann | Tania Kümpfel | Sungmok Jung | Olaf Stuve | Xavier Montalban | Frederik Barkhof | Alfred Sandrock | David Cornblath</t>
         </is>
       </c>
-      <c r="K103" t="n">
+      <c r="K103" s="3" t="n">
         <v>490</v>
       </c>
-      <c r="L103" t="inlineStr">
+      <c r="L103" s="3" t="inlineStr">
         <is>
           <t>Characteristic retinal atrophy pattern allows differentiation between pediatric MOGAD and MS after a single optic neuritis episode | 114 Effect of siponimod on cognitive processing speed in SPMS patients with active and non-active disease | 115 Impact of siponimod on myelination across SPMS subgroups: post-hoc analysis from EXPAND MRI substudy | Bilateral giant cell arteritis with skin necrosis following SARS‐CoV‐2 vaccination | P 35. Nerve conduction studies and their clinical relevance in a cohort of patients with Parkinson's disease | FV 7. Cross-sectional area of the vagus nerve correlates with parasympathetic dysfunction in Parkinson's Disease | FV 10. Nerve conduction studies in CIDP at first diagnosis and during disease course: a cross-sectional study in a large cohort of patients | P 51. Sonographical study on morphological alterations of the peripheral nerves in a cohort of patients with Parkinson's Disease | POS0584 ULTRASONOGRAPHY OF THE MEDIAN NERVE IN PATIENTS WITH RHEUMATOID ARTHRITIS UNDER SUSPICION OF CARPAL TUNNEL SYNDROME | Autoren | Therapie der Myasthenie und myasthener Syndrome | Course of neuropsychological impairment during Natalizumab associated progressive multifocal leukoencephalopathy | FV6 Persistent pathological spontaneous activity in EMG is related to a worse outcome and atypical subtype in a cohort of CIDP patients | P42 Pain, fatigue and depressive symptoms in a cohort of 88 patients with chronic immune-mediated polyneuropathies | P37 High-resolution nerve ultrasound to distinguish chronic inflammatory demyelinating polyneuropathy from axonal polyneuropathies | P16 A case of anti-NF155 antibody-positive neuropathy: Clinical and electrophysiological course over one year in correlation with findings of high resolution nerve ultrasound and confocal corneal microscopy | P39 High resolution nerve ultrasound (HRUS) in criticall illness polyneuropathy (CIP) | FV 18 Corneal immune cell infiltration in corneal confocal microscopy confirm as biomarker for disease activity in autoimmune inflammatory neuropathies | P59 Novel approaches to establish transgenic T-cell-receptor experimental autoimmune neuritis in mice resulted in proximal dominant clinical impairments | P02 Hereditary defect of cobalamin metabolism with adolescence onset resembling multiple sclerosis: 41-year follow up | Wertigkeit der transorbitalen Sonografie bei akuter Optikusneuritis im Vergleich zur Optischen Kohärenztomografie | Schwangerschaft und multiple SklerosePregnancy and multiple sclerosis | Multiple sclerosis and family planning – Experiences from the German multiple sclerosis and pregnancy registry | Konsensuspapier zum Einsatz der therapeutischen Apherese in der Neurologie | Longer-term Safety with Siponimod Treatment in Multiple Sclerosis: Pooled Analysis of Data from the Bold and Expand Trials and their Extensions | Prospective multicenter validation of CSF protein biomarkers in patients with CIS and early MS on behalf of the German Competence Network Multiple Sclerosis (KKNMS) | P95. Immunmodulatory effects of intrathecal administration of triamcinolone in experimental autoimmune neuritis model in lewis rats | Charakteristika und Dynamik der stationären Behandlung von Parkinson-Patienten in Deutschland | High‐Resolution Nerve Ultrasound and Electrophysiological Findings in Restless Legs Syndrome | Neuroimmunological Registries in Germany | ECTRIMS/EAN Guideline on the pharmacological treatment of people with multiple sclerosis | P 26 Evaluation of clinical, electrophysiological, sonographic and MRI characteristics of the CIDP spectrum disorder | Evaluation quantitativer MRT-Biomarker bei chronisch entzündlicher demyelinisierender Polyneuropathie (CIDP) | Effect of delayed-release dimethyl fumarate on no evidence of disease activity in relapsing-remitting multiple sclerosis: Integrated analysis of the phase III DEFINE and CONFIRM studies | Oral Dimethyl Fumarate (BG-12; Tecfidera®) for Multiple Sclerosis | EPV 1. Coronal examination plane in transcranial sonography improves the discrimination between Parkinson’s disease and essential tremor. Additional benefits by sonographic determination of the tremor frequency | FV 7. Nerve ultrasound protocol in differentiating chronic neuritis | Safety and efficacy of dimethyl fumarate in multiple sclerosis: a multi-center observational study | Radiation-Induced Radiculopathy with Paresis of the Neck and Autochthonous Back Muscles with Additional Myopathy | 679 10-1055-s-0035-1552719-1 | Ablagerung von gadoliniumhaltigen Kontrastmitteln im Gehirn nach mehrfacher Anwendung: Konsequenzen für den Einsatz der MRT bei Diagnosestellung und Verlaufsbeurteilung der Multiplen Sklerose? | Cervical cord and ventricle affection in neuromyelitis optica | Development of a MS-Network for Children and Adolescents in the Rhine-Ruhr Region | Parkinson disease and multiple sclerosis are not associated with autoantibodies against structural proteins of the dermal-epidermal junction | Monitoring von Blutparametern unter verlaufsmodifizierender MS-Therapie | Longitudinal analyses of anti-JCV antibody index for risk assessment of progressive multifocal leukoencephalopathy | Daclizumab high-yield process reduced the evolution of new gadolinium-enhancing lesions to T1 black holes in patients with relapsing−remitting multiple sclerosis | Cidofovir for treatment of progressive multifocal leukoencephalopathy in a newly diagnosed sarcoidosis patient - A valid therapeutic option? | Cutaneous sodium storage is a major driver of autoimmune responses in neuroinflammation. | Therapie der Myasthenie und myasthener Syndrome | Investigation of sex-specific effects of apolipoprotein E on severity of EAE and MS | IQWiG Arbeitspapier GA15-02: "Stents zur Behandlung intrakranieller Stenosen: VISSIT Studie und Akutbehandlung in Deutschland". Kommentar des Berufsverbandes der Neuroradiologen (BDNR), der Deutschen Gesellschaft für Neuroradiologie (DGNR), der Deutschen Gesellschaft für Neurologie (DGN) und der Deutschen Schlaganfall-Gesellschaft (DSG) | Differential effects of sex steroid hormones on the chronic and acute phases of experimental autoimmune encephalomyelitis | Clinical efficacy of delayed-release dimethyl fumarate in Hispanic patients with relapsing-remitting multiple sclerosis: integrated analysis of define and confirm | Clinical efficacy of delayed-release dimethyl fumarate in Asian patients with relapsing-remitting multiple sclerosis: integrated analysis of define and confirm | Neurologische und psychiatrische Versorgung aus sektorenübergreifender Perspektive: Versorgung von Patienten mit Demenz | IQWiG-Arbeitspapier GA15-02: Stents zur Behandlung intrakranieller Stenosen: VISSIT-Studie und Akutbehandlung in Deutschland | Aktuelles zur Therapieumstellung bei Multipler Sklerose | P190. Nerve ultrasound and electrophysiology as monitoring methods of immune therapy in early onset chronic inflammatory demyelinating polyneuropathy | [People in view, brain in focus] | Comparison of clinical, electrophysiological, sonographic and MRI features in CIDP | [In Process Citation] | Erratum: MHCII-independent CD4+ T cells protect injured CNS neurons via IL-4 (Journal of Clinical Investigation (2015) 125:2 (699-714) DOI:10.1172/JCI76210) | Rate of brain volume loss under long-term delayed-release dimethyl fumarate treatment in relapsing-remitting multiple sclerosis patients: results from the ENDORSE study | Long-term efficacy of delayed-release dimethyl fumarate in newly diagnosed patients with RRMS: an integrated analysis of DEFINE, CONFIRM, and ENDORSE | Exome array GWAS in 10,000 Germans identifies association between MUC22 and multiple sclerosis | Relapses in patients treated with fingolimod after previous exposure to natalizumab | Cervical cord area is associated with infratentorial grey and white matter volume predominantly in relapsing-remitting multiple sclerosis: A study using semi-automated cord volumetry and voxel-based morphometry | Supplementary Material | Ist der Einsatz von Placebo als Kontrollgruppe in MS-Studien noch zeitgemäß? | Multiple Sklerose-Therapie so früh wie möglich – Pro | Neuropsychological impairment in natalizumab-associated progressive multifocal leukoencephalopathy: Implications for early diagnosis | Time course of clinical and neuroradiological effects of delayed-release dimethyl fumarate in multiple sclerosis | Therapieziele und Therapiemanagement bei schubförmig-remittierender Multipler Sklerose | Therapy and management of relapsing-remitting multiple sclerosis | Exome Array GWAS in 10,000 Germans Identifies Association between MUC22 and Multiple Sclerosis | Bochum ultrasound score allows distinction of chronic inflammatory from multifocal acquired demyelinating polyneuropathies | P036. Siponimod (BAF312) for the treatment of secondary progressive multiple sclerosis: Design of the phase 3 EXPAND trial | Severe Raynaud's phenomenon after treatment with interferon beta for multiple sclerosis | Family planning and multiple sclerosis | Neue Behandlungsziele bei Multipler Sklerose: Mögliche neuroprotektive Aspekte etablierter und neuer Immuntherapeutika | Review of current immunomodulatory treatment in multiple sclerosis. Summary and highlights of the new aspects in the treatment of multiple sclerosis after the approval of new oral and parenteral im- munmodulators | Long-term follow-up of the effect of delayed-release dimethyl fumarate on no evident disease activity in patients with multiple sclerosis | Five-year follow-up of delayed-release dimethyl fumarate in relapsing-remitting multiple sclerosis: MRI outcomes from DEFINE, CONFIRM, and ENDORSE | Efficacy of delayed-release dimethyl fumarate for RRMS in prior interferon users in the DEFINE and CONFIRM studies | Long-term follow-up of the safety of delayed-release dimethyl fumarate in RRMS: interim results from the ENDORSE extension study | Lymphocyte count reductions with delayed-release dimethyl fumarate: integrated analysis of the phase 2, phase 3, and extension studies | Pregnancy and fetal outcomes following natalizumab exposure in pregnancy. A prospective, controlled observational study | DGN-Leitlinie Diagnostik und Therapie der Multiplen Sklerose | Gestational Exposure to Natalizumab and Pregnancy Outcomes: Results from a Prospective Cohort with Relapsing Remitting Multiple Sclerosis | Handlungsrichtlinien der Deutschen Gesellschaft für Neurologie im Umgang mit wirtschaftlichen Interessen im Gesundheitswesen | 3-Year Follow-up of Oral BG-12 (Dimethyl Fumarate) for Relapsing-Remitting Multiple Sclerosis (RRMS): Integrated MRI Outcomes from the DEFINE, CONFIRM, and ENDORSE studies | Efficacy of Oral BG-12 (Dimethyl Fumarate) in Patients Newly Diagnosed with Relapsing-Remitting Multiple Sclerosis (RRMS): Integrated Analysis of DEFINE and CONFIRM | 3-Year Follow-up of Oral BG-12 (Dimethyl Fumarate) for Relapsing-Remitting Multiple Sclerosis (RRMS): Integrated Clinical Outcomes from the DEFINE, CONFIRM, and ENDORSE Studies | YIA4: Bochum ultrasound score versus clinical and electrophysiologal parameters in distinguishing acute-onset chronic from acute inflammatory demyelinating polyneuropathy | Natalizumab Use During the Third Trimester of Pregnancy. | Needle-free against multiple sclerosis: Dimethyl fumarate as a new oral treatment option | Efficacy of delayed-release dimethyl fumarate for relapsing-remitting multiple sclerosis (RRMS) in "non-responders'' to prior treatment with interferon beta | Interferon-beta specifically affects mitochondrial activity in CD4(+)-lymphocytes: potential mechanism of action | 4-year follow-up of delayed-release dimethyl fumarate treatment in relapsing-remitting multiple sclerosis (RRMS): integrated MRI outcomes from DEFINE, CONFIRM, and the ENDORSE extension study</t>
+        </is>
+      </c>
+    </row>
+    <row r="104" ht="80" customHeight="1" s="4">
+      <c r="B104" s="3" t="inlineStr">
+        <is>
+          <t>Ian Magrath</t>
+        </is>
+      </c>
+      <c r="C104" s="3" t="inlineStr">
+        <is>
+          <t>Ian-Magrath</t>
+        </is>
+      </c>
+      <c r="E104" s="3" t="n">
+        <v>25270</v>
+      </c>
+      <c r="F104" s="3" t="n">
+        <v>21455</v>
+      </c>
+      <c r="G104" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="H104" s="3" t="inlineStr">
+        <is>
+          <t>Riccardo-Dalla-Favera | Blanca-Diez | Vinod-Raina | David-Venzon | Elaine-Jaffe | Melissa-Adde | Walter-Goldschmidts | Kishor-Bhatia | Sudha-Sazawal | Tanup-Vats | Aziza-Shad | Francisco-Barriga | Denisia-Benjamin | Jacqueline-Whang-Peng | Oliver-Alabaster | Robert-Spiegel | Manorama-Bhargava | Nayera-Hamdy-14600699 | Sidnei-Epelman-2006649042 | Marina-Gutierrez-2056330796 | S-Pai-2064415660 | S-Advani-2065212930 | D-M-Knowles-2080688359 | M-Raffeld-2084033909 | G-Tosato-2097392122 | T-B-Haddy-2110427148 | Charles-B-Freeman-2163599355 | B-Shiramizu-2165108938 | John-T-Sandlund-38106860 | Edwin-C-Douglass-38676992 | Philip-A-Pizzo-38787458 | S-H-Advani-38923990 | L-S-Arya-38989833 | Shripad-Banavali-39355287 | Antonino-Neri-39489106 | David-G-Poplack-39504801 | John-L-Ziegler-39769918 | Kikkeri-N-Naresh-39777979 | James-Kiwanuka-4365241 | G-Spangler-44731298 | J-G-Judde-45717366 | M-I-Gutierrez-5301878 | D-Glaubiger-54135209 | G-Gaidano-5472704 | D-W-Kingma-5509318 | L-Novikovs-55656352 | B-K-Edwards-60746735 | C-Janus-60977372 | Charles-L-M-Olweny-60993362 | E-Sariban-61840665</t>
+        </is>
+      </c>
+      <c r="I104" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="J104" s="3" t="inlineStr">
+        <is>
+          <t>Avrum Bluming | Stefano Pileri | Joe Gootenberg | David J. Venzon | Elaine S Jaffe | Anna T Meadows | Peter F Coccia | Lawrence S Young | Kishor Bhatia | Eva Klein | Helmut Gadner | Chris Gregory | Michael Link | George P Canellos | Martin Schrappe | Martin Zimmermann | Daniel Catovsky | Kazuko Nishikura | Aziza Shad | Francisco J Barriga | Günter Henze | Kenneth B Marcu | Elliott Kieff | Jacqueline Whang-Peng | Rebecca A Taub | Scott C Howard | Lorenzo Leoncini | George Klein | Lawrence M Weiss | Fk Nkrumah | Martine Raphael | Vincent T DeVita Jr. | Giorgio Inghirami | Peter M Banks | Robert Spiegel | Bert Vogelstein | Manorama Bhargava | Glauco Frizzera | Riccardo Dalla-Favera | Wolf-Dieter Ludwig | Raul Ribeiro | Stephen K. Lwanga | Pier Giuseppe Pelicci | Hitesh Rupani | Melissa Adde | Thomas Waldmann | Judith Neequaye | Georg W. Bornkamm | Denisia Benjamin | Thilani Philip</t>
+        </is>
+      </c>
+      <c r="K104" s="3" t="n">
+        <v>389</v>
+      </c>
+      <c r="L104" s="3" t="inlineStr">
+        <is>
+          <t>Open letter to Lady Scotland | Structural Barriers to Diagnosis and Treatment of Cancer in Low- and Middle-Income Countries: The Urgent Need for Scaling Up | Oncology in Developing Countries | Cancer Contrp; in Developing Countries- Paat, Present and Future (2010) | The International Cancer Expert Corps: A Unique Approach for Sustainable Cancer Care in Low and Lower-Middle Income Countries | Overcoming Cancer in Developing Countries; How to Improve Cancer Care | Non-Hodgkin Lymphomas | Cancer in Adolescents and Young Adults in Countries with Limited Resources | An Introduction to Burkitt Lymphoma | Cancer in Adolescents and Young Adults in Countries with Limited Resources | Planning cancer control—the view of an NGO | New policies to address the global burden of childhood cancers | Pediatric cancer in low-income and middle-income countries | Special Considerations in Low and Middle Income Countries | Treatment of Burkitt lymphoma in equatorial Africa using a simple three-drug combination followed by a salvage regimen for patients with persistent or recurrent disease | Aggressive B-Cell Lymphomas | Epidemiology: Clues to the pathogenesis of Burkitt lymphoma | Towards Curative Therapy in Burkitt Lymphoma: The Role of Early African Studies in Demonstrating the Value of Combination Therapy and CNS Prophylaxis | Diagnosis of Burkitt lymphoma using an algorithmic approach - applicable in both resource-poor and resource-rich countries | Lymphomas in sub-Saharan Africa - what can we learn and how can we help in improving diagnosis, managing patients and fostering translational research? | Childhood T-lineage Acute Lymphoblastic Leukemia: Management and Outcome at a Tertiary Care Center in North India | Epidemiology and management of lymphoma in low-income countries | The World Cancer Declaration: is the world catching up? | Cancer funding in developing countries: The next health-care crisis? | The Lymphoid Neoplasms | Pattern of Relapse in Childhood ALL: Challenges and Lessons From a Uniform Treatment Protocol | Scaling up cancer diagnosis and treatment in developing countries: what can we learn from the HIV/AIDS epidemic? | Burkitt lymphoma | Lessons from clinical trials in African Burkitt lymphoma | Denis Burkitt and the African lymphoma | It Is Time to Include Cancer and Other Noncommunicable Diseases in the Millennium Development Goals | Outcomes of Patients With Burkitt Lymphoma Older Than Age 40 Treated With Intensive Chemotherapeutic Regimens | Please redress the balance of millennium development goals (vol 338, pg b2533, 2009) | Non-communicable diseases. Please redress the balance of millennium development goals | Non-communicable diseases Please redress the balance of millennium development goals | Organization of population-based cancer control programs: Europe and the World | Result of Paediatric Non Hodgkin’s Lymphoma with Intensified Short Duration Chemotherapy : A Result from Eastern India | Baseline status of paediatric oncology care in ten low-income or mid-income countries receiving My Child Matters support: a descriptive study | 50th anniversary of the discovery of Burkitt lymphoma: History and biology | A multi-centre study of the treatment and characterisation of Burkitt lymphoma in 4 African countries | Non‐Hodgkin Lymphomas | Building capacity for cancer control in developing countries: the need for a paradigm shift | My child matters program: A UICC-sanofi-aventis partnership to improve pediatric cancer care in developing countries | Result of childhood acute lymphoblastic leukemia protocol (INCTR) from a developing country | Corrigendum to “Treatment of acute lymphoblastic leukaemia in countries with limited resources; lessons from use of a single protocol in India over a twenty year peroid” [Eur J Cancer 41 (2005) 1570–1583] | HIGH‐GRADE NON‐HODGKIN'S LYMPHOMA IN PATIENTS WITH AIDSa | Treatment of Burkitt Lymphoma in Children and Adults: Lessons from Africa | Vinblastine Based Short-Pulse B-Non-Hodgkin’s Lymphoma Type Chemotherapy (CT) with Maintenance Therapy Is Highly Efficacious Treatment for Anaplastic Large Cell Lymphoma (ALCL). | Bone marrow involvement in young patients with non-Hodgkin's lymphoma: The importance of multiple bone marrow samples for accurate staging | Burkitt's lymphoma between African and American types in Turkish children: Clinical, viral (EBV), and molecular studies | Ifosfamide in the treatment of high-grade recurrent non-Hodgkin's lymphomas | Prolonged disease-free survival in pediatric non-Hodgkin's lymphoma using ifosfamide-containing combination chemotherapy | Impact of Chemotherapy for AIDS‐Related Malignancies in Pediatric HIV Disease | B-cell acute lymphoblastic leukemia and Burkitt lymphoma | Outcome of Patients &gt; Age 40 with Burkitt Lymphoma (BL) Treated with Aggressive Chemotherapuetic Regimens: Results from the International Burkitt Lymphoma Collaborative Group. | Role of the global civil society | Treatment of acute lymphoblastic leukaemia in countries with limited resources; lessons from use of a single protocol in India over a twenty year peroid | Issues in Cancer Clinical Trials (Co-sponsored by the International Network for Cancer Treatment and Research/Philippine Society of Pediatric Oncology/Philippine Society of Oncology) | Grand Strategies for Cancer Management | The importance of and obstacles to conducting clinical trials in developing countries | Frequent silencing of fragile histidine triad gene (FHIT) in Burkitt's lymphoma is associated with aberrant hypermethylation | Report of an International Network of Cancer Treatment and Research workshop on non-Hodgkin's lymphoma in developing countries | National Campaign for early diagnosis of retinoblastoma in Brazil | National Campaign for early diagnosis of retinoblastoma in Brazil | High level expression of GN6ST observed in a subgroup of acute lymphoblastic leukaemia | Differences in the Expression of Apoptotic Proteins in Burkitt's Lymphoma Cell Lines: Potential Models for Screening Apoptosis-Inducing Agents | Strategies for cancer control in developing countries | Chemotherapy in developing countries - Is less better? | Frequencies of the major subgroups of precursor B-cell acute lymphoblastic leukemia in Indian children differ from the West | Molecular Characteristics of Diffuse Large-B-Cell Lymphoma | Expression of P53 and Bcl-2 Proteins in T-cell Lymphoblastic Lymphoma: Prognostic Implications | Non-Hodgkin's lymphomas | Malignant non-Hodgkin's lymphoma in children | Editorial comment on detection of Epstein–Barr virus DNA in peripheral blood of paediatric patients with Hodgkin's disease by real-time polymerase chain reaction by Wagner and colleagues | Burkitt's/Burkitt's-Like Lymphoma Presenting as Bacterial Sinusitis in Two HIV-Infected Children | Incidence, clinical characteristics and early treatment outcome in Indian patients of childhood acute lymphoblastic leukemia with ALL-1 gene rearrangement | Increased level of stromal cell-derived factor-1 mRNA in peripheral blood mononuclear cells from children with AIDS-related lymphoma | Significance of MDR1, MRP1, GSTpi and GSTmu mRNA expression in acute lymphoblastic leukemia in Indian patients | Significance of MDR1, MRP1, GSTπ and GSTμ mRNA expression in acute lymphoblastic leukemia in Indian patients | Pediatric oncology in developing countries: Development of an alliance of stakeholders | Expression of EBV Encoded Nuclear Small Non-Polyadenylated RNA (EBER) Molecules in 32 Cases of Childhood Burkitt's Lymphoma from Israel | A pilot study for the treatment of non-Hodgkin's lymphoma in children with acquired immunodeficiency syndromes | Impact of chemotherapy for AIDS-related malignancies in pediatric HIV disease | Association of Burkitt's Lymphoma with the Epstein-Barr Virus in Two Developing Countries | Pattern of immunoglobulin (Ig) and T-cell receptor (TCR) gene rearrangements in childhood acute lymphoblastic leukemia in India | Discrepancies in Epstein-Barr virus association at presentation and relapse of classical Hodgkin's disease: Impact on pathogenesis | Association of EBV Strains, Defined by Multiple Loci Analyses, in Non-Hodgkin Lymphomas and Reactive Tissues from HIV Positive and HIV Negative Patients | Loss of Y Chromosome in Bilharzial Bladder Cancer | Molecular profile of Epstein-Barr virus infection in HHV-8-positive primary effusion lymphoma | Epstein—Barr virus association in classical Hodgkin's disease provides survival advantage to patients and correlates with higher expression of proliferation markers in Reed—Sternberg cells | Frequency of Epstein-Barr virus (EBV) association and p53 expression in childhood and adult Hodgkin's disease in India | Results of a short duration treatment protocol designed for children with Non-Hodgkin's lymphomas in developing countries | EBNA-1 Sequences in Endemic and Sporadic Burkitt’s Lymphoma | Breast Cancer: a New Epstein-Barr Virus-Associated Disease? | Histological and immunophenotypic profile of nasal NK/T cell lymphomas from Peru: High prevalence of p53 overexpression | Bar-Ner M, Thibault A, Tsokos M, Magrath IT, Samid DPhenylbutyrate induces cell differentiation and modulates Epstein-Barr virus gene expression in Burkitt's lymphoma cells. Clin Cancer Res 5: 1509-1516 | Phenylbutyrate induces cell differentiation and modulates Epstein-Barr virus gene expression in Burkitt's lymphoma cells | Essential drugs for cancer therapy: A World Health Organization consultation | Acute lymphoblastic leukemia in India: An analysis of prognostic factors using a single treatment regimen | Bax is frequently compromised in Burkitt's lymphomas with irreversible resistance to Fas-induced apoptosis</t>
+        </is>
+      </c>
+      <c r="M104" s="3" t="inlineStr">
+        <is>
+          <t>Oncology | Cloning | Protein Expression | Proteins | Apoptosis | Lymphoma | Chemotherapy | Tumors | Cancer | Hematological Malignancies</t>
+        </is>
+      </c>
+    </row>
+    <row r="105" ht="80" customHeight="1" s="4">
+      <c r="B105" s="3" t="inlineStr">
+        <is>
+          <t>Blanca Diez</t>
+        </is>
+      </c>
+      <c r="C105" s="3" t="inlineStr">
+        <is>
+          <t>Blanca-Diez</t>
+        </is>
+      </c>
+      <c r="D105" s="3" t="inlineStr">
+        <is>
+          <t>FLENI Fundation</t>
+        </is>
+      </c>
+      <c r="E105" s="3" t="n">
+        <v>8269</v>
+      </c>
+      <c r="F105" s="3" t="n">
+        <v>2895</v>
+      </c>
+      <c r="G105" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="H105" s="3" t="inlineStr">
+        <is>
+          <t>Mercedes-Garcia-Lombardi | Guillermo-Gallo-3 | Karen-Tsui-2 | Andres-Cervio | Peter-Thall | Stewart_Kellie | Jeffrey-Allen-11 | Eric-Bouffet | Howard_Weiner | Kishor-Bhatia | David-Ziegler-4 | Anita-Mahajan-4 | Johannes-Wolff-2 | Francisco-Barriga | Elena-De-Matteo | Blaise-Jones | Maryam-Fouladi | Ute-Bartels | Naomi-Arakaki | Richard-Sposto | Maria-Preciado | Ian-Magrath | Hector-Chemes | Alejandro-Muggeri | Adam-Lane-3 | Stewart-Goldman | Jonathan-Finlay | Guillermo-Chantada | Jordan-Hansford | Ira-Dunkel | Lingyun-Ji | Sharon-Gardner-2 | Lucas-Alessandro | Carl-Koschmann | Brooklyn-Chaney | Gustavo-Sevlever-11751624 | James-Leach-11976114 | Tim-Hassall-14854090 | Sidnei-Epelman-2006649042 | Bernadette-Calabrese-2079521286 | Sebastian-Cerrato-2079566190 | Rachid-Drissi-35270161 | Marc-K-Rosenblum-38942717 | Jane-Minturn-39774741 | Ana-Lia-Taratuto-39910062 | Stewart-Kellie-40079382 | M-I-Gutierrez-5301878 | Kathleen-Dorris-58080942 | Casilda-Balmaceda-6186096 | Roger-J-Packer-66970586</t>
+        </is>
+      </c>
+      <c r="I105" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="J105" s="3" t="inlineStr">
+        <is>
+          <t>Pablo Rubinstein | Ian Magrath | Ruth Jarrett | Franco Locatelli | Elaine S Jaffe | Anna T Meadows | Jeffrey Allen | Eric Bouffet | Mark L Greenberg | Lawrence S Young | Jerilynn Radcliffe | Richard F Ambinder | Eliane Gluckman | James M Boyett | John A Hansen | Hermann Herbst | Jacques Grill | Gabriele Calaminus | Chris Gregory | Neal J Weinreb | Johannes Wolff | Francisco J Barriga | Yuta Shibamoto | Patricia K Duffner | Jeffrey H Wisoff | Elliott Kieff | Maryam Fouladi | Ute Bartels | Darren Hargrave | Akira Nakagawara | Roger Warnke | Lawrence M Weiss | Stefan Rutkowski | Jean-Louis Habrand | Amar Gajjar | Maria Victoria Preciado | William Arcese | Stewart Goldman | Uri Tabori | Jonathan Finlay | Guillermo L Chantada | Ira J Dunkel | Peter M Banks | Sharon Gardner | David Barrie Jones | Riccardo Dalla-Favera | Glenn Heller | Sophie Veldhuijzen van Zanten | Hitesh Rupani | Leland Albright</t>
+        </is>
+      </c>
+      <c r="K105" s="3" t="n">
+        <v>109</v>
+      </c>
+      <c r="L105" s="3" t="inlineStr">
+        <is>
+          <t>Consequences of late diagnosis and treatment in patients with Gaucher disease type 1: Experience of the Argentine group | Erdafitinib in pediatric patients with advanced solid tumors with fibroblast growth factor receptor (FGFR) gene alterations: RAGNAR study pediatric cohort. | Characteristics of Children ≤36 Months of Age with Diffuse Intrinsic Pontine Glioma (DIPG): A Report from the International DIPG Registry | Addition of tumor localization to T2/FLAIR mismatch sign on Magnetic Resonance Imaging (MRI) for improving preoperative prediction of 1p19q codeletion in low-grade gliomas. | Final results of the Choroid Plexus Tumor study CPT-SIOP-2000 | Final Results of the Choroid Plexus Tumor Study SIOP-CPT-2000. J Neurooncol . 2022 Feb;156(3):599-613. doi: 10.1007/s11060-021-03942-0. Epub 2022 Jan 8. PMID: 34997889 PMCID: PMC8860833 DOI: 10.1007/s11060-021-03942-0 | BRMP-01. Awake cranial surgery with intraoperative language mapping for brain tumors. A single-center experience | Accuracy of Central Neuro-Imaging Review of DIPG Compared with Histopathology in the International DIPG Registry | LMD-17. Neoplastic meningitis in lung cancer: retrospective review of clinical features, diagnosis and outcome in adult patients | Diffuse midline glioma, H3 K27M-mutant (DMG,H3) with BRAF V600E mutation. Presentation of two cases treated with BRAF V600 inhibitors | LINC-05. PRIMARY CENTRAL NERVOUS SYSTEM EWING SARCOMA IN PEDIATRIC AND AYA PATIENTS: 2 INSTITUTIONS EXPERIENCE IN BUENOS AIRES ARGENTINA | DIPG-46. NON-DIPG PATIENTS ENROLLED IN THE INTERNATIONAL DIPG REGISTRY: HISTOPATHOLOGIC EVALUATION OF CENTRAL NEURO-IMAGING REVIEW | NIMG-31. NON-DIPG PATIENTS ENROLLED IN THE INTERNATIONAL DIPG REGISTRY: HISTOPATHOLOGIC EVALUATION OF CENTRAL NEURO-IMAGING REVIEW | Glioma del nervio óptico en paciente adulto con presentación hemorrágica tratado mediante abordaje endoscópico transesfenoidal extendido | RARE-43. PRIMARY CENTRAL NERVOUS SYSTEM EWING SARCOMA: A SINGLE INSTITUTION EXPERIENCE | Annals of Clinical Case Reports | Diagnostic and therapeutic approach for neurocutaneous melanosis in a young adult | LGG-56. TREATMENT WITH VEMURAFENIB IN PEDIATRIC PATIENTS WITH LOW-GRADE GLIOMAS WITH BRAF V600E MUTATION. REPORT OF 4 CASES | Melanosis neurocutánea en paciente adulto joven: abordaje diagnóstico y terapéutico | Meningeal Langerhans Cells Sarcoma Case Report | VHL Germline Mutations in Argentinian Patients with Clinical Diagnoses or Single Typical Manifestations of Type 1 von Hippel–Lindau Disease | Skeletal Involvement in Gaucher Disease: An Observational Multicenter Study of Prognostic Factors in the Argentine Gaucher Disease Patients: Prognostic factors to assess bone involvement in Gaucher disease | Trastornos vasculares por antiangiogénicos | Relapse and outcome patterns of patients with central nervous system mixed malignant germ cell tumors treated without irradiation: Findings from the Third International Central Nervous System (CNS) Germ Cell Tumor (GCT) Study: Patterns of Relapse of CNS MMGCT | OSTEOLYTIC LESIONS OF LONG BONES AS INITIAL MANIFESTATION OF ERDHEIM CHESTER DISEASE (ECD) IN A PATIENT WITH DOWN SYNDROME | BM-21 * RISK OF NEOPLASTIC MENINGITIS FROM BRAIN METASTASES IN NSCLC INITIALLY TREATED WITHOUT WHOLE BRAIN IRRADIATION: A RETROSPECTIVE ANALYSIS OF A CASE SERIES | P08.20 * EGFR MUTATIONS STATUS AND EML4 ALK FUSION IN PATIENTS WITH BRAIN METASTASES FROM NON-SMALL CELL LUNG CANCER (NSCLC) AND SURVIVAL ANALYSIS: A RETROSPECTIVE STUDY | Current treatment options for brain tumor patients | ISOLATED CNS INVOLVEMENT IN ERDHEIM-CHESTER DISEASE (ECD) | Talking to a Child with Cancer: Learning from the Experience | What’s in a name? | RARE TUMORS | Meningeal hemangiopericitoma (HPC): Treatment outcome in a retrospective series in a single institution. | Extranodal Rosai-Dorfman Disease Presenting as a Solitary Mass with Human Herpesvirus 6 Detection in a Pediatric Patient | New Challenges in Communication with Cancer Patients | MEDICAL AND NEURO-ONCOLOGY | BRAIN METASTASIS FROM NON-SMALL CELL CANCER INITIALLY TREATED WITHOUT WHOLE BRAIN IRRADIATION: A RETROSPECTIVE ANALYSIS OF A CASE SERIES | SPORADIC ORBITAL BURKITT LYMPHOMA IN A NEWBORN: CASE REPORT | MEDICAL AND NEURO-ONCOLOGY | Successful treatment of metastatic retinoblastoma with high-dose chemotherapy and autologous stem cell rescue in South America | Web-based survey of resources for treatment and long-term follow-up for children with brain tumors in developing countries | Tumores oligodendrogliales: correlación entre el genotipo tumoral e imágenes de perfusión por RM | MENINGEAL HEMANGIOPERICYTOMA: EXPERIENCE FROM A SINGLE INSTITUTION | SECOND-LINE NIMOTUZUMAB PLUS CHEMOTHERAPY IN RECURRENT HIGH-GRADE GLIOMA | INCIDENCE AND SURVIVAL IN GLIOBLASTOMA PATIENTS WITH PSEUDO-PROGRESSION IN A SINGLE INSTITUTION | SURGICAL TREATMENT OF CENTRAL NERVOUS SYSTEM HEMANGIOPERICYTOMAS | Primary Chemotherapy for Intracranial Germ Cell Tumors: Results of the Third International CNS Germ Cell Tumor Study | ATYPICAL CHOROID PLEXUS PAPILLOMA: 2008 INTERIM ANALYSIS OF THE CPT-SIOP-2000 STUDY | Evaluation of the exposure equivalence of oral versus intravenous temozolomide | Atypical choroid plexus papilloma: Clinical experience in the CPT-SIOP-2000 study | The Prognostic Value of Tumor Markers in Newly Diagnosed Patients With Primary Central Nervous System Germ Cell Tumors | Outcome of children less than three years old at diagnosis with non-metastatic medulloblastoma treated with chemotherapy on the “Head Start” I and II protocols | EGFR/AKT pathways alterations in gliomas | Intensive chemotherapy followed by consolidative myeloablative chemotherapy with autologous hematopoietic cell rescue (AuHCR) in young children with newly diagnosed supratentorial primitive neuroectodermal tumors (sPNETs): Report of the Head Start I and II experience | El desarrollo e implementación de la resonancia magnética intraoperatoria en neurocirugía (REMAIN) y su aplicación en 83 intervenciones en la Argentina | Outcome for young children newly diagnosed with ependymoma, treated with intensive induction chemotherapy followed by myeloablative chemotherapy and autologous stem cell rescue | Supratentorial primitive neuroectodermal tumors: Final outcome for children enrolled on head start I and II | Pediatric and adolescent oligodendrogliomas | Preliminary results of the third international CNS germ cell tumor study | Consenso para el tratamiento de las metástasis cerebrales | Nonmetastasic adult medulloblastoma | Large volume peripheral blood progenitor cell (PBPC) harvest in 27 pediatric solid tumor patients weighing less than 20 Kg | High dose chemotherapy with autologous stem cell rescue (ASCR) for recurrent medulloblastoma | CEREBRAL INFARCTION LINKED TO GERMINAL TUMOR | Intensive cisplatin and cyclophosphamide-based chemotherapy without radiotherapy for intracranial germinomas: Failure of a primary chemotherapy approach | Factors associated with outcomes of unrelated cord blood transplant: Guidelines for donor choice | Kellie SJ, Boyce H, Dunkel IJ, Diez B, Rosenblum M, Brualdi L, Finlay JLPrimary chemotherapy for intracranial nongerminomatous germ cell tumors: results of the second international CNS germ cell study group protocol. J Clin Oncol 22(5): 846-853 | Unrelated cord blood transplantation for childhood acute myeloid leukemia: A Eurocord Group analysis | Long-term quality of life associated with a chemotherapy-based regimen for newly diagnosed central nervous system germ cell tumors: The First International Cooperative Trial | Long-term quality of life and neuropsychologic functioning for patients with CNS germ-cell tumors: From the First International CNS Germ-Cell Tumor Study | Bone Metastases from Secondary Glioblastoma Multiforme: A Case Report | A clinico-pathological study of prognostic factors in oligodendrogliomas | Germ cell tumors of the CNS in children: Recent advances in therapy | Oncogene Expression in Tumour Cells of Pediatric Hodgkin's Disease in Argentina — Correlation with Epstein Barr Virus Presence | Pediatric Oncology in Argentina: A Historical Overview | Talking to a child with cancer - A valuable experience | Epstein Barr Virus in Argentine Pediatric Hodgkin's Disease | Chemotherapy without irradiation--a novel approach for newly diagnosed CNS germ cell tumors: results of an international cooperative trial. The First International Central Nervous System Germ Cell Tumor Study | Functional adrenal cortical tumors in pediatric patients: A clinicopathologic and immunohistochemical study of a long term follow‐up series | Functional adrenal cortical tumors in pediatric patients: A clinicopathologic and immunohistochemical study of a long term follow-up series | Presence of EBV and strain type assignment in Argentine chilhood Hodgkin's disease | Presence of Epstein-Barr virus and strain type assignment in Argentine childhood Hodgkin's disease | Epstein-Barr virus (EBV) latent membrane protein (LMP) in tumor cells of Hodgkin's disease in pediatric patients | Prognostic significance of p53 mutations in small non-cleaved cell lymphomas | N-myc oncogene and urinary catecholamines in children with neuroblastoma | Abstracts for the Tenth International Conference on Brain Tumour Research and Therapy | Strategies for applying the principles of pediatric oncology to the developing world. | Gutierrez MI, Bhatia K, Barriga F, Diez B, Muriel FS, de Andreas ML, Epelman S, Risueno C, Magrath ITMolecular epidemiology of Burkitt's lymphoma from South America: differences in breakpoint location and Epstein-Barr virus association from tumors in other world regions. Blood 79: 3261-3266 | Molecular epidemiology of Burkitt's lymphoma from South America: differences in breakpoint location and Epstein-Barr virus association from tumors in other world regions | Molecular epidemiology of Burkitt's lymphoma from South America: differences in breakpoint location and Epstein-Barr virus association from tumors in other world regions | Growth and endocrine function in children treated for retinoblastoma | ADRENAL TUMORS IN INFANCY AND ADOLESCENCE | [Molecular analysis in Argentinian patients with Burkitt's lymphoma] | PRELIMINARY RESULTS OF A PHASE II PROTOCOL WITH IFOSFAMIDE AND VP-16 FOR RECURRENT TUMORS | ONCOGENIC ACTIVATION IN NEUROBLASTOMA (NB): CLINICAL IMPLICATIONS | NEUROBLASTOMA ADVANCED STAGES: PRELIMINARY RESULTS | Malignant Germ Cell Sacrococcygeal Tumors in Children Improved Prognosis after Introduction of Cisplatin-Containing Multiple Drug Treatment | Thyroid Dysfunction in Hodgkin's Disease | THYROID DYSFUNCTION IN MALIGNANT LYMPHOMA.: 20 | [Cytogenetic studies in tumors of the nervous system]</t>
+        </is>
+      </c>
+      <c r="M105" s="3" t="inlineStr">
+        <is>
+          <t>Medulloblastoma | Neuroblastoma | Tumors | Lymphoma</t>
+        </is>
+      </c>
+    </row>
+    <row r="106" ht="80" customHeight="1" s="4">
+      <c r="B106" s="3" t="inlineStr">
+        <is>
+          <t>Mercedes Garcia Lombardi</t>
+        </is>
+      </c>
+      <c r="C106" s="3" t="inlineStr">
+        <is>
+          <t>Mercedes-Garcia-Lombardi</t>
+        </is>
+      </c>
+      <c r="D106" s="3" t="inlineStr">
+        <is>
+          <t>Hospital de Niños Ricardo Gutièrrez</t>
+        </is>
+      </c>
+      <c r="E106" s="3" t="n">
+        <v>1964</v>
+      </c>
+      <c r="F106" s="3" t="n">
+        <v>195</v>
+      </c>
+      <c r="G106" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="H106" s="3" t="inlineStr">
+        <is>
+          <t>Blanca-Diez | Scott-Coven | Karen-Tsui-2 | Eric-Bouffet | Sarah-Leary | Sridharan-Gururangan-3 | Katie-Black-10 | David-Ziegler-4 | Mohamed-Zaghloul-12 | Robert-Greiner-4 | Elena-De-Matteo | Blaise-Jones | Maryam-Fouladi | Ute-Bartels | Sylvia-Cheng | Paola-Chabay | Maria-Preciado | Pratiti-Bandopadhayay | Moatasem-El-Ayadi | Lindsay-Kilburn-2 | Adam-Lane-3 | Stewart-Goldman | Guillermo-Chantada | Jordan-Hansford | Carl-Koschmann | Brooklyn-Chaney | Gustavo-Sevlever-11751624 | James-Leach-11976114 | Tim-Hassall-14854090 | Jie-Ma-2044813139 | Christopher-L-Tinkle-2078189343 | Nicholas-Gottardo-2080147354 | Paul-Graham-Fisher-2081120492 | Florencia-Moreno-2105249181 | Tabitha-Cooney-2111008702 | Hetal-Dholaria-2111019040 | O-Jimenez-2130023874 | Lars-M-Wagner-2132308845 | Yvan-Samson-2144123172 | Sandra-Lorena-Colli-2154700512 | Christine-Fuller-2156334104 | Margot-Lazow-2174613844 | Rachid-Drissi-35270161 | Eric-Sandler-38433470 | Cynthia-Hawkins-38610453 | Kenneth-J-Cohen-38799390 | Guadalupe-Rey-39065530 | Jane-Minturn-39774741 | Kathleen-Dorris-58080942 | Roger-J-Packer-66970586</t>
+        </is>
+      </c>
+      <c r="I106" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="J106" s="3" t="inlineStr">
+        <is>
+          <t>Bruno Sangro | Mahmoud Salama | Stefano Pileri | Luigi Bolondi | Fabio Farinati | Anke van den Berg | Rocio Hassan | Giorgio Ercolani | Elaine S Jaffe | Arjan Diepstra | Alexandar Tzankov | Eric Bouffet | Lydia Visser | Manuel M Morente | Mário Henrique Magalhães Barros | Eva Steliarova-Foucher | Hiroko Ohgaki | Eduardo Motta | Edvard C I Smith | Rive Sarfstein | Piotr Czauderna | Paul Kleihues | Fernando Augusto Soares | David Ellison | Richard A Anderson | Concepció Bru | Ute Bartels | Darren Hargrave | Paola Chabay | Olle Larsson | Maria Victoria Preciado | Elias Campo | Satish Adiga | Teresa Woodruff | Fabio Piscaglia | Daniel C Aronson | Josep M. Llovet | Maria Gabriela Vera Lozada | Vincenzo Mazzaferro | Jhenifer Kliemchen Rodrigues | Luigi Mariani | Miguel Piris | Jordi Bruix | Antoinette Catherine Anazodo | Nao Suzuki | Andrew Zelenetz | Elena de Matteo | Margaret Ann Shipp | Riccardo Lencioni | Carlos Montalban</t>
+        </is>
+      </c>
+      <c r="K106" s="3" t="n">
+        <v>27</v>
+      </c>
+      <c r="L106" s="3" t="inlineStr">
+        <is>
+          <t>PD-1 and LAG-3 expression in EBV-associated pediatric Hodgkin lymphoma has influence on survival | Impact of COVID‐19 in pediatric oncology care in Latin America during the first year of the pandemic | Type 1 Insulin-Like Growth Factor Receptor Nuclear Localization in High-Grade Glioma Cells Enhances Motility, Metabolism, and In Vivo Tumorigenesis | Molecular alterations in the integrated diagnosis of pediatric glial and glioneuronal tumors: A single center experience | Impact of COVID-19 in pediatric oncology care in Latin America during the first year of the pandemic | Accuracy of Central Neuro-Imaging Review of DIPG Compared with Histopathology in the International DIPG Registry | Epstein–Barr virus recruits PDL1-positive cells at the microenvironment in pediatric Hodgkin lymphoma | LINC-05. PRIMARY CENTRAL NERVOUS SYSTEM EWING SARCOMA IN PEDIATRIC AND AYA PATIENTS: 2 INSTITUTIONS EXPERIENCE IN BUENOS AIRES ARGENTINA | DIPG-46. NON-DIPG PATIENTS ENROLLED IN THE INTERNATIONAL DIPG REGISTRY: HISTOPATHOLOGIC EVALUATION OF CENTRAL NEURO-IMAGING REVIEW | DIPG-74. RE-IRRADIATION OF DIPG: DATA FROM THE INTERNATIONAL DIPG REGISTRY | NIMG-31. NON-DIPG PATIENTS ENROLLED IN THE INTERNATIONAL DIPG REGISTRY: HISTOPATHOLOGIC EVALUATION OF CENTRAL NEURO-IMAGING REVIEW | Childhood liver tumors in Argentina: Incidence trend and survival by treatment center. A report from the national pediatric cancer registry, ROHA network 2000‐2015 | Installing oncofertility programs for common cancers in limited resource settings (Repro-Can-OPEN Study): An extrapolation during the global crisis of Coronavirus (COVID-19) pandemic | Changes in EBV Association Pattern in Pediatric Classic Hodgkin Lymphoma From a Single Institution in Argentina | M1-like macrophage polarization prevails in young children with classic Hodgkin Lymphoma from Argentina | Overexpression of survivin in pediatric Hodgkin lymphoma tumor cells: Characterization of protein expression and splice-variants transcription profile | DIPG-69. CHARACTERISTICS OF PATIENTS ≥ 10 YEARS OF AGE WITH DIFFUSE INTRINSIC PONTINE GLIOMA: A REPORT FROM THE INTERNATIONAL DIPG REGISTRY | Type 1 IGF Receptor Localization in Paediatric Gliomas: Significant Association with WHO Grading and Clinical Outcome | Childhood osteosarcoma: Incidence and survival in Argentina. Report from the National Pediatric Cancer Registry, ROHA Network 2000–2013 | “Consenso y Guías Argentinas para la Vigilancia, Diagnóstico y Tratamiento del Hepatocarcinoma” | Germline TP53 mutations and single nucleotide polymorphisms in children | Mutaciones y polimorfismos de un único nucleótido del gen TP53 en línea germinal en niños | Diffuse Hyperplastic Perilobar Nephroblastomatosis | No Influence of bcl-2, p53, and p21waf1 Protein Expression on the Outcome of Pediatric Hodgkin Lymphomas | Colorectal Carcinoma in Children, Adolescents, and Young Adults | PRELIMINARY RESULTS OF A PHASE II PROTOCOL WITH IFOSFAMIDE AND VP-16 FOR RECURRENT TUMORS | NEUROBLASTOMA ADVANCED STAGES: PRELIMINARY RESULTS</t>
+        </is>
+      </c>
+      <c r="M106" s="3" t="inlineStr">
+        <is>
+          <t>Tumor Markers | Single Nucleotide Polymorphism | Immunohistochemical Staining | Cancer Biomarkers</t>
+        </is>
+      </c>
+    </row>
+    <row r="107" ht="80" customHeight="1" s="4">
+      <c r="B107" s="3" t="inlineStr">
+        <is>
+          <t>Guillermo Gallo</t>
+        </is>
+      </c>
+      <c r="C107" s="3" t="inlineStr">
+        <is>
+          <t>Guillermo-Gallo-3</t>
+        </is>
+      </c>
+      <c r="D107" s="3" t="inlineStr">
+        <is>
+          <t>Hospital Italiano de Buenos Aires</t>
+        </is>
+      </c>
+      <c r="E107" s="3" t="n">
+        <v>1452</v>
+      </c>
+      <c r="F107" s="3" t="n">
+        <v>1158</v>
+      </c>
+      <c r="G107" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="H107" s="3" t="inlineStr">
+        <is>
+          <t>Maria-Garcia-De-Davila | Blanca-Diez | Pedro-Zubizarreta | Fumio-Yamaguchi | Jorge-Ferraris | Silvia-Christiansen | Beatriz-Livellara | Omar-Galdame | Eduardo-Santibanes | Maria-Felice | Eduardo-Mullen | Daniel-Alderete | Patricio-Ray | Lian-Xu-3 | Miguel-Ciardullo | Sung-Ho-Hyon | Maria-Preciado | Paula-Coccia-3 | Hector-Chemes | Alejandra-Villamil-2 | Diana-Diaz-22 | Guillermo-Chantada | Daniel-Dagostino | Maria-Gracia-Caletti-10823935 | Hugo-Pomata-11180254 | Gustavo-Sevlever-11751624 | AM-Pierini-2009179481 | IRENE-MARCO-2009797449 | Federico-Sackmann-Muriel-2031768671 | Jorge-Monges-2061428411 | A-Gadano-2070866076 | F-Mendilaharzu-2084040132 | N-Delgado-2087888972 | L-Schwartz-2121990069 | Hilario-Ferrero-2163791527 | Sandra-Casak-35334248 | ET-Sojo-3549729 | Sonia-Iorcansky-38121242 | Gabriela-Sciuccati-38643658 | Margarita-Vitacco-38730151 | Fernando-Mendilaharzu-39489163 | Carlos-A-Gianantonio-39510867 | Marcelo-Scopinaro-39570593 | Ana-Lia-Taratuto-39910062 | H-Noltenius-45128584 | Enrique-Schvartzman-54419131 | Jose-A-Ramirez-64254738 | Lila-Penchansky-64882045 | Lilian-Diaz-MD-83166182 | Xue-Hui-Liu-9508505</t>
+        </is>
+      </c>
+      <c r="I107" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="J107" s="3" t="inlineStr">
+        <is>
+          <t>Blanca Diez | Kambiz Moazed | Susana Devoto | Elaine S Jaffe | Lucienne Michaux | Peter g Smith | Anna T Meadows | Iwona Wlodarska | Peter F Coccia | James R Anderson | Leslie White | Atilla Elhan | Willem Proesmans | Susan L Tucker | Maria S Felice | John Bruce Beckwith | Clifford Lingwood | Helmut Gadner | Berta Jereb | Jean-Claude Gentet | Jeffrey B Kopp | Martin Schrappe | Martin Zimmermann | Paul E Klotman | Jacques Otten | Markus Tiemann | Günter Henze | Jean-Michel Henri Zucker | Herman Van den Berghe | Beth Binnington | Eduardo Rosenblatt | François Pein | Georg Mann | Fady Geara | Helmuth Goepfert | Lamberto Oldrizzi | Peter r Egbert | Maria Albertsson | Mohamed A Karmali | Helmut G Rennke | Peter M Banks | Nicola Tessitore | Michael J Dillon | David Cox | Wolf-Dieter Ludwig | Pedro Zubizarreta | Scott Lippman | Thilani Philip | Rezaur Rahman Habib | Lester Peters</t>
+        </is>
+      </c>
+      <c r="K107" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="L107" s="3" t="inlineStr">
+        <is>
+          <t>Extranodal Rosai-Dorfman Disease Presenting as a Solitary Mass with Human Herpesvirus 6 Detection in a Pediatric Patient | Rhabdomyosarcoma with cutaneous presentation | ACUTE REJECTION AFTER SIMULTANEOUS KIDNEY PANCREAS TRANSPLANTATION WITH DIFFERENT IMMUNOSUPPRESSIVE REGIMENS.: 1032 | Síndrome urémico hemolítico. Tratamiento de la glomerulopatía secundaria | Rescue of patients with unresectable hepatocellular carcinoma with pre-transplant transarterial chemoembolization is associated with increased post-trasplant recurrence | Nefritis tubulo intersticial asociada a parvovirus b19 | Hemolytic uremic syndrome. Treatment of secondary glomerulopathy | Tubulointerstitial nephritis associated with parvovirus β19 infection | Treatment of B-cell malignancies in children with a modified BFM-NHL 90 protocol in Argentina | Trisomy 3 in two paediatric post-transplant lymphomas | Acute renal failure in typical Kawasaki disease | Nasopharyngeal carcinoma in childhood and adolescence: a single-institution experience with combined therapy | Nasopharyngeal carcinoma in childhood and adolescence | 218Outcome in liver transplantation in under one year old infants in the living related donors era | 156Optimal timing for switching ciclosporin to tacrolimus in the treatment of steroid-resistant acute rejection in liver transplant recipients | Hepatic arterial thrombosis due to Mucor species in a child following orthotopic liver transplantation | Familial idiopathic myelofibrosis and multiple hemangiomas | Familial idiopathic myelofibrosis and multiple hemangiomas | Infections mimicking central nervous system (CNS) tumors. | Hodgkin disease in children: Results of a prospective randomized trial in a single institution in Argentina | Hodgkin disease in children: Results of a prospective randomized trial in a single institution in Argentina | Results of a BFM‐based protocol for the treatment of childhood B‐non‐Hodgkin's lymphoma and B‐Acute lymphoblastic leukemia in Argentina | Results of a BFM‐based protocol for the treatment of childhood B‐non‐Hodgkin's lymphoma and B‐Acute lymphoblastic leukemia in Argentina | Novel Role of bFGF in the Pathogenesis of Classic Hemolytic Uremic Syndrome(HUS). ??? 1681 | Development of focal segmental sclerosis and hyalinosis in hemolytic uremic syndrome | Wilms' tumor treated with chemotherapy in a patient with a solitary kidney | PAPILLARY THYROID CARCINOMA &amp;lpar;Ca&amp;rpar; IN CHILDREN AND ADOLESCENTS: DIFFERENCES IN AGGRESIVENESS AND NEW STRATEGY OF FOLLOW UP | MENINGIOANGIOMATOSIS: an immunocytochemical study: 223 | Dysembryoplastic Neuroepithelial Tumor | Abstracts for the Tenth International Conference on Brain Tumour Research and Therapy | MALIGNANT MESENCHYMAL TUMORS: TREATMENT ACCORDING TO MMT-84/STOP PROTOCOL (Pt) | Cholesterol Ester Storage Disease: Clinical, Biochemical, and Pathological Studies of Four New Cases | Treatment of retinoblastoma: Results obtained from a prospective study of 51 patients | Treatment of retinoblastoma. Results obtained from a prospective study of 51 patients | HEMOLYTIC UREMIC SYNDROME: EARLY RENAL LESIONS AND LATE PROGNOSIS | [Diagnosis and follow-up of 42 pediatric cases of membranoproliferative glomerulonephritis] | The Association of Wilms' Tumor, Male Pseudohermaphroditism and Diffuse Glomerular Disease (Drash Syndrome)Report of Eight Cases with Clinical and Morphologic Findings and Review of the Literature | The Association of Wilms' Tumor, Male Pseudohermaphroditism and Diffuse Glomerular Disease (Drash Syndrome) | Glandular Schwannoma in A 17-Month-Old Child | Comparison of two consecutive trials for the treatment of non-Hodgkin's Lymphoma | [Nasopharyngeal carcinoma in pediatrics] | ‘Pulse’ Methylprednisolone Therapy in the Treatment of Acute Crescentic Glomerulonephritis | [Primary nephrotic syndrome. Follow-up of 202 pediatric patients] | 54 CONGENITAL HEPHROTIC SYNDROME (C.N.S.) | 25 EXTRARENAL LESIONS IN THE UREMIC HAEMOLYTIC SYNDROME | [Association of Wilms' tumor, pseudohermaphroditism and glomerular nephropathy. Partial and complete forms of the syndrome] | Rhabdomyosarcoma of the kidney in children | Pathology of ???Uninvolved??? Renal Parenchyma in Nephroblastoma | Cystic nephroma | THYROID CANCER IN CHILDREN AND ADOLESCENTS | Leiomyomatous tumors of the infant kidney | The Hemolytic-Uremic Syndrome | [Biopsy in the course of a severe glomerulo-nephritis following streptococcal infection in childhood] | [The hemolytic-uremic syndrome in childhood] | Renal functional damage during the course of lithium therapy. (A case report with renal biopsy findings) | Efectos patogénicos del factor básico del crecimiento fibro- blástico (bFGF) en el síndrome urémico hemolítico# Actualización | Nefritis tubulointersticial por estreptococo β β β β β-hemolítico del grupo A Causa infrecuente de insuficiencia renal aguda en la edad pediátrica | The hemolytic-uremic syndrome | The hemolytic-uremic syndromeRenal status of 76 patients at long-term follow-up | Immunofluorescent Localization of Globulin Deposits in Relation to Human Glomerular Basement Membranes</t>
+        </is>
+      </c>
+      <c r="M107" s="3" t="inlineStr">
+        <is>
+          <t>Liver Transplantation</t>
+        </is>
+      </c>
+    </row>
+    <row r="108" ht="80" customHeight="1" s="4">
+      <c r="B108" s="3" t="inlineStr">
+        <is>
+          <t>Robert Spiegel</t>
+        </is>
+      </c>
+      <c r="C108" s="3" t="inlineStr">
+        <is>
+          <t>Robert-Spiegel</t>
+        </is>
+      </c>
+      <c r="D108" s="3" t="inlineStr">
+        <is>
+          <t>PTC Therapeutics</t>
+        </is>
+      </c>
+      <c r="E108" s="3" t="n">
+        <v>8129</v>
+      </c>
+      <c r="F108" s="3" t="n">
+        <v>4510</v>
+      </c>
+      <c r="G108" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="H108" s="3" t="inlineStr">
+        <is>
+          <t>Joseph-Mcintosh-2 | Marla-Weetall | Tuyen-Ong | P-Riebling | Craig-Mcdonald-6 | Geoffrey-Shapiro | Hans-Kroger-2 | Temitayo-Ajayi | Christopher-Trotta | Joseph-Colacino | Eitan-Kerem | Marcio-Souza-19 | Richard-Abresch | Eduard-Gappmaier | William-Robinson-31 | Michelle-Eagle | Daniel-Von-Hoff | Michael-Konstan | Howard-Ozer | Ian-Magrath | Kate-Bushby | Xiaohui-Luo-3 | Richard-Finkel | J-Sheedy | Edward-Omara | Erik-Henricson | Bansri-Furia-2020819823 | J-Barth-2024217133 | Ronald-Kong-2052726600 | J-L-Speyer-2083183597 | Arthur-Branstrom-2119150522 | John-Baird-2145216193 | Oscar-L-Laskin-2152043529 | Kylie-OKeefe-2159485688 | R-A-Kempf-2162691181 | G-L-Elfring-3605042 | Julaine-Florence-38209195 | Michael-Wilschanski-38759207 | Philippe-L-Bedard-38849538 | I-Sermet-Gaudelus-39388805 | Paul-P-Trotta-39451438 | David-G-Poplack-39504801 | Stuart-W-Peltz-39719255 | K-De-Boeck-40046548 | Frank-J-Accurso-40095557 | Franco-M-Muggia-44342798 | A-Reha-53458322 | B-K-Edwards-60746735 | E-Bonnem-61808626</t>
+        </is>
+      </c>
+      <c r="I108" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="J108" s="3" t="inlineStr">
+        <is>
+          <t>Jorge Quesada | Daniel D. Von Hoff | Hakan Mellstedt | Ian Magrath | Luisa Politano | Allan Jacobson | Gregory T Carter | Craig M McDonald | Enrico Bertini | Thomas C Merigan | John M Kirkwood | David Samuel Alberts | Jessica Rose | Joseph M Colacino | Angela Berardinelli | Luca Bello | young-choon Moon | Antonella Pini | Richard Ted Abresch | Claudio Bruno | Neil G Almstead | Ellen Welch | Eduard Gappmaier | Thomas W Davis | Liangxian Cao | Michelle Eagle | Hans Strander | Philip Schein | Adele D'Amico | Howard Ozer | Kevin Flanigan | Brian G. Durie | Kate Bushby | Marika Pane | Gessica Vasco | Patrick Trown | Mohamed Itri | Richard S Finkel | J. Sheedy | Nicole Risher | Erik Henricson | Giuseppe Vita | Marla Weetall | Roberto De Sanctis | Elena Pegoraro | Valerie Northcutt | David Birnkrant | Sonia Messina | Susan Krown | Filippo Cavallaro</t>
+        </is>
+      </c>
+      <c r="K108" s="3" t="n">
+        <v>120</v>
+      </c>
+      <c r="L108" s="3" t="inlineStr">
+        <is>
+          <t>1528TiP A phase II/III study evaluating the efficacy and safety of unesbulin in advanced leiomyosarcoma (SUNRISELMS) | Emvododstat, a Potent Dihydroorotate Dehydrogenase Inhibitor, Is Effective in Preclinical Models of Acute Myeloid Leukemia | Preclinical and Early Clinical Development of PTC596, a Novel Small Molecule Tubulin-Binding Agent | Pharmacokinetics and Safety of PTC596, a Novel Tubulin‐Binding Agent, in Subjects With Advanced Solid Tumors | Inhibition of De Novo Pyrimidine Nucleotide Synthesis By the Novel DHODH Inhibitor PTC299 Induces Differentiation and/or Death of AML Cells | Abstract 292: PTC596 combination therapy for sarcoma | Abstract 292: PTC596 combination therapy for sarcoma | PTC299 IS A NOVEL DHODH INHIBITOR FOR USE IN TREATMENT OF AML: PS1004 | Ataluren in patients with nonsense mutation Duchenne muscular dystrophy (ACT DMD): A multicentre, randomised, double-blind, placebo-controlled, phase 3 trial | Use of a ≥ 5-second threshold in baseline time to stand from supine to predict disease progression in Duchenne muscular dystrophy | Slope analysis of 6-minute walk distance as an alternative method to determine treatment effect in trials in Duchenne muscular dystrophy | Phase 1 results of PTC596, a novel small molecule targeting cancer stem cells (CSCs) by reducing levels of BMI1 protein. | Lung Function in Ataluren-Treated, Nonambulatory Patients with Nonsense Mutation Duchenne Muscular Dystrophy from a Long-Term Extension Trial | Meta-analyses of Ataluren in Patients with Nonsense Mutation Duchenne Muscular Dystrophy | Lung function in ataluren-treated, non-ambulatory patients with nonsense mutation Duchenne muscular dystrophy from a long-term extension trial versus untreated patients from a natural history study | Phase 1 results of PTC596, a novel small molecule targeting cancer stem cells (CSCs) by reducing levels of BMI1 protein | Results of North Star ambulatory assessments in the phase 3 ataluren confirmatory trial in patients with nonsense mutation Duchenne muscular dystrophy (ACT DMD) | Initial first-in-human phase 1 results of PTC596, a novel small molecule that targets cancer stem cells (CSCs) by reducing BMI1 protein levels | A.06 Ataluren: an overview of clinical trial results in nonsense mutation Duchenne Muscular Dystrophy (nmDMD) | D.08 ACT DMD (Ataluren Confirmatory Trial in Duchenne Muscular Dystrophy): effect of Ataluren on timed function tests (TFT) in nonsense mutation (nm) DMD | The Six-Minute Walk Test (6MWT) as Endpoint in Duchenne Muscular Dystrophy (DMD) Clinical Studies | Ataluren: Clinical Trial Results in Nonsense Mutation Duchenne Muscular Dystrophy (nmDMD) | Results of North Star Ambulatory Assessments in the Phase 3 Ataluren Confirmatory Trial in Patients with Nonsense Mutation Duchenne Muscular Dystrophy (ACT DMD) | Phase 1 Study of Safety, Tolerability, and Pharmacokinetics of PTC299, an Inhibitor of Stress-Regulated Protein Translation | Are effects of Translarna (Ataluren) on muscle strength more discernible in younger patients with Duchenne muscular dystrophy (DMD)? | HIGH INCIDENCE AND BROAD GENETIC VARIABILITY OF MECKEL-GRUBER SYNDROME IN THE ARAB POPULATION RESIDING IN NORTH-EAST ISRAEL | P159 – 2412: First drug registry in Duchenne muscular dystrophy (DMD) to assess Translarna use, safety, and effectiveness in routine clinical practice | Design of a Confirmatory Phase 3, Multicenter, Randomized, Double Blind, Placebo-Controlled Study (ACT DMD) of Ataluren in Patients with Nonsense Mutation Duchenne Muscular Dystrophy | Internal consistency and robustness of clinical efficacy data from the phase 2b study of ataluren (PTC124 (R)) in nonsense mutation Duchenne muscular dystrophy | Timed function tests and other physical function outcomes in Ataluren-treated patients with nonsense mutation Duchenne Muscular Dystrophy (nmDMD) | Supplementary Material | Ataluren treatment of patients with nonsense mutation dystrophinopathy | Ataluren for the treatment of nonsense-mutation cystic fibrosis: A randomised, double-blind, placebo-controlled phase 3 trial | 94 The effect of Pseudomonas aeruginosa infection on pulmonary function outcome in a cohort of patients with nonsense mutation cystic fibrosis | PP3.3 – 1808 Disease-related symptoms and activities of daily living: a novel survey of patients with nonsense mutation Duchenne muscular dystrophy | P.11.18 Design of a confirmatory phase 3, multicenter, randomized, double-blind, placebo-controlled study of ataluren in patients with nonsense mutation Duchenne muscular dystrophy | P.2.9 The 6-min walk test and other endpoints in Duchenne MD: Multi center longitudinal natural history observations over 48weeks | USE OF DIFFERENT PULMONARY EXACERBATION DEFINITIONS IN THE PHASE 3 CLINICAL TRIAL OF ATALUREN IN PATIENTS WITH NONSENSE MUTATION CYSTIC FIBROSIS | THE USE OF CHRONIC INHALED ANTIBIOTICS IN THE PHASE 3 CLINICAL TRIAL OF ATALUREN IN PATIENTS WITH NONSENSE-MUTATION CYSTIC FIBROSIS | P.2.8 The 6-min walk test and clinical endpoints in Duchenne MD: Reliability, validity, and clinically-important differences | THE 6-minute walk test and other endpoints in Duchenne muscular dystrophy: Longitudinal natural history observations over 48 weeks from a multicenter study | The 6-minute walk test and other clinical endpoints in duchenne muscular dystrophy: Reliability, concurrent validity, and minimal clinically important differences from a multicenter study | P292 – 1807 Design of a Confirmatory Phase 3, multicenter, randomized, double-blind | WS7.5 Interim results of the phase 3 open-label study of ataluren in nonsense mutation cystic fibrosis (nmCF) | 63 The use of high resolution computerized tomography of the chest in evaluating the effect of ataluren in nonsense mutation cystic fibrosis (nmCF) lung disease | On the updated ECCO consensus guidelines for medical management of Crohn's disease | The Ribavirin Pregnancy Registry: Findings after 5 Years of Enrollment, 2003-2009 | WITHDRAWN: On the updated ECCO consensus guidelines for medical management of Crohn's disease | Survival Experience of 195 Patients with Hairy Cell Leukemia Treated in a Multi-Institutional Study with Interferon-Alfa 2B | Approval Standards for Alfa Interferon Subtypes | DISCUSSION OF PAPER BY WEI AND GLIDDEN | Complete remission induction with combined VBMCP chemotherapy and interferon (rIFNα2b) in patients with multiple myeloma | Biologic therapy of cancer | Interferon α-2a and dacarbazine in melanoma | Interferon -2a and Dacarbazine in Melanoma | Alpha Interferons: 1989 | Alpha interferons: a clinical overview | Anti-interferon antibodies to interferon-alpha 2b: results of comparative assays and clinical perspective | Cost-Benefit Analysis of Interferon Alfa-2b in Treatment of Hairy Cell Leukemia | Alpha-Interferon in Superficial Bladder Cancer: A Northern California Oncology Group Study | Minimal anligenicity of lntron A in human recipients demonstrated by three analytical methods | Additional indications for interferon therapy: Basal cell carcinoma, carcinoid, and chronic active hepatitis | Treatment of epidemic Kaposi's sarcoma with a combination of interferon-alpha 2(b) and etoposide | Phase I Trial of Escalating Dose Doxorubicin Administered Concurrently with α2-Interferon | Role of recombinant interferon alpha2 and cimetidine in patients with advanced malignant melanoma | Alfa-2b interferon in the treatment of Hodgkin's disease and non-Hodgkin's lymphoma | Alpha interferons: A clinical overview | Interferons in oncology: Current status and future directions | A phase I clinical trial of recombinant DNA gamma interferon | Phase II studies of PCNU and bisantrene in advanced renal cell carcinoma | Clinical overview of alpha interferon. Studies and future directions | Interferon alfa-2b/melphalan/prednisone in previously untreated patients with multiple myeloma: a phase I-II trial | Treatment of Kaposi's sarcoma interferon alfa-2b (Intron A) | The Role of Interferon in the Treatment of B-Cell Malignancies | Interferon: Current concepts of mechanisms of action | Summary: Current Status and Future Directions | Reduced Plasma Lipoprotein Lipase Activity in Patients with Malignancy-Associated Weight Loss | Phase I Study of α2-Interferon plus Doxorubicin in Patients with Solid Tumors | Treatment of Metastatic Malignant Melanoma with Recombinant Interferon Alpha 2 | Intron A (Interferon Alfa-2b): Clinical overview and future directions | Alpha-2-interferon/melphalan/prednisone in previously untreated patients with multiple myeloma: A phase I-II trial | Recombinant interferon α-2 (INTRON A) in a phase II study of renal cell carcinoma | Low incidence of serum neutralizing factors in patients receiving recombinant alfa-2b interferon (Intron-A) | INTRON A (interferon alfa-2b): clinical overview | Combined recombinant human interferon alpha 2 and cytotoxic agents studied in a clonogenic assay | Combined recombinant human interferon alpha2 and cytotoxic assay | Phase II study of recombinant alpha-2 interferon in resistant myeloma | Interferon-α: Current status and future promise | Synergy In Vitro and in Clinical Trials | Phase I/II Clinical Trials | Use in patients with resistant and relapsing Multiple Myeloma. A Phase II Study | Clinical Trials in Non-Hematologic Malignancies | Treatment of Massive Intrathecal Methotrexate Overdose by Ventriculolumbar Perfusion | An effective therapy for both undifferentiated (including Burkitt's) and lymphoblastic lymphoma in children and young adults | An effective therapy for both undifferentiated (including Burkitt's) lymphomas and lymphoblastic lymphomas in children and young adults | Fluorescence polarization as a parameter of plasma lipids in patients with hematologic malignancies | Clinical development of bisantrene: a novel anthracene derivative | Clinical trials of bisantrene in melanoma and renal cell carcinoma | Lactate dehydrogenase isoenzymes in normal and malignant human lymphoid cells | Lactate dehydrogenase isoenzymes in normal and malignant human lymphoid cells</t>
+        </is>
+      </c>
+      <c r="M108" s="3" t="inlineStr">
+        <is>
+          <t>Cystic Fibrosis | Burkitt's Lymphoma | Hematology | Lymphoma | Leukemia | Interferon | Clinical Drug Development | Anti-Inflammatory Agents | Rheumatoid Arthritis | Inflammatory Bowel Disease</t>
+        </is>
+      </c>
+    </row>
+    <row r="109" ht="80" customHeight="1" s="4">
+      <c r="B109" s="3" t="inlineStr">
+        <is>
+          <t>Joseph Mcintosh</t>
+        </is>
+      </c>
+      <c r="C109" s="3" t="inlineStr">
+        <is>
+          <t>Joseph-Mcintosh-2</t>
+        </is>
+      </c>
+      <c r="D109" s="3" t="inlineStr">
+        <is>
+          <t>PTC Therapeutics</t>
+        </is>
+      </c>
+      <c r="E109" s="3" t="n">
+        <v>2109</v>
+      </c>
+      <c r="F109" s="3" t="n">
+        <v>413</v>
+      </c>
+      <c r="G109" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="H109" s="3" t="inlineStr">
+        <is>
+          <t>Panayiota-Trifillis | Tuyen-Ong | Heather-Gordish-Dressman | P-Riebling | Haluk-Topaloglu | Craig-Mcdonald-6 | Isabelle-Desguerre | Ulrike-Schara | Enrico-Bertini | Brigitte_Chabrol | Hans-Kroger-2 | Thomas-Sejersen | Gihan-Tennekoon-2 | Katherine-Mathews-3 | Mar-Tulinius | Linda-Lowes | Marcio-Souza-19 | Janbernd-Kirschner | Raul-Escobar | Neil-Almstead | Andres-Nascimento | Siva-Narayanan | Anna-Mayhew-2 | Michelle-Eagle | Juan-Vilchez-2 | Nathalie-Goemans | Lauren-Morgenroth | Leslie-Nelson-2 | Kevin-Flanigan | Yoram-Nevo-3 | Alexandra-Prufer-De-Queiroz-Campos-Araujo | Lindsay-Alfano-2 | Xiaohui-Luo-3 | Richard-Finkel | Kathryn-Selby | Kristy-Rose | Monique-Ryan-2 | Robert-Spiegel | Edward-Omara | Kristi-Jones-2 | Perry-Shieh-2 | Ronald-Kong-2052726600 | J-Ben-Renfroe-2130657101 | Fengbin-Jin-2145215280 | E-Mercuri-2147849579 | C-Werner-2162782914 | G-L-Elfring-3605042 | F-Muntoni-39441203 | Stuart-W-Peltz-39719255 | Basil-T-Darras-42933485</t>
+        </is>
+      </c>
+      <c r="I109" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="J109" s="3" t="inlineStr">
+        <is>
+          <t>Luisa Politano | Thierry Kuntzer | Giacomo P Comi | Allan Jacobson | Matthew H Liang | Haluk Topaloglu | Craig M McDonald | Ros Mary christina Quinlivan | Enrico Bertini | Ajay Kaul | Frederic Shapiro | Stefan Cano | Anne H Fossel | Thomas Sejersen | Avital Cnaan | Annemieke Aartsma-Rus | Laura E Case | Luca Bello | Richard Ted Abresch | Janbernd Kirschner | Ellen Welch | Eduard Gappmaier | Anna Mayhew | Michelle Eagle | Adele D'Amico | Nathalie Goemans | Kevin Flanigan | Kate Bushby | Marika Pane | James Poysky | Richard S Finkel | E. Scott | Monique M Ryan | Robert Spiegel | Carolyn Constantin | Kristi J Jones | Erik Henricson | Perry Shieh | Giuseppe Vita | Craig Campbell | Richard Barohn | Roberto De Sanctis | Elena Pegoraro | Valerie Northcutt | Giovanni Baranello | David Birnkrant | Thomas Voit | Sonia Messina | Brenda Wong | Hu Ma</t>
+        </is>
+      </c>
+      <c r="K109" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="L109" s="3" t="inlineStr">
+        <is>
+          <t>DMD – THERAPY | Ataluren in Patients Aged  2 to &lt; 5 Years with Nonsense Mutation Duchenne Muscular Dystrophy (nmDMD): 28-week Results from a Phase 2 Study | Ataluren Pharmacokinetics in Healthy Japanese and Caucasian Subjects | DMD CLINICAL THERAPIES I | The relationship between deficit in digit span and genotype in nonsense mutation Duchenne muscular dystrophy | Deflazacort vs prednisone/prednisolone for maintaining motor function and delaying loss of ambulation: A post hoc analysis from the ACT DMD trial | Slope analysis of 6-minute walk distance as an alternative method to determine treatment effect in trials in Duchenne muscular dystrophy | A phase 2 trial of the safety and pharmacokinetics of ataluren in patients aged ≥2 to | Use of a ≥5-second threshold in baseline time to stand from supine to predict disease progression in Duchenne muscular dystrophy | Ataluren in patients with nonsense mutation Duchenne muscular dystrophy (ACT DMD): A multicentre, randomised, double-blind, placebo-controlled, phase 3 trial | Use of a ≥ 5-second threshold in baseline time to stand from supine to predict disease progression in Duchenne muscular dystrophy | Slope analysis of 6-minute walk distance as an alternative method to determine treatment effect in trials in Duchenne muscular dystrophy | Lung Function in Ataluren-Treated, Nonambulatory Patients with Nonsense Mutation Duchenne Muscular Dystrophy from a Long-Term Extension Trial | Lung function in ataluren-treated, non-ambulatory patients with nonsense mutation Duchenne muscular dystrophy from a long-term extension trial versus untreated patients from a natural history study</t>
+        </is>
+      </c>
+      <c r="M109" s="3" t="inlineStr">
+        <is>
+          <t>Evidence Based Medicine | Clinical Studies | Randomized Control Trials</t>
+        </is>
+      </c>
+    </row>
+    <row r="110" ht="80" customHeight="1" s="4">
+      <c r="B110" s="3" t="inlineStr">
+        <is>
+          <t>Marla Weetall</t>
+        </is>
+      </c>
+      <c r="C110" s="3" t="inlineStr">
+        <is>
+          <t>Marla-Weetall</t>
+        </is>
+      </c>
+      <c r="D110" s="3" t="inlineStr">
+        <is>
+          <t>PTC Therapeutics</t>
+        </is>
+      </c>
+      <c r="E110" s="3" t="n">
+        <v>15169</v>
+      </c>
+      <c r="F110" s="3" t="n">
+        <v>3484</v>
+      </c>
+      <c r="G110" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="H110" s="3" t="inlineStr">
+        <is>
+          <t>Shuhei-Koide | Friedrich-Metzger | Jason-Graci | Karen-Chen-26 | Christopher-Trotta | Valerie-Northcutt | Joseph-Colacino | Young-Choon-Moon | Neil-Almstead | Ellen-Welch | Hasane-Ratni | Sergey-Paushkin | Thomas-Davis-25 | Guangming-Chen-5 | Liangxian-Cao | H-Qi | Yaeko-Nakajima-Takagi | Anthony-Turpoff | Art-Branstrom | William-Lennox | Nikolai-Naryshkin | Nanjing-Zhang | Jana-Narasimhan | Stephen-Jung | J-Sheedy | Robert-Spiegel | Gary-Karp | Nicole-Risher | X-Zhao-7 | Chien-Ping-Ko-12285698 | Zhengxian-Gu-15422108 | Naoya-Mimura-2008733868 | Amal-Dakka-2020414562 | Shirley-Yeh-2020778478 | Bansri-Furia-2020819823 | Matthew-G-Woll-2020839211 | Vijayalakshmi-Gabbeta-2024364069 | Ronald-Kong-2052726600 | Arthur-Branstrom-2119150522 | John-Babiak-2119513613 | John-Baird-2145216193 | Kylie-OKeefe-2159485688 | Xiaoyan-Zhang-2163090503 | Jean-Hedrick-2163737485 | Anna-Mollin-28401344 | Atsushi-Iwama-38711887 | Stuart-W-Peltz-39719255 | Samit-Hirawat-39865386 | Philip-Lake-48975008 | Kensuke-Kojima-64421083</t>
+        </is>
+      </c>
+      <c r="I110" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="J110" s="3" t="inlineStr">
+        <is>
+          <t>Shailendra Dwivedi | Maire Leyne | Resham Bhattacharya | Allan Jacobson | Friedrich Metzger | David M Bedwell | Kim M Keeling | Jason D Graci | Karen S Chen | Yimin Hua | Maarten van Lohuizen | Christopher R Trotta | Joseph M Colacino | young-choon Moon | Horacio Kaufmann | Priyabrata Mukherjee | Neil G Almstead | Ellen Welch | Hasane Ratni | Sergey V Paushkin | Thomas W Davis | Guangming Chen | Liangxian Cao | Elliot J Androphy | H. Qi | Martin Ebeling | Anthony Turpoff | Hongyu Ren | William Lennox | Nikolai Naryshkin | Kathryn J Swoboda | Nanjing Zhang | Jana Narasimhan | Richard S Finkel | J. Sheedy | Lucy Norcliffe-Kaufmann | Robert Spiegel | Gene Hung | Gary Karp | Nicole Risher | Jo Ishizawa | X. Zhao | Panayiota Trifillis | Brunhilde Wirth | Min Jung Kim | Chris Lorson | Arthur Burghes | Valerie Northcutt | Timor Baasov | Jiyuan Ma</t>
+        </is>
+      </c>
+      <c r="K110" s="3" t="n">
+        <v>149</v>
+      </c>
+      <c r="L110" s="3" t="inlineStr">
+        <is>
+          <t>DIPG-54. UPDATED FINDINGS FROM THE PHASE IB STUDY OF UNESBULIN (PTC596) IN CHILDREN WITH NEWLY-DIAGNOSED DIFFUSE INTRINSIC PONTINE GLIOMA (DIPG) AND HIGH-GRADE GLIOMA (HGG): A REPORT FROM THE COLLABORATIVE NETWORK FOR NEURO-ONCOLOGY CLINICAL TRIALS (CONNECT) | Reduction of retinal ganglion cell death in mouse models of familial dysautonomia using AAV-mediated gene therapy and splicing modulators | Evaluation of the Biodistribution, Efficacy, and Side-Effect Profile of Deflazacort, Prednisolone and Vamorolone in a DMD Mouse Model (S34.010) | Development of an oral treatment that rescues gait ataxia and retinal degeneration in a phenotypic mouse model of familial dysautonomia | Development of a novel oral treatment that rescues gait ataxia and retinal degeneration in a phenotypic mouse model of familial dysautonomia | SAR studies toward discovery of emvododstat (PTC299), a potent dihydroorotate dehydrogenase (DHODH) inhibitor | Quantitation of Pax-6 protein in ocular impression cytology samples using an electrochemiluminescence immunoassay | 1528TiP A phase II/III study evaluating the efficacy and safety of unesbulin in advanced leiomyosarcoma (SUNRISELMS) | Ataluren suppresses a premature termination codon in an MPS I-H mouse | EPCT-05. Phase Ib study of unesbulin (PTC596) in children with newly diagnosed diffuse intrinsic pontine glioma (DIPG) and high-grade glioma (HGG): A report from the COllaborative Network for NEuro-Oncology Clinical Trials (CONNECT) | A phase 1b study of unesbulin (PTC596) plus dacarbazine for the treatment of patients with locally recurrent, unresectable, or metastatic relapsed/refractory leiomyosarcoma. | Ataluren Suppresses a Premature Termination Codon in an MPS I-H Mouse | Targeting BMI1 mitigates chemoresistance in ovarian cancer | Emvododstat, a Potent Dihydroorotate Dehydrogenase Inhibitor, Is Effective in Preclinical Models of Acute Myeloid Leukemia | Small molecule splicing modifiers with systemic HTT-lowering activity | In Vitro Metabolism, Pharmacokinetics and Drug Interaction Potentials of Emvododstat, a DHODH Inhibitor | Inhibition of De Novo Pyrimidine Synthesis Depletes Acute Myleogenous Leukemia Stem Cells (LSCs) Burden and Triggers Apoptosis and Differentiation Associated with Oxidative Stress | Poster: AML-284: Emvododstat (PTC299) Targets De Novo Pyrimidine Synthesis in Acute Myeloid Leukemia | AML-284: Emvododstat (PTC299) Targets De Novo Pyrimidine Synthesis in Acute Myeloid Leukemia | I01 Orally bioavailable small molecule splicing modifiers with systemic and even htt-lowering activity in vitro and in vivo | SMN protein is required throughout life to prevent spinal muscular atrophy disease progression | Preclinical and Early Clinical Development of PTC596, a Novel Small Molecule Tubulin-Binding Agent | Report of the National Institutes of Health SARS-CoV-2 Antiviral Therapeutics Summit | Identification of a targetable KRAS-mutant epithelial population in non-small cell lung cancer | Ataluren metabolism: Ataluren-O-1β-acyl glucuronide is a stable circulating metabolite in mouse, rat, dog and human | Impaired prenatal motor axon development necessitates early therapeutic intervention in severe SMA | DHODH inhibition synergizes with DNA-demethylating agents in the treatment of myelodysplastic syndromes | The combination of the tubulin binding small molecule PTC596 and proteasome inhibitors suppresses the growth of myeloma cells | The DHODH inhibitor PTC299 arrests SARS-CoV-2 replication and suppresses induction of inflammatory cytokines | Pharmacokinetics and Safety of PTC596, a Novel Tubulin‐Binding Agent, in Subjects With Advanced Solid Tumors | ATRT-06. SMARCB1 LOSS DRIVEN NON-CANONICAL PRC1 ACTIVITY REGULATES DIFFERENTIATION IN ATYPICAL TERATOID RHABDOID TUMORS (ATRT) | Corrigendum to: Pharmacologically-induced mouse model of adult spinal muscular atrophy to evaluate effectiveness of therapeutics after disease onset | The Novel Dihydroorotate Dehydrogenase (DHODH) Inhibitor PTC299 Inhibit De Novo Pyrimidine Synthesis with Broad Anti-Leukemic Activity Against Acute Myeloid Leukemia | Efficacy of Tubulin Polymerization Inhibitor in Myelodysplastic Syndrome | Efficacy of the novel tubulin polymerization inhibitor PTC-028 for myelodysplastic syndrome | The DHODH Inhibitor PTC299 Arrests SARS-CoV-2 Replication and Suppresses Induction of Inflammatory Cytokines | 3093 – DHODH INHIBITION SYNERGIZES WITH DNA-DEMETHYLATING AGENTS IN THE TREATMENT OF MYELODYSPLASTIC SYNDROMES | Chemical modifications of G418 (geneticin): Synthesis of novel readthrough aminoglycosides results in an improved in vitro safety window but no improvements in vivo | In vitro metabolism, reaction phenotyping, enzyme kinetics, CYP inhibition and induction potential of ataluren | The anti‐mitotic agents PTC‐028 and PTC596 display potent activity in pre‐clinical models of multiple myeloma but challenge the role of BMI‐1 as an essential tumour gene | Inhibition of De Novo Pyrimidine Nucleotide Synthesis By the Novel DHODH Inhibitor PTC299 Induces Differentiation and/or Death of AML Cells | The Preclinical Activities of PTC596, a Novel Tubulin Binding Agent That Down-Regulates BMI1, Alone and in Combination with Bortezomib in Multiple Myeloma | Synergistic Effect of DHODH Inhibitor PTC299 with DNA Demethylating Agent Decitabine in Myelodysplastic Syndromes | Effective Delivery of a Microtubule Polymerization Inhibitor Synergizes with Standard Regimens in Models of Pancreatic Ductal Adenocarcinoma | Abstract 292: PTC596 combination therapy for sarcoma | Abstract 292: PTC596 combination therapy for sarcoma | PTC299 IS A NOVEL DHODH INHIBITOR FOR USE IN TREATMENT OF AML: PS1004 | THE FIRST-IN-CLASS, ORALLY AVAILABLE BMI-1 MODULATORS PTC-028 AND PTC596 DISPLAY POTENT ACTIVITY IN PRE-CLINICAL MODELS OF MULTIPLE MYELOMA: S122 | Acute myeloid leukemia driven by the CALM-AF10 fusion gene is dependent on BMI1 | THER-14. SMALL MOLECULE INHIBITOR TARGETING SELF-RENEWAL AS A THERAPEUTIC OPTION FOR RECURRENT MEDULLOBLASTOMA | THER-11. BMI-1 MODULATION IMPAIRS DNA DAMAGE RESPONSE AND SENSITIZES DIPG CELLS TO IONIZING RADIATION | ATRT-05. PRC1 IS AN ESSENTIAL DEPENDENCY AND THERAPEUTIC TARGET IN SMARCB1 DEFICIENT ATYPICAL TERATOID RHABDOID TUMORS | BMI1 is a therapeutic target in recurrent medulloblastoma | ELP1 Splicing Correction Reverses Proprioceptive Sensory Loss in Familial Dysautonomia | Acute Myeloid Leukemia Driven by the CALM-AF10 Fusion Gene is Dependent on BMI1 | Risdiplam distributes and increases SMN protein in both the central nervous system and peripheral organs | Supplementary Material | The minor gentamicin complex component, X2, is a potent premature stop codon readthrough molecule with therapeutic potential | S1 Fig | S1 Checklist | S3 Fig | S1 Table | S1 File | S2 Fig | S4 Fig | Targeting of Hematologic Malignancies with PTC299, A Novel Potent Inhibitor of Dihydroorotate Dehydrogenase with Favorable Pharmaceutical Properties | Correction to Discovery and Optimization of Indolyl-Containing 4-Hydroxy-2-pyridone Type II DNA Topoisomerase Inhibitors Active against Multidrug Resistant Gram-Negative Bacteria | Targeting of BMI-1 in Mantle Cell Lymphoma | Discovery of Risdiplam, a Selective Survival of Motor Neuron-2 ( SMN2 ) Gene Splicing Modifier for the Treatment of Spinal Muscular Atrophy (SMA) | Inhibition of BMI1, a Therapeutic Approach in Endometrial Cancer | Abstract 5864: Novel anti-BMI-1 therapy in non-small cell lung cancer | Supplementary Material | Targeting of BMI-1 expression by the novel small molecule PTC596 in mantle cell lymphoma | Supplementary Material 2 | Supplementary Material 1 | Discovery and Optimization of Indolyl-Containing 4-Hydroxy-2-Pyridone Type II DNA Topoisomerase Inhibitors Active against Multi-Drug Resistant Gram-Negative Bacteria | 4-Hydroxy-2-pyridones: Discovery and evaluation of a novel class of antibacterial agents targeting DNA synthesis | Identification of benzazole compounds that induce HIV-1 transcription | TRTH-13. BMI1 IS A THERAPEUTIC TARGET IN RECURRENT MEDULLOBLASTOMA | Phase 1 results of PTC596, a novel small molecule targeting cancer stem cells (CSCs) by reducing levels of BMI1 protein. | Discovery of a Novel Class of Survival Motor Neuron 2 Splicing Modifiers for the Treatment of Spinal Muscular Atrophy | The novel BMI-1 inhibitor PTC596 downregulates MCL-1 and induces p53-independent mitochondrial apoptosis in acute myeloid leukemia progenitor cells | Supplementary Information | The nucleoside analog clitocine is a potent and efficacious readthrough agent | Discovery of Novel Small Molecule Inhibitors of VEGF Expression in Tumor Cells Using a Cell-Based High Throughput Screening Platform | S4 Fig | S2 Table | S2 Fig | S6 Fig | S1 Table | S1 Fig | S3 Fig | S5 Fig | S7 Fig | Phase 1 results of PTC596, a novel small molecule targeting cancer stem cells (CSCs) by reducing levels of BMI1 protein | Initial first-in-human phase 1 results of PTC596, a novel small molecule that targets cancer stem cells (CSCs) by reducing BMI1 protein levels | Functional rescue of REP1 following treatment with PTC124 and novel derivative PTC-414 in human choroideremia fibroblasts and the nonsense-mediated zebrafish model | Specific correction of alternative survival motor neuron 2 (SMN2) splicing by small molecules: Discovery of a potential novel medicine to treat spinal muscular atrophy | Discovery and optimization of small molecule splicing modifiers of survival motor neuron 2 (SMN2) as a treatment for spinal muscular atrophy | Supplementary Data</t>
+        </is>
+      </c>
+    </row>
+    <row r="111" ht="80" customHeight="1" s="4">
+      <c r="B111" s="3" t="inlineStr">
+        <is>
+          <t>Tuyen Ong</t>
+        </is>
+      </c>
+      <c r="C111" s="3" t="inlineStr">
+        <is>
+          <t>Tuyen-Ong</t>
+        </is>
+      </c>
+      <c r="E111" s="3" t="n">
+        <v>4890</v>
+      </c>
+      <c r="F111" s="3" t="n">
+        <v>823</v>
+      </c>
+      <c r="G111" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="H111" s="3" t="inlineStr">
+        <is>
+          <t>Panayiota-Trifillis | Craig-Campbell-14 | Joseph-Mcintosh-2 | Vedran-Pavlovic | P-Riebling | Haluk-Topaloglu | Craig-Mcdonald-6 | Isabelle-Desguerre | Ulrike-Schara | Enrico-Bertini | Ninel-Gregori | M-Dominik-Fischer | Brigitte_Chabrol | David-Birch-6 | Mark-Pennesi | Hans-Kroger-2 | Thomas-Sejersen | Gihan-Tennekoon-2 | Ken-Nischal | Katherine-Mathews-3 | Thomas-Voit-3 | Linda-Lowes | Marcio-Souza-19 | Janbernd-Kirschner | Michelle-Eagle | Nathalie-Goemans | Kevin-Flanigan | Kate-Bushby | Ian-Macdonald-6 | Xiaohui-Luo-3 | Richard-Finkel | Kathryn-Selby | Robert-Spiegel | Haluk-Topaloglu-2081145276 | S-M-Park-2107628882 | E-Mercuri-2147849579 | C-Werner-2162782914 | M-Tulinius-2162913025 | Winnie-Nolan-33096071 | G-L-Elfring-3605042 | Andrew-Lotery-38182351 | Aniz-Girach-38581365 | Robert-E-MacLaren-39031677 | H-Lee-Sweeney-39058171 | F-Muntoni-39441203 | Stuart-W-Peltz-39719255 | A-Reha-53458322 | Byron-L-Lam-53874183 | J-Jagger-63630630 | U-Schara-78212484</t>
+        </is>
+      </c>
+      <c r="I111" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="J111" s="3" t="inlineStr">
+        <is>
+          <t>Artur Cideciyan | Ian Murdoch MacDonald | Tanya Tolmachova | Matthew During | Craig M McDonald | M Dominik Fischer | Michel Michaelides | Gary Stuart Rubin | William Hauswirth | Alberto Auricchio | Haohua Qian | Susan M Downes | Daniel C Chung | Edwin M Stone | Jeannette L Bennicelli | Vinit B Mahajan | Richard Ted Abresch | Graham E Holder | Sanford Boye | Miguel C Seabra | Richard Weleber | Bart P Leroy | Anna Mayhew | Michelle Eagle | Cristina Martinez-Fernandez de la Camara | Alexander Sumaroka | Paul L Kaufman | Francesca Simonelli | Kate Bushby | Kathleen A Marshall | Marika Pane | Alun Barnard | Richard S Finkel | Alejandro J Roman | Robin R Ali | Jasleen Kaur Jolly | Kamaljit S Balaggan | Robert Spiegel | Erik Henricson | Okan U. Elci | Katherine High | Robert N Weinreb | Anna Paola Salvetti | John Fraser Wright | Jean Bennett | Tomas S Aleman | Federico Mingozzi | Kanmin Xue | Jennifer Wellman | Junwei Sun</t>
+        </is>
+      </c>
+      <c r="K111" s="3" t="n">
+        <v>27</v>
+      </c>
+      <c r="L111" s="3" t="inlineStr">
+        <is>
+          <t>Changes in Retinal Sensitivity Associated With Cotoretigene Toliparvovec in X-Linked Retinitis Pigmentosa With RPGR Gene Variations | Initial results from a first-in-human gene therapy trial on X-linked retinitis pigmentosa caused by mutations in RPGR | Adeno-Associated Viral Gene Therapy for Inherited Retinal Disease | Gene Therapy Proof-of-Concept in Choroideremia: meta-analysis of NSR-REP1 Phase 1/2 Clinical Trials | Ataluren in patients with nonsense mutation Duchenne muscular dystrophy (ACT DMD): A multicentre, randomised, double-blind, placebo-controlled, phase 3 trial | Use of a ≥ 5-second threshold in baseline time to stand from supine to predict disease progression in Duchenne muscular dystrophy | Slope analysis of 6-minute walk distance as an alternative method to determine treatment effect in trials in Duchenne muscular dystrophy | Lung Function in Ataluren-Treated, Nonambulatory Patients with Nonsense Mutation Duchenne Muscular Dystrophy from a Long-Term Extension Trial | Meta-analyses of Ataluren in Patients with Nonsense Mutation Duchenne Muscular Dystrophy | Lung function in ataluren-treated, non-ambulatory patients with nonsense mutation Duchenne muscular dystrophy from a long-term extension trial versus untreated patients from a natural history study | Results of North Star ambulatory assessments in the phase 3 ataluren confirmatory trial in patients with nonsense mutation Duchenne muscular dystrophy (ACT DMD) | A.06 Ataluren: an overview of clinical trial results in nonsense mutation Duchenne Muscular Dystrophy (nmDMD) | D.08 ACT DMD (Ataluren Confirmatory Trial in Duchenne Muscular Dystrophy): effect of Ataluren on timed function tests (TFT) in nonsense mutation (nm) DMD | The Six-Minute Walk Test (6MWT) as Endpoint in Duchenne Muscular Dystrophy (DMD) Clinical Studies | Ataluren: Clinical Trial Results in Nonsense Mutation Duchenne Muscular Dystrophy (nmDMD) | Results of North Star Ambulatory Assessments in the Phase 3 Ataluren Confirmatory Trial in Patients with Nonsense Mutation Duchenne Muscular Dystrophy (ACT DMD) | Are effects of Translarna (Ataluren) on muscle strength more discernible in younger patients with Duchenne muscular dystrophy (DMD)? | P159 – 2412: First drug registry in Duchenne muscular dystrophy (DMD) to assess Translarna use, safety, and effectiveness in routine clinical practice | A randomised, controlled comparison of latanoprostene bunod and latanoprost 0.005% in the treatment of ocular hypertension and open angle glaucoma: the VOYAGER study | Tear levels of loteprednol etabonate following instillation of a novel gel formulation | Fatal thrombotic thrombocytopenia purpura | Purtscher-like retinopathy as an initial presentation of thrombotic thrombocytopenic purpura: A case report | Blinding keratoconjunctivitis and child abuse | Microcystic Adnexal Carcinoma of the Eyebrow | Posterior scleritis presenting with annular choroidal detachment as a complication of herpes zoster ophthalmicus | Latanoprost in port wine stain related paediatric glaucoma | Deep venous thrombosis following uneventful phacoemulsification</t>
+        </is>
+      </c>
+    </row>
+    <row r="112" ht="80" customHeight="1" s="4">
+      <c r="B112" s="3" t="inlineStr">
+        <is>
+          <t>Panayiota Trifillis</t>
+        </is>
+      </c>
+      <c r="C112" s="3" t="inlineStr">
+        <is>
+          <t>Panayiota-Trifillis</t>
+        </is>
+      </c>
+      <c r="E112" s="3" t="n">
+        <v>6070</v>
+      </c>
+      <c r="F112" s="3" t="n">
+        <v>2535</v>
+      </c>
+      <c r="G112" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="H112" s="3" t="inlineStr">
+        <is>
+          <t>Craig-Campbell-14 | Joseph-Mcintosh-2 | Marla-Weetall | James-Li-15 | Heather-Gordish-Dressman | P-Riebling | Craig-Mcdonald-6 | Isabelle-Desguerre | Thomas-Sejersen | Joseph-Colacino | Mar-Tulinius | Marcio-Souza-19 | Joel-Jiang | Janbernd-Kirschner | Neil-Almstead | Ellen-Welch | Sergey-Paushkin | Andres-Nascimento | Juan-Vilchez-2 | Vinay-Penematsa | Nathalie-Goemans | Lauren-Morgenroth | Xiaohui-Luo-3 | Kathryn-Selby | Erik-Henricson | E-Schwartz-2019749527 | Filippo-Buccella-2065146427 | Francesco-Muntoni-2071904677 | P-Ioannou-2095411729 | John-Babiak-2119513613 | Maria-Bernadete-Dutra-de-Resende-2130654478 | I-Desguerre-2143241097 | E-Mercuri-2147849579 | A-Nascimento-Osorio-2147892569 | Abdallah-Delage-2161274490 | Claudio-Santos-2161327465 | C-Werner-2162782914 | M-Tulinius-2162913025 | A-Kristensen-2164334941 | C-Santos-2164346886 | S-Johnson-2183539977 | Christian-Werner-2196073204 | G-L-Elfring-3605042 | Megerditch-Kiledjian-38277716 | Saul-Surrey-38414087 | Jean-K-Mah-39137820 | F-Muntoni-39441203 | Eugenio-Mercuri-39608160 | Stuart-W-Peltz-39719255 | Basil-T-Darras-42933485</t>
+        </is>
+      </c>
+      <c r="I112" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="J112" s="3" t="inlineStr">
+        <is>
+          <t>Kathryn Selby | Eric Hoffman | Giacomo P Comi | Allan Jacobson | Heather Gordish-Dressman | Haluk Topaloglu | Craig M McDonald | Isabelle Desguerre | Ros Mary christina Quinlivan | Enrico Bertini | Thomas Sejersen | Stephen A Liebhaber | Avital Cnaan | Annemieke Aartsma-Rus | Laura E Case | Katherine D Mathews | Luca Bello | Már Tulinius | Linda Pax Lowes | Richard Ted Abresch | Janbernd Kirschner | Andrés Nascimento | Tina Duong | Anna Mayhew | Michelle Eagle | Juan J Vílchez | Nathalie Goemans | David R Weber | Lauren P Morgenroth | Kevin Flanigan | Yoram Nevo | Kate Bushby | Marika Pane | Lindsay Alfano | Richard S Finkel | Kazuhiko Adachi | Monique M Ryan | Robert Spiegel | Kristi J Jones | Erik Henricson | Perry Shieh | Giuseppe Vita | Angela Blackwell | Craig Campbell | Richard Barohn | Susan Iannaccone | David Birnkrant | Thomas Voit | Marcio Souza | Brenda Wong</t>
+        </is>
+      </c>
+      <c r="K112" s="3" t="n">
+        <v>68</v>
+      </c>
+      <c r="L112" s="3" t="inlineStr">
+        <is>
+          <t>Safety and effectiveness of ataluren in patients with nonsense mutation DMD in the STRIDE Registry compared with the CINRG Duchenne Natural History Study (2015–2022): 2022 interim analysis | Ataluren Preserves Upper Limb Function in nmDMD Patients from Study 041, a Phase 3 Placebo-Controlled Trial, and the STRIDE Registry (S34.008) | Safety and Efficacy of Ataluren in nmDMD Patients from Study 041, a Phase 3, Randomized, Double-Blind, Placebo-Controlled Trial (PL5.001) | Evaluation of the Biodistribution, Efficacy, and Side-Effect Profile of Deflazacort, Prednisolone and Vamorolone in a DMD Mouse Model (S34.010) | Fonction des membres supérieurs chez les patients atteints de nmDMD d’après les données du registre STRIDE et de l’Étude 041, essai de phase 3, contrôlé contre placebo | Disease progression rates in ambulatory Duchenne muscular dystrophy by steroid type, patient age and functional status | Functional and Clinical Outcomes Associated with Steroid Treatment among Non-ambulatory Patients with Duchenne Muscular Dystrophy1 | Natural History and Real‐World Data in Rare Diseases: Applications, Limitations, and Future Perspectives | P.19 Updated demographics and safety data from patients with nonsense mutation Duchenne muscular dystrophy receiving ataluren in the STRIDE Registry | P.23 Pulmonary function in patients with Duchenne muscular dystrophy from the STRIDE Registry and CINRG Natural History Study: a matched cohort analysis | P.22 Age at loss of ambulation in patients with DMD from the STRIDE registry and the CINRG natural history study: A matched cohort analysis | Ataluren delays loss of ambulation and respiratory decline in nonsense mutation Duchenne muscular dystrophy patients | Pulmonary Function in Nonambulatory Patients with nmDMD from the STRIDE Registry and CINRG Duchenne Natural History Study: A Matched Cohort Analysis | Meta-analyses of deflazacort versus prednisone/prednisolone in patients with nonsense mutation Duchenne muscular dystrophy | DMD - TREATMENT | DMD - TREATMENT | DMD - TREATMENT | Evaluating longitudinal therapy effects via the North Star Ambulatory Assessment | DMD – THERAPY | DMD &amp; BMD – CLINICAL | Longitudinal Evaluation of Working Memory in Duchenne Muscular Dystrophy | Meta-analyses of ataluren randomized controlled trials in nonsense mutation Duchenne muscular dystrophy | Safety and effectiveness of ataluren: comparison of results from the STRIDE Registry and CINRG DMD Natural History Study | P.390Pulmonary function in patients with Duchenne muscular dystrophy from the STRIDE registry and the CINRG natural history study: a matched cohort analysis | Effect of Ataluren on Age at Loss of Ambulation in Nonsense Mutation Duchenne Muscular Dystrophy: Observational Data from the STRIDE Registry | Ataluren in Patients Aged  2 to &lt; 5 Years with Nonsense Mutation Duchenne Muscular Dystrophy (nmDMD): 28-week Results from a Phase 2 Study | Ataluren use in patients with nonsense mutation Duchenne muscular dystrophy: Patient demographics and characteristics from the STRIDE Registry | DMD CLINICAL THERAPIES I | DMD CLINICAL THERAPIES I | The relationship between deficit in digit span and genotype in nonsense mutation Duchenne muscular dystrophy | Deflazacort vs prednisone/prednisolone for maintaining motor function and delaying loss of ambulation: A post hoc analysis from the ACT DMD trial | Meta-analyses of ataluren in patients with nonsense mutation Duchenne muscular dystrophy | Slope analysis of 6-minute walk distance as an alternative method to determine treatment effect in trials in Duchenne muscular dystrophy | A phase 2 trial of the safety and pharmacokinetics of ataluren in patients aged ≥2 to | Use of a ≥5-second threshold in baseline time to stand from supine to predict disease progression in Duchenne muscular dystrophy | Design of a phase 3 trial to evaluate the long-term efficacy and safety of ataluren in patients with nonsense mutation Duchenne muscular dystrophy | A phase 2 trial of the safety and pharmacokinetics of ataluren in patients aged 2 to 5 years with nonsense mutation Duchenne muscular dystrophy | Lung Function in Ataluren-Treated, Nonambulatory Patients with Nonsense Mutation Duchenne Muscular Dystrophy from a Long-Term Extension Trial | Lung function in ataluren-treated, non-ambulatory patients with nonsense mutation Duchenne muscular dystrophy from a long-term extension trial versus untreated patients from a natural history study | Discovery of Novel Small Molecule Inhibitors of VEGF Expression in Tumor Cells Using a Cell-Based High Throughput Screening Platform | S4 Fig | S2 Table | S2 Fig | S6 Fig | S1 Table | S1 Fig | S3 Fig | S5 Fig | S7 Fig | SMN2 Gene Splicing Modifiers Restore Lifespan and Motor Behavior in a Mouse Model of Spinal Muscular Atrophy. | T.P.7 Small molecule compounds correct alternative splicing of the SMN2 gene and restore SMN protein expression and function | PTC124 targets genetic disorders caused by nonsense mutations | Identification of Target Messenger RNA Substrates for the Murine Deleted in Azoospermia-Like RNA-Binding Protein | Characterization of the biochemical properties of the human UPF1 gene product that is involved in nonsense-mediated mRNA decay | Finding the right RNA: Identification of cellular mRNA substrates for RNA-binding proteins | An mRNA Stability Complex Functions with Poly(A)-Binding Protein To Stabilize mRNA In Vitro | Purification and RNA Binding Properties of the Polycytidylate-Binding Proteins αCP1 and αCP2 | Different hematological phenotypes caused by the interaction of triplicated α-globin genes and heterozygous 13-thalassemia | Polymerization of Three Hemoglobin A2 Variants Containing Val 6 and Inhibition of Hemoglobin S Polymerization by Hemoglobin A2 | Expression Studies of delta -Globin Gene Alleles Associated with Reduced Hemoglobin A2 Levels in Greek Cypriots | Analysis of δ-globin gene mutations in Greek Cypriots | Analysis of &amp;Globin Gene Mutations in Greek Cypriots | Analysis of delta-globin gene mutations in Greek cypriots | Identification of four novel δ-globin gene mutations in Greek Cypriots using PCR and automated fluorescence-based DNA sequence analysis | Identification of four novel delta-globin gene mutations in Greek Cypriots using polymerase chain reaction and automated fluorescence- based DNA sequence analysis | Simian virus 40 T antigen can transcriptionally activate and mediate viral DNA replication in cells which lack the retinoblastoma susceptibility gene product | Analysis of 5′ flanking regions of the γ globin genes from major African haplotype backgrounds associated with sickle cell disease | PTC124targetsgeneticdisorderscausedbynonsense mutations</t>
+        </is>
+      </c>
+      <c r="M112" s="3" t="inlineStr">
+        <is>
+          <t>Nonsense Codon</t>
+        </is>
+      </c>
+    </row>
+    <row r="113" ht="80" customHeight="1" s="4">
+      <c r="B113" s="3" t="inlineStr">
+        <is>
+          <t>Heather Gordish-Dressman</t>
+        </is>
+      </c>
+      <c r="C113" s="3" t="inlineStr">
+        <is>
+          <t>Heather-Gordish-Dressman</t>
+        </is>
+      </c>
+      <c r="D113" s="3" t="inlineStr">
+        <is>
+          <t>Children's National Medical Center</t>
+        </is>
+      </c>
+      <c r="E113" s="3" t="n">
+        <v>67083</v>
+      </c>
+      <c r="F113" s="3" t="n">
+        <v>8084</v>
+      </c>
+      <c r="G113" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="H113" s="3" t="inlineStr">
+        <is>
+          <t>Monica-Hubal | Arpana-Sali | Richard-Seip | Joseph-Devaney | Thomas-Price-2 | Funda-Orkunoglu-Suer | Niall-Moyna | Paul-Visich | Craig-Mcdonald-6 | Terry-Partridge | Sophie-Pestieau | Garrett-Ash | Theodore-Angelopoulos | Avital-Cnaan | Elena-Pegoraro-2 | Kanneboyina-Nagaraju | Paul-Gordon-8 | Luca-Bello | Mar-Tulinius | Yetrib-Hathout | Linda-Pescatello | Madhuri-Kambhampati | Tina-Duong | Dustin-Hittel | Robert-Zoeller | Jack-Vandermeulen | Lauren-Morgenroth | Courtney-Sprouse | Mika-Leinonen | Brennan-Harmon | Christopher-Spurney | Leticia-Ryan | Monique-Ryan-2 | Richard-Webster-2 | Erik-Henricson | Eric-Hoffman-6 | Nancy-Kuntz-2 | Paula-R-Clemens-10718615 | Emidio-E-Pistilli-11896758 | Laura-L-Tosi-2004064154 | M-Guglieri-2154646028 | Matthew-A-Kostek-34935309 | Paul-D-Thompson-38181420 | Priscilla-M-Clarkson-38196054 | Javad-Nazarian-38784771 | Jean-K-Mah-39137820 | Jesse-M-Damsker-39973817 | Roger-J-Packer-66970586 | Edward-J-Zambraski-80605 | Anne-M-Connolly-9941913</t>
+        </is>
+      </c>
+      <c r="I113" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="J113" s="3" t="inlineStr">
+        <is>
+          <t>Theodore J Angelopoulos | Eric Hoffman | Luisa Politano | Arpana Sali | Richard L. Seip | Joseph M. Devaney | Sebahattin Cirak | Thomas B Price | Niall M Moyna | Paul S Visich | Craig M McDonald | Terry Partridge | Corrado Angelini | Enrico Bertini | Claude Bouchard | Ben F Hurley | Avital Cnaan | Annemieke Aartsma-Rus | Laura E Case | Paul M Gordon | Stephen M Roth | Luca Bello | Már Tulinius | Richard Ted Abresch | Diana M Escolar | Tina Duong | Anna Mayhew | Michelle Eagle | Christopher R Heier | Robert F Zoeller | Jack H Vandermeulen | Lauren P Morgenroth | Kevin Flanigan | Yoram Nevo | Kate Bushby | Adrienne Arrieta | Hanns Lochmuller | Christopher F Spurney | Richard S Finkel | Monique M Ryan | Erik Henricson | Monica Hubal | John Mccall | Elena Pegoraro | Kanneboyina Nagaraju | David Birnkrant | Thomas Voit | Yetrib Hathout | Volker Straub | Linda S. Pescatello</t>
+        </is>
+      </c>
+      <c r="K113" s="3" t="n">
+        <v>392</v>
+      </c>
+      <c r="L113" s="3" t="inlineStr">
+        <is>
+          <t>Safety and effectiveness of ataluren in patients with nonsense mutation DMD in the STRIDE Registry compared with the CINRG Duchenne Natural History Study (2015–2022): 2022 interim analysis | Ataluren Preserves Upper Limb Function in nmDMD Patients from Study 041, a Phase 3 Placebo-Controlled Trial, and the STRIDE Registry (S34.008) | Fonction des membres supérieurs chez les patients atteints de nmDMD d’après les données du registre STRIDE et de l’Étude 041, essai de phase 3, contrôlé contre placebo | Pediatric resident education in pediatric cardiology – A needs assessment | Expanding the muscle imaging spectrum in dysferlinopathy: description of an outlier population from the classical MRI pattern | Major Adverse Dystrophinopathy Events (MADE) score as marker of cumulative morbidity and risk for mortality in boys with Duchenne muscular dystrophy | Modeling Early Heterogeneous Rates of Progression in Boys with Duchenne Muscular Dystrophy | A dedicated surgical team for posterior spinal fusion in patients with adolescent idiopathic scoliosis improves OR efficiency | Myostatin and follistatin as monitoring and prognostic biomarkers in dysferlinopathy | Laminated holmium-166-containing electrospun bandages for use against skin cancer | FP.34 Clinical outcome study of dysferlinopathy: correlation between MRI fat fraction in lower limbs and clinical outcome assessments over a 3-year period | P.23 Pulmonary function in patients with Duchenne muscular dystrophy from the STRIDE Registry and CINRG Natural History Study: a matched cohort analysis | P.22 Age at loss of ambulation in patients with DMD from the STRIDE registry and the CINRG natural history study: A matched cohort analysis | P.68 Validation of a composite prognostic score for time to loss of ambulation in Duchenne muscular dystrophy | P.14 Analysis of the longitudinal CINRG Becker natural history study dataset | P.162 Clinical outcome study of dysferlinopathy: Performance of upper limb entry item to predict forced vital capacity in dysferlinopathy (LGMDR2) | P.164 Clinical outcome study of dysferlinopathy 2: Characterising involvement of the intrinsic muscles of the hand in LGMDR2 | P.165 Clinical outcome study of dysferlinopathy: Lower limb water T2 predicts functional decline in patients with dysferlinopathy | P.163 Quantitative MRI in upper limb muscle of patients with dysferlinopathy: preliminary baseline results of the natural history study Jain COS2 | Pediatric Residency Point-of-Care Ultrasound Training Needs Assessment and Educational Intervention | Water T2 could predict functional decline in patients with dysferlinopathy | Circulating tumor DNA sequencing provides comprehensive mutation profiling for pediatric central nervous system tumors | Defining Objective Measures of Physician Stress in Simulated Critical Communication Encounters | Genetic modifiers of upper limb function in Duchenne muscular dystrophy | Stressful Life Events, Caregiver Depressive Symptoms, and Child Asthma Symptom-Free Days: A Longitudinal Analysis | Three‐year quantitative magnetic resonance imaging and phosphorus magnetic resonance spectroscopy study in lower limb muscle in dysferlinopathy | Major Adverse Dystrophinopathy Event Score as Marker of Cumulative Morbidity and Risk for Mortality in Boys with Duchenne Muscular Dystrophy | Assessing the Relationship of Patient Reported Outcome Measures With Functional Status in Dysferlinopathy: A Rasch Analysis Approach | Cardiac and pulmonary findings in dysferlinopathy: A 3‐year, longitudinal study | Efficacy and Safety of Vamorolone in Duchenne Muscular Dystrophy: A 30-Month Nonrandomized Controlled Open-Label Extension Trial | Efficacy and Safety of Vamorolone in Duchenne Muscular Dystrophy: A 30-Month Nonrandomized Controlled Open-Label Extension Trial | Ataluren delays loss of ambulation and respiratory decline in nonsense mutation Duchenne muscular dystrophy patients | Pediatric Resident Education in Pediatric Cardiology – A Needs Assessment | Delay in Duchenne Muscular Dystrophy Progression with Eteplirsen: Longer Time to Loss of Ambulation versus Standard of Care | Knee Strength and Ankle Range of Motion Impacts on Timed Function Tests in Duchenne Muscular Dystrophy: In the Era of Glucocorticoids | CLINICAL TRIAL HIGHLIGHTS | DMD - TREATMENT | DMD - TREATMENT | Nonsense-associated alternative splicing as a putative reno-protective mechanism in Pkhd1 cyli /Pkhd1 cyli mutant mice | Traumatic Brain Injury Induces cGAS Activation and Type I Interferon Signaling in Aged Mice | Longitudinal motor function in proximal versus distal DMD pathogenic variants | The Minimal Clinical Important Difference (MCID) in Annual Rate of Change of Timed Function Tests in Boys with DMD | Trainees' Attitude Towards Point-of-Care Ultrasound Training in Pediatric Residency | Biomarker-focused multi-drug combination therapy and repurposing trial in mdx mice | Miyoshi Myopathy and Limb Girdle Muscular Dystrophy R2 are the same disease | Multi-Omics Identifies Circulating miRNA and Protein Biomarkers for Facioscapulohumeral Dystrophy | Comparison of Serum Pharmacodynamic Biomarkers in Prednisone-Versus Deflazacort-Treated Duchenne Muscular Dystrophy Boys | Implementation of a perioperative surgical home model for adolescent idiopathic scoliosis and its impact on acute pain and length of stay | DMD – THERAPY | DMD – THERAPY | FROM THE SPINAL CORD TO THE MUSCLE | DMD – ANIMAL MODELS &amp; PRECLINICAL TREATMENT | Corrigendum to "Protective effect of HLA-DQB1 alleles against alloimmunization in patients with sickle cell disease" [Hum. Immunol. (2016) 35-40 | Efficacy and safety of vamorolone in Duchenne muscular dystrophy: An 18-month interim analysis of a non-randomized open-label extension study | Troponin I Levels Correlate with Cardiac MR LGE and Native T1 Values in Duchenne Muscular Dystrophy Cardiomyopathy and Identify Early Disease Progression | Dexmedetomidine as an Opioid-Sparing Agent in Pediatric Craniofacial Surgery | Suitability of external controls for drug evaluation in Duchenne muscular dystrophy | Muscle Strength And Size Correlations At Baseline And Following Unilateral Resistance Training: 1338 May 28 9:45 AM - 10:00 AM | The CINRG Becker Natural History Study: Baseline characteristics | Optimizing Perioperative Red Blood Cell Utilization and Wastage in Pediatric Craniofacial Surgery | Genetic modifiers of respiratory function in Duchenne muscular dystrophy | TGF-β–driven muscle degeneration and failed regeneration underlie disease onset in a DMD mouse model | NOVEL SERUM PROTEIN BIOMARKERS SIGNIFICANTLY UP-REGULATED IN LGE NEGATIVE DMD SUBJECTS | A cross-sectional analysis of the urine microbiome of children with neuropathic bladders | Safety and effectiveness of ataluren: comparison of results from the STRIDE Registry and CINRG DMD Natural History Study | Factors affecting length of stay after posterior spinal fusion for adolescent idiopathic scoliosis | TCTEX1D1 is a genetic modifier of disease progression in Duchenne muscular dystrophy | Clinicopathologic Features of Diencephalic Neuronal and Glioneuronal Tumors | A decade of optimizing drug development for rare neuromuscular disorders through TACT | Guidelines for Bioinformatics and the Statistical Analysis of Omic Data | Long-term data with idebenone on respiratory function outcomes in patients with Duchenne muscular dystrophy | Towards regulatory endorsement of drug development tools to promote the application of model-informed drug development in Duchenne muscular dystrophy | P.262Crossing thresholds and changing rates of respiratory function decline are predictive of clinical outcomes in Duchenne muscular dystrophy (DMD) | P.338Vamorolone trial in Duchenne muscular dystrophy shows dose-related improvement of muscle function | Disease-specific and glucocorticoid-responsive serum biomarkers for Duchenne Muscular Dystrophy | Vamorolone trial in Duchenne muscular dystrophy shows dose-related improvement of muscle function | Response to the Letter titled Reducing blood transfusions | O39 Defining serum CCL22 and trefoil factor 3 (TFF3) as pharmacodynamic biomarkers for use in a proof-of-concept clinical trial of vamorolone in paediatric ulcerative colitis | Supplementary Data | Der Abfall der Atmungsfunktion weicht bei mit Eteplirsen behandelten Patienten von dem natürlichen Verlauf bei unbehandelten Vergleichspatienten ab | Identifying Potential Predictive Factors of Sleep Quality in Duchenne Muscular Dystrophy | DIPG-30. ISOFORM SPECIFIC OVEREXPRESSION OF WILMS’ TUMOR PROTEIN IN DIFFUSE INTRINSIC PONTINE GLIOMAS | Differential Expression of Wilms’ Tumor Protein in Diffuse Intrinsic Pontine Glioma | Eteplirsen Treatment Attenuates Respiratory Decline in Ambulatory and Non Ambulatory Patients with Duchenne Muscular Dystrophy | Complete Unroofing of the Intramural Coronary Artery for Anomalous Aortic Origin of a Coronary Artery – The Role of Commissural Resuspension? | Association between perioperative surgical home implementation and transfusion patterns in adolescents with idiopathic scoliosis undergoing spinal fusion | Intraoperative Management by a Craniofacial Team Anesthesiologist is Associated With Improved Outcomes for Children Undergoing Major Craniofacial Reconstructive Surgery | Effectiveness and Sustainability of a Standardized Care Pathway Developed with Use of Lean Process Mapping for the Treatment of Patients Undergoing Posterior Spinal Fusion for Adolescent Idiopathic Scoliosis | PDTM-15. IDENTIFICATION AND CHARACTERIZATION OF WILMS’ TUMOR PROTEIN IN PEDIATRIC MIDLINE GLIOMAS | Neurodevelopmental Needs in Young Boys with Duchenne Muscular Dystrophy (DMD): Observations from the Cooperative International Neuromuscular Research Group (CINRG) DMD Natural History Study (DNHS) | Clinically Relevant and Minimally Invasive Tumor Surveillance of Pediatric Diffuse Midline Gliomas Using Patient-Derived Liquid Biopsy | DUCHENNE MUSCULAR DYSTROPHY - PHYSIOTHERAPY | DMD TREATMENT: ANIMAL MODELS | DMD CLINICAL THERAPIES II | DUCHENNE MUSCULAR DYSTROPHY - PHYSIOTHERAPY | DMD CLINICAL THERAPIES II | Perioperative Outcomes and Surgical Case Volume in Pediatric Complex Cranial Vault Reconstruction: A Multicenter Observational Study From the Pediatric Craniofacial Collaborative Group | “Of Mice and Measures”: A Project to Improve How We Advance Duchenne Muscular Dystrophy Therapies to the Clinic First Workshop Report: Examining current findings and opportunities around the emerging D2.B10-Dmdmdx/J (D2/mdx) model in context of the classic C57BL/10ScSn-Dmdmdx/J (Bl10/mdx) | Longitudinal Pulmonary Function Testing Outcome Measures in Duchenne Muscular Dystrophy: Long-term Natural History with and without Glucocorticoids | Supplementary Material</t>
+        </is>
+      </c>
+      <c r="M113" s="3" t="inlineStr">
+        <is>
+          <t>Skeletal Muscle | Resistance Training</t>
+        </is>
+      </c>
+    </row>
+    <row r="114" ht="80" customHeight="1" s="4">
+      <c r="B114" s="3" t="inlineStr">
+        <is>
+          <t>Shuhei Koide</t>
+        </is>
+      </c>
+      <c r="C114" s="3" t="inlineStr">
+        <is>
+          <t>Shuhei-Koide</t>
+        </is>
+      </c>
+      <c r="D114" s="3" t="inlineStr">
+        <is>
+          <t>Chiba University</t>
+        </is>
+      </c>
+      <c r="E114" s="3" t="n">
+        <v>7365</v>
+      </c>
+      <c r="F114" s="3" t="n">
+        <v>967</v>
+      </c>
+      <c r="G114" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="H114" s="3" t="inlineStr">
+        <is>
+          <t>Yusuke-Isshiki | Motohiko-Oshima | Changshan-Wang | Haruhiko-Koseki | Marla-Weetall | Hiroaki-Honda-2 | Kazumasa-Aoyama-2 | Masahiro-Takeuchi | Chiaki-Nakaseko | Estelle-Duprez | Eiichiro-Suzuki | Hirotaka-Matsui | Emiko-Sakaida | Mathilde-Poplineau-3 | Shun-Uemura-2 | Keiyo-Takubo | Makiko-Mochizuki | Tetsuhiro-Chiba | Tohru-Iseki | Tomohiko-Tamura | Yoichi-Furukawa | Sadahisa-Ogasawara | Yaeko-Nakajima-Takagi | Tomoya-Muto | Arinobu-Tojo | J-Sheedy | Satoshi-Yamazaki-3 | Lia-Nguyen | Satoru-Miyagi | Naoya-Mimura-2008733868 | Kiyoshi-Yamaguchi-2035117156 | Shinichiro-Okamoto-2047975647 | Ola-Rizq-2049983207 | Wakako-Kuribayashi-2082040877 | Kensuke-Kayamori-2145985247 | Koichi-Murakami-2146306612 | Daisuke-Shinoda-2147432951 | Naoki-Itokawa-2161526849 | Yusuke-Takeda-2162678356 | Hiroshi-Kobayashi-2163488394 | Chikako-Ohwada-38156759 | Atsunori-Saraya-38167288 | Atsushi-Iwama-38711887 | Goro-Sashida-39176419 | Toshio-Suda-39583348 | Koutaro-Yokote-39594649 | Kazuya-Shimoda-39605261 | Akira-Nishiyama-40001048 | Masayuki-Yamashita-56073644 | George-R-Wendt-75833718</t>
+        </is>
+      </c>
+      <c r="I114" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="J114" s="3" t="inlineStr">
+        <is>
+          <t>Miguel Vidal | Satoshi Yamazaki | Changshan Wang | Seishi Ogawa | Scott A Armstrong | Chiaki Nakaseko | David Bryder | Ichiro Manabe | Masashi Sanada | Kristian Helin | David G Kent | Maarten van Lohuizen | Tetsuhiro Chiba | Rudolf Jaenisch | Raphael Margueron | Hiromitsu Nakauchi | Danny Reinberg | Hideyuki Oguro | Tomoya Muto | Toshio Kitamura | Eric M Pietras | Jean-Pierre Issa | Hironori Harada | Stephen Nimer | Satoru Miyagi | Yusuke Isshiki | Motohiko Oshima | Neil Blackledge | Ari Melnick | Hiroyuki Aburatani | Haruhiko Koseki | Marla Weetall | Kazumasa Aoyama | Huafeng Xie | Torsten Haferlach | Osamu Yokosuka | Sean J Morrison | Takaaki Konuma | Hirotaka Matsui | Connie Eaves | Fumio Arai | Keiyo Takubo | Alessandro Vannucchi | David Scadden | Makiko Mochizuki | Irving Weissman | Richard Koche | Sumio Sugano | Yaeko Nakajima-Takagi | Tomokatsu Ikawa</t>
+        </is>
+      </c>
+      <c r="K114" s="3" t="n">
+        <v>93</v>
+      </c>
+      <c r="L114" s="3" t="inlineStr">
+        <is>
+          <t>Polycomb repressive complex 1.1 coordinates homeostatic and emergency myelopoiesis | Polycomb repressive complex 1.1 coordinates homeostatic and emergency myelopoiesis | Polycomb repressive complex 1.1 coordinates homeostatic and emergency myelopoiesis | Polycomb repressive complex 1.1 coordinates homeostatic and emergency myelopoiesis | Context-Dependent Modification of PFKFB3 in Hematopoietic Stem Cells Promotes Anaerobic Glycolysis and Ensures Stress Hematopoiesis | Context-Dependent Modification of PFKFB3 in Hematopoietic Stem Cells Promotes Anaerobic Glycolysis and Ensures Stress Hematopoiesis | UTX inactivation in germinal center B cells promotes the development of multiple myeloma with extramedullary disease | The pathogenetic significance of exhausted T cells in a mouse model of mature B cell neoplasms | Mesenchymal loss of p53 alters stem cell capacity and models human soft tissue sarcoma traits | Context-Dependent Modification of PFKFB3 in Hematopoietic Stem Cells Promotes Anaerobic Glycolysis and Ensures Stress Hematopoiesis | A culture platform to study quiescent hematopoietic stem cells following genome editing | Exhausted T Cells Characterized By Upregulation of Specific Transcription Factors Are Increased in a Mouse Model of De Novo Mature B Cell Neoplasms | Unraveling the Heterogeneity of Multiple Myeloma Cells By Single-Cell RNA Sequencing Analysis | Dysfunctional Clusterin-Positive Hematopoietic Stem Cells Expand with Aging | Genetic deletion and pharmacologic inhibition of E3 ubiquitin ligase HOIP impairs the propagation of myeloid leukemia | 3014 – NON-CANONICAL EZH2 DRIVES RETINOIC ACID RESISTANCE OF VARIANT ACUTE PROMYELOCYTIC LEUKEMIAS | 3024 – PRC2 INSUFFICIENCY CAUSES DYSERYTHROPOIESIS THAT IS DEPENDENT ON CDKN2A DEREPRESSION AND P53 ACTIVATION IN MDS | 3004 – SINGLE-CELL ANALYSIS REVEALS THAT CLUSTERIN-POSITIVE HEMATOPOIETIC STEM CELLS WITH IMPAIRED STEMNESS EXPAND WITH AGING | Polycomb repressive complex 1.1 coordinates homeostatic and emergency myelopoiesis | Non-canonical EZH2 drives retinoic acid resistance of variant acute promyelocytic leukemias | Immunoglobulin superfamily member 8 maintains myeloid leukemia stem cells through inhibition of β-catenin degradation | Epigenetic traits inscribed in chromatin accessibility in aged hematopoietic stem cells | Insufficiency of non-canonical PRC1 synergizes with JAK2V617F in the development of myelofibrosis | Single-cell multi-omics analyses reveal EZH2 as a main driver of retinoic acid resistance in PLZF-RARA leukemia | YAP/TAZ Promote Hematopoietic Regeneration Via Accelerating the Recovery of Bone Marrow Niche | Unraveling Heterogeneity of Aged Hematopoietic Stem Cells By Single-Cell RNA Sequence Analysis | Deficiency of the E3 Ligase Hoip Impairs Adult Hematopoiesis and Myeloid Leukemia | Single Cell Analyses Reveal a Non-Canonical EZH2 Activity As a Main Driver of Retinoic Acid Resistance in PLZF/Rara Leukemia | EZH1/2 inhibition augments the anti-tumor effects of sorafenib in hepatocellular carcinoma | Clonal hematopoiesis with JAK2V617F promotes pulmonary hypertension with ALK1 upregulation in lung neutrophils | 3115 – INTEGRATIVE MULTI-OMICS ANALYSIS FOR UNDERSTANDING ACUTE PROMYELOCYTIC LEUKEMIA RESISTANCE: EZH2 ON THE ROAD | 3074 – CHANGES IN CHROMATIN ACCESSIBILITY DURING HEMATOPOIETIC STEM CELL AGING | 3124 – POLYCOMB REPRESSIVE COMPLEX 1.1 INSUFFICIENCY PROMOTES THE DEVELOPMENT OF MYELOFIBROSIS | 3081 – SINGLE-CELL RNA-SEQ REVEALS ALTERATIONS IN HETEROGENEITY OF HEMATOPOIETIC STEM CELLS WITH AGING | CD271+CD51+PALLADIN- human mesenchymal stromal cells possess enhanced ossicle-forming potential | PRC2 insufficiency causes p53-dependent dyserythropoiesis in myelodysplastic syndrome | DHODH inhibition synergizes with DNA-demethylating agents in the treatment of myelodysplastic syndromes | The combination of the tubulin binding small molecule PTC596 and proteasome inhibitors suppresses the growth of myeloma cells | OGT Regulates Hematopoietic Stem Cell Maintenance via PINK1-Dependent Mitophagy | Limited rejuvenation of aged hematopoietic stem cells in young bone marrow niche | Abstract 12873: Clonal Hematopoiesis With JAK2V617F Promotes Pulmonary Hypertension Through ALK1 | UTX maintains functional integrity of murine hematopoietic system by globally regulating aging-associated genes | Efficacy of Tubulin Polymerization Inhibitor in Myelodysplastic Syndrome | Efficacy of the novel tubulin polymerization inhibitor PTC-028 for myelodysplastic syndrome | 3093 – DHODH INHIBITION SYNERGIZES WITH DNA-DEMETHYLATING AGENTS IN THE TREATMENT OF MYELODYSPLASTIC SYNDROMES | Akt Inhibition Differently Controls PRC2 Components and Synergizes with Dual EZH2/1 Inhibitor in the Treatment of Multiple Myeloma | New Insights into PLZF/Rara Mechanism during APL Onset: EZH2 on the Road | The Preclinical Activities of PTC596, a Novel Tubulin Binding Agent That Down-Regulates BMI1, Alone and in Combination with Bortezomib in Multiple Myeloma | Synergistic Effect of DHODH Inhibitor PTC299 with DNA Demethylating Agent Decitabine in Myelodysplastic Syndromes | Bmi1 counteracts hematopoietic stem cell aging by repressing target genes and enforcing the stem cell gene signature | Akt Inhibition Synergizes with PRC2 Inhibition in the Treatment of Multiple Myeloma | Bmi1 restricts the adipogenic differentiation of bone marrow stromal cells to maintain the integrity of the hematopoietic stem cell niche | Genetic and transcriptional landscape of plasma cells in POEMS syndrome | Genome-Wide Mapping of Bivalent Histone Modifications in Hepatic Stem/Progenitor Cells | Regulation of Mitophagy By O-Linked N-Acetylglucosamine Transferase Is Essential for Hematopoietic Stem Cell Maintenance | Table S1. List of Genes, Related to Figures 3 and S1 | Document S1. Transparent Methods and Figures S1 and S2 | Ezh1 targets bivalent developmental regulator genes to maintain self-renewing stem cells in Ezh2-insufficient myelodysplastic syndrome | Bcor insufficiency promotes initiation and progression of myelodysplastic syndrome | Ezh2 loss propagates hypermethylation at T cell differentiation–regulating genes to promote leukemic transformation | Metabolic Regulation of Hematopoietic Stem Cells by O-Linked N-Acetylglucosamine Transferase | Hematopoietic insults damage bone marrow niche by activating p53 in vascular endothelial cells | Internal deletion of BCOR reveals a tumor suppressor function for BCOR in T lymphocyte malignancies | Hmga2 collaborates with JAK2 V617F in the development of myeloproliferative neoplasms | Dual Inhibition of EZH2 and EZH1 Sensitizes PRC2-Dependent Tumors to Proteasome Inhibition | Histone lysine methyltransferase G9a is a novel epigenetic target for the treatment of hepatocellular carcinoma | Supplementary Material | Role of the Polycomb Methyltransferase Ezh1 in Myelodysplastic Syndrome Induced By Ezh2 Insufficiency | Distinctive Genetic Features of Plasma Cells in POEMS Syndrome | Molecular Mechanism behind the Synergistic Activity of Proteasome Inhibition and PRC2 Inhibition in the Treatment of Multiple Myeloma | HMGA2 Orchestrates the Tumorgenesis of Myeloproliferative Neoplasms (MPN) in Corporation with JAK2V617F | Impact of combinatorial dysfunctions of Tet2 and Ezh2 on the epigenome in the pathogenesis of myelodysplastic syndrome | Possible role of intragenic DNA hypermethylation in gene silencing of the tumor suppressor gene NR4A3 in acute myeloid leukemia | Abstract 239: Alteration of drug sensitivity according to the induction and reversion of epithelial-to-mesenchymal transition (EMT) in human lung adenocarcinoma cell lines harboring an EGFR mutation | Histone acetylation mediated by Brd1 is crucial for Cd8 gene activation during early thymocyte development | Setdb1 maintains hematopoietic stem and progenitor cells by restricting the ectopic activation of non-hematopoietic genes | Drug resistance originating from a TGF-β/FGF-2-driven epithelial-to-mesenchymal transition and its reversion in human lung adenocarcinoma cell lines harboring an EGFR mutation | Ezh2 regulates the Lin28/let-7 pathway to restrict activation of fetal gene signature in adult hematopoietic stem cells | Diverse Role of DNA Hypermethylation in Reduced Expression of Tumor Suppressor NR4A3 in Acute Myeloid Leukemia | Histone methyltransferase Setdb1 regulates energy metabolism in hematopoietic stem and progenitor cells | HISTONE METHYLTRANSFERASE SETDB1 REGULATES ENERGY METABOLISM IN HEMATOPOIETIC STEM AND PROGENITOR CELLS | Histone lysine methyltransferase SUV39H1 is a potent target for epigenetic therapy of hepatocellular carcinoma | Histone acetylation mediated by Brd1 is crucial for Cd8 gene activation during early thymocyte development | Epigenetic Regulation of Hematopoietic Stem and Progenitor Cells By the Eset Histone Methyltranferas | EZH2 Inhibition and the Combination with Proteasome Inhibition Are Novel Potential Strategies for the Treatment of Multiple Myeloma | Epigenetic Regulation of Hematopoietic Stem and Progenitor Cells By the Eset Histone Methyltranferas | Ezh2 Is Required for Developmental Stage-Specific Silencing of Oncofetal Genes in Hematopoietic Stem/Progenitor Cells | Depletion of Sf3b1 impairs proliferative capacity of hematopoietic stem cells but is not sufficient to induce myelodysplasia | The TIF1β-HP1 System Maintains Transcriptional Integrity of Hematopoietic Stem Cells | Disulfiram Eradicates Tumor-Initiating Hepatocellular Carcinoma Cells in ROS-p38 MAPK Pathway-Dependent and -Independent Manners | Genome-wide mapping of histone modifications mediated by the polycomb-group complexes in fetal liver and adult bone marrow hematopoietic progenitor cells | Metformin, a Diabetes Drug, Eliminates Tumor-Initiating Hepatocellular Carcinoma Cells | Epigenetic regulation of hematopoietic stem cells</t>
+        </is>
+      </c>
+      <c r="M114" s="3" t="inlineStr">
+        <is>
+          <t>Cell Culture | Cancer Biology | Western Blot Analysis | PCR | Immunofluorescence | Cloning | DNA | SDS-PAGE | RNA Isolation | Flow Cytometry</t>
+        </is>
+      </c>
+    </row>
+    <row r="115" ht="80" customHeight="1" s="4">
+      <c r="B115" s="3" t="inlineStr">
+        <is>
+          <t>Friedrich Metzger</t>
+        </is>
+      </c>
+      <c r="C115" s="3" t="inlineStr">
+        <is>
+          <t>Friedrich-Metzger</t>
+        </is>
+      </c>
+      <c r="E115" s="3" t="n">
+        <v>12761</v>
+      </c>
+      <c r="F115" s="3" t="n">
+        <v>3160</v>
+      </c>
+      <c r="G115" s="3" t="n">
+        <v>48</v>
+      </c>
+      <c r="H115" s="3" t="inlineStr">
+        <is>
+          <t>Marla-Weetall | Ulrich-Eisel | Markus-Von-Kienlin | Ignacio-Torres-Aleman | Laurence-Ozmen | Karen-Chen-26 | Vincenzo-Russo-11 | Sibylle-Jablonka | Michael-Sendtner | Stefan-Wiese-2 | Julia-Brenmoehl | Ingrid-Renner-Mueller | Ellen-Welch | Elisa-Wirthgen | Timur-Naim | Hasane-Ratni | Sergey-Paushkin | Andreas-Hoeflich | Josef-Kapfhammer | H-Qi | Martin-Ebeling-2 | Eckhard-Wolf | Daniela-Ohde | Anthony-Turpoff | Nikolai-Naryshkin | Nanjing-Zhang | Martina-Langhammer | Christine-Hoeflich | Jana-Narasimhan | A-Zeissler-2 | Gary-Karp | X-Zhao-7 | Chien-Ping-Ko-12285698 | Zhihua-Feng-12285699 | Mandy-Sawitzky-15038094 | Stefanie-Saenger-2006383485 | Kathleen-McCarthy-2007455785 | Amal-Dakka-2020414562 | Nancy-Schindler-2056406894 | Heidemarie-Kletzl-2120294259 | Gordon-S-Lynch-2163714209 | Bettina-Holtmann-38278898 | Ulrich-Quast-38334281 | Ulla-Renne-39920158 | Hansruedi-Loetscher-39940474 | Roland-Schmucki-58705026 | Manaswini-Sivaramakrishnan-58937308 | Karen-Ling-84534538</t>
+        </is>
+      </c>
+      <c r="I115" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="J115" s="3" t="inlineStr">
+        <is>
+          <t>Georg J. Arnold | Mario Gomes-Pereira | Thomas Fröhlich | David R Clemmons | Ignacio Torres-Aleman | Laurence Ozmen | Eva Carro | Brian Kaspar | Naoaki Saito | Fredrick J Seil | Karen S Chen | Yimin Hua | Constantino Sotelo | Sibylle Jablonka | Michael Sendtner | Thanh T Le | Maurice S Swanson | Pierre De Meyts | Ellen Welch | Elisa Wirthgen | Hasane Ratni | Sergey V Paushkin | Masanobu Kano | José Luis Trejo | Andreas Hoeflich | Elliot J Androphy | Josef P Kapfhammer | Will P J M Spooren | Christian Czech | Chris van der Poel | Gary J. Bassell | Eckhard Wolf | Waseem Sajid | Nikolai Naryshkin | M. Wu | David Linden | Carol A Mason | Gene Hung | Gary Karp | X. Zhao | Marla Weetall | Brunhilde Wirth | Thomas A Cooper | Wilfried Rossoll | Raphael Poirier | Chris Lorson | Genevieve Gourdon | Arthur Burghes | Ravindra Singh | Bettina Sobottka</t>
+        </is>
+      </c>
+      <c r="K115" s="3" t="n">
+        <v>101</v>
+      </c>
+      <c r="L115" s="3" t="inlineStr">
+        <is>
+          <t>SMN protein is required throughout life to prevent spinal muscular atrophy disease progression | Corrigendum to: Pharmacologically-induced mouse model of adult spinal muscular atrophy to evaluate effectiveness of therapeutics after disease onset | Overlap of Peak Growth Activity and Peak IGF-1 to IGFBP Ratio: Delayed Increase of IGFBPs versus IGF-1 in Serum as a Mechanism to Speed up and down Postnatal Weight Gain in Mice | Nerve sprouting capacity in a pharmacologically induced mouse model of spinal muscular atrophy | Impaired myogenic development, differentiation and function in hESC-derived SMA myoblasts and myotubes | Discovery of Risdiplam, a Selective Survival of Motor Neuron-2 ( SMN2 ) Gene Splicing Modifier for the Treatment of Spinal Muscular Atrophy (SMA) | Assessment of systemic administration of PEGylated IGF-1 in a mouse model of traumatic brain injury | Targeting RNA structure in SMN2 reverses spinal muscular atrophy molecular phenotypes | Supplementary Material 5 | Supplementary Material 1 | Supplementary Material 7 | Supplementary Material 2 | Supplementary Material 4 | Supplementary Material 6 | Supplementary Material 3 | Supplementary Material 8 | PEGylated insulin-like growth factor-I affords protection and facilitates recovery of lost functions post-focal ischemia | Binding to SMN2 pre-mRNA-protein complex elicits specificity for small molecule splicing modifiers | Supplementary Material | Oral SMN2 splicing modifiers in spinal muscular atrophy: Proof-of-mechanism and ongoing clinical studies | Discovery of a Novel Class of Survival Motor Neuron 2 Splicing Modifiers for the Treatment of Spinal Muscular Atrophy | Binding to a novel RNA-protein complex creates specificity for small molecule splicing modifiers to treat SMA | Skeletal muscle dysfunction and mitochondrial deficits in spinal muscular atrophy (SMA) | First-in-man study with a novel PEGylated recombinant human insulin-like growth factor-I | Phenotype analysis of male transgenic mice overexpressing mutant IGFBP-2 lacking the Cardin-Weintraub sequence motif: Reduced expression of synaptic markers and myelin basic protein in the brain and a lower degree of anxiety-like behaviour | Skeletal muscle-specific overexpression of IGFBP-2 promotes a slower muscle phenotype in healthy but not dystrophic mdx mice and does not affect the dystrophic pathology: | Specific correction of alternative survival motor neuron 2 (SMN2) splicing by small molecules: Discovery of a potential novel medicine to treat spinal muscular atrophy | Supplementary Data | Pharmacokinetics, Pharmacodynamics and Efficacy of a Small Molecule SMN2 Splicing Modifier in Mouse Models of Spinal Muscular Atrophy | Supplementary Material | Pharmacologically-induced mouse model of adult spinal muscular atrophy to evaluate effectiveness of therapeutics after disease onset | Quantitative Western ligand blotting reveals common patterns and differential features of IGFBP-fingerprints in domestic ruminant breeds and species | Dissociation of somatic growth, time of sexual maturity, and life expectancy by overexpression of an RGD-deficient IGFBP-2 variant in female transgenic mice | OR2-5: Linkage of reproductive development, fat metabolism and lifespan by the RGD-motif of IGFBP-2 in female transgenic mice | OR2-3: The Cardin-Weintraub Motif present in IGFBP-2 is required for growth and function of the mouse brain | Amyloid-?? Peptide Induces Mitochondrial Dysfunction by Inhibition of Preprotein Maturation | SMN2 Gene Splicing Modifiers Restore Lifespan and Motor Behavior in a Mouse Model of Spinal Muscular Atrophy. | Localization of NG2 immunoreactive neuroglia cells in the rat locus coeruleus and their plasticity in response to stress | Analysis of bioactive IGF-binding proteins by quantitative western ligand blotting (qWLB) in different biological fluids for biomarker research. | Effects of parturition and feed restriction on concentrations and distribution of the insulin-like growth factor-binding proteins in plasma and cerebrospinal fluid of dairy cows | Polyethylene glycol-coupled IGF1 delays motor function defects in a mouse model of spinal muscular atrophy with respiratory distress type 1 | Differentiation defects in primary motoneurons from a SMARD1 mouse model that are insensitive to treatment with low dose PEGylated IGF1 | PEGylation of lysine residues reduces the pro-migratory activity of IGF-I | P02-33 Intramuscular administration of PEGylated IGF-I accelerates skeletal muscle regeneration after myotoxic injury | Hepatic mRNA Expression of acid labile subunit and deiodinase 1 differs between cows selected for high versus low concentrations of insulin-like growth facor 1 in late pregnancy | Insulinotropic treatments exacerbate metabolic syndrome in mice lacking MeCP2 function | Myotonic dystrophy CTG expansion affects synaptic vesicle proteins, neurotransmission and mouse behaviour | Figure S6 | Figure S1 | Figure S3 | Figure S7 | Figure S5 | Figure S2 | Figure S4 | Molecular, Physiological, and Motor Performance Defects in DMSXL Mice Carrying &gt;1,000 CTG Repeats from the Human DM1 Locus | OR04-1 Dissection of growth and aging by IGFBP-2 variants: Functional analysis of the Arg-Gly-Asp sequence from IGFBP-2 in transgenic mice | OR06-5 Rescue of the age-dependent decline in cerebral glucose uptake by PEGylated IGF-I treatment in a non-human primate | P01-17 Elevated serum IGF-I concentrations and accelerated aging in long-term growth selected mouse lines | P02-35 Severe reductions of brain weights and behavioral changes in transgenic mice overexpressing mutated IGFBP-2 lacking a heparin binding domain | T.P.7 Small molecule compounds correct alternative splicing of the SMN2 gene and restore SMN protein expression and function | Functional improvement in mouse models of familial amyotrophic lateral sclerosis by PEGylated insulin-like growth factor I treatment depends on disease severity | Phenotype Selection Reveals Coevolution of Muscle Glycogen and Protein and PTEN as a Gate Keeper for the Accretion of Muscle Mass in Adult Female Mice | Therapeutic potential of PEGylated insulin-like growth factor I for skeletal muscle disease evaluated in two murine models of muscular dystrophy | Selective degeneration of septal and hippocampal GABAergic neurons in a mouse model of amyloidosis and tauopathy | Early brain amyloidosis in APP/PS1 mice with serum insulin-like growth factor-I deficiency | Therapeutic effects of PEGylated insulin-like growth factor I in the pmn mouse model of motoneuron disease | PEGylation enhances the therapeutic potential for insulin-like growth factor I in central nervous system disorders | Invivo detection of age-related cerebral glucose uptake alterations by PET in microcebus murinus primates | Separation of Fast from Slow Anabolism by Site-specific PEGylation of Insulin-like Growth Factor I (IGF-I) | OR12,67 Age-dependent control of Akt phosphorylation in muscles from IGFBP-2 transgenic mice as a potential target for the metabolic effects of IGFBP-2 | P78 Elimination of acute drug side effects without loss of efficacy by site-specific PEGylation of insulin-like growth factor I | Enhanced dentate gyrus synaptic plasticity but reduced neurogenesis in a mouse model of amyloidosis | Molecular and Cellular Control of Dendrite Maturation During Brain Development | Cortical Hypoperfusion in the B6.PS2APP Mouse Model for Alzheimer's Disease: Comprehensive Phenotyping of Vascular and Tissular Parameters by MRI | ProNGF inhibits NGF-mediated TrkA activation in PC12 cells | Disturbed Cross Talk between Insulin-Like Growth Factor I and AMP-Activated Protein Kinase as a Possible Cause of Vascular Dysfunction in the Amyloid Precursor Protein/Presenilin 2 Mouse Model of Alzheimer's Disease | Therapeutic actions of insulin-like growth factor I on APP/PS2 mice with severe brain amyloidosis | Lack of NMDA receptor subunit exchange alters Purkinje cell dendritic morphology in cerebellar slice cultures | Optical assessment of motoneuron function in a “twenty-four-hour” acute spinal cord slice model from fetal rats | Altered metabolic profile in the frontal cortex of PS2APP transgenic mice, monitored throughout their life span | Long-term NR2B expression in the cerebellum alters granule cell development and leads to NR2A down-regulation and motor deficits | P2-055 Altered metabolic profile in the frontal cortex of PS2APP transgenic mice, monitored throughout their entire life-span | Corticotropin-releasing factor and urocortin differentially modulate rat Purkinje cell dendritic outgrowth and differentiation | Purkinje cell dendritic tree development in the absence of excitatory neurotransmission and of brain-derived neurotrophic factor in organotypic slice cultures | Different regulation of Purkinje cell dendritic development in cerebellar slice cultures by protein kinase C? and -? | Protein kinase C: Its role in activity-dependent Purkinje cell dendritic development and plasticity | Morphological study of organotypic cerebellar cultures | Altered dendritic development of cerebellar Purkinje cells in slice cultures from protein kinase Cgamma-deficient mice | Transgenic mice expressing a pH and Cl- sensing yellow-fluorescent protein under the control of a potassium channel promoter | Protein kinase C activity modulates dendritic differentiation of rat Purkinje cells in cerebellar slice cultures | Contribution of Ca2+-permeable AMPA/KA receptors to glutamate-induced Ca2+ rise in embryonic lumbar motoneurons in situ | The role of p75NTR in modulating neurotrophin survival effects in developing motoneurons | Mechanical and Excitotoxic Lesion of Motoneurons: Effects of Neurotrophins and Ciliary Neurotrophic Factor on Survival and Regeneration | The role of p75 in modulating neurotrophin survival effects | Effect of Glutamate on Dendritic Growth in Embryonic Rat Motoneurons | Binding and effects of KATP channel openers in the vascular smooth muscle cell line, A10 | Sulphonylurea binding in rat isolated glomeruli: Pharmacological characterization and dependence on cell metabolism and cytoskeleton | Binding of [3H]-P1075, an opener of ATP-sensitive K+ channels, to rat glomerular preparations | Modulation of ATP-Sensitive K+ Channels in Rat Aorta and Kidney | Brain-2013-Hernández-Hernández</t>
+        </is>
+      </c>
+      <c r="M115" s="3" t="inlineStr">
+        <is>
+          <t>Neurobiology and Brain Physiology | Neurobiology | Physiology | Protein Kinases | Neuroscience | Phosphorylation | Central Nervous System Diseases</t>
+        </is>
+      </c>
+    </row>
+    <row r="116" ht="80" customHeight="1" s="4">
+      <c r="B116" s="3" t="inlineStr">
+        <is>
+          <t>Jason D Graci</t>
+        </is>
+      </c>
+      <c r="C116" s="3" t="inlineStr">
+        <is>
+          <t>Jason-Graci</t>
+        </is>
+      </c>
+      <c r="D116" s="3" t="inlineStr">
+        <is>
+          <t>PTC Therapeutics</t>
+        </is>
+      </c>
+      <c r="E116" s="3" t="n">
+        <v>3766</v>
+      </c>
+      <c r="F116" s="3" t="n">
+        <v>1375</v>
+      </c>
+      <c r="G116" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="H116" s="3" t="inlineStr">
+        <is>
+          <t>Marla-Weetall | Allan-Jacobson | Blake-Peterson-2 | Chunshi_Li | Slobodan-Paessler | Christopher-Trotta | Joseph-Colacino | Jamie-Breslin | Jeremy-Luban | Caterina-Strambio-De-Castillia | Sina-Bavari | Craig-Cameron-2 | Neil-Almstead | Ellen-Welch | Ellen-Suder | David-Loakes | Guangming-Chen-5 | Liangxian-Cao | Song-Huang-27 | Steven-Paget | Christian-Castro-32 | Amin-Nomeir | Anthony-Turpoff | Hongyu-Ren-3 | William-Lennox | Nikolai-Naryshkin | Nanjing-Zhang | John-Pichardo | Stephen-Jung | Veronica-Soloveva | J-Sheedy | Daniel-Harki | George-Njoroge-6 | Gary-Karp | Nicole-Risher | J-Dougherty | Marco-Vignuzzi-11892330 | Zhengxian-Gu-15422108 | Jin-Zhu-2008833796 | Fred-Lahser-2008851576 | Shirley-Yeh-2020778478 | Ronald-Kong-2052726600 | Kylie-OKeefe-2159485688 | Xiaoyan-Zhang-2163090503 | Elizabeth-Goodwin-2169695589 | Wencheng-Li-2170167220 | Anna-Mollin-28401344 | Jessica-E-Galarraga-34462180 | Jocelyn-P-Edathil-39124979 | Stuart-W-Peltz-39719255</t>
+        </is>
+      </c>
+      <c r="I116" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="J116" s="3" t="inlineStr">
+        <is>
+          <t>Fergal Hill | Daniel J Price | Blake Robert Peterson | David Margolis | John Brad Shotwell | Nancie Archin | Andrés Moya | Joseph M Colacino | young-choon Moon | Pedro Lowenstein | Craig E Cameron | Ellen Lakey Berg | Saleta Sierra | Carol E Cass | David A Steinhauer | Neil G Almstead | David Loakes | Eric Verdin | Ziruo Hong | Guangming Chen | Karla Kirkegaard | Shane Crotty | Johnson Yn Lau | Amin A Nomeir | Darrin Young | Anthony Turpoff | Hongyu Ren | James I Mullins | William Lennox | Jeffrey Glenn | John Seal | Nanjing Zhang | Francois Penin | Katrina L Creech | Stephen Patrick Jung | J. Sheedy | David Maag | Daniel A. Harki | George Njoroge | Gary Karp | Kei Moriyama | Warner Craig Greene | Marla Weetall | Edward C Holmes | John Essigmann | Saikat Ghosh | Mark Sulkowski | Jeffrey Stone | Song huang Huang | Christian Castro</t>
+        </is>
+      </c>
+      <c r="K116" s="3" t="n">
+        <v>28</v>
+      </c>
+      <c r="L116" s="3" t="inlineStr">
+        <is>
+          <t>Emvododstat, a Potent Dihydroorotate Dehydrogenase Inhibitor, Is Effective in Preclinical Models of Acute Myeloid Leukemia | Small molecule splicing modifiers with systemic HTT-lowering activity | The DHODH inhibitor PTC299 arrests SARS-CoV-2 replication and suppresses induction of inflammatory cytokines | The DHODH Inhibitor PTC299 Arrests SARS-CoV-2 Replication and Suppresses Induction of Inflammatory Cytokines | Targeting of Hematologic Malignancies with PTC299, A Novel Potent Inhibitor of Dihydroorotate Dehydrogenase with Favorable Pharmaceutical Properties | Identification of benzazole compounds that induce HIV-1 transcription | Supplemental material | PTC725, an NS4B-targeting compound, inhibits an HCV genotype 3 replicon, as predicted by genome sequence analysis and determined experimentally | Discovery of 2-(4-sulfonamidophenyl)-indole 3-carboxamides as potent and selective inhibitors with broad hepatitis C virus genotype activity targeting HCV NS4B | 6-(Azaindol-2-yl)pyridine-3-sulfonamides as potent and selective inhibitors targeting hepatitis C virus NS4B | RNA Virus Population Diversity: An Optimum for Maximal Fitness and Virulence. | Structure-Activity Relationship (SAR) Optimization of 6-(Indol-2-yl)pyridine-3-sulfonamides: Identification of Potent, Selective, and Orally Bioavailable Small Molecules Targeting Hepatitis C (HCV) NS4B | Discovery of novel HCV inhibitors: Synthesis and biological activity of 6-(indol-2-yl)pyridine-3-sulfonamides targeting hepatitis C virus NS4B | Identification of PTC725, an Orally Bioavailable Small Molecule That Selectively Targets the Hepatitis C Virus NS4B Protein | Mutational Robustness of an RNA Virus Influences Sensitivity to Lethal Mutagenesis | High-throughput Screening Uncovers a Compound That Activates Latent HIV-1 and Acts Cooperatively with a Histone Deacetylase (HDAC) Inhibitor | HIV Type-1 Latency: Targeted Induction of Proviral Reservoirs | Therapeutally targeting RNA viruses via lethal mutagenesis | Lethal Mutagenesis of Picornaviruses with N-T-Modified Purine Nucleoside Analogues | Effects of Introduction of Hydrophobic Group on Ribavirin Base on Mutation Induction and Anti-RNA Viral Activity | Lethal Mutagenesis of Poliovirus Mediated by a Mutagenic Pyrimidine Analogue | Synthesis of a Universal 5-Nitroindole Ribonucleotide and Incorporation into RNA by a Viral RNA-Dependent RNA Polymerase | Synthesis and Antiviral Activity of 5-Substituted Cytidine Analogues: Identification of a Potent Inhibitor of Viral RNA-Dependent RNA Polymerases | Mechanism of action of ribavirin against distinct viruses | Lethal Mutagenesis: Exploiting Error‐Prone Replication of Riboviruses for Antiviral Therapy | Challenges for the Development of Ribonucleoside Analogues as Inducers of Error Catastrophe | Quasispecies, Error Catastrophe, and the Antiviral Activity of Ribavirin | Synthesis and Antiviral Evaluation of a Mutagenic and Non-Hydrogen Bonding Ribonucleoside Analogue: 1-β- d -Ribofuranosyl-3-nitropyrrole †</t>
+        </is>
+      </c>
+      <c r="M116" s="3" t="inlineStr">
+        <is>
+          <t>Cell Culture | PCR | RNA | Molecular Virology | Viral Infection | Cloning | Western Blot Analysis | Gel Electrophoresis | Emerging Infectious Diseases | RNA Extraction</t>
+        </is>
+      </c>
+    </row>
+    <row r="117" ht="80" customHeight="1" s="4">
+      <c r="B117" s="3" t="inlineStr">
+        <is>
+          <t>Craig Campbell</t>
+        </is>
+      </c>
+      <c r="C117" s="3" t="inlineStr">
+        <is>
+          <t>Craig-Campbell-14</t>
+        </is>
+      </c>
+      <c r="D117" s="3" t="inlineStr">
+        <is>
+          <t>The University of Western Ontario</t>
+        </is>
+      </c>
+      <c r="E117" s="3" t="n">
+        <v>42608</v>
+      </c>
+      <c r="F117" s="3" t="n">
+        <v>4772</v>
+      </c>
+      <c r="G117" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="H117" s="3" t="inlineStr">
+        <is>
+          <t>Eugenio-Zapata-Aldana | Richard-Barohn | Craig-Mcdonald-6 | Enrico-Bertini | Kathy-Speechley | Thomas-Sejersen | Anna-Kostera-Pruszczyk | Susan-Iannaccone | Katherine-Mathews-3 | Laura-Mcadam-2 | Mar-Tulinius | Thomas-Voit-3 | Lawrence-Korngut | Janbernd-Kirschner | Volker-Straub-2 | Man-Hung | Andres-Nascimento | Juan-Vilchez-2 | Miriam-Rodrigues-3 | Alex-Mackenzie-3 | Nathalie-Goemans | Kevin-Flanigan | Kate-Bushby | Victoria-Hodgkinson-2 | Nicholas-Johnson-5 | Hanns-Lochmuller-2 | Richard-Finkel | Hugh-Mcmillan | Kathryn-Selby | Monique-Ryan-2 | Perry-Shieh-2 | Giuseppe-Vita | Anna-Ambrosini-2027796465 | Russell-J-Butterfield-2038442047 | Francesco-Muntoni-2071904677 | Hernan-Gonorazky-2114513457 | R-Hicks-2133899824 | Maryam-Oskoui-2136146544 | M-Guglieri-2154646028 | Clemens-Bloetzer-28924096 | G-L-Elfring-3605042 | James-J-Dowling-38319812 | Michela-Guglieri-38375046 | Jean-K-Mah-39137820 | Eugenio-Mercuri-39608160 | Bernard-Brais-39738744 | Basil-T-Darras-42933485 | Elena-S-Mazzone-44182038 | Imelda-Hughes-63234348 | Anne-M-Connolly-9941913</t>
+        </is>
+      </c>
+      <c r="I117" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="J117" s="3" t="inlineStr">
+        <is>
+          <t>Eric Hoffman | Luisa Politano | Giacomo P Comi | Christophe Beroud | Haluk Topaloglu | Craig M McDonald | Enrico Bertini | Ajay Kaul | Frederic Shapiro | Thomas Sejersen | Darryl C De Vivo | Annemieke Aartsma-Rus | Laura E Case | Angela Berardinelli | Luca Bello | Már Tulinius | Richard Ted Abresch | Claudio Bruno | Rabi Tawil | Janbernd Kirschner | Eduard Gappmaier | Tina Duong | Anna Mayhew | Michelle Eagle | Jacqueline Montes | Adele D'Amico | Gert-Jan B van Ommen | Nathalie Goemans | Kevin Flanigan | Kate Bushby | Marika Pane | James Poysky | Nicholas E Johnson | Hanns Lochmuller | Richard S Finkel | Wendy King | Monique M Ryan | Robert Spiegel | Carolyn Constantin | Erik Henricson | Giuseppe Vita | Richard Barohn | Roberto De Sanctis | Susan Iannaccone | Elena Pegoraro | David Birnkrant | Thomas Voit | Sonia Messina | Volker Straub | Brenda Wong</t>
+        </is>
+      </c>
+      <c r="K117" s="3" t="n">
+        <v>193</v>
+      </c>
+      <c r="L117" s="3" t="inlineStr">
+        <is>
+          <t>P.084 The Canadian Neuromuscular Disease Registry: a national spinal muscular atrophy registry for real world evidence | A 16-year-old boy with lower extremity muscle wasting and pain | An international comparative analysis of public reimbursement of orphan drugs in Canadian provinces compared to European countries | The Discovery of the DNA Methylation Episignature for Duchenne Muscular Dystrophy | A novel MAP3K7 mutation in a child with cardiospondylocarpofacial syndrome and orofacial clefting | P.211 TREAT-NMD myotonic dystrophy Global Registry Network: Providing data in congenital myotonic dystrophy to support FDA regulatory decision making | FP.30 TREAT-NMD FSHD Global Registry Network: A collaboration of neuromuscular and FSHD patient registries | P.212 TREAT-NMD Myotonic dystrophy (DM) Global Registry Network: An update in 2022 | P.213 TREAT-NMD myotonic dystrophy global registry network: An international collaboration in myotonic dystrophy type 2 | DUCHENNE MUSCULAR DYSTROPHY RESPIRATORY PROFILES FROM REAL-WORLD REGISTRY DATA: A RETROSPECTIVE LONGITUDINAL STUDY | Understanding the Experiences of Lung Volume Recruitment Among Boys with Duchenne Muscular Dystrophy: A Multi‐Center Qualitative Study | Academic Productivity from Rare Neuromuscular Disease Registries: A Systematic Review | Effect of Different Corticosteroid Dosing Regimens on Clinical Outcomes in Boys With Duchenne Muscular Dystrophy: A Randomized Clinical Trial | Randomized Phase 2 Study of ACE‐083, a Muscle‐Promoting Agent, in Facioscapulohumeral Muscular Dystrophy | Routine lung volume recruitment in boys with Duchenne muscular dystrophy: a randomised clinical trial | eP213: Phase 2 multiple ascending-dose study of SRP-5051 PPMO in patients with DMD amenable to exon 51 skipping: Part A results | Safety and efficacy of once-daily risdiplam in type 2 and non-ambulant type 3 spinal muscular atrophy (SUNFISH part 2): a phase 3, double-blind, randomised, placebo-controlled trial | Ataluren delays loss of ambulation and respiratory decline in nonsense mutation Duchenne muscular dystrophy patients | Correction to: Reldesemtiv in Patients with Spinal Muscular Atrophy: a Phase 2 Hypothesis-Generating Study | Meta-analyses of deflazacort versus prednisone/prednisolone in patients with nonsense mutation Duchenne muscular dystrophy | Ontario Newborn Screening for Spinal Muscular Atrophy: The First Year | SMA – OUTCOME MEASURES AND REGISTRIES | REGISTRIES AND CARE OF NMD | DMD/BMD – OUTCOME MEASURES | REGISTRIES AND CARE OF NMD | SMA – OUTCOME MEASURES AND REGISTRIES | DMD/BMD – OUTCOME MEASURES | Evaluating longitudinal therapy effects via the North Star Ambulatory Assessment | An International Comparative Analysis Highlighting that Canada is Not Keeping Pace With Patient Access to Drugs for Rare Diseases | Health related quality of life in young, steroid-naïve boys with Duchenne muscular dystrophy | Magnetic Resonance Imaging Findings are Associated with Long-term Global Neurological Function or Death Following Traumatic Brain Injury in Critically Ill Children | α‐tropomyosin gene (TPM3) mutation in an infant with nemaline myopathy | Reldesemtiv in Patients with Spinal Muscular Atrophy: a Phase 2 Hypothesis-Generating Study | Corrigendum to “Randomized phase 2 trial and open-label extension of domagrozumab in Duchenne muscular dystrophy” [Neuromuscular Disorders, Vol. 30 (6) 2020, 492-502] | 12‐Month Progression of Motor and Functional Outcomes in Congenital Myotonic Dystrophy | Clinical and technical assessment of MedExome vs. NGS panels in patients with suspected genetic disorders in Southwestern Ontario | Newborn Screening for Spinal Muscular Atrophy: Ontario Testing &amp; Follow-up Recommendations | REGISTRIES, CARE, QUALITY OF LIFE, MANAGEMENT OF NMD | SMA: REGISTRIES, BIOMARKERS &amp; OUTCOME MEASURES | The Canadian Neuromuscular Disease Registry 2010-2019: A Decade of Facilitating Clinical Research Through a Nationwide, Pan-Neuromuscular Disease Registry | Meta-analyses of ataluren randomized controlled trials in nonsense mutation Duchenne muscular dystrophy | Proceedings of the 2019 Canadian Inflammatory Myopathy Study Symposium: Clinical Trial Readiness in Myositis | A National Spinal Muscular Atrophy Registry for Real-World Evidence | Randomized phase 2 trial and open-label extension of domagrozumab in Duchenne muscular dystrophy | RESULTS FROM A PHASE 2 STUDY OF ACE-083 IN PATIENTS WITH FACIOSCAPULOHUMERAL MUSCULAR DYSTROPHY (FSHD) – IMPLICATIONS FOR FUTURE CLINICAL TRIALS | Drisapersen associated with elevated serum factor VIII levels in Duchenne muscular dystrophy | Deflazacort vs prednisone treatment for Duchenne muscular dystrophy: A meta‐analysis of disease progression rates in recent multicenter clinical trials | Meta-analyses of ataluren randomized controlled trials in nonsense mutation Duchenne muscular dystrophy | Correction to: Eight years after an international workshop on myotonic dystrophy patient registries: case study of a global collaboration for a rare disease | Penelope syndrome: Exploring the Pandora’s Box of Genetic Associations | Deflazacort versus prednisone treatment for Duchenne muscular dystrophy: a meta‐analysis of disease progression rates in recent multicenter clinical trials | P.218Utility based health related quality of life in children and adolescents with spinal muscular atrophy | E-POSTERS – DMD – OUTCOME MEASURES | EP.44Improving healthcare professionals' capacity for facilitating self-determination among children with neuromuscular conditions: assessing the need | STACKING EXERCISES ATTENUATE THE DECLINE IN FVC AND SICK TIME (STEADFAST) | Patient‐reported study of the impact of pediatric‐onset myotonic dystrophy | Collaborative data collection by TREAT-NMD Registries to support post-marketing surveillance in Spinal Muscular Atrophy | Muscle problems in juvenile-onset acid maltase deficiency (Pompe disease) | A Phenotypic Description of Congenital Myotonic Dystrophy using PhenoStacks | P.067 Quality of my life: perceptions of boys with Duchenne muscular dystrophy and their parents | P.063 SUNFISH Part 1 results and Part 2 trial design in patients with type 2/3 spinal muscular atrophy (SMA) receiving risdiplam (RG7916) | Consensus-based care recommendations for congenital and childhood-onset myotonic dystrophy type 1 | 95 A Comparison of the Developmental Profiles of Individuals with Hemiplegic Cerebral Palsy associated with Middle Cerebral Artery and Periventricular Venous Infarctions | Body Composition in Patients with Congenital Myotonic Dystrophy | Distal arthrogryposis type 5 and PIEZO2 novel variant in a Canadian family | Fatigue in young people with Duchenne muscular dystrophy | Agitated behavior scale in pediatric traumatic brain injury | Eight years after an international workshop on myotonic dystrophy patient registries: Case study of a global collaboration for a rare disease | FSHD / OPMD / EDMD / DMI | NEXT GENERATION SEQUENCING AND EXPERIMENTAL MYOLOGY | SMA CLINICAL DATA, OUTCOME MEASURES AND REGISTRIES | Consensus-based care recommendations for adults with myotonic dystrophy type 1 | Consensus-based care recommendations for adults with myotonic dystrophy type 1 | Supplementary Material | Twinkle-Associated Mitochondrial DNA Depletion | Further delineation of TBCK - Infantile hypotonia with psychomotor retardation and characteristic facies type 3 | Response to the Canadian Agency for Drugs and Technologies in Health and Institut national d’excellence en santé et en services sociaux decision regarding nusinersen for Spinal Muscular Atrophy | Prenatal, Neonatal, and Early Childhood Features in Congenital Myotonic Dystrophy | Orofacial strength, dysarthria, and dysphagia in Congenital Myotonic Dystrophy | P.078 Health-related quality of life and fatigue in children with Duchenne muscular dystrophy: A three-year longitudinal study | P.020 Novel GRIN2A variant in family members with variable phenotypic expression of epilepsy | P.072 Agreement between children and their parents’ ratings of the health-related quality of life of children with Duchenne Muscular Dystrophy | P.077 Utility of a next generation sequencing in the diagnosis of Congenital Myasthenic Syndromes | B.07 Review of patients with Spinal Muscular Atrophy treated with Nusinersen in Ontario | A checklist for clinical trials in rare disease: Obstacles and anticipatory actions-lessons learned from the FOR-DMD trial | Supplementary Material | Nusinersen versus Sham Control in Later-Onset Spinal Muscular Atrophy | Supplementary Table S4 | Supplementary Table S1 | Supplementary Table S2 | Supplementary Table S3 | Supplementary Information | Nusinersen versus Sham Control in Later-Onset Spinal Muscular Atrophy | The Canadian Neuromuscular Disease Registry: Connecting patients to national and international research opportunities | A randomized placebo-controlled phase 3 trial of an antisense oligonucleotide, drisapersen, in Duchenne muscular dystrophy | Supplementary Material | Clinical outcomes in Duchenne Muscular Dystrophy: a study of 5345 patients from the TREAT-NMD DMD global database | We need a “made in Canada” orphan drug framework | Performance Monitoring in Children Following Traumatic Brain Injury Compared to Typically Developing Children | Predictors of ambulation in patients with duchenne muscular dystrophy</t>
+        </is>
+      </c>
+      <c r="M117" s="3" t="inlineStr">
+        <is>
+          <t>Duchenne Muscular Dystrophy | Health-Related Quality Of Life | Neuromuscular Disorders | Patient Reported Outcomes | Pediatric Neurology | Clinical Neurophysiology | Neurology | Neurological Diseases | Limb-Girdle Muscular Dystrophies</t>
+        </is>
+      </c>
+    </row>
+    <row r="118" ht="80" customHeight="1" s="4">
+      <c r="B118" s="3" t="inlineStr">
+        <is>
+          <t>Monica Hubal</t>
+        </is>
+      </c>
+      <c r="C118" s="3" t="inlineStr">
+        <is>
+          <t>Monica-Hubal</t>
+        </is>
+      </c>
+      <c r="D118" s="3" t="inlineStr">
+        <is>
+          <t>Indiana University-Purdue University Indianapolis</t>
+        </is>
+      </c>
+      <c r="E118" s="3" t="n">
+        <v>38636</v>
+      </c>
+      <c r="F118" s="3" t="n">
+        <v>4767</v>
+      </c>
+      <c r="G118" s="3" t="n">
+        <v>48</v>
+      </c>
+      <c r="H118" s="3" t="inlineStr">
+        <is>
+          <t>Richard-Seip | Carrie-Nielson | Mattias-Lorentzon | Najaf-Amin | Melina-Claussnitzer | Maria-Urso | Jaakko-Tuomilehto | Johanna-Kuusisto | Joseph-Devaney | Jerome-Rotter | Lenore-Launer | Georg-Homuth | Mary-Feitosa | Laura-Yerges-Armstrong | Heather-Gordish-Dressman | William-Kraus-3 | Funda-Orkunoglu-Suer | Niall-Moyna | Joshua-Lewis | Paul-Visich | Joseph-Houmard | Theodore-Angelopoulos | Paul-Gordon-8 | Linda-Pescatello | Robert-Zoeller | Robert-Freishtat | Stuart-Chipkin | Robert-Hyldahl-2 | Yi-Wen-Chen-5 | Kimberly-Reich-3 | Brennan-Harmon | Karen-Riska | Matthew-Barberio | Jill-Maples | Samantha-Sevilla | Ida-Malkin | Eric-Hoffman-6 | Laura-L-Tosi-2004064154 | Sarah-Ferrante-2050895852 | Ronak-R-Patel-35917666 | Justin-S-Larkin-35956164 | Kasra-Adham-36148637 | Paul-D-Thompson-38181420 | Priscilla-M-Clarkson-38196054 | Kim-M-Huffman-39295996 | Amy-K-Kearns-39780289 | Evan-P-Nadler-39917435 | Ling-Xin-58090090</t>
+        </is>
+      </c>
+      <c r="I118" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="J118" s="3" t="inlineStr">
+        <is>
+          <t>Theodore J Angelopoulos | Eric Hoffman | Richard L. Seip | Najaf Amin | Jaakko Tuomilehto | Johanna Kuusisto | Mark Caulfield | Joseph M. Devaney | Massimo Mangino | Narisu Narisu | Heather Gordish-Dressman | William E Kraus | Thomas B Price | Patricia B Munroe | Niall M Moyna | Paul S Visich | Philippe Froguel | Claude Bouchard | Cris A Slentz | Joseph A Houmard | Ben F Hurley | Gordon L Warren | Stuart M Phillips | Markku Laakso | Ingrid Borecki | Louis Pérusse | Paul M Gordon | Jing Hua Zhao | Stephen M Roth | Thomas Illig | Christian Gieger | Mark Tarnopolsky | Robert F Zoeller | Cristen J Willer | Karol Estrada | Wendy Mcardle | Tim Koves | Brennan Harmon | Michael Weedon | Serena Sanna | Nicole Soranzo | Kazunori Nosaka | Tim Spector | marjo-riitta Jarvelin | Cecilia Lindgren | Vilmundur Gudnason | Ruth Loos | M. Carola Zillikens | Goncalo Abecasis | Linda S. Pescatello</t>
+        </is>
+      </c>
+      <c r="K118" s="3" t="n">
+        <v>111</v>
+      </c>
+      <c r="L118" s="3" t="inlineStr">
+        <is>
+          <t>Effects Of Six Months Of Aerobic Exercise On Mir Expression In Skeletal Muscle | Early Muscle Gene Expression Changes With Eccentric Exercise Uniquely Associated With Peak Strength Loss | Rheumatoid arthritis T cell and muscle oxidative metabolism associate with exercise-induced changes in cardiorespiratory fitness | Obesity and exercise training alter inflammatory pathway skeletal muscle small extracellular vesicle miRNAs | Preeminent Women in Exercise Physiology and Their Contributions to Title IX | Type 2 Diabetes Modifies Skeletal Muscle Gene Expression Response to Gastric Bypass Surgery | Early Muscle Gene Expression Changes With Eccentric Exercise Associated With Peak Delayed Onset Muscle Soreness: 1142 | Altered skeletal muscle metabolic pathways, age, systemic inflammation, and low cardiorespiratory fitness associate with improvements in disease activity following high-intensity interval training in persons with rheumatoid arthritis | Systems Exercise Genetics Research Design Standards | Altered Skeletal Muscle Metabolic Pathways, Age, Systemic Inflammation, and Low Cardiorespiratory Fitness Associate with Improvements in Disease Activity Following High-Intensity Interval Training in Persons with Rheumatoid Arthritis | Type 2 Diabetes Modifies Skeletal Muscle Gene Expression Response to Gastric Bypass Surgery | Muscle Strength And Size Correlations At Baseline And Following Unilateral Resistance Training: 1338 May 28 9:45 AM - 10:00 AM | Gene Expression Differences In Three-dimensional Myobundles Compared To Two-dimensional Myocultures: 2820 Board #281 May 29 10:30 AM - 12:00 PM | Consumption of Diet Soda Sweetened with Sucralose and Acesulfame-Potassium Alters Inflammatory Transcriptome Pathways in Females with Overweight and Obesity | Abstract P461: Genome-wide Analysis in Sedentary Adults of Non-completion of a Controlled Exercise Intervention | Immune cell extracellular vesicles and their mitochondrial content decline with ageing | Comparison of visceral adipose tissue DNA methylation and gene expression profiles in female adolescents with obesity | Effect of Short-Term Concurrent Exercise Training on Skeletal Muscle Exosomal miRNAs in Lean and Obese: 1868 Board #24 May 30 2:00 PM - 3:30 PM | Routledge Handbook of Sport and Exercise Systems Genetics | Exercise and weight loss interventions and miRNA expression in women with breast cancer | Genetic Variation in Acid Ceramidase Predicts Non-completion of an Exercise Intervention | The effects of an acute exercise bout on GH and IGF-1 in prediabetic and healthy African Americans: A pilot study investigating gene expression | Large meta-analysis of genome-wide association studies identifies five loci for lean body mass | Erratum: Large meta-analysis of genome-wide association studies identifies five loci for lean body mass | High Incomplete Skeletal Muscle Fatty Acid Oxidation Explains Low Muscle Insulin Sensitivity in Poorly Controlled T2D | Erratum: Large meta-analysis of genome-wide association studies identifies five loci for lean body mass | Expression of macrophage genes within skeletal muscle correlates inversely with adiposity and insulin resistance in humans | Large meta-analysis of genome-wide association studies identifies five loci for lean body mass. | Molecular alterations in skeletal muscle in rheumatoid arthritis are related to disease activity, physical inactivity, and disability | Extracellular microRNA signature in chronic kidney disease | Genes in Skeletal Muscle Remodeling and Impact of Feeding | Circulating adipocyte-derived exosomal MicroRNAs associated with decreased insulin resistance after gastric bypass | PDPR Gene Expression Correlates with Exercise-Training Insulin Sensitivity Changes | Insulin Resistance-Related Epigenetic Modifications in Visceral Adipose Tissue of Obese Adolescents: 2624 Board #147 June 3, 11: 00 AM - 12: 30 PM | 17: OBESE ADIPOCYTE-DERIVED EXOSOMAL MIRNAS TARGETING TGF-β SIGNALING ARE ASSOCIATED WITH POOR ASTHMA CONTROL | Sex differences in the association between neck circumference and asthma | Ethical Practices in Human and Animal Research | Ethical principles in human and animal research | Differential Epigenetic and Transcriptional Response of the Skeletal Muscle Carnitine Palmitoyltransferase 1B (CPT1B) Gene to Lipid Exposure with Obesity | Gene Expression Changes Associated with Insulin Sensitivity Variation Following Exercise Training: 729 Board #125 May 27, 2 | A High‐Fat Diet Activates Inflammatory Signaling in Human Skeletal Muscle Cultures from Severely Obese Women | Skeletal Muscle Peroxisome Proliferator‐Activated Alpha is Differentially Regulated with Severe Obesity | Extracellular matrix remodeling and its contribution to protective adaptation following lengthening contractions in human muscle | OBESITY DERIVED ADIPOCYTE EXOSOMES ALTER TGF beta SIGNALING GENE EXPRESSION IN LUNG EPITHELIUM | ASTHMATIC AIRWAY FIBROBLASTS: OBESE EXOSOME EXPOSURE UP-REGULATES TGF beta RECEPTOR SIGNALING | Lipid exposure elicits differential responses in gene expression and DNA methylation in primary human skeletal muscle cells from severely obese women | Optimal physical activity and exercise following bariatric surgery | Adipocyte-derived Exosomal miRNAs: A Novel Mechanism for Obesity-Related Disease | Adipocyte Exosomes Induce TGF-β Pathway Dysregulation in Hepatocytes: A Novel Paradigm for Obesity-Related Liver Disease | Metabolite signatures of exercise training in human skeletal muscle relate to mitochondrial remodelling and cardiometabolic fitness | SLC30A8 Nonsynonymous Variant Is Associated With Recovery Following Exercise and Skeletal Muscle Size and Strength. Diabetes 2014; 63: 363-368 | Unique Visceral Adipose Tissue Transcriptomic Signature In Obese Hispanic Females: 692 Board #107 May 28, 2 | Lipid Oversupply Remodels DNA Methylation And Histone Acetylation In The CPT1B Gene Promoter Region: 1226 May 29, 9 | Lengthening our perspective: Morphological, cellular, and molecular responses to eccentric exercise | Genetic modifiers of obesity and bariatric surgery outcomes | Adipocyte Exosomes Induce Transforming Growth Factor Beta Pathway Dysregulation in Hepatocytes: A Novel Paradigm for Obesity-Related Liver Disease | In Memoriam: Dr. Priscilla M. Clarkson (1947–2013) Muscle Biology Visionary, Leader, Mentor, and Inspiration | SLC30A8 Nonsynonymous Variant Is Associated With Recovery Following Exercise and Skeletal Muscle Size and Strength | Dysregulation of upstream and downstream TGF-beta transcripts in livers of children with biliary atresia and fibrogenic gene signatures | Highlights from the Functional Single Nucleotide Polymorphisms Associated with Human Muscle Size and Strength or FAMuSS Study | Association between obesity and low muscular and cardiorespiratory capacity, cardiometabolic risk factors in Colombian children | Muscle Damage | Transcriptional deficits in oxidative phosphorylation with statin myopathy | Activation of nuclear factor‐κPB following muscle eccentric contractions in humans is localized primarily to skeletal muscle‐residing pericytes | Effects Of A Botanical Supplement On Gene Expression Of Peroxisome Proliferator-Activated Receptor Proteins Following Eccentric Exercise | Homeostasis Model Assessment Of Insulin Resistance Is Inversely Associated With The Adaptive Strength Response To Resistance Exercise In Adults | Transcriptomic Differences Between High and Low Creatine Kinase Responders to Eccentric Exercise: 1741 | Genetic Aspects of Muscular Strength and Size | The Role of Genetic Variation in Muscle Strength | MC4R Variant Is Associated With BMI but Not Response to Resistance Training in Young Females | The 1p13.3 LDL (C)-Associated Locus Shows Large Effect Sizes in Young Populations | CCL2 and CCR2 variants are Associated with skeletal muscle strength and change in strength with resistance training | Adiposity attenuates muscle quality and the adaptive response to resistance exercise in non-obese, healthy adults | Systems Biology Through Time Series Data-A Strength of Muscle Remodeling | Activation of NF-kB in Pericytes of Human Skeletal Muscle Following Eccentric Exercise-Induced Damage | Gene Expression in Circulating White Blood Cells Following Eccentric Exercise | Gene Expression Profiling of Skeletal Muscle After Eccentric Exercise: 610 | The Effects Of Two Botanical Supplements On Gene Expression Following Eccentric Exercise: 1743 | ACTN3 Genotype Effects on Skeletal Muscle Gene Expression | The 1p13.3 LDL-Associated Locus Shows Large Effect Sizes in Young Populations: 2920 | CCL2 and CCR2 polymorphisms are associated with markers of exercise-induced skeletal muscle damage | Transcriptional Deficits In Oxidative Phosphorylation In Statin-induced Myopathy Patients Following Eccentric Exercise: 1069 | Associations Between Mtor Genotypes And Strength Loss After Eccentric Exercise: 1064 | Counterpoint: Estrogen and Sex do not Significantly Influence Post-Exercise Indexes of Muscle Damage, Inflammation, and Repair | Last Word on Point:Counterpoint: Estrogen and sex do/do not significantly influence post-exercise indexes of muscle damage, inflammation, and repair | Investigation of gene Expression in C2C12 Myotubes Following simvastatin Application and Mechanical Strain | Muscle Function in Men and Women During Maximal Eccentric Exercise | Inflamatory gene changes associated with the repeated-bout effect | Genetic Variants in MCP1 and MCP1R are Associated with Markers of Muscle Damage: 1321 | Association of a Polymorphism in the Estrogen Receptor 1 Gene with Fasting Glucose Levels in Caucasians: 1324 | Variants in MCP1 and MCP1R are Associated with Baseline Muscle Size and Strength: 1551 | Sex Differences in Response to Maximal Eccentric Exercise | Histological, Chemical, and Functional Manifestations of Muscle Damage | Association of PGC-l?? Gly482Ser Variant with Metabolic Syndrome Risk Factors in Caucasian Males: 2497 | Genetic Roles in Muscle Strength | Mechanisms of Variability in Strength Loss after Muscle-Lengthening Actions | Association of MYLK C37885A Genotype with Skeletal Muscle Volume in Caucasian Females | Inflammatory Gene Expression in Response to Muscle Damage and Rapid Adaptation: 1114 | Nondisease genetic testing: Reporting of muscle SNPs shows effects on self-concept and health orientation scales | ACTN3 and MLCK genotype associations with exertional muscle damage</t>
+        </is>
+      </c>
+      <c r="M118" s="3" t="inlineStr">
+        <is>
+          <t>Gene Expression | DNA | Exercise Science | RNA | Exercise Physiology | Exercise Performance | Sports Science | Human Physiology | Strength &amp; Conditioning | RNA Isolation</t>
+        </is>
+      </c>
+    </row>
+    <row r="119" ht="80" customHeight="1" s="4">
+      <c r="B119" s="3" t="inlineStr">
+        <is>
+          <t>Richard L. Seip</t>
+        </is>
+      </c>
+      <c r="C119" s="3" t="inlineStr">
+        <is>
+          <t>Richard-Seip</t>
+        </is>
+      </c>
+      <c r="D119" s="3" t="inlineStr">
+        <is>
+          <t>Sanofi</t>
+        </is>
+      </c>
+      <c r="E119" s="3" t="n">
+        <v>40349</v>
+      </c>
+      <c r="F119" s="3" t="n">
+        <v>5900</v>
+      </c>
+      <c r="G119" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="H119" s="3" t="inlineStr">
+        <is>
+          <t>Tara-Mclaughlin | Carmen-Cadilla | Jeff-Volek | Joseph-Devaney | Heather-Gordish-Dressman | Thomas-Price-2 | Niall-Moyna | Paul-Visich | Gregory_Tsongalis | Carl-Maresh-2 | Theodore-Angelopoulos | Andreas-Windemuth | Alan-Rogol | Paul-Gordon-8 | Joshua-Lowndes | Linda-Pescatello | Maria-Fernandez-97 | Ilene-Staff | Jessicca-Renta | Arthur-Weltman | Robert-Zoeller | Pavlos-Papasavas | David-Snead-2 | William-Kraemer | Jorge-Duconge | Brennan-Harmon | Cherie-Bilbie-2 | Darren-Tishler-2 | Ju-Weltman | Gualberto-Ruano | Eric-Hoffman-6 | Kevin-Ballard | Brittanie-Volk | Krystyna-Gorowski-15330880 | Andrea-Stone-2037728405 | Pavlos-K-Papasavas-2149166589 | Steve-Bilbie-32648935 | Matthew-A-Kostek-34935309 | R-Schurrer-35241852 | Paul-D-Thompson-38181420 | Priscilla-M-Clarkson-38196054 | Mohan-Kocherla-38576850 | Mary-P-Miles-39113028 | Joseph-E-Donnelly-39529002 | Theodore-R-Holford-39668238 | Erin-E-Quann-39872099 | E-M-Haskvitz-5112460 | P-D-Thompson-66277784 | S-Levine-67595955</t>
+        </is>
+      </c>
+      <c r="I119" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="J119" s="3" t="inlineStr">
+        <is>
+          <t>Theodore J Angelopoulos | David Brian Snead | Eric Hoffman | Jaakko Tuomilehto | Claes Wadelius | Joseph M. Devaney | Heather Gordish-Dressman | Thomas B Price | Niall M Moyna | Jose M Ordovas | Paul S Visich | Mia Wadelius | Ronald M Krauss | James S Skinner | Nita A Limdi | Claude Bouchard | Ben F Hurley | Niclas Eriksson | Farhad Kamali | Andreas Windemuth | Alan D Rogol | Joyce A Goldstein | Paul M Gordon | Stephen M Roth | Mark W Linder | Maria Luz Fernandez | Arthur Leon | Marja-Liisa Dahl | Roland Valdes | Arthur Weltman | Robert F Zoeller | Andrew S. Jackson | Stephen M. Bilbie | Andrew Smith | William J Kraemer | James M Hagberg | Jorge Duconge | Ira Jacobs | Jean-Pierre Després | Ju Y Weltman | Gualberto Ruaño | Charles Eby | Jeff S Volek | D C Thirupathi Rao | Allan Rettie | Alan Wu | Brian Gage | Stephen Kimmel | Ernst Schaefer | Linda S. Pescatello</t>
+        </is>
+      </c>
+      <c r="K119" s="3" t="n">
+        <v>235</v>
+      </c>
+      <c r="L119" s="3" t="inlineStr">
+        <is>
+          <t>Incidence of Hiatal Hernia Repair During Primary Bariatric Surgery Conversion: an Analysis of the 2020 MBSAQIP Database | A randomized controlled trial of an enhanced recovery after surgery protocol in patients undergoing laparoscopic sleeve gastrectomy | Utility of a Novel Scale to Assess Readiness for Discharge After Bariatric Surgery | C Peptide Fails to Improve the Utility of the DiaRem Algorithm in Predicting Remission of Type II Diabetes After Bariatric Surgery | Case Report: Off Label Utilization of Topiramate and Metformin in Patients With BMI ≥50 kg/m2 Prior to Bariatric Surgery | Use of an Endoscopic Suturing Platform for the Management of Staple Line Dehiscence After Laparoscopic Sleeve Gastrectomy | Comment on: Comparative analysis of robotic versus laparoscopic revisional bariatric surgery perioperative outcomes from the MBSAQIP database | A161 A prospective randomized study of an Enhanced Recovery After Surgery (ERAS) pathway in patients undergoing laparoscopic sleeve gastrectomy | A245 Robotic Repair of Symptomatic Hiatal Hernia 6 Years after Successful Roux-en-Y Gastric Bypass | A260 An Interdisciplinary Team Approach for Bariatric Surgery Candidate Selection: 5-Year Outcomes | A557 Description and Implementation of a Novel Scale to Assess Readiness for Discharge after Bariatric Surgery | A160 Gastroesophageal reflux disease outcomes in patients undergoing laparoscopic sleeve gastrectomy and concurrent hiatal hernia repair | A542 Pre and Post-Operative Comparisons Between Adolescents and Young Adults undergoing Bariatric Surgery | Comparison of Non-routine Healthcare Utilization in the 2 years Following Roux-En-Y Gastric Bypass and Sleeve Gastrectomy: A Cohort Study | Pharmacogenetic clinical decision support for psychiatric hospitalization: Design of the CYP-GUIDES randomized controlled trial | Robot-assisted Sleeve Gastrectomy and Roux-en-Y Gastric Bypass: Results from the Metabolic and Bariatric Surgery Accreditation and Quality Improvement Program Data Registry | MBSAQIP National Registry Study of Sleeve Gastrectomy Outcomes in Patients Age 70 and Older | Accuracy of Bariatric surgery patients’ estimations of pre-operative weight and shape | Detailed Analysis of Venous Thromboembolism within 180 days of Bariatric Surgery: A 6-Year Retrospective Single Center Review | Effect of selected antidepressant drugs on weight loss post-bariatric surgery: a single-center, retrospective chart review | Preoperative weight loss expectations in patients seeking bariatric surgery | MBSAQIP National Registry Study of Robotic-assisted Outcomes in Patients Undergoing Sleeve Gastrectomy or Roux-en-Y Gastric Bypass | C-peptide fails to improve the utility of the DiaRem algorithm in predicting non-remission of type II diabetes after bariatric surgery | Effects of regular endurance exercise on GlycA: Combined analysis of 14 exercise interventions | Outcomes of Bariatric Surgery in Patients with Multiple Sclerosis | Outcomes of Bariatric Surgery in Patients with Multiple Sclerosis | Outcomes of Bariatric Surgery in Patients with Multiple Sclerosis | Health Care Resource Utilization Associated with Sleeve Gastrectomy Compared to Roux-en-Y Gastric Bypass | Assessment of Non-Nutritive Sweetener Use by Bariatric Patients | Laboratory Medicine in the Clinical Decision Support for Treatment of Hypercholesterolemia | Abstract MP78: Effects of Regular Endurance Exercise on GlycA: Results Across Four Exercise Training Studies | The effects of exercise on the lipoprotein subclass profile: A meta-analysis of 10 interventions | Comparative Physiogenomic Analyses of Weight Loss in Response to Two Modes of Bariatric Surgery: Demonstration with Candidate Neuropsychiatric and Cardiometabolic Genes | Why admixture matters in genetically-guided therapy: Missed targets in the COAG and EU-PACT trials | Pharmacogenetic Testing for Analgesic Adverse Effects: Pediatric Case Series | Abstract P213: Regular Exercise Improves the Lipoprotein Subclass Profile: Meta-Analysis of 10 Exercise Training Intervention Groups | Pharmacogenetic Association Study of Warfarin Safety Endpoints in Puerto Ricans | Ethnic variation in weight loss, but not comorbidity remission, after laparoscopic gastric banding and Roux-en-Y gastric bypass | CLN8: AN ATORVASTATIN-SPECIFIC MARKER FOR COMMON MYALGIA | Hyperleptinemia is Associated With CRP but Not Apolipoprotein E and is Reduced by Exercise Training | On naturalistic pharmacogenetic studies: Reply from the authors | Dietary carbohydrate restriction improves insulin sensitivity, blood pressure, microvascular function, and cellular adhesion markers in individuals taking statins | Length of psychiatric hospitalization is correlated with CYP2D6 functional status in inpatients with major depressive disorder | Development of a pharmacogenetic-guided warfarin dosing algorithm for Puerto Rican patients | Leptin and Leptin Receptor Genetic Variants Associate with Habitual Physical Activity and the Arm Body Composition Response to Resistance Training | Acute effects of ingestion of a novel whey-derived extract on vascular endothelial function in overweight, middle-Aged men and women | CYP2C19 genotype-guided antiplatelet therapy in a patient with clopidogrel resistance | Acute effects of ingestion of a novel whey‐derived extract on vascular endothelial function in middle‐aged men and women | Prediction of Warfarin Dose Reductions in Puerto Rican Patients, Based on Combinatorial CYP2C9 and VKORC1 Genotypes | Correlates of endothelial function and the peak systolic blood pressure response to a graded maximal exercise test | CYP2C19 | Prediction of warfarin dose reductions in Puerto Rican patients based on combinatorial | Genotype-Guided Statin Therapy | Validation of candidate genes associated with cardiovascular risk factors in psychiatric patients | Genetics of the Adaptation to Exercise | Mechanisms of Statin Induced Myalgia assessed by Physiogenomic Associations | Homeostasis Model Assessment Of Insulin Resistance Is Inversely Associated With The Adaptive Strength Response To Resistance Exercise In Adults | Leptin and Leptin Receptor Genetic Variants Associate with Habitual Physical Activity and Body Composition Changes in Response to Resistance Training: 993 | Interactive effects of APOE haplotype, sex, and exercise on postheparin plasma lipase activities | Physiogenomic Contours: The Application of Systems Biology for Engineering Personalized Healthcare | Adiposity attenuates muscle quality and the adaptive response to resistance exercise in non-obese, healthy adults | Exposure to Non-Therapeutic INR in a High Risk Cardiovascular Patient: Potential Hazard Reduction with Genotype-guided Warfarin (Coumadin®) Dosing | AKT1 polymorphisms are associated with risk for metabolic syndrome | CYP2C9 and VKORC1 Genotypes in Puerto Ricans: A Case for Admixture-Matching in Clinical Pharmacogenetic Studies | A polymorphism near IGF1 is associated with body composition and muscle function in women from the Health, Aging, and Body Composition Study | Physiogenomic analysis of statin-treated patients: Domain-specific counter effects within the ACACB gene on low-density lipoprotein cholesterol? | Supplementary Material | The Effects of a Very Low Carbohydrate Diet and Statins on Coagulation and Fibrinolytic Parameters: 2832 | Cardiometabolic Effects of a Carbohydrate Restricted Diet and Increased Physical Activity in Individuals Taking Statins: 645 | Vascular Effects of a Carbohydrate Restricted Diet and Increased Physical Activity in Men and Women Taking Statins: 1521 | Implementing genotype-guided antithrombotic therapy | A very low carbohydrate diet and increased physical activity improve LDL particle size in individuals taking statins | PHYSIOGENOMICS OF THIAZOLIDINEDIONE EFFICACY AND SAFETY | Statin Induced Myopathy | Association of Age with Muscle Size and Strength Before and After Short-Term Resistance Training in Young Adults | Vascular Remodeling in Response to 12 wk of Upper Arm Unilateral Resistance Training | Prevalence of combinatorial CYP2C9 and VKORC1 genotypes in Puerto Ricans: Implications for warfarin management in hispanics | For the patient. DNA makeup of Hispanic persons should be determined before warfarin prescription. | CNTF 1357 G -&gt; A polymorphism and the muscle strength response to resistance training | Acute ingestion of a novel whey-derived peptide improves vascular endothelial responses in healthy individuals: A randomized, placebo controlled trial | Abstract: 37 PHYSIOGENOMIC CONTOURS OF STATIN SAFETY AND EFFICACY | Myostatin and Follistatin Polymorphisms Interact with Muscle Phenotypes and Ethnicity | Serum Creatine Kinase Response To Initiation Of Resistance Training Predicts Hypertrophic Response In Men: 2257 | Interaction Of Body Mass Index And Adiposity-related Gene Polymorphisms Influences Risk For Metabolic Syndrome: 2956 | Vitamin D Receptor Genetic Variants And The Muscle Size And Strength Response To Resistance Training: 2957 | Correlates Of Endothelial Function And The Peak Systolic Blood Pressure Response To A Graded Maximal Exercise Test: 1611 | Effects Of A Novel Whey-derived Peptide On Vascular Responses In Healthy Individuals: 1612 | Strength, Size, and Muscle Quality in the Upper Arm Following Unilateral Training in Younger and Older Males and Females | Additional Table 2 | Additional Table 1 | INSIG2 gene polymorphism is associated with increased subcutaneous fat in women and poor response to resistance training in men | Effectiveness of Thrice Weekly Ezetimibe | Allometric scaling of isometric biceps strength in adult females and the effect of body mass index | Physiogenomic comparison of edema and BMI in patients receiving rosiglitazone or pioglitazone | Integrating Genomic Based Information into Clinical Warfarin (Coumadin) Management: An Illustrative Case Report | Leptin responses to long-term cardiorespiratory exercise training without concomitant weight loss: A prospective study | Response. | Interleukin-15 and interleukin-15Rα SNPs and associations with muscle, bone, and predictors of the metabolic syndrome | High carrier prevalence of combinatorial CYP2C9 and VKORC1 genotypes affecting warfarin dosing | An IGF1 Promoter Polymorphism is Associated with Muscle Function in the Health ABC and FMS cohorts: 1320</t>
+        </is>
+      </c>
+      <c r="M119" s="3" t="inlineStr">
+        <is>
+          <t>Report Writing | Applied Statistics | Article Writing | Academic Writing | Grant Writing | Metabolic Syndrome | Exercise Physiology | Exercise | Exercise Science | Lipoproteins</t>
+        </is>
+      </c>
+    </row>
+    <row r="120" ht="80" customHeight="1" s="4">
+      <c r="B120" s="3" t="inlineStr">
+        <is>
+          <t>Yusuke Isshiki</t>
+        </is>
+      </c>
+      <c r="C120" s="3" t="inlineStr">
+        <is>
+          <t>Yusuke-Isshiki</t>
+        </is>
+      </c>
+      <c r="D120" s="3" t="inlineStr">
+        <is>
+          <t>Weill Cornell Medical College</t>
+        </is>
+      </c>
+      <c r="E120" s="3" t="n">
+        <v>2258</v>
+      </c>
+      <c r="F120" s="3" t="n">
+        <v>232</v>
+      </c>
+      <c r="G120" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="H120" s="3" t="inlineStr">
+        <is>
+          <t>Motohiko-Oshima | Haruhiko-Koseki | Shuhei-Koide | Kazumasa-Aoyama-2 | Masahiro-Takeuchi | Mohamed-Rizk-6 | Sonoko-Misawa | Chiaki-Nakaseko | Yutaro-Hino | Emiko-Sakaida | Shun-Uemura-2 | Junichiro-Takano | Fumio-Arai | Tetsuhiro-Chiba | Tohru-Iseki | Satoshi-Kuwabara | Yoichi-Furukawa | Yaeko-Nakajima-Takagi | Tomokatsu-Ikawa | Tomoya-Muto | Satoshi-Yamazaki-3 | Masahiro-Onoda-15118237 | Naoya-Mimura-2008733868 | Kiyoshi-Yamaguchi-2035117156 | Hiroaki-Tanaka-2044511139 | Emi-Togasaki-2046485480 | Ryoh-Shimizu-2049371666 | Ola-Rizq-2049983207 | Kenji-Kimura-2082073492 | Koji-Takaishi-2117736030 | Shio-Mitsukawa-2133159284 | Nagisa-Oshima-Hasegawa-2137653323 | Shokichi-Tsukamoto-2145066356 | Ari-Melnick-2145133279 | Kensuke-Kayamori-2145985247 | Daisuke-Shinoda-2147432951 | Yurie-Nagai-2152592734 | Naoki-Itokawa-2161526849 | Yusuke-Takeda-2162678356 | Nagisa-Hasegawa-2163452946 | Shohei-Andoh-2189585538 | Shio-Sakai-36086195 | Chikako-Ohwada-38156759 | Atsunori-Saraya-38167288 | Atsushi-Iwama-38711887 | Wendy-Beguelin-39087130 | Koutaro-Yokote-39594649 | Masayuki-Yamashita-56073644 | Atsuko-Yamazaki-59230332 | Yuhei-Nagao-59243346</t>
+        </is>
+      </c>
+      <c r="I120" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="J120" s="3" t="inlineStr">
+        <is>
+          <t>Christian Steidl | Daisuke Ennishi | Ryan Morin | Katerina Hatzi | Randy D Gascoyne | Seishi Ogawa | Elaine S Jaffe | Gad Getz | Sonoko Misawa | Chiaki Nakaseko | Nathan R Rose | Masashi Sanada | Emiko Sakaida | Rita Shaknovich | Maarten van Lohuizen | Yuichi Shiraishi | Michael R Green | Satoshi Kuwabara | Hiromitsu Nakauchi | Pedro Farinha | Laura Pasqualucci | Hideyuki Oguro | Christopher E Mason | Benedikt M Kessler | Anja Mottok | Joanna F Mcgouran | Giorgio Inghirami | Elias Campo | Wayne Tam | Eric M Pietras | Joseph Connors | Wing C Chan | Matt Teater | Da Wei (David) Huang | Satoru Miyagi | Riccardo Dalla-Favera | Motohiko Oshima | Neil Blackledge | Anca Farcas | Hannah Katherine Long | Ari Melnick | Haruhiko Koseki | Shuhei Koide | Kazumasa Aoyama | Neil Kelleher | Thomas Sheahan | Leandro Cerchietti | Makiko Mochizuki | Margaret Ann Shipp | Yaeko Nakajima-Takagi</t>
+        </is>
+      </c>
+      <c r="K120" s="3" t="n">
+        <v>42</v>
+      </c>
+      <c r="L120" s="3" t="inlineStr">
+        <is>
+          <t>EZH2 INHIBITION ENHANCES CAR T ANTITUMOR EFFECT BY INDUCING LYMPHOMA IMMUNOGENICITY AND ENHANCING T CELL FUNCTION | Enhancing T‐cell responses to GCB‐like lymphomas with immune‐checkpoint‐blockade‐based therapies | Polycomb repressive complex 1.1 coordinates homeostatic and emergency myelopoiesis | Polycomb repressive complex 1.1 coordinates homeostatic and emergency myelopoiesis | Polycomb repressive complex 1.1 coordinates homeostatic and emergency myelopoiesis | Polycomb repressive complex 1.1 coordinates homeostatic and emergency myelopoiesis | Future Prospects for Targeting the Epigenome in Lymphomas | The pathogenetic significance of exhausted T cells in a mouse model of mature B cell neoplasms | Exhausted T Cells Characterized By Upregulation of Specific Transcription Factors Are Increased in a Mouse Model of De Novo Mature B Cell Neoplasms | An Aged/Autoimmune B-cell Program Defines the Early Transformation of Extranodal Lymphomas | Unraveling unique features of plasma cell clones in POEMS syndrome by single-cell analysis | Polycomb repressive complex 1.1 coordinates homeostatic and emergency myelopoiesis | Epigenetic, Metabolic, and Immune Crosstalk in Germinal-Center-Derived B-Cell Lymphomas: Unveiling New Vulnerabilities for Rational Combination Therapies | Evolution of the Tumor Microenvironment throughout Progression and Transformation of EZH2 Mutant Follicular Lymphoma | A Case Report of Cancer Chemotherapy for Disseminated Carcinomatosis of the Bone Marrow Associated with Gastric Cancer Accompanied by Disseminated Intravascular Coagulation | The combination of the tubulin binding small molecule PTC596 and proteasome inhibitors suppresses the growth of myeloma cells | Epigenetic Mechanisms of Therapy Resistance in Diffuse Large B Cell Lymphoma (DLBCL) | Akt Inhibition Differently Controls PRC2 Components and Synergizes with Dual EZH2/1 Inhibitor in the Treatment of Multiple Myeloma | The Preclinical Activities of PTC596, a Novel Tubulin Binding Agent That Down-Regulates BMI1, Alone and in Combination with Bortezomib in Multiple Myeloma | Akt Inhibition Synergizes with PRC2 Inhibition in the Treatment of Multiple Myeloma | KDM2B in polycomb repressive complex 1.1 functions as a tumor suppressor in the initiation of T-cell leukemogenesis | Suppressive effects of anagrelide on cell cycle progression and the maturation of megakaryocyte progenitor cell lines in human induced pluripotent stem cells | Remarkable donor-derived T cell lymphocytosis before engraftment of a bone marrow transplant for acute lymphoblastic leukemia | Bmi1 restricts the adipogenic differentiation of bone marrow stromal cells to maintain the integrity of the hematopoietic stem cell niche | Genetic and transcriptional landscape of plasma cells in POEMS syndrome | Low incidence of thromboembolism in multiple myeloma patients receiving immunomodulatory drugs; a retrospective single-institution analysis | Immunomodulator-associated Epstein–Barr virus-positive mucocutaneous ulcer in a patient with refractory Crohn’s disease | T315I mutation with lymphoblasts in a newly diagnosed patient with chronic-phase chronic myeloid leukemia | Multiple cystic lung lesions and autoimmune thrombocytopaenia developing after chemotherapy for pulmonary indolent B-cell lymphoma with plasmacytic differentiation | Anagrelide Inhibits Proliferation and Platelet Generation in Immortalized Megakaryocyte Progenitor Cell Lines Established from Human Induced Pluripotent Stem Cells | Role of KDM2B and Non-Canonical PRC1.1 As a Tumor Suppressor in T-ALL | Emerging role of non-canonical polycomb repressive complexes in normal and malignant hematopoiesis | Bcor insufficiency promotes initiation and progression of myelodysplastic syndrome | CD20 positivity and white blood cell count predict treatment outcomes in Philadelphia chromosome-negative acute lymphoblastic leukemia patients ineligible for pediatric-inspired chemotherapy | Role of Kdm2b, a component of non-canonical PRC1.1, in hematopoiesis | Cyclosporine is a potential curative treatment option for advanced thymoma | Safety and Efficacy of Granulocyte Colony-Stimulating Factor Monotherapy for Peripheral Blood Stem Cell Collection in POEMS Syndrome | Possible role of intragenic DNA hypermethylation in gene silencing of the tumor suppressor gene NR4A3 in acute myeloid leukemia | Chronic active Epstein-Barr virus infection with marked pericardial effusion successfully treated with allogeneic peripheral blood stem cell transplantation | Rapid reduction in iFLC predicts achievement of VGPR after 4 cycles of VCD treatment: Shimousa MM-01 VCD study | Autoimmune Thyroid Dysfunction after Allogeneic Hematopoietic Stem Cell Transplantation | Acute Myeloid Leukemia Concurrent with Spinal Epidural Extramedullary Myeloid Sarcoma Accompanied by a High CD25 Expression and the FLT3-ITD Mutation</t>
+        </is>
+      </c>
+      <c r="M120" s="3" t="inlineStr">
+        <is>
+          <t>Hematological Malignancies | Stem Cell Transplantation</t>
+        </is>
+      </c>
+    </row>
+    <row r="121" ht="80" customHeight="1" s="4">
+      <c r="B121" s="3" t="inlineStr">
+        <is>
+          <t>Motohiko Oshima</t>
+        </is>
+      </c>
+      <c r="C121" s="3" t="inlineStr">
+        <is>
+          <t>Motohiko-Oshima</t>
+        </is>
+      </c>
+      <c r="D121" s="3" t="inlineStr">
+        <is>
+          <t>Chiba University</t>
+        </is>
+      </c>
+      <c r="E121" s="3" t="n">
+        <v>11848</v>
+      </c>
+      <c r="F121" s="3" t="n">
+        <v>2047</v>
+      </c>
+      <c r="G121" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="H121" s="3" t="inlineStr">
+        <is>
+          <t>Yusuke-Isshiki | Changshan-Wang | Haruhiko-Koseki | Marla-Weetall | Seishi-Ogawa | Hiroaki-Honda-2 | Shuhei-Koide | Kazumasa-Aoyama-2 | Koji-Eto-2 | Masahiro-Takeuchi | Chiaki-Nakaseko | Masashi-Sanada | Hirotaka-Matsui | Emiko-Sakaida | Shun-Uemura-2 | Keiyo-Takubo | Makiko-Mochizuki | Tetsuhiro-Chiba | Tohru-Iseki | Tomohiko-Tamura | Yoichi-Furukawa | Yaeko-Nakajima-Takagi | Tomoya-Muto | Hironori-Harada | J-Sheedy | Satoshi-Yamazaki-3 | Satoru-Miyagi | Naoya-Mimura-2008733868 | Kiyoshi-Yamaguchi-2035117156 | Ola-Rizq-2049983207 | Wakako-Kuribayashi-2082040877 | Nagisa-Oshima-Hasegawa-2137653323 | Shokichi-Tsukamoto-2145066356 | Kensuke-Kayamori-2145985247 | Koichi-Murakami-2146306612 | Daisuke-Shinoda-2147432951 | Naoki-Itokawa-2161526849 | Yusuke-Takeda-2162678356 | Naoya-Takayama-2163009644 | Nagisa-Hasegawa-2163452946 | Chikako-Ohwada-38156759 | Atsunori-Saraya-38167288 | Atsushi-Iwama-38711887 | Goro-Sashida-39176419 | Toshio-Suda-39583348 | Koutaro-Yokote-39594649 | Kazuya-Shimoda-39605261 | Akira-Nishiyama-40001048 | Masayuki-Yamashita-56073644 | George-R-Wendt-75833718</t>
+        </is>
+      </c>
+      <c r="I121" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="J121" s="3" t="inlineStr">
+        <is>
+          <t>Miguel Vidal | Satoshi Yamazaki | Changshan Wang | Seishi Ogawa | Jacqueline Boultwood | Scott A Armstrong | Chiaki Nakaseko | David Bryder | Masashi Sanada | Kristian Helin | David G Kent | Maarten van Lohuizen | Satoru Miyano | Tetsuhiro Chiba | Yuichi Shiraishi | Hiromitsu Nakauchi | Danny Reinberg | Hideyuki Oguro | Richard K Wilson | Tomoya Muto | Toshio Kitamura | Xinyang Zhao | Keith Humphries | Eric M Pietras | Jean-Pierre Issa | Hironori Harada | Stephen Nimer | Satoru Miyagi | Yusuke Isshiki | Neil Blackledge | Ari Melnick | Hiroyuki Aburatani | Haruhiko Koseki | Shuhei Koide | Kazumasa Aoyama | Huafeng Xie | Genta Nagae | Junsei Mimura | Torsten Haferlach | Sean J Morrison | Takaaki Konuma | Hirotaka Matsui | Elaine Mardis | Alessandro Vannucchi | Makiko Mochizuki | Irving Weissman | Richard Koche | Sumio Sugano | Yaeko Nakajima-Takagi | Tomokatsu Ikawa</t>
+        </is>
+      </c>
+      <c r="K121" s="3" t="n">
+        <v>146</v>
+      </c>
+      <c r="L121" s="3" t="inlineStr">
+        <is>
+          <t>Polycomb repressive complex 1.1 coordinates homeostatic and emergency myelopoiesis | Polycomb repressive complex 1.1 coordinates homeostatic and emergency myelopoiesis | Polycomb repressive complex 1.1 coordinates homeostatic and emergency myelopoiesis | Polycomb repressive complex 1.1 coordinates homeostatic and emergency myelopoiesis | Context-Dependent Modification of PFKFB3 in Hematopoietic Stem Cells Promotes Anaerobic Glycolysis and Ensures Stress Hematopoiesis | Context-Dependent Modification of PFKFB3 in Hematopoietic Stem Cells Promotes Anaerobic Glycolysis and Ensures Stress Hematopoiesis | UTX inactivation in germinal center B cells promotes the development of multiple myeloma with extramedullary disease | The pathogenetic significance of exhausted T cells in a mouse model of mature B cell neoplasms | Context-Dependent Modification of PFKFB3 in Hematopoietic Stem Cells Promotes Anaerobic Glycolysis and Ensures Stress Hematopoiesis | Exhausted T Cells Characterized By Upregulation of Specific Transcription Factors Are Increased in a Mouse Model of De Novo Mature B Cell Neoplasms | Unraveling the Heterogeneity of Multiple Myeloma Cells By Single-Cell RNA Sequencing Analysis | Dysfunctional Clusterin-Positive Hematopoietic Stem Cells Expand with Aging | 3024 – PRC2 INSUFFICIENCY CAUSES DYSERYTHROPOIESIS THAT IS DEPENDENT ON CDKN2A DEREPRESSION AND P53 ACTIVATION IN MDS | 3004 – SINGLE-CELL ANALYSIS REVEALS THAT CLUSTERIN-POSITIVE HEMATOPOIETIC STEM CELLS WITH IMPAIRED STEMNESS EXPAND WITH AGING | Unraveling unique features of plasma cell clones in POEMS syndrome by single-cell analysis | Polycomb repressive complex 1.1 coordinates homeostatic and emergency myelopoiesis | Non-canonical EZH2 drives retinoic acid resistance of variant acute promyelocytic leukemias | Epigenetic Memories in Hematopoietic Stem and Progenitor Cells | YAP1/TAZ activity maintains vascular integrity and organismal survival | Epigenetic traits inscribed in chromatin accessibility in aged hematopoietic stem cells | Retrotransposons in Werner syndrome-derived macrophages trigger type I interferon-dependent inflammation in an atherosclerosis model | Insufficiency of non-canonical PRC1 synergizes with JAK2V617F in the development of myelofibrosis | Single-cell multi-omics analyses reveal EZH2 as a main driver of retinoic acid resistance in PLZF-RARA leukemia | YAP/TAZ Promote Hematopoietic Regeneration Via Accelerating the Recovery of Bone Marrow Niche | Unraveling Heterogeneity of Aged Hematopoietic Stem Cells By Single-Cell RNA Sequence Analysis | Single Cell Analyses Reveal a Non-Canonical EZH2 Activity As a Main Driver of Retinoic Acid Resistance in PLZF/Rara Leukemia | EZH1/2 inhibition augments the anti-tumor effects of sorafenib in hepatocellular carcinoma | Clonal hematopoiesis with JAK2V617F promotes pulmonary hypertension with ALK1 upregulation in lung neutrophils | 3115 – INTEGRATIVE MULTI-OMICS ANALYSIS FOR UNDERSTANDING ACUTE PROMYELOCYTIC LEUKEMIA RESISTANCE: EZH2 ON THE ROAD | 3074 – CHANGES IN CHROMATIN ACCESSIBILITY DURING HEMATOPOIETIC STEM CELL AGING | 3124 – POLYCOMB REPRESSIVE COMPLEX 1.1 INSUFFICIENCY PROMOTES THE DEVELOPMENT OF MYELOFIBROSIS | 3081 – SINGLE-CELL RNA-SEQ REVEALS ALTERATIONS IN HETEROGENEITY OF HEMATOPOIETIC STEM CELLS WITH AGING | Obesity accelerates hair thinning by stem cell-centric converging mechanisms | CD271+CD51+PALLADIN- human mesenchymal stromal cells possess enhanced ossicle-forming potential | PRC2 insufficiency causes p53-dependent dyserythropoiesis in myelodysplastic syndrome | Fibroblasts from different body parts exhibit distinct phenotypes in adult progeria Werner syndrome | Distinct effects of chondroitin sulfate on hematopoietic cells and the stromal microenvironment in bone marrow hematopoiesis | DHODH inhibition synergizes with DNA-demethylating agents in the treatment of myelodysplastic syndromes | The combination of the tubulin binding small molecule PTC596 and proteasome inhibitors suppresses the growth of myeloma cells | OGT Regulates Hematopoietic Stem Cell Maintenance via PINK1-Dependent Mitophagy | Limited rejuvenation of aged hematopoietic stem cells in young bone marrow niche | Abstract 12873: Clonal Hematopoiesis With JAK2V617F Promotes Pulmonary Hypertension Through ALK1 | Efficacy of Tubulin Polymerization Inhibitor in Myelodysplastic Syndrome | Efficacy of the novel tubulin polymerization inhibitor PTC-028 for myelodysplastic syndrome | Overexpression of RUNX3 Represses RUNX1 to Drive Transformation of Myelodysplastic Syndrome | Molecular pathogenesis of progression to myeloid leukemia from TET-insufficient status | Akt Inhibition Differently Controls PRC2 Components and Synergizes with Dual EZH2/1 Inhibitor in the Treatment of Multiple Myeloma | New Insights into PLZF/Rara Mechanism during APL Onset: EZH2 on the Road | The Preclinical Activities of PTC596, a Novel Tubulin Binding Agent That Down-Regulates BMI1, Alone and in Combination with Bortezomib in Multiple Myeloma | Synergistic Effect of DHODH Inhibitor PTC299 with DNA Demethylating Agent Decitabine in Myelodysplastic Syndromes | Bmi1 counteracts hematopoietic stem cell aging by repressing target genes and enforcing the stem cell gene signature | Akt Inhibition Synergizes with PRC2 Inhibition in the Treatment of Multiple Myeloma | Cooperative impact of Utx loss and Braf V600E mutation induces myeloma in mice | KDM2B in polycomb repressive complex 1.1 functions as a tumor suppressor in the initiation of T-cell leukemogenesis | Suppressive effects of anagrelide on cell cycle progression and the maturation of megakaryocyte progenitor cell lines in human induced pluripotent stem cells | Author Correction: Lineage-specific RUNX2 super-enhancer activates MYC and promotes the development of blastic plasmacytoid dendritic cell neoplasm | FUNCTIONAL DEFECT OF POLYCOMB REPRESSIVE COMPLEX 2 IN HEMATOPOIETIC STEM CELLS WITH AGING | INCOMPLETE REJUVENATION OF AGED HSCS IN YOUNG BONE MARROW NICHE | Genetic and transcriptional landscape of plasma cells in POEMS syndrome | Lineage-specific RUNX2 super-enhancer activates MYC and promotes the development of blastic plasmacytoid dendritic cell neoplasm | Supplementary Material 1 | Supplementary Material 4 | Supplementary Material 6 | Supplementary Material 2 | Supplementary Material 3 | Supplementary Material 5 | Genome-Wide Mapping of Bivalent Histone Modifications in Hepatic Stem/Progenitor Cells | The chromatin binding protein Phf6 restricts the self-renewal of hematopoietic stem cells | Deregulated Polycomb functions in myeloproliferative neoplasms | Anagrelide Inhibits Proliferation and Platelet Generation in Immortalized Megakaryocyte Progenitor Cell Lines Established from Human Induced Pluripotent Stem Cells | Lineage-Specific RUNX2 Super-Enhancer Activates MYC Via Translocation (6;8) to Promote the Development of Blastic Plasmacytoid Dendritic Cell Neoplasm | Role of KDM2B and Non-Canonical PRC1.1 As a Tumor Suppressor in T-ALL | Utx Insufficiency Cooperates with Braf V600E in the Induction of Myeloma in Mice | Insufficiency of Non-Canonical PRC1 Complex Cooperates with an Activating JAK2 Mutation in the Pathogenesis of Myelofibrosis | Regulation of Mitophagy By O-Linked N-Acetylglucosamine Transferase Is Essential for Hematopoietic Stem Cell Maintenance | Table S1. List of Genes, Related to Figures 3 and S1 | Document S1. Transparent Methods and Figures S1 and S2 | Ezh1 targets bivalent developmental regulator genes to maintain self-renewing stem cells in Ezh2-insufficient myelodysplastic syndrome | Bcor insufficiency promotes initiation and progression of myelodysplastic syndrome | Forkhead box protein A1 confers resistance to transforming growth factor-β-induced apoptosis in breast cancer cells through inhibition of Smad3 nuclear translocation: HIRATA et al. | Ezh2 loss propagates hypermethylation at T cell differentiation–regulating genes to promote leukemic transformation | Metabolic Regulation of Hematopoietic Stem Cells by O-Linked N-Acetylglucosamine Transferase | A New Conditionally Immortalized Human Fetal Brain Pericyte Cell Line: Establishment and Functional Characterization as a Promising Tool for Human Brain Pericyte Studies | Hematopoietic insults damage bone marrow niche by activating p53 in vascular endothelial cells | Internal deletion of BCOR reveals a tumor suppressor function for BCOR in T lymphocyte malignancies | Chromatin remodeling factor BRM maintains HSC via epigenetic regulation | Role of Kdm2b, a component of non-canonical PRC1.1, in hematopoiesis | Hmga2 collaborates with JAK2 V617F in the development of myeloproliferative neoplasms | Dual Inhibition of EZH2 and EZH1 Sensitizes PRC2-Dependent Tumors to Proteasome Inhibition | Frequent somatic mutations in epigenetic regulators in newly diagnosed chronic myeloid leukemia | Supplementary Materials | Histone lysine methyltransferase G9a is a novel epigenetic target for the treatment of hepatocellular carcinoma | Supplementary Material | Role of the Polycomb Methyltransferase Ezh1 in Myelodysplastic Syndrome Induced By Ezh2 Insufficiency | Distinctive Genetic Features of Plasma Cells in POEMS Syndrome | Molecular Mechanism behind the Synergistic Activity of Proteasome Inhibition and PRC2 Inhibition in the Treatment of Multiple Myeloma | HMGA2 Orchestrates the Tumorgenesis of Myeloproliferative Neoplasms (MPN) in Corporation with JAK2V617F | Impact of combinatorial dysfunctions of Tet2 and Ezh2 on the epigenome in the pathogenesis of myelodysplastic syndrome | The loss of EZH2 cooperates with an active JAK2 mutant in the pathogenesis of myelofibrosis and sensitizes tumor-initiating cells to bromodomain inhibition | The loss of Ezh2 drives the pathogenesis of myelofibrosis and sensitizes tumor-initiating cells to bromodomain inhibition</t>
+        </is>
+      </c>
+      <c r="M121" s="3" t="inlineStr">
+        <is>
+          <t>Hematopoietic Stem Cells | Myelodysplastic Syndromes | Hematopoiesis | Hematologic Diseases</t>
+        </is>
+      </c>
+    </row>
+    <row r="122" ht="80" customHeight="1" s="4">
+      <c r="B122" s="3" t="inlineStr">
+        <is>
+          <t>Ulrich Eisel</t>
+        </is>
+      </c>
+      <c r="C122" s="3" t="inlineStr">
+        <is>
+          <t>Ulrich-Eisel</t>
+        </is>
+      </c>
+      <c r="D122" s="3" t="inlineStr">
+        <is>
+          <t>University of Groningen</t>
+        </is>
+      </c>
+      <c r="E122" s="3" t="n">
+        <v>20345</v>
+      </c>
+      <c r="F122" s="3" t="n">
+        <v>5530</v>
+      </c>
+      <c r="G122" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="H122" s="3" t="inlineStr">
+        <is>
+          <t>Thomas-Binz | Doortje-Dekens | Martin-Verkuyl | Marcelo-Masman | Jn-Keijser | Richard-Oude-Voshaar | Katalin-Schlett | Sumiko-Mochida | Csaba-Nyakas | Nikoletta-Dobos | Katharina-Kramer-2 | Hans-Klein-4 | Christiane-Herden | Roland-Kontermann | Ekrem-Dere | Laus-Broersen | Erik-Boddeke | De-Paul | Roman-Fischer-4 | Natalia-Orti-Casan | Eddy-Van-Der-Zee | Erik-De-Vries-7 | Amalia-Dolga | Fokko-Bosker | Ate-Boerema | Peter-Deyn | Klaus-Pfizenmaier | Botond-Penke-2 | Ewelina-Kurtys | Ivica-Granic | Ingrid-Nijholt | Hui-Liu-236 | Leonie-Gouweleeuw-2 | Harald-Wajant | Knut-Biber-2 | Paul-Luiten-2 | Bernard-Poulain | Martina-Schmidt-7 | Paula-Mommersteeg | Regien-Schoemaker | Pieter-Naude | Rudi-A-J-O-Dierckx-2113945521 | Johan-A-den-Boer-2120179958 | Anghelus-Ostroveanu-38519958 | Dirk-Schaudien-39139055 | W-Baumgaertner-39186038 | Hisao-Kurazono-39370995 | Heiner-Niemann-62876834 | Isabelle-Pieri-63182309</t>
+        </is>
+      </c>
+      <c r="I122" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="J122" s="3" t="inlineStr">
+        <is>
+          <t>David Edmund Szymkowski | Amalia Dolga | Regien Schoemaker | Yong Shen | Sebastiaan Engelborghs | Hans Lassmann | Saddek Mohand-Said | Richard C Oude Voshaar | Katalin Schlett | Joao C Sousa | Csaba Nyakas | Katerina Akassoglou | Lesley Probert | Roberta Brambilla | Iain L Campbell | Roland Kontermann | John R Bethea | Tibor Harkany | Gordon S Duncan | Piet Eikelenboom | Ronald S Duman | De Deyn Peter Paul | Roman Fischer | Eddy Van der Zee | Robert Dantzer | Dennis J Selkoe | Dave Goeddel | Malú G Tansey | Henrik Sengeløv | B.W. Penninx | Andreas Herrmann | Cynthia A Lemere | Olaf Maier | Klaus Pfizenmaier | Botond Penke | Ivica Granic | Rena Li | Ingrid M Nijholt | Lars Kjeldsen | Harald Wajant | Knut Biber | Paul G M Luiten | Kiyoshi Mori | Pieter Naude | Doortje Dekens | Shinrye Lee | Joana Almeida Palha | Fernanda Marques | Mark P Mattson | Valerie Fontaine</t>
+        </is>
+      </c>
+      <c r="K122" s="3" t="n">
+        <v>178</v>
+      </c>
+      <c r="L122" s="3" t="inlineStr">
+        <is>
+          <t>The TNFR1 antagonist Atrosimab reduces neuronal loss, glial activation and memory deficits in an acute mouse model of neurodegeneration | Ortí-Casañ et al. 2022 pnas SUPP.pdf | The old second messenger cAMP teams up with novel cell death mechanisms: potential translational therapeutical benefit for Alzheimer’s disease and Parkinson’s disease | Activation of TNF Receptor 2 Improves Synaptic Plasticity and Enhances Amyloid-β Clearance in an Alzheimer’s Disease Mouse Model with Humanized TNF Receptor 2 | Sequential treatment with a TNFR2 agonist and a TNFR1 antagonist improves outcomes in a humanized mouse model for MS | Aging of the Brain | A TNF receptor 2 agonist ameliorates neuropathology and improves cognition in an Alzheimer’s disease mouse model | Influencing cognitive performance via social interactions: a novel therapeutic approach for brain disorders based on neuroanatomical mapping? | The continued need for animals to advance brain research | Serum and cerebrospinal fluid Neutrophil gelatinase-associated lipocalin (NGAL) levels as biomarkers for the conversion from mild cognitive impairment to Alzheimer's disease dementia | Lipocalin 2 as a link between ageing, risk factor conditions and age-related brain diseases | Effects of selective TNFR1 inhibition or TNFR2 stimulation, compared to non-selective TNF inhibition, on (neuro)inflammation and behavior after myocardial infarction in male mice | Aging of the Brain | Vaccination Prevented Short-Term Memory Loss, but Deteriorated Long-Term Spatial Memory in Alzheimer's Disease Mice, Independent of Amyloid-β Pathology | Inflammation and Oxidative Stress in Multiple Sclerosis: Consequences for Therapy Development | Mixed Effects Of Active Immunization Against Aß In An Alzheimer Mouse Model | Influence of diamond crystal orientation on the interaction with biological matter | Iron chelators inhibit amyloid-β-induced production of lipocalin 2 in cultured astrocytes | Alzheimer's disease pathogenesis: The role of disturbed sleep in attenuated brain plasticity and neurodegenerative processes | Major depressive disorder is associated with changes in a cluster of serum and urine biomarkers | Iron-chelation therapy with oral deferiprone in male J20 mouse model of Alzheimer's disease | Exogenous activation of tumor necrosis factor receptor 2 promotes recovery from sensory and motor disease in a model of multiple sclerosis | Targeting TNFR2 as a Novel Therapeutic Strategy for Alzheimer’s Disease | Lipocalin 2 contributes to brain iron dysregulation but does not affect cognition, plaque load, and glial activation in the J20 Alzheimer mouse model | Supplementary Material | Anti-TNFR1 targeting in humanized mice ameliorates disease in a model of multiple sclerosis | Supplementary Material | Therapeutic effects of dietary intervention on neuroinflammation and brain metabolism in a rat model of photothrombotic stroke | Hippocampal microglia modifications in C57Bl/6 Pahenu2 and BTBR Pahenu2 phenylketonuria (PKU) mice depend on the genetic background, irrespective of disturbed sleep patterns | Selective Modulation of TNF–TNFRs Signaling: Insights for Multiple Sclerosis Treatment | Anti-inflammatory effects of rice bran components | From genotype to phenotype: Biological characterization of an animal model for Alzheimer’s disease | Dynamics of neutrophil gelatinase-associated lipocalin plasma and cerebrospinal fluid concentrations in older males | Therapeutic effects of dietary intervention on neuroinflammation and brain metabolism in a rat model of photothrombotic stroke | Brain [11C]PK11195 and [18F]FDG PET imaging in a rat model of postoperative cognitive dysfunction | Mouse repeated electroconvulsive seizure (ECS) does not reverse social stress effects but does induce behavioral and hippocampal changes relevant to electroconvulsive therapy (ECT) side-effects in the treatment of depression | S1 Table | S5 Table | S2 Table | S3 Table | S4 Table | Supplementary Figure 3 | Supplementary Figure 1 | Supplementary Figure 2 | Essential protective role of tumor necrosis factor receptor 2 in neurodegeneration | Selective Blocking of TNF Receptor 1 Attenuates Peritoneal Dialysis Fluid Induced Inflammation of the Peritoneum in Mice | Neutrophil Gelatinase-Associated Lipocalin and its Receptors in Alzheimer's Disease (AD) Brain Regions: Differential Findings in AD with and without Depression | Abstract # 1766 Myocardial infarction influences microglia morphology in the hypothalamus | The combination of vitamins and omega-3 fatty acids has an enhanced anti-inflammatory effect on microglia | Evaluating [11C]PBR28 PET for Monitoring Gut and Brain Inflammation in a Rat Model of Chemically Induced Colitis | Supplementary Table | Brain Endothelial- and Epithelial-Specific Interferon Receptor Chain 1 Drives Virus-Induced Sickness Behavior and Cognitive Impairment | Immunization with Small Amyloid-β-derived Cyclopeptide Conjugates Diminishes Amyloid-β-Induced Neurodegeneration in Mice | Depression and markers of inflammation as predictors of all-cause mortality in heart failure | Aging of the Brain | Electroconvulsive seizures (ECS) do not prevent LPS-induced behavioral alterations and microglial activation | Targeting of Tumor Necrosis Factor Alpha Receptors as a Therapeutic Strategy for Neurodegenerative Disorders | 2015 Naudé et al., Serum NGAL is associated with distinct species of plasma beta amyloid according to clinical diagnosis of dementia in DS, JAD 45 | 2015 Naudé et al., Serum NGAL is associated with distinct species of plasma beta amyloid according to clinical diagnosis of dementia in DS, JAD 45 | Immune and neurotrophin stimulation by electroconvulsive therapy: is some inflammation needed after all? | NGAL and other markers of inflammation as competitive or complementary markers for depressive symptom dimensions in heart failure | Integrative neurobiology of metabolic diseases, neuroinflammation, and neurodegeneration | Nitric Oxide Dysregulation in Patients With Heart Failure: The Association of Depressive Symptoms With L-Arginine, Asymmetric Dimethylarginine, Symmetric Dimethylarginine, and Isoprostane | Depressive Symptoms in Rats with Myocardial Infarction Associated with Local Brain Expression of Neutrophil Gelatinase-Associated Lipocalin (NGAL) | Lipocalin 2: novel inflammatory actor in Alzheimer's disease | Depressive Symptoms in Rats with Myocardial Infarction Associated with Local Brain Expression of Neutrophil Gelatinase‐Associated Lipocalin (NGAL) | The role of neutrophil gelatinase associated lipocalin (NGAL) as biological constituent linking depression and cardiovascular disease | Serum NGAL is Associated with Distinct Plasma Amyloid-β Peptides According to the Clinical Diagnosis of Dementia in Down Syndrome | Serum NGAL is Associated with Distinct Plasma Amyloid-β Peptides According to the Clinical Diagnosis of Dementia in Down Syndrome | THE ASSOCIATION OF NEUTROPHIL GELATINASE-ASSOCIATED LIPOCALIN WITH COGNITIVE PERFORMANCE IN LATE-LIFE DEPRESSION AND ITS INTERACTIONS WITH GENDER | Sex-specific associations between Neutrophil Gelatinase-Associated Lipocalin (NGAL) and cognitive domains in late-life depression | Linking Molecular Neurobiology to Therapeutic Approaches for Alzheimer’s Disease with PET | Neutrophil gelatinase-associated lipocalin in rats with myocardial infarction: expression in the brain related to depression? | Signs of persistent neuroinflammation after myocardial infarction of mice (730.3) | Neutrophil gelatinase‐associated lipocalin in rats with myocardial infarction: expression in the brain related to depression? (728.13) | Neutrophil Gelatinase-Associated Lipocalin and depression in patients with chronic heart failure | Kramer08 | Epileptic seizures in TNF-transgenic mice infected with the neurotropic Borna disease virus are associated with altered prodynorphin mRNA levels in the brain | Neutrophil gelatinase-associated lipocalin: A novel inflammatory marker associated with late-life depression | Aging of the Brain | Analysis of cognition, motor performance and anxiety in young and aged tumor necrosis factor alpha receptor 1 and 2 deficient mice | TNF-Overexpression in Borna Disease Virus-Infected Mouse Brains Triggers Inflammatory Reaction and Epileptic Seizures | Table S3 | Figure S1 | Tables S2 | Table S1 | Table S4 | Lipocalin 2: Novel component of proinflammatory signaling in Alzheimer's disease | The Role of Indoleamine 2,3-Dioxygenase in a Mouse Model of Neuroinflammation-Induced Depression | Supplementary Information | Response: Re: Neurocognitive Functioning in Adult Survivors of Childhood Noncentral Nervous System Cancers | Tumor necrosis factor receptor cross-talk | KCa2 channels activation prevents [Ca]i deregulation and reduces neuronal death following glutamate toxicity and cerebral ischemia | Statins—Increasing or reducing the risk of Parkinson’s disease? | Neuroprotective and neurodegenerative effects of the chronic expression of tumor necrosis factor ?? in the nigrostriatal dopaminergic circuit of adult mice | A Novel Neuroinflammatory Agent that Silences Tumour Necrosis Factor Alpha Receptor 2 Mediated Neuroprotection | Borna Disease Virus Infection of TNF-Transgenic Mice Triggers Inflammation and Epileptic Seizures | TNF RECEPTOR 2 SIGNALING: A TARGET FOR THERAPEUTIC INTERVENTIONS AGAINST NEURODEGENERATIVE DISEASES? | TNFR2-Target for Therapeutics Against Neurodegenerative Diseases? | Tumor Necrosis Factor as a Neuroinflammatory Mediator in Alzheimer's Disease and Stroke: Molecular Mechanisms and Neuroinflammatory Imaging</t>
+        </is>
+      </c>
+      <c r="M122" s="3" t="inlineStr">
+        <is>
+          <t>Neurodegenerative Diseases | Neuroscience | Cell Biology | Neurobiology | Cell Signaling | Molecular Biology | Immunohistochemistry | Apoptosis | Cell Culture | Neurophysiology</t>
+        </is>
+      </c>
+    </row>
+    <row r="123" ht="80" customHeight="1" s="4">
+      <c r="B123" s="3" t="inlineStr">
+        <is>
+          <t>Markus von Kienlin</t>
+        </is>
+      </c>
+      <c r="C123" s="3" t="inlineStr">
+        <is>
+          <t>Markus-Von-Kienlin</t>
+        </is>
+      </c>
+      <c r="D123" s="3" t="inlineStr">
+        <is>
+          <t>Roche</t>
+        </is>
+      </c>
+      <c r="E123" s="3" t="n">
+        <v>4949</v>
+      </c>
+      <c r="F123" s="3" t="n">
+        <v>4002</v>
+      </c>
+      <c r="G123" s="3" t="n">
+        <v>48</v>
+      </c>
+      <c r="H123" s="3" t="inlineStr">
+        <is>
+          <t>Robert-Turner-31 | Friedrich-Metzger | Andreas-Greiser | Laurence-Ozmen | Joern-Sandstede | Alim-Benabid | Edilio-Borroni | R-Pohmann | Werner_Kenn | Eberhard-Rommel | Meinrad-Beer | Anne-Ziegler-6 | Claudia-Weidensteiner | Peter-Van-Zijl | Thomas-Mueggler | Maren-Viehrig | Andreas-Bruns-13469857 | Celine-Risterucci-14315296 | Alexander-Weisser-2011973490 | C-Remy-2091684241 | Herbert-Koestler-2120964682 | Michael-Horn-2159043190 | Stefan-Neubauer-2197540785 | S-Buchner-2226400066 | C-Lipke-33624258 | W-Landschuetz-35634231 | Kerstin-Harre-38187544 | Basil-Kuennecke-38411974 | Chrit-T-W-Moonen-38484359 | H-Koestler-38675136 | S-Neubauer-39091172 | Titus-Lanz-39178354 | Stefan-Neubauer-39218185 | S-Lotito-39434973 | T-Pabst-39611626 | Axel-Haase-39632997 | M-Decorps-40039500 | A-Francois-42106075 | Elsbeth-Fekete-43990798 | JP-Albrand-5139955 | P-Blondet-5250532 | D-Hahn-61474723 | Jean-Luc-Moreau-63681569 | Thomas-Bielser-73367722 | S-Schoeppenthau-73544894 | M-Meininger-7828187 | Tobias-Seyfarth-7828193 | Heike-Scheffer-9122273</t>
+        </is>
+      </c>
+      <c r="I123" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="J123" s="3" t="inlineStr">
+        <is>
+          <t>Thomas Mueggler | Kai Hu | Clifford R Jack | Steven C R Williams | David C Alsop | Thomas H Mareci | Sabine Van Huffel | James A Balschi | Fabrizio Gasparini | Ronald Ouwerkerk | Hoby P Hetherington | Joern J W Sandstede | Georg Ertl | John A Detre | Ergin Atalar | Peter R Luijten | Aad Van den Boogaart | Jean King | George K Radda | R. Pohmann | Kevin L Behar | Saul Schaefer | Christopher J Hardy | Kenichi Mitsunami | Meinrad Beer | Xiaoping Hu | A. De Sherry | Robert G Weiss | Theresa Maria Ballard | Will P J M Spooren | Klaus Dieter Schnackerz | Michael W Weiner | Donald B Twieg | Peter van zijl | Michael Garwood | Todd Richards | Bheeshma Rajagopalan | Craig Ferris | Raymond Mejia | Marén Viehrig | Jens Frahm | Steve Williams | Karen Duff | Robert G. Shulman | Alim Louis Benabid | Joao A. C. Lima | Markus Rudin | Andrew Maudsley | Albert de Roos | Anne Ziegler</t>
+        </is>
+      </c>
+      <c r="K123" s="3" t="n">
+        <v>135</v>
+      </c>
+      <c r="L123" s="3" t="inlineStr">
+        <is>
+          <t>Discovery of Balovaptan, a Vasopressin 1a Receptor Antagonist for the Treatment of Autism Spectrum Disorder | Identification of a Corticohabenular Circuit Regulating Socially Directed Behavior | Etomidate anaesthesia for fMRI in mice revisited: Subcutaneous administration facilitates experimental procedures. | Is sevoflurane a viable alternative anaesthetic for functional MRI in mice? | A novel anesthesia regime enables neurofunctional studies and imaging genetics across mouse strains | Supplementary Information | Temporal profile of brain response to alprazolam in patients with generalized anxiety disorder | "Domain Gauges": A Reference System for Multivariate Profiling of Brain fMRI Activation Patterns Induced by Psychoactive Drugs in Rats. | Pharmacology of Basimglurant (RO4917523, RG7090), a Unique Metabotropic Glutamate Receptor 5 Negative Allosteric Modulator in Clinical Development for Depression | Preserved Modular Network Organization in the Sedated Rat Brain | Neuropharmacological and Neurobiological Relevance of In Vivo H-1-MRS of GABA and Glutamate for Preclinical Drug Discovery in Mental Disorders | Chronic Metabotropic Glutamate Receptor 5 Inhibition Corrects Local Alterations of Brain Activity and Improves Cognitive Performance in Fragile X Mice | Alterations of resting-state functional activity and connectivity in the rat brain induced by acute ketamine treatment - Implications for Schizophrenia | Methodological advances in cardiac31P-MR spectroscopy | Poster #33 FINGERPRINT OF ANTIPSYCHOTIC DRUG ACTION REVEALED BY ARTERIAL SPIN LABELING-BASED PHMRI | Imaging trait anxiety in high anxiety F344 rats: Focus on the dorsomedial prefrontal cortex | FMRI fingerprint of unconditioned fear-like behavior in rats exposed to trimethylthiazoline | On precise localization of boundaries between extended uniform objects in MRI: Tooth imaging as an example | Functional Magnetic Resonance Imaging Reveals Selective Neuronal Alterations in an Animal Model of Anhedonia | Translational MRI in CNS drug discovery | Phosphorylation of Tau at S422 is enhanced by Aβ in TauPS2APP triple transgenic mice | Cortical Hypoperfusion in the B6.PS2APP Mouse Model for Alzheimer's Disease: Comprehensive Phenotyping of Vascular and Tissular Parameters by MRI | Validation of cerebral blood perfusion imaging as a modality for quantitative pharmacological MRI in rats | MAPPING ANTIPSYCHOTIC POTENTIAL USING MAGNETIC RESONANCE IMAGING (MRI) IN RATS TREATED WITH PHENCYCLIDINE (PCP) | Effects of aripiprazole/OPC-14597 on motor activity, pharmacological models of psychosis, and brain activity in rats | Spatial Resolution in Spectroscopic Imaging | Antidepressant treatments reverse abnormal fMRI signals in the nucleus accumbens of chronically-stressed rats | Non-invasive analysis of gallbladder bile composition in cynomolgus monkeys using in vivo H-1 magnetic resonance spectroscopy | Age and gender dependence of human cardiac phosphorus metabolites determined by SLOOP 31P MR spectroscopy | Fast perfusion measurements in rat skeletal muscle at rest and during exercise with single-voxel FAIR (flow-sensitive alternating inversion recovery) | New experimental setup for studying strictly noninvasively skeletal muscle function in rat using 1H-magnetic resonance (MR) imaging and 31P-MR spectroscopy | Neuroimaging in animal models of psychiatric disorders | Functional magnetic resonance imaging reveals similar brain activity changes in two different animal models of schizophrenia | Altered metabolic profile in the frontal cortex of PS2APP transgenic mice, monitored throughout their life span | Improved cardiac sodium MR imaging by density-weighted phase-encoding | S.04.07 Neuroimaging changes in an animal model of schizophrenia | Quantitative Body Composition Analysis in Awake Mice and Rats by Magnetic Resonance Relaxometry | P2-055 Altered metabolic profile in the frontal cortex of PS2APP transgenic mice, monitored throughout their entire life-span | P.4.18 Neuroimaging changes in an animal model of schizophrenia | Efficient k-Space Sampling by Density-Weighted Phase-Encoding | Natural abundance C-13-NMR spectroscopy for the quantitative determination of fecal fat | Perfusion MRI reveals changes in the activity of specific brain areas in a rat neurodevelopmental model of schizophrenia | Absolute concentrations of high-energy phosphate metabolites in normal, hypertrophied, and failing human myocardium measured noninvasively with P-31-SLOOP magnetic resonance spectroscopy | Imaging of intracellular sodium with shift reagent aided23Na CSI in isolated rat hearts | [31P-MR spectroscopy of all regions of the human heart at 1.5 T with acquisition-weighted chemical shift imaging]. | 31P-MR-Spektroskopie aller Wandabschnitte des menschlichen Herzens bei 1,5 T mit akquisitionsgewichteter Chemical-shift- Bildgebung∗ | 31P-MR Spectroscopy for the evaluation of energy metabolism in intact residual myocardium after acute myocardial infarction in humans | Application of Chemical Shift Imaging for Simultaneous and Fast Acquisition of NMR Spectra on Multiple Samples | Application of Chemical Shift Imaging for Simultaneous and Fast Acquisition of NMR Spectra on Multiple Samples | High glycolytic activity in rat glioma demonstrated in vivo by correlation peak 1H magnetic resonance imaging | Cardiac Metabolism and Function in Patients with Multiple Sclerosis: A combined 31P-MR-Spectroscopy and MRI study | Detection of myocardial viability based on measurement of sodium content: A Na-23-NMR study | Accurate phosphorus metabolite images of the human heart by 3D acquisition‐weighted CSI | Advances in human cardiac 31P‐MR spectroscopy: SLOOP and clinical applications | Optimization of ECG-triggered 3D 23Na MRI of the human heart | Optimization of ECG-triggered 3D23Na MRI of the human heart | Methodological advances in cardiac (31)P-MR spectroscopy | Use of 23Na MRS to discriminate viable from non viable tissue: Experimental studies | Assessment of myocardial viability by (31)P-MR-spectroscopy and (23)Na-MR imaging | Assessment of myocardial viability by 31P-MR-spectroscopy and 23Na-MR imaging | Altered energy metabolism after myocardial infarction assessed by P-31-MR-spectroscopy in humans | Reduced 1H-NMR visibility of creatine in isolated rat hearts | Three-Dimensional 13C-Spectroscopic Imaging in the Isolated Infarcted Rat Heart | Reduced H-1-NMR visibility of creatine in isolated rat hearts | Reduced 1H-NMR visibility of creatine in isolated rat hearts | Untersuchungen des kardialen Energiestoffwechsels bei Herzvitien mit der 31P-MR-Spektroskopie | [Cardiac energy metabolism in heart valve diseases with 31P MR spectroscopy] | Analysis of cardiac energy metabolism in valve disease using P-31-MR-spectroscopy | Assessment of myocardial viability by31P-MR-spectroscopy and23Na-MR imaging | Absolute quantification of high energy phosphate metabolites in normal, hypertrophied and failing human myocardium | 2D-spatial/2D-spectral spectroscopic imaging of intracerebral gliomas in rat brain | Use of 23 Na MRS to discriminate viable from non viable tissue: experimental studies | Beyond k-Space: Spectral Localization Using Higher Order Gradients | NMR probeheads for in vivo applications | NMR probeheads forin vivo applications | [The quantification of energy-rich phosphates in healthy and damaged heart muscle by SLOOP 31P-MR spectroscopy. Spatial localization with optimal pointspread function] | Determination of absolute concentrations of cardiac highenergy phosphates using 31P-MR-spectroscopy and SLOOP in healthy and diseased myocardium | Concentrations of human cardiac phosphorus metabolites determined by SLOOP P-31 NMR spectroscopy | Concentrations of human cardiac phosphorus metabolites determined by SLOOP31P NMR spectroscopy | Localized Spectroscopy from Anatomically Matched Compartments: Improved Sensitivity and Localization for Cardiac31P MRS in Humans | Cardiac H-MR spectroscopy | Concentration of human cardiac 31P-metabolites determined by SLOOP 31P-MRS | Myocardial Na+ content after infarction during scar development | Concentration of human cardiac31P-metabolites determined by SLOOP31P-MRS | Cardiac1H-MR spectroscopy | Assessment of myocardial viability with MR—the Würzburg perspective | Magnetic resonance microimaging for noninvasive quantification of myocardial function and mass in the mouse | A superconducting probehead applicable for nuclear magnetic resonance microscopy at 7 T | Three-dimensional 31P magnetic resonance spectroscopic imaging of regional high-energy phosphate metabolism in injured rat heart | Theoretical Evaluation and Comparison of Fast Chemical Shift Imaging Methods | Double-tuned four-ring birdcage resonators for in vivo 31P-nuclear magnetic resonance spectroscopy at 11.75 T | Radial Spectroscopic Imaging | Three-dimensional coronary angiography of the perfused rat heart | 5506504 Method and apparatus for conducting a spatially resolving magnetic resonance examination of a test subject | Correlation-Peak Imaging | Plant Histochemistry by Correlation Peak Imaging | Localized Nuclear Magnetic Resonance Spectroscopy using Higher Order Gradients | Analysis and display of 3D MR cardiac images | An Overcoupled NMR Probe for the Reduction of Radiation Damping | Fast Generation of Leakproof Surfaces from Well-Defined Objects by a Modified Marching Cubes Algorithm</t>
+        </is>
+      </c>
+      <c r="M123" s="3" t="inlineStr">
+        <is>
+          <t>Magnetic Resonance | Neuroimaging | Nuclear Magnetic Resonance | Drug Discovery | Electronic Engineering | Signal, Image and Video Processing | Imaging | Medical Imaging | Biomedical Science | Signal Processing</t>
+        </is>
+      </c>
+    </row>
+    <row r="124" ht="80" customHeight="1" s="4">
+      <c r="B124" s="3" t="inlineStr">
+        <is>
+          <t>Allan Jacobson</t>
+        </is>
+      </c>
+      <c r="C124" s="3" t="inlineStr">
+        <is>
+          <t>Allan-Jacobson</t>
+        </is>
+      </c>
+      <c r="D124" s="3" t="inlineStr">
+        <is>
+          <t>University of Massachusetts Medical School</t>
+        </is>
+      </c>
+      <c r="E124" s="3" t="n">
+        <v>14419</v>
+      </c>
+      <c r="F124" s="3" t="n">
+        <v>17540</v>
+      </c>
+      <c r="G124" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="H124" s="3" t="inlineStr">
+        <is>
+          <t>Brian-Barnes-8 | Nadia-Amrani-2 | Shubhendu-Ghosh | Robin-Ganesan | Bijoyita-Roy | Bert-Boyer | Peter-Juhasz | Jason-Graci | Richard-Firtel-2 | Christopher-Trotta | Joseph-Colacino | Jeremy-Luban | Caterina-Strambio-De-Castillia | Shuyun-Dong-2 | Alper-Celik-2 | Ellen-Welch | Wolfgang-Nellen | Liangxian-Cao | Janet-Donahue | Kotchaphorn-Mangkalaphiban | Richard-Baker-17 | Nikolai-Naryshkin | Phyllis-Spatrick | Richard-Manrow | Jonathan-Belk | Marcus-Johansson | Chunfang-Li-13346451 | D-Gillespie-17618834 | Thomas-E-Ward-20191116 | Agneta-H-Brown-2040457033 | Ronald-Kong-2052726600 | Marla-Weetall-9861733 | Chan-Wu-2150516937 | Laura-F-Steel-2163189198 | Robert-A-Shapiro-2163211611 | Roy-Parker-2163803490 | Yetao-Wang-2178846402 | Stephanie-Kervestin-27521127 | Robert-V-Storti-38393396 | Matthew-S-Sachs-38442590 | John-Leszyk-39166630 | Carl-Mathew-Palatnik-3923427 | C-Silan-39472269 | Stuart-W-Peltz-39719255 | D-J-Herrick-43643225 | David-A-Mangus-43831451 | Harvey-F-Lodish-54871951 | Feng-He-62209328 | David-Munroe-73572401 | Westley-J-Friesen-9760680</t>
+        </is>
+      </c>
+      <c r="I124" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="J124" s="3" t="inlineStr">
+        <is>
+          <t>Richard Manrow | Hermona Soreq | Nahum Sonenberg | Shigeo Ohno | Shubhendu Ghosh | Robin Ganesan | Alan G Hinnebusch | David M Bedwell | Kim M Keeling | Mick F Tuite | Audrey L Atkin | Lyudmila/Ludmila Yu. Frolova | Oliver Mühlemann | Niels H. Gehring | Giordano Caponigro | Christopher R Trotta | Melissa J Moore | Maria Ruiz Echevarria | Shuyun Dong | Ellen Welch | Jonathan R Warner | Sergey V Paushkin | Marvin Wickens | Miles F Wilkinson | Janet L. Donahue | Roman Daniel Gietz | Li Xiangrui | Peter F.. Leeds | Ronald Davis | William F Marzluff | David Tollervey | Phyllis Spatrick | Andrey Pisarev | Hervé Le Hir | Marcus Johansson | Bert Vogelstein | Akio Yamashita | George Brawerman | Jay Greenberg | Ann-Bin Shyu | Bum-Soo Lee | Rachel Green | Tom Maniatis | Nadia Amrani | Alan Sachs | Richard Firtel | Valerie Northcutt | Michel Philippe | Jaylen Ross | Carlos Isaias Gonzalez</t>
+        </is>
+      </c>
+      <c r="K124" s="3" t="n">
+        <v>203</v>
+      </c>
+      <c r="L124" s="3" t="inlineStr">
+        <is>
+          <t>Direct and indirect consequences of PAB1 deletion in the regulation of translation initiation, translation termination, and mRNA decay | Ribosome-bound Upf1 forms distinct 80S complexes and conducts mRNA surveillance | Eukaryotic mRNA decapping factors: molecular mechanisms and activity | Functional restoration of mouse Nf1 nonsense alleles in differentiated cultured neurons | Dcp2 C-terminal cis-binding elements control selective targeting of the decapping enzyme by forming distinct decapping complexes | Progressive polysomal association of Upf1, Upf2, and Upf3 as ribosomes traverse mRNA coding regions | Dcp2 C-terminal Cis-Binding Elements Control Selective Targeting of the Decapping Enzyme by Forming Distinct Decapping Complexes | Transcriptome-wide investigation of stop codon readthrough in Saccharomyces cerevisiae | The DHODH inhibitor PTC299 arrests SARS-CoV-2 replication and suppresses induction of inflammatory cytokines | Transcriptome-wide investigation of stop codon readthrough in Saccharomyces cerevisiae | Poly(A)-Binding Protein Regulates the Efficiency of Translation Termination | The DHODH Inhibitor PTC299 Arrests SARS-CoV-2 Replication and Suppresses Induction of Inflammatory Cytokines | The DHODH Inhibitor PTC299 Arrests SARS-CoV-2 Replication and Suppresses Induction of Inflammatory Cytokines | Nonsense suppression position effect implicates poly(A)-binding protein in the regulation of translation termination | Correction: Conserved mRNA-granule component Scd6 targets Dhh1 to repress translation initiation and activates Dcp2-mediated mRNA decay in vivo | Nonsense Suppression Position Effect Implicates Poly(A)-Binding Protein in the Regulation of Translation Termination | Conserved mRNA-granule component Scd6 targets Dhh1 to repress translation initiation and activates Dcp2-mediated mRNA decay in vivo | S1 Fig | S7 Fig | S11 Fig | S6 Data | S4 Fig | S5 Fig | S8 Fig | S12 Fig | S1 Text | S4 Data | S7 Data | S8 Data | S9 Data | S2 Fig | S10 Fig | S1 Data | S2 Data | S3 Data | S3 Fig | S6 Fig | S9 Fig | S13 Fig | S5 Data | S10 Data | General decapping activators target different subsets of inefficiently translated mRNAs | Selective profiling of ribosomes associated with yeast Upf proteins | New in Vitro Assay Measuring Direct Interaction of Nonsense Suppressors with the Eukaryotic Protein Synthesis Machinery | Targeting of Hematologic Malignancies with PTC299, A Novel Potent Inhibitor of Dihydroorotate Dehydrogenase with Favorable Pharmaceutical Properties | General decapping activators target different subsets of inefficiently translated mRNAs | A new in vitro assay measuring direct interaction of nonsense suppressors with the eukaryotic protein synthesis machinery | High-Resolution Profiling of NMD Targets in Yeast | NMD monitors translational fidelity 24/7 | The moment when translational control had a theory of everything | High Resolution Profiling of NMD Targets in Yeast Reveals Translational Fidelity as a Basis for Substrate Selection | Ataluren stimulates ribosomal selection of near-cognate tRNAs to promote nonsense suppression | Correction: Degradation of YRA1 Pre-mRNA in the Cytoplasm Requires Translational Repression, Multiple Modular Intronic Elements, Edc3p, and Mex67p | S1 Fig | Nonsense-Mediated mRNA Decay: Degradation of Defective Transcripts Is Only Part of the Story | Control of mRNA decapping by positive and negative regulatory elements in the Dcp2 C-terminal domain | Methods to our madness | Nonsense suppression by near-cognate tRNAs employs alternative base pairing at codon positions 1 and 3 | NMD: At the crossroads between translation termination and ribosome recycling | A Highly Conserved Region Essential for NMD in the Upf2 N-Terminal Domain | The RNA exosome affects iron response and sensitivity to oxidative stress | Yeast Edc3 targets RPS28B mRNA for decapping by binding to a 3' -UTR decay-inducing regulatory element. | Intra- and Intermolecular Regulatory Interactions in Upf1, the RNA Helicase Central to NMD in Yeast. | The intimate relationships of mRNA decay and translation | Yeast Upf1 CH domain interacts with Rps26 of the 40S ribosomal subunit | Ataluren as an Agent for Therapeutic Nonsense Suppression | NMD: A multifaceted response to premature translational termination | Testing the faux-UTR model for NMD: Analysis of Upf1p and Pab1p competition for binding to eRF3/Sup35p | RNA decay modulates gene expression and controls its fidelity | Translational competence of ribosomes released from a premature termination codon is modulated by NMD factors | Nonsense-mediated mRNA decay maintains translational fidelity by limiting magnesium uptake | Figure S6 | Figure S3 | Table S2 | Table S3 | Figure S1 | Figure S5 | Figure S8 | Table S1 | Figure S2 | Figure S4 | Figure S7 | Degradation of YRA1 Pre-mRNA in the Cytoplasm Requires Translational Repression, Multiple Modular Intronic Elements, Edc3p, and Mex67p | Targeting post-transcriptional control for drug discovery | Nonsense suppression activity of PTC124 (ataluren) | PTC124 for cystic fibrosis – Authors' reply | Translation factors promote the formation of two states of the closed-loop mRNP | Chapter 6 Qualitative and Quantitative Assessment of the Activity of the Yeast Nonsense-Mediated mRNA Decay Pathway | Association of yeast Upf1p with direct substrates of the NMD pathway | PTC124 targets genetic disorders caused by nonsense mutations | YRA1 Autoregulation Requires Nuclear Export and Cytoplasmic Edc3p-Mediated Degradation of Its Pre-mRNA | The Use of Fungal In Vitro Systems for Studying Translational Regulation | Early nonsense: mRNA decay solves a translational problem | Aberrant termination triggers nonsense-mediated mRNA decay | Ribosome Occupancy of the Yeast CPA1 Upstream Open Reading Frame Termination Codon Modulates Nonsense-Mediated mRNA Decay | The end justifies the means | Multiplexed Protein Quantitation in Saccharomyces cerevisiae Using Amine-Reactive Isobaric Tagging Reagents | A faux 3'-UTR promotes aberrant termination and triggers nonsense-mediated mRNA decay | Regulation of mRNA Decay | Depth of Proteome Issues A Yeast Isotope-Coded Affinity Tag Reagent Study</t>
+        </is>
+      </c>
+    </row>
+    <row r="125" ht="80" customHeight="1" s="4">
+      <c r="B125" s="3" t="inlineStr">
+        <is>
+          <t>Blake Robert Peterson</t>
+        </is>
+      </c>
+      <c r="C125" s="3" t="inlineStr">
+        <is>
+          <t>Blake-Peterson-2</t>
+        </is>
+      </c>
+      <c r="D125" s="3" t="inlineStr">
+        <is>
+          <t>The Ohio State University</t>
+        </is>
+      </c>
+      <c r="E125" s="3" t="n">
+        <v>14253</v>
+      </c>
+      <c r="F125" s="3" t="n">
+        <v>4175</v>
+      </c>
+      <c r="G125" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="H125" s="3" t="inlineStr">
+        <is>
+          <t>Sahishna-Phaniraj | Avery-August | Angelo-Andres | Damien-Jeannerat | Mario-Rivera-13 | Jason-Graci | Zachary-Woydziak | K-Sandeep-Prabhu | Molly-Lee-2 | Bruce-Edwards-2 | John-Vanden-Heuvel | Andreas-Zumbuehl | Digamber-Rane | Gregory-Verdine | Andrew-Seeber | Liqiang-Fu | Brian-Ackley | Craig-Cameron-2 | Tamas-Vigassy | Bin-Deng-10 | Walde-Peter | Chamani-Perera | Stephen-Hussey-2 | Qi-Sun-24 | Josephine-Chandler | Seungbum-Choi-3 | Daniel-Harki | Zhe-Gao-3 | Siwarutt-Boonyarattanakalin | Sonalee-Athavankar-11008563 | Megan-M-MacBride-11587793 | Ayusman-Sen-13461815 | Runzhi-Wu-14573969 | Sutang-Cai-14753997 | Mankit-Law-16211447 | David-Hymel-2115249864 | Aaron-M-Bender-2147566982 | Tiziana-Mordasini-Denti-32740632 | Smita-S-Muddana-35440750 | Laurie-F-Mottram-38138099 | Jocelyn-P-Edathil-39124979 | Eric-D-Smidansky-39157247 | Varun-Sambhy-39271090 | Francois-Diederich-39421126 | Scott-E-Martin-39456859 | David-A-Lightner-43856541 | Daniel-D-Clark-80727231 | Richard-V-Person-85602075 | Enfei-He-9632336 | Steffen-P-Creaser-9739180</t>
+        </is>
+      </c>
+      <c r="I125" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="J125" s="3" t="inlineStr">
+        <is>
+          <t>Robert Bittman | Fergal Hill | Frederick Maxfield | Jose Manuel Andreu | Daniel Wüstner | Avery August | Victor Rivera | Filippo Caraci | David G I Kingston | Mario Rivera | Jason D Graci | Zachary R Woydziak | John A Katzenellenbogen | Erica A Golemis | John Patrick Vanden Heuvel | Steven S Carroll | Roger Brent | Gregory L Verdine | Liqiang Fu | Craig E Cameron | Rafael Radi | Hening Lin | Zhengchang Liu | Robbie Loewith | David Loakes | Stephen Hussey | Isabel Barasoain | Thomas S Scanlan | Richard Paul Haugland | Kai Simons | Kyle R Gee | Qi Sun | Jeno Gyuris | Shane Crotty | Elina Ikonen | Benita Katzenellenbogen | Tom Curran | Giuseppe Caruso | David Maag | Daniel A. Harki | Herbert Waldmann | Siwarutt Boonyarattanakalin | Saikat Ghosh | Virginia Cornish | William Clark Still | Sheryl Dykstra | Kevan Shokat | Philip Low | Kevin Burgess | Kim Lewis</t>
+        </is>
+      </c>
+      <c r="K125" s="3" t="n">
+        <v>132</v>
+      </c>
+      <c r="L125" s="3" t="inlineStr">
+        <is>
+          <t>Photoluminescent Properties and Mechanism of Novel Cyanine‐Borondifluoride Curcuminoid Hybrids as Red‐to‐Near Infrared and Endoplasmic Reticulum‐Targeting Dyes | Photoluminescent Properties and Mechanism of Novel Cyanine-Borondifluoride Curcuminoid Hybrids as Red to Near-Infrared and Endoplasmic Reticulum-Targeting Dyes | Quantification of Engagement of Microtubules by Small Molecules in Living Cells by Flow Cytometry | Pacific Blue-Taxoids as Fluorescent Molecular Probes of Microtubules | Synthesis of a Fluorinated Pyronin that Enables Blue Light to Rapidly Depolarize Mitochondria | 686 Characterization of a novel compound that inhibits peroxynitrite generation by myeloid derived suppressor cells | Carnosine Protects Macrophages against the Toxicity of Aβ1-42 Oligomers by Decreasing Oxidative Stress | Fluorescent detection of peroxynitrite during antibody-dependent cellular phagocytosis | Visible-Photorelease of Liquid Biopsy Markers following Microfluidic Affinity-Enrichment | The C. elegans CHP1 homolog, pbo-1, functions in innate immunity by regulating the pH of the intestinal lumen | Synthetic Rhamnose Glycopolymer Cell-Surface Receptor for Endogenous Antibody Recruitment | Antibody–Drug Conjugate that Exhibits Synergistic Cytotoxicity with an Endosome–Disruptive Peptide | Small Molecule Inhibitors of the BfrB-Bfd Interaction Decrease Pseudomonas aeruginosa Fitness and Potentiate Fluoroquinolone Activity | The C. elegans CHP1 homolog, pbo-1, functions in innate immunity by regulating the pH of the intestinal lumen | Targeting Fluorescent Sensors to Endoplasmic Reticulum Membranes Enables Detection of Peroxynitrite During Cellular Phagocytosis | Malleilactone Is a Burkholderia pseudomallei Virulence Factor Regulated by Antibiotics and Quorum Sensing | Synthesis of a Fluorescent Analogue of Paclitaxel That Selectively Binds Microtubules and Sensitively Detects Efflux by P-Glycoprotein | Synthesis of a Fluorescent Analogue of Paclitaxel That Selectively Binds Microtubules and Sensitively Detects Efflux by P-Glycoprotein | Supplementary Material | Quantification of Small Molecule–Protein Interactions using FRET between Tryptophan and the Pacific Blue Fluorophore16-Supp | Quantification of Small Molecule-Protein Interactions using FRET between Tryptophan and the Pacific Blue Fluorophore | Hydrophobic resorufamine derivatives: Potent and selective red fluorescent probes of the endoplasmic reticulum of mammalian cells | Fluorescent Mimics of Cholesterol that Rapidly Bind Surfaces of Living Mammalian Cells | Synthesis of Fluorophores that Target Small Molecules to the Endoplasmic Reticulum of Living Mammalian Cells | The Anticancer/Antiviral Agent Akt Inhibitor-IV Massively Accumulates in Mitochondria and Potently Disrupts Cellular Bioenergetics. | ChemInform Abstract: Efficient and Scalable Synthesis of 4-Carboxy-Pennsylvania Green Methyl Ester: A Hydrophobic Building Block for Fluorescent Molecular Probes. | Detection of Protein-Protein Interactions by Proximity-Driven SNAr Reactions of Lysine-Linked Fluorophores | Decreased APOE-containing HDL subfractions and cholesterol efflux capacity of serum in mice lacking Pcsk9 | Profiling a Selective Probe for RTG Branch of Yeast TORC1 Signaling Pathway | Novel Acid-Activated Fluorophores Reveal a Dynamic Wave of Protons in the Intestine of Caenorhabditis elegans | Hydrophobic analogues of rhodamine B and rhodamine 101: Potent fluorescent probes of mitochondria in living C. elegans | Interaction of 3β-Amino-5-cholestene with Phospholipids in Binary and Ternary Bilayer Membranes | Figure S4 | Protocol S1 | Figure S3 | Table S1 | Table S2 | Figure S1 | Figure S2 | Figure S5 | Figure S6 | Protocol S2 | Sensitivity of Mitochondrial Transcription and Resistance of RNA Polymerase II Dependent Nuclear Transcription to Antiviral Ribonucleosides | Abstract 498: Decreased High-Density Lipoprotein Cholesterol Levels and Macrophage Cholesterol Efflux Capacity in Mice Lacking Proprotein Convertase Subtilisin/Kexin Type 9 | Synthetic Cell Surface Receptors for Delivery of Therapeutics and Probes | Identification of a Small Molecule Yeast TORC1 Inhibitor with a Multiplex Screen Based on Flow Cytometry | Targeting of Histone Acetyltransferase p300 by Cyclopentenone Prostaglandin Δ 12 -PGJ 2 through Covalent Binding to Cys 1438 | Synthesis of Fluorinated Benzophenones, Xanthones, Acridones, and Thioxanthones by Iterative Nucleophilic Aromatic Substitution | Human Neutrophil Peptides Mediate Endothelial-Monocyte Interaction, Foam Cell Formation, and Platelet Activation | Structural Requirements for the Inhibition of Calcium Mobilization and Mast Cell Activation by the Pyrazole Derivative BTP2 | Structural requirements for the inhibition of calcium mobilization and mast cell activation by the pyrazole derivative BTP2 (107.16) | Synthesis and Biological Evaluation of Analogues of AKT (Protein Kinase B) Inhibitor-IV | Development of a Cell-Based, High-Throughput Screening Assay for Cholesterol Efflux Using a Fluorescent Mimic of Cholesterol | Synthesis of a 6-Methyl-7-deaza Analogue of Adenosine That Potently Inhibits Replication of Polio and Dengue Viruses | ChemInform Abstract: Bilirubin Conformational Analysis and Circular Dichroism | ChemInform Abstract: Macrotricyclic Steroid Receptors by Pd0-Catalyzed Cross-Coupling Reactions: Dissolution of Cholesterol in Aqueous Solution and Investigations of the Principles Governing Selective Molecular Recognition of Steroidal Substrates | Potent inhibition of calcium mobilization and mast cell activation by the pyrazole derivative BTP2 (86.9) | RAB26 FUNCTIONS IN THE RENAL EPITHELIAL PRIMARY CILIUM | Chemico-Genetic Identification of Drebrin as a Regulator of Calcium Responses | Practical Synthesis of 3β-Amino-5-cholestene and Related 3β-Halides Involving i -Steroid and Retro- i -Steroid Rearrangements | Selective disruption of early/recycling endosomes: Release of disulfide-linked cargo mediated by a N-alkyl-3 beta-cholesterylamine-capped peptide | Multifunctional Silane Polymers for Persistent Surface Derivatization and Their Antimicrobial Properties | ChemInform Abstract: One-Pot Synthesis of Nucleoside 5′-Triphosphates from Nucleoside 5′-H-Phosphonates. | One-Pot Synthesis of Nucleoside 5′-Triphosphates from Nucleoside 5′- H -Phosphonates | Endocytosis: Receptor‐Mediated | Structural Insights into Mechanisms of Catalysis and Inhibition in Norwalk Virus Polymerase | Lethal Mutagenesis of Picornaviruses with N-T-Modified Purine Nucleoside Analogues | Antibacterial and Hemolytic Activities of Pyridinium Polymers as a Function of the Spatial Relationship between the Positive Charge and the Pendant Alkyl Tail | Model systems | Lethal Mutagenesis of Poliovirus Mediated by a Mutagenic Pyrimidine Analogue | A Concise Synthesis of the Pennsylvania Green Fluorophore and Labeling of Intracellular Targets with O 6 -Benzylguanine Derivatives | Synthesis of a Universal 5-Nitroindole Ribonucleotide and Incorporation into RNA by a Viral RNA-Dependent RNA Polymerase | The oxidative stress mediator 4-hydroxynonenal is an intracellular agonist of the nuclear receptor peroxisome proliferator-activated receptor-beta/delta (PPARbeta/delta) | Endocytic Delivery of Vancomycin Mediated by a Synthetic Cell Surface Receptor: Rescue of Bacterially Infected Mammalian Cells and Tissue Targeting In Vivo | Small-Molecule Triggers of Tadpole Metamorphosis | Synthesis and Antiviral Activity of 5-Substituted Cytidine Analogues: Identification of a Potent Inhibitor of Viral RNA-Dependent RNA Polymerases | Anticancer Inhibitors of AR-Mediated Gene Expression | A Synthetic Mimic of Human Fc Receptors: Defined Chemical Modification of Cell Surfaces Enables Efficient Endocytic Uptake of Human Immunoglobulin-G | Silver Bromide Nanoparticle/Polymer Composites: Dual Action Tunable Antimicrobial Materials | Synthesis of an Artificial Cell Surface Receptor that Enables Oligohistidine Affinity Tags to Func-tion as Metal-Dependent Cell-Penetrating Peptides [J. Am. Chem. Soc. 2006, 128, 386−387]. | Novel Anticancer Agents that Block Dissociation of Hsp90 from Estrogen Receptors in Breast Cancers | The Pennsylvania Green Fluorophore: A Hybrid of Oregon Green and Tokyo Green for the Construction of Hydrophobic and pH-Insensitive Molecular Probes | Synthesis of an Artificial Cell Surface Receptor that Enables Oligohistidine Affinity Tags to Function as Metal-Dependent Cell-Penetrating Peptides | Synthetic mimics of mammalian cell surface receptors: Prosthetic molecules that augment living cells | Cover Picture: Fluorescence-Based Cloning of a Protein Tyrosine Kinase with a Yeast Tribrid System (ChemBioChem 8/2005) | Fluorescence-Based Cloning of a Protein Tyrosine Kinase with a Yeast Tribrid System | Calcium Flux in Neuroblastoma Cells Is a Coupling Mechanism between Non-Genomic and Genomic Modes of Estrogens | Synthetic Mimics of Small Mammalian Cell Surface Receptors | Protein Palmitoylation Participates in PAR1-Mediated Platelet Activation. | 11β-Alkyl-Δ 9 -19-Nortestosterone Derivatives: High-Affinity Ligands and Potent Partial Agonists of the Androgen Receptor | An Amphotericin B–Fluorescein Conjugate as a Powerful Probe for Biochemical Studies of the Membrane | An Amphotericin B–Fluorescein Conjugate as a Powerful Probe for Biochemical Studies of the Membrane | Facile Synthesis of CIDs: Biotinylated Estrone Oximes Efficiently Heterodimerize Estrogen Receptor and Streptavidin Proteins in Yeast Three Hybrid Systems | Molecule-Specific Imaging with Mass Spectrometry and a Buckminsterfullerene Probe: Application to Characterizing Solid-Phase Synthesized Combinatorial Libraries | Control of gene expression with small molecules: biotin-mediated acylation of targeted lysine residues in recombinant yeast | Control of Gene Expression with Small Molecules | Synthesis of a high-affinity Fluorescent PPARγ ligand for high-throughput fluorescence polarization assays | Fluorescent Cellular Sensors of Steroid Receptor Ligands | Regulation of gene expression with the small molecule biotin: Covalent biotinylation of an artificial transcription factor. | Synthesis of a beta-estradiol-biotin chimera that potently heterodimerizes estrogen receptor and streptavidin proteins in a yeast three-hybrid system</t>
+        </is>
+      </c>
+      <c r="M125" s="3" t="inlineStr">
+        <is>
+          <t>Organic Chemistry Synthesis | Heterocyclic Compounds Synthesis | Cell Culture | Fluorescence | Medicinal Chemistry | Synthesis | Kinase | Drug Discovery | Synthetic Medicinal Chemistry | Medicinal and Pharmaceutical Chemistry</t>
+        </is>
+      </c>
+    </row>
+    <row r="126" ht="80" customHeight="1" s="4">
+      <c r="B126" s="3" t="inlineStr">
+        <is>
+          <t>Eugenio Zapata Aldana</t>
+        </is>
+      </c>
+      <c r="C126" s="3" t="inlineStr">
+        <is>
+          <t>Eugenio-Zapata-Aldana</t>
+        </is>
+      </c>
+      <c r="D126" s="3" t="inlineStr">
+        <is>
+          <t>Teletón Children's Rehabilitation Center</t>
+        </is>
+      </c>
+      <c r="E126" s="3" t="n">
+        <v>2523</v>
+      </c>
+      <c r="F126" s="3" t="n">
+        <v>130</v>
+      </c>
+      <c r="G126" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="H126" s="3" t="inlineStr">
+        <is>
+          <t>Asuri-Prasad | Rene-Perez-Ramirez | Deanna-Dibella | Craig-Campbell-14 | Corona-Rivera-Alfredo | Evan-Pucillo | David-Kim-37 | Benjamin-Carcamo | Michael-Glueck | Jane-Evans-6 | John-Mitchell-8 | Jorge-Corona-Rivera | Chitra-Prasad | Michael-Miller-34 | Silvia-Priori-2 | Christian-Pena-Padilla | Raffaella-Bloise | Cheryl-Scholtes | Sulaiman-Almobarak | Claire-So-Jeong-Lee | Lizbet_Mellin-Sanchez | Cuixia-Tian | Maja-Sukalo | Monali-Malvankar-Mehta | Karen-Bax | Tina-Duong | Mark-Tarnopolsky | Rafael-Nieto-8 | Martin-Zenker-3 | Carlo-Napolitano | Ernesto-Barrios-Prieto | Lucina-Bobadilla-Morales | Nicholas-Johnson-5 | Nathalie-Angeard | Erick-Richmond | Pranesh-Chakraborty | Hugh-Mcmillan | Ana-Sandoval | Rebecca-Rodrigues | Valeria-A-Sansone | Natalya-Karp | B-El-Aloul-2116660123 | Cam-Tu-Emilie-Nguyen-2116660274 | Y-Wei-2128591947 | R-Hicks-2133899824 | Delia-Ceballos-Saenz-2144953262 | Salma-Remtulla-2145888080 | Celina-Guzman-28840068 | Catherine-Brunel-Guitton-36300215 | Bekim-Sadikovic-38637094</t>
+        </is>
+      </c>
+      <c r="I126" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="J126" s="3" t="inlineStr">
+        <is>
+          <t>Giovanni Meola | Craig M McDonald | Kent William Hunter | Ajay Kaul | Frederic Shapiro | Simon D Levin | Samantha A Schrier Vergano | Ingo Helbig | Laura E Case | John Lynn Jefferies | Már Tulinius | Anna-Karin Kroksmark | Richard Ted Abresch | Woody Benson | Terence John O’Brien | Man Hung | Victoria Siu | John C Carey | Michelle Eagle | Gregory Cascino | Saadet Mercimek-Andrews Mercimek-Mahmutoglu Mahmutoglu | Martin Zenker | John David Brook | Taila Hartley | Shannon L Venance | Doug Biggar | Julia Mayerle | Kate Bushby | Kan Hor | James Poysky | Larry Markham | Nicholas E Johnson | Lynette G Sadleir | Jacques Michaud | Richard S Finkel | Vincent P Stanton | Jerry Bounsanga | Wojciech Mazur | Carolyn Constantin | Erik Henricson | Kiera Berggren | Missy Dixon | Asuri Prasad | Deanna DiBella | Craig Campbell | Hiroyuki Aburatani | Evan M. Pucillo | David Birnkrant | Ruth Ottman | Brenda Wong</t>
+        </is>
+      </c>
+      <c r="K126" s="3" t="n">
+        <v>26</v>
+      </c>
+      <c r="L126" s="3" t="inlineStr">
+        <is>
+          <t>Duchenne Muscular Dystrophy Fatigue Trajectories | Pigmentation abnormalities in Coffin‐Siris syndrome | “Cancer in ARID1A-Coffin-Siris syndrome: Review and report of a child with hepatoblastoma” | Female congenital aphallia: a unique case of congenital absence of the clitoris with an ectopic labium majorum | Genetic Testing in Children with Epilepsy: Report of a Single-Center Experience | P.218Utility based health related quality of life in children and adolescents with spinal muscular atrophy | Muscle problems in juvenile-onset acid maltase deficiency (Pompe disease) | A Phenotypic Description of Congenital Myotonic Dystrophy using PhenoStacks | Consensus-based care recommendations for congenital and childhood-onset myotonic dystrophy type 1 | Body Composition in Patients with Congenital Myotonic Dystrophy | Pfeiffer Syndrome Type 3 and Prune Belly Anomaly in a Female: Case Report and Review | Distal arthrogryposis type 5 and PIEZO2 novel variant in a Canadian family | NEXT GENERATION SEQUENCING AND EXPERIMENTAL MYOLOGY | Further delineation of TBCK - Infantile hypotonia with psychomotor retardation and characteristic facies type 3 | Prenatal, Neonatal, and Early Childhood Features in Congenital Myotonic Dystrophy | P.077 Utility of a next generation sequencing in the diagnosis of Congenital Myasthenic Syndromes | B.07 Review of patients with Spinal Muscular Atrophy treated with Nusinersen in Ontario | Predictors of ambulation in patients with duchenne muscular dystrophy | Predictors of ambulation in patients with Duchene muscular dystrophy | A.01 The relationship between fatigue and health-related quality of life in a clinical trial population of Duchenne muscular dystrophy patients | FACTORS ASSOCIATED WITH HEALTH-RELATED QUALITY OF LIFE IN CHILDREN WITH CONGENITAL MYOTONIC DYSTROPHY | PERINATAL FINDINGS IN A CONGENITAL MYOTONIC DYSTROPHY COHORT | Pharmacological therapy for the prevention and management of cardiomyopathy in Duchenne muscular dystrophy: A systematic review | Oblique facial clefts in Johanson-Blizzard syndrome | Associated congenital anomalies in infants with isolated gastroschisis: A single-institutional experience | Unusual retrospective prenatal findings in a male newborn with Timothy syndrome type 1</t>
+        </is>
+      </c>
+      <c r="M126" s="3" t="inlineStr">
+        <is>
+          <t>Clinical Genetics | Medical Genetics | Duchenne Muscular Dystrophy | Rare Diseases | Pediatric Neurology | Clinical Trials | Neuromuscular Disorders | Genetic Counseling | Neurological Diseases | Genotype-Phenotype</t>
+        </is>
+      </c>
+    </row>
+    <row r="127" ht="80" customHeight="1" s="4">
+      <c r="B127" s="3" t="inlineStr">
+        <is>
+          <t>Richard Barohn</t>
+        </is>
+      </c>
+      <c r="C127" s="3" t="inlineStr">
+        <is>
+          <t>Richard-Barohn</t>
+        </is>
+      </c>
+      <c r="D127" s="3" t="inlineStr">
+        <is>
+          <t>University of Kansas Medical Center</t>
+        </is>
+      </c>
+      <c r="E127" s="3" t="n">
+        <v>139104</v>
+      </c>
+      <c r="F127" s="3" t="n">
+        <v>28472</v>
+      </c>
+      <c r="G127" s="3" t="n">
+        <v>48</v>
+      </c>
+      <c r="H127" s="3" t="inlineStr">
+        <is>
+          <t>Jeffrey-Statland | Craig-Mcdonald-6 | Gil-Wolfe-2 | Mamatha-Pasnoor | Tahseen-Mozaffar | Emma-Ciafaloni | Jonathan-Katz-8 | Jaya-Trivedi | Susan-Iannaccone | James-Howard-30 | Ted-Burns-2 | Richard-Nowak | Donald-Sanders-4 | Mark-Ross-2 | David-Saperstein | Carlayne-Jackson | Mazen-Dimachkie | Dennis-Burns | Washington-Bryan | Rabi-Tawil | Volker-Straub-2 | Benedikt-Schoser | Sharon-Nations | Zarife-Sahenk | Yunxia-Wang-15 | Wendy-King-3 | Laura-Herbelin | April-Mcvey | Perry-Shieh-2 | Omar-Jawdat | Miriam-Freimer-10167237 | Jonathan-S-Katz-14841040 | David-Saperstein-14842214 | John-T-Kissel-2041356253 | Andrea-Swenson-2051703441 | Laura-Herbelin-2077471033 | Sharon-Nations-2134315596 | R-G-Miller-2163289409 | Jerry-R-Mendell-38387342 | Robert-C-Griggs-38400876 | Hiroshi-Mitsumoto-38663003 | Gary-Gronseth-38914485 | Michael-P-McDermott-39314194 | J-S-Katz-39318034 | Michael-Benatar-39949355 | Anthony-A-Amato-42668397 | Michael-G-Hanna-65212159 | Brian-Bundy-84933195</t>
+        </is>
+      </c>
+      <c r="I127" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="J127" s="3" t="inlineStr">
+        <is>
+          <t>Benjamin Rix Brooks | Pieter A van Doorn | Jeffrey Statland | Craig M McDonald | Marianne de Visser | J.h.j. Wokke | Michael Swash | Renato Mantegazza | Rup Tandan | Frank Louis Mastaglia | Marianne de Visser | Corrado Angelini | Gil I Wolfe | Daniel B Drachman | Mamatha Pasnoor | Tahseen Mozaffar | Vera Bril | Ingrid E Lundberg | Arthur K Asbury | James F Howard | Henry J Kaminski | Janice M Massey | Ted M Burns | Andrew Engel | Adriano Chió | David S Saperstein | Carlayne E Jackson | Mazen M Dimachkie | Louis Ptacek | Rabi Tawil | Alfred Jaretzki | Eduardo Nobile-Orazio | Arnold Reuser | Priya Kishnani | Shin J Oh | Lisa G. Rider Md | Paul H Gordon | Baziel Van Engelen | Kate Bushby | Sharon Nations | Zarife Sahenk | Wendy King | Laura Herbelin | April Mcvey | Phillip Low | Amelia Evoli | Donald Sanders | Tina Ans | Washington Bryan | David Cornblath</t>
+        </is>
+      </c>
+      <c r="K127" s="3" t="n">
+        <v>433</v>
+      </c>
+      <c r="L127" s="3" t="inlineStr">
+        <is>
+          <t>Using a Bayesian model of the joint distribution of pain and time on medication to decide on pain medication for neuropathy | Phase II Trial in AChR Ab+ Myasthenia Gravis of Transition from Intravenous to Subcutaneous Immunoglobulin: The MGSCIg Study | Zilucoplan in immune-mediated necrotising myopathy: a phase 2, randomised, double-blind, placebo-controlled, multicentre trial | Conducting a Bayesian Multi-Armed Trial with Response Adaptive Randomization for Comparative Effectiveness of Medications for CSPN | Pilot Study of Real-World Monitoring of the Heart Rate Variability in Amyotrophic Lateral Sclerosis | Determining Best or Inferior Drug(s) Using an Adaptive Platform for Cryptogenic Sensory Polyneuropathy | Episodic Ataxia Type 1: Natural History and Effect on Quality of Life | Long-term Safety and Efficacy of Avalglucosidase Alfa in Patients With Late-Onset Pompe Disease | A Secondary Analysis of Patient Assisted Intervention for Neuropathy: Comparison of Treatment in Real Life Situations (PAIN‐CONTRoLS): Pain’s Impact on Sleep, Fatigue, and Activities of Daily Living | Effect of Different Corticosteroid Dosing Regimens on Clinical Outcomes in Boys With Duchenne Muscular Dystrophy: A Randomized Clinical Trial | Open‐label Pilot Study of Ranolazine for Cramps in Amyotrophic Lateral Sclerosis | Phase 2 Trial of Rituximab in Acetylcholine Receptor Antibody-Positive Generalized Myasthenia Gravis: The BeatMG Study | Meta-analyses of deflazacort versus prednisone/prednisolone in patients with nonsense mutation Duchenne muscular dystrophy | Evaluating longitudinal therapy effects via the North Star Ambulatory Assessment | Comparative Effectiveness of Intravenous Immunoglobulin (IVIg) and Subcutaneous Immunoglobulin (SCIg) versus Historical controls in Management of Chronic Inflammatory Demyelinating Polyneuropathy (CIDP) | Phase II Study of Arimoclomol in IBM FDA-OOPD | Tocilizumab is safe and tolerable and reduces C‐reactive protein concentrations in the plasma and cerebrospinal fluid of ALS patients | Oxaloacetate treatment preserves motor function in SOD1G93A mice and normalizes select neuroinflammation-related parameters in the spinal cord | Books to Read Before You Graduate High School | Efficacy and Safety of Bimagrumab in Sporadic Inclusion Body Myositis: Long-term Extension of RESILIENT | NEO1/NEO-EXT studies: Safety and exploratory efficacy of repeat avalglucosidase alfa dosing after up to 6 years in participants with late-onset pompe disease (LOPD) | Exacerbation Rate in Generalized Myasthenia Gravis and Its Predictors | The clinical spectrum of primary lateral sclerosis | AUTOPHAGIC MYOPATHIES / MYOFIBRILLAR MYOPATHIES / DISTAL MYOPATHIES / POMPE DISEASE | Epidemiological evidence for a hereditary contribution to myasthenia gravis: a retrospective cohort study of patients from North America | Meta-analyses of ataluren randomized controlled trials in nonsense mutation Duchenne muscular dystrophy | Patient Assisted Intervention for Neuropathy: Comparison of Treatment in Real Life Situations (PAIN-CONTRoLS): Bayesian Adaptive Comparative Effectiveness Randomized Trial | Minimal manifestation status and prednisone withdrawal in the MGTX trial | ALS Patients Demand | Plasma creatinine and oxidative stress biomarkers in amyotrophic lateral sclerosis | Guidelines on clinical presentation and management of non‐dystrophic myotonias | Seven-Year Experience From the National Institute of Neurological Disorders and Stroke–Supported Network for Excellence in Neuroscience Clinical Trials | Methotrexate Polyglutamation in a Myasthenia Gravis Clinical Trial | A Randomized, Double-Blinded, Placebo-Controlled, Cross Over Study Evaluating the Efficacy and Safety of Timolol Ophthalmic Solution as an Acute Treatment of Migraine | Development of GCRC and CTSA Programs at the University of Kansas Medical Center: A Personal 10-year Perspective | Step-by-Step Guide for Setting up a Company in Kansas and Missouri | Navigating the NIH Public Access Policy for Peer-Reviewed Manuscripts - Why and How to get a PMCID Number | Use of Capillary Electrophoresis Immunoassay to Search for Potential Biomarkers of Amyotrophic Lateral Sclerosis in Human Platelets | Use of Capillary Electrophoresis Immunoassay to Search for Potential Biomarkers of Amyotrophic Lateral Sclerosis in Human Platelets | Primary lateral sclerosis: Consensus diagnostic criteria | Primary lateral sclerosis: consensus diagnostic criteria. | NEO1 and NEO-EXT studies: Long-term safety and exploratory efficacy of repeat avalglucosidase alfa dosing for 5.5 years in late-onset Pompe disease patients | Deflazacort vs prednisone treatment for Duchenne muscular dystrophy: A meta‐analysis of disease progression rates in recent multicenter clinical trials | MRI Correlates with Electrical Impedance Myography in Facioscapulohumeral Muscular Dystrophy | Deflazacort versus prednisone treatment for Duchenne muscular dystrophy: a meta‐analysis of disease progression rates in recent multicenter clinical trials | P.69NEO1 and NEO-EXT studies: exploratory efficacy of repeat avalglucosidase alfa dosing for up to 5 years in participants with late-onset Pompe disease (LOPD) | O.33Subcutaneous immunoglobulin in myasthenia gravis: results of a North American open label study | P.02Phase 2/3 study of Arimoclomol in sporadic inclusion body myositis: study design | Safety and efficacy of intravenous bimagrumab in inclusion body myositis (RESILIENT): a randomised, double-blind, placebo-controlled phase 2b trial | Immunosuppressive and Immunomodulatory Therapies for Neuromuscular Diseases Part I: Traditional Agents | Immunosuppressive and Immunomodulatory Therapies for Neuromuscular Diseases Part II: New and Novel Agents | Validation of Serum Neurofilaments as Prognostic &amp; Potential Pharmacodynamic Biomarkers for ALS | LONG-TERM SAFETY AND EFFICACY OF ECULIZUMAB IN GENERALIZED MYASTHENIA GRAVIS | Investigation of the psychometric properties of the Inclusion Body Myositis Functional Rating Scale using Rasch analysis | Long-term effect of thymectomy plus prednisone versus prednisone alone in patients with non-thymomatous myasthenia gravis: 2-year extension of the MGTX randomised trial | Long-term safety and efficacy of eculizumab in generalized myasthenia gravis: Long-term eculizumab in gMG | NEO1 and NEO-EXT studies: Long-term safety of repeat avalglucosidase alfa dosing for 4.5 years in late-onset Pompe disease patients | RASAGILINE FOR AMYOTROPHIC LATERAL SCLEROSIS: A RANDOMIZED, CONTROLLED TRIAL and THE RASAGILINE INVESTIGATORS OF THE MUSCLE STUDY GROUP AND WESTERN ALS CONSORTIUM | Thymectomy may not be associated with clinical improvement in MuSK myasthenia gravis: Thymectomy in MuSK-MG | Using automated electronic medical record data extraction to model ALS survival and progression | Supplementary Material | Satisfactory Response With Achieving Maintenance Low-Dose Prednisone in Generalized Myasthenia Gravis | Safety, tolerability, pharmacokinetics, pharmacodynamics, and exploratory efficacy of the novel enzyme replacement therapy avalglucosidase alfa (neoGAA) in treatment-naïve and alglucosidase alfa-treated patients with late-onset Pompe disease: A phase 1, open-label, multicenter, multinational, ascending dose study | A Phonetic Complexity-Based Approach For Intelligibility and Articulatory Precision Testing: A Preliminary Study on Talkers With Amyotrophic Lateral Sclerosis | Rasagiline for Amyotrophic Lateral Sclerosis: a Randomized Controlled Trial | Inclusion Body Myositis: Update on Pathogenesis and Treatment | Toxic myopathies | Congenital Myasthenic Syndromes: a Clinical and Treatment Approach | Update on Inclusion Body Myositis | A checklist for clinical trials in rare disease: Obstacles and anticipatory actions-lessons learned from the FOR-DMD trial | Supplementary Material | Muscle-Specific Tyrosine Kinase and Myasthenia Gravis Owing to Other Antibodies | Diagnosis of Myasthenia Gravis | Measuring Clinical Treatment Response in Myasthenia Gravis | Lambert-Eaton Myasthenic Syndrome | Treatment of Myasthenia Gravis | Fifty Key Publications on Myasthenia Gravis and Related Disorders | Neuromuscular Junction Disorders | Acquired Disorders of the Neuromuscular Junction | EULAR/ACR classification criteria for adult and juvenile idiopathic inflammatory myopathies and their major subgroups: A methodology report | 2017 European League Against Rheumatism/American College of Rheumatology classification criteria for adult and juvenile idiopathic inflammatory myopathies and their major subgroups | 2017 European League Against Rheumatism/American College of Rheumatology Classification Criteria for Adult and Juvenile Idiopathic Inflammatory Myopathies and Their Major Subgroups | Learning from the past: reflections on recently completed myasthenia gravis trials: Reflections on MG trials | Safety and efficacy of eculizumab in anti-acetylcholine receptor antibody-positive refractory generalised myasthenia gravis (REGAIN): a phase 3, randomised, double-blind, placebo-controlled, multicentre study | Supplementary Material 1 | Supplementary Material 2 | Supplementary Material 3 | A study on the safety and efficacy of reveglucosidase alfa in patients with late-onset Pompe disease | Ataluren in patients with nonsense mutation Duchenne muscular dystrophy (ACT DMD): A multicentre, randomised, double-blind, placebo-controlled, phase 3 trial | Developing standardized corticosteroid treatment for Duchenne muscular dystrophy | Lingual-Alveolar Contact Pressure During Speech in Amyotrophic Lateral Sclerosis: Preliminary Findings | Enhancing Clinical Research Professionals’ Training and Qualifications (ECRPTQ): Recommendations for Good Clinical Practice (GCP) training for investigators and study coordinators | Dysregulation of B Cell Repertoire Formation in Myasthenia Gravis Patients Revealed through Deep Sequencing | Education and training of clinical and translational study investigators and research coordinators: A competency-based approach | Myasthenia gravis exacerbation after discontinuing mycophenolate: A single-center cohort studyAuthor Response | Supplementary Tables 1–3 | A Bayesian comparative effectiveness trial in action: Developing a platform for multisite study adaptive randomization | Randomized Trial of Thymectomy in Myasthenia Gravis | Rare variants in SQSTM1 and VCP genes and risk of sporadic inclusion body myositis | Activity in People With Diabetic Polyneuropathy (ADAPT): Study Design and Protocol for a Two-Site Randomized Controlled Trial</t>
+        </is>
+      </c>
+      <c r="M127" s="3" t="inlineStr">
+        <is>
+          <t>Neurology | Neurological Diseases | Clinical Neurology | Movement Disorders | Neurodegenerative Diseases | Brain Diseases | Neurodegeneration | Neuroimaging | Neurophysiology | Stroke</t>
+        </is>
+      </c>
+    </row>
+    <row r="128" ht="80" customHeight="1" s="4">
+      <c r="B128" s="3" t="inlineStr">
+        <is>
+          <t>Craig M McDonald</t>
+        </is>
+      </c>
+      <c r="C128" s="3" t="inlineStr">
+        <is>
+          <t>Craig-Mcdonald-6</t>
+        </is>
+      </c>
+      <c r="D128" s="3" t="inlineStr">
+        <is>
+          <t>University of California, Davis</t>
+        </is>
+      </c>
+      <c r="E128" s="3" t="n">
+        <v>43633</v>
+      </c>
+      <c r="F128" s="3" t="n">
+        <v>15909</v>
+      </c>
+      <c r="G128" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="H128" s="3" t="inlineStr">
+        <is>
+          <t>Panayiota-Trifillis | Craig-Campbell-14 | Heather-Gordish-Dressman | Gregory-Carter-3 | Avital-Cnaan | Mathula-Thangarajh | Luca-Bello | Mar-Tulinius | Thomas-Voit-3 | Linda-Lowes | Richard-Abresch | Janbernd-Kirschner | Lawrence-Vogel | Tina-Duong | Michelle-Eagle | Gowri-Sajeev | Nathalie-Goemans | Lauren-Morgenroth | Kevin-Flanigan | Yoram-Nevo-3 | Mika-Leinonen | Richard-Finkel | Monique-Ryan-2 | Robert-Spiegel | Richard-Webster-2 | Erik-Henricson | Perry-Shieh-2 | Eric-Hoffman-6 | Nancy-Kuntz-2 | Paula-R-Clemens-10718615 | Nanette-C-Joyce-2003003292 | Peter-Karachunski-2025050715 | Francesco-Muntoni-2071904677 | E-Mercuri-2147849579 | N-Goemans-2160438625 | Craig-M-Zaidman-33720284 | G-L-Elfring-3605042 | Julaine-Florence-38209195 | Michela-Guglieri-38375046 | Jerry-R-Mendell-38387342 | David-D-Kilmer-38430149 | Jean-K-Mah-39137820 | F-Muntoni-39441203 | Jay-J-Han-39491229 | Alina-Nicorici-39556576 | Eugenio-Mercuri-39608160 | Stuart-W-Peltz-39719255 | Basil-T-Darras-42933485 | James-Signorovitch-46238396 | Anne-M-Connolly-9941913</t>
+        </is>
+      </c>
+      <c r="I128" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="J128" s="3" t="inlineStr">
+        <is>
+          <t>J. Philip Miller | Eric Hoffman | Luisa Politano | Giacomo P Comi | Heather Gordish-Dressman | Gregory T Carter | Corrado Angelini | Enrico Bertini | Ajay Kaul | Frederic Shapiro | Thomas Sejersen | Avital Cnaan | Annemieke Aartsma-Rus | Laura E Case | Angela Berardinelli | Luca Bello | Antonella Pini | Már Tulinius | Linda Pax Lowes | Richard Ted Abresch | Claudio Bruno | Diana M Escolar | Tina Duong | Anna Mayhew | Michelle Eagle | Adele D'Amico | Nathalie Goemans | Lauren P Morgenroth | Kevin Flanigan | Yoram Nevo | Kate Bushby | Marika Pane | James Poysky | Adrienne Arrieta | Richard S Finkel | Wendy King | Monique M Ryan | Carolyn Constantin | Erik Henricson | Giuseppe Vita | Roberto De Sanctis | Susan Iannaccone | Elena Pegoraro | Kanneboyina Nagaraju | David Birnkrant | Thomas Voit | Sonia Messina | Volker Straub | Brenda Wong | Filippo Cavallaro</t>
+        </is>
+      </c>
+      <c r="K128" s="3" t="n">
+        <v>396</v>
+      </c>
+      <c r="L128" s="3" t="inlineStr">
+        <is>
+          <t>Expression of SRP-9001 dystrophin and stabilization of motor function up to 2 years post-treatment with delandistrogene moxeparvovec gene therapy in individuals with Duchenne muscular dystrophy | Automated Detection of Gait Events and Travel Distance Using Waist-worn Accelerometers Across a Typical Range of Walking and Running Speeds | PCR28 Characterization of Patients with Duchenne Muscular Dystrophy across Previously Developed Health States | Assessing the value of delandistrogene moxeparvovec (SRP-9001) gene therapy in patients with Duchenne muscular dystrophy in the United States | Safety and effectiveness of ataluren in patients with nonsense mutation DMD in the STRIDE Registry compared with the CINRG Duchenne Natural History Study (2015–2022): 2022 interim analysis | One-year Data from ENDEAVOR, a Phase 1b Trial of Delandistrogene Moxeparvovec (SRP-9001) in Patients with Duchenne Muscular Dystrophy (DMD) (S48.003) | Integrated Analyses of Data from Clinical Trials of Delandistrogene Moxeparvovec (SRP-9001) in Duchenne Muscular Dystrophy (DMD) (S48.006) | Ataluren Preserves Upper Limb Function in nmDMD Patients from Study 041, a Phase 3 Placebo-Controlled Trial, and the STRIDE Registry (S34.008) | Safety and Efficacy of Ataluren in nmDMD Patients from Study 041, a Phase 3, Randomized, Double-Blind, Placebo-Controlled Trial (PL5.001) | Efficacy and Safety of Viltolarsen in Boys With Duchenne Muscular Dystrophy: Results From the Phase 2, Open-Label, 4-Year Extension Study | Modeling Early Heterogeneous Rates of Progression in Boys with Duchenne Muscular Dystrophy | Disease progression rates in ambulatory Duchenne muscular dystrophy by steroid type, patient age and functional status | DMD Genotypes and Motor Function in Duchenne Muscular Dystrophy: A Multi-institution Meta-analysis With Implications for Clinical Trials | P260: Survival in eteplirsen-treated vs Duchenne muscular dystrophy natural history patients: An indirect treatment comparison using real-world data | O19: Integrated analyses of data from clinical trials of delandistrogene moxeparvovec gene therapy in DMD* | Functional and Clinical Outcomes Associated with Steroid Treatment among Non-ambulatory Patients with Duchenne Muscular Dystrophy1 | Kinematic changes in gait in boys with Duchenne Muscular Dystrophy: Utility of the Gait Deviation Index, the Gait Profile Score and the Gait Variable Scores | P.126 Genotype-unmatched controls are feasible for drug development in Duchenne muscular dystrophy (DMD) | P.66 Predicting trajectories of ambulatory function in Duchenne muscular dystrophy (DMD) | P.133 Daily regimens of prednisone, deflazacort and vamorolone improve motor function similarly in patients with Duchenne muscular dystrophy | FP.26 Early effect of corticosteroids on functional outcomes in young patients with Duchenne muscular dystrophy within the first 18 months of treatment | P.23 Pulmonary function in patients with Duchenne muscular dystrophy from the STRIDE Registry and CINRG Natural History Study: a matched cohort analysis | P.129 One-year data from ENDEAVOR, a phase 1b trial of delandistrogene moxeparvovec in boys with DMD | P.128 Integrated analyses of data from clinical trials of delandistrogene moxeparvovec in DMD | P.22 Age at loss of ambulation in patients with DMD from the STRIDE registry and the CINRG natural history study: A matched cohort analysis | P.29 Accelerating clinical development of new therapeutics with patient data: evidence from the collaborative Trajectory Analysis Program (cTAP) in DMD | P.68 Validation of a composite prognostic score for time to loss of ambulation in Duchenne muscular dystrophy | P.65 Consistency of changes in percent-predicted forced vital capacity between real-world data and trial placebo arms in ambulatory Duchenne muscular dystrophy | P.67 Development and evaluation of a time to event endpoint for clinical trials in Duchenne muscular dystrophy (DMD) | P.14 Analysis of the longitudinal CINRG Becker natural history study dataset | O.13 Givinostat in DMD: results of the Epidys Study | Efficacy and Safety of Vamorolone vs Placebo and Prednisone Among Boys With Duchenne Muscular Dystrophy: A Randomized Clinical Trial | Novel approaches to analysis of the North Star Ambulatory Assessment (NSAA) in Duchenne muscular dystrophy (DMD): Observations from a phase 2 trial | Influence of β 1 Adrenergic Receptor Genotype on Longitudinal Measures of Left Ventricular Ejection Fraction and Responsiveness to ß-Blocker Therapy in Patients With Duchenne Muscular Dystrophy | Quantitative magnetic resonance imaging measures as biomarkers of disease progression in boys with Duchenne muscular dystrophy: a phase 2 trial of domagrozumab | Longitudinal changes in cardiac function in Duchenne muscular dystrophy population as measured by magnetic resonance imaging | Delays in pulmonary decline in eteplirsen‐treated patients with Duchenne muscular dystrophy | Long-Term Functional Efficacy and Safety of Viltolarsen in Patients with Duchenne Muscular Dystrophy | Genetic modifiers of upper limb function in Duchenne muscular dystrophy | Effect of Different Corticosteroid Dosing Regimens on Clinical Outcomes in Boys With Duchenne Muscular Dystrophy: A Randomized Clinical Trial | Repeated intravenous cardiosphere-derived cell therapy in late-stage Duchenne muscular dystrophy (HOPE-2): a multicentre, randomised, double-blind, placebo-controlled, phase 2 trial | Real-world and natural history data for drug evaluation in Duchenne muscular dystrophy: suitability of the North Star Ambulatory Assessment for comparisons with external controls | Efficacy and Safety of Vamorolone in Duchenne Muscular Dystrophy: A 30-Month Nonrandomized Controlled Open-Label Extension Trial | Efficacy and Safety of Vamorolone in Duchenne Muscular Dystrophy: A 30-Month Nonrandomized Controlled Open-Label Extension Trial | Influence of β2 Adrenergic Receptor Genotype on Longitudinal Measures of Forced Vital Capacity in Patients with Duchenne Muscular Dystrophy | A Longitudinal Study of Quantitative Muscle Strength and Functional Motor Ability in Ambulatory Boys with Duchenne Muscular Dystrophy | Ataluren delays loss of ambulation and respiratory decline in nonsense mutation Duchenne muscular dystrophy patients | Delay in Duchenne Muscular Dystrophy Progression with Eteplirsen: Longer Time to Loss of Ambulation versus Standard of Care | Pulmonary Function in Nonambulatory Patients with nmDMD from the STRIDE Registry and CINRG Duchenne Natural History Study: A Matched Cohort Analysis | Knee Strength and Ankle Range of Motion Impacts on Timed Function Tests in Duchenne Muscular Dystrophy: In the Era of Glucocorticoids | Meta-analyses of deflazacort versus prednisone/prednisolone in patients with nonsense mutation Duchenne muscular dystrophy | DMD/BMD – OUTCOME MEASURES | DMD/BMD – OUTCOME MEASURES | DMD/BMD – OUTCOME MEASURES | DMD - TREATMENT | CLINICAL TRIAL HIGHLIGHTS | DMD - TREATMENT | DMD - TREATMENT | DMD - TREATMENT | DMD - TREATMENT | DMD - TREATMENT | Rasch Analysis of the Pediatric Quality of Life Inventory 4.0 Generic Core Scales Administered to Patients With Duchenne Muscular Dystrophy | Longitudinal changes in energy cost during walking in boys with Duchenne Muscular Dystrophy (DMD) | A Combined Prospective and Retrospective Comparison of Long-Term Functional Outcomes Suggests Delayed Loss of Ambulation and Pulmonary Decline with Long-Term Eteplirsen Treatment | Evaluating longitudinal therapy effects via the North Star Ambulatory Assessment | First Regulatory Qualification of a Novel Digital Endpoint in Duchenne Muscular Dystrophy: A Multi-Stakeholder Perspective on the Impact for Patients and for Drug Development in Neuromuscular Diseases | The Minimal Clinical Important Difference (MCID) in Annual Rate of Change of Timed Function Tests in Boys with DMD | A Randomized, Double-Blind, Placebo-Controlled, Global Phase 3 Study of Edasalonexent in Pediatric Patients with Duchenne Muscular Dystrophy: Results of the PolarisDMD Trial | Open-Label Evaluation of Eteplirsen in Patients with Duchenne Muscular Dystrophy Amenable to Exon 51 Skipping: PROMOVI Trial | Gait Characterization in Duchenne Muscular Dystrophy (DMD) Using a Single-Sensor Accelerometer: Classical Machine Learning and Deep Learning Approaches | Comparison of Long-term Ambulatory Function in Patients with Duchenne Muscular Dystrophy Treated with Eteplirsen and Matched Natural History Controls | Corrigendum to “Randomized phase 2 trial and open-label extension of domagrozumab in Duchenne muscular dystrophy” [Neuromuscular Disorders, Vol. 30 (6) 2020, 492-502] | Multi-Omics Identifies Circulating miRNA and Protein Biomarkers for Facioscapulohumeral Dystrophy | (‐)‐Epicatechin induces mitochondrial biogenesis and markers of muscle regeneration in adults with Becker muscular dystrophy | Medical management of muscle weakness in Duchenne muscular dystrophy | DMD – THERAPY | DMD – THERAPY | DMD – THERAPY | DMD &amp; BMD – CLINICAL | LATE BREAKING NEWS E-POSTER PRESENTATION | Efficacy and safety of vamorolone in Duchenne muscular dystrophy: An 18-month interim analysis of a non-randomized open-label extension study | Meta-analyses of ataluren randomized controlled trials in nonsense mutation Duchenne muscular dystrophy | Suitability of external controls for drug evaluation in Duchenne muscular dystrophy | The CINRG Becker Natural History Study: Baseline characteristics | Safety, Tolerability, and Efficacy of Viltolarsen in Boys With Duchenne Muscular Dystrophy Amenable to Exon 53 Skipping: A Phase 2 Randomized Clinical Trial | Randomized phase 2 trial and open-label extension of domagrozumab in Duchenne muscular dystrophy | Genetic modifiers of respiratory function in Duchenne muscular dystrophy | The care of patients with Duchenne, Becker and other muscular dystrophies in the COVID‐19 pandemic | Seven-Year Experience From the National Institute of Neurological Disorders and Stroke–Supported Network for Excellence in Neuroscience Clinical Trials | Conference Report on Contractures in Musculoskeletal and Neurological Conditions | Assessment of Treatment Effect With Multiple Outcomes in 2 Clinical Trials of Patients With Duchenne Muscular Dystrophy | Safety and effectiveness of ataluren: comparison of results from the STRIDE Registry and CINRG DMD Natural History Study | TCTEX1D1 is a genetic modifier of disease progression in Duchenne muscular dystrophy | Long-term data with idebenone on respiratory function outcomes in patients with Duchenne muscular dystrophy | Influence of β2 adrenergic receptor genotype on risk of nocturnal ventilation in patients with Duchenne muscular dystrophy | Deflazacort versus prednisone treatment for Duchenne muscular dystrophy: a meta‐analysis of disease progression rates in recent multicenter clinical trials | Towards regulatory endorsement of drug development tools to promote the application of model-informed drug development in Duchenne muscular dystrophy | P.261Consistent long-term effect of idebenone in reducing respiratory function decline in advanced patients with Duchenne muscular dystrophy | P.262Crossing thresholds and changing rates of respiratory function decline are predictive of clinical outcomes in Duchenne muscular dystrophy (DMD) | P.338Vamorolone trial in Duchenne muscular dystrophy shows dose-related improvement of muscle function</t>
+        </is>
+      </c>
+      <c r="M128" s="3" t="inlineStr">
+        <is>
+          <t>Neuromuscular Disorders | Exercise Physiology | Rehabilitation | Neuromuscular Physiology | Muscle Physiology | Exercise Science | Physical Activity Assessment | Muscle Function | Spinal Cord Injury | Muscle</t>
+        </is>
+      </c>
+    </row>
+    <row r="129" ht="80" customHeight="1" s="4">
+      <c r="B129" s="3" t="inlineStr">
+        <is>
+          <t>Carrie Nielson</t>
+        </is>
+      </c>
+      <c r="C129" s="3" t="inlineStr">
+        <is>
+          <t>Carrie-Nielson</t>
+        </is>
+      </c>
+      <c r="D129" s="3" t="inlineStr">
+        <is>
+          <t>Amgen</t>
+        </is>
+      </c>
+      <c r="E129" s="3" t="n">
+        <v>16320</v>
+      </c>
+      <c r="F129" s="3" t="n">
+        <v>7346</v>
+      </c>
+      <c r="G129" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="H129" s="3" t="inlineStr">
+        <is>
+          <t>Mattias-Lorentzon | Najaf-Amin | Alexander-Teumer | Carolina-Medina-Gomez-2 | Jerome-Rotter | Georg-Homuth | Magnus-Karlsson-8 | Eric-Orwoll | Joshua-Lewis | Anna-Giuliano | Kristina-Akesson-2 | Claes-Ohlsson | Fiona-Mcguigan-2 | Yi-Hsiang-Hsu-2 | Vilmundur-Gudnason | Mary-Papenfuss | M-Carola-Zillikens | Martha-Abrahamsen | Liesbeth-Vandenput | Roberto-Flores-19 | Peggy-Cawthon | Yanhua-Zhou-4 | Robin-Harris-5 | Eileen-Dunne-2 | Karol-Estrada | Caroline-Hayward | Jane-Cauley | Joseph-Zmuda | Priya-Srikanth | Frances-Williams-6 | Fernando-Rivadeneira-2131031492 | Andre-G-Uitterlinden-2148448048 | Christine-G-Lee-28893608 | Daniel-S-Evans-36335313 | Natasja-M-van-Schoor-38212144 | Kristine-E-Ensrud-38266146 | Albert-V-Smith-38354768 | Douglas-C-Bauer-38395023 | Andrew-R-Hoffman-38576692 | Dan-Mellstroem-39051922 | Lynn-M-Marshall-39175951 | Fernando-Rivadeneira-39385987 | Dirk-Vanderschueren-39408187 | Steven-R-Cummings-39489266 | Andre-G-Uitterlinden-39896209 | Douglas-P-Kiel-39945830 | Yongmei-Liu-40065174 | Jodi-Lapidus-46404148 | Anke-W-Enneman-84854892</t>
+        </is>
+      </c>
+      <c r="I129" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="J129" s="3" t="inlineStr">
+        <is>
+          <t>George Dedoussis | Mattias Lorentzon | Najaf Amin | Terho Lehtimäki | Yurii Aulchenko | Jerome I Rotter | Massimo Mangino | Magnus K Karlsson | Eric Orwoll | Nubia Munoz | Marcia L Stefanick | Anna R Giuliano | Claes Ohlsson | Scott G Wilson | Yi-Hsiang Hsu | Katie L Stone | Ingrid Borecki | Jonathan Reeve | Jing Hua Zhao | Mary R Papenfuss | Braxton D Mitchell | John A Eisman | Christian Gieger | Keerti Shah | Joyce van Meurs | Eugene Mccloskey | Peggy Mannen Cawthon | Karol Estrada | Caroline Hayward | Jane A Cauley | Stuart Ralston | Andrew R Wood | John Brent Richards | Tuan V. Nguyen | Cathrine Lykke Christiansen | F. Xavier Bosch | Gunnar Sigurdsson | David Karasik | Nicole Soranzo | Unnur Styrkarsdottir | Tim Spector | Cecilia Lindgren | Olli Raitakari | Carolina Medina-Gomez | Vilmundur Gudnason | Ruth Loos | M. Carola Zillikens | Goncalo Abecasis | Martha Abrahamsen | Liesbeth Vandenput</t>
+        </is>
+      </c>
+      <c r="K129" s="3" t="n">
+        <v>164</v>
+      </c>
+      <c r="L129" s="3" t="inlineStr">
+        <is>
+          <t>Controlling for Differential Regression-To-The-Mean via Propensity Scores: A Simulation Study | Pragmatic considerations for negative control outcome studies to guide non-randomized comparative analyses: A narrative review | Lessons Learned Using Real-World Data to Emulate Randomized Trials: A Case Study of Treatment Effectiveness for Newly Diagnosed Immune Thrombocytopenia | Association Between Vitamin D Intake and Vitamin D Status with Semen Parameters Among Young Men in Southern Spain | The influence of multi-morbidities on colorectal cancer screening recommendations and completion | Relative Dose Intensity of Chemotherapy and Survival in Advanced Stage Solid Tumor Cancer Patients: A Systematic Review and Meta‐Analysis | Effectiveness and Safety of Romiplostim Among Patients with Newly Diagnosed, Persistent and Chronic Immune Thrombocytopenia in European Clinical Practice | Predictors for and outcomes after bone marrow biopsy in Scandinavian patients with chronic immune thrombocytopenia | The Incidence of Thrombocytopenia in Adult Patients Receiving Chemotherapy for Solid Tumors or Hematologic Malignancies | Chemotherapy Relative Dose Intensity, Overall Survival, and Hematologic Toxicity in Solid-Tumor Cancer Patients: A Literature Review and Meta-Analysis | Proteomic assessment of serum biomarkers of longevity in older men | Barriers and Facilitators to Timely Colonoscopy Completion for Safety Net Clinic Patients | Observational study of talimogene laherparepvec use in the anti-PD-1 era for melanoma in the United States (COSMUS-2) | Prospective Cohort study of Predictors of Follow-Up Diagnostic Colonoscopy from a Pragmatic Trial of FIT Screening | Genetic burden contributing to extremely low or high bone mineral density in a senior male population from the Osteoporotic Fractures in Men (MrOS) study | History of adolescent birth and diabetes in adulthood: a cross-sectional study of a nationally representative sample of American women | Proteomic studies of bone and skeletal health outcomes | Meta‐Analysis of Genomewide Association Studies Reveals Genetic Variants for Hip Bone Geometry | Disentangling the genetics of lean mass | Factors Affecting Adherence in a Pragmatic Trial of Annual Fecal Immunochemical Testing for Colorectal Cancer | 131: Adolescent birth and hypertension in adulthood: evidence from NHANES 2005-2016 | Risk Factors and Predictors of Hypoglycemia after Bariatric Surgery in the LABS Consortium | Supplemental Table 1 | Effectiveness of automated and live phone reminders after mailed-FIT outreach in a pilot randomized trial | Determination of Free 25(OH)D Concentrations and Their Relationships to Total 25(OH)D in Multiple Clinical Populations | Genome-wide meta-analysis of 158,000 individuals of European ancestry identifies three loci associated with chronic back pain | S8 Table | S9 Table | S3 Table | S5 Table | S7 Table | S4 Table | S6 Table | S2 Fig | S1 Table | S2 Table | S10 Table | S3 Fig | S1 Fig | S4 Fig | S6 Fig | S5 Fig | S7 Fig | S8 Fig | S9 Fig | Positive predictive values of fecal immunochemical tests used in the STOP CRC pragmatic trial | Supplementary Material 2 | Supplementary Material 1 | Supplementary Material 1 | Supplementary Material 2 | Genetic Determinants of Circulating Estrogen Levels and Evidence of a Causal Effect of Estradiol on Bone Density in Men. | High-throughput serum proteomics for the identification of protein biomarkers of mortality in older men | The epidemiology of wrist fractures in older men: the Osteoporotic Fractures in Men (MrOS) study | Genetic Determinants of Circulating Estrogen Levels, and Evidence of a Causal Effect of Estradiol on Bone Density in Men | Supplemental Materials | Genome-wide Meta-analysis of 158,000 Individuals of European Ancestry Identifies Three Loci Associated with Chronic Back Pain | Free Vitamin D | 143: Adolescent birth and diabetes in adulthood | Cannabis use and bone mineral density: NHANES 2007–2010 | Large meta-analysis of genome-wide association studies identifies five loci for lean body mass | Erratum: Large meta-analysis of genome-wide association studies identifies five loci for lean body mass | Identification of a novel locus on chromosome 2q13, which predisposes to clinical vertebral fractures independently of bone density | Identification of a novel locus on chromosome 2q13, which predisposes to clinical vertebral fractures independently of bone density. | Associations of vitamin D intake and vitamin D serum levels with reproductive parameters in young men from Southern Spain | Erratum: Large meta-analysis of genome-wide association studies identifies five loci for lean body mass | Cannabis use and bone mineral density: NHANES 2007–2010 | Supplementary Material | Large meta-analysis of genome-wide association studies identifies five loci for lean body mass. | Large-scale GWAS identifies multiple loci for hand grip strength providing biological insights into muscular fitness | Cannabis use and bone mineral density: NHANES 2007–2010 | NFAT5 and SLC4A10 loci associate with plasma osmolality | Identification of Hip BMD Loss and Fracture Risk Markers Through Population-Based Serum Proteomics | Serum Phosphate Is Associated with Fracture Risk: The Rotterdam Study and MrOS: Phosphate, BMD and fracture risk | br&gt; NFAT5 and SLC4A10 Loci Associate with Plasma Osmolality&lt;br | Genetic Variants Associated with Circulating Parathyroid Hormone | Multimorbidity and Functional Limitations Among Adults 65 or Older, NHANES 2005–2012 | Novel Genetic Variants are Associated With Increased Vertebral Volumetric BMD, Reduced Vertebral Fracture Risk, and Increased Expression of SCL1A3 and EPHB2 | Obesity and Falls in a Prospective Study of Older Men: The Osteoporotic Fractures in Men Study | Role of Assay Type in Determining Free 25-Hydroxyvitamin D Levels in Diverse Populations | Free 25-Hydroxyvitamin D: Impact of Vitamin D Binding Protein Assays on Racial-Genotypic Associations | Associations of total and free 25OHD and 1,25(OH)2D with serum markers of inflammation in older men | Gourlayetal MrOS scrn int suppl AJPM012516 | New loci for body fat percentage reveal link between adiposity and cardiometabolic disease risk | Supplementary Information | Time to Osteoporosis and Major Fracture in Older Men | Sex Hormones, Sex Hormone Binding Globulin, and Vertebral Fractures in Older Men | Associations of Body Mass Index With Incident Fractures and Hip Structural Parameters in a Large Canadian Cohort | Whole-genome sequencing identifies EN1 as a determinant of bone density and fracture | Associations of 25-Hydroxyvitamin D and 1,25-Dihydroxyvitamin D with Bone Mineral Density, Bone Mineral Density Change and Incident Non-Vertebral Fracture | The Association between BMI and QCT-Derived Proximal Hip Structure and Strength in Older Men: A Cross-Sectional Study | Limited Clinical Utility of a Genetic Risk Score for the Prediction of Fracture Risk in Elderly Subjects | Estimated Lean Mass and Fat Mass Differentially Affect Femoral Bone Density and Strength Index But Are Not FRAX Independent Risk Factors for Fracture | Higher 25(OH)D2 Is Associated With Lower 25(OH)D3 and 1,25(OH)2D3 (vol 99, pg 2736, 2014) | Statins and Physical Activity in Older Men The Osteoporotic Fractures in Men Study | Genetic determinants of heel bone properties: genome-wide association meta-analysis and replication in the GEFOS/GENOMOS consortium | Higher 25(OH)D2 is associated with lower 25(OH)D3 and 1,25(OH)2D3 | Rare Protein-Coding Variants Are Associated with Osteoporotic Fracture: An Exome-Chip Analysis of 44,130 Adult Caucasians in CHARGE and GEFOS Consortia. | Genetic determinants of heel bone properties: Genome-wide association meta-analysis and replication in the GEFOS/GENOMOS consortium | Applications of a New Handheld Reference Point Indentation Instrument Measuring Bone Material Strength | Association of Serum Fibroblast Growth Factor 23 (FGF23) and Incident Fractures in Older Men: The Osteoporotic Fractures in Men (MrOS) Study</t>
+        </is>
+      </c>
+      <c r="M129" s="3" t="inlineStr">
+        <is>
+          <t>Fracture | Epidemiology and Public Health | Public Health | Epidemiology | Osteoporosis | Hip | Cancer | Bone | Screening | Colorectal Cancer</t>
+        </is>
+      </c>
+    </row>
+    <row r="130" ht="80" customHeight="1" s="4">
+      <c r="B130" s="3" t="inlineStr">
+        <is>
+          <t>Mattias Lorentzon</t>
+        </is>
+      </c>
+      <c r="C130" s="3" t="inlineStr">
+        <is>
+          <t>Mattias-Lorentzon</t>
+        </is>
+      </c>
+      <c r="D130" s="3" t="inlineStr">
+        <is>
+          <t>University of Gothenburg</t>
+        </is>
+      </c>
+      <c r="E130" s="3" t="n">
+        <v>64747</v>
+      </c>
+      <c r="F130" s="3" t="n">
+        <v>31318</v>
+      </c>
+      <c r="G130" s="3" t="n">
+        <v>48</v>
+      </c>
+      <c r="H130" s="3" t="inlineStr">
+        <is>
+          <t>Tim-Spector | Daniel-Sundh | Najaf-Amin | Terho-Lehtimaeki | Dorret-Boomsma-2 | Andrew-Hicks-5 | Olli-Raitakari | Carolina-Medina-Gomez-2 | Jerome-Rotter | Inga-Prokopenko | Massimo-Mangino | Mary-Feitosa | Magnus-Karlsson-8 | Johan-Eriksson-3 | Ilja-Nolte | Eric-Orwoll | Zoltan-Kutalik | Claes-Ohlsson | Markku-Laakso | Claudia-Langenberg-2 | Vilmundur-Gudnason | Ruth-Loos | Jing-Hua-Zhao | M-Carola-Zillikens | Liesbeth-Vandenput | John-Kanis | Eugene-Mccloskey | Karol-Estrada | Fernando-Rivadeneira | Caroline-Hayward | Eugene-V-McCloskey-2068820220 | H-Johansson-2071297759 | David-P-Strachan-2081190261 | Helena-Johansson-2123602677 | Daniel-I-Chasman-38134296 | Unnur-Thorsteinsdottir-38174148 | Lynda-M-Rose-38283663 | Albert-V-Smith-38354768 | James-F-Wilson-38492222 | Gudmar-Thorleifsson-38542401 | JA-Kanis-38998503 | Dan-Mellstroem-39051922 | Jianan-Luan-39548146 | Ben-A-Oostra-39633557 | Antti-Jula-39902739 | Douglas-P-Kiel-39945830 | Nicholas-C-Harvey-40056130 | Joel-Eriksson-74713273</t>
+        </is>
+      </c>
+      <c r="I130" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="J130" s="3" t="inlineStr">
+        <is>
+          <t>George Dedoussis | Tõnu Esko | Najaf Amin | Terho Lehtimäki | Yurii Aulchenko | Jaakko Tuomilehto | Johanna Kuusisto | Andrew A. Hicks | Eco J C de Geus | Jerome I Rotter | Harald Grallert | Massimo Mangino | Mary F Feitosa | Magnus K Karlsson | Patricia B Munroe | Benjamin F Voight | Eric Orwoll | Zoltan Kutalik | Claes Ohlsson | Markku Laakso | Jing Hua Zhao | John A Eisman | Thomas Illig | Christian Gieger | John A Kanis | Jian Yang | Eugene Mccloskey | Cristen J Willer | Karol Estrada | Caroline Hayward | Jane A Cauley | Andrew R Wood | Michael Weedon | Serena Sanna | Nicole Soranzo | Tim Spector | Markus Perola | marjo-riitta Jarvelin | Cecilia Lindgren | Teresa Ferreira | Dorret I Boomsma | Gonneke Willemsen | Olli Raitakari | Chris De Laet | Cyrus Cooper | Vilmundur Gudnason | Ruth Loos | M. Carola Zillikens | Goncalo Abecasis | Liesbeth Vandenput</t>
+        </is>
+      </c>
+      <c r="K130" s="3" t="n">
+        <v>545</v>
+      </c>
+      <c r="L130" s="3" t="inlineStr">
+        <is>
+          <t>Hemoglobin levels improve fracture risk prediction in addition to FRAX® clinical risk factors and bone mineral density | Bone mineral density loci specific to the skull portray potential pleiotropic effects on craniosynostosis | Low Circulating Valine Associate With High Risk of Hip Fractures | Lowering of circulating sclerostin may increase risk of atherosclerosis and its risk factors: evidence from a genome-wide association meta-analysis followed by Mendelian randomization | Increased Bone Material Strength Index Is Positively Associated With the Risk of Incident Osteoporotic Fractures in Older Swedish Women | FRAX adjustment by Trabecular Bone Score With or Without Bone Mineral Density: The Manitoba BMD Registry | The Importance of Recent Prevalent Fracture Site For Imminent Risk of Fracture - a Retrospective, Nationwide Cohort Study of Older Swedish Men and Women | Occurrence and relative risks for non-vertebral fractures in patients with ankylosing spondylitis compared with the general population: a register-based study from Sweden | Comparison of Fractures Among Older Adults Who Are Ambulatory vs Those Who Use Wheelchairs in Sweden | Risk of fracture in adults with type 2 diabetes in Sweden: A national cohort study | Recent sarcopenia definitions-prevalence, agreement and mortality associations among men: Findings from population-based cohorts | Adjusting conventional FRAX estimates of fracture probability according to the number of prior falls in the preceding year | An assessment of intervention thresholds for high fracture risk in Chile | Primary hyperparathyroidism and fracture probability | Osteoporosis in Europe: a compendium of country-specific reports | Incidence of hip fracture in Saudi Arabia and the development of a FRAX model | Anemia is associated with increased risk of non-vertebral osteoporotic fractures in elderly men: the MrOS Sweden cohort | Is it time to consider population screening for fracture risk in postmenopausal women? A position paper from the International Osteoporosis Foundation Epidemiology/Quality of Life Working Group | Increased fracture risk in Parkinson's disease – An exploration of mechanisms and consequences for fracture prediction with FRAX | Osteoporosis treatment in Austria—assessment of FRAX-based intervention thresholds for high and very high fracture risk | Greater pQCT Calf Muscle Density Is Associated with Lower Fracture Risk, Independent of FRAX, Falls and BMD: A Meta‐Analysis in the Osteoporotic Fractures in Men (MrOS) Study | One-year supplementation with Lactobacillus reuteri ATCC PTA 6475 counteracts a degradation of gut microbiota in older women with low bone mineral density | Genome-wide association analyses of physical activity and sedentary behavior provide insights into underlying mechanisms and roles in disease prevention | Adjusting conventional FRAX estimates of fracture probability according to the number of prior fractures | Young Adult Male Patients With Childhood-onset IBD Have Increased Risks of Compromised Cortical and Trabecular Bone Microstructures | The association between peripheral arterial disease and risk for hip fractures in elderly men is not explained by low hip bone mineral density. Results from the MrOS Sweden study | Menopausal hormone therapy reduces the risk of fracture regardless of falls risk or baseline FRAX probability—results from the Women’s Health Initiative hormone therapy trials | Osteoporosis epidemiology using international cohorts | Population screening for fracture risk in postmenopausal women - a logical step in reducing the osteoporotic fracture burden? | Lowering of circulating sclerostin may increase risk of atherosclerosis and its risk factors: evidence from a genome-wide association meta-analysis followed by Mendelian randomization | Analysis of Comorbidities, Clinical Outcomes, and Parathyroidectomy in Adults With Primary Hyperparathyroidism | Update of the fracture risk prediction tool FRAX: A systematic review of potential cohorts and analysis plan | POS0959 RISK FACTORS FOR NON-VERTEBRAL FRACTURES IN ANKYLOSING SPONDYLITIS | Trabecular Bone Score Adjustment for the Fracture Risk Assessment Tool (FRAX®) | Improved fracture risk prediction by adding VFA-identified vertebral fracture data to BMD by DXA and clinical risk factors used in FRAX | Potential Adverse Effect of Nonsteroidal Anti‐Inflammatory Drugs (NSAIDs) on Bisphosphonate Efficacy: An Exploratory Post Hoc Analysis From a Randomized Controlled Trial of Clodronate | The outcome of an automated assessment of trabecular pattern in intraoral radiographs as a fracture risk predictor | Epidemiology of hip fracture in Qatar and development of a country specific FRAX model | Development of a novel method to measure bone marrow fat fraction in older women using high-resolution peripheral quantitative computed tomography | Eating disorders are associated with increased risk of fall injury and fracture in Swedish men and women | Epidemiology and economic burden of osteoporosis in Greece | Ukrainian FRAX version in the male osteoporosis management | FRAX-based fracture probabilities in South Africa | SCOPE 2021: a new scorecard for osteoporosis in Europe | The application of FRAX in Saudi Arabia | Correction to: Factors associated with changes in volumetric bone mineral density and cortical area in men with ankylosing spondylitis: a 5-year prospective study using HRpQCT | Genome Wide Association Metanalysis Of Skull Bone Mineral Density Identifies Loci Relevant For Osteoporosis And Craniosynostosis | One leg standing time predicts fracture risk in older women independent of clinical risk factors and BMD | The application of FRAX in Ecuador | Fractures and fall injuries after hospitalization for seasonal influenza—a national retrospective cohort study | FRAX-based intervention thresholds for Pakistan | RSPO3 is important for trabecular bone and fracture risk in mice and humans | The challenge of applying digital image processing software on intraoral radiographs for osteoporosis risk assessment | Fracture risk assessment by the FRAX model | Osteoporosis and fractures in women: the burden of disease | Serum Glycine Levels Are Associated With Cortical Bone Properties and Fracture Risk in Men | Factors associated with changes in volumetric bone mineral density and cortical area in men with ankylosing spondylitis: a 5-year prospective study using HRpQCT | FRAX-Based Intervention Thresholds for Osteoporosis Treatment in Ukraine | Designing an Iran FRAX model and defining intervention and assessment thresholds for osteoporosis | Physical exercise is associated with beneficial bone mineral density and body composition in young adults with childhood-onset inflammatory bowel disease | Subclinical hyperthyroidism is associated with increased risk of vertebral fractures in older men | Short time horizons for fracture prediction tools: time for a rethink | An assessment of intervention thresholds for very high fracture risk applied to the NOGG guidelines: A report for the National Osteoporosis Guideline Group (NOGG) | Reply to: Grade 1 vertebral fractures, bone mineral density, and the risk of fractures | Intermediate monocytes correlate with CXCR3+ Th17 cells but not with bone characteristics in untreated early rheumatoid arthritis | Sarcopenia Definitions as Predictors of Fracture Risk Independent of FRAX®, Falls, and BMD in the Osteoporotic Fractures in Men (MrOS) Study: A Meta‐Analysis | Impact of population-based or targeted BMD interventions on fracture incidence | A surrogate FRAX model for Pakistan | Metabolic Alterations in Older Women supplemented with Lactobacillus reuteri or with Low Bone Mineral Density | Romosozumab efficacy on fracture outcomes is greater in patients at high baseline fracture risk: a post hoc analysis of the first year of the frame study | The effect on subsequent fracture risk of age, sex, and prior fracture site by recency of prior fracture | Predictive Value of DXA Appendicular Lean Mass for Incident Fractures, Falls, and Mortality, Independent of Prior Falls, FRAX, and BMD : Findings from the Women's Health Initiative ( WHI ) | Cost-effectiveness of romosozumab for the treatment of postmenopausal women with severe osteoporosis at high risk of fracture in Sweden | Clinical Characteristics and Outcomes in Patients with Hospital-Based Diagnosis of Primary Hyperparathyroidism – a National Retrospective Cohort Study | High platelet count is associated with low bone mineral density: The MrOS Sweden cohort | Epidemiology of osteoporotic fracture in Moldova and development of a country-specific FRAX model | Epidemiology of hip fractures in Bulgaria: development of a country-specific FRAX model | Epidemiology of osteoporotic fracture in Kazakhstan and development of a country specific FRAX model | Fragility fractures in Europe: burden, management and opportunities | A surrogate FRAX model for the Kyrgyz Republic | Use of age-dependent FRAX-based intervention thresholds for Singapore | Combining fracture outcomes in phase 3 trials of osteoporosis: an analysis of the effects of denosumab in postmenopausal women | Low-level cadmium exposure is associated with decreased cortical thickness, cortical area and trabecular bone volume fraction in elderly men: The MrOS Sweden study | The use of two-, five- and 10-year probabilities to characterise fracture risk after a recent sentinel fracture | Global impact of COVID-19 on non-communicable disease management: descriptive analysis of access to FRAX fracture risk online tool for prevention of osteoporotic fractures | The Timed Up and Go test predicts fracture risk in older women independently of clinical risk factors and bone mineral density | FRAX and ethnicity | Adjusting conventional FRAX estimates of fracture probability according to the recency of sentinel fractures | Grade 1 Vertebral Fractures Identified by Densitometric Lateral Spine Imaging Predict Incident Major Osteoporotic Fracture Independently of Clinical Risk Factors and Bone Mineral Density in Older Women | FRI0310 HIGHER RISK OF INCIDENT FRACTURE IN PATIENTS WITH ANKYLOSING SPONDYLITIS COMPARED TO THE GENERAL POPULATION | Secondary Fracture Prevention: Consensus Clinical Recommendations From a Multistakeholder Coalition | Screening for high fracture risk | Secondary Fracture Prevention: Consensus Clinical Recommendations from a Multistakeholder Coalition | Association Between Recurrent Fracture Risk and Implementation of Fracture Liaison Services in Four Swedish Hospitals: A Cohort Study | BMD-Related Genetic Risk Scores Predict Site-Specific Fractures as Well as Trabecular and Cortical Bone Microstructure | Correction to: Algorithm for the management of patients at low, high and very high risk of osteoporotic fractures | Altered body composition profiles in young adults with childhood-onset inflammatory bowel disease | A decade of FRAX: how has it changed the management of osteoporosis? | The Importance and Possible Clinical Impact of Measuring Trabecular and Cortical Bone Microstructure to Improve Fracture Risk Prediction | Fractures and Fall Injuries after Hospitalization for Seasonal Influenza - A National Retrospective Cohort Study</t>
+        </is>
+      </c>
+      <c r="M130" s="3" t="inlineStr">
+        <is>
+          <t>Bone Mineral Density | Bone | Osteoporosis | Exercise Science | Fracture | Epidemiology | Bone Biology | Bone Metabolism | Hip | Probiotics</t>
+        </is>
+      </c>
+    </row>
+    <row r="131" ht="80" customHeight="1" s="4">
+      <c r="B131" s="3" t="inlineStr">
+        <is>
+          <t>Tara Mclaughlin</t>
+        </is>
+      </c>
+      <c r="C131" s="3" t="inlineStr">
+        <is>
+          <t>Tara-Mclaughlin</t>
+        </is>
+      </c>
+      <c r="D131" s="3" t="inlineStr">
+        <is>
+          <t>Hartford Hospital</t>
+        </is>
+      </c>
+      <c r="E131" s="3" t="n">
+        <v>2495</v>
+      </c>
+      <c r="F131" s="3" t="n">
+        <v>1247</v>
+      </c>
+      <c r="G131" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="H131" s="3" t="inlineStr">
+        <is>
+          <t>Richard-Seip | Kathleen-Bucholz | Dixie-Statham | Jeffrey-Mather | Adam-Steinberg-3 | Pamela-Madden | Stephen-Dinwiddie | Andrew-Salner | Wendy-Slutske | Mirjana-Domakonda-2 | Ilene-Staff | Edmund-Takata | Alison-Champagne | Joseph-Tortora | Pavlos-Papasavas | Witold-Waberski | Alexandre-Todorov | Ray-Mckay | Rose-Maljanian | Joseph-Wagner-3 | Darren-Tishler-2 | Janet-Ng-2 | Ajay-Kumar-152 | Jason-Frankel | Julia-Grant-4 | Stephen-Thompson-24 | Richard-Gannon-2035199071 | Andrea-Stone-2037728405 | Scott-Wiener-2044045057 | Peter-Haddock-2054935176 | Rita-Kornblum-2055948338 | Sally-Strange-2083627661 | Richard-Kershen-2105200763 | Ulysses-Wu-2113594394 | Matthew-Belanger-2125871494 | Syed-Alam-2140746833 | Madison-OBrien-2149165715 | Pavlos-K-Papasavas-2149166589 | Akshay-Gangakhedkar-2158831526 | Kevin-Pinto-2158844174 | Sean-Burn-2163591268 | Connie-Santana-2166071782 | Ifeoma-Mogor-2166080734 | David-Ahlborn-2200463641 | Dylan-Buller-2210874152 | Katherine-McCormack-34598342 | David-M-OSullivan-38405406 | Andrew-C-Heath-38928680 | Michael-P-Dunne-9676709</t>
+        </is>
+      </c>
+      <c r="I131" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="J131" s="3" t="inlineStr">
+        <is>
+          <t>John I Nurnberger | Kathleen K Bucholz | Paul L Nguyen | Adam P Dicker | Nikolaus Schultz | Firas Abdollah | Matthew R Cooperberg | Robert Jeffrey Karnes | Vesa K Kontinen | Cary R Savage | Elina M Tiippana | Amanda S Bruce | Felix KH Chun | Allan Geliebter | Daniel E Spratt | Michael Kattan | Stephen H Dinwiddie | Voleak Choeurng | Sarah Romans | Mani Menon | Sebastian Straube | Rae Frances Bell | Alan W Partin | Ilene Staff | Suneil Jain | Elai Davicioni | Leonard G Gomella | Arul M Chinnaiyan | José Eduardo Aguilar-Nascimento | Joaquin Mateo | Marianne Weiss | Zaid Haddad | Christine Buerki | Joseph A Caprini | Muhammad A Jawad | Bruce Trock | Andre F Teixeira | Quoc-Dien Trinh | Kasra Yousefi | Howard I Scher | Robert Den | Pierre Karakiewicz | Liying Zhang | Gerhard Prager | David Finkelhor | Johann de Bono | Elina Christine Victoria Brinck | Paul Mullen | Wendy Slutske | Peter Scardino</t>
+        </is>
+      </c>
+      <c r="K131" s="3" t="n">
+        <v>72</v>
+      </c>
+      <c r="L131" s="3" t="inlineStr">
+        <is>
+          <t>Multidisciplinary prostate cancer consultation at home: Does the virtual visit platform adversely affect care for elderly patients or impact treatment recommendations? | MP44-08 RELATIONSHIP BETWEEN COVID 19 VACCINATION AND PSA LEVEL | MP12-12 RACIAL, ETHNIC, AND SEXUAL ORIENTATION REPRESENTATION ON ERECTILE DYSFUNCTION ACADEMIC WEBSITES | Prostate Cancer Detection and Complications of Transperineal versus Transrectal MRI-Fusion Guided Prostate Biopsies | Outcomes over 20 years performing robot-assisted laparoscopic prostatectomy: a single-surgeon experience | Incidence of Hiatal Hernia Repair During Primary Bariatric Surgery Conversion: an Analysis of the 2020 MBSAQIP Database | 1305: ACUTE ISOLATED DIASTOLIC HYPOTENSION AND HISTORY OF SUBSTANCE ABUSE IN THE DEVELOPMENT OF DELIRIUM | The Effect of a Peritoneal Iliac Flap on Lymphocele Formation After Robotic Radical Prostatectomy: Results From the PLUS Trial | Enhanced Recovery After Surgery Is Associated with Reduced Hospital Length of Stay for Urgent or Emergency Isolated Coronary Artery Bypass Surgery At An Urban, Tertiary Care Teaching Hospital: An Interrupted Time Series Analysis With Propensity-Score Matching | What is the most effective way to ensure that patients successfully undergo germline testing for prostate cancer? | A randomized controlled trial of an enhanced recovery after surgery protocol in patients undergoing laparoscopic sleeve gastrectomy | Food cue reactivity in successful laparoscopic gastric banding: A sham-deflation-controlled pilot study | MP09-06 PROSTATE CANCER DETECTION AND COMPLICATIONS OF TRANSPERINEAL VERSUS TRANSRECTAL MRI-FUSION GUIDED PROSTATE BIOPSIES | PD60-05 A 20 YEAR FOLLOW-UP STUDY OF ONCOLOGIC OUTCOMES, QUALITY OF LIFE AND COMPLICATIONS IN PATIENTS UNDERGOING ROBOTIC RADICAL PROSTATECTOMY | Outcomes of MRI fusion-guided versus systematic standard prostate biopsies | Enhanced Recovery After Surgery is Associated with Improved Outcomes and Reduced Racial and Ethnic Disparities Following Isolated Coronary Artery Bypass Surgery: A Retrospective Analysis with Propensity Score Matching | Factors Affecting Seroreversion by 6 months among Healthcare Workers in Connecticut | Utility of a Novel Scale to Assess Readiness for Discharge After Bariatric Surgery | Does post prostatectomy decipher score predict biochemical recurrence and impact care? | MP60-09 GERMLINE TESTING FOR PROSTATE CANCER: WHICH REFERRAL METHOD IS BEST? | A COVID-19 Pivot Plan to Resume Elective Surgeries at the Hartford Healthcare Connecticut Orthopaedic Institute | Use of EPIC 26 to identify men likely to benefit from surgical interventions for urinary incontinence after radical prostatectomy | Identification of a five gene signature to predict time to biochemical recurrence after radical prostatectomy | Seroprevalence of SARS-CoV-2 antibodies, associated epidemiological factors and antibody kinetics among healthcare workers in Connecticut | C Peptide Fails to Improve the Utility of the DiaRem Algorithm in Predicting Remission of Type II Diabetes After Bariatric Surgery | Use of the Urethral Sling to Treat Symptoms of Climacturia in Men After Radical Prostatectomy | V14-12 ROBOTICALLY ASSISTED SUPER-EXTENDED PELVIC LYMPH NODE DISSECTION FOR PROSTATE CANCER | PD54-07 DETECTION OF CLINICALLY SIGNIFICANT PROSTATE CANCER THROUGH MRI FUSION-GUIDED VS. SYSTEMATIC STANDARD PROSTATE BIOPSIES: A MULTI-INSTITUTIONAL REVIEW OF OUTCOMES | Use of an Endoscopic Suturing Platform for the Management of Staple Line Dehiscence After Laparoscopic Sleeve Gastrectomy | Caprini score and surgical times linked to the risk for venous thromboembolism after robotic-assisted radical prostatectomy | A161 A prospective randomized study of an Enhanced Recovery After Surgery (ERAS) pathway in patients undergoing laparoscopic sleeve gastrectomy | A260 An Interdisciplinary Team Approach for Bariatric Surgery Candidate Selection: 5-Year Outcomes | A557 Description and Implementation of a Novel Scale to Assess Readiness for Discharge after Bariatric Surgery | A160 Gastroesophageal reflux disease outcomes in patients undergoing laparoscopic sleeve gastrectomy and concurrent hiatal hernia repair | Comparison of Non-routine Healthcare Utilization in the 2 years Following Roux-En-Y Gastric Bypass and Sleeve Gastrectomy: A Cohort Study | Two Unique Cases of Peritoneal Carcinomatosis Following Robotic Assisted Radical Prostatectomy | Prostate cancer genomics: comparing results from three molecular assays | Impact of Urology Resident Involvement on intraoperative, Long-Term Oncologic and Functional Outcomes of Robotic Assisted Laparoscopic Radical Prostatectomy | Robot-assisted Sleeve Gastrectomy and Roux-en-Y Gastric Bypass: Results from the Metabolic and Bariatric Surgery Accreditation and Quality Improvement Program Data Registry | Return to work after robot-assisted laparoscopic prostatectomy versus radical retro-pubic prostatectomy | MBSAQIP National Registry Study of Sleeve Gastrectomy Outcomes in Patients Age 70 and Older | Effect of selected antidepressant drugs on weight loss post-bariatric surgery: a single-center, retrospective chart review | MBSAQIP National Registry Study of Robotic-assisted Outcomes in Patients Undergoing Sleeve Gastrectomy or Roux-en-Y Gastric Bypass | Pilot testing a mindfulness-based weight loss maintenance intervention to enhance outcomes after bariatric surgery | C-peptide fails to improve the utility of the DiaRem algorithm in predicting non-remission of type II diabetes after bariatric surgery | Timing of confirmatory biopsy in a prostate cancer active surveillance program: Does an earlier biopsy confer any benefit? | PD06-09 PROSTATE CANCER GENOMICS: COMPARING DECIPHER, PROLARIS, AND ONCOTYPEDX RESULTS | Outcomes of Bariatric Surgery in Patients with Multiple Sclerosis | Outcomes of Bariatric Surgery in Patients with Multiple Sclerosis | Outcomes of Bariatric Surgery in Patients with Multiple Sclerosis | NCCN Favorable Intermediate Risk Prostate Cancer Patients: Is Active Surveillance Appropriate? | A Double-Blind, Randomized Trial on the Efficacy and Safety of Hyperbaric Oxygenation Therapy in the Preservation of Erectile Function after Radical Prostatectomy | Health Care Resource Utilization Associated with Sleeve Gastrectomy Compared to Roux-en-Y Gastric Bypass | Use of an EUS-Based Management Strategy to Evaluate the Malignant Potential of Pancreatic Cysts: 822 | Incidence of Clinically Significant Prostate Cancer after a Diagnosis of Atypical Small Acinar Proliferation (ASAP), High Grade Prostatic Intraepithelial Neoplasia (HGPIN), or Benign Tissue | PD55-10 ONCOLOGIC OUTCOMES AFTER RADICAL PROSTATECTOMY IN FAVORABLE INTERMEDIATE RISK GROUP ACTIVE SURVEILLANCE CANDIDATES | MP47-17 CAPRINI SCORE PREDICTS VENOUS THROMBOEMBOLIC EVENTS IN PATIENTS UNDERGOING ROBOTIC ASSISTED PROSTATECTOMY | Barriers to Breastfeeding in a Resident Clinic | "Breathing should not be work": Evaluating an asthma awareness campaign in Hartford, CT | Prospective Outcome of BIRADS Category 3 "Probably Benign" Breast MRI Lesions | Evaluating the Availability and Use of Asthma Action Plans for School‐Based Asthma Care: A Case Study in Hartford, Connecticut | Contributions of parental alcoholism, prenatal substance exposure, and genetic transmission to child ADHD risk: A female twin study | "Getting the Lead Out" in Hartford, Connecticut: A Multifaceted Lead-Poisoning Awareness Campaign | Helping Americaʼs Homeless | The Secret Strength of Depression | Book Review: Adolescents, Alcohol and Substance Abuse: Reaching Teens Through Brief Interventions. Edited by Peter M. Monti, Suzanne M. Colby, and Tracy A. O'Leary, New York, The Guilford Press, 2001, 350 pp., ISBN 1-57230-658-0 (Hardback) | Association Between Self-reported Childhood Sexual Abuse and Adverse Psychosocial Outcomes | Childhood sexual abuse and pathogenic parenting in the childhood recollections of adult twin pairs | Resiliency factors protecting against teenage alcohol use and smoking: Influences of religion, religious involvement and values, and ethnicity in the Missouri Adolescent Female Twin Study | Gender Advertisements in Magazines Aimed at African Americans: A Comparison to Their Occurrence in Magazines Aimed at Caucasians | A behavioral genetic analysis of pregnancy block in Mus musculus | Census and Brief Assessment of the Homeless Populations and Supportive Housing of Hartford, Connecticut, 2005</t>
+        </is>
+      </c>
+      <c r="M131" s="3" t="inlineStr">
+        <is>
+          <t>Ethnicity</t>
+        </is>
+      </c>
+    </row>
+    <row r="132" ht="80" customHeight="1" s="4">
+      <c r="B132" s="3" t="inlineStr">
+        <is>
+          <t>Carmen Cadilla</t>
+        </is>
+      </c>
+      <c r="C132" s="3" t="inlineStr">
+        <is>
+          <t>Carmen-Cadilla</t>
+        </is>
+      </c>
+      <c r="E132" s="3" t="n">
+        <v>9208</v>
+      </c>
+      <c r="F132" s="3" t="n">
+        <v>1480</v>
+      </c>
+      <c r="G132" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="H132" s="3" t="inlineStr">
+        <is>
+          <t>Tanya-Rosado | Yacidzohara-Rodriguez | Richard-Seip | Ricardo-Gonzalez-Mendez | Walleska-De-Jesus | Loyda-Melendez | Andreas-Windemuth | Ruth-Leon-2 | Ruth-Pietri | Linda-Rivera-2 | Juan-Feliu | Juan-Lopez-Garriga | Magaly-Martinez-Ferrer | Ingrid-Montes-Rodriguez | Enid-Rivera | Jessicca-Renta | Giselle-Rivera-3 | Jorge-Duconge | Joel-Rivera-5 | Ines-Garcia-7 | Cunegundo-Vergara-2 | Liliana_Lojo | Lourdes-Garcia-Fragoso | Karla-Claudio | Gualberto-Ruano | Krystyna-Gorowski-15330880 | Iadelisse-Cruz-2003874933 | GV-Hillyer-2023695543 | Carmelo-Orengo-Mercado-2030532551 | Maria-M-Sanchez-Vazquez-2069714181 | Krizia-Rohena-Rivera-2069738549 | Pedro-J-Santiago-2099847800 | Laura-B-Granell-Ortiz-2253167957 | Enid-Rivera-Caragol-33917161 | Sonia-I-Ramirez-37797902 | Paola-Piovanetti-38209380 | Mohan-Kocherla-38576850 | Kali-Bogaard-38593739 | Ariel-Lewis-38701111 | Natalio-J-Izquierdo-39051572 | Robert-J-Desnick-39162268 | Pedro-J-Santiago-Borrero-39947016 | Erick-Suarez-44233554 | Hector-L-Franco-45292491 | Yirelia-Alejandro-Cowan-71303140 | Giselle-Rivera-Miranda-71531484 | Alga-Ramos-71565151 | Jose-Casasnovas-75974962 | Joan-Vazquez-84461392 | Ivette-Valentin-84467444</t>
+        </is>
+      </c>
+      <c r="I132" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="J132" s="3" t="inlineStr">
+        <is>
+          <t>Richard Spritz | Eric Olson | Munir Pirmohamed | Richard L. Seip | William Rodriguez-Cintron | Esteban González Burchard | Mia Wadelius | Russ B Altman | Menico Rizzi | Nita A Limdi | Rima Rozen | Niclas Eriksson | Martino Bolognesi | Loyda M Meléndez | Jonatan D Lindh | Elad Ziv | Beatrice A Wittenberg | Henk J Blom | Andreas Windemuth | Rick A Kittles | Larisa Humma Cavallari | Edith A Nutescu | Laurent Kiger | Stuart A Scott | Ruth Pietri | Shital Patel | John S. Olson | Mark W Linder | Juan López-Garriga | Stephen F Altschul | Anthony B Firulli | Serge N Vinogradov | Ming Ta Michael Lee | Jose F Cerda | Jessicca Renta | Roland Valdes | Jonathan B Wittenberg | Jeffrey Lance Anderson | Jorge Duconge | Shweta Choudhry | Alessandro Coda | Gualberto Ruaño | Charles Eby | Walleska De Jesus | Allan Rettie | William Gahl | Ruth Leon | Brian Gage | Stephen Kimmel | Mark Shriver</t>
+        </is>
+      </c>
+      <c r="K132" s="3" t="n">
+        <v>229</v>
+      </c>
+      <c r="L132" s="3" t="inlineStr">
+        <is>
+          <t>Incidence and Mortality Rates for Childhood Acute Lymphoblastic Leukemia in Puerto Rican Hispanics, 2012–2016 | Bioinformatic Characterization and Molecular Evolution of the Lucina pectinata Hemoglobins | Mapping the human genetic architecture of COVID-19 | Expression Profiling Identifies TWIST2 Target Genes in Setleis Syndrome Patient Fibroblast and Lymphoblast Cells | Puerto Rico-INBRE Metabolomics Research Core | Genetic Testing of a Puerto Rican Family Trio with Oculocutaneous Albinism Type 1B Reveals a Misdiagnosis of Hermansky‐Pudlak Syndrome | Abstract 4198: Epidemiological and molecular analysis of acute lymphoblastic leukemia in the pediatric population of Puerto Rico | Abstract 4198: Epidemiological and molecular analysis of acute lymphoblastic leukemia in the pediatric population of Puerto Rico | Binding affinity of TWIST2 wild type and mutant proteins and their potential role in the Barber‐Say Syndrome | Bleeding Assessment in female patients with the Hermansky-Pudlak syndrome - A Case Series | Characterization of Histone Genes from the Bivalve Lucina Pectinata | Supplementary Material | Identification of Immunoglobulin E-Binding Proteins of the Xerophilic Fungus Aspergillus penicillioides Crude Mycelial Mat Extract and Serological Reactivity Assessment in Subjects with Different Allergen Reactivity Profiles | De Novo Assembly of Lucina pectinata Genome using Ion Torrent Reads | Warfarin Anticoagulation Therapy in Caribbean Hispanics of Puerto Rico: A Candidate Gene Association Study | fphar-347 data sheet 1 | Supplementary Material | Correction: Evolution of the Twist Subfamily Vertebrate Proteins: Discovery of a Signature Motif and Origin of the Twist1 Glycine-Rich Motifs in the Amino-Terminus Disordered Domain | Correction: Evolution of the Twist Subfamily Vertebrate Proteins: Discovery of a Signature Motif and Origin of the Twist1 Glycine-Rich Motifs in the Amino-Terminus Disordered Domain. | Evolution of the Twist Subfamily Vertebrate Proteins: Discovery of a Signature Motif and Origin of the Twist1 Glycine-Rich Motifs in the Amino-Terminus Disordered Domain | S1 Fig | S2 Fig | Abstract 144: Gene expression analysis of HPV negative and HPV positive penile cancer | Abstract 79: Andrographolide alters genes associated with DNA repair in prostate cancer | Abstract 85: Macrophage inflammatory protein-1β and interleukin 15 modulate gene expression patterns associated with prostate cancer progression | Pathway Analysis using Gene-expression Profiles of HPV-positive and HPV-negative Oropharyngeal Cancer Patients in a Hispanic Population: Methodological Procedures | Characterization and Expression of the Lucina pectinata Oxygen and Sulfide Binding Hemoglobin Genes | S2 Fig | S3 Fig | S1 Fig | S5 Fig | S4 Fig | S1 File | A Novel Admixture-Based Pharmacogenetic Approach to Refine Warfarin Dosing in Caribbean Hispanics. | A Novel Admixture-Based Pharmacogenetic Approach to Refine Warfarin Dosing in Caribbean Hispanics | S1 Text | S2 Text | S3 Text | S4 Text | Molecular Cloning and Characterization of a (Lys)6-Tagged Sulfide-Reactive Hemoglobin I from Lucina pectinata | Supplementary material 1 | Pharmacogenetics of healthy volunteers in Puerto Rico | Why admixture matters in genetically-guided therapy: Missed targets in the COAG and EU-PACT trials | Comparative Analysis of the Amino Terminus Region of Twist1 and Twist2 Proteins | Pharmacogenetics of drug-metabolizing enzymes in US Hispanics | Setleis syndrome: Clinical, molecular and structural studies of the first TWIST2 missense mutation | Pharmacogenetic Association Study of Warfarin Safety Endpoints in Puerto Ricans | Pharmacogenetic-Driven Warfarin Dosing Algorithm in Puerto Ricans | Ocular Findings in Patients with the Hermansky-Pudlak Syndrome (Types 1 and 3) | Bioinformatic characterization of Lucina pectinata hemoglobins (778.9) | Biochemical and biophysical insights into the function of the bHLH transcription factor TWIST2 (946.8) | A bioinformatic analysis of the vertebrate Twist protein family (778.5) | CYP2C9*8 frequency distribution in Puerto Ricans: implications for warfarin dosing (1141.10) | CYP2D6's functional status associated with the length of hospitalization stay in psychiatric patients: A twist in the tale or evidence that matters? | Ocular findings in patients with oculocutaneous albinism type ia with G47D tyrosinase gene mutation in Puerto Rico: a case report | Mechanism of gene regulation employed by the bHLH transcription factor TWIST2: Repression of the CHRDL1 gene | Regulation of hemoglobin gene expression in the clam Lucina pectinata | Frequencies of Functional Polymorphisms in Three Pharmacokinetic Genes of Clinical Interest within the Admixed Puerto Rican Population | Development of a pharmacogenetic-guided warfarin dosing algorithm for Puerto Rican patients | A divalent interaction between HPS1 and HPS4 is required for the formation of the Biogenesis of Lysosome-related Organelle Complex -3 (BLOC-3) | P42 Gene expression profiles of H2S and O2-binding hemoglobins of the clam Lucina pectinata | P58 Hemoglobin I mutants from Lucina pectinata to study the role of the distal residues in the sulfheme formation | P49 (Lys)-tagged sulfide-reactive hemoglobin I from Lucina pectinata designed for covalent immobilization | Dysregulation of Macrophage-Secreted Cathepsin B Contributes to HIV-1-Linked Neuronal Apoptosis | Figure S1 | Figure S2 | A Pharmacogenetic Safety Profile of Puerto Ricans On Warfarin Therapy | Role of the TWIST proteins and ADD1 in the regulation of the CHRDL1 gene | Gene expression levels of the three hemoglobins of the clam Lucina pectinata differ between different tissues | The Role of Folic Acid in the Prevention of Neural Tube Defects | The role of folic acid in the prevention of neural tube defects. In Neural Tube Defects-Role of Folate, Prevention Strategies and Genetics . www.intechweb.org ISBN 979-953-307-080-2. - García-Fragoso L, García García I, Cadilla C. | Prediction of Warfarin Dose Reductions in Puerto Rican Patients, Based on Combinatorial CYP2C9 and VKORC1 Genotypes | Nonsense mutations of the bHLH transcription factor TWIST2 found in Setleis Syndrome patients cause dysregulation of periostin | Prevalence of a Loss-of-Function Mutation in the Proton-Coupled Folate Transporter Gene (PCFT-SLC46A1) Causing Hereditary Folate Malabsorption in Puerto Rico | A nonsense mutation of the bHLH transcription factor TWIST2 found in Setleis Syndrome patients causes dysregulation of the human periostin gene | Asymptomatic Child Heterozygous for Hemoglobin S and Hemoglobin Porto Alegre | Redundant or separate entities?—Roles of Twist1 and Twist2 as molecular switches during gene transcription | CYP2C9 and VKORC1 Genotypes in Puerto Ricans: A Case for Admixture-Matching in Clinical Pharmacogenetic Studies | Homozygous Nonsense Mutations in TWIST2 Cause Setleis Syndrome | Newborn Screening for Hermansky-Pudlak Syndrome Type 3 in Puerto Rico | Divalent interaction between HPS1 and HPS4 to form the Biogenesis of Lysosome‐related Organelles 3 (BLOC‐3) | Restricted HIV-1 replication in placental macrophages is caused by inefficient viral transcription | MTHFR polymorphisms in Puerto Rican children with isolated congenital heart disease and their mothers | Recombinant Hemoglobin II From Lucina pectinata: A Large-Scale Method For Hemeprotein Expression in E. coli | The bHLH Protein Twist2 Regulates Expression of the CHRDL1 (Chordin-like 1) Gene in Human Skin Fibroblasts | Prevalence of combinatorial CYP2C9 and VKORC1 genotypes in Puerto Ricans: Implications for warfarin management in hispanics | For the patient. DNA makeup of Hispanic persons should be determined before warfarin prescription. | Factors Controlling the Reactivity of Hydrogen Sulfide with Hemeproteins | Physiogenomic analysis of the Puerto Rican population | The bHLH protein Twist2 regulates expression of the CHRDL1 (Chordin‐like 1) gene in human skin fibroblasts | Periostin gene expression is regulated by the bHLH transcription factor TWIST2 in human skin fibroblasts | Prevalence of CYP2C19 Gene Polymorphisms in the Puerto Rican Population: a Preliminary Report | Structure and Ligand Selection of Hemoglobin II from Lucina pectinata | The genes coding for the Lucina pectinata oxygen reactive binding hemoglobins have different structures | Characterization of the full length mRNA coding for Lucina pectinata HbIII revealed an alternative polyadenylation site | Puerto rican child with combined heterozygocity for hemoglobin S and Porto Alegre | Puerto Rican Child with Combined Heterozygocity for Hemoglobin S and Porto Alegre. | Foveal thickness and macular volume in patients with oculocutaneous Albinism | Lucina pectinata hemoglobin III mRNA, complete cds | Newborn Screening for Hermansky-Pudlak Syndrome Type 3 in Puerto Rico.</t>
+        </is>
+      </c>
+      <c r="M132" s="3" t="inlineStr">
+        <is>
+          <t>Agarose Gel Electrophoresis | Cloning | Molecular Genetics | PCR | DNA | RNA | Gene Expression | RNA Isolation | DNA Sequencing | DNA Extraction</t>
+        </is>
+      </c>
+    </row>
+    <row r="133" ht="80" customHeight="1" s="4">
+      <c r="B133" s="3" t="inlineStr">
+        <is>
+          <t>Jeff S Volek</t>
+        </is>
+      </c>
+      <c r="C133" s="3" t="inlineStr">
+        <is>
+          <t>Jeff-Volek</t>
+        </is>
+      </c>
+      <c r="D133" s="3" t="inlineStr">
+        <is>
+          <t>The Ohio State University</t>
+        </is>
+      </c>
+      <c r="E133" s="3" t="n">
+        <v>325289</v>
+      </c>
+      <c r="F133" s="3" t="n">
+        <v>25477</v>
+      </c>
+      <c r="G133" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="H133" s="3" t="inlineStr">
+        <is>
+          <t>Bradley-Nindl | Keijo-Haekkinen | James-Mccarter-2 | Lawrence-Armstrong | Robert-Newton-4 | Lincoln-Gotshalk | Craig-Denegar | Gwendolyn-Thomas | Margot-Putukian | Richard-Wood-15 | Matthew-Sharman-3 | Carl-Maresh-2 | Elaine-Lee-9 | Stephen-Phinney | Timothy-Scheett | Disa-Hatfield-2 | Cassandra-Forsythe | Shawn-Flanagan | Maren-Fragala | Duncan-French-2 | Maria-Fernandez-97 | Shaminie-Athinarayanan | Barry-Spiering-2 | William-Dupont-3 | Amy-Mckenzie-2 | Ricardo-Silvestre-4 | William-Kraemer | Nicholas-Ratamess-2 | Courtenay-Dunn-Lewis | David-Hooper | Ana-Gomez-96 | Jeffrey-Anderson-16 | Tunde-Szivak-2 | Emily-Post-3 | Sarah-Hallberg | Lydia-Caldwell | Jill-Bush | Jakob-Vingren | Kevin-Ballard | Brittanie-Volk | Richard-S-Bruno-13409645 | Scott-E-Gordon-2050606693 | William-J-Kraemer-2144149812 | Martyn-R-Rubin-34925450 | Jen-Yu-Ho-38546979 | Daniel-A-Judelson-38622551 | Michael-J-Puglisi-39816263 | Erin-E-Quann-39872099 | Brett-A-Comstock-43016904</t>
+        </is>
+      </c>
+      <c r="I133" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="J133" s="3" t="inlineStr">
+        <is>
+          <t>Brittanie M Volk | George Blackburn | Ronald M Krauss | Wayne Sebastianelli | Robert Usher Newton | Lincoln A Gotshalk | Jay R Hoffman | Richard D Feinman | Margot Putukian | James O Hill | Richard J Wood | Matthew J Sharman | Carl M Maresh | Timothy P Scheett | Richard Feinman | Andrew C. Fry | Michael Henry Stone | Stephen Phinney | Carl Maresh | Maren S Fragala | Duncan N French | Paul L Greenhaff | Maria Luz Fernandez | Bruce R Bistrian | Mark Tarnopolsky | Markku Alén | David L Costill | Wes c Hymer | Eric C Westman | Ricardo Silvestre | William J Kraemer | Peter Frykman | Nicholas Ratamess | John A Hawley | Ana Lourdes Gomez | Jeffrey Anderson | Joe Dziados | Doug Bibus | William J Evans | Jill Bush | Jakob L Vingren | Kevin Ballard | Bradley Nindl | Keijo Häkkinen | Lawrence Armstrong | Eugene Fine | David Ludwig | Stephen Phinney | Cassandra Forsythe | Barry A. Spiering</t>
+        </is>
+      </c>
+      <c r="K133" s="3" t="n">
+        <v>553</v>
+      </c>
+      <c r="L133" s="3" t="inlineStr">
+        <is>
+          <t>62-LB: Sleep Improves over Five Years of Very Low Carbohydrate Nutrition Therapy for Prediabetes Delivered by Continuous Remote Care | Applying a nutrition security lens to the Dietary Guidelines for Americans to address metabolic health | Low carbohydrate high fat ketogenic diets on the exercise crossover point and glucose homeostasis | Metabolic and ruck performance effects of a novel, light‐weight, energy‐dense ketogenic bar | Fasting and Diurnal Blood Ketonemia and Glycemia Responses to a Six-Week, Energy-Controlled Ketogenic Diet, Supplemented with Racemic R/S-BHB Salts | Low and high carbohydrate isocaloric diets on performance, fat oxidation, glucose and cardiometabolic health in middle age males | Effects of Hypocaloric Low-Fat, Ketogenic and Ketogenic &amp; Ketone Supplement diets on Aldosterone and Renin | The effects of a 6-week controlled, hypocaloric ketogenic diet, with and without exogenous ketone salts, on cognitive performance and mood states in overweight and obese adults | Effects Of Floatation Therapy On Endogenous Opioid Peptides After Resistance Exercise In Men: 1847 | Influence of Nutritional Ketosis Achieved through Various Methods on Plasma Concentrations of Brain Derived Neurotropic Factor | Arousal/Stress Effects of “Overwatch” eSports Game Competition in Collegiate Gamers | An analysis of the recent U.S. dietary guidelines process in light of its federal mandate and a National Academies report | Competing paradigms of obesity pathogenesis: energy balance versus carbohydrate-insulin models | The Effects of Resistance Training on Physical Fitness and Neuromotor-Cognitive Functions in Adults With Down Syndrome | 1176-P: A Population Shift in Meeting Glycemic Targets Following Five Years of a Very-Low-Carbohydrate Intervention (VLCI) and Continuous Remote Care (CRC) | 59-OR: Long-Term Sustainability and Durability of Diabetes Prevention via Nutritional Intervention | 212-OR: Five-Year Follow-Up of Lipid, Inflammatory, Hepatic, and Renal Markers in People with T2 Diabetes on a Very-Low-Carbohydrate Intervention Including Nutritional Ketosis (VLCI) via Continuous Remote Care (CRC) | 832-P: Five-Year Weight and Glycemic Outcomes following a Very-Low-Carbohydrate Intervention Including Nutritional Ketosis in Patients with Type 2 Diabetes | Acute Floatation-REST Improves Perceived Recovery Following a High-Intensity Resistance Exercise Stress in Trained Men | Continuous care intervention with carbohydrate restriction improves physical function of the knees among patients with type 2 diabetes: a non-randomized study | Bis Hexanoyl (R)-1,3-Butanediol, a Novel Ketogenic Ester, Acutely Increases Circulating r - and s -ß-Hydroxybutyrate Concentrations in Healthy Adults | The Effects of Carbohydrate versus Fat Restriction on Lipid Profiles in Highly Trained, Recreational Distance Runners: A Randomized, Cross-Over Trial | Reply to A Drewnowski et al, O Devinsky, D A Booth and E L Gibson, and D J Millward | Alternative Dietary Patterns for Americans: Low-Carbohydrate Diets | Dietary Saturated Fats and Health: Are the U.S. Guidelines Evidence-Based? | The carbohydrate-insulin model: A physiological perspective on the obesity pandemic | Treating Alpelisib-Induced Hyperglycemia with Very Low Carbohydrate Diets and Sodium-Glucose Co-Transporter 2 Inhibitors: A Case Series | Effects of Palm Stearin versus Butter in the Context of Low-Carbohydrate/High-Fat and High-Carbohydrate/Low-Fat Diets on Circulating Lipids in a Controlled Feeding Study in Healthy Humans | Hormonal stress responses of growth hormone and insulin-like growth factor-I in highly resistance trained women and men | Acute Effects of High-intensity Resistance Exercise on Cognitive Function | Predictors of Normalization of Fasting Glucose in Patients With Prediabetes Using Remote Continuous Care Emphasizing Low Carbohydrate Intake | The Effects of a 6-Week Controlled, Hypocaloric Ketogenic Diet, With and Without Exogenous Ketone Salts, on Body Composition Responses | Comparison of Ketogenic Diets with and without Ketone Salts versus a Low-Fat Diet: Liver Fat Responses in Overweight Adults | Type 2 Diabetes Prevention Focused on Normalization of Glycemia: A Two-Year Pilot Study | Differences in Brain Structure and Theta Burst Stimulation-Induced Plasticity Implicate the Corticomotor System in Loss of Function after Musculoskeletal Injury | Correction to: Impact of a 2‑year trial of nutritional ketosis on indices of cardiovascular disease risk in patients with type 2 diabetes | Impact of a 2-year trial of nutritional ketosis on indices of cardiovascular disease risk in patients with type 2 diabetes | Recovery using “float” from high intensity stress on growth hormone-like molecules in resistance trained men | Body Composition in Elite Strongman Competitors | A ketogenic diet combined with exercise alters mitochondrial function in human skeletal muscle while improving metabolic health | Impact of A Two-Year Trial of Nutritional Ketosis on Indices of Cardiovascular Disease Risk in Patients With Type 2 Diabetes | Low carbohydrate diet: are concerns with saturated fat, lipids, and cardiovascular disease risk justified? | Dietary Recommendations for Familial Hypercholesterolaemia: an Evidence-Free Zone | The Effects Of Mode Of Rehydration On Stress Hormone Respsonse To Subsequent Maximal Intensity Exercise In The Heat.: 1834 Board #5 May 28 1:30 PM - 3:30 PM | The Influence Of Flotation Restricted Environmental Stimulation Therapy On Recovery From High Intensity Resistance Exercise: 189 Board #5 May 27 9:30 AM - 11:00 AM | Lean Mass Changes After 10-week Resistance Training Intervention In Adults With Down Syndrome: 335 Board #151 May 27 10:30 AM - 12:00 PM | Resistance Training and Milk-Substitution Enhance Body Composition and Bone Health in Adolescent Girls | 65-LB: Regression of Prediabetes following Two Years Treatment with a Continuous Care Intervention Emphasizing Carbohydrate Restriction: A Single-Arm, Prospective, Longitudinal Study | Saturated Fats and Health: A Reassessment and Proposal for Food-Based Recommendations: JACC State-of-the-Art Review | SAT-LB125 Broad Spectrum Effects of a Ketogenic Diet Delivered by Remote Continuous Care on Inflammation and Immune Modulators in Type 2 Diabetes and Prediabetes | MON-LB106 The Effect of the Ketogenic Diet on Aldosterone Over 6 Weeks | SUN-LB113 A Continuous Remote Care Intervention Utilizing Carbohydrate Restriction Including Nutritional Ketosis Improves Markers of Metabolic Risk and Reduces Diabetes Medication Use in Patients With Type 2 Diabetes Over 3.5 Years | A Pre-Workout Supplement of Ketone Salts, Caffeine, and Amino Acids Improves High-Intensity Exercise Performance in Keto-Naïve and Keto-Adapted Individuals | Quantification of Human Central Adipose Tissue Depots: An Anatomically Matched Comparison Between DXA and MRI | Extended Ketogenic Diet and Physical Training Intervention in Military Personnel | Dietary carbohydrate restriction improves metabolic syndrome independent of weight loss | Long-Term Effects of a Novel Continuous Remote Care Intervention Including Nutritional Ketosis for the Management of Type 2 Diabetes: A 2-Year Non-randomized Clinical TrialData_Sheet_1.pdf | The Effects of Mode of Rehydration on Subsequent Exercise-heat Challenge Performance: 2063 Board #219 May 30 2:00 PM - 3:30 PM | Changes of Hydration Measures in Elite National Collegiate Athletic Association Division I Wrestlers | Extended Ketogenic Diet and Physical Training Intervention in Military Personnel | Improvement in Patient-Reported Sleep in Type 2 Diabetes and Prediabetes Participants Receiving a Continuous Care Intervention with Nutritional Ketosis | Ketogenic Diet Potential Benefits to Warfighter Health and Performance | Corrigendum to “Dietary carbohydrate restriction as the first approach in diabetes management: Critical review and evidence base” [Nutrition 31 (2015) 1-13] | Post hoc analyses of surrogate markers of non-alcoholic fatty liver disease (NAFLD) and liver fibrosis in patients with type 2 diabetes in a digitally supported continuous care intervention: An open-label, non-randomised controlled study | Physiological Basis for Creatine Supplementation in Skeletal Muscle and the Central Nervous System | Physiological Basis for Creatine Supplementation in Skeletal Muscle and the Central Nervous System | LB-28 Continuous Care Intervention in Type 2 Diabetes Sustains Liver Biomarker Improvement and Long-Term Resolution of Visceral Adiposity at 2 Year Follow-up | Long-Term Effects of a Novel Continuous Remote Care Intervention Including Nutritional Ketosis for the Management of Type 2 Diabetes: A 2-year Non-randomized Clinical Trial.: | Post-hoc analyses of Surrogate Markers of Non-Alcoholic Fatty Liver Disease (NAFLD) and Liver Fibrosis in Patients with Type 2 Diabetes in a Digitally-Supported Continuous Care Intervention: An Open Label, Non-Randomized, Controlled Study | Dietary fat: From foe to friend? | Paradox of hypercholesterolaemia in highly trained, keto-adapted athletes | Dairy Milk proteins attenuate hyperglycemia-induced impairments in vascular endothelial function in adults with Prediabetes by limiting increases in Glycemia and oxidative stress that reduce nitric oxide bioavailability | Co-ingestion of whole eggs or egg whites with glucose protects against postprandial hyperglycaemia-induced oxidative stress and dysregulated arginine metabolism in association with improved vascular endothelial function in prediabetic men | Improvement in Patient-Reported Sleep in Type 2 Diabetes and Prediabetes Participants Receiving a Continuous Care Intervention with Nutritional Ketosis | Cardiovascular disease risk factor responses to a type 2 diabetes care model including nutritional ketosis induced by sustained carbohydrate restriction at 1 year: An open label, non-randomized, controlled study | 359 - Digitally Supported Continuous Care Intervention Through Individualized Carbohydrate Restriction Significantly Improves Liver Enzymes and Surrogate Markers of Nonalcoholic Fatty Liver Disease and Advanced Liver Fibrosis in Patients with type 2 Diabetes | Supplementary Material 1 | Supplementary Material 2 | Supplementary Material 3 | Acute Resistance Exercise on Bioactive and Immunoreactive Growth Hormone in Women.: 2423 Board #259 June 1 9 | Influence of Body Fat on Bioactive and Immunoreactive Growth Hormone Exercise Responses in Women: 3337 Board #206 June 2 9 | Adrenal Stress and Performance during Military Survival Training: 2949 Board #232 June 1 3 | Continuous Remote Care Model Utilizing Nutritional Ketosis Improves Type 2 Diabetes Risk Factors in Patients with Prediabetes | Supplementary Material | Supplementary Material | Author Correction: Effectiveness and Safety of a Novel Care Model for the Management of Type 2 Diabetes at 1 Year: An Open-Label, Non-Randomized, Controlled Study | Cardiovascular Disease Risk Factor Response to a Type 2 Diabetes Care Model Including Nutritional Ketosis at One Year* | Cardiovascular Disease Risk Factor Responses to a Type 2 Diabetes Care Model Including Nutritional Ketosis at One Year: An Open Label, Non-Randomized, Controlled Study | Nutritional Ketosis and Mitohormesis: Potential Implications for Mitochondrial Function and Human Health | Effectiveness and Safety of a Novel Care Model for the Management of Type 2 Diabetes at 1 Year: An Open-Label, Non-Randomized, Controlled Study | Replacing carbohydrate during a glucose challenge with the egg white portion or whole eggs protects against postprandial impairments in vascular endothelial function in prediabetic men by limiting increases in glycaemia and lipid peroxidation | The Effects of a Korean Ginseng, GINST15, on Hypo-Pituitary-Adrenal and Oxidative Activity Induced by Intense Work Stress | Dairy Milk, Regardless Of Fat Content, Protects Against Postprandial Hyperglycemia-Mediated Oxidative Stress, Dysregulated Arginine Metabolism And Increases In Endothelin-1 In Prediabetic Adults | Relationships between hydration biomarkers and total fluid intake in pregnant and lactating women | Endocrinological Roles for Testosterone in Resistance Exercise Responses and Adaptations | The presence of symptoms of testosterone deficiency in the exercise-hypogonadal male condition and the role of nutrition | Injury-Related Reductions in Skilled Visuomotor Learning Revealed by Single Trial Analysis and Response Time Variability: 848 Board #27 May 31 2 | Unique Leg-specific Executive And Motor BOLD Activity With Visually-guided Imagery Following ACL Injury: 849 Board #28 May 31 2 | Whey And Casein In Non-Fat Dairy Milk Protect Against Postprandial Hyperglycemia-Mediated Dysregulated Arginine Metabolism In Prediabetic Adults | The Effects of Ketogenic Dieting on Body Composition, Strength, Power, and Hormonal Profiles in Resistance Training Males</t>
+        </is>
+      </c>
+    </row>
+    <row r="134" ht="80" customHeight="1" s="4">
+      <c r="B134" s="3" t="inlineStr">
+        <is>
+          <t>Haruhiko Koseki</t>
+        </is>
+      </c>
+      <c r="C134" s="3" t="inlineStr">
+        <is>
+          <t>Haruhiko-Koseki</t>
+        </is>
+      </c>
+      <c r="D134" s="3" t="inlineStr">
+        <is>
+          <t>RIKEN</t>
+        </is>
+      </c>
+      <c r="E134" s="3" t="n">
+        <v>72292</v>
+      </c>
+      <c r="F134" s="3" t="n">
+        <v>46456</v>
+      </c>
+      <c r="G134" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="H134" s="3" t="inlineStr">
+        <is>
+          <t>Motohiko-Oshima | Mitsuhiro-Endoh | Yasushi-Okazaki | Seishi-Ogawa | Takashi-Saito-10 | Piero-Carninci | Shin-Ichiro-Fujii | Toshiyuki-Fukada | Hisahiro-Yoshida | Hiroshi-Watarai | Masashi-Sanada | Takuji-Shirasawa | Takaho-Endo | Toshinori-Nakayama | Osamu-Ohara | Hiromitsu-Nakauchi-2 | Rudi-Balling | Masakatsu-Yamashita | Jafar-Sharif-2 | Daisuke-Yamada-2 | Hiroshi-Ohno-2 | Shinsuke-Ito | Miguel-Vidal-4 | Masamoto-Kanno | Satoru-Miyagi | Yaeko-Nakajima-Takagi-14314776 | Y-Makino-2031888028 | Yoko-Koseki-2036935761 | Takashi-Kondo-2107729508 | M-Taniguchi-2163008510 | Takashi-Watanabe-2196288914 | Masashi-Matsuda-31485856 | Atsunori-Saraya-38167288 | Tetsuro-Toyoda-38269096 | Atsushi-Iwama-38711887 | Shuichi-Hiraoka-38727642 | Manabu-Nakayama-38883204 | Kyoichi-Isono-38895061 | Keisuke-Kataoka-38987249 | Yoko-Mizutani-Koseki-38996944 | Neil-Brockdorff-39068429 | Kenji-Imai-39192776 | Tomokatsu-Ikawa-39415170 | Kyo-ichi-Isono-39784178 | Masaru-Taniguchi-40015685 | Yuki-Takada-40044138 | Hiroshi-Kawamoto-45342692 | Tomoyuki-Ishikura-50607056 | Robert-J-Klose-63456 | Takeshi-Akasaka-67675251</t>
+        </is>
+      </c>
+      <c r="I134" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="J134" s="3" t="inlineStr">
+        <is>
+          <t>Miguel Vidal | Masamoto Kanno | Bodo Christ | Piero Carninci | Toshiyuki Fukada | Kristian Helin | Adrian P Bracken | Manching Ku | Maarten van Lohuizen | Takaho A Endo | Hengbin Wang | Osamu Ohara | George W Bell | Rudolf Jaenisch | Stuart S Levine | Raphael Margueron | Chad Nusbaum | Hiromitsu Nakauchi | Danny Reinberg | Hideyuki Oguro | Rudi Balling | Antoine H F M Peters | Masakatsu Yamashita | Jafar Sharif | Yoshihiro Takihara | Alistair Forrest | Jose CR Silva | Wendy A Bickmore | Tatyana B. Nesterova | Mark J Alkema | Hediye Erdjument-Bromage | David Gifford | Richard Jones | Diego Pasini | C. David Allis | Liangjun Wang | Laurie A Boyer | Neil Blackledge | Anca Farcas | Mitsuhiro Endoh | Hannah Katherine Long | Luciano Di Croce | Toshio Hirano | Sean J Morrison | Kathrin Plath | Ruth Appanah | Toshinori Nakayama | Adrian Bird | Irving Weissman | Paul Tempst</t>
+        </is>
+      </c>
+      <c r="K134" s="3" t="n">
+        <v>658</v>
+      </c>
+      <c r="L134" s="3" t="inlineStr">
+        <is>
+          <t>Requirement of zinc transporter ZIP10 for epidermal development: Implication of the ZIP10-p63 axis in epithelial homeostasis | Polycomb repressive complex 1.1 coordinates homeostatic and emergency myelopoiesis | Polycomb repressive complex 1.1 coordinates homeostatic and emergency myelopoiesis | Polycomb repressive complex 1.1 coordinates homeostatic and emergency myelopoiesis | Polycomb repressive complex 1.1 coordinates homeostatic and emergency myelopoiesis | UHRF1 is essential for proper cytoplasmic architecture and function of mouse oocytes and derived embryos | The histone H3K36 demethylase Fbxl11 plays pivotal roles in the development of retinal late-born cell types | Polycomb repressive complexes 1 and 2 are each essential for maintenance of X inactivation in extra-embryonic lineages | PCGF1-PRC1 links chromatin repression with DNA replication during hematopoietic cell lineage commitment | Structural basis for activation of DNMT1 | Cooperative Effects of SRSF2 and STAG2 mutations on Development of Myelodysplastic Syndrome and Its Related Disorders | Polycomb group protein BMI1 protects neuroblastoma cells against DNA damage-induced apoptotic cell death | Polycomb repressive complex 1.1 coordinates homeostatic and emergency myelopoiesis | HP1 deficiency results in De-Repression of Endogenous Retroviruses and Induction of Neurodegeneration via Complement | Multifaceted analysis of cross-tissue, cross-sectional and longitudinal transcriptomes reveals phenotype–endotype associations in atopic dermatitis. | PRC1-mediated epigenetic programming is required to generate the ovarian reserve | 712 UV-induced reduction in polycomb repression promotes epidermal pigmentation | P737: FUNCTIONAL ROLES OF DDX41 MUTATIONS IN THE DEVELOPMENT OF MYELOID MALIGNANCIES | Microbiota-Independent Spontaneous Dermatitis Associated With Increased Sebaceous Lipid Production in Tmem79-Deficient Mice | Structural basis for activation of DNMT1 | Genetic, Genomic, and Imaging Approaches to Dissect the Role of Polycomb Group Epigenetic Regulators in Mice | Establishment of mouse stem cells that can recapitulate the developmental potential of primitive endoderm | Insufficiency of non-canonical PRC1 synergizes with JAK2V617F in the development of myelofibrosis | Intracellular virus sensor MDA5 mutation develops autoimmune myocarditis and nephritis | IgM to IgG Class Switching Is a Necessary Step for Pemphigus Phenotype Induction in Desmoglein 3–Specific B Cell Receptor Knock-in Mouse | Establishment of a monoclonal antibody against human NTCP that blocks HBV infection | Repression of germline genes by PRC1.6 and SETDB1 in the early embryo precedes DNA methylation-mediated silencing | 41467_2021_27345_MOESM1_ESM.pdf | Essential Role of STAT3 Signaling in Hair Follicle Homeostasis | Functional Roles of DDX41 Mutations in the Development of Myeloid Malignancies | Osteoclasts adapt to physioxia perturbation through DNA demethylation | MORC3, a novel MIWI2 association partner, as an epigenetic regulator of piRNA dependent transposon silencing in male germ cells | Variant PCGF1-PRC1 links PRC2 recruitment with differentiation-associated transcriptional inactivation at target genes | UV-induced reduction in Polycomb repression promotes epidermal pigmentation | 3124 – POLYCOMB REPRESSIVE COMPLEX 1.1 INSUFFICIENCY PROMOTES THE DEVELOPMENT OF MYELOFIBROSIS | Inhibition of immunoglobulin class-switching prevents pemphigus onset in desmoglein 3-specific B cell receptor knock-in mouse | Maintenance DNA methylation in pre-meiotic germ cells regulates meiotic prophase by facilitating homologous chromosome pairing | Repression of germline genes by PRC1.6 and SETDB1 in the early embryo precedes DNA methylation-mediated silencing | Deficiency of TMEM53 causes a previously unknown sclerosing bone disorder by dysregulation of BMP-SMAD signaling | Staphylococcus cohnii is a potentially biotherapeutic skin commensal alleviating skin inflammation | Polycomb complexes redundantly maintain epidermal stem cell identity during development | Genetic background-dependent abnormalities of the enteric nervous system and intestinal function in Kif26a-deficient mice | Polycomb suppresses a female gene regulatory network in Sertoli cells | The Cxxc1 subunit of the Trithorax complex directs epigenetic licensing of CD4+ T cell differentiation | Regulation of Fetal Genes by Transitions among RNA-Binding Proteins during Liver Development | Publisher Correction: Tet2 and Tet3 in B cells are required to repress CD86 and prevent autoimmunity | MORC3, a novel MIWI2 association partner, is an epigenetic regulator of piRNA-dependent transposon silencing. | The Polycomb group protein Ring1 regulates dorsoventral patterning of the mouse telencephalon | Functional Characterization of Compound DDX41 Germline and Somatic R525H Mutations in the Development of Myeloid Malignancies | CXCR4-Expressing Anti-CD25 CAR T-Cells Effectively Eliminate Human AML Cells In Vivo | CDCA7 and HELLS suppress DNA:RNA hybrid-associated DNA damage at pericentromeric repeats | Author Correction: Pivotal role of CD103 in the development of psoriasiform dermatitis | Corrigendum: Functional annotation of human long noncoding RNAs via molecular phenotyping | Tet2 and Tet3 in B cells are required to repress CD86 and prevent autoimmunity | Functional annotation of human long noncoding RNAs via molecular phenotyping | Tet DNA demethylase is required for plasma cell differentiation by controlling expression levels of IRF4 | Pivotal role of CD103 in the development of psoriasiform dermatitis | In utero gene transfer system for embryos before neural tube closure reveals a role for Hmga2 in the onset of neurogenesis | Combined Cohesin-RUNX1 Deficiency Synergistically Perturbs Chromatin Looping and Causes Myelodysplastic Syndromes | Molecular pathogenesis of progression to myeloid leukemia from TET-insufficient status | Human Gain-of-Function STAT1 Mutation disturbs IL-17 Immunity in Mice | Variant Pcgf-PRC1 Regulates Susceptibility of PRC2 Mediated H3K27me3 to Safeguard B Cell Fate of Hematopoietic Stem/Progenitor Cells | Lack of whey acidic protein four disulphide core (WFDC) 2 protease inhibitor causes neonatal death from respiratory failure in mice | KDM2B in polycomb repressive complex 1.1 functions as a tumor suppressor in the initiation of T-cell leukemogenesis | PRC2.1 and PRC2.2 Synergize to Coordinate H3K27 Trimethylation | Phc2 controls hematopoietic stem and progenitor cell mobilization from bone marrow by repressing Vcam1 expression | KDM2 proteins constrain transcription from CpG island gene promoters independently of their histone demethylase activity | Mast cells play role in wound healing through the ZnT2/GPR39/IL-6 axis | Functional Annotation of Human Long Non-Coding RNAs via Molecular Phenotyping | Polycomb Repressive Complex 1 Controls Maintenance of Fungiform Papillae by Repressing Sonic Hedgehog Expression | Homeostatic pruning and activity of epidermal nerves are dysregulated in barrier-impaired skin during chronic itch development | BIOLOGICAL CHARACTERIZATION OF THE U2AF1 S34F MUTATION IN THE PATHOGENESIS OF MYELODYSPLASIA: S132 | The Polycomb group protein Ring1 regulates dorsoventral patterning of the mouse telencephalon | 287 Polycomb repressive complex 1 (PRC1) preserves epidermal tissue integrity independently of PRC2 | Human NK cell development in hIL-7 and hIL-15 knockin NOD/SCID/IL2rgKO mice | Reviewer comments | Synergy between Variant PRC1 Complexes Defines Polycomb-Mediated Gene Repression | KDM2 proteins constrain transcription from CpG island gene promoters independently of their histone demethylase activity | Supplementary Table S3 | Supplementary Table S1 | Supplementary Table S2 | Supplementary material | Supplementary Table S4 | Co-activation of macrophages and T cells contribute to chronic GVHD in human IL-6 transgenic humanised mouse model | PLD4 is a genetic determinant to systemic lupus erythematosus and involved in murine autoimmune phenotypes | PRC1 preserves epidermal tissue integrity independently of PRC2 | Ubiquitination-Independent Repression of PRC1 Targets during Neuronal Fate Restriction in the Developing Mouse Neocortex | Residual Wild-Type Tet2/Tet3 Allele Is the Savior Preventing Mouse Hematopoietic Progenitor Cells from Leukemia Development | Biological Characterization of the U2af1 S34F Mutation in the Pathogenesis of Myelodysplasia | Role of KDM2B and Non-Canonical PRC1.1 As a Tumor Suppressor in T-ALL | The Trithorax-Group Protein ASH1L Regulates Hematopoietic Stem Cell Homeostasis Independently of Its Histone Methyltransferase Activity | Insufficiency of Non-Canonical PRC1 Complex Cooperates with an Activating JAK2 Mutation in the Pathogenesis of Myelofibrosis | DNMTs and SETDB1 function as co-repressors in MAX-mediated repression of germ cell–related genes in mouse embryonic stem cells | S2 Fig | S4 Fig | S1 Table | S1 Fig | S5 Fig | S6 Fig | S7 Fig</t>
+        </is>
+      </c>
+      <c r="M134" s="3" t="inlineStr">
+        <is>
+          <t>Regulation of Gene Expression | Gene Regulation | Molecular Genetics | Transcriptional Regulation | Epigenetics | Gene Expression and Chromatin Biology | Genetic Analysis | Histone Modification | DNA Methylation | ChIP-Sequencing</t>
+        </is>
+      </c>
+    </row>
+    <row r="135" ht="80" customHeight="1" s="4">
+      <c r="B135" s="3" t="inlineStr">
+        <is>
+          <t>Changshan Wang</t>
+        </is>
+      </c>
+      <c r="C135" s="3" t="inlineStr">
+        <is>
+          <t>Changshan-Wang</t>
+        </is>
+      </c>
+      <c r="D135" s="3" t="inlineStr">
+        <is>
+          <t>Inner Mongolia University</t>
+        </is>
+      </c>
+      <c r="E135" s="3" t="n">
+        <v>3561</v>
+      </c>
+      <c r="F135" s="3" t="n">
+        <v>1053</v>
+      </c>
+      <c r="G135" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="H135" s="3" t="inlineStr">
+        <is>
+          <t>Motohiko-Oshima | Haruhiko-Koseki | Seishi-Ogawa | Hiroaki-Honda-2 | Shuhei-Koide | Kazumasa-Aoyama-2 | Ichiro-Taniuchi | Hiroshi-Kimura-4 | Chiaki-Nakaseko | Seishi-Kyoizumi | Hirotaka-Matsui | Emiko-Sakaida | Toshinori-Nakayama | Keiyo-Takubo | Makiko-Mochizuki | Tetsuhiro-Chiba | Hiroyuki-Hosokawa-2 | Tohru-Iseki | Hiromitsu-Nakauchi-2 | Yuta-Mishima | Yaeko-Nakajima-Takagi | Tomoya-Muto | Hironori-Harada | Masaharu-Akiyama | Satoshi-Yamazaki-3 | Satoru-Miyagi | Makiko-Yui-16037634 | Akinori-Kanai-2004127962 | Anqi-Ma-2006731301 | Naoya-Mimura-2008733868 | Ola-Rizq-2049983207 | Takahisa-Tomioka-2072733249 | Daisuke-Sato-2082332257 | Shogo-Yabata-2092960101 | Nagisa-Hasegawa-2163452946 | Atsunori-Saraya-38167288 | Yuko-Kato-38477685 | Atsushi-Iwama-38711887 | Goro-Sashida-39176419 | Kei-Nakachi-39403796 | Toshio-Suda-39583348 | Koutaro-Yokote-39594649 | Kazuya-Shimoda-39605261 | Yoichiro-Kusunoki-39705566 | Yoichi-Shinkai-39763615 | Mitsujiro-Osawa-39890480 | Kazue-Imai-40072368 | Naoto-Yamaguchi-57902539 | Satomi-Tanaka-57938731 | George-R-Wendt-75833718</t>
+        </is>
+      </c>
+      <c r="I135" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="J135" s="3" t="inlineStr">
+        <is>
+          <t>Miguel Vidal | Ryan Morin | Randy D Gascoyne | Seishi Ogawa | Jacqueline Boultwood | Ichiro Taniuchi | Pieter Van Vlierberghe | Charles G Mullighan | Chiaki Nakaseko | Masashi Sanada | Kristian Helin | Li Ding | Kristen Stevenson | Satoru Miyano | Tetsuhiro Chiba | Yuichi Shiraishi | Rudolf Jaenisch | Hiromitsu Nakauchi | Robert Fulton | Giuseppe Basso | Hideyuki Oguro | Mignon L Loh | Martin Hirst | Wilfried Ellmeier | Azra Raza | Yuta Mishima | Richard K Wilson | Tomoya Muto | Toshio Kitamura | Keith Humphries | Jean-Pierre Issa | Joseph Connors | Hironori Harada | Marco Marra | Stephen Nimer | Satoru Miyagi | Yusuke Shiozawa | Motohiko Oshima | Ari Melnick | Hiroyuki Aburatani | Haruhiko Koseki | Huafeng Xie | Genta Nagae | Torsten Haferlach | Sean J Morrison | Elaine Mardis | Makiko Mochizuki | Irving Weissman | Sumio Sugano | Tomokatsu Ikawa</t>
+        </is>
+      </c>
+      <c r="K135" s="3" t="n">
+        <v>40</v>
+      </c>
+      <c r="L135" s="3" t="inlineStr">
+        <is>
+          <t>UTX inactivation in germinal center B cells promotes the development of multiple myeloma with extramedullary disease | Supplemental Information.pdf | Activin A and BMP4 Signaling Expands Potency of Mouse Embryonic Stem Cells in Serum-Free Media | Ezh2 loss propagates hypermethylation at T cell differentiation–regulating genes to promote leukemic transformation | Triptonide inhibits the pathological functions of gastric cancer-associated fibroblasts | Recurrent SPI1 (PU.1) fusions in high-risk pediatric T cell acute lymphoblastic leukemia | Dual Inhibition of EZH2 and EZH1 Sensitizes PRC2-Dependent Tumors to Proteasome Inhibition | Molecular Mechanism behind the Synergistic Activity of Proteasome Inhibition and PRC2 Inhibition in the Treatment of Multiple Myeloma | Impact of combinatorial dysfunctions of Tet2 and Ezh2 on the epigenome in the pathogenesis of myelodysplastic syndrome | The loss of EZH2 cooperates with an active JAK2 mutant in the pathogenesis of myelofibrosis and sensitizes tumor-initiating cells to bromodomain inhibition | The loss of Ezh2 drives the pathogenesis of myelofibrosis and sensitizes tumor-initiating cells to bromodomain inhibition | Supplemental Materials | Histone acetylation mediated by Brd1 is crucial for Cd8 gene activation during early thymocyte development | Ezh2 regulates the Lin28/let-7 pathway to restrict activation of fetal gene signature in adult hematopoietic stem cells | Ezh2 Loss Promotes the Transformation of Early T Cell Precursor Leukemia Via Suppressing Critical Genes for T-Cell Differentiation | Combinatorial Epigenetic Aberration Propagates in Myelodysplastic Syndrome in the Setting of Concurrent Loss of Tet2 and Ezh2 | Histone methyltransferase Setdb1 regulates energy metabolism in hematopoietic stem and progenitor cells | Ezh2 loss promotes the transformation of early T cell precursor | HISTONE METHYLTRANSFERASE SETDB1 REGULATES ENERGY METABOLISM IN HEMATOPOIETIC STEM AND PROGENITOR CELLS | EZH2 loss in hematopoietic stem cells predisposes mice to develop heterogeneous malignancies in an EZH1-depenedent manner | Non-Lethal Ionizing Radiation Promotes Aging-Like Phenotypic Changes of Human Hematopoietic Stem and Progenitor Cells in Humanized Mice | 63 EZH2 LOSS PREDISPOSES TO HETEROGENEOUS HEMATOLOGICAL MALIGNANCIES | 177 EZH2 LOSS PROMOTES THE FORMATION OF MYELOFIBROSIS ACCOMPANIED WITH IMPAIRED ERYTHROPOIESIS | Histone acetylation mediated by Brd1 is crucial for Cd8 gene activation during early thymocyte development | Epigenetic Regulation of Hematopoietic Stem and Progenitor Cells By the Eset Histone Methyltranferas | Histone Acetylation Mediated by Brd1 Is Crucial for Cd8 Gene Activation during Early Thymocyte Development | Epigenetic Regulation of Hematopoietic Stem and Progenitor Cells By the Eset Histone Methyltranferas | Ezh2 Is Required for Developmental Stage-Specific Silencing of Oncofetal Genes in Hematopoietic Stem/Progenitor Cells | The Biological Function of DNA Hypermethylation in Murine MDS Model Lacking Tet2 and Ezh2 | Ezh2 loss promotes development of myelodysplastic syndrome but attenuates its predisposition to leukaemic transformation | Downregulation of rRNA Transcription Triggers Cell Differentiation | Depletion of Sf3b1 impairs proliferative capacity of hematopoietic stem cells but is not sufficient to induce myelodysplasia | The TIF1β-HP1 System Maintains Transcriptional Integrity of Hematopoietic Stem Cells | Pre-mRNA Splicing Factor Sf3b1 Regulates Proliferation and Survival Of Hematopoietic Stem and Progenitor Cells | Compromised hematopoiesis and increased DNA damage following non-lethal ionizing radiation of a human hematopoietic system reconstituted in immunodeficient mice | Table S1 | Ex Vivo Expansion of Human Hematopoietic Stem Cells by Garcinol, a Potent Inhibitor of Histone Acetyltransferase | Direct activation of STAT5 by ETV6-LYN fusion protein promotes induction of myeloproliferative neoplasm with myelofibrosis | Retrotransposon Silencing by DNA Methylation Can Drive Mammalian Genomic Imprinting | Figure S1</t>
+        </is>
+      </c>
+      <c r="M135" s="3" t="inlineStr">
+        <is>
+          <t>Myelodysplastic Syndromes | Hematopoiesis | Stem Cell Biology</t>
+        </is>
+      </c>
+    </row>
+    <row r="136" ht="80" customHeight="1" s="4">
+      <c r="B136" s="3" t="inlineStr">
+        <is>
+          <t>Martin Verkuyl</t>
+        </is>
+      </c>
+      <c r="C136" s="3" t="inlineStr">
+        <is>
+          <t>Martin-Verkuyl</t>
+        </is>
+      </c>
+      <c r="E136" s="3" t="n">
+        <v>5429</v>
+      </c>
+      <c r="F136" s="3" t="n">
+        <v>1073</v>
+      </c>
+      <c r="G136" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="H136" s="3" t="inlineStr">
+        <is>
+          <t>Conor-Mcclenaghan | Rebecca-Lane-2 | Cindy-Casteels | Robert-Hageman | Ulrich-Eisel | Paul-Lucassen | Hans-Klein-4 | Rene-Feichtinger | Laus-Broersen | Gurdip_Bhalay | Adina-Michael-Titus | Harm-Krugers | Henk-Karst | Fanning-Zeng | Michiel-Van-Diepen | Simon-Dyall | Erik-De-Vries-7 | Rowan-Stringer | Scott-Hemby | Pamela-Tranter | Andreas-Birbach | John-Priestley-2 | Els-Riel | Iris-Hovens | Caroline-Real-Gregorio | Yongjun-Qin-2 | Mark-Mcpate | Toby-Kent | Paul-Groot-Kormelink | Vivi-Heine | Ewelina-Kurtys | Orli-Thau-Zuchman-2 | Marian-Joels | Mark-Nash-3 | Patrick-Pallier | Mike-Petrassi | Giuliano-Berellini | David-Tully-4 | Andrew-Matus | Chris-Poll | Rishi-Jain-3 | Regien-Schoemaker | Andrew-M-Schumacher-15468656 | Jianmin-Lao-2049338501 | Sian-Fairbrother-2049527040 | Mark-S-Nash-2098606440 | Rudi-A-J-O-Dierckx-2113945521 | Rudi-AJO-Dierckx-2149494065 | Janine-Doorduin-38488290</t>
+        </is>
+      </c>
+      <c r="I136" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="J136" s="3" t="inlineStr">
+        <is>
+          <t>Peter Mcintyre | Sun Wook Hwang | Jeffrey Tasker | David A Andersson | Edo Ronald de Kloet | Thomas Voets | Riccardo Patacchini | Serena Materazzi | Romina Nassini | Steve McGaraughty | James J S Treanor | Marcello Trevisani | Erika Pintér | Jason X-J Yuan | Paul E Sawchenko | David M Diamond | Bruce S Mcewen | James P Herman | William E Cullinan | Philip R Kym | Michael E Kort | Chih-Hung Lee | Makoto Suzuki | Kennan Marsh | Henk Karst | Sheryl G Beck | Susan D Brain | Krisztián Elekes | Zsuzsanna Helyes | Diana Bautista | Adrienne E Dubin | Regina M Reilly | Eberhard Fuchs | Yiangos Yiangou | Jason A Segreti | Marian Joels | Magdalene M Moran | Rudi Vennekens | Janos Szolcsanyi | Andrew Matus | Andras Garami | Matt J Petrus | Makoto Tominaga | David Clapham | Andrea Peier | Sven-Eric Jordt | Robert Sapolsky | Yashmin J Karten | Andrej A. Romanovsky | Palak Anand</t>
+        </is>
+      </c>
+      <c r="K136" s="3" t="n">
+        <v>35</v>
+      </c>
+      <c r="L136" s="3" t="inlineStr">
+        <is>
+          <t>Supplementary figures and legends.pdf | High phenylalanine concentrations induce demyelination and microglial activation in mouse cerebellar organotypic slices | A new ketogenic formulation improves functional outcome and reduces tissue loss following traumatic brain injury in adult mice | Cognitive benefits of the ketogenic diet in patients with epilepsy: A systematic overview | Therapeutic effects of dietary intervention on neuroinflammation and brain metabolism in a rat model of photothrombotic stroke | Anti-inflammatory effects of rice bran components | Therapeutic effects of dietary intervention on neuroinflammation and brain metabolism in a rat model of photothrombotic stroke | Brain [11C]PK11195 and [18F]FDG PET imaging in a rat model of postoperative cognitive dysfunction | High Content Analysis of Hippocampal Neuron-Astrocyte Co-cultures Shows a Positive Effect of Fortasyn Connect on Neuronal Survival and Postsynaptic Maturation | The combination of vitamins and omega-3 fatty acids has an enhanced anti-inflammatory effect on microglia | Englerin A Agonizes the TRPC4/C5 Cation Channels to Inhibit Tumor Cell Line Proliferation | TRPV1 antagonism: From research to clinic | The Development of Automated Patch Clamp Assays for Canonical Transient Receptor Potential Channels TRPC3, 6, and 7 | Discovery, Optimization, and Biological Evaluation of 5-(2-(Trifluoromethyl)phenyl)indazoles as a Novel Class of Transient Receptor Potential A1 (TRPA1) Antagonists | Development of TRPC Assays on Automated Electrophysiology Platforms | CHAPTER 9. TRPV1 Antagonism: From Research to Clinic | Targeting TRP Channels in Airway Disorders | GPR39 is coupled to TMEM16A in intestinal fibroblast-like cells | Figure S4 | Figure S2 | Figure S5 | Figure S1 | Figure S3 | TRPA1 Agonist Activity of Probenecid Desensitizes Channel Responses: Consequences for Screening | Reversible, activity-dependent targeting of profilin to neuronal nuclei | Time-lapse imaging of dendritic spines in vitro | Chapter 4.7 Modulation of glutamatergic and GABAergic neurotransmission by corticosteroid hormones and stress | GABAergic transmission in the rat paraventricular nucleus of the hypothalamus is suppressed by corticosterone and stress | Modulation of glutamatergic and GABAergic neurotransmission by corticosteroid hormones and stress | Effects of Chronic Stress on Structure and Cell Function in Rat Hippocampus and Hypothalamus | Chronic stress attenuates GABAergic inhibition and alters gene expression of parvocellular neurons in rat hypothalamus | Hippocampal and Hypothalamic Function after Chronic Stress | Joëls M, Velzing E, Nair S, Verkuyl JM, Karst H. Acute stress increases calcium current amplitude in rat hippocampus: temporal changes in physiology and gene expression. Eur J Neurosci 18: 1315-1324 | Effect of Adrenalectomy on Miniature Inhibitory Postsynaptic Currents in the Paraventricular Nucleus of the Hypothalamus | Stress, corticosterone and GABAergic Inhibition in the rat paraventricular nucleus</t>
+        </is>
+      </c>
+      <c r="M136" s="3" t="inlineStr">
+        <is>
+          <t>Electrophysiology | Drug Discovery | Neurobiology | Neurobiology and Brain Physiology</t>
+        </is>
+      </c>
+    </row>
+    <row r="137" ht="80" customHeight="1" s="4">
+      <c r="B137" s="3" t="inlineStr">
+        <is>
+          <t>Robert Turner</t>
+        </is>
+      </c>
+      <c r="C137" s="3" t="inlineStr">
+        <is>
+          <t>Robert-Turner-31</t>
+        </is>
+      </c>
+      <c r="D137" s="3" t="inlineStr">
+        <is>
+          <t>Max Planck Institute for Human Cognitive and Brain Sciences</t>
+        </is>
+      </c>
+      <c r="E137" s="3" t="n">
+        <v>102774</v>
+      </c>
+      <c r="F137" s="3" t="n">
+        <v>56165</v>
+      </c>
+      <c r="G137" s="3" t="n">
+        <v>48</v>
+      </c>
+      <c r="H137" s="3" t="inlineStr">
+        <is>
+          <t>Robin-Heidemann | Markus-Streicher | Richard-Frackowiak | Gabriele-Lohmann | Oliver-Braddick | Alfred-Anwander | Karl-Friston | Peter-Jezzard | Geraint-Rees | Pierre-Louis-Bazin | Arno-Villringer | Harald-Moeller | Karsten-Mueller-5 | Chris-Frith | Mikhail-Kozlov-8 | Dimo-Ivanov | Michael-Stehling | Enrico-De-Vita | Max-Keuken | Thomas-Knoesche | Birte-Forstmann | Marcel-Weiss-4 | Cornelius-Eichner | David-Porter-14 | Thorsten-Feiweier | Enrico-Reimer | Jane-Neumann-2 | John-Ashburner | Fabrizio-Fasano | Paul-Glover-15489209 | Laurentius-Huber-2006686496 | Stefan-Geyer-2083922127 | A-Schaefer-2143135756 | Ralf-Deichmann-38376519 | Robert-Trampel-38553187 | Oliver-Josephs-39406270 | Christian-Buechel-39657065 | P-Mansfield-39826594 | Douglas-R-Corfield-39873436 | R-Coxon-39907676 | B-Chapman-40057260 | A-M-Howseman-42226927 | Andreas-Schaefer-42604667 | R-J-Ordidge-4291434 | D-Le-Bihan-54144458 | Janette-Atkinson-63341969 | Angela-D-Friederici-8215820 | Josef-Pfeuffer-9194494</t>
+        </is>
+      </c>
+      <c r="I137" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="J137" s="3" t="inlineStr">
+        <is>
+          <t>Robin Martin Heidemann | Anders M Dale | David N Kennedy | Katrin Amunts | Gabriele Lohmann | Alfred Anwander | Karl J Friston | Mark S Cohen | Robert S Balaban | Penny A Gowland | Pierre-Louis Bazin | José P Marques | Gregor Adriany | Essa Yacoub | Lawrence L Wald | David G Norris | Chris D Frith | Rainer Goebel | Jean-Baptiste Poline | Dimo Ivanov | Jutta Ellermann | Eric C Wong | Peter Bandettini | Pierre-Francois Van de Moortele | Seong-Gi Kim | Thomas R. Knösche | Richard Bowtell | Mark Jenkinson | Birte U Forstmann | Marcel Weiss | Alan Charles Evans | Richard B Buxton | Jonathan R Polimeni | Andreas Deistung | David A Feinberg | Peter van zijl | Jürgen Reichenbach | Wietske Van der Zwaag | Tobias Kober | John Ashburner | Jens Frahm | Peter J Basser | James Hyde | Marus Raichle | Mark Haacke | Bruce Rosen | Nikos Logothetis | Richard Frackowiak | Peter Jezzard | Martin Sereno</t>
+        </is>
+      </c>
+      <c r="K137" s="3" t="n">
+        <v>481</v>
+      </c>
+      <c r="L137" s="3" t="inlineStr">
+        <is>
+          <t>Cultural Neuroscience | Conclusion | Oxford Handbook of Cultural Neuroscience and Global Mental Health | Validating layer-specific VASO across species | Quantitative T1 mapping using multi-slice multi-shot inversion recovery EPI | Validating layer-specific VASO across species | Cultural neuroscience and the research domain criteria: Implications for global mental health | Ritual Action Shapes Our Brains: An Essay in Neuroanthropology | Resolving multisensory and attentional influences across cortical depth in sensory cortices | Colwyn Trevarthen: Mentor and Friend | Finding likeness: Neural plasticity and ritual experience | Myelin and Modeling: Bootstrapping Cortical Microcircuits | Cross-cultural similarity in relationship-specific social touching | Supplementary information | Resolving multisensory and attentional influences across cortical depth in sensory cortices | Quantitative Susceptibility Mapping of Amyloid-β Aggregates in Alzheimer’s Disease with 7T MR | Somatosensory BOLD fMRI reveals close link between salient blood pressure changes and the murine neuromatrix | Investigation of 7T 16-channel dual-row transmit array coils: A case study of static RF shimming | Human Cerebellar Sub-millimeter Diffusion Imaging Reveals the Motor and Non-motor Topography of the Dentate Nucleus | Bridging the gap between system and cell: The role of ultra-high field MRI in human neuroscience | After Over 200 Years, 7 Tesla Magnetic Resonance Imaging Reveals The Foliate Structure Of The Human Corpus Callosum In-Vivo | Cultural neuroscience and global mental health: addressing grand challenges | Peter Mansfield (1933–2017) | Habenula volume increases with disease severity in unmedicated major depressive disorder as revealed by 7T MRI | Effects of aging on T1,T2∗, and QSM MRI values in the subcortex | Uncertainty and expectancy deviations require cortico-subcortical cooperation | Uses, misuses, new uses and fundamental limitations of magnetic resonance imaging in cognitive science | Layer-specific attentional modulation and multisensory interactions in sensory cortices | In favor of general probability distributions: lateral prefrontal and insular cortices respond to stimulus inherent, but irrelevant differences | The Oxford Handbook of Cultural Neuroscience | Temperature Dependence of Water Diffusion Pools in Brain White Matter | Functional Cerebral Blood Volume Mapping with Simultaneous Multi-Slice Acquisition | A subject-specific framework for in vivo myeloarchitectonic analysis using high resolution quantitative MRI | Emotion, rationality and decision-making: How to link affective and social neuroscience with social theory | Emotion, rationality and decision-making: How to link affective and social neuroscience with social theory | Real Diffusion-Weighted MRI Enabling True Signal Averaging and Increased Diffusion Contrast | Open Science CBS Neuroimaging Repository: Sharing Ultra-High-Field MR Images of the Brain | Advanced MRI techniques to improve our understanding of experience-induced neuroplasticity | The Subthalamic Nucleus During Decision-Making With Multiple Alternatives | Brain Network Reconfiguration and Perceptual Decoupling During an Absorptive State of Consciousness | Why musical memory can be preserved in advanced Alzheimer's disease | Method for optimization of a multi-channel coil | A Cytoarchitecture-driven Myelin Model reveals Area-specific Signatures in Human Primary and Secondary Areas using Ultra-High Resolution In-vivo Brain MRI | Recent applications of UHF-MRI in the study of human brain function and structure: A review | Multi-contrast Multi-scale Surface Registration for Improved Alignment of Cortical Areas | High-resolution 7T fMRI of Human Hippocampal Subfields during Associative Learning | Cortical lamina-dependent blood volume changes in human brain at 7 T | Multi-modal ultra-high resolution structural 7-Tesla MRI data repository | Anatomical brain imaging at 7T using two-dimensional GRASE | Krieger et al. - 2014(5) | Connectivity Architecture and Subdivision of the Human Inferior Parietal Cortex Revealed by Diffusion MRI | Connectivity architecture and subdivision of the human inferior parietal cortex revealed by diffusion MRI. - IPCC Parcellation Population Maps | Slice Accelerated Gradient-Echo Spin-Echo Dynamic Susceptibility Contrast Imaging with Blipped CAIPI for Increased Slice Coverage | A Gradual Increase of Iron Toward the Medial-Inferior Tip of the Subthalamic Nucleus | Simultaneous acquisition of cerebral blood volume-, blood flow-, and blood oxygenation-weighted MRI signals at ultra-high magnetic field | 3D cortical profiles in histological samples | Comparing Like with Like: The Power of Knowing Where You Are | Regional reproducibility of calibrated BOLD functional MRI: Implications for the study of cognition and plasticity | Slab-Selective, BOLD-Corrected VASO at 7 Tesla Provides Measures of Cerebral Blood Volume Reactivity with High Signal-to-Noise Ratio | Quantifying inter-individual anatomical variability in the subcortex using 7 T structural MRI | Deficient Approaches to Human Neuroimaging | Near-field homogeneity optimization for several MRI dual-row RF head array geometries at 300 MHz | Cortical parcellation of Broca’s region based on functional connectivity glyphs | Effect of sensory modality and attention on layer-specific activations in sensory cortices | Transparent thin shield for radio frequency transmit coils | Dorsomedial striatum involvement in regulating conflict between current and presumed outcomes | 7T-MRT bei Morbus Wilson und Messung von cerebralen Kupferablagerungen mittels Quantitative Susceptibility Mapping (QSM) | Prioritizing spatial accuracy in high-resolution fMRI data using multivariate feature weight mapping | Investigation of the neurovascular coupling in positive and negative BOLD responses in human brain at 7 T | Slice Accelerated Diffusion-Weighted Imaging at Ultra-High Field Strength | High-resolution MRI and diffusion-weighted imaging of the human habenula at 7T | Spatial normalization of ultrahigh resolution 7 T magnetic resonance imaging data of the postmortem human subthalamic nucleus: A multistage approach | Multicenter Study of Subjective Acceptance During Magnetic Resonance Imaging at 7 and 9.4 T | Myelin and iron concentration in the human brain: A quantitative study of MRI contrast | Fast Accurate MR Thermometry Using Phase Referenced Asymmetric Spin-Echo EPI at High Field | A 16-channel dual-row transmit array in combination with a 31-element receive array for human brain imaging at 9.4 T | Introduction to the NeuroImage Special Issue: "In Vivo Brodmann Mapping of the Human Brain" | Layer-Specific Intracortical Connectivity Revealed with Diffusion MRI | The magnitude point spread function is an inadequate measure of T2*-blurring in EPI | Trial-wise investigation of cerebral blood volume change in human brain at 7T | Mapping of the internal structure of human habenula with ex vivo MRI at 7T | Optimization of geometry for a dual-row MRI array at 400 MHz | Simulation-driven design and optimization of RF coil arrays for MRI | Special Issue: Imaging the Developing Brain. | Seven-Tesla Magnetic Resonance Imaging in Wilson Disease Using Quantitative Susceptibility Mapping for Measurement of Copper Accumulation | In vivo MRI analysis of depth-dependent ultrastructure in human knee cartilage at 7 T | RF transmit robustness of dual-row MRI array at 300 MHz | Effects of filling factor on near field transmit properties for a dual-row array at 300 MHz | High-Resolution MR Imaging of the Human Brainstem In vivo at 7 Tesla | Using carbogen for calibrated fMRI at 7Tesla: Comparison of direct and modelled estimation of the M parameter | A Histology-Based Model of Quantitative T1 Contrast for In-vivo Cortical Parcellation of High-Resolution 7 Tesla Brain MR Images | Multi-modal Surface-Based Alignment of Cortical Areas Using Intra-cortical T1 Contrast | Diffusion Imaging-Based Subdivision of the Human Hypothalamus: A Magnetic Resonance Study with Clinical Implications | Prospective slice-by-slice motion correction reduces false positive activations in fMRI with task-correlated motion | Judging roughness by sight-A 7-tesla fMRI study on responsivity of the primary somatosensory cortex during observed touch of self and others | Microstructural parcellation of the human cerebral cortex: From Brodmann's post-mortem map to in vivo mapping with high-field magnetic resonance imaging | Development and Evaluation of an Algorithm for the Computer-Assisted Segmentation of the Human Hypothalamus on 7-Tesla Magnetic Resonance Images | Document S1 | Anatomical differences in human inferior colliculus relate to perceived valence of musical consonance and dissonance | Retinotopic, Somatotopic and Visuo-tactile Maps in the Human Pulvinar as revealed by 7 Tesla fMRI</t>
+        </is>
+      </c>
+      <c r="M137" s="3" t="inlineStr">
+        <is>
+          <t>Cognitive Neuroscience | Imaging | Magnetic Resonance | Neuroimaging | Neuroscience | Neurobiology and Brain Physiology | Learning | Teaching and Learning | Language | Sociology</t>
+        </is>
+      </c>
+    </row>
+    <row r="138" ht="80" customHeight="1" s="4">
+      <c r="B138" s="3" t="inlineStr">
+        <is>
+          <t>Andreas Greiser</t>
+        </is>
+      </c>
+      <c r="C138" s="3" t="inlineStr">
+        <is>
+          <t>Andreas-Greiser</t>
+        </is>
+      </c>
+      <c r="D138" s="3" t="inlineStr">
+        <is>
+          <t>Siemens Healthineers</t>
+        </is>
+      </c>
+      <c r="E138" s="3" t="n">
+        <v>23718</v>
+      </c>
+      <c r="F138" s="3" t="n">
+        <v>6830</v>
+      </c>
+      <c r="G138" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="H138" s="3" t="inlineStr">
+        <is>
+          <t>Sven-Zuehlsdorff | Saurabh-Shah-6 | Alistair-Young-2 | David-Firmin | Christoph-Forman | Tianjing-Zhang | Peter-Gatehouse | Jane-Francis-2 | Ronaldo-Lima-2 | Bernd-Wintersperger | Daniel-Messroghli | Ilan-Gottlieb | Matthias-Dieringer | Jens-Guehring | Dan-Yang-17 | Aurelien-Stalder | Jeanette-Schulz-Menger | Munyoung-Paek | Yucheng-Chen-3 | Changhun-Park | Julius-Traber | Michael-Fuchsjaeger | Peter-Kellman | Michaela-Schmidt-4 | Martin-Ugander | Gert-Reiter | Ursula-Reiter | V-Vassiliou | Brett-Cowan | Anthony-Aletras | Gabriel-Camargo | Tamara-Rothstein | Florian-Von-Knobelsdorff | Hui-Xue-14 | Marie-Pierre-Jolly-14204929 | Alexander-Liu-16169246 | Hong-Liu-2105046659 | Marcel-Prothmann-35830185 | Andre-Rudolph-38734598 | Thoralf-Niendorf-39110311 | Stefan-Neubauer-39218185 | Andrew-E-Arai-39229533 | Wolfgang-Utz-39276912 | Li-Yueh-Hsu-39400407 | Dudley-J-Pennell-39924234 | Ralf-Wassmuth-39940255 | Stefan-K-Piechnik-50206884 | Abiola-J-Oki-53521860 | Ralph-Strecker-7339422</t>
+        </is>
+      </c>
+      <c r="I138" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="J138" s="3" t="inlineStr">
+        <is>
+          <t>Marcelo Nacif | Eike Nagel | Jane Francis | Jürgen Hennig | James C Moon | Matthew Robson | Nadine Kawel | Theodoros Karamitsos | Andrew S Flett | Andrew M Taylor | Daniel Messroghli | Markus von Kienlin | Richard Thompson | Heiko Mahrholdt | Christopher T Sibley | Jens Guehring | Aleksandra Radjenovic | Steven Karl White | Ntobeko Ntusi | Matthias G. Friedrich | Erica Dall'Armellina | Valentina Puntmann | Michael Jerosch-Herold | Rob J van der Geest | Alex Frydrychowicz | Erik Schelbert | Daniel M Sado | John Ridgway | Marianna Fontana | Martin Ugander | Mohan U Sivananthan | W. Patricia Ingkanisorn Bandettini | Thomas A Treibel | Sanjay M Banypersad | Viviana Maestrini | Orlando Simonetti | Anthony Aletras | Andrew J Taylor | Florian von Knobelsdorff | Hui Xue | Saurabh Shah | Saul Myerson | Alistair A Young | David Firmin | Elliot Mcveigh | Peter D Gatehouse | Joao A. C. Lima | Jeanette Schulz-Menger | David Bluemke | Peter Kellman</t>
+        </is>
+      </c>
+      <c r="K138" s="3" t="n">
+        <v>262</v>
+      </c>
+      <c r="L138" s="3" t="inlineStr">
+        <is>
+          <t>Editorial Expression of Concern: Splenic T1-mapping: a novel quantitative method for assessing adenosine stress adequacy for cardiovascular magnetic resonance | Differences in left ventricular and left atrial function assessed during breath-holding and breathing | Cardiovascular magnetic resonance-determined left ventricular myocardium impairment is associated with C-reactive protein and ST2 in patients with paroxysmal atrial fibrillation | Author Correction: Distribution pattern of leftventricular myocardial strain analyzed by a cine MRI based deformation registration algorithm in healthy Chinese volunteers | Retraction notice to Gadolinium-Free Cardiac MR Stress T1-Mapping to Distinguish Epicardial From Microvascular Coronary Disease | Impact of sequence type and field strength (1.5, 3, and 7T) on 4D flow MRI hemodynamic aortic parameters in healthy volunteers | Assessment of diastolic dysfunction: comparison of different cardiovascular magnetic resonance techniques | Right and left ventricle native T1 mapping in systolic phase in patients with congenital heart disease | T 1 mapping performance and measurement repeatability: Results from the multi-national T 1 mapping standardization phantom program (T1MES) | Methods for setting a MRI sequence | Non-contrast-enhanced magnetic resonance imaging for visualization and quantification of endovascular aortic prosthesis, their endoleaks and aneurysm sacs at 1.5 T | Hybrid positron emission tomography-magnetic resonance imaging for assessing different stages of cardiac impairment in patients with Anderson-Fabry disease: AFFINITY study group | T1- and ECV-mapping in clinical routine at 3 T: differences between MOLLI, ShMOLLI and SASHA | Non-contrast-enhanced magnetic resonance imaging for visualization and quantification of endovascular aortic prosthesis, their endoleaks and aneurysm sacs at 1.5 T | Assessment of sympathetic reinnervation after cardiac transplantation using hybrid cardiac PET/MRI: A pilot study | Supplementary material | Aortic 4D flow MRI in 2 minutes using compressed sensing, respiratory controlled adaptive k-space reordering, and inline reconstruction | Quantification of myocardial deformation by deformable registration–based analysis of cine MRI: validation with tagged CMR | Role of Myocardial Extracellular Volume Fraction Measured with Magnetic Resonance Imaging in the Prediction of Left Ventricular Functional Outcome after Revascularization of Chronic Total Occlusion of Coronary Arteries | Association between myocardial extracellular volume and strain analysis through cardiovascular magnetic resonance with histological myocardial fibrosis in patients awaiting heart transplantation | Cardiovascular magnetic resonance evidence of myocardial fibrosis and its clinical significance in adolescent and adult patients with Ebstein’s anomaly | Right ventricular septomarginal trabeculation hypertrophy is associated with disease severity in patients with pulmonary arterial hypertension | T1 and T2 mapping in the identification of acute myocardial injury in patients with NSTEMI | P5641CMR and 4dflow-based analysis of alterations in post ischemic dilated cardiomiopathy before and after surgical ventricular restoration | Validation and reproducibility of cardiovascular 4D-flow MRI from two vendors using 2 × 2 parallel imaging acceleration in pulsatile flow phantom and in vivo with and without respiratory gating | Quantitative Study of Abdominal Blood Flow Patterns in Patients with Aortic Dissection by 4-Dimensional Flow MRI | Supplementary Material | Left Ventricular Myocardial Deformation on Cine MR Images: Relationship to Severity of Disease and Prognosis in Amyloid Light-Chain Amyloidosis | Age and Gender Impact the Measurement of Myocardial Interstitial Fibrosis in a Healthy Adult Chinese Population: A Cardiac Magnetic Resonance Study | Online Data | Supplementary Material 3 | Supplementary Material 2 | Supplementary Material 1 | Gadolinium-Free Cardiac MR Stress T1-Mapping to Distinguish Epicardial From Microvascular Coronary Disease | Gradient waveform pre-emphasis based on the gradient system transfer function | Blood T1* correction increases accuracy of extracellular volume measurements using 3T cardiovascular magnetic resonance: Comparison of T1 and T1* maps | Supplementary Material | Fully-automated left ventricular mass and volume MRI analysis in the UK Biobank population cohort: evaluation of initial results | Early detection of myocardial involvement by T1 mapping of cardiac MRI in idiopathic inflammatory myopathy | Increased myocardial extracellular volume assessed by cardiovascular magnetic resonance T1 mapping and its determinants in type 2 diabetes mellitus patients with normal myocardial systolic strain | Improved segmental myocardial strain reproducibility using deformable registration algorithms compared with feature tracking cardiac MRI and speckle tracking echocardiography: Segmental Myocardial Strain Using DRA | T1 and T2 mapping for evaluation of myocardial involvement in patients with ANCA-associated vasculitides | Splenic T1-mapping: a novel quantitative method for assessing adenosine stress adequacy for cardiovascular magnetic resonance | Effects of heart valve prostheses on phase contrast flow measurements in Cardiovascular Magnetic Resonance – a phantom study | Measurement of myocardial native T1 in cardiovascular diseases and norm in 1291 subjects | Correction to: Adenosine stress CMR T1-mapping detects early microvascular dysfunction in patients with type 2 diabetes mellitus without obstructive coronary artery disease | Experimental quantification of the fluid dynamics in blood-processing devices through 4D-flow imaging: A pilot study on a real oxygenator/heat-exchanger module | Simulation-based quantification of native T1 and T2 of the myocardium using a modified MOLLI scheme and the importance of Magnetization Transfer | Noncontrast Myocardial T1 Mapping by Cardiac Magnetic Resonance Predicts Outcome in Patients With Aortic Stenosis | Spatially Resolved MR-Compatible Doppler Ultrasound: Proof of Concept for Triggering of Diagnostic Quality Cardiovascular MRI for Function and Flow Quantification at 3T | Adenosine stress CMR T1-mapping detects early microvascular dysfunction in patients with type 2 diabetes mellitus without obstructive coronary artery disease | Challenging Occam's Razor: An Unusual Combination of Sarcoidosis and Amyloidosis. The Value of Cardiac Magnetic Resonance Imaging in Infiltrative Cardiomyopathies | Supplementary Material 1 | Supplementary Material 2 | Scar Characterization to Predict Life-Threatening Arrhythmic Events and Sudden Cardiac Death in Patients With Cardiac Resynchronization Therapy | Left ventricular function and regional strain with subtly-tagged steady-state free precession feature tracking: Strain and Volume From Subtle Tagging | Assessment of Diabetic Cardiomyopathy by Cardiovascular Magnetic Resonance T1 Mapping: Correlation with Left-Ventricular Diastolic Dysfunction and Diabetic Duration | Challenging Occam’s razor: An unusual combination of sarcoidosis and amyloidosis. The value of CMR in infiltrative cardiomyopathies | Advanced myocardial tissue characterisation by a multi-component CMR protocol in patients with rheumatoid arthritis | Performance of native and contrast-enhanced T1 mapping to detect myocardial damage in patients with suspected myocarditis: a head-to-head comparison of different cardiovascular magnetic resonance techniques | Distribution pattern of left-ventricular myocardial strain analyzed by a cine MRI based deformation registration algorithm in healthy Chinese volunteers | How to obtain accurate MOLLI measurements by means of advanced MR simulations (SQUAREMR) | Quantifizierung von Aorten- und Pulmonalklappenvitien in der kardialen MRT - wie relevant ist die genaue Position der Messebene? | Detection and Monitoring of Acute Myocarditis Applying Quantitative Cardiovascular Magnetic ResonanceCLINICAL PERSPECTIVE | Estimation of myocardial strain from non-rigid registration and highly accelerated cine CMR | Evaluation of myocardial involvement in patients with connective tissue disorders: a multi-parametric cardiovascular magnetic resonance study | Validation of T2* in-line analysis for tissue iron quantification at 1.5 T | Comprehensive Cardiovascular Magnetic Resonance Assessment in Patients With Sarcoidosis and Preserved Left Ventricular Ejection Fraction | Prognostic value of T1-mapping in TAVR patients: extra-cellular volume as a possible predictor for peri- and post-TAVR adverse events | Histological validation of cardiac magnetic resonance T1 mapping for detecting diffuse myocardial fibrosis in diabetic rabbits | Segment-by-segment assessment of left ventricular myocardial affection in Anderson-Fabry disease by non-enhanced T1-mapping | Effect of contrast dose in the quantification of myocardial extra-cellular volume in adenosine stress/rest perfusion cardiac magnetic resonance examinations | Comparison of different cardiovascular magnetic resonance sequences for native myocardial T1 mapping at 3T | Early-stage heart failure with preserved ejection fraction in the pig: a cardiovascular magnetic resonance study | Cardiac Fibrosis in Aortic Stenosis and Hypertensive Heart Disease Assessed by Magnetic Resonance T1 Mapping | Influence of spatial resolution and contrast agent dosage on myocardial T1 relaxation times | Counter-clockwise vortical blood flow in the main pulmonary artery in a patient with patent ductus arteriosus with pulmonary arterial hypertension: A cardiac magnetic resonance imaging case report | Quantification of global myocardial function by cine MRI deformable registration-based analysis: Comparison with MR feature tracking and speckle-tracking echocardiography | Pheochromocytoma Is Characterized by Catecholamine-Mediated Myocarditis, Focal and Diffuse Myocardial Fibrosis, and Myocardial Dysfunction | Myocardial Characterization Using Dual-Energy CT in Doxorubicin-Induced DCM | Myocardial partition coefficient of gadolinium: A comparison between patients with acute myocarditis, chronic infarction and healthy volunteers | Current T1 and T2 mapping techniques applied with simple thresholds cannot discriminate acute from chronic myocadial infarction on an individual patient basis: A pilot study | Native myocardial T1 mapping in pulmonary hypertension: correlations with cardiac function and hemodynamics | Histological validation of cardiac magnetic resonance T1 mapping for detecting diffuse myocardial fibrosis in diabetic rabbits | Systolic MOLLI T1 mapping with heart rate depends pulse sequence sampling scheme is feasible in patients with atrial fibrillation | Comparison of myocardial T1 and T2 values in 3 T with T2* in 1.5 T in patients with iron overload and controls | Comparison of heart deformation analysis and cine DENSE in volunteers and heart failure patients | Incremental benefit in correlation with histology of native T1 mapping, partition coefficient and extracellular volume fraction in patients with aortic stenosis | Combined parametric mapping allows discrimination of disease activity in myocarditis | Abnormal regional myocardial morphology in patients with left ventricular pressure overload and preserved ejection fraction detected by multiparametric MR tissue mapping | Use of T2 maps for rapid prediction of stress effectiveness before the injection of contrast in myocardial perfusion studies at 3.0T | Systolic T1 mapping for estimation of myocardial diffuse fibrosis | Histological validation of a new CMR T1-mapping-based protocol to improve accuracy for fibrosis assessment in patients with aortic stenosis | T1 mapping for characterization of myocardial fibrosis in hypertrophic cardiomyopathy | A Comprehensive Free-Breathing Protocol for Cardiovascular Magnetic Resonance Imaging of Ischemia and Cardiomyopathies: a Feasibility Study | Systolic MOLLI T1 mapping with heart rate depends pulse sequence sampling scheme is feasible in patients with atrial fibrillation | Four-dimensional flow MRI for evaluation of post-stenotic turbulent flow in a phantom: comparison with flowmeter and computational fluid dynamics | T1-Mapping in Daily Cardiac Magnetic Resonance Imaging Practice: Combined Use of Native T1 and Extracellular Volume Quantification | Comparison of heart deformation analysis and cine DENSE in volunteers and heart failure patients | Quantification of Myocardial Extracellular Volume Fraction with Cardiac MR Imaging in Thalassemia Major</t>
+        </is>
+      </c>
+      <c r="M138" s="3" t="inlineStr">
+        <is>
+          <t>Imaging | ECG | Acute Myocardial Infarction | Engineering | CMR | Magnetic Resonance | Cardiac Imaging | Compressed Sensing | Angiography | Cardiovascular Imaging</t>
+        </is>
+      </c>
+    </row>
+    <row r="139" ht="80" customHeight="1" s="4">
+      <c r="B139" s="3" t="inlineStr">
+        <is>
+          <t>Brian Barnes</t>
+        </is>
+      </c>
+      <c r="C139" s="3" t="inlineStr">
+        <is>
+          <t>Brian-Barnes-8</t>
+        </is>
+      </c>
+      <c r="D139" s="3" t="inlineStr">
+        <is>
+          <t>University of Alaska Fairbanks</t>
+        </is>
+      </c>
+      <c r="E139" s="3" t="n">
+        <v>40601</v>
+      </c>
+      <c r="F139" s="3" t="n">
+        <v>7014</v>
+      </c>
+      <c r="G139" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="H139" s="3" t="inlineStr">
+        <is>
+          <t>Helen-Chmura | Craig-Heller | Louise-Showe | Trixie-Lee-2 | Cory-Williams-6 | Kelly-Drew | Chunxuan-Shao | Mk-Showe | Bert-Boyer | Jamie-Barger | Vadim-Fedorov-2 | G-J-Kenagy | Mihai-Podgoreanu | Oivind-Toien | Anna-Goropashnaya | Torsten-Bullmann | John-Blake-10 | Anthony-Serianni-3 | Sara-Wilbur | Zhiquan-Zhang | Michael-Sheriff | Thomas-Arendt-2 | John-Duman-2 | Roelof-Hut | Jun-Yan-56 | C-Loren-Buck | Diane-Obrien-2 | Shawna-Karpovich | Todd-Sformo | Haifang-Wang-5 | Melanie-Richter-2 | Paul-Licht-2 | Kathryn-Wilsterman-2 | Jens-Stieler-2 | Kennan-Jeannet-Oyen-2 | Don-Larson | Franziska-Kohl-14098423 | Fran-Kohl-2006791675 | Quintin-J-Quinones-2048623536 | Cassandra-Duncan-2157069947 | ET-Pengelley-2889712 | Nathan-C-Stewart-31707731 | Seth-W-Donahue-38269539 | Celia-Chang-38506763 | Kent-R-Walters-38689570 | Irving-Zucker-39067455 | Julie-McIntyre-55435009 | Martin-A-Carrasco-57890130 | Qing-Ma-66609434 | Roland-C-Aloia-73371578</t>
+        </is>
+      </c>
+      <c r="I139" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="J139" s="3" t="inlineStr">
+        <is>
+          <t>Craig Heller | Louise Showe | John Speakman | Hannah Carey | Cory Williams | Kelly L Drew | Bert Boyer | Vadim B Fedorov | Gerhard Heldmaier | Walter Arnold | Thomas Ruf | G. J. Kenagy | Fritz Geiser | David S Hik | Øivind Tøien | Anna V Goropashnaya | Matthew T Andrews | Arthur L Devries | Michael J Sheriff | Kenneth Armitage | Elaine Epperson | Arjen M Strijkstra | Ryan A. Long | C. Loren Buck | Kenneth B. Storey | Christiaan Both | Todd Sformo | Martin D Brand | Stan A Boutin | Andre Breton | Barbara Helm | Greg Florant | Haifang Wang | Gail R. Michener | L. C. H. Wang | Melanie Richter | Paul Licht | Marcel E Visser | Rudy Boonstra | Frank van Breukelen | Andrew Mcadam | Trixie Lee | M.K. Showe | Janet Margaret Storey | Eric Post | John Duman | Mads Forchhammer | Jun Yan | Menno Gerkema</t>
+        </is>
+      </c>
+      <c r="K139" s="3" t="n">
+        <v>248</v>
+      </c>
+      <c r="L139" s="3" t="inlineStr">
+        <is>
+          <t>Climate change is altering the physiology and phenology of an arctic hibernator | Do bears hibernate in the woods? Comment on ‘Why bears hibernate? Redefining the scaling energetics of hibernation’ | Effects of Spring Warming on Seasonal Neuroendocrinology and Activation of the Reproductive Axis in Hibernating Arctic Ground Squirrels | Hypothalamic remodeling of thyroid hormone signaling during hibernation in the arctic ground squirrel | Survival estimates of free-living arctic ground squirrels: effects of sex and biologging | Transcriptional Changes and Preservation of Bone Mass in Hibernating Black Bears | Transcriptional changes and preservation of bone mass in hibernating black bears | Plasticity and repeatability of activity patterns in free-living Arctic ground squirrels | Thermal adaptations to extreme freeze–thaw cycles in the high tropical Andes | SUPPL_IN_AGS_SR2020.docx | Transcriptional changes in muscle of hibernating arctic ground squirrels (Urocitellus parryii): implications for attenuation of disuse muscle atrophy | Modulation of Gene Expression in Muscle of Hibernating Arctic Ground Squirrels ( Urocitellus parryii ) and Attenuation of Disuse Muscle Atrophy | Tissue-specific telomere dynamics in hibernating arctic ground squirrels ( Urocitellus parryii ) | Molecular Control of Prehibernation Brown Fat Growth in Arctic Ground Squirrels | Coping with differences in snow cover: the impact on the condition, physiology and fitness of an arctic hibernator | Seasonal reproductive tactics: Annual timing and the capital-to-income breeder continuum | Sex-Dependent Phenological Plasticity in an Arctic Hibernator | Stable Isotopes and Radiocarbon Assess Variable Importance of Plants and Fungi in Diets of Arctic Ground Squirrels | Seasonal loss and resumption of circadian rhythms in hibernating arctic ground squirrels | Lipid emulsion enhances cardiac performance after ischemia-reperfusion in isolated hearts from summer-active arctic ground squirrels | Entraining to the polar day: Circadian rhythms in arctic ground squirrels | Clock Gene Expression in the Suprachiasmatic Nucleus of Hibernating Arctic Ground Squirrels | Stable isotope analysis of CO 2 in breath indicates metabolic fuel shifts in torpid arctic ground squirrels | The influence of androgens on hibernation phenology of free-living male arctic ground squirrels | The secret life of ground squirrels: Accelerometry reveals sex-dependent plasticity in above-ground activity | Supplementary Material | Proteomic Profiling Reveals Adaptive Responses to Surgical Myocardial Ischemia–Reperfusion in Hibernating Arctic Ground Squirrels Compared to Rats | Cryoprotectant Production in Freeze-Tolerant Wood Frogs Is Augmented by Multiple Freeze-Thaw Cycles | Integrating physiology, behavior, and energetics: Biologging in a free-living arctic hibernator | Greening of the Arctic: an IPY initiative | Arctic Ground Squirrels Limit Bone Loss during the Prolonged Physical Inactivity Associated with Hibernation | Autumn conditions as a driver of spring phenology in a free-living arctic mammal | Abstract 15894: Adaptations of Innate Immunity in Hibernation: Mechanisms for Protection Against Acute Organ Injury | Hibernation strategies and patterns in sympatric arctic species, the Alaska marmot and arctic ground squirrel | Energy regulation in context: Free-living female Arctic ground squirrels modulate the relationship between thyroid hormones and activity among life history stages | Richter et al 2015 Thermogenic capacity at subzero temperatures - how low can a hibernator go | Persistence, Entrainment, and Function of Circadian Rhythms in Polar Vertebrates | Thermoregulation and energetics in hibernating black bears: Metabolic rate and the mystery of multi-day body temperature cycles | Thermogenic Capacity at Subzero Temperatures: How Low Can a Hibernator Go? | Comparative functional genomics of adaptation to muscular disuse in hibernating mammals | Abstract 18884: Proteomic Profiling Reveals Reduction in Electron Transport Chain Proteins in the Hearts of Hibernating Arctic Ground Squirrels Compared with Rats after Surgical Ischemia and Reperfusion: A Convergence of Mammalian Cardio-protective Strategies | Light loggers reveal weather-driven changes in the daily activity patterns of arboreal and semifossorial rodents | Organ Protective Mechanisms Common to Extremes of Physiology: A Window through Hibernation Biology | Wood frog adaptations to overwintering in Alaska: New limits to freezing tolerance | 2014 Williams et al. JZool | Phenology of hibernation and reproduction in ground squirrels: Integration of environmental cues with endogenous programming | Living in a Seasonal World | 2012 Williams et al. Chapt.6 Seasonal World | Metabolic Rate and Prehibernation Fattening in Free-Living Arctic Ground Squirrels | Molecular signatures of mammalian hibernation: Comparisons with alternative phenotypes | Changing seasonality and phenological responses of free-living male arctic ground squirrels: The importance of sex | Annual rhythms that underlie phenology: biological time-keeping meets environmental change | Animal activity around the clock with no overt circadian rhythms: Patterns, mechanisms and adaptive value | Circadian rhythms in free-living arctic ground squirrels | Breeding phenology of free-living arctic ground squirrels in an early spring: Is autumn a back seat driver? | Interrelationships among timing of hibernation, reproduction, and warming soil in free-living female Arctic ground squirrels | Hibernation and Circadian Rhythms of Body Temperature in Free-Living Arctic Ground Squirrels | A test of alternate models for increased tissue nitrogen isotope ratios during fasting in hibernating arctic ground squirrels | Thermoregulatory changes anticipate hibernation onset by 45 days: Data from free-living arctic ground squirrels | Interrelationships Among Timing of Hibernation, Reproduction, and Warming Soil in Free-Living Female Arctic Ground Squirrels | Preservation of bone mass and structure in hibernating black bears (Ursus americanus) through elevated expression of anabolic genes | Estimating lean mass over a wide range of body composition: A calibration of deuterium dilution in the arctic ground squirrel | Investigating the deep supercooling ability of an Alaskan beetle, Cucujus clavipes puniceus, via high throughput proteomics | Late Pleistocene paleoecology of arctic ground squirrel (Urocitellus parryii) caches and nests from Interior Alaska's mammoth steppe ecosystem, USA | Elucidating the Biochemical Overwintering Adaptations of Larval Cucujus clavipes puniceus, a Nonmodel Organism, via High Throughput Proteomics | Daily body temperature rhythms persist under the midnight sun but are absent during hibernation in free-living arctic ground squirrels | A thermal hysteresis-producing xylomannan glycolipid antifreeze associated with cold tolerance is found in diverse taxa | Data logging of body temperatures provides precise information on phenology of reproductive events in a free-living Arctic hibernator | Seasonal body composition, water turnover, and field metabolic rates in porcupines (Erethizon dorsatum) in Alaska | Probability of freezing in the freeze-avoiding beetle larvae Cucujus clavipes puniceus (Coleoptera: Cucujidae) from interior Alaska | Hibernating above the permafrost: Effects of ambient temperature and season on expression of metabolic genes in liver and brown adipose tissue of arctic ground squirrels | Modulation of gene expression in heart and liver of hibernating black bears (Ursus americanus) | Temperature dependence of in vitro androgen production in testes from hibernating ground squirrels, Spermophilus lateralis | Hibernation in Black Bears: Independence of Metabolic Suppression from Body Temperature | Table S1 | The Physiological Link between Metabolic Rate Depression and Tau Phosphorylation in Mammalian Hibernation | Simultaneous Collection of Body Temperature and Activity Data in Burrowing Mammals: a New Technique | Phenological variation in annual timing of hibernation and breeding in nearby populations of Arctic ground squirrels | Body temperature patterns during hibernation in a free-living Alaska marmot (Marmota broweri) | Genomic analysis of miRNAs in an extreme mammalian hibernator, the Arctic ground squirrel | Additional file 4 | Additional file 2 | Additional file 5 | Additional file 1 | Additional file 3 | Additional file 6 | Survival in a changing world | Genomic analysis of expressed sequence tags in American black bear Ursus americanus | Deep supercooling, vitrification and limited survival to -100°C in the Alaskan beetle Cucujus clavipes puniceus (Coleoptera: Cucujidae) larvae | Antifreeze and ice nucleator proteins | Supercooling and vitrification in the beetle larvae, Cucujus clavipes puniceus (Coleoptera: Cucujuidae), in Alaska | A nonprotein thermal hysteresis-producing xylomannan antifreeze in the freeze-tolerant Alaskan beetle Upis ceramboides | Shotgun Proteomic Analysis of Hibernating Arctic Ground Squirrels | Simultaneous freeze tolerance and avoidance in individual fungus gnats, Exechia nugatoria | Energetics of arousal episodes in hibernating arctic ground squirrels | Elevated expression of protein biosynthesis genes in liver and muscle of hibernating black bears (Ursus americanus) | Freeze tolerance in an arctic Alaska stonefly | PHF-like tau phosphorylation in mammalian hibernation is not associated with p25-formation | OVERWINTERING STRATEGIES OF ARCTIC ANIMALS, OR TALES OF WHERE KNUT SCHMIDT-NIELSEN DIDN'T GO | Targets and terminology for comparative genomics in mammalian hibernators</t>
+        </is>
+      </c>
+      <c r="M139" s="3" t="inlineStr">
+        <is>
+          <t>Mammals | Circadian Rhythms | Physiology | Reproduction | GABA | Testosterone | Ecological Physiology | Seasonality | Reproductive Biology | Animal Physiology</t>
+        </is>
+      </c>
+    </row>
+    <row r="140" ht="80" customHeight="1" s="4">
+      <c r="B140" s="3" t="inlineStr">
+        <is>
+          <t>Nadia Amrani</t>
+        </is>
+      </c>
+      <c r="C140" s="3" t="inlineStr">
+        <is>
+          <t>Nadia-Amrani-2</t>
+        </is>
+      </c>
+      <c r="D140" s="3" t="inlineStr">
+        <is>
+          <t>University of Massachusetts Medical School</t>
+        </is>
+      </c>
+      <c r="E140" s="3" t="n">
+        <v>6995</v>
+      </c>
+      <c r="F140" s="3" t="n">
+        <v>2785</v>
+      </c>
+      <c r="G140" s="3" t="n">
+        <v>48</v>
+      </c>
+      <c r="H140" s="3" t="inlineStr">
+        <is>
+          <t>Kevin-Luk | Randall-Friedline | Chunqing-Song | Mehmet-Fatih-Bolukbasi-2 | Alireza-Edraki | Rui-Qing-4 | Allan-Jacobson | Emmanouela-Tsagkaraki | Jooyoung-Lee-16 | Shubhendu-Ghosh | Robin-Ganesan | Tomas-Rodriguez-5 | Ildar-Gainetdinov | Adilson-Guilherme | Sabrina-Koseki | Thomas-Fazzio | Alexander-Settle | April-Pawluk | Nathalie-Bonneaud | Silvia-Corvera | Lihua-Zhu-6 | Emma-Tysinger | Liu-Pengpeng | Shilei-Hao | Yuefei-Shen-4 | Mark-Kelly-Lat | A-Sarrafi | Felipe-Henriques-2 | Pranam-Chatterjee | Xin-daniel-Gao | Karen-Maxwell-2 | Aamir-Mir-4 | Erik-Sontheimer | Joseph-M-Jacobson-10837820 | G-Alibert-11756924 | Tomas-C-Rodriguez-2150685015 | Stephanie-Kervestin-27521127 | Bianca-Garcia-33552638 | Marie-Elisabeth-Dufour-38332298 | Sarah-M-Nicoloro-38402343 | Matthew-S-Sachs-38442590 | Scot-A-Wolfe-38480593 | Alan-R-Davidson-39510886 | F-Wyers-39608459 | David-A-Mangus-43831451 | Michele-Minet-47611305 | Wen-Xue-58742765 | Feng-He-62209328</t>
+        </is>
+      </c>
+      <c r="I140" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="J140" s="3" t="inlineStr">
+        <is>
+          <t>Krzysztof Chylinski | Ciaran Lee | Zongli Zheng | Lionel Minvielle-Sebastia | Ophir Shalem | Ines Fonfara | Fuguo Jiang | Benjamin P Kleinstiver | Walter Keller | George Church | Eugene V Koonin | Allan Jacobson | Nahum Sonenberg | Jin-Soo Kim | Alan G Hinnebusch | Sylvain Moineau | Deepak Reyon | Mick F Tuite | Jonathan Gootenberg | Yavuz S Dagdas | Manuel Garber | John van der Oost | April Pawluk | Xuebing Wu | Kevin Esvelt | Christophe Fremaux | Lihua Julie Zhu | Liu Pengpeng | Joe Bondy-Denomy | Hao Yin | Yan Zhang | Le Cong | Martin Jinek | Daesik Kim | Shengdar Tsai | Ved V Topkar | Michael Hermann Hauer | Karen Maxwell | Aamir Mir | Erik J Sontheimer | Winston Yan | Nhu Nguyen | Mehmet Fatih Bolukbasi | Alireza Edraki | Jooyoung Lee | Alan Sachs | Kaihong Zhou | Enbo Ma | William Merrick | Feng Zhang</t>
+        </is>
+      </c>
+      <c r="K140" s="3" t="n">
+        <v>56</v>
+      </c>
+      <c r="L140" s="3" t="inlineStr">
+        <is>
+          <t>PAM-Flexible Genome Editing with an Engineered Chimeric Cas9 | CRISPR-enhanced human adipocyte browning as cell therapy for metabolic disease | Genome-wide detection and analysis of CRISPR-Cas off-targets | CRISPR-enhanced human adipocyte 'browning' as cell therapy for metabolic disease | An engineered ScCas9 with broad PAM range and high specificity and activity | Publisher Correction: An engineered ScCas9 with broad PAM range and high specificity and activity | GS-Preprocess: Containerized GUIDE-seq Data Analysis Tools with Diverse Sequencer Compatibility | Structures of Neisseria meningitidis Cas9 Complexes in Catalytically Poised and Anti-CRISPR-Inhibited States | Bridge Helix of Cas9 Modulates Target DNA Cleavage and Mismatch Tolerance | Publisher Correction: Orthogonal Cas9-Cas9 chimeras provide a versatile platform for genome editing | NmeCas9 is an intrinsically high-fidelity genome-editing platform | Supplementary Material 9 | Supplementary Material 1 | Supplementary Material 10 | Supplementary Material 5 | Supplementary Material 6 | Supplementary Material 7 | Supplementary Material 2 | Supplementary Material 3 | Supplementary Material 8 | Potent Cas9 Inhibition in Bacterial and Human Cells by AcrIIC4 and AcrIIC5 Anti-CRISPR Proteins | Orthogonal Cas9–Cas9 chimeras provide a versatile platform for genome editing | Supplementary Material 2 | Supplementary Material 7 | Supplementary Material 1 | Supplementary Material 4 | Supplementary Material 3 | Supplementary Material 5 | Supplementary Material 6 | Supplementary Material 8 | Supplementary Material 3 | Supplementary Material 1 | Supplementary Material 2 | All-in-One Adeno-associated Virus Delivery and Genome Editing by Neisseria meningitidis Cas9 in vivo | Potent Cas9 inhibition in bacterial and human cells by new anti-CRISPR protein families | NmeCas9 is an intrinsically high-fidelity genome editing platform | All-in-One Adeno-associated Virus Delivery and Genome Editing by Neisseria meningitidis Cas9 in vivo | A Broad-Spectrum Inhibitor of CRISPR-Cas9 | Naturally Occurring Off-Switches for CRISPR-Cas9 | Yeast Upf1 CH domain interacts with Rps26 of the 40S ribosomal subunit | Translational competence of ribosomes released from a premature termination codon is modulated by NMD factors | Translation factors promote the formation of two states of the closed-loop mRNP | Chapter 6 Qualitative and Quantitative Assessment of the Activity of the Yeast Nonsense-Mediated mRNA Decay Pathway | The Use of Fungal In Vitro Systems for Studying Translational Regulation | Early nonsense: mRNA decay solves a translational problem | Genetic Variability for Haploid Production in Crosses Between Tetraploid and Hexaploid Wheats with Maize | Aberrant termination triggers nonsense-mediated mRNA decay | A faux 3'-UTR promotes aberrant termination and triggers nonsense-mediated mRNA decay | Translational regulation of gene expression | Toeprint analysis of the positioning of translation apparatus components at initiation and termination codons of fungal mRNAs | Pbp1p, a Factor Interacting with Saccharomyces cerevisiae Poly(A)-Binding Protein, Regulates Polyadenylation | Yeast Pab1 Interacts with Rna15 and Participates in the Control of the Poly(A) Tail Length In Vitro | PCF11 Encodes a Third Protein Component of Yeast Cleavage and Polyadenylation Factor I | Mutations in STS1 suppress the defect in 3' mRNA processing caused by the ma15-2 mutation in Saccharomyces cerevisiae | Mutations in | Haploid regeneration from tetraploid wheat using maize pollen</t>
+        </is>
+      </c>
+      <c r="M140" s="3" t="inlineStr">
+        <is>
+          <t>CRISPR/CAS9 | Total Internal Reflection Fluorescence Microscopy | Single Molecule Imaging | NMD | mRNA Decay | mRNA | RNA | RNA Binding Protein | mRNA Degradation</t>
+        </is>
+      </c>
+    </row>
+    <row r="141" ht="80" customHeight="1" s="4">
+      <c r="B141" s="3" t="inlineStr">
+        <is>
+          <t>Shubhendu Ghosh</t>
+        </is>
+      </c>
+      <c r="C141" s="3" t="inlineStr">
+        <is>
+          <t>Shubhendu-Ghosh</t>
+        </is>
+      </c>
+      <c r="D141" s="3" t="inlineStr">
+        <is>
+          <t>Nature Publishing Group</t>
+        </is>
+      </c>
+      <c r="E141" s="3" t="n">
+        <v>4561</v>
+      </c>
+      <c r="F141" s="3" t="n">
+        <v>1073</v>
+      </c>
+      <c r="G141" s="3" t="n">
+        <v>34</v>
+      </c>
+      <c r="H141" s="3" t="inlineStr">
+        <is>
+          <t>Anubhab-Nandy | Nadia-Amrani-2 | Brian-Monks | Allan-Jacobson | Robin-Ganesan | Rosane-B-Deoliveira | Shuyun-Dong-2 | Bornali-Bhattacharjee | Vijay-Rathinam | Rahul-Gupta-71 | Arnaud-Firon | Jennie-Chan-2 | Shruti-Sharma-30 | Philipp-Henneke | Parisa-Kalantari | Fabianno-Dutra | Robyn-Marty-Roix | Patrick-Trieu-Cuot | Dan_Weng | Phyllis-Spatrick | Douglas-Golenbock | Te-Chen-Tzeng | Chunfang-Li-13346451 | Techen-Tzeng-2046334983 | Vijay-Rathinam-2087489149 | Rahul-Gupta-2109204933 | Stephanie-Kervestin-27521127 | Kate-Fitzgerald-34596583 | Neal-S-Silverman-38232052 | Egil-Lien-38247291 | Katherine-A-Fitzgerald-38757339 | David-A-Mangus-43831451 | Feng-He-62209328 | Gregory-I-Vladimer-84339754</t>
+        </is>
+      </c>
+      <c r="I141" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="J141" s="3" t="inlineStr">
+        <is>
+          <t>Wen Liu | Peter Sarnow | Vishva Dixit | Brian Monks | Allan Jacobson | Nahum Sonenberg | Eva Szomolanyi-Tsuda | Robin Ganesan | Victor Nizet | Richard A Flavell | Jonathan D Dinman | Joseph A Duncan | Mick F Tuite | Oliver Mühlemann | Niels H. Gehring | Marina A Freudenberg | Giuseppe Mancuso | Shino Hanabuchi | Vitaly Kushnirov | Maria P Rubtsova | Musheng Bao | Fabio Martinon | Petr Broz | Dat Mao | Ellen Welch | Beckley K Davis | Vijay A K Rathinam | Olaf Isken | Søren Lykke-Andersen | Robin R Ingalls | Shruti Sharma | Edward A Miao | Denise M Monack | Philipp Henneke | Eicke Latz | Kristian Baker | Patrick trieu-cuot | David Tollervey | Andrey Pisarev | Douglas Golenbock | Giuseppe Teti | Annett Halle | Gabriel Nunez | Carmelo Biondo | Sandhya Ganesan | Nadia Amrani | Taeil Kim | Alan Sachs | Ivan Shatsky | Thirumala-Devi Kanneganti</t>
+        </is>
+      </c>
+      <c r="K141" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="L141" s="3" t="inlineStr">
+        <is>
+          <t>Released from the chains of death | Resolving stalled ribosomes | A CRISPR cut to bacteria | RNA and beta-Hemolysin of Group B Streptococcus Induce Interleukin-1 beta ( IL-1 beta) by Activating NLRP3 Inflammasomes in Mouse Macrophages | RNA and β-Hemolysin of Group B Streptococcus Induce Interleukin-1β (IL-1β) by Activating NLRP3 Inflammasomes in Mouse Macrophages | Inflammasomes and host defenses against bacterial infection | RNA decay modulates gene expression and controls its fidelity | Translational competence of ribosomes released from a premature termination codon is modulated by NMD factors | Cross-Talk Between Factors Involved in mRNA Translation and Decay: A Dissertation | Translation factors promote the formation of two states of the closed-loop mRNP | Aberrant termination triggers nonsense-mediated mRNA decay | A faux 3'-UTR promotes aberrant termination and triggers nonsense-mediated mRNA decay</t>
+        </is>
+      </c>
+      <c r="M141" s="3" t="inlineStr">
+        <is>
+          <t>Animal Cell Culture | Product Development | Assay Development | Protein Purification Techniques | Hybridoma Technology | Insect Cell Culture | In Vitro Cell Culture | Recombinant Proteins Production &amp; Purification | Yeast Genetics | Yeast Biology</t>
+        </is>
+      </c>
+    </row>
+    <row r="142" ht="80" customHeight="1" s="4">
+      <c r="B142" s="3" t="inlineStr">
+        <is>
+          <t>Avery August</t>
+        </is>
+      </c>
+      <c r="C142" s="3" t="inlineStr">
+        <is>
+          <t>Avery-August</t>
+        </is>
+      </c>
+      <c r="D142" s="3" t="inlineStr">
+        <is>
+          <t>Cornell University</t>
+        </is>
+      </c>
+      <c r="E142" s="3" t="n">
+        <v>14139</v>
+      </c>
+      <c r="F142" s="3" t="n">
+        <v>6631</v>
+      </c>
+      <c r="G142" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="H142" s="3" t="inlineStr">
+        <is>
+          <t>Nicholas-Koylass | Bo_Dupont | Isaac-Monreal-3 | Elizabeth-Walsh-7 | Jasmine-Caulfield | Melanie-Ragin | Hector-Aguilar-13 | Blake-Peterson-2 | Jianfang-Hu-2 | Sonia-Cavigelli | Candice-Limper | Andrew-Henderson-3 | Gary-Perdew | Timothy-Craig-4 | Faoud-Ishmael | Timothy-Craig-5 | Mahinbanu-Mammadli | Alaji-Bah | Julie-Sahler | Alvaro-Monteiro-2 | Lu-Huang-32 | Pamela-Schwartzberg | Kaixiong-Ye | Weishan-Huang-3 | Archana-Iyer-9 | Jason-Mercer-2 | Jose-Morales-39 | Mobin-Karimi-2 | Mankit-Law-16211447 | Fei-Huang-2035636048 | Sonia-Mohinta-2039027686 | Chavez-Carter-2075683813 | Sabrina-Solouki-2113840815 | Song-Guo-Zheng-2130073675 | Kindra-Stokes-2163739403 | David-W-Buchholz-2164941563 | Jessica-Elmore-2166501636 | Natalie-F-Nidetz-2167790683 | Michael-C-McGee-2167796631 | Brian-Imbiakha-2169544263 | Orchi-Anannya-2170542237 | Teresa-Gentile-2177850766 | Rebecca-Harris-2177851198 | Arun-Kannan-28443466 | Cynthia-Mueller-38918796 | Nisebita-Sahu-39590596 | Margherita-T-Cantorna-39862971 | Shengli-Hao-39874017 | Yuting-Bai-57510739</t>
+        </is>
+      </c>
+      <c r="I142" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="J142" s="3" t="inlineStr">
+        <is>
+          <t>Yoji Shimizu | Elizabeth Walsh | Christopher Rudd | Richard A Flavell | Laurent Gapin | Martha S Jordan | Paul S Foster | Arthur Weiss | Stephen M Hedrick | Edvard C I Smith | Stacie Anderson | Lisa Finkelstein | Jeffrey A. Ledbetter | Toshiaki Kawakami | Craig E Cameron | Leslie J Berg | Nancy A Lee | Juris Grasis | Bj Fowlkes | James Lee | Stephen C Jameson | Marsha Wills-Karp | George S Yap | Daniel W Mcvicar | Jean-Pierre Kinet | Peter Linsley | Christine Broussard | Amanda Prince | Pamela L Schwartzberg | Jayanta Debnath | Donald Bruce Fulton | Weishan Huang | Julio Gomez-Rodriguez | Maria-Grazia Roncarolo | Archana S Iyer | Yuko Kawakami | Martin Felices | Mingcan Xia | Catherine C Yin | Gary Koretzky | Melanie Ragin | Stephen Bunnell | Leslie Sharp | Jianfang Hu | Carl June | Michael Czar | Owen N. Witte | Sonya Gibson | Harold Varmus | Alan Sher</t>
+        </is>
+      </c>
+      <c r="K142" s="3" t="n">
+        <v>251</v>
+      </c>
+      <c r="L142" s="3" t="inlineStr">
+        <is>
+          <t>ITK signaling regulates a switch between T helper 17 and T regulatory cell lineages via a calcium-mediated pathway | Effective differentiation of double negative thymocytes requires high fidelity replication of mitochondrial DNA in an age dependent manner | Cell-autonomous requirement for ACE2 across organs in lethal mouse SARS-CoV-2 infection | regulation of VE-cadherin disassembly p38 MAP kinase is necessary for melanoma-mediated | Effects of PFOS and Cyclophosphamide exposure on immune homeostasis in mice | Abstract C009: Race- and TNBC-specific circulating biomarker profiles among breast cancer patients | T cell development is regulated by high fidelity replication of mitochondrial DNA | Multivalent viral particles elicit safe and efficient immunoprotection against Nipah Hendra and Ebola viruses | Immune Response during Saccharopolyspora rectivirgula Induced Farmer’s Lung Disease | Eosinophils and Lung Mucosal Antibody Production: Is Location the Key? | High-Efficiency Retroviral Transduction for Type 1 Regulatory T Cell Differentiation | ITK regulates IL-10 production by CD8+ T cells and lung immunopathology during influenza infection | A TMPRSS2 inhibitor acts as a pan-SARS-CoV-2 prophylactic and therapeutic | Neuropilin-1 Identifies a New Subpopulation of TGF-β-Induced Foxp3+ Regulatory T Cells With Potent Suppressive Function and Enhanced Stability During Inflammation | ITK signaling regulates IL-10 production by CD8+ T cells and lung immunopathology during influenza infection | ITK tunes the Th17/Treg switch response by controlling calcium dependent signaling. | ITK independent development of Th17 responses during hypersensitivity pneumonitis driven lung inflammation | New Class of Broad-Spectrum Antivirals Improves Influenza Virus Vaccine Development | SARS-CoV-2 infection of olfactory epithelial cells and neurons drives acute lung injury and lethal COVID-19 in mice | Interleukin‐2‐inducible T‐cell kinase (Itk) signaling regulates potent noncanonical regulatory T cells | Genetic Analysis of iNKT Cell Development and Function | Eosinophils are dispensable for development of MOG35-55-induced experimental autoimmune encephalomyelitis in mice | Konjac Glucomannan Oligosaccharides Prevent Intestinal Inflammation Through SIGNR1‐Mediated Regulation of Alternatively Activated Macrophages | Human Wnt/β-Catenin Regulates Alloimmune Signaling during Allogeneic Transplantation | Targeting of the Tec Kinase ITK Drives Resolution of T Cell-Mediated Colitis and Emerges as Potential Therapeutic Option in Ulcerative Colitis | 1-s2.0-S2589004221002546-main | A novel highly potent inhibitor of TMPRSS2-like proteases blocks SARS-CoV-2 variants of concern and is broadly protective against infection and mortality in mice | 31 TARGETING OF THE TEC KINASE ITK, THE MOLECULAR TARGET OF CYCLOSPORINE A, DRIVES RESOLUTION OF T CELL-MEDIATED COLITIS | Interleukin-2 inducible T cell kinase functions as a molecular switch to fine tune differentiation of naive T helper cells in pro/anti-inflammatory effector T cell lineages | ITK regulates IL-10 production by CD8+ T cells and lung immunopathology during influenza infection | Targeting SLP76:ITK interaction separates GVHD from GVL in allo-HSCT | Eosinophils are dispensable for development of MOG35-55-induced experimental autoimmune encephalomyelitis in mice | Correction to: Inhaled corticosteroids as treatment for adolescent asthma: effects on adult anxiety-related outcomes in a murine model | Vitamin A Status, Inflammation Adjustment, and Immunologic Response in the Context of Acute Febrile Illness: A Pilot Cohort Study Among Pediatric Patients | Targeting SLP76:ITK interaction separates GVHD from GVL in allo-HSCT | Effect of Perfluorooctanesulfonic acid (PFOS) on immune cell development and function in mice | TCR/ITK Signaling in Type 1 Regulatory T cells | Inhaled corticosteroids as treatment for adolescent asthma: effects on adult anxiety-related outcomes in a murine model | Targeting Interleukin-2-Inducible T-Cell Kinase (ITK) Differentiates GVL and GVHD in Allo-HSCT | TCR Signal Strength and Antigen Affinity Regulate CD8 + Memory T Cells | Inhibition of ITK differentiates GVT and GVHD in allo-HSCT | BTK/ITK dual inhibitors: Modulating immunopathology and lymphopenia for COVID‐19 therapy | Author Correction: ITK signalling via the Ras/IRF4 pathway regulates the development and function of Tr1 cells | Development of regulatory IL-10-producing ILCs during type 2 inflammation | Heterogeneity of regulatory T cells during lung inflammation | The Role of Tyrosine Kinase Itk in T helper 17 and T regulatory cells in Hypersensitivity Pneumonitis | ITK regulates IL-10 production by CD8+ T cells and lung immunopathology during influenza infection | Role of the Innate Immune System in the Development of Hypersensitivity Pneumonitis | Tuning T helper cell differentiation by ITK | Interleukin-2-Inducible T-Cell Kinase Deficiency Impairs Early Pulmonary Protection Against Mycobacterium tuberculosis Infection | Effect of Perfluorooctanesulfonic acid (PFOS) on immune cell development and function in mice | Cornell BEST: Keys to successful institutionalization of career and professional development programming | Immunoglobulins | Targeting SLP76/ITK Signaling Interaction Separates GBHD from GVL in Allo-HSCT | Amino acid starvation enhances vaccine efficacy by augmenting neutralizing antibody production | Abstract #4368 Chronic inhaled corticosteroids during development minimize allergic asthma symptoms but exacerbate comorbid anxiety symptoms | Non-receptor tyrosine kinase signaling in autoimmunity and therapeutic implications | The role of tyrosine kinase Itk in T helper 17 and T regulatory cells in IL17 mediated hypersensitivity pneumonitis | ITK signaling differentiates GVT and GVHD after allogeneic bone marrow transplantation by regulating IRF-4, JAK/STAT and Eomesodermin expression | TCR signal strength and antigen affinity independently modulate CD8+ memory T cell development | ITK regulates antigen-specific CD8+ T cell-derived IL-10 production and modulates influenza-induced pulmonary immunopathology | Thymic regulatory T cells arise via two distinct developmental programs | Beyond Type 1 Regulatory T Cells: Co-expression of LAG3 and CD49b in IL-10-Producing T Cell Lineages | Asthma Induction During Development and Adult Lung Function, Behavior and Brain Gene Expression | Supplementary Material | Beyond type 1 regulatory T cells: co-expression of LAG3 and CD49b in IL-10-producing T cell lineages | TCR/ITK signaling via mTOR tunes CD8+ T cell homeostatic proliferation, metabolism, and anti-tumor effector function | Who regulates whom: ZNF341 is an additional player in the STAT3/T H 17 song | Factors Contributing to the Success of NIH-Designated Underrepresented Minorities in Academic and Nonacademic Research Positions | Ex vivo synthetic immune tissues with T cell signals for differentiating antigen-specific, high affinity germinal center B cells | The TCR/ITK signaling pathway regulates the counterbalance of effector and regulatory T cell development | Amino acid starvation sensing dampens IL-1β production by activating riboclustering and autophagy | S4 Fig | S8 Fig | S3 Table | S5 Fig | S10 Fig | S2 Table | S2 Fig | S1 Table | S1 Data | S1 Fig | S3 Fig | S6 Fig | S7 Fig | S9 Fig | Does Perfluorooctane Sulfonic Acid (PFOS) Affect the Mouse Immune System? | Drebrin Regulation of Calcium Signaling in Immune Cells | ITK signalling via the Ras/IRF4 pathway regulates the development and function of Tr1 cells | Supplementary Information | Peer Review File | ITK signaling via the Ras/IRF4 pathway regulates the development and function of type 1 regulatory T cells | Itk: A potential target for Saccharopolyspora rectivirgula- induced hypersensitivity pneumonitis | Itk independent development of natural Th17 cells and IL17A-driven hypersensitivity pneumonitis | TCR signal strength and antigen affinity modulate CD8+ memory T Cell development | The decidua of preeclamptic-like BPH/5 mice exhibits an exaggerated inflammatory response during early pregnancy | T-Bet independent development of IFNγ secreting natural T helper 1 cell population in the absence of Itk | Peri-adolescent asthma symptoms cause adult anxiety-related behavior and neurobiological processes in mice | Prime-boost strategies to embrace diversity and inclusion in immunology | Drebrin Depletion Causes Abnormal Morphology in Mouse Skin</t>
+        </is>
+      </c>
+      <c r="M142" s="3" t="inlineStr">
+        <is>
+          <t>Kinase | Cell Migration | MHC | Gene Expression</t>
+        </is>
+      </c>
+    </row>
+    <row r="143" ht="80" customHeight="1" s="4">
+      <c r="B143" s="3" t="inlineStr">
+        <is>
+          <t>Angelo Andres</t>
+        </is>
+      </c>
+      <c r="C143" s="3" t="inlineStr">
+        <is>
+          <t>Angelo-Andres</t>
+        </is>
+      </c>
+      <c r="D143" s="3" t="inlineStr">
+        <is>
+          <t>University of Kansas</t>
+        </is>
+      </c>
+      <c r="E143" s="3" t="n">
+        <v>191</v>
+      </c>
+      <c r="F143" s="3" t="n">
+        <v>31</v>
+      </c>
+      <c r="G143" s="3" t="n">
+        <v>22</v>
+      </c>
+      <c r="H143" s="3" t="inlineStr">
+        <is>
+          <t>Greg-Welmaker | Mandy-Netherton | Blake-Peterson-2 | Yuk-Ching-Tse-Dinh | Gagandeep-Narula-2 | Digamber-Rane | Fadel-Boumelhem | Richard-Houghten | Kyle-Rohde | Marc-Giulianotti | Shayna-Sandhaus | Rashmi-Gupta-30 | Krishna-Sharma-6 | Thirunavukkarasu-Annamalai | Sandra-Geden-2 | Zach-Woydziak | Zhe-Gao-3 | Pamela-K-Garcia-2107692749 | Carolina-Rodrigues-Felix-2107695342 | Carlos-Paz-2107701044 | Brandon-Walls-2196968255 | Andres-Mariano-2227905773</t>
+        </is>
+      </c>
+      <c r="I143" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="J143" s="3" t="inlineStr">
+        <is>
+          <t>Jessie au | Jose Manuel Andreu | Hesna Yigit | David G I Kingston | Andrea E Prota | Susan Bane | Blake Robert Peterson | Yuk-Ching Tse-Dinh | Weishuo Fang | Yawei Shi | Clemencia Pinilla | Adel Nefzi | Leslie Wilson | Leslie Wilson | Richard A. Houghten | Miles A Miller | Ruth Matesanz | Jennifer L Ross | José C Fernandez-Checa | Alex Sparreboom | Barbara Poliks | M. Guillaume Wientjes | Jing Liu | Christian D Santangelo | Isabel Barasoain | Colette T Dooley | Jessica J Field | Richard Paul Haugland | Yuyu Song | Marc A Giulianotti | Bokun Cheng | Douglas Alan Thrower | Thomas Wanek | Yun-Kai Zhang | Luc Reymond | Angela Logan | Yi-Jun Wang | Karl Drlica | Mary Ann Jordan | Zach Woydziak | Andrew M James | Susan Horwitz | Rubén M Buey | Michael Edler | Paraskevi Giannakakou | Seong Hoon Jang | Molly Lee | Wolfgang Löscher | Ian Paterson | Wei Guo</t>
+        </is>
+      </c>
+      <c r="K143" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="L143" s="3" t="inlineStr">
+        <is>
+          <t>Quantification of Engagement of Microtubules by Small Molecules in Living Cells by Flow Cytometry | Pacific Blue-Taxoids as Fluorescent Molecular Probes of Microtubules | Synthesis of a Fluorinated Pyronin that Enables Blue Light to Rapidly Depolarize Mitochondria | Small Molecule Inhibitors Targeting Topoisomerase I as Novel Antituberculosis Agents</t>
+        </is>
+      </c>
+      <c r="M143" s="3" t="inlineStr">
+        <is>
+          <t>DNA Topoisomerases | Cancer Biology | Type I DNA Topoisomerases | Mycobacterium Tuberculosis | Cell Culture | PCR | Recombination | Cloning | Cytotoxicity | Gel Electrophoresis</t>
+        </is>
+      </c>
+    </row>
+    <row r="144" ht="80" customHeight="1" s="4">
+      <c r="B144" s="3" t="inlineStr">
+        <is>
+          <t>Asuri Prasad</t>
+        </is>
+      </c>
+      <c r="C144" s="3" t="inlineStr">
+        <is>
+          <t>Asuri-Prasad</t>
+        </is>
+      </c>
+      <c r="D144" s="3" t="inlineStr">
+        <is>
+          <t>The University of Western Ontario</t>
+        </is>
+      </c>
+      <c r="E144" s="3" t="n">
+        <v>22940</v>
+      </c>
+      <c r="F144" s="3" t="n">
+        <v>2167</v>
+      </c>
+      <c r="G144" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="H144" s="3" t="inlineStr">
+        <is>
+          <t>Bradley-Corbett | Craig-Campbell-14 | Jorge-Burneo | Cheryl-Rockman-Greenberg | Robert-Hegele | Jian-Wang-220 | Michael-Rieder-2 | Nathalie-Jette | Allan-Innes | Lorne-Seargeant | Jamie-Seabrook | Simon-Levin-2 | Suvasini-Sharma | Chitra-Prasad | Marc-Del-Bigio | Andrea-Downie | Bruce-Martin-12 | David-Ramsay-2 | Victoria-Siu | Keng-Tay | Shashikant-Seshia | Albert-Chudley | Sarah-Nikkel | Taila-Hartley-2 | Sali-Farhan | John-Robinson-19 | Carl-Stafstrom | Tugce-Balci | Anita-Kozyrskyj | Natalya-Karp | C-Anthony-Rupar-12756332 | B-Narayan-2020720155 | Melanie-Napier-2057684895 | Sapna-Sharan-2057685385 | Andrea-Andrade-2141394668 | Chitra-Prasad-2168159389 | Christopher-B-R-Funk-28898575 | L-A-Dilling-38209321 | Jacek-Majewski-38312288 | David-A-Dyment-38499232 | Bekim-Sadikovic-38637094 | Kym-M-Boycott-38637335 | Bernard-N-Chodirker-39540954 | Frances-A-Booth-5479318 | Sharan-Goobie-56996701 | Jonathan-B-Kronick-58072941 | JRG-Thompson-64124276 | S-Vaz-71613009 | Tony-Rupar-77434117</t>
+        </is>
+      </c>
+      <c r="I144" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="J144" s="3" t="inlineStr">
+        <is>
+          <t>Solomon Moshe | Iscia Lopes-Cendes | Tiziana Granata | Eva Andermann | Federico Zara | Eduard Struys | Barbara Plecko | Grant R Sutherland | Luciano Merlini | Leanne M Dibbens | Enrico Bertini | Samuel Wiebe | Stephen G Kaler | Sidney M Gospe, Jr | Markus Reuber | Kathy N Speechley | Carlo Alberto Tassinari | P. B. Mills | Judith Helen Cross | Frederick Andermann | Shlomo Shinnar | William Dobyns | Darryl C De Vivo | Johannes Zschocke | Fernando Cendes | Jose M Serratosa | Sara E Mole | Robyn H Wallace | Peter T Clayton | Sylvia Stockler | Saadet Mercimek-Andrews Mercimek-Mahmutoglu Mahmutoglu | Jean-Marie M Saudubray | Albert de la chapelle | Perrine Plouin | David Ledbetter | Peter De Jonghe | Nina Horn | Zeynep Tümer | Jacqueline A French | Christopher A Walsh | John Opitz | Cheryl Rockman- Greenberg | Marjo van der Knaap | Johan Van Hove | Ron A. Wevers | Chitra Prasad | Rima Nabbout | Anna-Elina Lehesjoki | Ruth Ottman | Arthur Beaudet</t>
+        </is>
+      </c>
+      <c r="K144" s="3" t="n">
+        <v>108</v>
+      </c>
+      <c r="L144" s="3" t="inlineStr">
+        <is>
+          <t>Does the duration of video-EEG recording influence diagnostic yield in pediatric epilepsy: Results from a single center study | Fever, Seizures and Encephalopathy: From Bush Fires to Firestorms | Association Between Lysine Reduction Therapies and Cognitive Outcomes in Patients With Pyridoxine-Dependent Epilepsy | Pitfalls in Genetic Testing for Consanguineous Pediatric Populations | De novo STXBP1 Mutations in Two Patients With Developmental Delay With or Without Epileptic Seizures | Myoclonus‐Dystonia Presentation of ATM Gene Mutation in a Canadian Mennonite | A live-online mindfulness-based intervention for children living with epilepsy and their families: protocol for a randomized controlled trial of Making Mindfulness Matter© | Parental psychosocial aspects and stressors involved in the management of inborn errors of metabolism | Genetic Testing in Children with Epilepsy: Report of a Single-Center Experience | A study of the significance of photoparoxysmal responses and spontaneous epileptiform discharges in the EEG in childhood epilepsy | Clinical and radiologic features of pediatric opioid use‐associated neurotoxicity with cerebellar edema (POUNCE) syndrome | Neurodevelopmental Disabilities in Canadian Children: Prevalence Data from the National Longitudinal Study of Children and Youth | Penelope syndrome: Exploring the Pandora’s Box of Genetic Associations | Implementation of Epilepsy Multi-gene Panel Testing in Ontario, Canada | High diagnostic yield of direct Sanger sequencing in the diagnosis of neuronal ceroid lipofuscinoses | Hypomyelinating leukodystrophy: do heterozygous variants in HSPD1 deserve a closer look? | Infantile-Onset Multisystem Neurologic, Endocrine, and Pancreatic Disease: Case and Review | Development of Criteria for Epilepsy Genetic Testing in Ontario, Canada | Experience of Psychogenic Nonepileptic Seizures in the Canadian League Against Epilepsy: A Survey Describing Current Practices by Neurologists and Epileptologists | Altered Activation and Functional Asymmetry of Exner's Area but not the Visual Word Form Area in a Child with Sudden-onset, Persistent Mirror Writing | Ophthalmic Findings in Pediatric Conversion Disorder | Magnetic resonance imaging in the diagnosis of white matter signal abnormalities | Update in Pediatric Neurology | Epilepsy as a Network Disorder (2): What can we learn from other network disorders such as dementia and schizophrenia, and what are the implications for translational research? | Heterozygous De Novo UBTF Gain-of-Function Variant Is Associated with Neurodegeneration in Childhood | Inborn Errors of Metabolism and Epilepsy: Current Understanding, Diagnosis, and Treatment Approaches | Debunking Occam's razor: Diagnosing multiple genetic diseases in families by whole exome sequencing | Epilepsy, birth weight and academic school readiness in Canadian Children: Data from the National Longitudinal Study of Children and Youth | Epilepsy and Its Impact on Psychosocial Outcomes in Canadian Children: Data from the National Longitudinal Study of Children and Youth (NLSCY) | Response to: Letter to the Editor Regarding: The Expanding Phenotype of MELAS Caused by the m.3291 T&gt;C tRNA Mutation E Kelland, C. A. Rupar, Asuri N. Prasad, K. Y. Tay, A. Downie and C. Prasad (1) by Josef Finsterer, MD, PhD [1], Sinda Zarrouk-Mahjoub, PhD [2] [1] Krankenanstalt Rudolfstiftung, Vienna [2] Genomics Platform, Pasteur Institute of Tunis, Tunisia | Menkes disease: What a multidisciplinary approach can do | The expanding phenotype of MELAS caused by the m.3291T&gt;C mutation in the MT-TL1 gene | A national profile of neurodevelopmental disabilities in Canadian children: data from the National Longitudinal Study of Children and Youth | Old gene, new phenotype: Mutations in heparan sulfate synthesis enzyme, EXT2 leads to seizure and developmental disorder, no exostoses | Vertebral Artery Dissection Causing Stroke After Trampoline Use | Childhood Ataxia | Epilepsy, Comorbid Conditions in Canadian Children: Analysis of Cross Sectional Data from Cycle 3 of the National Longitudinal Study of Children and Youth | Case of Multiple Sulfatase Deficiency and Ocular Albinism: A Diagnostic Odyssey | Linkage analysis and exome sequencing identify a novel mutation in KCTD7 in patients with progressive myoclonus epilepsy with ataxia | Epilepsy, School Readiness in Canadian Children: Data from the National Longitudinal Study of Children and Youth (NLSCY) | 98: Hanging, Choking and Near-Drowning in Children; Imaging Findings, Neurological Sequelae, and Outcomes | MELAS: A multigenerational impact of the MTTL1 A3243G MELAS mutation | Cyproheptadine for central hypertension? | Genetic Aspects of Human Epilepsy | Multiple Sulfatase Deficiency: Disease in search of a treatment! | Changes in diagnostic time, therapeutic options and clinical outcomes in patients with lysosomal storage disorders (LSD) in Southwestern Ontario over the past two decades | Recurrent Encephalopathy: NAGS (N-Acetylglutamate Synthase) Deficiency in Adults | Genetic Testing of Epileptic Encephalopathies of Infancy: An Approach | Exome sequencing reveals a homozygous mutation in TWINKLE as the cause of multisystemic failure including renal tubulopathy in three siblings | Gait disturbances and seizure-like episodes in a patient with a Chiari malformation | Pyridoxine Dependent Epilepsy: Enduring Mystery and Continuing Challenges | Unusual presentation of Chiari I in toddlers: Case reports and review of the literature | Risk Factors for Nonsyndromic Holoprosencephaly: A Manitoba Case-Control Study | Natural History of Temporal Lobe Epilepsy: Antecedents and Progression | Risk factors for nonsyndromic holoprosencephaly: A Manitoba-based case-control study | Menkes disease and infantile epilepsy | Pyruvate dehydrogenase deficiency and epilepsy | Treating Intellectual Disability; Look for Creatine Peaks in the Brain | Prevalence of Childhood Epilepsy in Canada | Methylenetetrahydrofolate reductase (MTHFR) deficiency and infantile epilepsy | Relationship between antiepileptic drugs and biological markers affecting long-term cardiovascular function in children and adolescents | Genetic evaluation of the floppy infant | Predictive Value of the Lymphocyte Toxicity Assay in the Diagnosis of Drug Hypersensitivity Syndrome | Amish Microcephaly: Long-Term Survival and Biochemical Characterization | Epilepsy with Complex Genetics | Epilepsy with Complex Genetics: Mechanisms, Models, and Translational Perspectives | Early Onset Epilepsy and Inherited Metabolic Disorders: Diagnosis and Management | Re: Reid AY, Galic MA, Teskey GC, Pittman QJ. Febrile seizures: current views and investigations. Can J Neurol Sci. 2009; 36: 679-86 | 113 MELAS: Molecular, pathological and radiological correlates | Primary Disorders of Metabolism and Disturbed Fetal Brain Development | Susceptibility to Febrile Seizures: More Than Just a Faulty Thermostat! | 'White matter disorders' and 'inborn errors of metabolism'; Bridging clinical phenotypes with biochemical and molecular defects | Genetic influences on the risk for epilepsy | Agenesis of the corpus callosum and cerebral anomalies in inborn errors of metabolism | Hemolytic uremic syndrome (HUS) secondary to cobalamin C (cblC) disorder | IS THERE A NEUROBEHAVIORAL PROFILE ASSOCIATED WITH IN UTERO EXPOSURE TO SOLVENT ABUSE? | Status epilepticus in pediatric practice: neonate to adolescent | PRESCRIBING PRACTICES IN CHILDHOOD EPILEPSY: USE OF A POPULATION HEALTH CARE DRUG DATABASE | Cellular bioenergetics and cerebral dysmorphogenesis: Lessons from Amish microcephaly | PHENOTYPIC VARIABILITY IN CRANIOFACIAL AND ORGAN SYSTEM DEVELOPMENT IN HOLOPROSENCEPHALY | RISK FACTORS FOR THE DEVELOPMENT OF HOLOPROSENCEPHALY: A MANITOBA-BASED CASE-CONTROL STUDY | The Floppy Infant: Retrospective Analysis of Clinical Experience (1990--2000) in a Tertiary Care Facility | Do clinical variables predict an abnormal EEG in patients with complex febrile seizures? | Neuropathological, biochemical and molecular findings in a glutaric acidemia type 1 cohort | DOES PROXIMITY TO A TERTIARY PEDIATRIC INTENSIVE CARE UNIT (PICU) AFFECT OUTCOME OF PATIENTS IN STATUS EPILEPTICUS (SE)? | OUTCOME VARIABLES OF STATUS EPILEPTICUS (SE) IN A TERTIARY PEDIATRIC INTENSIVE CARE UNIT (PICU) | M�bius sequence, Robin complex, and hypotonia: Severe expression of brainstem disruption spectrum versus Carey-Fineman-Ziter syndrome | The Burden of Seizures in Manitoba Children: A Population-Based Study | Preliminary attempts to establish a rat model of striatal injury in glutaric acidaemia type I | The floppy infant: Contribution of genetic and metabolic disorders | Smith‐Lemli‐Opitz syndrome: New mutation with a mild phenotype | Outcome of the First 3-Years of a DNA-Based Neonatal Screening Program for Glutaric Acidemia Type 1 in Manitoba and Northwestern Ontario, Canada | De novo interstitial long arm deletion of chromosome 3 with facial dysmorphism, Dandy-Walker variant malformation and hydrocephalus | Hepatic Carnitine Palmitoyl Transferase 1 (CPT1 A) Deficiency in North American Hutterites (Canadian and American): Evidence for a Founder Effect and Results of a Pilot Study on a DNA-Based Newborn Screening Program | The Role of Vigabatrin in Childhood Seizure Disorders: Results from a Clinical Audit | Outcome of first two years of neonatal screening for glutaric acidemia type 1 in Oji-Cree. | Genetic evaluation of pervasive developmental disorders: The terminal 22q13 deletion syndrome may represent a recognizable phenotype | Chapter 6 Progress in Understanding the Genetics of Epilepsy | Homocystinuria: Challenges in diagnosis and management | Recent Advances in the Genetics of Epilepsy: Insights from Human and Animal Studies</t>
+        </is>
+      </c>
+      <c r="M144" s="3" t="inlineStr">
+        <is>
+          <t>Neurology | Epilepsy | Neurogenetics | neurometabolic</t>
+        </is>
+      </c>
+    </row>
+    <row r="145" ht="80" customHeight="1" s="4">
+      <c r="B145" s="3" t="inlineStr">
+        <is>
+          <t>René Oswaldo Pérez Ramírez</t>
+        </is>
+      </c>
+      <c r="C145" s="3" t="inlineStr">
+        <is>
+          <t>Rene-Perez-Ramirez</t>
+        </is>
+      </c>
+      <c r="D145" s="3" t="inlineStr">
+        <is>
+          <t>Hospital Civil de Guadalajara</t>
+        </is>
+      </c>
+      <c r="E145" s="3" t="n">
+        <v>3452</v>
+      </c>
+      <c r="F145" s="3" t="n">
+        <v>132</v>
+      </c>
+      <c r="G145" s="3" t="n">
+        <v>48</v>
+      </c>
+      <c r="H145" s="3" t="inlineStr">
+        <is>
+          <t>Corona-Rivera-Alfredo | Eugenio-Zapata-Aldana | Jorge-Corona-Rivera | J-Jesus-Perez-Molina | Eva-Camarena | Cristian-Aranda-Sanchez | Adriana-Benitez-2 | Lizbet_Mellin-Sanchez | Cuauhtli-Arambul-Carrillo-2 | Moises-Quiles-Corona | Rafael-Nieto-8 | Aime-Corona | Araceli-Cordero-Zamora | Lucina-Bobadilla-Morales | Ana-Sandoval | Juan-Lona-Reyes | Rafael-L-Aguirre-Guillen-2006747592 | Miguel-Angel-Verdugo-Robles-2077981910 | Elba-Patricia-Ascencio-Esparza-2077992134 | Susana-Solis-Ledezma-2082832378 | Juan-Jose-Cardenas-Ruiz-Velasco-2082845407 | Larissa-Maria-Gomez-Ruiz-2082848244 | Miguel-Angel-Verdugo-2083143116 | Virginia-Rodriguez-Patino-2137442796 | Larissa-M-Gomez-Ruiz-2137459686 | Edith-Adriana-Benitez-Vazquez-2137463690 | Edith-Adriana-Benitez-Vazquez-2139558267 | Virginia-Rodriguez-Patino-2139559388 | Andrea-Karina-Montero-de-Anda-2139559709 | Ana-Rosa-Gonzalez-Sanchez-2139562345 | Ruth-Yesica-Ramos-Gutierrez-2151729566 | J-Antonio-Gallegos-Marin-2151737906 | Cesar-A-Ochoa-Meza-2151738192 | E-Elizabeth-Camarena-Pulido-2151784338 | Leonardo-Llamas-Ramos-2163285785 | Leonardo-Llamas-Ramos-2164124196 | Mireya-Robledo-Aceves-2166603596 | Denisse-Sinai-Jimenez-Hernandez-2178835127 | Mariana-Chavez-Rodriguez-2185689822 | Sandra-I-Cortes-Gonzalez-2195625053 | Topacio-O-Andrade-Romo-2195821772 | Liuba-M-Aguirre-Salas-2195879886 | Herlinda-Pinto-Macedo-2198883634 | Larissa-M-Gomez-Ruiz-2213137229 | Claudia-Angelica-Quezada-Salazar-2225727495 | Juan-Pablo-Arellano-Cardenas-2225757870 | Elba-Patricia-Ascencio-2254401465 | Eloy-Lopez-Marure-39959896</t>
+        </is>
+      </c>
+      <c r="I145" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="J145" s="3" t="inlineStr">
+        <is>
+          <t>Noyal M Joseph | Parijat Das | Bernhard Resch | Patrick Van Reempts | Edward A Liechty | J. Jesús Pérez-Molina | Philippa Middleton | Elwyn Chomba | Richard Derman | José M Belizán | Jim P Buttery | Barbara J Stoll | Shivaprasad S Goudar | Tom Weber | Vanessa Thorsten | Ana Garcés | Olufemi T Oladapo | Luz Gibbons | Ballambattu Vishnu Bhat | Archana B Patel | Omrana Pasha | Susan E Beekmann | Elizabeth S Draper | Robert E Black | Anna-Karin Edstedt Bonamy | Fabian Esamai | Nancy F Krebs | Arun Singh | Ann L Anderson Berry | Henrique Barros | Avroy Fanaroff | Belgode N Harish | Elizabeth A. Marchant | Pascal M Lavoie | Fernando Althabe | Guilaine K Boyce | Maria Teresa Montagna | Rajlakshmi Viswanathan | Grazia Lovero | Emilija Wilson | Mikael Norman | Juan Carlos Lona-Reyes | Ming-Horng Tsai | Ranajit Mukherjee | Jennifer Hemingway-Foday | Nellie Hansen | Mabel Berrueta | Zakariya Bambala Puthattayil | Arthur Reingold | Waldemar Alberto Carlo</t>
+        </is>
+      </c>
+      <c r="K145" s="3" t="n">
+        <v>18</v>
+      </c>
+      <c r="L145" s="3" t="inlineStr">
+        <is>
+          <t>Birth weight percentiles in Western-Mexico | Incidence and factors associated with invasive candidiasis in a neonatal intensive care unit in Mexico | Congenital infection by cytomegalovirus in newborns with very low birth weight | Family history of thyroid disease and risk of congenital hypothyroidism in neonates with Down syndrome | Incidencia y factores asociados a candidiasis invasiva en una unidad de cuidados intensivos neonatales de México | Historia familiar de enfermedad tiroidea y riesgo de hipotiroidismo congénito en neonatos con síndrome de Down | Asociación de multirresistencia bacteriana y mortalidad en recién nacidos de muy bajo peso al nacimiento | Morbimortalidad neonatal en un entorno de baja adherencia a corticosteroides prenatales | Prevalencia de β-lactamasas de espectro extendido en enterobacterias causantes de sepsis neonatal y factores asociados | Neonatal morbidity and mortality associated with low adherence to prenatal corticosteroids | Association of prenatal antibiotics and the etiology of early neonatal sepsis in a neonatal care unit | Asociación de antibióticos prenatales y etiología de la sepsis neonatal temprana en una unidad de cuidados neonatales | Neonatal mortality and associated factors in newborn infants admitted to a Neonatal Care Unit | Associated congenital anomalies in infants with isolated gastroschisis: A single-institutional experience | Etiology and antimicrobial resistance patterns in early and late neonatal sepsis in a Neonatal Intensive Care Unit | Sepsis neonatal temprana, incidencia y factores de riesgo asociados en un hospital público del occidente de México | Early neonatal sepsis, incidence and associated risk factors in a public hospital in western Mexico | Etiología y patrones de resistencia antimicrobiana en sepsis neonatal temprana y tardía, en una Unidad de Terapia Intensiva Neonatal</t>
+        </is>
+      </c>
+      <c r="M145" s="3" t="inlineStr">
+        <is>
+          <t>Staphylococcus | Neonatal Sepsis | Antimicrobial Susceptibility Testing | Antimicrobial Resistance | Neonatal Intensive Care | Antibiotics | Neonatology | Neonatal Resuscitation | Neonatal Medicine</t>
+        </is>
+      </c>
+    </row>
+    <row r="146" ht="80" customHeight="1" s="4">
+      <c r="B146" s="3" t="inlineStr">
+        <is>
+          <t>Deanna DiBella</t>
+        </is>
+      </c>
+      <c r="C146" s="3" t="inlineStr">
+        <is>
+          <t>Deanna-Dibella</t>
+        </is>
+      </c>
+      <c r="D146" s="3" t="inlineStr">
+        <is>
+          <t>University of Utah</t>
+        </is>
+      </c>
+      <c r="E146" s="3" t="n">
+        <v>306</v>
+      </c>
+      <c r="F146" s="3" t="n">
+        <v>54</v>
+      </c>
+      <c r="G146" s="3" t="n">
+        <v>31</v>
+      </c>
+      <c r="H146" s="3" t="inlineStr">
+        <is>
+          <t>Missy-Dixon | Craig-Campbell-14 | Evan-Pucillo | Eugenio-Zapata-Aldana | Man-Hung | Karen-Bax | Carenina-Trujillo | Heather-Hayes-6 | Nicholas-Johnson-5 | Jerry-Bounsanga | Maren-Wright-Voss | Kiera-Berggren | Chad-Heatwole-12886865 | Russell-J-Butterfield-2038442047 | Becky-Crockett-2096563732 | E-Pusillo-2096594958 | W-Chen-2096598814 | butterfield-2116295738 | gu-2116296190 | johnson-NE-2116300970 | B-El-Aloul-2116660123 | R-Butterfield-2133479321 | R-Hicks-2133899824 | S-Rogers-2133903735 | Delia-Ceballos-Saenz-2144953262 | Mary-Pautler-2146635776 | Rebecca-Crockett-2147937912 | Heather-A-Hayes-2147942696 | Melissa-McIntyre-2187194576 | Wei-Chen-2227168437 | Pautler-2255630557</t>
+        </is>
+      </c>
+      <c r="I146" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="J146" s="3" t="inlineStr">
+        <is>
+          <t>Pieter de Jong | Chris Amemiya | Jess Buxton | Gregory T Carter | Craig M McDonald | Tetsuo Ashizawa | Robert G Newcombe | Kent William Hunter | Simon D Levin | Catherine Tsilfidis | Michelle A Farrar | Robert Sohn | Lotta Sjögreen | Mila E Mccurrach | Már Tulinius | Anna-Karin Kroksmark | Richard Ted Abresch | Claudio Bruno | Anne-Berit Ekström | Stavros Kiliaridis | Eduard Gappmaier | Elisabet Wentz | Man Hung | Victoria Siu | David Housman | Michelle Eagle | Gary Shutler | John David Brook | Heather Hayes | Patrick W. Dunne | Shannon L Venance | Nicholas E Johnson | Antonio Pizzuti | Elizabeth A Luebbe | Vincent P Stanton | Jerry Bounsanga | Robert Spiegel | Erik Henricson | Keith J Johnson | Kiera Berggren | Missy Dixon | Craig Campbell | Hiroyuki Aburatani | Michael Cardamone | Evan M. Pucillo | Russell Snell | Juana Barceló | Rebecca Sherlock | James E. Hilbert | Genevieve Ho</t>
+        </is>
+      </c>
+      <c r="K146" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="L146" s="3" t="inlineStr">
+        <is>
+          <t>Stepping Activity in Children With Congenital Myotonic Dystrophy | A longitudinal study of age equivalent receptive communication and performance on functional outcome measures in congenital myotonic dystrophy | FACTORS ASSOCIATED WITH HEALTH-RELATED QUALITY OF LIFE IN CHILDREN WITH CONGENITAL MYOTONIC DYSTROPHY | Physical Function and Mobility in Children with Congenital Myotonic Dystrophy | Functional measures and falls in adult-onset Myotonic Dystrophy type 1: A cross-sectional study | Disease burden and functional outcomes in congenital myotonic dystrophy: A cross-sectional study | A COMPARISON OF SIX-MINUTE WALK TEST PERFORMANCE BETWEEN CHILDREN WITH CONGENITAL MYOTONIC DYSTROPHY (CDM) AND HEALTHY CONTROLS | FEASIBILITY OF ASSESSING MUSCLE STRENGTH AND PHYSIOLOGICAL FATIGUE IN ADULTS WITH MYOTONIC DYSTROPHY, PRELIMINARY RESULTS | FEASIBILITY AND RELIABILITY OF THE 2 MINUTE WALK TEST AND 6 MINUTE WALK TEST IN CHILDREN WITH CONGENITAL MYOTONIC DYSTROPHY</t>
+        </is>
+      </c>
+    </row>
+    <row r="147" ht="80" customHeight="1" s="4">
+      <c r="B147" s="3" t="inlineStr">
+        <is>
+          <t>Jeffrey Statland</t>
+        </is>
+      </c>
+      <c r="C147" s="3" t="inlineStr">
+        <is>
+          <t>Jeffrey-Statland</t>
+        </is>
+      </c>
+      <c r="D147" s="3" t="inlineStr">
+        <is>
+          <t>University of Rochester</t>
+        </is>
+      </c>
+      <c r="E147" s="3" t="n">
+        <v>19545</v>
+      </c>
+      <c r="F147" s="3" t="n">
+        <v>2740</v>
+      </c>
+      <c r="G147" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="H147" s="3" t="inlineStr">
+        <is>
+          <t>Katy-Eichinger | Richard-Barohn | Kathryn-Wagner-2 | Mamatha-Pasnoor | Tahseen-Mozaffar | Emma-Ciafaloni | Mohammad-Salajegheh | Jaya-Trivedi | Abaki-Agbas | Emma-Matthews-12 | Stephen-Tapscott | Seth-Friedman | Mazen-Dimachkie | Sabrina_Sacconi | Rabi-Tawil | Dipa-Jayaseelan | Matthew-Wicklund | Giovanni-Meola | Baziel-Van-Engelen | Shannon-Venance | Nicholas-Johnson-5 | Yunxia-Wang-15 | Laura-Herbelin | Karlien-Mul | April-Mcvey | Chafic-Karam | Perry-Shieh-2 | Omar-Jawdat | Conrad-Weihl | Chad-Heatwole-12886865 | Leo-H-Wang-2003650213 | Russell-J-Butterfield-2038442047 | John-T-Kissel-2041356253 | Laura-Herbelin-2077471033 | David-Walk-2085055510 | Valeria-A-Sansone-2119042619 | Leann-Lewis-2162212547 | Samantha-LoRusso-2162369484 | Kiley-Higgs-2162377094 | Alrabi-Tawil-2250126238 | Robert-C-Griggs-38400876 | Silvere-M-van-der-Maarel-39052666 | William-B-Martens-39121566 | Michael-P-McDermott-39314194 | Michael-Benatar-39949355 | Lauren-Elman-40031115 | Anthony-A-Amato-42668397 | Michael-G-Hanna-65212159 | Brian-Bundy-84933195</t>
+        </is>
+      </c>
+      <c r="I147" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="J147" s="3" t="inlineStr">
+        <is>
+          <t>Giovanni Meola | Frank Lehmann-Horn | Enzo Ricci | Marianne de Visser | Giorgio Tasca | Egbert Bakker | Catharina G Faber | Claude Desnuelle | Corrado Angelini | Kathryn R Wagner | Gil I Wolfe | Jaya R Trivedi | Giuliana Galluzzi | Alexandra Belayew | Adriano Chió | Stephen J Tapscott | Massimiliano Mirabella | Rune R Frants | Damien Sternberg | Stephen Cannon | Louis Ptacek | Rabi Tawil | Jane E Hewitt | Gea Drost | Judit Balog | Rossella Tupler | Gert-Jan B van Ommen | Baziel Van Engelen | Shannon L Venance | Mauro Monforte | Kate Bushby | Richard Lemmers | Nicholas E Johnson | Kirsten R Straasheijm | Wendy King | Laura Herbelin | Giancarlo Deidda | Karlien Mul | Galina N Filippova | Roberto Frusciante | Rinse Klooster | Daniel Guthrie Miller | Richard Barohn | P.J. Vliet | Nuran Dilek | Emma Matthews | Corinne GC Horlings | Carmelo Rodolico | Volker Straub | Seward Rutkove</t>
+        </is>
+      </c>
+      <c r="K147" s="3" t="n">
+        <v>112</v>
+      </c>
+      <c r="L147" s="3" t="inlineStr">
+        <is>
+          <t>Design and Statistical Innovations in a Platform Trial for ALS | The amyotrophic lateral sclerosis-health index (ALS-HI): development and evaluation of a novel outcome measure | Motor Outcomes to Validate Evaluations in Facioscapulohumeral muscular dystrophy (MOVE FSHD): Preliminary Baseline Characteristics (S7.004) | MANOEUVRE Study Design: A Study of GYM329 (RO7204239) in Patients with Facioscapulohumeral Muscular Dystrophy (FSHD) (S2.010) | Twelve-month functional change in Limb Girdle Muscular Dystrophy R9 / 2I (P5-8.010) | Design of REACH: Phase 3 Randomized, Double-Blind, Placebo-Controlled, 48-Week Study of the Efficacy and Safety of Losmapimod in FSHD (P6-8.007) | The FSHD Composite Outcome Measure (FSHD-COM) is Reliable, Valid, and Measures Disease Progression (S7.005) | Shoulder injuries in Facioscapulohumeral muscular dystrophy patients (P6-8.001) | Preliminary Assessment of the Phase 1/2 Clinical Trial Evaluating the Safety, Tolerability, Pharmacokinetics and Pharmacodynamics of AOC 1001 Administered Intravenously to Adult Patients with Myotonic Dystrophy Type 1 (DM1) (MARINA) (S48.002) | Phase 1/2 Study to Evaluate the Safety, Tolerability, Pharmacokinetics, and Pharmacodynamic Effects of AOC 1020 Administered Intravenously to Adult Patients with Facioscapulohumeral Muscular Dystrophy (FORTITUDE) Trial Design (P3-8.007) | Antisense oligonucleotide targeting DMPK in patients with myotonic dystrophy type 1: a multicentre, randomised, dose-escalation, placebo-controlled, phase 1/2a trial | Validation of the association between MRI and gene signatures in facioscapulohumeral dystrophy muscle: implications for clinical trial design | Phase II Trial in AChR Ab+ Myasthenia Gravis of Transition from Intravenous to Subcutaneous Immunoglobulin: The MGSCIg Study | Zilucoplan in immune-mediated necrotising myopathy: a phase 2, randomised, double-blind, placebo-controlled, multicentre trial | Facioscapulohumeral muscular dystrophy: the road to targeted therapies | Patient reported impact of symptoms in amyotrophic lateral sclerosis (PRISM-ALS): A national, cross-sectional study | The Limb-Girdle Muscular Dystrophies | Quantitative Muscle Analysis in FSHD Using Whole-Body Fat-Referenced MRI: Composite Scores for Longitudinal and Cross-Sectional Analysis | Randomized Phase 2 Study of ACE-083 in Patients With Charcot-Marie-Tooth Disease | Quantitative Muscle Analysis in Facioscapulohumeral Muscular Dystrophy Using Whole‐Body Fat‐Referenced MRI: Protocol Development, Multicenter Feasibility, and Repeatability | Non‐Dystrophic Myotonia: 2‐year clinical and patient reported outcomes | Effect of Different Corticosteroid Dosing Regimens on Clinical Outcomes in Boys With Duchenne Muscular Dystrophy: A Randomized Clinical Trial | Randomized Phase 2 Study of ACE‐083, a Muscle‐Promoting Agent, in Facioscapulohumeral Muscular Dystrophy | Open‐label Pilot Study of Ranolazine for Cramps in Amyotrophic Lateral Sclerosis | Reply: Wheelchair use in genetically-confirmed FSHD1 from a large cohort study in Chinese population | Timing of Decremental Response During Repetitive Nerve Stimulation in Myasthenia Gravis | EE2: 3,4-Diaminopyridine Phosphate for AAL- The EEDAPP-ALS Trial | Brief assessment of cognitive function in myotonic dystrophy: Multicenter longitudinal study using computer-assisted evaluation | Elevated plasma complement components in facioscapulohumeral dystrophy | A double-blind, placebo-controlled, randomized trial of PXT3003 for the treatment of Charcot–Marie–Tooth type 1A | Correction to: Reldesemtiv in Patients with Spinal Muscular Atrophy: a Phase 2 Hypothesis-Generating Study | Patient Reported Quality of Life in Limb Girdle Muscular Dystrophy | N-of-1 Trials in Neurology: A Systematic Review | Predictors of functional outcomes in patients with facioscapulohumeral muscular dystrophy | N-of-1 trial of salbutamol in hyperkalaemic periodic paralysis | Long‐term efficacy and safety of dichlorphenamide for treatment of primary periodic paralysis | The FacioScapuloHumeral muscular Dystrophy Rasch‐built Overall Disability Scale (FSHD‐RODS) | Characterizing the face in facioscapulohumeral muscular dystrophy | A Roadmap to Patient Engagement: FSHD and the ReSolve Clinical Trial | Longitudinal study of MRI and functional outcome measures in facioscapulohumeral muscular dystrophy | Challenges and opportunities for Multi-National Investigator-Initiated clinical trials for ALS: European and United States collaborations | Machine learning suggests polygenic risk for cognitive dysfunction in amyotrophic lateral sclerosis | Phenotypic diversity in an international Cure VCP Disease registry | The clinical spectrum of primary lateral sclerosis | ALS Patients Demand | Guidelines on clinical presentation and management of non‐dystrophic myotonias | Longitudinal measures of RNA expression and disease activity in FSHD muscle biopsies | Use of Capillary Electrophoresis Immunoassay to Search for Potential Biomarkers of Amyotrophic Lateral Sclerosis in Human Platelets | Use of Capillary Electrophoresis Immunoassay to Search for Potential Biomarkers of Amyotrophic Lateral Sclerosis in Human Platelets | Machine learning suggests polygenic contribution to cognitive dysfunction in amyotrophic lateral sclerosis (ALS) | MRI Correlates with Electrical Impedance Myography in Facioscapulohumeral Muscular Dystrophy | Stabilization of Early Duchenne Cardiomyopathy With Aldosterone Inhibition: Results of the Multicenter AIDMD Trial | Clinical trial readiness to solve barriers to drug development in FSHD (ReSolve): Protocol of a large, international, multi-center prospective study | A Pilot Study of the Responsiveness of Wireless Motion Analysis in Facioscapulohumeral Muscular Dystrophy | Limb‐Girdle Muscular Dystrophy: A perspective from adult patients on what matters most | FSHD1 or FSHD2: that is the question: The answer: It's all just FSHD | Effects of weakness of orofacial muscles on swallowing and communication in FSHD | RASAGILINE FOR AMYOTROPHIC LATERAL SCLEROSIS: A RANDOMIZED, CONTROLLED TRIAL and THE RASAGILINE INVESTIGATORS OF THE MUSCLE STUDY GROUP AND WESTERN ALS CONSORTIUM | Early onset as a marker for disease severity in FSHD | Using automated electronic medical record data extraction to model ALS survival and progression | Supplementary Material | Effect of Mexiletine on Muscle Stiffness in Patients With Nondystrophic Myotonia Evaluated Using Aggregated N-of-1 Trials | Consensus-based care recommendations for adults with myotonic dystrophy type 1 | Rasagiline for Amyotrophic Lateral Sclerosis: a Randomized Controlled Trial | Supplementary Material | Electrical impedance myography in facioscapulohumeral muscular dystrophy: A 1-year follow-up study | The Facioscapulohumeral Muscular Dystrophy Functional Composite Outcome Measure | A Review of the Diagnosis and Treatment of Periodic Paralysis | An Instrumented Timed Up and Go in Facioscapulohumeral Muscular Dystrophy | Facioscapulohumeral Muscular Dystrophy | A randomized controlled trial of methotrexate for patients with generalized myasthenia gravis | Targeting Protein Homeostasis in Sporadic Inclusion Body Myositis | Electrical impedance myography in facioscapulohumeral muscular dystrophy | Milder phenotype in facioscapulohumeral dystrophy with 7-10 residual D4Z4 repeats | Immunohistochemical Characterization of Facioscapulohumeral Muscular Dystrophy Muscle Biopsies | Amyotrophic Lateral Sclerosis Regional Variants (Brachial Amyotrophic Diplegia, Leg Amyotrophic Diplegia, and Isolated Bulbar Amyotrophic Lateral Sclerosis) | Primary Lateral Sclerosis | Patterns of Weakness, Classification of Motor Neuron Disease, and Clinical Diagnosis of Sporadic Amyotrophic Lateral Sclerosis | A multi-center screening trial of rasagiline in patients with amyotrophic lateral sclerosis: Possible mitochondrial biomarker target engagement | Muscle Pathology Grade for Facioscapulohumeral Muscular Dystrophy Biopsies | Multiplex Screen of Serum Biomarkers in Facioscapulohumeral Muscular Dystrophy | Multi-Analyte Profile of Potential Serum Biomarkers in Facioscapulohumeral Muscular Dystrophy | Muscle Channelopathies | Muscle Channelopathies | Facioscapulohumeral Muscular Dystrophy | Risk of functional impairment in Facioscapulohumeral muscular dystrophy | LB0002 Safety and Tolerability of Arimoclomol in Patients with Sporadic Inclusion Body Myositis: A Randomised, Double-Blind, Placebo-Controlled, Phase IIa Proof-of-Concept Trial | Muscle Channelopathies: the Nondystrophic Myotonias and Periodic Paralyses | Non-dystrophic myotonia: Prospective study of objective and patient reported outcomes | The diagnosis and treatment of myotonic disorders | Myasthenia gravis: Five new things | Coats syndrome in facioscapulohumeral dystrophy type 1 Frequency and D4Z4 contraction size | Reevaluating Measures of Disease Progression in Facioscapulohumeral Muscular Dystrophy | Mexiletine for Symptoms and Signs of Myotonia in Non-Dystrophic Myotonia: A Randomized Controlled Trial | A Quantitative Measure of Handgrip Myotonia in Non-dystrophic Myotonia | Emerging Subspecialties in Neurology: Fellowship in experimental therapeutics of neurologic disease | Phase II Therapeutic Trial of Mexiletine in Non-Dystrophic Myotonia: Secondary Outcomes Show Improvement in Symptoms and Signs of Myotonia (S55.005) | Twelve-Month Change of IBMFRS in the Arimocolomol Inclusion Body Myositis Pilot Study (P07.225) | Clinical and Molecular Characterization of Non-Dystrophic Myotonia (P05.181) | O04 Efficacy of mexiletine in non-dystrophic myotonia: results of an international multi-centred randomised controlled trial</t>
+        </is>
+      </c>
+      <c r="M147" s="3" t="inlineStr">
+        <is>
+          <t>Neurology | Neuromuscular Disorders | Neurological Diseases | Duchenne Muscular Dystrophy | Electromyography | Limb-Girdle Muscular Dystrophies</t>
+        </is>
+      </c>
+    </row>
+    <row r="148" ht="80" customHeight="1" s="4">
+      <c r="B148" s="3" t="inlineStr">
+        <is>
+          <t>Gil I Wolfe</t>
+        </is>
+      </c>
+      <c r="C148" s="3" t="inlineStr">
+        <is>
+          <t>Gil-Wolfe-2</t>
+        </is>
+      </c>
+      <c r="D148" s="3" t="inlineStr">
+        <is>
+          <t>University at Buffalo, The State University of New York</t>
+        </is>
+      </c>
+      <c r="E148" s="3" t="n">
+        <v>149451</v>
+      </c>
+      <c r="F148" s="3" t="n">
+        <v>10847</v>
+      </c>
+      <c r="G148" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="H148" s="3" t="inlineStr">
+        <is>
+          <t>Gregory-Minisman | Amelia-Evoli | Richard-Barohn | Srikanth-Muppidi | Robert-Pascuzzi | Mamatha-Pasnoor | Tahseen-Mozaffar | Emma-Ciafaloni | Jaya-Trivedi | Vera-Bril | James-Howard-30 | Henry-Kaminski | Janice-Massey | Ted-Burns-2 | Richard-Nowak | Donald-Sanders-4 | David-Saperstein | Carlayne-Jackson | Mazen-Dimachkie | Dennis-Burns | Inmaculada-Aban | Washington-Bryan | Vern-Juel | Jeffrey-Guptill | Rabi-Tawil | Robin-Conwit | Alfred-Jaretzki | Michael-Hehir | Shin-Oh-3 | Gary-Cutter | Sharon-Nations | Laura-Herbelin | April-Mcvey | Nicholas-Silvestri | Miriam-Freimer-10167237 | David-Saperstein-14842214 | John-T-Kissel-2041356253 | Lara-Katzin-2076493382 | Richard-Barohn-2077206517 | Laura-Herbelin-2077471033 | Sharon-Nations-2134315596 | Nicholas-Silvestri-2163009530 | David-Lacomis-33840320 | David-P-Richman-38265211 | Hiroyuki-Murai-38367558 | J-S-Katz-39318034 | Michael-Benatar-39949355 | Anthony-A-Amato-42668397 | Manisha-Chopra-58661373 | Zaeem-A-Siddiqi-9500377</t>
+        </is>
+      </c>
+      <c r="I148" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="J148" s="3" t="inlineStr">
+        <is>
+          <t>Pieter A van Doorn | J.h.j. Wokke | Renato Mantegazza | Rup Tandan | Robert M Pascuzzi | Daniel B Drachman | Søren Hein Sindrup | Emma Ciafaloni | Maria Elena Farrugia | Giovanni Antonini | Vera Bril | Michael Rivner | James F Howard | Henry J Kaminski | Janice M Massey | Ted M Burns | Richard J Nowak | Andrew Engel | Carlayne E Jackson | Mazen M Dimachkie | Inmaculada B Aban | Vern C Juel | Jeffrey T Guptill | Rabi Tawil | Alfred Jaretzki | Eduardo Nobile-Orazio | Eva L Feldman | Michael K Hehir | Bernadette Lipscomb | Shin J Oh | Arthur Melms | Gary R Cutter | Isabel Illa | Mark Conaway | Sharon Nations | Wendy King | Laura Herbelin | Isabeli Illa | Audrey S. Penn | April Mcvey | Michael T. Pulley | Gregory Minisman | Amelia Evoli | Richard Barohn | Nils Erik Gilhus | Rabeah Beydoun | Donald Sanders | Julie Rowin | Washington Bryan | David Cornblath</t>
+        </is>
+      </c>
+      <c r="K148" s="3" t="n">
+        <v>208</v>
+      </c>
+      <c r="L148" s="3" t="inlineStr">
+        <is>
+          <t>Quantitative sensory testing in a large cohort of neuropathy patients: QST in Neuropathy | Attitudes and Beliefs Toward Thymectomy in the Myasthenia Gravis Patient Registry | Phase II Trial in AChR Ab+ Myasthenia Gravis of Transition from Intravenous to Subcutaneous Immunoglobulin: The MGSCIg Study | FP.20 Serum metabolomics differentiates treatment response of myasthenia gravis clinical outcome measures | Practice patterns in the management of myasthenia gravis: a cross-sectional survey of neurologists in the United States | The Correlation Between Static Fatigue Testing and the Quantitative Myasthenia Gravis Score and Activities of Daily Living Profile | Phase 2 Trial of Rituximab in Acetylcholine Receptor Antibody-Positive Generalized Myasthenia Gravis: The BeatMG Study | Eculizumab in refractory generalized myasthenia gravis previously treated with rituximab: subgroup analysis of REGAIN and its extension study | IgG regulation through FcRn blocking: A novel mechanism for the treatment of myasthenia gravis | Validation of Spanish version of 15‐item myasthenia gravis quality‐of‐life questionnaire | What Is in the Neuromuscular Junction Literature? | Ocular myasthenia gravis – How effective is low dose prednisone long term? | Advances in treating myasthenia gravis | Post-intervention Status in Patients With Refractory Myasthenia Gravis Treated With Eculizumab During REGAIN and Its Open-Label Extension | International Consensus Guidance for Management of Myasthenia Gravis: 2020 Update | Epidemiological evidence for a hereditary contribution to myasthenia gravis: a retrospective cohort study of patients from North America | Patient Assisted Intervention for Neuropathy: Comparison of Treatment in Real Life Situations (PAIN-CONTRoLS): Bayesian Adaptive Comparative Effectiveness Randomized Trial | Is the treatment of myasthenia gravis improving? Why not ask our patients? | Consistent improvement with eculizumab across muscle groups in myasthenia gravis | Neuromuscular Complications in COVID-19: A Review of the Literature | Minimal manifestation status and prednisone withdrawal in the MGTX trial | Bilateral Ptosis and Limb Myokymia: Regional Variant of Guillain-Barré Syndrome?: Biltateral ptosis and limb myokymia in Guillain-Barré Syndrome? | Correlation of Quantitative Myasthenia Gravis and Myasthenia Gravis Activities of Daily Living scales in the MGTX study | Dr. Gil I. Wolfe Neuromuscular Disease Update: What’s of Note from 2019-2020?: Neuromuscular Update 2019-20 | Seven-Year Experience From the National Institute of Neurological Disorders and Stroke–Supported Network for Excellence in Neuroscience Clinical Trials | Clinical Effects of the Self-administered Subcutaneous Complement Inhibitor Zilucoplan in Patients With Moderate to Severe Generalized Myasthenia Gravis: Results of a Phase 2 Randomized, Double-Blind, Placebo-Controlled, Multicenter Clinical Trial | Immunoglobulin administration for the treatment of CIDP: IVIG or SCIG? | O.33Subcutaneous immunoglobulin in myasthenia gravis: results of a North American open label study | Neuromuscular Disease | Long-term effect of thymectomy plus prednisone versus prednisone alone in patients with non-thymomatous myasthenia gravis: 2-year extension of the MGTX randomised trial | A Neurologist’s Perspective on Thymectomy for Myasthenia Gravis | Review process for IVIg treatment: Lessons learned from INSIGHTS neuropathy study | Histopathology of thymectomy specimens from the MGTX-trial: Entropy analysis as strategy to quantify spatial heterogeneity of lymphoid follicle and fat distribution | Validation of a simple disease-specific, quality-of-life measure for diabetic polyneuropathy: CAPPRI | Myasthenia Gravis: Classification and Outcome Measurements | Developing treatment guidelines for myasthenia gravis | Acquired Disorders of the Neuromuscular Junction | Learning from the past: reflections on recently completed myasthenia gravis trials: Reflections on MG trials | Safety and efficacy of eculizumab in anti-acetylcholine receptor antibody-positive refractory generalised myasthenia gravis (REGAIN): a phase 3, randomised, double-blind, placebo-controlled, multicentre study | Optimizing the Use of Outcome Measures in Chronic Inflammatory Demyelinating Polyneuropathy | Start High, Then Go Low: An Effective Strategy in the Treatment of Myasthenia Gravis | What's in the Literature? | Author response: International consensus guidance for management of myasthenia gravis: Executive summary | QMG and MG-ADL Correlations: Study of Eculizumab Treatment of Myasthenia Gravis | Low-Dose Medication and Long-Term Outcome in Myasthenia Gravis | What's in the Literature? | Randomized trial of thymectomy in myasthenia gravis | Rituximab in Treatment-Refractory Myasthenia Gravis | An international clinicometric evaluation of the MG-QOL15, resulting slight revision and subsequent validation of the MG-QOL15r. | What's in the Literature? | Randomized Trial of Thymectomy in Myasthenia Gravis | International consensus guidance for management of myasthenia gravis: Executive summary | What's in the Literature? | An international clinimetric evaluation of the MG-QOL15, resulting in slight revision and subsequent validation of the MG-QOL15r: Validation of the MG-QOL15r | Fibrocartilaginous embolism: A comprehensive review of an under-studied cause of spinal cord infarction and proposed diagnostic criteria | Salbutamol: A means to an endplate | Neuro-Behçet’s disease masquerading as Brain abscesses on MRI | Editorial by concerned physicians: Unintended effect of the Orphan Drug Act on the potential cost of 3,4-diaminopyridine | DEVELOPING CONSENSUS-BASED TREATMENT GUIDELINES FOR MYASTHENIA GRAVIS | CLINICAL RESPONSE OF NEUROMUSCULAR PATIENTS TO INTRAVENOUS IMMUNOGLOBULIN: AN INTERIM ANALYSIS OF THE INSIGHTS REGISTRY | CLINICAL RESPONSE OF NEUROMUSCULAR PATIENTS TO IVIG: AN INTERIM ANALYSIS OF THE INSIGHTS REGISTRY | Efficacy of Prednisone for the Treatment of Ocular Myasthenia (EPITOME): A Randomized Controlled Trial | Two steps forward one step back; Mycophenolate mofetil use for myasthenia gravis in the United States | A Genome-Wide Association Study of Myasthenia Gravis | Posterior reversible encephalopathy syndrome secondary to blood transfusion | 1252: POSTERIOR REVERSIBLE ENCEPHALOPATHY SYNDROME SECONDARY TO BLOOD TRANSFUSION | Cerebral Paragonimiasis: An Unusual Manifestation of a Rare Parasitic Infection | Ig Treatment Outcomes Assessment: Preliminary Findings from the INSIGHTS Database | IMMUNOGLOBULIN TREATMENT OUTCOMES ASSESSMENT AND CLINICAL GUIDELINES STUDY (THE "INSIGHTS STUDY"): PRELIMINARY FINDINGS ON SCOPE OF PRACTICE FROM THE INSIGHTS DATABASE | INTERNATIONAL TASK FORCE FOR TREATMENT GUIDELINES IN MYASTHENIA GRAVIS | Alfred Jaretzki III, MD | What's in the Literature? | Alfred Jaretzki III, MD; August 11, 1919 to May 29, 2014 | Treatment-Refractory Myasthenia Gravis | What's in the Literature? | What's in the Literature? | Asymptomatic/pauci-symptomatic creatine kinase elevations (hyperCKemia) | Treatment of Painful Peripheral Neuropathy | North America and South America (NA-SA) neuropathy project | Cholinergic Autonomic Dysfunction in Veterans With Gulf War Illness | Introduction for Myasthenia Gravis and Related Disorders | Design of the Efficacy of Prednisone in the Treatment of Ocular Myasthenia (EPITOME) trial | Biomarker development for myasthenia gravis | Introduction for Myasthenia Gravis and Related Disorders | Myasthenia Gravis | Recommendations for myasthenia gravis clinical trials | ISSUES AND OPINIONS RECOMMENDATIONS FOR MYASTHENIA GRAVIS CLINICAL TRIALS THE TASK FORCE ON MG STUDY DESIGN OF THE MEDICAL SCIENTIFIC ADVISORY BOARD OF THE MYASTHENIA GRAVIS FOUNDATION OF | Idiopathic neuropathy: New paradigms, new promise | Inpatient EMG Studies. Do They Help with Patient Care? (P01.197) | Clinical and Electrophysiologic Characterization of Chronic and Critical Ischemic Monomelic Neuropathy after Revascularization: A Case Series (P07.151) | Consensus treatment recommendations for late-onset Pompe disease | Diseases of the neuromuscular junction | Diseases of the Neuromuscular Junction | Consensus treatment recommendations for late-onset Pompe disease. | MG‐ADL: Still a relevant outcome measure | Implementing Clinical Trials on an International Platform: Challenges and Perspectives | Evidence-based guideline update: plasmapheresis in neurologic disorders | ESTABLISHMENT OF THE MGFA PATIENT REGISTRY | A Randomized, Pilot Trial of Etanercept in Dermatomyositis The Muscle Study Group | Cytokines in Guillain-Barre Syndrome A Lesson in Time</t>
+        </is>
+      </c>
+      <c r="M148" s="3" t="inlineStr">
+        <is>
+          <t>Neurological Diseases | Medical Neurosciences | Nerve Stimulation | Electromyography | Neuromuscular Disorders | Neurophysiology | Neurodegenerative Diseases | Neurology | Peripheral Neuropathy</t>
+        </is>
+      </c>
+    </row>
+    <row r="149" ht="80" customHeight="1" s="4">
+      <c r="B149" s="3" t="inlineStr">
+        <is>
+          <t>Najaf Amin</t>
+        </is>
+      </c>
+      <c r="C149" s="3" t="inlineStr">
+        <is>
+          <t>Najaf-Amin</t>
+        </is>
+      </c>
+      <c r="D149" s="3" t="inlineStr">
+        <is>
+          <t>University of Oxford</t>
+        </is>
+      </c>
+      <c r="E149" s="3" t="n">
+        <v>145314</v>
+      </c>
+      <c r="F149" s="3" t="n">
+        <v>64265</v>
+      </c>
+      <c r="G149" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="H149" s="3" t="inlineStr">
+        <is>
+          <t>Tonu-Esko | Tim-Spector | Terho-Lehtimaeki | Dorret-Boomsma-2 | Yurii-Aulchenko | Gonneke-Willemsen | Andrew-Hicks-5 | Olli-Raitakari | Eco-Geus | Jerome-Rotter | Lenore-Launer | Massimo-Mangino | Ayse-Demirkan | Patricia-Munroe | Gudny-Eiriksdottir | Markku-Laakso | Claudia-Langenberg-2 | Vilmundur-Gudnason | Ruth-Loos | Jing-Hua-Zhao | Christian-Gieger | Veronique-Vitart | Caroline-Hayward | Sven-Lee | Cornelia-M-van-Duijn-2072593963 | Tamara-B-Harris-2095967246 | M-Arfan-Ikram-2101116289 | Andre-G-Uitterlinden-2148448048 | Andre-G-Uitterlinden-2151568132 | Daniel-I-Chasman-38134296 | Unnur-Thorsteinsdottir-38174148 | Lynda-M-Rose-38283663 | Albert-V-Smith-38354768 | Sharon-L-R-Kardia-38359541 | James-F-Wilson-38492222 | Gudmar-Thorleifsson-38542401 | Cornelia-M-van-Duijn-38570103 | Jouke-Jan-Hottenga-38709798 | John-C-Chambers-38784934 | Reedik-Maegi-38840280 | Peter-Vollenweider-38992311 | Michael-Boehnke-39219178 | Karen-L-Mohlke-39452945 | Jianan-Luan-39548146 | Ben-A-Oostra-39633557 | Andrew-P-Morris-39700295 | Andre-G-Uitterlinden-39896209 | Joshua-C-Bis-39975686 | Jaspal-S-Kooner-39993242</t>
+        </is>
+      </c>
+      <c r="I149" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="J149" s="3" t="inlineStr">
+        <is>
+          <t>Tõnu Esko | Terho Lehtimäki | Christopher J O'Donnell | Yurii Aulchenko | Jaakko Tuomilehto | Johanna Kuusisto | Andrew A. Hicks | Eco J C de Geus | Mark Caulfield | Jerome I Rotter | Lenore J Launer | Harald Grallert | Massimo Mangino | Narisu Narisu | Colin N A Palmer | Patricia B Munroe | Benjamin F Voight | Mark Daly | Tanaka Toshiko | Markku Laakso | Ingrid Borecki | Jing Hua Zhao | Thomas Illig | Christian Gieger | Aaron Isaacs | B.W. Penninx | Jian Yang | Veronique Vitart | Cristen J Willer | Igor Rudan | Caroline Hayward | Wendy Mcardle | Michael Weedon | Serena Sanna | Nicole Soranzo | Manuela Uda | Tim Spector | Markus Perola | marjo-riitta Jarvelin | Cecilia Lindgren | Dorret I Boomsma | Gonneke Willemsen | Olli Raitakari | Olle Melander | Claudia Langenberg | Vilmundur Gudnason | Ruth Loos | Paul Elliott | Goncalo Abecasis | Stefania Bandinelli</t>
+        </is>
+      </c>
+      <c r="K149" s="3" t="n">
+        <v>787</v>
+      </c>
+      <c r="L149" s="3" t="inlineStr">
+        <is>
+          <t>Evolution of circulating metabolites through lifespan according to gender and APOE | Interplay of Metabolome and Gut Microbiome in Individuals With Major Depressive Disorder vs Control Individuals | Does ethnicity influence dementia, stroke and mortality risk? Evidence from the UK Biobank | Integrating the environmental and genetic architectures of mortality and aging | The impact of Short Tandem Repeats on grey matter brain imaging derived phenotypes in UK Biobank | Interplay of the human exposome, metabolome and gut microbiome in dementia and major depression | Gut microbiome-wide association study of depressive symptoms | Exome sequencing identifies rare damaging variants in ATP8B4 and ABCA1 as risk factors for Alzheimer’s disease | What Are the Key Gut Microbiota Involved in Neurological Diseases? A Systematic Review | Sociodemographic, lifestyle and clinical characteristics of energy-related depression symptoms: A pooled analysis of 13,965 depressed cases in 8 Dutch cohorts | Publisher Correction: Stroke genetics informs drug discovery and risk prediction across ancestries | The long-term relation between physical activity and executive function in the Rotterdam Study | Stroke genetics informs drug discovery and risk prediction across ancestries | Genome-wide meta-analyses reveal novel loci for verbal short-term memory and learning | Circulating metabolites modulated by diet are causally associated with depression | Interplay of Human Metabolome and Gut Microbiome in Major Depression | New insights into the genetic etiology of Alzheimer's disease and related dementias | Polygenic prediction of educational attainment within and between families from genome-wide association analyses in 3 million individuals | New insights into the genetic etiology of Alzheimer’s disease and related dementias | The Role of Gut Microbiota in Neuropsychiatric Diseases – Creation of An Atlas-Based on Quantified Evidence | Longitudinal analysis of UK Biobank participants suggests age and APOE-dependent alterations of energy metabolism in development of dementia | Challenges at the APOE locus: a robust quality control approach for accurate APOE genotyping | Matrix metalloproteinase 10 is linked to the risk of progression to dementia of the Alzheimer’s type | Fat metabolism is associated with telomere length in six population-based studies | Ethnicity influences risk of dementia in the UK Biobank | Profiling the metabolome of patients with dementia in the UK Biobank | Disentangling the relationship between apolipoprotein E, cardiovascular disease, COVID‐19, dementia and mortality | Exome sequencing identifies rare damaging variants in the ATB8B4 and ABCA1 genes as novel risk factors for Alzheimer's disease | Multi-ancestry genome-wide gene–sleep interactions identify novel loci for blood pressure | Challenges at the APOE locus: A robust quality control approach for accurate APOE genotyping | Genome-wide association study of frontotemporal dementia identifies a C9ORF72 haplotype with a median of 12-G4C2 repeats that predisposes to pathological repeat expansions | Continuity of Genetic Risk for Aggressive Behavior Across the Life-Course | Genetic association study of childhood aggression across raters, instruments, and age | Does ethnicity influence dementia, stroke and mortality risk? Evidence from the UK Biobank | Gene-educational attainment interactions in a multi-ancestry genome-wide meta-analysis identify novel blood pressure loci | The trans-ancestral genomic architecture of glycemic traits | The trans-ancestral genomic architecture of glycemic traits | Gut microbiome-wide association study of depression | Plasma amyloid β levels are driven by genetic variants near APOE, BACE1, APP, PSEN2 : A genome‐wide association study in over 12,000 non‐demented participants | Publisher Correction: A meta-analysis of genome-wide association studies identifies multiple longevity genes | Publisher Correction: Sex-dimorphic genetic effects and novel loci for fasting glucose and insulin variability | Genome-wide analysis of mitochondrial DNA copy number reveals multiple loci implicated in nucleotide metabolism, platelet activation, and megakaryocyte proliferation | Sex-dimorphic genetic effects and novel loci for fasting glucose and insulin variability | Does Ethnicity Influence Dementia, Stroke and Mortality Risk? Evidence from the UK Biobank | SORL1 ‐variant carriers in ADES‐ADSP: A higher level of variant pathogenicity associates with earlier age at onset of Alzheimer's disease: Genetics/genetic factors of Alzheimer's disease | Exome sequencing identifies three novel AD‐associated genes: Genetics/genetic factors of Alzheimer's disease | Clostridium shows a higher abundance in less neurovascular and neurodegenerative changes: A microbiome‐wide association study: Genetics/omics and systems biology | The role of the gut microbiome in cognitive function and Alzheimer’s disease: Biomarkers (non‐neuroimaging) / Novel biomarkers | Large meta-analysis of genome-wide association studies expands knowledge of the genetic etiology of Alzheimer’s disease and highlights potential translational opportunities | Association of lysophosphatidic acids with cerebrospinal fluid biomarkers and progression to Alzheimer’s disease | Multi-Ancestry Genome-wide Association Study Accounting for Gene-Psychosocial Factor Interactions Identifies Novel Loci for Blood Pressure Traits | Genetic correlations and genome-wide associations of cortical structure in general population samples of 22,824 adults | Genetic Studies of Leptin Concentrations Implicate Leptin in the Regulation of Early Adiposity | Association of common genetic variants with brain microbleeds: A Genome-wide Association Study | Circulating metabolites are associated with brain atrophy and white matter hyperintensities | The metabolic profile associated with head and neck cancer genetic variation and dietary intake | Whole exome sequencing study identifies novel rare and common Alzheimer’s-Associated variants involved in immune response and transcriptional regulation | Correction: Whole exome sequencing study identifies novel rare and common Alzheimer’s-Associated variants involved in immune response and transcriptional regulation | Exome sequencing identifies novel AD-associated genes | A cross-omics integrative study of metabolic signatures of chronic obstructive pulmonary disease | Microbiomics, Metabolomics, Predicted Metagenomics, and Hepatic Steatosis in a Population‐Based Study of 1,355 Adults | Common Genetic Variation Indicates Separate Causes for Periventricular and Deep White Matter Hyperintensities | Multi-ancestry genome-wide gene-sleep interactions identify novel loci for blood pressure | CDH6 and HAGH protein levels in plasma associate with Alzheimer’s disease in APOE ε4 carriers | Smoking-by-genotype interaction in type 2 diabetes risk and fasting glucose | Exome Sequencing Analysis Identifies Rare Variants in ATM and RPL8 That Are Associated With Shorter Telomere Length | Prion protein codon 129 polymorphism in mild cognitive impairment and dementia: the Rotterdam Study | Measurement and genetic architecture of lifetime depression in the Netherlands as assessed by LIDAS (Lifetime Depression Assessment Self-report) | Genome-Wide Association Analysis in Humans Links Nucleotide Metabolism to Leukocyte Telomere Length | Integration of epidemiologic, pharmacologic, genetic and gut microbiome data in a drug–metabolite atlas | Relationship between gut microbiota and circulating metabolites in population-based cohorts | WGS-based telomere length analysis in Dutch family trios implicates stronger maternal inheritance and a role for RRM1 gene | DNA methylation is associated with lung function in never smokers | Genetic studies of accelerometer-based sleep measures yield new insights into human sleep behaviour | Multi-trait genome-wide association study identifies new loci associated with optic disc parameters | Genetic Association Study of Childhood Aggression across raters, instruments and age | Multi-ancestry sleep-by-SNP interaction analysis in 126,926 individuals reveals lipid loci stratified by sleep duration | Genetic architecture of subcortical brain structures in 38,851 individuals | Associations of autozygosity with a broad range of human phenotypes | Novel Rare Genetic Variants Associated with Airflow Obstruction in the General Population | Target genes, variants, tissues and transcriptional pathways influencing human serum urate levels | Phenome-wide investigation of health outcomes associated with genetic predisposition to loneliness | Author Correction: Genetic meta-analysis of diagnosed Alzheimer’s disease identifies new risk loci and implicates Aβ, tau, immunity and lipid processing | Exome-Derived Adiponectin-Associated Variants Implicate Obesity and Lipid Biology | A metabolic profile of all-cause mortality risk identified in an observational study of 44,168 individuals | A meta-analysis of genome-wide association studies identifies multiple longevity genes | Metabolomics reveals a link between homocysteine and lipid metabolism and leukocyte telomere length: the ENGAGE consortium | A genome-wide association study identifies genetic loci associated with specific lobar brain volumes | Metabolomics Profile in Depression: A Pooled Analysis of 230 Metabolic Markers in 5283 Cases With Depression and 10,145 Controls | A multi-ancestry genome-wide study incorporating gene–smoking interactions identifies multiple new loci for pulse pressure and mean arterial pressure | Exome-Derived Adiponectin-Associated Variants Implicate Obesity and Lipid Biology | THE ASSOCIATION BETWEEN PRION PROTEIN CODON 129 AND THE RISK OF MILD COGNITIVE IMPAIRMENT AND DEMENTIA: A POPULATION-BASED COHORT STUDY | CDH6 AND HAGH PROTEIN LEVELS IN PLASMA ASSOCIATE WITH ALZHEIMER’S DISEASE IN APOE ε4 CARRIERS | Common genetic variation indicates separate etiologies for periventricular and deep white matter hyperintensities | An integrative cross-omics analysis of DNA methylation sites of glucose and insulin homeostasis | Multiancestry Genome-Wide Association Study of Lipid Levels Incorporating Gene-Alcohol Interactions | A catalog of genetic loci associated with kidney function from analyses of a million individuals | Genome-wide association study of plasma lipids | Candidate CSPG4 mutations and induced pluripotent stem cell modeling implicate oligodendrocyte progenitor cell dysfunction in familial schizophrenia | Relationship between gut microbiota and circulating metabolites in population-based cohorts</t>
+        </is>
+      </c>
+      <c r="M149" s="3" t="inlineStr">
+        <is>
+          <t>Genetics | Genomics | Human Genetics | Genetic Analysis | Single Nucleotide Polymorphism | Genetic Engineering | Molecular Genetics | DNA Sequencing | Sequencing | Bioinformatics and Computational Biology</t>
+        </is>
+      </c>
+    </row>
+    <row r="150" ht="80" customHeight="1" s="4">
+      <c r="B150" s="3" t="inlineStr">
+        <is>
+          <t>Alexander Teumer</t>
+        </is>
+      </c>
+      <c r="C150" s="3" t="inlineStr">
+        <is>
+          <t>Alexander-Teumer</t>
+        </is>
+      </c>
+      <c r="D150" s="3" t="inlineStr">
+        <is>
+          <t>University of Greifswald</t>
+        </is>
+      </c>
+      <c r="E150" s="3" t="n">
+        <v>112185</v>
+      </c>
+      <c r="F150" s="3" t="n">
+        <v>42321</v>
+      </c>
+      <c r="G150" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="H150" s="3" t="inlineStr">
+        <is>
+          <t>Tonu-Esko | Tim-Spector | Najaf-Amin | Terho-Lehtimaeki | Dorret-Boomsma-2 | Andrew-Hicks-5 | Jerome-Rotter | Lenore-Launer | Georg-Homuth | Massimo-Mangino | Martina-Mueller-Nurasyid | Marcus-Doerr-2 | Ilja-Nolte | Stella-Trompet | Melanie-Waldenberger | Zoltan-Kutalik | Tanaka-Toshiko | Leo-Pekka-Lyytikaeinen | Vilmundur-Gudnason | Ruth-Loos | Jing-Hua-Zhao | Stefania-Bandinelli | Christian-Gieger | Caroline-Hayward | Niek-Verweij | Henry-Voelzke | Pim-Van-Der-Harst | Uwe-Voelker | Hans-J-Grabe-2007457197 | Cornelia-M-van-Duijn-2072593963 | David-P-Strachan-2081190261 | Henry-Voelzke-2082822445 | Bruce-M-Psaty-2118248046 | Andre-G-Uitterlinden-2148448048 | Andre-G-Uitterlinden-2151568132 | Alan-F-Wright-38100876 | Daniel-I-Chasman-38134296 | Lynda-M-Rose-38283663 | Albert-V-Smith-38354768 | James-F-Wilson-38492222 | Jouke-Jan-Hottenga-38709798 | Reedik-Maegi-38840280 | Peter-Vollenweider-38992311 | Caroline-S-Fox-38993779 | Matthias-Nauck-39419628 | Konstantin-Strauch-39546305 | Jianan-Luan-39548146 | Joshua-C-Bis-39975686 | Yongmei-Liu-40065174</t>
+        </is>
+      </c>
+      <c r="I150" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="J150" s="3" t="inlineStr">
+        <is>
+          <t>Uwe Völker | Tõnu Esko | Najaf Amin | Terho Lehtimäki | Christopher J O'Donnell | Yurii Aulchenko | Jaakko Tuomilehto | Andrew A. Hicks | Eco J C de Geus | Mark Caulfield | Jerome I Rotter | Lenore J Launer | Georg Homuth | Harald Grallert | Massimo Mangino | Mary F Feitosa | Patricia B Munroe | Benjamin F Voight | Mark Daly | Zoltan Kutalik | Tanaka Toshiko | Markku Laakso | Ingrid Borecki | Jing Hua Zhao | Thomas Illig | Christian Gieger | B.W. Penninx | Jian Yang | Veronique Vitart | Cristen J Willer | Igor Rudan | Caroline Hayward | Wendy Mcardle | Peter P Pramstaller | Abbas Dehghan | Serena Sanna | Henry Völzke | Nicole Soranzo | Tim Spector | Markus Perola | marjo-riitta Jarvelin | Cecilia Lindgren | Dorret I Boomsma | Gonneke Willemsen | Olli Raitakari | Claudia Langenberg | Vilmundur Gudnason | Ruth Loos | Goncalo Abecasis | Stefania Bandinelli</t>
+        </is>
+      </c>
+      <c r="K150" s="3" t="n">
+        <v>601</v>
+      </c>
+      <c r="L150" s="3" t="inlineStr">
+        <is>
+          <t>Genomics of perivascular space burden unravels early mechanisms of cerebral small vessel disease | Novel (sulfated) thyroid hormone transporters in the solute carrier 22 family | Imputation-powered whole-exome analysis identifies genes associated with kidney function and disease in the UK Biobank | OTTERS: a powerful TWAS framework leveraging summary-level reference data | Allometric body shape indices, T2D and kidney function: A two-sample Mendelian randomization study | Epigenome-Wide Association Study Reveals CpG Sites Associated with Thyroid Function and Regulatory Effects on KLF9 | DNA methylation analysis identifies novel genetic loci associated with circulating fibrinogen levels in blood | Genomics of perivascular space burden unravels early mechanisms of cerebral small vessel disease | TREML2 Gene Expression and Its Missense Variant rs3747742 Associate with White Matter Hyperintensity Volume and Alzheimer’s Disease-Related Brain Atrophy in the General Population | Discovery of novel eGFR-associated multiple independent signals using a quasi-adaptive method | Genome-wide association analyses of physical activity and sedentary behavior provide insights into underlying mechanisms and roles in disease prevention | Genome-wide meta-analyses reveal novel loci for verbal short-term memory and learning | Limited evidence for blood eQTLs in human sexual dimorphism | Epigenetic and integrative cross-omics analyses of cerebral white matter hyperintensities on MRI | Imputation-powered whole-exome analysis identifies rare coding variants and genes associated with kidney function and disease in the UK Biobank | Analysis of epidemiological association patterns of serum thyrotropin by combining random forests and Bayesian networks | Differential and shared genetic effects on kidney function between diabetic and non-diabetic individuals | Genetic loci and prioritization of genes for kidney function decline derived from a meta-analysis of 62 longitudinal genome-wide association studies | Insulin-Like Growth Factor, Inflammation, and MRI Markers of Alzheimer’s Disease in Predominantly Middle-Aged Adults | DNA methylation signature of chronic low-grade inflammation and its role in cardio-respiratory diseases | Gene-mapping study of extremes of cerebral small vessel disease reveals TRIM47 as a strong candidate | Cohort Profile Update: The Study of Health in Pomerania (SHIP) | Effects of Apolipoprotein E polymorphism on carotid intima-media thickness, incident myocardial infarction and incident stroke | The Effects of Common Genetic Variation in 96 Genes Involved in Thyroid Hormone Regulation on TSH and FT4 Concentrations | Obesity and Kidney Function: A Two-Sample Mendelian Randomization Study | Genome-wide analysis in over 1 million individuals reveals over 2,000 independent genetic signals for blood pressure | Thyroid function, pernicious anemia, and erythropoiesis: a two-sample Mendelian randomization study | Genome-wide interaction study with major depression identifies novel variants associated with cognitive function | Longitudinal association of Apolipoprotein E polymorphism with lipid profile, type 2 diabetes and metabolic syndrome: Results from a 15 year follow-up study | Mapping the human genetic architecture of COVID-19 | SHIP-MR and Radiology: 12 Years of Whole-Body Magnetic Resonance Imaging in a Single Center | Author Correction: GWAS of thyroid stimulating hormone highlights the pleiotropic effects and inverse association with thyroid cancer | Identification of 371 genetic variants for age at first sex and birth linked to externalising behaviour | Validating biomarkers and models for epigenetic inference of alcohol consumption from blood | Thyroid Function and the Risk of Alzheimer's Disease: A Mendelian Randomization Study | Investigating the genetic and environmental basis of head micromovements during MRI | Genomics of perivascular space burden unravels early mechanisms of cerebral small vessel disease | Physical activity, sedentary behavior and risk of coronary artery disease, myocardial infarction and ischemic stroke: a two-sample Mendelian randomization study | Investigation of the Interplay between Circulating Lipids and IGF-I and Relevance to Breast Cancer Risk: An Observational and Mendelian Randomization Study | Differentially expressed genes reflect disease-induced rather than disease-causing changes in the transcriptome | Large-scale cis- and trans-eQTL analyses identify thousands of genetic loci and polygenic scores that regulate blood gene expression | Publisher Correction: Identification of 371 genetic variants for age at first sex and birth linked to externalising behavior | A Deeper Understanding of the Causal Relationships Between Thyroid Function and Atrial Fibrillation | DNA methylation signature of chronic low-grade inflammation and its role in cardio-respiratory diseases | Plasma Proteomics of Renal Function: A Transethnic Meta-Analysis and Mendelian Randomization Study | Effects of Thyroid Function on Hemostasis, Coagulation, and Fibrinolysis: A Mendelian Randomization Study | Thyroid function and the risk of Alzheimer's disease: A Mendelian Randomisation study | Meta-analysis of epigenome-wide association studies of carotid intima-media thickness | Assessment of significance of conditionally independent GWAS signals | Thyroid Function and Mood Disorders: A Mendelian Randomization Study | Sex effects for the interaction of dopamine related genetic variants for COMT and BDNF on declarative memory performance | Genetic factors influencing a neurobiological substrate for psychiatric disorders | Thyroid function, sex hormones and sexual function: a Mendelian randomization study | Associations and interactions of the serotonin receptor genes 5-HT1A, 5-HT2A, and childhood trauma with alexithymia in two independent general-population samples | Genome-Wide Association Study of Circulating Interleukin 6 Levels Identifies Novel Loci | Genome-wide meta-analysis of muscle weakness identifies 15 susceptibility loci in older men and women | Effects of Thyroid Status on Regional Brain Volumes: A Diagnostic and Genetic Imaging Study in UK Biobank | ENIGMA and global neuroscience: A decade of large-scale studies of the brain in health and disease across more than 40 countries | Cerebral small vessel disease genomics and its implications across the lifespan | Cerebral small vessel disease genomics and its implications across the lifespan | The genetics of circulating BDNF: towards understanding the role of BDNF in brain structure and function in middle and old ages | Differentially expressed genes reflect disease-induced rather than disease-causing changes in the transcriptome | Meta-analysis uncovers genome-wide significant variants for rapid kidney function decline | Genetic correlations and genome-wide associations of cortical structure in general population samples of 22,824 adults | Genetic Studies of Leptin Concentrations Implicate Leptin in the Regulation of Early Adiposity | The Genetic Makeup of the Electrocardiogram | Genetic Determinants of Electrocardiographic P-Wave Duration and Relation to Atrial Fibrillation | GWAS of thyroid stimulating hormone highlights pleiotropic effects and inverse association with thyroid cancer | Integration of GWAS Summary Statistics and Gene Expression Reveals Target Cell Types Underlying Kidney Function Traits | Variation in Normal Range Thyroid Function Affects Serum Cholesterol Levels, Blood Pressure, and Type 2 Diabetes Risk: A Mendelian Randomization Study | Genetic variants for head size share genes and pathways with cancer | Functional polymorphisms of the mineralocorticoid receptor gene NR3C2 are associated with diminished memory decline: Results from a longitudinal general‐population study | The Genetic Basis of Thyroid Function: Novel Findings and New Approaches | Genome-wide meta-analysis of muscle weakness identifies 15 susceptibility loci in older men and women | Thyroid Function Affects the Risk of Stroke via Atrial Fibrillation: A Mendelian Randomization Study | Refining Attention-Deficit/Hyperactivity Disorder and Autism Spectrum Disorder Genetic Loci by Integrating Summary Data From Genome-wide Association, Gene Expression, and DNA Methylation Studies | A bidirectional Mendelian randomization study supports causal effects of kidney function on blood pressure | Corrigendum: Polygenic Architecture of Human Neuroanatomical Diversity | Thyroid Genetics and the Cardiovascular System | White Blood Cells and Blood Pressure: A Mendelian Randomization Study | Polygenic Architecture of Human Neuroanatomical Diversity | Epigenetic Link Between Statin Therapy and Type 2 Diabetes | Kidney Function and Blood Pressure: A Bi-directional Mendelian Randomisation Study | Validated inference of smoking habits from blood with a finite DNA methylation marker set | Genetic architecture of subcortical brain structures in 38,851 individuals | Phenome-wide association analysis of LDL-cholesterol lowering genetic variants in PCSK9 | KCND3 potassium channel gene variant confers susceptibility to electrocardiographic early repolarization pattern | Genetic factors influencing a neurobiological substrate for psychiatric disorders | Genome-wide association meta-analyses and fine-mapping elucidate pathways influencing albuminuria | New alcohol-related genes suggest shared genetic mechanisms with neuropsychiatric disorders | Pathway-Specific Genetic Risk for Alzheimer's Disease Differentiates Regional Patterns of Cortical Atrophy in Older Adults | Mendelian Randomization analyses reveal a causal effect of thyroid function on stroke via atrial fibrillation | ENIGMA and Global Neuroscience: A Decade of Large-Scale Studies of the Brain in Health and Disease across more than 40 Countries | Lipidomics, Atrial Conduction, and Body Mass Index: Evidence From Association, Mediation, and Mendelian Randomization Models | Genome-wide analysis of dental caries and periodontitis combining clinical and self-reported data | KCND3 is a novel susceptibility locus for early repolarization | Interaction of childhood trauma with rs1360780 of the FKBP5 gene on trait resilience in a general population sample | The genetic makeup of the electrocardiogram | Full exploitation of high dimensionality in brain imaging: The JPND working group statement and findings | Polygenic architecture of human neuroanatomical diversity</t>
+        </is>
+      </c>
+      <c r="M150" s="3" t="inlineStr">
+        <is>
+          <t>RNA | Genomics | Bioinformatics and Computational Biology | Biostatistics | Genetics | Transcriptomics | Gene Expression | Genetic Analysis | Bioinformatics | Applied Mathematics</t>
+        </is>
+      </c>
+    </row>
+    <row r="151" ht="80" customHeight="1" s="4">
+      <c r="B151" s="3" t="inlineStr">
+        <is>
+          <t>Daniel Sundh</t>
+        </is>
+      </c>
+      <c r="C151" s="3" t="inlineStr">
+        <is>
+          <t>Daniel-Sundh</t>
+        </is>
+      </c>
+      <c r="D151" s="3" t="inlineStr">
+        <is>
+          <t>University of Gothenburg</t>
+        </is>
+      </c>
+      <c r="E151" s="3" t="n">
+        <v>3348</v>
+      </c>
+      <c r="F151" s="3" t="n">
+        <v>1248</v>
+      </c>
+      <c r="G151" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="H151" s="3" t="inlineStr">
+        <is>
+          <t>Mattias-Lorentzon | David-Hanley-6 | Roland-Chapurlat | Magnus-Karlsson-8 | Kristian-Axelsson | Michael-Roberts-48 | Peter-Soyer | Catharina-Lindholm | Ulf-Lerner | Thierry-Chevalley | Claes-Ohlsson | Thomas-Lundh | Marian-Hannan | Gerard-Lutty | Hans-Carlsten | Jeffrey-Grice | Anna-Rudin | Christina-Lindh-2 | Pawel-Szulc-2 | Lauren-Burt | Inger-Gjertsson | Joanna-Gullberg | Lina-Bunketorp-Kaell | Martin-Nilsson | Peishun-Li | Anna-Nilsson-12 | David-Liu-52 | Liesbeth-Vandenput | Elisabeth-Sornay-Rendu | Helena-Brisby | John-Kanis | Mary-Bouxsein | Elizabeth-Atkinson-6 | Anthony-Raphael | Per-Magnusson-2 | Tarl-Prow-2 | Jens-Nielsen | Robert-Rudaeng-2 | Boyang-Ji | Lisa-Johansson | Anna-Darelid-16070701 | Michail-Zoulakis-2085244361 | Andreas-Wallerek-2118359573 | Robert-Rudaeng-2119273422 | Helena-Johansson-2123602677 | Berit-Larsson-2149576099 | Maria-Nilsson-2240437549 | JA-Kanis-38998503 | Dan-Mellstroem-39051922 | Dan-Mellstrom-5103506</t>
+        </is>
+      </c>
+      <c r="I151" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="J151" s="3" t="inlineStr">
+        <is>
+          <t>Edward Mcauley | Ilkka Vuori | Mattias Lorentzon | Harry Genant | Roland Chapurlat | Magnus K Karlsson | Eric Orwoll | Michael Roberts | Jeffrey Katula | Ari Heinonen | Claes Ohlsson | Anna Holmberg | Didier Hans | Sharmila Majumdar | Ann V Schwartz | Erik Fink Eriksen | Harri Sievänen | Robert A Britton | Pawel Szulc | Martin Nilsson | Ego Seeman | Anna G Nilsson | Byron Lawrence Riggs | John A Eisman | Elisabeth Sornay-Rendu | John A Kanis | Mary L Bouxsein | Hans Jörg Häuselmann | Elizabeth Atkinson | Eugene Mccloskey | Andrew J Burghardt | Grethe Jonasson | Robert C. Güerri-Fernández | Natasha M Appelman-Dijkstra | Ali Ghasem-Zadeh | Jane A Cauley | Saija A Kontulainen | Robert Rudäng | Stephanie Boutroy | Connor Randall | Richard A. Boileau | Roger Zebaze | Hans Mallmin | Lisa Johansson | Adolfo Diez-Perez | Chris De Laet | Cyrus Cooper | Sundeep Khosla | Liesbeth Vandenput | Tarl Prow</t>
+        </is>
+      </c>
+      <c r="K151" s="3" t="n">
+        <v>42</v>
+      </c>
+      <c r="L151" s="3" t="inlineStr">
+        <is>
+          <t>Increased Bone Material Strength Index Is Positively Associated With the Risk of Incident Osteoporotic Fractures in Older Swedish Women | One-year supplementation with Lactobacillus reuteri ATCC PTA 6475 counteracts a degradation of gut microbiota in older women with low bone mineral density | The outcome of an automated assessment of trabecular pattern in intraoral radiographs as a fracture risk predictor | Development of a novel method to measure bone marrow fat fraction in older women using high-resolution peripheral quantitative computed tomography | One leg standing time predicts fracture risk in older women independent of clinical risk factors and BMD | The challenge of applying digital image processing software on intraoral radiographs for osteoporosis risk assessment | Intermediate monocytes correlate with CXCR3+ Th17 cells but not with bone characteristics in untreated early rheumatoid arthritis | Metabolic Alterations in Older Women supplemented with Lactobacillus reuteri or with Low Bone Mineral Density | Low-level cadmium exposure is associated with decreased cortical thickness, cortical area and trabecular bone volume fraction in elderly men: The MrOS Sweden study | The Timed Up and Go test predicts fracture risk in older women independently of clinical risk factors and bone mineral density | Grade 1 Vertebral Fractures Identified by Densitometric Lateral Spine Imaging Predict Incident Major Osteoporotic Fracture Independently of Clinical Risk Factors and Bone Mineral Density in Older Women | Decreased physical health-related quality of life—a persisting state for older women with clinical vertebral fracture | Response to Letter: Association between cortical bone microstructure and statin use in older women | Extensive undertreatment of osteoporosis in older Swedish women | The Effectiveness of a Curricular-Based Exercise Intervention on Bone Health and Body Composition in Swedish Boys and Girls in an Elementary School Setting | Association Between Cortical Bone Microstructure and Statin Use in Older Women | Cortical and trabecular bone microarchitecture as an independent predictor of incident fracture risk in older women and men in the Bone Microarchitecture International Consortium (BoMIC): a prospective study | Normal Bone Microstructure and Density But Worse Physical Function in Older Women Treated with Selective Serotonin Reuptake Inhibitors, a Cross-Sectional Population-Based Study | Lactobacillus reuteri reduces bone loss in older women with low bone mineral density: A randomized, placebo-controlled, double-blind, clinical trial | High Serum Serotonin Predicts Increased Risk for Hip Fracture and Nonvertebral Osteoporotic Fractures: The MrOS Sweden Study: HIGH SERUM SEROTONIN PREDICTS INCREASED FRACTURE RISK | High-Impact Mechanical Loading Increases Bone Material Strength in Postmenopausal Women-A 3-Month Intervention Study | Supplementary Material | Vertebral fractures and their association with health-related quality of life, back pain and physical function in older women | The Prevalence of Vertebral Fractures Is Associated With Reduced Hip Bone Density and Inferior Peripheral Appendicular Volumetric Bone Density and Structure in Older Women | Response to Letter: “Cortical Bone Area Predicts Incident Fractures Independently of Areal Bone Mineral Density in Older Men” | Increased cortical porosity in women with hip fracture | Type 2 Diabetes Mellitus Is Associated With Better Bone Microarchitecture But Lower Bone Material Strength and Poorer Physical Function in Elderly Women: A Population-Based Study | Cortical Bone Area Predicts Incident Fractures Independently of Areal Bone Mineral Density in Older Men | Current Physical Activity Is Independently Associated With Cortical Bone Size and Bone Strength in Elderly Swedish Women | Low serum vitamin D is associated with higher cortical porosity in elderly men | Bone material strength is associated with areal BMD but not with prevalent fractures in older women | A High Amount of Local Adipose Tissue Is Associated With High Cortical Porosity and Low Bone Material Strength in Older Women | Exercise During Growth and Young Adulthood Is Independently Associated With Cortical Bone Size and Strength in Old Swedish Men | Increased Cortical Porosity in Older Men With Fracture | Serum Estradiol Levels Are Inversely Associated With Cortical Porosity in Older Men | Use of Hypnotics and SSRI is Associated with Increased Risk of a Fall-Related Injury, Osteoporotic Fracture and Hip Fracture in Older Women and Men. | Nanoscale Biosensor for Detection of Reactive Oxygen Species | Zinc oxide nanoparticle removal from wounded human skin | Serum Estradiol Levels are Inversely Associated with Cortical Pore Size in Older Men - The MrOS Sweden Study | REMOVING NANOPARTICLES FROM HUMAN SKIN | The Human Stratum Corneum Prevents Small Gold Nanoparticle Penetration and Their Potential Toxic Metabolic Consequences | Association of Physical Activity with Trabecular Microstructure and Cortical Bone at Distal Tibia and Radius in Young Adult Men</t>
+        </is>
+      </c>
+      <c r="M151" s="3" t="inlineStr">
+        <is>
+          <t>Bone | Bone Mineral Density | Hip | Fracture | Osteoporosis | Bone Biology | Bone Metabolism | Bone Mineralization | Biomechanics | Bone Resorption</t>
+        </is>
+      </c>
+    </row>
+    <row r="152" ht="80" customHeight="1" s="4">
+      <c r="B152" s="3" t="inlineStr">
+        <is>
+          <t>Kathleen K Bucholz</t>
+        </is>
+      </c>
+      <c r="C152" s="3" t="inlineStr">
+        <is>
+          <t>Kathleen-Bucholz</t>
+        </is>
+      </c>
+      <c r="D152" s="3" t="inlineStr">
+        <is>
+          <t>Washington University in St. Louis</t>
+        </is>
+      </c>
+      <c r="E152" s="3" t="n">
+        <v>62593</v>
+      </c>
+      <c r="F152" s="3" t="n">
+        <v>35052</v>
+      </c>
+      <c r="G152" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="H152" s="3" t="inlineStr">
+        <is>
+          <t>Jl-Meyers | Grace-Chan-6 | Jay-Tischfield | John-Nurnberger | Alison-Goate-2 | William-True | Michael-Lyons-8 | John-Kramer-5 | Carolyn-Sartor | Alexis-Duncan | Vivia-Mccutcheon | Mary-Waldron | Dixie-Statham | Kenneth-Sher | Pamela-Madden | Stephen-Dinwiddie | Leah-Wetherill-2 | Wendy-Slutske | Fazil-Aliev | Elliot-Nelson | Michael-Lynskey-2 | Chella-Kamarajan | Jeffrey-Scherrer-2 | Howard-Edenberg | Hong-Xian-3 | Julia-Grant-4 | Jessica-Salvatore-2 | Pamela-A-F-Madden-2003908822 | John-Kramer-2049992808 | S-Kuperman-2081378860 | Nicholas-G-Martin-2116645484 | Theodore-Reich-2120304447 | Victor-Hesselbrock-2121279093 | AC-Heath-2132041565 | Seth-A-Eisen-2163233248 | Nicholas-G-Martin-38105299 | Bernice-Porjesz-38106900 | Michele-L-Pergadia-38236855 | Danielle-M-Dick-38686429 | Andrew-C-Heath-38928680 | Arpana-Agrawal-39032055 | Theodore-Jacob-39072971 | Marc-A-Schuckit-39120411 | Tatiana-Foroud-39121714 | Laura-Almasy-39574998 | N-G-Martin-39622226 | V-Hesselbrock-39718132 | Laura-J-Bierut-39739256 | Samuel-Kuperman-40004098</t>
+        </is>
+      </c>
+      <c r="I152" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="J152" s="3" t="inlineStr">
+        <is>
+          <t>Howard Edenberg | Jay Tischfield | John I Nurnberger | Xiaoling Xuei | Robert Cloninger | Alison M Goate | William True | John P Rice | Michael J Lyons | Michael C Neale | John Kramer | Carolyn E Sartor | Mark Daly | Alexis E Duncan | Vivia V Mccutcheon | Robin P Corley | Mary Waldron | Michael C Stallings | Dixie J Statham | Kenneth J Sher | Anne L Glowinski | Valerie S Knopik | Louisa Degenhardt | Richard J Rose | Pamela A F Madden | Stephen H Dinwiddie | Kathleen R Merikangas | Roger P Pickering | Fazil Aliev | Elliot C Nelson | Michael Lynskey | Sarah Bertelsen | Alexandre A Todorov | Carol Prescott | Jeffrey Frank Scherrer | Hong Xian | Naomi Breslau | Matt Mcgue | Judy Silberg | Julia D. Grant | Caroline J Easton | Bridget Grant | Tara Mclaughlin | Dorret I Boomsma | William Iacono | Ronald C. Kessler | Louis Fox | Wendy Slutske | Henry Kranzler | Hans-Ulrich Wittchen</t>
+        </is>
+      </c>
+      <c r="K152" s="3" t="n">
+        <v>683</v>
+      </c>
+      <c r="L152" s="3" t="inlineStr">
+        <is>
+          <t>Genomic risk for post-traumatic stress disorder in families densely affected with alcohol use disorders | Specific diagnostic criteria identify those at high risk for progression from 'preaddiction' to severe alcohol use disorder | Predicting Alcohol-Related Memory Problems in Older Adults: A Machine Learning Study with Multi-Domain Features | Clinical, genomic, and neurophysiological correlates of lifetime suicide attempts among individuals with alcohol dependence | Do personality characteristics predict future alcohol problems after considering current demography, substance use and alcohol response? | Multivariate genome-wide association meta-analysis of over 1 million subjects identifies loci underlying multiple substance use disorders | Changes over time in endorsement of 11 DSM‐IV alcohol use disorder ( AUD ) criteria in young adults with persistent or recurrent AUD in The Collaborative Study on the Genetics of Alcoholism | Parental divorce, discord, and polygenic risk on children's alcohol initiation and lifetime risk for disorder | Associations of parent–adolescent closeness with P3 amplitude, frontal theta, and binge drinking among offspring with high risk for alcohol use disorder | Polygenic contributions to suicidal thoughts and behaviors in a sample ascertained for alcohol use disorders | Predicting alcohol-related memory problems in older adults: A machine learning study with multi-domain features | Predicting Alcohol-Related Memory Problems in Older Adults: A Machine Learning Study with Multi-Domain Features | Genetic nurture effects for alcohol use disorder | Multi-trait genome-wide association study of opioid addiction: OPRM1 and beyond | The role of parental genotype in the intergenerational transmission of externalizing behavior: Evidence for genetic nurturance | Clinical, environmental, and genetic risk factors for substance use disorders: characterizing combined effects across multiple cohorts | Uncovering the genetic architecture of broad antisocial behavior through a genome-wide association study meta-analysis | Parsing genetically influenced risk pathways: genetic loci impact problematic alcohol use via externalizing and specific risk | Polygenic contributions to suicidal thoughts and behaviors in a sample ascertained for alcohol use disorders | Examining social genetic effects on educational attainment via parental educational attainment, income, and parenting | Alcohol use disorder, psychiatric comorbidities, marriage and divorce in a high-risk sample | The clinical course of antisocial behaviors in men and women of three racial groups | Deriving a Measure of Social Recovery Capital From the Important People and Activities Instrument: Construction and Psychometric Properties | eTable 2.pdf | eTable 3.pdf | eTable 1.pdf | Supplementary_information.pdf | Predicting Substance Use Disorders: A Multifactorial Risk Index Combining Clinical, Environmental, and Genetic Risk Factors | Perceived racial and social class discrimination and cannabis involvement among Black youth and young adults | High polygenic risk scores are associated with age of onset of alcohol use disorder in adolescents and young adults at risk | Using a developmental perspective to examine the moderating effects of marriage on heavy episodic drinking in a young adult sample enriched for risk – CORRIGENDUM | Multi-trait genome-wide association study of opioid addiction: OPRM1 and Beyond | Mapping Pathways by Which Genetic Risk Influences Adolescent Externalizing Behavior: The Interplay Between Externalizing Polygenic Risk Scores, Parental Knowledge, and Peer Substance Use | Temporal Trends in Smoking and Nicotine Dependence in Relation to Co-occurring Substance Use in the United States, 2005-2016 | Multi-omics integration analysis identifies novel genes for alcoholism with potential overlap with neurodegenerative diseases | Multivariate analysis of 1.5 million people identifies genetic associations with traits related to self-regulation and addiction | Social class discrimination as a predictor of first cigarette use and transition to nicotine use disorder in Black and White youth | Racial Associations Between Gambling and Suicidal Behaviors Among Black and White Adolescents and Young Adults | Associations between Suicidal Thoughts and Behaviors and Genetic Liability for Cognitive Performance, Depression, and Risk-Taking in a High-Risk Sample | Predicting alcohol use disorder remission: a longitudinal multimodal multi-featured machine learning approach | Timing of mortality in mothers with recurrent convictions for driving under the influence of alcohol and their children, from childbirth to child age 17 | Associations between racial and socioeconomic discrimination and risk behaviors among African-American adolescents and young adults: a latent class analysis | Pathways to post-traumatic stress disorder and alcohol dependence: Trauma, executive functioning, and family history of alcoholism in adolescents and young adults | A large-scale genome-wide association study meta-analysis of cannabis use disorder | Marital status, partner acknowledgment of paternity, and neighborhood influences on smoking during first pregnancy: findings across race/ethnicity in linked administrative and census data | Gender discrimination and illicit drug use among African American and European American adolescents and emerging adults | A latent class analysis of alcohol and posttraumatic stress symptoms among offspring of parents with and without alcohol use disorder | The association of opioid use duration and new depression episode among patients with and without insomnia | Leveraging genome-wide data to investigate differences between opioid use vs. opioid dependence in 41,176 individuals from the Psychiatric Genomics Consortium | Alcohol‐Related, Drug‐Related, and Non–Substance‐Related Aggression: 3 Facets of a Single Construct or 3 Distinct Constructs? | Alcohol-Related, Drug-Related, and Non-Substance-Related Aggression: Three Facets of a Single Construct or Three Distinct Constructs? | Using a developmental perspective to examine the moderating effects of marriage on heavy episodic drinking in a young adult sample enriched for risk | Genome‐wide admixture mapping of DSM‐IV alcohol dependence, criterion count, and the self‐rating of the effects of ethanol in African American populations | Trauma exposure and post-traumatic stress disorder among youth in a high-risk family study: Associations with maternal and paternal alcohol use disorder | Eating Disorders in a Community-Based Sample of Women with Alcohol Use Disorder and Nicotine Dependence | Characterization of Service Use for Alcohol Problems Across Generations and Sex in Adults With Alcohol Use Disorder | Polygenic contributions to alcohol use and alcohol use disorders across population-based and clinically ascertained samples | Density and Dichotomous Family History Measures of Alcohol Use Disorder as Predictors of Behavioral and Neural Phenotypes: A Comparative Study Across Gender and Race/Ethnicity | Alcohol Dependence and Reproductive Onset in Women, Updated: Analyses of Research and State-Level Administrative Data | Patterns of gambling and substance use initiation in African American and White adolescents and young adults | ERRATUM: Genome‐wide association study identifies loci associated with liability to alcohol and drug dependence that is associated with variability in reward‐related ventral striatum activity in African‐ and European‐Americans | Sibling comparisons elucidate the associations between educational attainment polygenic scores and alcohol, nicotine and cannabis | Development of Alcohol Use Disorder as a Function of Age, Severity, and Comorbidity with Externalizing and Internalizing Disorders in a Young Adult Cohort | Psychosocial moderation of polygenic risk for cannabis involvement: the role of trauma exposure and frequency of religious service attendance | Elevated Maternal and Child Mortality among Women with Multiple DUIs Compared to Sociodemographically Matched Controls | Genome‐wide association study identifies loci associated with liability to alcohol and drug dependence that is associated with variability in reward‐related ventral striatum activity in African‐ and European‐Americans | The interaction of sociodemographic risk factors and measures of nicotine dependence in predicting maternal smoking during pregnancy | Genome‐wide association studies of alcohol dependence, DSM‐IV criterion count, and individual criteria | A Pilot Follow‐Up Study of Older Alcohol Dependent COGA Adults | The Genetic Relationship Between Alcohol Consumption and Aspects of Problem Drinking in an Ascertained Sample | The association between racial and socioeconomic discrimination and two stages of alcohol use in blacks | Prenatal care as a protective factor for preterm birth and smoking during pregnancy in nulliparous patients: a propensity score analysis | 3049 Prenatal care as a protective factor for preterm birth and smoking during pregnancy in nulliparous patients: a propensity score analysis | Utilizing census, birth record, and research cohort data in addiction research: geographic variation in smoking during pregnancy (SDP) and the roles of neighborhood characteristics and individual factors in predicting SDP | Positive and Negative Reinforcement Are Differentially Associated With Alcohol Consumption as a Function of Alcohol Dependence | EARLY SEXUAL ASSAULTIVE TRAUMA, POLYGENIC RISK FOR AUD/CUD, AND NEURAL RESPONSE INHIBITION IN ADOLESCENCE AND YOUNG ADULTS: TRAJECTORIES OF FRONTAL OSCILLATIONS DURING A GO/NOGO TASK | SA137SOCIAL GENETICS EFFECTS ON ALCOHOL DEPENDENCE IN MARITAL DYADS | Early Sexual Trauma Exposure and Neural Response Inhibition in Adolescence and Young Adults: Trajectories of Frontal Theta Oscillations During a Go/No-Go Task | Exploring the relationship between polygenic risk for cannabis use, peer cannabis use, and the longitudinal course of cannabis involvement | Understanding Mechanisms of Genetic Risk for Adolescent Internalizing and Externalizing Problems: The Mediating Role of Parenting and Personality | Influence of Parental Alcohol Dependence Symptoms and Parenting on Adolescent Risky Drinking and Conduct Problems: A Family Systems Perspective | A 22‐Year Follow‐Up (Range 16 to 23) of Original Subjects with Baseline Alcohol Use Disorders from the Collaborative Study on Genetics of Alcoholism | Reliability and validity of an internalizing symptom scale based on the adolescent and adult Semi-Structured Assessment for the Genetics of Alcoholism (SSAGA) | The Impact of Traumatic Experiences on Risky Sexual Behaviors in Black and White Young Adult Women | 2266 Big data approaches in translational science: The influence of psychiatric and trauma history in predicting smoking during pregnancy in a cohort of female like-sex twin pairs | Big data approaches in translational science: The influence of psychiatric and trauma history in predicting smoking during pregnancy in a cohort of female like-sex twin pairs | Fagerström Heavy Smoking Index outperforms DSM-IV Nicotine Dependence diagnosis in predicting smoking during pregnancy in a sample of female like-sex twin pairs | Impact of adherence to antidepressants on long-term prescription opioid use cessation | Comparison of Characteristics of Female Drivers with Single and Multiple DUI Convictions | Risk Factors Associated With Gambling Involvement among a National Sample of African American and European American Young Adults | An endophenotype approach to the genetics of alcohol dependence: a genome wide association study of fast beta EEG in families of African ancestry | The Association Between Racial Discrimination and Suicidality among African-American Adolescents and Young Adults | Smoking as an early risk factor for problematic parenting practices | Gender and the Association between Long-Term Prescription Opioid Use and New Onset Depression | Interactive Effects of Maternal Alcohol Problems and Parental Separation on Timing of Daughter&amp;apos;s First Drink | Childhood Trauma and Two Stages of Alcohol Use in African American and European American Women: Findings from a Female Twin Sample | Single Motherhood, Alcohol Dependence, and Smoking During Pregnancy: A Propensity Score Analysis | supplement | Associations of Parental Alcohol Use Disorders and Parental Separation with Offspring Initiation of Alcohol, Cigarette, and Cannabis Use and Sexual Debut in High‐Risk Families | Using Patterns of Genetic Association to Elucidate Shared Genetic Etiologies Across Psychiatric Disorders</t>
+        </is>
+      </c>
+    </row>
+    <row r="153" ht="80" customHeight="1" s="4">
+      <c r="B153" s="3" t="inlineStr">
+        <is>
+          <t>Dixie J Statham</t>
+        </is>
+      </c>
+      <c r="C153" s="3" t="inlineStr">
+        <is>
+          <t>Dixie-Statham</t>
+        </is>
+      </c>
+      <c r="D153" s="3" t="inlineStr">
+        <is>
+          <t>University of the Sunshine Coast</t>
+        </is>
+      </c>
+      <c r="E153" s="3" t="n">
+        <v>20418</v>
+      </c>
+      <c r="F153" s="3" t="n">
+        <v>9343</v>
+      </c>
+      <c r="G153" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="H153" s="3" t="inlineStr">
+        <is>
+          <t>Leah-Richmond-Rakerd | Christal-Davis | Jaakko-Kaprio | Eco-Geus | Naomi-Wray | Alison-Goate-2 | Kathleen-Bucholz | K-Harden | E-Byrne | Carolyn-Sartor | Vivia-Mccutcheon | David-Kavanagh-5 | Timothy-Trull | Anne-Glowinski | Katherine-Morley | Ian-Hickie | Arielle-Deutsch | Pamela-Madden | Stephen-Dinwiddie | Graham-Jamieson | Wendy-Slutske | Elliot-Nelson | Michael-Lynskey-2 | Alexandre-Todorov | Julia-Grant-4 | Pamela-A-F-Madden-2003908822 | A-Agrawal-2075459008 | PAF-Madden-2095686252 | KK-Bucholz-2102033693 | Nicholas-G-Martin-2116645484 | AC-Heath-2132041565 | Michael-T-Lynskey-2139926224 | Nicholas-G-Martin-2143287745 | Richard-D-Todd-2163532015 | Katherine-M-Kirk-34562528 | Sarah-E-Medland-38101421 | Nicholas-G-Martin-38105299 | Pamela-A-Madden-38234013 | Michele-L-Pergadia-38236855 | John-B-Whitfield-38715510 | Andrew-C-Heath-38928680 | Arpana-Agrawal-39032055 | Ian-R-Gizer-39194025 | N-G-Martin-39622226 | Laura-J-Bierut-39739256 | Grant-W-Montgomery-39910467 | Anjali-K-Henders-40090395 | Lauren-R-Few-55698416 | Peter-W-Sheehan-66231447 | Michael-P-Dunne-9676709</t>
+        </is>
+      </c>
+      <c r="I153" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="J153" s="3" t="inlineStr">
+        <is>
+          <t>Howard Edenberg | Peter Mcguffin | Eco J C de Geus | John I Nurnberger | Naomi R Wray | Cathryn M Lewis | Robert Cloninger | Alison M Goate | Kathleen K Bucholz | William True | Jacqueline M Vink | John P Rice | Michael J Lyons | Michael C Neale | Carolyn E Sartor | Robin P Corley | Susan E Young | Michael C Stallings | Kenneth J Sher | Anne L Glowinski | Louisa Degenhardt | Richard J Rose | Pamela A F Madden | Myrna M Weissman | Stephen H Dinwiddie | Karin Verweij | Andrew Pickles | Danielle Posthuma | Matthew K Nock | B.W. Penninx | Elliot C Nelson | Michael Lynskey | Robert Emery | Alexandre A Todorov | Carol Prescott | Jeffrey Frank Scherrer | Naomi Breslau | Matt Mcgue | Judy Silberg | Julia D. Grant | Bridget Grant | Dorret I Boomsma | Gonneke Willemsen | William Iacono | Hermine Maes | Ronald C. Kessler | Marcella Rietschel | Wendy Slutske | Hans-Ulrich Wittchen | Penelope Lind</t>
+        </is>
+      </c>
+      <c r="K153" s="3" t="n">
+        <v>130</v>
+      </c>
+      <c r="L153" s="3" t="inlineStr">
+        <is>
+          <t>Genetic and shared environmental factors explain the association between adolescent polysubstance use and high school noncompletion | Educational Attainment Polygenic Scores: Examining Evidence for Gene–Environment Interplay with Adolescent Alcohol, Tobacco and Cannabis Use | Adolescent Substance Use and High School Noncompletion: Exploring the Nature of the Relationship using a Discordant Twin Design | Genetic aetiology of self-harm ideation and behaviour | Cohort profile: The Australian genetics of depression study | High‐Intensity Drinking in Adult Australian Twins | Associations between polygenic risk for tobacco and alcohol use and liability to psychiatric disorders in an independent sample of 13,999 Australian adults | Big Five Personality Traits and Alcohol, Nicotine, Cannabis, and Gambling Disorder Comorbidity | The Australian Genetics of Depression Study: Study Description and Sample Characteristics | Potential Causal Influence of Neighborhood Disadvantage on Disordered Gambling: Evidence From a Multilevel Discordant Twin Design | A Multivariate Behavior Genetic Investigation of Dual-Systems Models of Alcohol Involvement | Common genetic contributions to high-risk trauma exposure and self-injurious thoughts and behaviors | Overlap of heritable influences between cannabis use disorder, frequency of use and opportunity to use cannabis: trivariate twin modelling and implications for genetic design | Correlates of employment interest among adults with schizophrenia | Lonely people tend to make fun of themselves: A behavior genetic analysis of humor styles and loneliness | supplement | Cannabis and Depression: A Twin Model Approach to Co-morbidity | Major Depressive Disorder, Suicidal Thoughts and Behaviors, and Cannabis involvement in Discordant Twins: a Retrospective Cohort Study | The Association of Genetic Predisposition to Depressive Symptoms with Non-suicidal and Suicidal Self-Injuries | Age at First Use and Later Substance Use Disorder: Shared Genetic and Environmental Pathways for Nicotine, Alcohol, and Cannabis | Most of the genetic covariation between major depressive and alcohol use disorders is explained by trait measures of negative emotionality and behavioral control | The variance shared across forms of childhood trauma is strongly associated with liability for psychiatric and substance use disorders | Supplementary Material | Onset Of Opportunity To Use Cannabis And Progression From Opportunity To Dependence: Are Influences Consistent Across Transitions? | Early Onset Alcohol Use and Self-Harm: A Discordant Twin Analysis | The association between childhood maltreatment, psychopathology, and adult sexual victimization in men and women: results from three independent samples | The role of conduct disorder in the relationship between alcohol, nicotine and cannabis use disorders | Local Area Disadvantage and Gambling Involvement and Disorder: Evidence for Gene-Environment Correlation and Interaction | The association between speed of transition from initiation to subsequent use of cannabis and later problematic cannabis use, abuse and dependence: Early transition associated with problem use | Interest in Employment Among People with Schizophrenia | Role functioning among adults with schizophrenia | The relationship between cannabis involvement and suicidal thoughts and behaviors | Conduct problems explain the genetic overlap between alcohol dependence, nicotine dependence and cannabis abuse/dependence | Genetic Influences on Alcohol-related Hangover | Telescoping and Gender Differences in the Time Course of Disordered Gambling: Evidence from a General Population Sample | Genetic variation in personality traits explains genetic overlap between borderline personality features and substance use disorders | Inclusive education or utopia for ASD? When community, teacher, and student collide to reach positive educational outcomes | Overlapping Genetic and Environmental Influences on Nonsuicidal Self-injury and Suicidal Ideation: Different Outcomes, Same Etiology? | Mental health interprofessional education for health professions students: Bridging the gaps | Test of a Potential Causal Influence of Earlier Age of Gambling Initiation on Gambling Involvement and Disorder: A Multi-level Discordant Twin Design | The Craving Experience Questionnaire: A Brief, Theory-Based Measure of Consummatory Desire and Craving. | Parental Separation and Early Substance Involvement: Results from Children of Alcoholic and Cannabis Dependent Twins | Measurement of alcohol craving | Common Heritable Contributions to Low-Risk Trauma, High-Risk Trauma, Posttraumatic Stress Disorder, and Major Depression | Measuring alcohol craving: Development of the Alcohol Craving Experience questionnaire | Supplementary File 4 | Supplementary File 1 | Supplementary File 2 | Supplementary Files Legends | Supplementary File 3 | Genome-wide association study of major depressive disorder: New results, meta-analysis, and lessons learned | Parental depression and offspring psychopathology: A Children of Twins study | Common Genetic Contributions to Alcohol and Cannabis Use and Dependence Symptomatology | Genetic and environmental influences on the co-morbidity between depression, panic disorder, agoraphobia, and social phobia: A twin study | Genetic Linkage Findings for DSM-IV Nicotine Withdrawal in Two Populations | Accurate, Large-Scale Genotyping of 5HTTLPR and Flanking Single Nucleotide Polymorphisms in an Association Study of Depression, Anxiety, and Personality Measures | Suggestive Linkage on Chromosome 2, 8, and 17 for Lifetime Major Depression | The Australian Twin Study of Gambling (OZ-GAM): Rationale, Sample Description, Predictors of Participation, and a First Look at Sources of Individual Differences in Gambling Involvement | Genetic Linkage and Association Findings for DSM-IV Major Depressive Disorder: Is the Metabotropic Glutamate Receptor 7 Gene (GRM7) an Important Risk Factor for Depression in Smokers? | Autosomal Linkage Analysis for Cannabis Use Behaviors in Australian Adults | An Autosomal Linkage Scan for Cannabis Use Disorders in the Nicotine Addiction Genetics Project | A Behavior Genetic Investigation of Adolescent Motherhood and Offspring Mental Health Problems | Spousal Concordance for Alcohol Dependence: Evidence for Assortative Mating or Spousal Interaction Effects? | Stimulant use and symptoms of abuse/dependence: Epidemiology and associations with cannabis use - A twin study | Childhood sexual abuse and risks for licit and illicit drug-related outcomes: a twin study | Assortative Mating for Cigarette Smoking and Alcohol Consumption in Female Australian Twins and Their Spouses | Duration of cannabis use--a novel phenotype? | Familial Clustering of Major Depression and Anxiety Disorders in Australian and Dutch Twins and Siblings | Assortative mating for smoking and drinking behavior | Genetic effects on alcohol dependence risk: Re-evaluating the importance of psychiatric and other heritable risk factors | Major Depressive Disorder, Suicidal Ideation, and Suicide Attempt inTwins Discordant for Cannabis Dependence and Early-Onset Cannabis Use | Monozygotic twin pairs discordant for lifetime anorexia nervosa: An exploratory investigation | Defining nicotine dependence for genetic research: Evidence from Australian twins | Genetic Epidemiology of Alcohol-Induced Blackouts | Early Exposure to Marijuana and Risk of Later Drug Use--Reply | Escalation of Drug Use in Early-Onset Cannabis Users vs Co-twin Controls | Computerization of a diagnostic interview for a study of nicotine addiction genetics | Childhood conduct disorder and subsequent drug use and drug abuse/dependence: A co-twin control study | Genetic and environmental contributions to cannabis dependence in a national young adult twin sample | Personality and the risk for alcohol dependence | Association Between Self-reported Childhood Sexual Abuse and Adverse Psychosocial Outcomes | Personality and the genetic risk for alcohol dependence | Examining sex and cohort differences in the etiology of conduct disorder: A study of 6,342 adult twin pairs. | Towards a molecular epidemiology of alcohol dependence: Analysing the interplay of genetic and environmental risk factors | Predictors of NonResponse to a Questionnaire Survey of a Volunteer Twin Panel: Findings from the Australian 1989 Twin Cohort | Predictors of Non-Response to a Questionnaire Survey of a Volunteer Twin Panel: Findings from the Australian 1989 Twin Cohort | Anxiety and depression in twin and sib pairs extremely discordant and concordant for neuroticism: Prodromus to a linkage study | Childhood sexual abuse and pathogenic parenting in the childhood recollections of adult twin pairs | A Study of the Genetic and Environmental Etiology of Stuttering in a Selected Twin Sample | Alcohol dependence and depression in a national sample of Australian twins | Anxiety and depression in twin and sib pairs extremely discordant and concordant for neuroticism: prodromus to a linkage study | Monoamine oxidase: Associations with alcohol dependence, smoking and other measures of psychopathology | Early sexual abuse and lifetime psychopathology: A co-twin-control study | Genetic Differences in Alcohol Sensitivity and the Inheritance of Alcoholism Risk | Examining the heritability of stuttering in Australian twins: Descriptive and epidemiological analyses. | Major depressive disorder in a community-based twin sample: are there different genetic and environmental contributions for men and women | Suicidal behaviour: An epidemiological and genetic study | Common genetic risk factors for conduct disorder and alcohol dependence | Genetic and environmental contributions to alcohol dependence risk in a national twin sample: Consistency of findings in women and men | Participation Bias in a Sexuality Survey: Psychological and Behavioural Characteristics of Responders and Non-Responders</t>
+        </is>
+      </c>
+    </row>
+    <row r="154" ht="80" customHeight="1" s="4">
+      <c r="B154" s="3" t="inlineStr">
+        <is>
+          <t>Tanya Rosado</t>
+        </is>
+      </c>
+      <c r="C154" s="3" t="inlineStr">
+        <is>
+          <t>Tanya-Rosado</t>
+        </is>
+      </c>
+      <c r="E154" s="3" t="n">
+        <v>176</v>
+      </c>
+      <c r="F154" s="3" t="n">
+        <v>21</v>
+      </c>
+      <c r="G154" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="H154" s="3" t="inlineStr">
+        <is>
+          <t>Lang-Xia-Liu | Kanak-Dikshit | Piotr-Chomczynski-2 | Jorge-L-Colon | Camillo-Rosano | Maria-Teresa-Sanna | Jose-Gavira | Raffaele-Petruzzelli | Helene-Munier-Lehmann | Barbara-Manconi | Carmen-Cadilla | Juan-Lopez-Garriga | Frances-M-Antommattei-prez-29557156 | Frances-M-Antommattei-Perez-78583751</t>
+        </is>
+      </c>
+      <c r="I154" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="J154" s="3" t="inlineStr">
+        <is>
+          <t>Lang Xia Liu | Carmen Cadilla | Kanak Dikshit | Piotr Chomczynski | Jorge L Colón | Camillo Rosano | Roy E. Weber | Mauro Fasano | Alessandra Gambacurta | Francesca Cutruzzolà | Menico Rizzi | Nicoletta Sacchi | Marcelo Matos Santoro | Sylvia Dewilde | Alejandro A Schaffer | Benjamin C Stark | Martino Bolognesi | George Barrie Kitto | Steven L Alam | Laurent Kiger | Donald Bashford | John S. Olson | Juan López-Garriga | Daniel Walz | Serge N Vinogradov | Jose F Cerda | Claire Poyart | Jonathan B Wittenberg | George N Phillips | Shaoxiong Wu | Andre Miller | Matty Knight | Andrea Brancaccio | Dominique Belin | Sadao Wakabayashi | Naveen Kumar Navani | Joachim Deitmer | Pei W Thomas | Philip D Martin | Alessandro Coda | Kaushal Vyas | Alberto Boffi | José E. Cortés-Figueroa | Tom Maniatis | Walleska De Jesus | Mareah Carson | Zhengh Zhang | Luc Moens | Shoko Kimura | Edward Fritsch</t>
+        </is>
+      </c>
+      <c r="K154" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="L154" s="3" t="inlineStr">
+        <is>
+          <t>Expression and Purification of Recombinant Hemoglobin I from | Expression and Purification of Recombinant Hemoglobin I from Lucina pectinata | The cDNA-Derived Amino Acid Sequence of Hemoglobin I from Lucina pectinata</t>
+        </is>
+      </c>
+      <c r="M154" s="3" t="inlineStr">
+        <is>
+          <t>Cloning | Western Blot Analysis | PCR | Gene Expression | DNA | Gel Electrophoresis | Cell Culture | Electrophoresis | SDS-PAGE | Protein Purification</t>
+        </is>
+      </c>
+    </row>
+    <row r="155" ht="80" customHeight="1" s="4">
+      <c r="B155" s="3" t="inlineStr">
+        <is>
+          <t>Yacidzohara Rodriguez</t>
+        </is>
+      </c>
+      <c r="C155" s="3" t="inlineStr">
+        <is>
+          <t>Yacidzohara-Rodriguez</t>
+        </is>
+      </c>
+      <c r="D155" s="3" t="inlineStr">
+        <is>
+          <t>University of Puerto Rico, Medical Sciences Campus</t>
+        </is>
+      </c>
+      <c r="E155" s="3" t="n">
+        <v>477</v>
+      </c>
+      <c r="F155" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="G155" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="H155" s="3" t="inlineStr">
+        <is>
+          <t>Mainak-Guharoy | May-Christine-Malicdan | Eric-Olson-8 | David-Ornitz | Bruno-Dallapiccola | Sayeon-Cho | Noe-Crespo-3 | Xiaoguang-Chen-9 | Kenjiro-Kosaki | Zhijian-Tu | Carmen-Cadilla | Ricardo-Gonzalez-Mendez</t>
+        </is>
+      </c>
+      <c r="I155" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="J155" s="3" t="inlineStr">
+        <is>
+          <t>Carmen Cadilla | Mainak Guharoy | May Christine V Malicdan | Eric Olson | David Ornitz | Bruno Dallapiccola | Bert Gold | Rogério Margis | Celeste Brown | Ricardo González Méndez | Fabiana Martins | Ioannis Xenarios | Cedric Notredame | Marie Chabbert | Laura Mazzanti | Kevin Bryson | Tom L Blundell | Geoffrey J Barton | Amanda T Pettersson-Klein | Kimitoshi Kohno | Larry Kedes | Peter Tompa | Carlotta A Glackin | Fred E Cohen | Anthony B Firulli | Inna Gitelman | Karobi Moitra | Natalia De Groot | Timothy Nugent | Federico Minneci | Gina Lowe | Mihaly Varadi | Pier Lorenzo Puri | Jacky Bonaventure | Kate McGee Im | Julien Pelé | Fabienne perrin-schmitt | Monica Erazo | Jose R. Rodriguez Medina | Brendan Eli Kern | Fruzsina Zsolyomi | Vittorio Sartorelli | Mark Scally | Patrice Bourgeois | Huang Haigen | Alexander J Ropelewski | Shalini Singh | William Gahl | Vincent el Ghouzzi | Kai Yu</t>
+        </is>
+      </c>
+      <c r="K155" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="L155" s="3" t="inlineStr">
+        <is>
+          <t>Correction: Evolution of the Twist Subfamily Vertebrate Proteins: Discovery of a Signature Motif and Origin of the Twist1 Glycine-Rich Motifs in the Amino-Terminus Disordered Domain | Evolution of the Twist Subfamily Vertebrate Proteins: Discovery of a Signature Motif and Origin of the Twist1 Glycine-Rich Motifs in the Amino-Terminus Disordered Domain | S1 Fig | S2 Fig | Comparative Analysis of the Amino Terminus Region of Twist1 and Twist2 Proteins | A bioinformatic analysis of the vertebrate Twist protein family (778.5)</t>
+        </is>
+      </c>
+      <c r="M155" s="3" t="inlineStr">
+        <is>
+          <t>PCR | Gel Electrophoresis | Cell Culture | DNA | Gene Expression | DNA Extraction | Western Blot Analysis | SDS-PAGE | DNA Gel Electrophoresis | Molecular Genetics</t>
+        </is>
+      </c>
+    </row>
+    <row r="156" ht="80" customHeight="1" s="4">
+      <c r="B156" s="3" t="inlineStr">
+        <is>
+          <t>Bradley Nindl</t>
+        </is>
+      </c>
+      <c r="C156" s="3" t="inlineStr">
+        <is>
+          <t>Bradley-Nindl</t>
+        </is>
+      </c>
+      <c r="D156" s="3" t="inlineStr">
+        <is>
+          <t>University of Pittsburgh</t>
+        </is>
+      </c>
+      <c r="E156" s="3" t="n">
+        <v>117264</v>
+      </c>
+      <c r="F156" s="3" t="n">
+        <v>11456</v>
+      </c>
+      <c r="G156" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="H156" s="3" t="inlineStr">
+        <is>
+          <t>Felix-Proessl | Joseph-Alemany | Shawn-Eagle | Keijo-Haekkinen | Brian-Martin-17 | Jeff-Volek | Aaron-Sinnott | Robert-Newton-4 | Lincoln-Gotshalk | Paul-Arciero | John-Castellani | Margot-Putukian | Carl-Maresh-2 | Will-Conkright | Disa-Hatfield-2 | Mita-Lovalekar | Shawn-Flanagan | Meaghan-Beckner | Dennis-Scofield | Mark-Kellogg | Joseph-Pierce | Barry-Spiering-2 | Valerie-Rice | Karen-Keenan-4 | Wes-Hymer | Kevin-Rarick | William-Kraemer | Peter-Frykman-2 | Scott-Montain | Nicholas-Ratamess-2 | Courtenay-Dunn-Lewis | Andrew-Young-9 | Jill-Bush | Chris-Connaboy | Alice-Lagoy-2 | Jakob-Vingren | Kim-Beals-2051338764 | James-O-Marx-2080005755 | J-O-Marx-2110151992 | Alexander-P-Tuckow-33422531 | Rachel-K-Evans-35269646 | Robert-P-Mello-38179025 | SCOTT-A-MAZZETTI-38286536 | Marilyn-A-Sharp-38663686 | Heikki-Kyroelaeinen-38882457 | Everett-A-Harman-5257511 | J-S-Volek-55248950 | S-J-Fleck-57026159 | John-F-Patton-82182674</t>
+        </is>
+      </c>
+      <c r="I156" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="J156" s="3" t="inlineStr">
+        <is>
+          <t>Mark Kellogg | Henning Langberg | Ran Yanovich | David R Clemmons | Robert Usher Newton | Lincoln A Gotshalk | Matti Santtila | Paul J Arciero | Margot Putukian | Robert C Baxter | Carl M Maresh | Geoffrey Goldspink | Andrew C. Fry | Patricia Deuster | Victor Edgerton | Carl Maresh | Duncan N French | Jan Frystyk | Dennis E Scofield | Fredrick C Hagerman | Eldon Wayne Askew | Joseph R Pierce | Markku Alén | Arthur Weltman | Wes c Hymer | Michael Kjaer | Karl Friedl | Kevin R Rarick | William J Kraemer | Peter Frykman | Scott Montain | Nicholas Ratamess | Andrew John Young | William J. Tharion | Allan Flyvbjerg | Michael N Sawka | Ju Y Weltman | Joe Dziados | William J Evans | Jill Bush | Joseph A Alemany | Keijo Häkkinen | Jeff S Volek | John Castellani | Mita Lovalekar | Midya Khosravi | Lester Martinez-Lopez | John Abt | Barry A. Spiering | Emine Harman</t>
+        </is>
+      </c>
+      <c r="K156" s="3" t="n">
+        <v>422</v>
+      </c>
+      <c r="L156" s="3" t="inlineStr">
+        <is>
+          <t>Sex differences in musculoskeletal injury epidemiology and subsequent loss of tactical readiness during Marine Corps Officer Candidates School | Performance in the Role Fitness Test (Entry) and Physical Employment Standards in Recruit Aged Men and Women | Hormonal stress responses of growth hormone and insulin-like growth factor-I in highly resistance trained women and men | Using Machine Learning and Wearable Inertial Sensor Data for the Classification of Fractal Gait Patterns in Women and Men During Load Carriage | Does Concussion Affect Perception-Action Coupling Behavior?: Action Boundary Perception as a Biomarker for Concussion | Sex differences in the physical performance, physiological, and psycho-cognitive responses to military operational stress | Characterizing off-target corticospinal responses to double-cone transcranial magnetic stimulation | Neuromuscular Performance and Hormonal Responses to Military Operational Stress in Men and Women | Reliability of Corticospinal Excitability Estimates for the Vastus Lateralis: Practical Considerations for Lower Limb TMS Task Selection | Musculoskeletal injuries in military personnel—Descriptive epidemiology, risk factor identification, and prevention | Impact of simulated military operational stress on executive function relative to trait resilience, aerobic fitness, and neuroendocrine biomarkers | Similar Corticospinal Excitability in Military Men and Women During Simulated Operational Stress | The effects of fatiguing exercise and load carriage on the perception and initiation of movement | Using Wavelet-based Fractal Analysis of Inertial Measurement Unit Signals to Examine Gait Data from Men and Women during a Load Carriage Task | Psychological and Physiological Predictors of Resilience in Navy SEAL Training | Growth Hormone and Insulin-like Growth Factor-I Molecular Weight Isoform Responses to Resistance Exercise Are Sex-Dependent | The Central Role of Osteocytes in the Four Adaptive Pathways of Bone's Mechanostat | Task-specificity Of Corticospinal Excitability: The Influence Of Contractile Properties: 2321 Board #240 May 28 2:00 PM - 3:30 PM | Corticomotor Network Activity Does Not Contribute To The Bilateral Deficit Phenomenon: 3426 Board #247 May 29 2:30 PM - 4:00 PM | Differential Responses Of Resting Vs. Post-exertion Hormone Concentrations During Simulated Military Operational Stress: 3980 Board #297 May 30 9:00 AM - 10:30 AM | Simulated Military Operational Stress Negatively Impacts Psychomotor Vigilance And Neurocognitive Biomarkers In Men And Women: 1161 Board #287 May 27 1:30 PM - 3:00 PM | Compromised Perception-action Coupling Performance In Military Personnel May Be Related To Increased Deep Sleep: 773 Board #5 May 27 3:15 PM - 5:15 PM | Dynamic Exertion Testing (EXIT): A New Approach To Inform Return To Play Following Sport-related Concussion: 1174 Board #300 May 27 2:30 PM - 4:00 PM | Foot Acceleration Attenuation Reduces During Military Load Carriage: 775 Board #7 May 27 3:15 PM - 5:15 PM | Impact Of Operational Stress On Motor Evoked Potentials In Military Personnel: 2336 Board #255 May 28 2:00 PM - 3:30 PM | Effects of Multi-ingredient Preworkout Supplements on Physical Performance, Cognitive Performance, Mood State, and Hormone Concentrations in Recreationally Active Men and Women | Acylcarnitine Concentrations Are Increased in Response to an Extended Energy Deficit, but Return to Normal Following Recovery in Tactical Military Personnel | Microdialysis-Assessed Exercised Muscle Reveals Localized and Differential IGFBP Responses to Unilateral Stretch Shortening Cycle Exercise | 0242 Efficient Perception-Action Coupling Relates to More Slow Wave Sleep in Military Personnel | Acute perceptual motor accuracy deficits in adolescent athletes with sport-related concussion | Salivary Bioscience in Military, Space, and Operational Research | Incidence and pattern of musculoskeletal injuries among women and men during Marine Corps training in sex-integrated units | Effect of a novel low volume, high intensity concurrent training regimen on recruit fitness and resilience | Growth Hormone(s), Testosterone, Insulin-Like Growth Factors, and Cortisol: Roles and Integration for Cellular Development and Growth With Exercise | Differential recovery rates of fitness following U.S. Army Ranger training | Sex Differences in Physical Performance Under Simulated Military Operational Stress | Impact of Operational Stress on Motor Evoked Potentials in Military Personnel | Active recovery shows favorable IGF-I and IGF binding protein responses following heavy resistance exercise compared to passive recovery | Leveraging Machine Learning Techniques to Reveal Relationships between Neuromuscular Traits in Previously Concussed Warfighters: 1047 Board #281 May 29 2:00 PM - 3:30 PM | Altered Brain Morphology In Women With History Of ACL Rupture: A Structural MRI Study: 1001 Board #235 May 29 3:30 PM - 5:00 PM | Feasibility of Using Shear Wave Elastography to Quantify Achilles Tendinopathy Stiffness Before and After Rehabilitation: 1291 Board #53 May 30 9:30 AM - 11:00 AM | Persistent Reductions in Strength of Sensorimotor Circuits Governing Injured Leg After ACL Rupture: 1002 Board #236 May 29 3:30 PM - 5:00 PM | The Effects of Two Multi-Ingredient Pre-Workout Supplements on Endurance Capacity and Anaerobic Cycling Performance: 536 Board #2 May 29 1:00 PM - 3:00 PM | The Influence of Gender and Body Composition on Pool-Based Anaerobic Power and Capacity: 3314 Board #2 June 1 8:00 AM - 9:30 AM | Adverse Reactions and Perceived Benefits of Dietary Supplements used by SEAL Qualification Training Students: 363 Board #201 May 29 9:30 AM - 11:00 AM | Shared Neuromuscular Performance Traits in Military Personnel with Prior Concussion | Evaluation of Shoulder Strength and Kinematics as Risk Factors for Shoulder Injury in United States Special Forces Personnel | Reliability and Validity of a Pool-Based Maximal Oxygen Uptake Test to Examine High-Intensity Short-Duration Freestyle Swimming Performance | POMS fatigue scale is responsive to fatiguing protocol but shows no relationship to perceived or performance decrements | Bilateral Quadriceps Strength Asymmetry Is Associated With Previous Knee Injury in Military Special Tactics Operators | Prediction of exertional lower extremity musculoskeletal injury in tactical populations: Protocol for a systematic review and planned meta-analysis of prospective studies from 1955 to 2018 | Supplementary Material 1 | Supplementary Material 2 | Supplementary Material 3 | Supplementary Material 4 | Improvement of Flutter-Kick Performance in Novice Surface Combat Swimmers With Increased Hip Strength | Epidemiology of musculoskeletal injuries among US Air Force Special Tactics Operators: An economic cost perspective | Employing Machine Learning to Predict Lower Extremity Injury in U.S. Special Forces | BILATERAL STRENGTH ASYMMETRIES AND UNILATERAL STRENGTH IMBALANCE PREDICT ANKLE INJURY WHEN CONSIDERED WITH HIGHER BODY MASS IN MALE U.S. AIR FORCE SPECIAL FORCES | Fight load index and body composition are most associated with combat fitness in female Marines | Characterization of growth hormone disulfide-linked molecular isoforms during post-exercise release vs nocturnal pulsatile release reveals similar mileau composition | Physical Fitness Predictors of a Warrior Task Simulation Test | Energy Deficiency During Cold Weather Mountain Training in NSW SEAL Qualification Students | Basal Endogenous Steroid Hormones, Sex Hormone-Binding Globulin, Physical Fitness, and Health Risk Factors in Young Adult Men | DEVELOPMENT OF A SWIMMING REPRESENTATIVE MILITARY TASK FOR THE ROYAL MARINE COMMANDO'S PHYSICAL EMPLOYMENT STANDARDS | Evaluation of the US Army Special Forces Tactical Human Optimization, Rapid Rehabilitation, and Reconditioning Program | International consensus on military research priorities and gaps - Survey results from the 4th International Congress on Soldiers' Physical Performance | Prevention of exertional lower body musculoskeletal injury in tactical populations: Protocol for a systematic review and planned meta-analysis of prospective studies from 1955 to 2018 | Supplementary Material 1 | Supplementary Material 2 | Supplementary Material 3 | Supplementary Material 4 | Perspectives on Resilience on Military Readiness and Preparedness: Report of an International Military Physiology Roundtable | Physiological Responses to Swimming Pool and Swimming Flume Maximal Aerobic Power Protocols: 2172 Board #8 June 1 9 | Associations Between Land-Based Performance Assessments and Maximal Effort Combat Swim Force Production: 2165 Board #1 June 1 9 | Prediction of Lower Extremity Musculoskeletal Injuries for Naval Special Warfare Operators: A Machine Learning Approach | Comparison of Pandolf Equation and Measured Metabolic Cost of Load Carriage in UK Military Personnel: 2620 Board #2 June 1 3 | Effects of the Insulin‐like Growth Factor Axis and its Relationship in Nonsurgical Treatments in Patients with Lumbar Spinal Stenosis | Emerging Concepts in Human Performance Optimization | Significantly Increased Odds of Reporting Previous Shoulder Injuries in Female Marines Based on Larger Magnitude Shoulder Rotator Bilateral Strength Differences | Active and passive recovery influence responses of luteinizing hormone and testosterone to a fatiguing strength loading | Human skeletal muscle type 1 fibre distribution and response of stress-sensing proteins along the titin molecule after submaximal exhaustive exercise | Military human performance optimization and injury prevention: Strategies for the 21st century warfighter | Asymmetrical landing patterns combined with heavier body mass increases lower extremity injury risk in special operations forces | Musculoskeletal, physiological, and balance characteristics associated with prospective lower extremity injury type in Special Operations Forces | Musculoskeletal, balance, biomechanical, and physiological predictors of shoulder injury in Special Operations Forces | The association of physical training with musculoskeletal injuries in US Special Operation Forces | Role of insulin-like growth factor-I in stress fracture risk | The association of prospective upper extremity musculoskeletal injuries with body composition and physiological measures in Special Operation Forces | Body mass index predicts selected physical fitness attributes but is not associated with performance on military relevant tasks in U.S. Army Soldiers | Hormonal Response Patterns Are Differentially Influenced By Physical Conditioning Programs During Basic Military Training | Association of prospective lower extremity musculoskeletal injury and musculoskeletal, balance, and physiological characteristics in Special Operations Forces | Epidemiology of musculoskeletal injuries sustained by Naval Special Forces Operators and students | Greater ankle strength, anaerobic and aerobic capacity, and agility predict Ground Combat Military Occupational School graduation in female Marines | Using the capture-recapture method to estimate the incidence of musculoskeletal injuries among U.S. Army soldiers | Functional physical training improves women's military occupational performance | Evaluating Diet Quality in SEAL Qualification Training Students: 2424 Board #6 June 2 9 | Body Composition and Physical Determinants of Physiological and Musculoskeletal Readiness in Marines: 370 Board #191 May 31 9 | Physical Fitness Predictors Of A Warrior Task Simulation Test: 1251 Board #6 June 1 8 | Evidence-Based Approach to Strength and Power Training to Improve Performance in Tactical Populations</t>
+        </is>
+      </c>
+      <c r="M156" s="3" t="inlineStr">
+        <is>
+          <t>Physical Fitness | Muscle | Exercise | Resistance Training | Blood Sampling | Strength &amp; Conditioning | Exercise Performance | Sports Science | Exercise Science | Exercise Physiology</t>
+        </is>
+      </c>
+    </row>
+    <row r="157" ht="80" customHeight="1" s="4">
+      <c r="B157" s="3" t="inlineStr">
+        <is>
+          <t>Keijo Häkkinen</t>
+        </is>
+      </c>
+      <c r="C157" s="3" t="inlineStr">
+        <is>
+          <t>Keijo-Haekkinen</t>
+        </is>
+      </c>
+      <c r="D157" s="3" t="inlineStr">
+        <is>
+          <t>University of Jyväskylä</t>
+        </is>
+      </c>
+      <c r="E157" s="3" t="n">
+        <v>389604</v>
+      </c>
+      <c r="F157" s="3" t="n">
+        <v>38231</v>
+      </c>
+      <c r="G157" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="H157" s="3" t="inlineStr">
+        <is>
+          <t>Bradley-Nindl | Esteban-Gorostiaga | Juha-Hulmi | Harri-Selaenne | Jeff-Volek | Markku-Alen-2 | Ari-Nummela | Robert-Newton-4 | Lincoln-Gotshalk | Heikki-Rusko | Ville-Vesterinen | Matti-Santtila | Juha-Ahtiainen | Paavo-Komi | Elina-Sillanpaeae | Carl-Maresh-2 | Tommi-Vasankari | Disa-Hatfield-2 | Minna-Tanskanen-Tervo | Mikel-Izquierdo-2 | Kai-Nyman | Moritz-Schumann-2 | Maren-Fragala | Duncan-French-2 | Jani-Vaara | Markku-Alen | Laura-Karavirta | Barry-Spiering-2 | Ritva-Taipale | Arja-Haekkinen | Pekka-Hannonen | Milan-Sedliak | William-Kraemer | Nicholas-Ratamess-2 | Heli-Valkeinen | Simon-Walker-17 | Antti-Mero | Heikki-Peltonen-2 | Tommi-Ojanen | Jakob-Vingren | Jussi-Mikkola-2006812690 | Arto-Pakarinen-2120398323 | William-J-Kraemer-2144149812 | Janne-Avela-38360303 | Heikki-Kyroelaeinen-38882457 | H-Kauhanen-39025692 | Vesa-Linnamo-39104320 | P-V-Komi-39366373 | J-S-Volek-55248950 | A-Pakarinen-60403269</t>
+        </is>
+      </c>
+      <c r="I157" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="J157" s="3" t="inlineStr">
+        <is>
+          <t>Simon Walker | Esteban Gorostiaga | Juha J Hulmi | Harri Selänne | Markku Alen | Ari T Nummela | Lars Larsson | Robert Usher Newton | Lincoln A Gotshalk | Per A Tesch | Brendan Humphries | Heikki Rusko | Matti Santtila | Juha Ahtiainen | Marco Vincenzo Narici | Jan Lexell | Paavo V Komi | Stuart M Phillips | Elina Sillanpää | Margot Putukian | Walter R Frontera | Carl M Maresh | Roger Enoka | Andrew C. Fry | Michael Henry Stone | Kai Nyman | Carl Maresh | Robert S Hikida | Duncan N French | Fredrick C Hagerman | Markku Alén | Laura Karavirta | Arja Häkkinen | Karl Friedl | William J Kraemer | Peter Frykman | Howard Knuttgen | Nicholas Ratamess | Toshio Moritani | Heli Valkeinen | Joe Dziados | William J Evans | Antti A. Mero | Bradley Nindl | Mauri Kallinen | Jeff S Volek | Esko Mälkiä | Mikel Izquierdo | Rosangela Hickson | Barry A. Spiering</t>
+        </is>
+      </c>
+      <c r="K157" s="3" t="n">
+        <v>844</v>
+      </c>
+      <c r="L157" s="3" t="inlineStr">
+        <is>
+          <t>Substantial Fat Loss in Physique Competitors Is Characterized by Increased Levels of Bile Acids, Very-Long Chain Fatty Acids, and Oxylipins | Individualized Endurance Training Based on Recovery and Training Status in Recreational Runners | Acute neuromuscular and hormonal responses to 20% vs 40% velocity‐loss in males and females before and after 8 weeks of velocity‐loss resistance training | Arousal/Stress Effects of “Overwatch” eSports Game Competition in Collegiate Gamers | Acute Neuromuscular and Hormonal Responses to Power, Strength, and Hypertrophic Protocols and Training Background | The Effects of Resistance Training on Physical Fitness and Neuromotor-Cognitive Functions in Adults With Down Syndrome | Exercise medicine for cancer cachexia: targeted exercise to counteract mechanisms and treatment side effects | Velocity-based resistance training: do women need greater velocity loss to maximize adaptations? | Acute Floatation-REST Improves Perceived Recovery Following a High-Intensity Resistance Exercise Stress in Trained Men | Effects of Upper Body Eccentric versus Concentric Strength Training and Detraining on Maximal Force, Muscle Activation, Hypertrophy and Serum Hormones in Women | Physiological, Perceptual, and Performance Responses to the 2-Week Block of High- versus Low-Intensity Endurance Training | NEUROMUSCULAR COMPARISON OF BENCH PRESS PERFORMANCE AND ACUTE RESPONSES DURING HYPERTROPHIC LOADING IN A TRADITIONAL INDOOR AND A NEW OUTDOOR FITNESS DEVICE | BACK SQUAT ACTION AND ACUTE NEUROMUSCULAR RESPONSES DURING A TYPICAL HYPERTROPHIC LOADING PROTOCOL: COMPARISON BETWEEN A TRADITIONAL INDOOR AND A NEW OUTDOOR FITNESS DEVICE | High Responders to Hypertrophic Strength Training Also Tend to Lose More Muscle Mass and Strength During Detraining Than Low Responders | Hormonal stress responses of growth hormone and insulin-like growth factor-I in highly resistance trained women and men | Effects of training on bone metabolism in young athletes | Acute Effects of High-intensity Resistance Exercise on Cognitive Function | Radiotherapy before or during androgen-deprivation therapy does not blunt the exercise-induced body composition protective effects in prostate cancer patients: A secondary analysis of two randomized controlled trials | Stress Hormone Response to Instrumented Lumbar Spine Fusion Surgery | Mitochondrial bioenergetic pathways in blood leukocyte transcriptome decrease after intensive weight loss but are rescued following weight regain in female physique athletes | Aiming strategy affects performance-related factors in biathlon standing shooting | Monitoring Training and Recovery during a Period of Increased Intensity or Volume in Recreational Endurance Athletes | Training-Induced Acute Neuromuscular Responses to Military Specific Test during a Six-Month Military Operation | Resistance Training Load Effects on Muscle Hypertrophy and Strength Gain: Systematic Review and Network Meta-analysis | Effects of Combined Strength and Endurance Training on Body Composition, Physical Fitness, and Serum Hormones During a 6-Month Crisis Management Operation | Step vs. Two-Phase Gradual Volume Reduction Tapering Protocols in Strength Training: Effects on Neuromuscular Performance and Serum Hormone Concentrations | Changes in sprint performance and sagittal plane kinematics after heavy resisted sprint training in professional soccer players | Acute Physiological Responses to Four Running Sessions Performed at Different Intensity Zones | Increased fascicle length but not patellar tendon stiffness after accentuated eccentric-load strength training in already-trained men | Effects of Task-Specific and Strength Training on Simulated Military Task Performance in Soldiers | A 10-Week Block of Combined High-Intensity Endurance and Strength Training Produced Similar Changes in Dynamic Strength, Body Composition, and Serum Hormones in Women and Men | Aiming strategy affects performance related factors in biathlon standing shooting | Letter to the Editor-in-Chief On "The Basics of Training for Muscle Size and Strength" | Validity of Using Velocity to Estimate Intensity in Resistance Exercises in Men and Women | Acute Hemodynamic Responses to Combined Exercise and Sauna | Effectiveness of a 12-month home-based exercise program on trunk muscle strength and spine function after lumbar spine fusion surgery: a randomized controlled trial | Inter-individual variation in response to resistance training in cardiometabolic health indicators | Microdialysis-Assessed Exercised Muscle Reveals Localized and Differential IGFBP Responses to Unilateral Stretch Shortening Cycle Exercise | Oxygen uptake, heart rate and blood lactate levels in female horseback riders during the obstacle test track | Changes in strength and power performance and serum hormone concentrations during 12 weeks of task‐specific or strength training in conscripts | Effects of strength vs. endurance training and their combination on physical performance characteristics in female horseback riders | Differences in Training Adaptations of Endurance Performance during Combined Strength and Endurance Training in a 6-Month Crisis Management Operation | Reliability of a High-Intensity Military Task Simulation Test | Hormonal changes and recovery during strenuous winter survival training in Finnish soldiers | Hormonal changes and recovery during strenuous Winter Survival Training in Finnish soldiers | Changes in muscle activity of the Military Simulation Test performed twice during the 6-month military operation | Cold-water immersion combined with active recovery is equally as effective as active recovery during 10 weeks of high-intensity combined strength and endurance training in men | Acute responses of comprehensive gonadosteroids and corticosteroids to resistance exercise before and after 10Â weeks of supervised strength training | COMPARISON OF THE LOAD-VELOCITY RELATIONSHIP BETWEEN MEN AND WOMEN IN BENCH PRESS EXERCISE. INTERNATIONAL SPORT FORUM – MADRID, SPAIN | Hormone response caused by instrumented lumbar spine fusion | Changes in sprint performance and sagittal plane kinematics after heavy resisted sprint training in professional soccer players | Acute Neuromuscular and Hormonal Responses to Different Exercise Loadings Followed by a Sauna | Active recovery shows favorable IGF-I and IGF binding protein responses following heavy resistance exercise compared to passive recovery | Effects of different types of physical training on warfighters simulated combat task performance | Physical fitness profile in female horseback riders | Training-induced changes in daily energy expenditure: Methodological evaluation using wrist-worn accelerometer, heart rate monitor, and doubly labeled water technique | Saliva cortisol concentrations during military survival training | SALIVA CORTISOL CONCENTRATIONS DURING MILITARY SURVIVAL TRAINING | Differences Between Responders and Non-responders for Endurance Performance During Combined Training in Military Operation: 1040 Board #274 May 29 2:00 PM - 3:30 PM | Differences between responders and non-responders for endurance performance during combined training in military operation | Molecular Pathways Mediating Immunosuppression in Response to Prolonged Intensive Physical Training, Low-Energy Availability, and Intensive Weight LossData_Sheet_1.PDFTable_1.XLSX | Supplementary Material 1 | Supplementary Material 2 | Effects of morning vs. evening combined strength and endurance training on physical performance, sleep and well-being | Substantial fat mass loss reduces low-grade inflammation and induces positive alteration in cardiometabolic factors in normal-weight individuals | Supplementary Material 1 | Supplementary Material 2 | Increased interleukin-6 and C-reactive protein levels after instrumented lumbar spine fusion in older patients | Physical performance and serum hormone concentrations during military survival training (SERE) | Acute neuromuscular fatigue during velocity-based resistance loading in men versus women when enforcing set termination at 20% and 40% of velocity-loss | Muscular Responses to Single Hypertrophic and Power Loadings Are Highly Individual | Concurrent Training (Where from and where to?) | Effects of Strength vs. Endurance Training and Their Combination on Physical Performance Characteristics in Female Horseback Riders | Neuromuscular and Hormonal Responses to Sauna Bathing and Exercise Followed by Sauna | Differences in biathlon standing shooting performance in senior and junior biathletes | High responders to strength training tend to lose more muscle mass and strength during the detraining phase than low responders | Specific effects of strength vs. endurance vs. combined endurance and strength training on physical performance in female horseback riders | Physiological demands of military field training; what kind of physical training is most effective for soldiers? | Arterial stiffness, hemodynamic and force production responses to different concurrent exercise models | Trunk Muscle Strength After Lumbar Spine Fusion: A 12-Month Follow-up | Effect of supervision and set-specific optimization during maximal strength and followed by power training | Physical Fitness Profile in Female Horseback Riders | Basal Endogenous Steroid Hormones, Sex Hormone-Binding Globulin, Physical Fitness, and Health Risk Factors in Young Adult Men | EFFECT OF SUPERVISION AND STRENGTH TRAINING OPTIMIZATION DURING MAXIMAL STRENGTH AND FOLLOWED BY POWER TRAINING | Physical activity and saliva cortisol concentrations during military field training | Physical Activity and Saliva Cortisol Concentrations During Military Field Training | Hormonal Contraceptive Use Does Not Affect Strength, Endurance, or Body Composition Adaptations to Combined Strength and Endurance Training in Women | Hormonal contraceptive use does not affect strength, endurance and body composition adaptations in women to training | Effect of Prolonged Military Field Training on Neuromuscular and Hormonal Responses and Shooting Performance in Warfighters | Increased rate of force development during periodized maximum strength and power training is highly individual | The Effects Of Intensive Weight Loss On Metabolome In Female Fitness Competitors: 2486 Board #1 June 1 1 | Autophagy is induced by resistance exercise in young men but unfolded protein response is induced regardless of age | Effects of 12-Week Low or Moderate Dietary Acid Intake on Acid–Base Status and Kidney Function at Rest and during Submaximal Cycling | Changes in Physical Performance During 21 d of Military Field Training in Warfighters | Active and passive recovery influence responses of luteinizing hormone and testosterone to a fatiguing strength loading | Morphological, molecular and hormonal adaptations to early morning versus afternoon resistance training | Influence of neuromuscular factors and body composition on anaerobic simulated warfighter task performance | Influence of Neuromuscular Factors and Body Composition on Anaerobic Simulated Warfighter Task Performance | Effects of combined strength and endurance training intervention on aerobic capacity, body mass and body composition during military deployment | PHYSICAL PERFORMANCE AND SERUM HORMONE CONCENTRATIONS IN CROSS-COUNTRY SKIERS ACROSS THE SEASON</t>
+        </is>
+      </c>
+      <c r="M157" s="3" t="inlineStr">
+        <is>
+          <t>Exercise Science | Exercise Physiology | Exercise Performance | Sports Science | Muscle Physiology | Strength &amp; Conditioning | Sport Physiology | Athletic Performance | Biomechanics | Muscle Function</t>
+        </is>
+      </c>
+    </row>
+    <row r="158" ht="80" customHeight="1" s="4">
+      <c r="B158" s="3" t="inlineStr">
+        <is>
+          <t>James Mccarter</t>
+        </is>
+      </c>
+      <c r="C158" s="3" t="inlineStr">
+        <is>
+          <t>James-Mccarter-2</t>
+        </is>
+      </c>
+      <c r="D158" s="3" t="inlineStr">
+        <is>
+          <t>Abbott Laboratories</t>
+        </is>
+      </c>
+      <c r="E158" s="3" t="n">
+        <v>21392</v>
+      </c>
+      <c r="F158" s="3" t="n">
+        <v>5469</v>
+      </c>
+      <c r="G158" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="H158" s="3" t="inlineStr">
+        <is>
+          <t>Jeff-Volek | Michael-Dante | Katharina-Lechner-3 | Neil-Hall-2 | Ronald-Krauss | Leslie-Hicks | Thomas-Nutman | Brandi-Chiapelli | Makedonka-Mitreva | David-Bird-16 | Lucinda-Fulton | Stephen-Phinney | Zhengyuan-Wang | John-Parkinson | Douglas-Jasmer | Todd-Wylie | John-Martin-11 | Kymberlie-Pepin | Shaminie-Athinarayanan | Sara-Lustigman | Amy-Mckenzie-2 | Tim-Schedl | Axel-Elling | Richard-Wilson-9 | Sandra-Clifton-2 | Nasir-Bhanpuri | Eduardo-Vilar-Gomez | Sarah-Hallberg | Kevin-Ballard | Brittanie-Volk | William-Haakenson-11975895 | Shiaw-Pyng-Yang-14888209 | Mike-Dante-2081237212 | Sarah-King-2125225982 | Paul-T-Williams-2138558165 | D-Jeremy-Williams-33754148 | Michelle-C-Hresko-34960024 | Judith-A-Appleton-38600034 | Thomas-J-Baum-38684249 | Yong-Yin-38775060 | Pierre-Abad-38776303 | Andrew-P-Kloek-39119725 | Wayne-W-Campbell-39125085 | Joseph-M-Jez-39333953 | Sahar-Abubucker-39549033 | Robert-H-Waterston-39643833 | Mark-L-Blaxter-39867246 | Jennifer-Daub-40031703 | DS-Zarlenga-43692934</t>
+        </is>
+      </c>
+      <c r="I158" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="J158" s="3" t="inlineStr">
+        <is>
+          <t>Lang Xia Liu | Peter J. Hotez | Neil Hall | Thomas Nutman | Thomas R Maier | Andy Vierstraete | Nicola Mulder | Ralf Schmid | Makedonka Mitreva | John M Hawdon | David Bird | William Kelley Thomas | John Parkinson | Todd N. Wylie | John C Martin | Stephen Phinney | David B Guiliano | Johannes Helder | Arjen Schots | Marie-Noëlle Rosso | Susumu Goto | Kymberlie A H Pepin | Robert Fulton | Michael Wendl | James R. Garey | Barton Slatko | Alexander Kanapin | Amy L McKenzie | Steven A Williams | Richard K Wilson | Asif T. Chinwalla | Rolf Apweiler | Sandra Clifton | Alex Bateman | Herman E. Popeijus | Murray Selkirk | Sarah Hallberg | Marco Marra | Mark Dorris | Marc Sohrmann | Jeff S Volek | Linda Frisse | Michael Dante | Brandi Chiapelli | Lucinda Fulton | Stephen Phinney | Elaine Mardis | Jeremy Foster | Douglas Jasmer | Julie Ahringer</t>
+        </is>
+      </c>
+      <c r="K158" s="3" t="n">
+        <v>161</v>
+      </c>
+      <c r="L158" s="3" t="inlineStr">
+        <is>
+          <t>Thermodynamic Evaluation of Ligand Binding in the Plant-like Phosphoethanolamine Methyltransferases of the Parasitic Nematode Haemonchus contortus | The draft genome of the parasitic nematode Trichinella spiralis | Molecular determinants archetypical to the phylum Nematoda | A transcriptomic analysis of the Phylum Nematoda | Codon usage patterns in Nematoda: Analysis based on over 25 million codons in thirty-two species | Continuous glucose monitoring in a healthy population: understanding the post-prandial glycemic response in individuals without diabetes mellitus | Continuous Glucose Monitoring in a Healthy Population: Understanding the Post-Prandial Glycemic Response in Individuals without Diabetes Mellitus | Depressive symptoms improve over 2 years of type 2 diabetes treatment via a digital continuous remote care intervention focused on carbohydrate restriction | Continuous care intervention with carbohydrate restriction improves physical function of the knees among patients with type 2 diabetes: a non-randomized study | Type 2 Diabetes Prevention Focused on Normalization of Glycemia: A Two-Year Pilot Study | Correction to: Impact of a 2‑year trial of nutritional ketosis on indices of cardiovascular disease risk in patients with type 2 diabetes | Impact of a 2-year trial of nutritional ketosis on indices of cardiovascular disease risk in patients with type 2 diabetes | Characterization of a high-resolution breath acetone meter for ketosis monitoring | Impact of A Two-Year Trial of Nutritional Ketosis on Indices of Cardiovascular Disease Risk in Patients With Type 2 Diabetes | Author Correction: A transcriptomic analysis of the phylum Nematoda | 65-LB: Regression of Prediabetes following Two Years Treatment with a Continuous Care Intervention Emphasizing Carbohydrate Restriction: A Single-Arm, Prospective, Longitudinal Study | Characterization of a high-resolution breath acetone meter for ketosis monitoring | Long-Term Effects of a Novel Continuous Remote Care Intervention Including Nutritional Ketosis for the Management of Type 2 Diabetes: A 2-Year Non-randomized Clinical TrialData_Sheet_1.pdf | 760-P: Factors Associated with Resolution of Steatosis and Fibrosis in T2D Patients Following Two Years of Continuous Care Intervention | 759-P: Analysis of a Two-Year Continuous Care Intervention Including Nutritional Ketosis—Exploring Baseline Predictors of Diabetes Reversal and Remission | 889-P: Early Engagement in a Continuous Care Intervention Predicts One-Year Improvements in Weight and HbA1c among Adults with T2D | Improvement in Patient-Reported Sleep in Type 2 Diabetes and Prediabetes Participants Receiving a Continuous Care Intervention with Nutritional Ketosis | Post hoc analyses of surrogate markers of non-alcoholic fatty liver disease (NAFLD) and liver fibrosis in patients with type 2 diabetes in a digitally supported continuous care intervention: An open-label, non-randomised controlled study | The Impact of a Continuous Care Intervention for Treatment of Type 2 Diabetes on Health Care Utilization | LB-28 Continuous Care Intervention in Type 2 Diabetes Sustains Liver Biomarker Improvement and Long-Term Resolution of Visceral Adiposity at 2 Year Follow-up | Long-Term Effects of a Novel Continuous Remote Care Intervention Including Nutritional Ketosis for the Management of Type 2 Diabetes: A 2-year Non-randomized Clinical Trial.: | Post-hoc analyses of Surrogate Markers of Non-Alcoholic Fatty Liver Disease (NAFLD) and Liver Fibrosis in Patients with Type 2 Diabetes in a Digitally-Supported Continuous Care Intervention: An Open Label, Non-Randomized, Controlled Study | Improvement in Patient-Reported Sleep in Type 2 Diabetes and Prediabetes Participants Receiving a Continuous Care Intervention with Nutritional Ketosis | Cardiovascular disease risk factor responses to a type 2 diabetes care model including nutritional ketosis induced by sustained carbohydrate restriction at 1 year: An open label, non-randomized, controlled study | 359 - Digitally Supported Continuous Care Intervention Through Individualized Carbohydrate Restriction Significantly Improves Liver Enzymes and Surrogate Markers of Nonalcoholic Fatty Liver Disease and Advanced Liver Fibrosis in Patients with type 2 Diabetes | Supplementary Material 1 | Supplementary Material 2 | Supplementary Material 3 | Continuous Remote Care Model Utilizing Nutritional Ketosis Improves Type 2 Diabetes Risk Factors in Patients with Prediabetes | Estimated Reduction in Medication Cost During first Year of a Continuous Care Intervention for Treatment of Type 2 Diabetes | Supplementary Material | Supplementary Material | Author Correction: Effectiveness and Safety of a Novel Care Model for the Management of Type 2 Diabetes at 1 Year: An Open-Label, Non-Randomized, Controlled Study | Cardiovascular Disease Risk Factor Response to a Type 2 Diabetes Care Model Including Nutritional Ketosis at One Year* | Cardiovascular Disease Risk Factor Responses to a Type 2 Diabetes Care Model Including Nutritional Ketosis at One Year: An Open Label, Non-Randomized, Controlled Study | Effectiveness and Safety of a Novel Care Model for the Management of Type 2 Diabetes at 1 Year: An Open-Label, Non-Randomized, Controlled Study | A Novel Intervention Including Individualized Nutritional Recommendations Reduces Hemoglobin A1c Level, Medication Use, and Weight in Type 2 Diabetes | Improvement in Atherogenic Dyslipidemia at 70 Days Following a Reduced Carbohydrate Intervention for Treatment of Type 2 Diabetes | Tioxazafen: A New Broad-Spectrum Seed Treatment Nematicide | Methods and compositions for root knot nematode control | Development of Tioxazafen as a next-generation seed treatment nematicide | Identification and use of target genes for control of plant parasitic nematodes | Genome Analysis of Plant Parasitic Nematodes | 旋毛虫のゲノム配列寄生性の線虫Trichinella spiralis（旋毛虫）ゲノムの概要配列 | Supplementary Material | Uptake and Exclusion of Plant-expressed Fluorescent Proteins by the Soybean Cyst Nematode Heterodera Glycines | DEVELOPING GREEN TECHNOLOGY FOR NEMATODE CONTROL. | The transcriptomes of the cattle parasitic nematode Ostertagia ostartagi | Sequence mining and transcript profiling to explore cyst nematode parasitism | The Genomes of Root-Knot Nematodes | Additional file 2 | Additional file 4 | Additional file 6 | Additional file 5 | Additional file 8 | Additional file 9 | Additional file 11 | Additional file 12 | Additional file 13 | Additional file 7 | Additional file 14 | Additional file 1 | Additional file 3 | Additional file 10 | Molecular Approaches Toward Resistance to Plant-Parasitic Nematodes | NemaPath: Online exploration of KEGG-based metabolic pathways for nematodes | Nematology: Terra incognita no more | Figure S1 | Figure S2 | Text S1 | Table S1 | Table S3 | Table S4 | Table S2 | Table S5 | Table S6 | Table S7 | Table S8 | The canine hookworm genome: Analysis and classification of Ancylostoma caninum survey sequences | Intestinal Transcriptomes of Nematodes: Comparison of the Parasites Ascaris suum and Haemonchus contortus with the Free-living Caenorhabditis elegans | Additional data file 1 | Additional data file 3 | Additional data file 6 | Additional data file 7 | Additional data file 8 | Additional data file 2 | Additional data file 4 | Additional data file 5 | Genomics and Emerging Drug Discovery Technologies | Draft Genome of the Filarial Nematode Parasite Brugia malayi | Parasitic nematodes–From genomes to control | Phosphoethanolamine N -methyltransferase (PMT-1) catalyses the first reaction of a new pathway for phosphocholine biosynthesis in Caenorhabditis elegans | Ivermectin Resistance in Onchocerca volvulus: Toward a Genetic Basis | Divergent evolution of arrested development in the dauer stage of Caenorhabditis elegans and the infective stage of Heterodera glycines | Brugia malayi: Effects of radiation and culture on gene expression in infective larvae</t>
+        </is>
+      </c>
+    </row>
+    <row r="159" ht="80" customHeight="1" s="4">
+      <c r="B159" s="3" t="inlineStr">
+        <is>
+          <t>Mitsuhiro Endoh</t>
+        </is>
+      </c>
+      <c r="C159" s="3" t="inlineStr">
+        <is>
+          <t>Mitsuhiro-Endoh</t>
+        </is>
+      </c>
+      <c r="D159" s="3" t="inlineStr">
+        <is>
+          <t>National University of Singapore</t>
+        </is>
+      </c>
+      <c r="E159" s="3" t="n">
+        <v>13256</v>
+      </c>
+      <c r="F159" s="3" t="n">
+        <v>6306</v>
+      </c>
+      <c r="G159" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="H159" s="3" t="inlineStr">
+        <is>
+          <t>Michael-Detmar | Haruhiko-Koseki | Mitsuko-Hara | Yasushi-Okazaki | Andreas-Lennartsson-2 | Piero-Carninci | Reto-Guler | Yutaka-Nakachi | Levon-Khachigian | Kenneth-Baillie | Takeya-Kasukawa | Svend-Klinken | Meenhard-Herlyn | Suzana-Savvi | Chieko-Kai | Frank-Brombacher | Beatrice-Bodega | Takaho-Endo | Dmitry-Ovchinnikov | Timo-Lassmann | Daisuke-Sugiyama-2 | Jun-Kawai-4 | Malcolm-Fisher-2 | Jafar-Sharif-2 | Masaaki-Furuno | Tomokatsu-Ikawa | Thomas-Ha | Michela-Fagiolini-2 | Robert-Passier-2 | Marina-Lizio | Louise-Winteringham-2 | Tsugumi-Kawashima-2 | Mitsuru-Morimoto | Lynsey-Fairbairn | Sarah-Krampitz | James-Briggs-8 | Naoto-Kondo | Sachi-Kato | Miguel-Vidal-4 | Akira-Hasegawa-5 | Fumi-Hori | Alka-Saxena | Masayoshi-Itoh | Anthony-G-Beckhouse-10316026 | Hiroshi-Tanaka-15642061 | Yuri-Ishizu-16348926 | Tetsuro-Toyoda-38269096 | Bradley-E-Bernstein-38674479 | Mitsuyoshi-Murata-38807590 | Neil-Brockdorff-39068429</t>
+        </is>
+      </c>
+      <c r="I159" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="J159" s="3" t="inlineStr">
+        <is>
+          <t>Miguel Vidal | Masamoto Kanno | Masayoshi Itoh | Andreas Lennartsson | Erik Van Nimwegen | Boris Lenhard | Harukazu Suzuki | Piero Carninci | Shin-Ichi Nishikawa | Jessica Severin | Hisahiro Yoshida | Takeya Kasukawa | Jayson Mathew Harshbarger | Valerio Orlando | Kristian Helin | Chieko Kai | Maarten van Lohuizen | Hengbin Wang | George W Bell | Satomi Nishikawa | Rudolf Jaenisch | Stuart S Levine | Timo Lassmann | Masaya Baba | Nicolas Bertin | Danny Reinberg | Michael Rehli | Michiel Jan Laurens de Hoon | Yoshihiro Takihara | Alistair Forrest | Jose CR Silva | Tatyana B. Nesterova | Hediye Erdjument-Bromage | David Gifford | Richard Jones | Marina Lizio | Sean Grimmond | Diego Pasini | Elaine Dzierzak | C. David Allis | Liangjun Wang | Laurie A Boyer | Carsten Oliver Daub | Haruhiko Koseki | Shintaro Katayama | Sean J Morrison | Kathrin Plath | Irving Weissman | Jun Kawai | Paul Tempst</t>
+        </is>
+      </c>
+      <c r="K159" s="3" t="n">
+        <v>72</v>
+      </c>
+      <c r="L159" s="3" t="inlineStr">
+        <is>
+          <t>Mitochondria transfer from early stages of erythroblasts to their macrophage niche via tunnelling nanotubes | A FLCN-TFE3 Feedback Loop Prevents Excessive Glycogenesis and Phagocyte Activation by Regulating Lysosome Activity | High mitochondrial mass is associated with reconstitution capacity and quiescence of hematopoietic stem cells | Mitochondria Clearance Mechanisms Via Interaction with Macrophages in Erythropoiesis | Supplementary Material 1 | Supplementary Material 2 | Folliculin Regulates Osteoclastogenesis Through Metabolic Regulation | FANTOM5 CAGE profiles of human and mouse samples | Supplementary Material 1 | Supplementary Fig. 1 | Figure 1—source data 1. | Figure 6—source data 1. | Supplementary file 1. | Gene regulation. Transcribed enhancers lead waves of coordinated transcription in transitioning mammalian cells | Transcribed enhancers lead waves of coordinated transcription in transitioning mammalian cells | Correction to Mammalian polycomb-like Pcl2/Mtf2 is a novel regulatory component of PRC2 that can differentially modulate polycomb activity both at the hox gene cluster and at Cdkn2a genes [Molecular and Cellular Biology, 31, 2, (2011), 351-364] | An atlas of active enhancers across human cell types and tissues | A promoter-level mammalian expression atlas | Role of SOX17 in hematopoietic development from human embryonic stem cells | H2A.Z landscapes and dual modifications in pluripotent and multipotent stem cells underlie complex genome regulatory functions | Additional file 1 | Additional file 4 | Additional file 2 | Figure S7 | Figure S9 | Figure S3 | Figure S6 | Figure S8 | Figure S10 | Figure S2 | Figure S1 | Figure S4 | Figure S5 | Table S1 | Text S1 | Histone H2A Mono-Ubiquitination Is a Crucial Step to Mediate PRC1-Dependent Repression of Developmental Genes to Maintain ES Cell Identity | RYBP Represses Endogenous Retroviruses and Preimplantation- and Germ Line-Specific Genes in Mouse Embryonic Stem Cells | Histone H2A mono-ubiquitination is a crucial step to mediate PRC1-dependent repression of developmental genes to maintain ES cell identity | The Hbo1-Brd1/Brpf2 complex is responsible for global acetylation of H3K14 and required for fetal liver erythropoiesis | Genome-wide analysis of target genes regulated by HoxB4 in hematopoietic stem and progenitor cells developing from embryonic stem cells | Epigenetic Memory Meets G2/M: To Remember or To Forget? | The Hbo1-Brd1/Brpf2 HAT Complex Is Required for Erythropoiesis In Fetal Liver | O12. Polycomb-dependent regulation for differentiation programs of stem cells and progenitors | Mammalian Polycomb-Like Pcl2/Mtf2 Is a Novel Regulatory Component of PRC2 That Can Differentially Modulate Polycomb Activity both at the Hox Gene Cluster and at Cdkn2a Genes | Genomewide Analysis of PRC1 and PRC2 Occupancy Identifies Two Classes of Bivalent Domains | Figure S5 | Figure S7 | Table S4 | Text S1 | Text S2 | Figure S2 | Figure S8 | Table S2 | Figure S3 | Figure S4 | Table S3 | Figure S1 | Figure S6 | Figure S9 | Table S1 | Table S5 | Polycomb group proteins Ring1A/B are functionally linked to the core transcriptional regulatory circuitry to maintain ES cell identity | Inactivation of the Polycomb Group Protein Ring1B Unveils an Antiproliferative Role in Hematopoietic Cell Expansion and Cooperation with Tumorigenesis Associated with Ink4a Deletion | A Phosphorylated Form of Mel-18 Targets the Ring1B Histone H2A Ubiquitin Ligase to Chromatin | Mammalian Polycomb complexes are required for Peyer's patch development by regulating lymphoid cell proliferation | Polycomb Repressive Complexes Restrain the Expression of Lineage-Specific Regulators in Embryonic Stem Cells | Distinct roles of Polycomb group gene products in transcriptionally repressed and active domains of Hoxb8 | Polycomb Group Proteins Ring1A/B Link Ubiquitylation of Histone H2A to Heritable Gene Silencing and X Inactivation | SCL/tal-1-dependent process determines a competence to select the definitive hematopoietic lineage prior to endothelial differentiation | SCL/tal-1-dependent process determines a competence to select the definitive hematopoietic lineage prior to endothelial differentiation | Origin of Hematopoietic Progenitors during Embryogenesis | All B cells are progeny of endothelial cells</t>
+        </is>
+      </c>
+      <c r="M159" s="3" t="inlineStr">
+        <is>
+          <t>Genomics | Gene Regulation | Gene Expression | DNA | RNA | PCR | Next Generation Sequencing | Transcriptomics | Molecular Genetics | Cell Culture</t>
+        </is>
+      </c>
+    </row>
+    <row r="160" ht="80" customHeight="1" s="4">
+      <c r="B160" s="3" t="inlineStr">
+        <is>
+          <t>Yasushi Okazaki</t>
+        </is>
+      </c>
+      <c r="C160" s="3" t="inlineStr">
+        <is>
+          <t>Yasushi-Okazaki</t>
+        </is>
+      </c>
+      <c r="D160" s="3" t="inlineStr">
+        <is>
+          <t>Juntendo University</t>
+        </is>
+      </c>
+      <c r="E160" s="3" t="n">
+        <v>55361</v>
+      </c>
+      <c r="F160" s="3" t="n">
+        <v>31624</v>
+      </c>
+      <c r="G160" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="H160" s="3" t="inlineStr">
+        <is>
+          <t>Hidetaka-Eguchi | Yasuhiro-Tomaru-2 | Harukazu-Suzuki | Piero-Carninci | Hideo-Matsuda | Kei-Murayama | Masaru-Shimura | Yutaka-Nakachi | Hideyuki-Ishida | Jessica-Severin | Christian-Schoenbach | Takeya-Kasukawa | Akira_Ohtake | Yukiko-Yatsuka | Masakazu-Kohda | Frank-Brombacher | Ken-Yagi | Yosuke-Mizuno-2 | Nobuya-Sasaki-2 | Kazuhiro-Shibata | Itoshi-Nikaido | Hidemasa-Bono | Jun-Kawai-4 | Kiwamu-Akagi | Masaaki-Furuno | Michihira-Tagami-2 | Hideaki-Konno | Yoshihito-Kishita | Akira-Hasegawa-5 | Masayoshi-Itoh | Hisato-Okuizumi-12856833 | Okihide-Suzuki-2004190959 | Takuya-Fushimi-2092736605 | Keiko-Ichimoto-2126446271 | Ayako-Matsunaga-2126459809 | Atsuko-Imai-Okazaki-2136435027 | Y-Hayashizaki-2207524375 | Tomoko-Tsuruoka-35547001 | T-Arakawa-38253492 | Keiichiro-Ishibashi-38473578 | Yoshimi-Tokuzawa-38540018 | Masami-Muramatsu-38582424 | Stefano-Gustincich-38603018 | Albin-Sandelin-38914744 | Geoffrey-J-Faulkner-39137870 | Yoshihide-Hayashizaki-39871126 | David-A-Hume-40027021 | Hideya-Kawaji-45334052 | Noriyasu-Chika-56265751 | Tomoya-Ohsumi-73757546</t>
+        </is>
+      </c>
+      <c r="I160" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="J160" s="3" t="inlineStr">
+        <is>
+          <t>Masakazu Kohda | Masayoshi Itoh | Boris Lenhard | Julian Gough | Piero Carninci | Suzanna Elaine Lewis | Kei Murayama | Thomas Meitinger | Graziano Pesole | Serge Batalov | Yutaka Nakachi | Mark Daly | Judith A Blake | John Quackenbush | Takeya Kasukawa | Atsushi Yoshiki | Koji Kadota | David Botstein | Moriaki Kusakabe | Yosuke Mizuno | Kazuhiro Shibata | Lukas Wagner | Johannes Mayr | Luigi Marchionni | Timo Lassmann | Patrick O'Reilly Brown | Itoshi Nikaido | Hidemasa Bono | Alexander Kanapin | Kiwamu Akagi | Masaaki Furuno | Alistair Forrest | Izuho Hatada | Rika Miki | Sean Grimmond | Masato Mori | Holger Prokisch | Tobias Haack | Hideaki Konno | Yoshihito Kishita | Tsutomu Suzuki | Yasuhiro Tomaru | Hideo Matsuda | Masaru Shimura | Takashi Gojobori | Robert McFarland | Hideyuki Ishida | Nobuya Sasaki | Jose Adachi | Jun Kawai</t>
+        </is>
+      </c>
+      <c r="K160" s="3" t="n">
+        <v>612</v>
+      </c>
+      <c r="L160" s="3" t="inlineStr">
+        <is>
+          <t>Adult-onset Leigh Syndrome with a m.9176T&gt;C Mutation Manifested As Reversible Cerebral Vasoconstriction Syndrome | PKD1 Mutation Is a Biomarker for Autosomal Dominant Polycystic Kidney Disease | Attenuated Expression of SLCO2A1 Caused by DNA Methylation in Pediatric Inflammatory Bowel Disease | A case of attenuated familial adenomatous polyposis in which genetic testing revealed that the children were asymptomatic gene carriers | Novel ITPA variants identified by whole genome sequencing and RNA sequencing | Clinical Guidelines for Diagnosis and Management of Juvenile Polyposis Syndrome in Children and Adults-Secondary Publication | Reply to the Letter "Reversible Vasoconstriction Syndrome is a Complication of SARS-CoV-2 Infection/Vaccination Rather Than That of Leigh Syndrome" | Strategic validation of variants of uncertain significance in ECHS1 genetic testing | Clinical Guidelines for Diagnosis and Management of Peutz-Jeghers Syndrome in Children and Adults | Gastric Juvenile Polyposis with Intramucosal Cancer Diagnosed by Magnifying Endoscopy with Narrow-band Imaging: A Case Report | Association between maternally inherited deafness, epilepsy, and intellectual disability and the m.12207G &gt; A MT-TS2 pathogenic variant in a Japanese family | Focal segmental glomerulosclerosis with a mutation in the mitochondrially encoded NADH dehydrogenase 5 gene: A case report | Rare germline variants in pancreatic cancer and multiple primary cancers: an autopsy study | Total and reduced/oxidized forms of coenzyme Q10 in fibroblasts of patients with mitochondrial disease | Changes in histopathology and heteroplasmy rates over 8 years and effectiveness of taurine supplementation in a patient with mitochondrial nephropathy caused by MT-TL1 mutation: A case report | Yip Cell Reports 2022.pdf | The Coexistence of TRPV6 Variants With Other Pancreatitis-Associated Genes Affects Pediatric-Onset Pancreatitis | A novel germline SMAD4 variant detected in a Japanese family with juvenile polyposis syndrome and hereditary hemorrhagic telangiectasia | Iron regulatory pathways differentially expressed during Madurella mycetomatis grain development in Galleria mellonella | Severe spinal cord hypoplasia due to a novel ATAD3A compound heterozygous deletion | Antisense-oligonucleotide-mediated perturbation of long non-coding RNA reveals functional features in stem cells and across cell types | Report of Multidisciplinary Treatment for Sisters with Li-Fraumeni Syndrome | Recessive NUP54 Variants Underlie Early‐Onset Dystonia with Striatal Lesions | Strategic validation of variants of uncertain significance in ECHS1 genetic testing | A Case of Infantile Mitochondrial Cardiomyopathy Treated with a Combination of Low-Dose Propranolol and Cibenzoline for Left Ventricular Outflow Tract Stenosis | A Japanese patient with neonatal biotin-responsive basal ganglia disease | Genomic features of renal cell carcinoma developed during end-stage renal disease and dialysis | Impact of measuring heteroplasmy of a pathogenic mitochondrial DNA variant at the single‐cell level in individuals with mitochondrial disease | Biomarker discovery for practice of precision medicine in hypopharyngeal cancer: a theranostic study on response prediction of the key therapeutic agents | Promotion Effects of Smoking in Polyp Development in Monozygotic Twins with Atypical Colorectal Polyposis | Clinical implementation of RNA sequencing for Mendelian disease diagnostics | Current State of Genome Medicine in the World全ゲノム情報を活用した世界の医療の現状 | Author Correction: Discovery of widespread transcription initiation at microsatellites predictable by sequence-based deep neural network | Recent trends in the morbidity and mortality in patients with familial adenomatous polyposis: a retrospective single institutional study in Japan | Corrigendum to: Prevalence and clinicopathological/molecular characteristics of mismatch repair protein-deficient tumours among surgically treated patients with prostate cancer in a Japanese hospital-based population | Focal Segmental Glomerulosclerosis with a Mutation in the Mitochondrially Encoded Nadh Dehydrogenase 5 Gene: A Case Report | Correction to: APC germline variant analysis in the adenomatous polyposis phenotype in Japanese patients | COL17A1 germline variant p.Ser1029Ala and mucosal malignant melanoma: An autopsy study | Valine metabolites analysis in ECHS1 deficiency | Development of Leigh syndrome with a high probability of cardiac manifestations in infantile-onset patients with m.14453G&gt;A | Generation of non-human primate models of Alzheimer's disease | Author Correction: Prenatal diagnosis of severe mitochondrial diseases caused by nuclear gene defects: a study in Japan | Neuropathology of SCA34 showing widespread oligodendroglial pathology with vacuolar white matter degeneration: a case study | Neonatal-onset mitochondrial disease: clinical features, molecular diagnosis and prognosis | Genome sequencing and RNA‐seq analyses of mitochondrial complex I deficiency revealed Alu insertion‐mediated deletion in NDUFV2 | Ngn3-Positive Cells Arise from Pancreatic Duct Cells | Trigenic ADH5 / ALDH2 / ADGRV1 mutations in myelodysplasia with Usher syndrome | Immunohistochemical staining patterns of p53 predict the mutational status of TP53 in oral epithelial dysplasia | Identification of Lynch syndrome-associated DNA mismatch repair-deficient bladder cancer in a Japanese hospital-based population | Long-term prognosis and genetic background of cardiomyopathy in 223 pediatric mitochondrial disease patients | Diagnosing pediatric mitochondrial disease: lessons from 2,000 exomes | APC germline variant analysis in the adenomatous polyposis phenotype in Japanese patients | Discovery of widespread transcription initiation at microsatellites predictable by sequence-based deep neural network | Clinical heterogeneity in patients with m.4412G&gt;A MT-TM mutation and different heteroplasmy levels | A high mutation load of m.14597A&gt;G in MT-ND6 causes Leigh syndrome | Germline deletion of chromosome 2p16-21 associated with Lynch syndrome | CD82 is a marker to isolate β cell precursors from human iPS cells and plays a role for the maturation of β cells | A case of ATR-X syndrome with mitochondrial respiratory chain dysfunction | Unique and abnormal subependymal pseudocysts in a newborn with mitochondrial disease | Clinical implementation of RNA sequencing for Mendelian disease diagnostics | Comprehensive analysis of DNA mismatch repair-deficient gastric cancer in a Japanese hospital-based population | Integration of proteomics with genomics and transcriptomics increases the diagnostic rate of Mendelian disorders | Combined inhibition of XIAP and BCL2 drives maximal therapeutic efficacy in genetically diverse aggressive acute myeloid leukemia | A non-human primate model of familial Alzheimer’s disease for translational medicine | Prenatal diagnosis of severe mitochondrial diseases caused by nuclear gene defects: a study in Japan | Functional annotation of human long noncoding RNAs using chromatin conformation data | A Family with Lynch Syndrome Diagnosed after a Proband of Elderly Multiple Colorectal Cancers | Cancer Risk in Lynch Syndrome-Associated Endometrial Cancer Patients and Their Relatives | A Family of Attenuated Familial Adenomatous Polyposis | Prevalence and clinicopathological/molecular characteristics of mismatch repair protein-deficient tumours among surgically treated patients with prostate cancer in a Japanese hospital-based population | Leigh Syndrome Due to NDUFV1 Mutations Initially Presenting as LBSL | Focal Segmental Glomerulosclerosis with a Mutation in the Mitochondrially Encoded NADH Dehydrogenase 5 Gene: A Case Report | Advanced pathologic study for definite diagnosis of mitochondrial cardiomyopathy | Prevalence and Molecular Characterization of Defective DNA Mismatch Repair in Small-bowel Carcinoma in a Japanese Hospital-based Population | Prenatal Diagnosis of Severe Mitochondrial Diseases Caused by Nuclear Gene Defects: A Study in Japan | Corrigendum: Functional annotation of human long noncoding RNAs via molecular phenotyping | A case report of adult-onset COQ8B nephropathy presenting focal segmental glomerulosclerosis with granular swollen podocytes | Prevalence and molecular characteristics of DNA mismatch repair deficient endometrial cancer in a Japanese hospital-based population | Advanced pathological study for definite diagnosis of mitochondrial cardiomyopathy | A novel homozygous variant in MICOS13 / QIL1 causes hepato‐encephalopathy with mitochondrial DNA depletion syndrome | A Model for Predicting DNA Mismatch Repair-deficient Colorectal Cancer | Functional annotation of human long noncoding RNAs via molecular phenotyping | Fatal Perinatal Mitochondrial Cardiac Failure Caused by Recurrent De Novo Duplications in the ATAD Locus | Clinical and molecular basis of hepatocerebral mitochondrial DNA depletion syndrome in Japan: Evaluation of outcomes after liver transplantation | The first case report of polymerase proofreading-associated polyposis in POLD1 variant, c.1433G&gt;A p.S478N, in Japan | NAD(P)HX dehydratase protein-truncating mutations are associated with neurodevelopmental disorder exacerbated by acute illness | A novel germline BMPR1A variant (c.72_73delGA) in a Japanese family with hereditary mixed polyposis syndrome | A homozygous variant in NDUFA8 is associated with developmental delay, microcephaly, and epilepsy due to mitochondrial complex I deficiency | Ski3/TTC37 deficiency associated with trichohepatoenteric syndrome causes mitochondrial dysfunction in Drosophila | Correction: Fam57b (family with sequence similarity 57, member B), a novel peroxisome proliferator-activated receptor γ target gene that regulates adipogenesis through ceramide synthesis | Clinically applicable cases of anti-programmed cell death protein 1 immunotherapy for colorectal cancer patients | Clinical and molecular basis of hepatocerebral mitochondrial DNA depletion syndrome in Japan: Evaluation of outcomes after liver transplantation | Clinical and molecular basis of hepatocerebral mitochondrial DNA depletion syndrome in Japan: Evaluation of outcomes after liver transplantation | Reversible expansion of pancreatic islet progenitors derived from human induced pluripotent stem cells | Mortality of Japanese patients with Leigh syndrome: Effects of age at onset and genetic diagnosis | Hypermethylation of Corticotropin Releasing Hormone Receptor-2 Gene in Ulcerative Colitis Associated Colorectal Cancer | A simple method for sequencing the whole human mitochondrial genome directly from samples and its application to genetic testing | Single-cell transcriptomics reveals expansion of cytotoxic CD4 T cells in supercentenarians | Prevalence of Lynch syndrome among patients with upper urinary tract carcinoma in a Japanese hospital-based population | Transition from Leigh syndrome to MELAS syndrome in a patient with heteroplasmic MT-ND3 m.10158T&gt;C</t>
+        </is>
+      </c>
+      <c r="M160" s="3" t="inlineStr">
+        <is>
+          <t>Genetics | Genomics | Next Generation Sequencing</t>
+        </is>
+      </c>
+    </row>
+    <row r="161" ht="80" customHeight="1" s="4">
+      <c r="B161" s="3" t="inlineStr">
+        <is>
+          <t>Rebecca Lane</t>
+        </is>
+      </c>
+      <c r="C161" s="3" t="inlineStr">
+        <is>
+          <t>Rebecca-Lane-2</t>
+        </is>
+      </c>
+      <c r="D161" s="3" t="inlineStr">
+        <is>
+          <t>Sygnature Discovery</t>
+        </is>
+      </c>
+      <c r="E161" s="3" t="n">
+        <v>633</v>
+      </c>
+      <c r="F161" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G161" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="H161" s="3" t="inlineStr">
+        <is>
+          <t>Martin-Verkuyl | Martin-Gosling | Gurdip_Bhalay | Michiel-Van-Diepen | Martin-Gosling-4 | Pamela-Tranter | Mark-Mcpate | Toby-Kent | Paul-Groot-Kormelink | Sian-Fairbrother-2049527040 | Mark-J-McPate-2073290058 | Martin-Beckett-2133599556</t>
+        </is>
+      </c>
+      <c r="I161" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="J161" s="3" t="inlineStr">
+        <is>
+          <t>Iwona Hirschler-Laszkiewicz | Ying Yu | William J Cairns | Saskia Frederike Rittirsch-Heeringa | William P Schilling | Mark Estacion | Søren Friis | Jason X-J Yuan | Judd Warren Landsberg | Walter Zidek | Patricia A Thistlethwaite | Ryuji Inoue | Kerry Allen Keefer, M.S. | Joseph Y Cheung | John D Graef | Peter F Hoyer | Klaus Groschner | Christine G Schnackenberg | Zhiming Zhu | Michael X Zhu | Robert N Willette | Seth Ebersviller | David A Sykes | Alexandra Scholze | Daoyan Liu | Bin Zhu | Steven Novick | Claire Townsend | Lutzl Birnbaumer | Meng Wu | Markus Delling | Derek Trezise | Martin Tepel | David Clapham | Craig Montell | Shenyuan L Zhang | Dwight Morrow | Cecilia Farre | William Sinkins | Dennis Holt | Xiaoli Feng | Tim Dale | Michael Schaefer | Ravi Peri | Lorenz Mayr | Michael Forstner | Michael Song | Kewei Wang | David Beech | Tagat Eric</t>
+        </is>
+      </c>
+      <c r="K161" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="L161" s="3" t="inlineStr">
+        <is>
+          <t>The Development of Automated Patch Clamp Assays for Canonical Transient Receptor Potential Channels TRPC3, 6, and 7 | Development of TRPC Assays on Automated Electrophysiology Platforms</t>
+        </is>
+      </c>
+    </row>
+    <row r="162" ht="80" customHeight="1" s="4">
+      <c r="B162" s="3" t="inlineStr">
+        <is>
+          <t>Cindy Casteels</t>
+        </is>
+      </c>
+      <c r="C162" s="3" t="inlineStr">
+        <is>
+          <t>Cindy-Casteels</t>
+        </is>
+      </c>
+      <c r="D162" s="3" t="inlineStr">
+        <is>
+          <t>KU Leuven</t>
+        </is>
+      </c>
+      <c r="E162" s="3" t="n">
+        <v>10308</v>
+      </c>
+      <c r="F162" s="3" t="n">
+        <v>2330</v>
+      </c>
+      <c r="G162" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="H162" s="3" t="inlineStr">
+        <is>
+          <t>Zeger-Debyser | Dieter-Ory | Willy-Gsell | Chris-Haute | Didier-Lambert | Veerle-Baekelandt | Barbara-Bosier | Ivo-Lambrichts | Peter-Janssen-7 | Thomas-Voets-2 | Rik-Gijsbers | Dirk-De-Ridder | Luc-Mortelmans-2 | Gil-Leurquin-Sterk | Caroline-Vandeputte | Bert-Vanbilloen | Alfons-Verbruggen-3 | Uwe-Himmelreich | Tom-Dresselaers | Jan-Franken | Bart-De-Laat | Tom-Struys | Igor-Grachev | Michel-Koole | Erik-De-Vries-7 | Rawaha-Ahmad | Evy-Cleeren | Janaki-Raman-Rangarajan | Karolien-Goffin | Jenny-Ceccarini | Kaat-Van-Laere | Sofie-Celen | Koen-Laere | Bart-Nuttin | Christophe-Deroose | Kris-Kuyck | Melissa-Crabbe | Roma-Rietjens-2 | Akila-Weerasekera-2 | Anke-Van-Der-Perren | Frederik-Maes | Guy-Bormans | A-Postnov | Nathalie-Gerard-15710952 | Rudi-A-J-O-Dierckx-2113945521 | Janine-Doorduin-38488290 | Mathieu-Vandenbulcke-38957903 | Wim-Vandenberghe-39642295 | Erwin-Lauwers-39722920 | Wim-Van-Paesschen-51150907</t>
+        </is>
+      </c>
+      <c r="I162" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="J162" s="3" t="inlineStr">
+        <is>
+          <t>Ken Mackie | Karolien Goffin | Tung Fong | Adriaan Lammertsma | Chris Van Van den Haute | Patrick Dupont | Didier M Lambert | Veerle Baekelandt | Aubrey Stoch | Rik Gijsbers | David J Brooks | Luc Mortelmans | Sami S Zoghbi | Caroline Vandeputte | Brett M Connolly | Guido Frank | Michael Kassiou | Uwe Himmelreich | William K Hagmann | Tom Dresselaers | Christian C Felder | Peter Vermaelen | Ping Liu | Walter H Kaye | Igor D Grachev | Anne van hecken | Michel Koole | Amy Vanko | Garth E Terry | Stephen Krause | John A Wagner | Isabel Lastres-Becker | Jan de Hoon | Sofie Celen | Chester A Mathis | Bart Nuttin | Fernando Berrendero | Anke Van der Perren | Javier Fernández-Ruiz | Sandra Sanabria | Fernando Rodríguez de Fonseca | Guy Bormans | Victor Pike | Zeger Debyser | Miles Herkenham | Nora D Volkow | Paul Rothenberg | Annemie Van der Linden | Vincenzo Di Marzo | Koen Van Laere</t>
+        </is>
+      </c>
+      <c r="K162" s="3" t="n">
+        <v>86</v>
+      </c>
+      <c r="L162" s="3" t="inlineStr">
+        <is>
+          <t>Non-invasive characterization of amyotrophic lateral sclerosis in a hTDP- 43 A315T mouse model: A PET-MR study | Non-invasive characterization of amyotrophic lateral sclerosis in a hTDP-43A315T mouse model: A PET-MR study | Role of the GLUT1 Glucose Transporter in Postnatal CNS Angiogenesis and Blood-Brain Barrier Integrity | Regional changes in the type 1 cannabinoid receptor are associated with cognitive dysfunction in Parkinson’s disease | Excitotoxic neurodegeneration is associated with a focal decrease in metabotropic glutamate receptor type 5 availability: an in vivo PET imaging study | Identifying a glucose metabolic brain pattern in an adeno-associated viral vector based rat model for Parkinson’s disease using 18F-FDG PET imaging | Increased P2X7 Receptor Binding Is Associated With Neuroinflammation in Acute but Not Chronic Rodent Models for Parkinson’s Disease | Increased P2X7 Receptor Binding Is Associated With Neuroinflammation in Acute but Not Chronic Rodent Models for Parkinson's Disease | Temporal changes in neuroinflammation and brain glucose metabolism in a rat model of viral vector-induced α-synucleinopathy | Volume-of-interest-based supervised cluster analysis for pseudo-reference region selection in [18F]DPA-714 PET imaging of the rat brain | Behavioral Symptoms in Premanifest Huntington Disease Correlate with Reduced Frontal CB 1 R Levels | Therapeutic effects of dietary intervention on neuroinflammation and brain metabolism in a rat model of photothrombotic stroke | Positron emission tomography imaging of cerebral glucose metabolism and type 1 cannabinoid receptor availability during temporal lobe epileptogenesis in the amygdala kindling model in rhesus monkeys | Glutamatergic biomarkers for cocaine addiction: A longitudinal study in self-administering rats using MRS and mGluR5 PET | Therapeutic effects of dietary intervention on neuroinflammation and brain metabolism in a rat model of photothrombotic stroke | Effects of alcohol exposure on the glutamatergic system: A combined longitudinal 18F-FPEB and 1H-MRS study in rats | Altered mGluR5 binding potential and glutamine concentration in the 6-OHDA rat model of acute Parkinson's disease and levodopa-induced dyskinesia | Altered mGluR5 binding potential and glutamine concentration in the 6-OHDA rat model of acute Parkinson’s disease and levodopa-induced dyskinesia | Molecular Imaging of Human Embryonic Stem Cells Stably Expressing Human PET Reporter Genes After Zinc Finger Nuclease-Mediated Genome Editing | Altered adenosine 2A and dopamine D2 receptor availability in the 6-hydroxydopamine-treated rats with and without levodopa-induced dyskinesia | Imaging the endocannabinoid system after acute, chronic alcohol abuse and monitored abstinence | The effective connectivity of the seizure onset zone and ictal perfusion changes in amygdala kindled rhesus monkeys | Supplementary Fig. 1 | In vivo evidence for long-term vascular remodeling resulting from chronic cerebral hypoperfusion in mice | Development of an Alpha-synuclein Based Rat Model for Parkinson's Disease via Stereotactic Injection of a Recombinant Adeno-associated Viral Vector | Development of an Alpha-synuclein Based Rat Model for Parkinson's Disease via Stereotactic Injection of a Recombinant Adeno-associated Viral Vector | Kinetic modeling and long-term test-retest reproducibility of the mGluR5 PET tracer (18) F-FPEB in human brain | Chapter 4. Cannabinoids and Huntington’s disease | (18F)FDG-PET brain imaging during the micturition cycle in rats detects regions involved in bladder afferent signalling | Preclinical Evaluation and Quantification of F-18-FPEB as a Radioligand for PET Imaging of the Metabotropic Glutamate Receptor 5 | Quantification of TSPO overexpression in a rat model of local neuroinflammation induced by intracerebral injection of LPS by the use of [(18)F]DPA-714 PET | Ictal perfusion changes associated with seizure progression in the amygdala kindling model in the rhesus monkey | PET imaging of TSPO in a rat model of local neuroinflammation induced by intracerebral injection of lipopolysaccharide | Templated misfolding of Tau by prion-like seeding along neuronal connections impairs neuronal network function and associated behavioral outcomes in Tau transgenic mice | PD7-02 DELETION OF THE TRPV4 CATION CHANNEL LEADS TO DECREASED SENSORY INPUT INTO THE CENTRAL NERVOUS SYSTEM DURING THE MICTURITION CYCLE: A PET IMAGING STUDY IN RATS | A Standardized Method for the Construction of Tracer Specific PET and SPECT Rat Brain Templates: Validation and Implementation of a Toolbox | Correction: A Standardized Method for the Construction of Tracer Specific PET and SPECT Rat Brain Templates: Validation and Implementation of a Toolbox. | Longitudinal follow-up and characterization of a robust rat model for Parkinson's disease based on overexpression of alpha-synuclein with adeno-associated viral vectors | Simplified Dual Time Point quantification of irreversible PET tracer kinetics: validation for [11C]5-HTP and extension to a reference tissue model | Early decrease of type 1 cannabinoid receptor binding and phospodiesterase 10A activity in vivo in R6/2 Huntington mice. | SEIZURE PROGRESSION AND SISCOM PERFUSION CHANGES IN THE AMYGDALA KINDLING MODEL IN THE RHESUS MONKEY | Optimization of Multimodal Imaging of Mesenchymal Stem Cells Using the Human Sodium Iodide Symporter for PET and Cerenkov Luminescence Imaging | Applications of Small-Animal Imaging in Neurology and Psychiatry | Changes in Cerebral CB1 Receptor Availability after Acute and Chronic Alcohol Abuse and Monitored Abstinence | High resolution image | Supplementary Fig. 1 | PET Quantification in Neuropsychiatry | Brain Imaging of Cannabinoid Receptors | Small animal PET imaging of the type 1 cannabinoid receptor in a rodent model for anorexia nervosa | F-MK-9470 PET imaging of the type 1 cannabinoid receptor in prostate carcinoma: a pilot study | PET IMAGING IS A PROMISING TECHNIQUE TO MEASURE BRAIN ACTIVITY DURING CYSTOMETRY IN RATS | Construction and Evaluation of Quantitative Small-Animal PET Probabilistic Atlases for [F]FDG and [F]FECT Functional Mapping of the Mouse Brain | Figure S1 | Transient changes in the endocannabinoid system after acute and chronic ethanol exposure and abstinence in the rat: A combined PET and microdialysis study | Small-animal PET imaging of the type 1 and type 2 cannabinoid receptors in a photothrombotic stroke model | Preclinical evaluation and quantification of [F-18]MK-9470 as a radioligand for PET imaging of the type 1 cannabinoid receptor in rat brain | Altered brain activation to colorectal distention in visceral hypersensitive maternal-separated rats | Micro-Positron Emission Tomography Imaging of Rat Brain Metabolism during Expression of Contextual Conditioning | Regional changes in type 1 cannabinoid receptor availability in Parkinson's disease in vivo | Metabolic and Type 1 cannabinoid receptor imaging of a transgenic rat model in the early phase of Huntington disease | Effect of acute citalopram treatment on gastric motor function and nutrient tolerance in healthy volunteers. | Synthesis and evaluation of a carbon-11 labeled radioligand for in vivo visualization of the TRPV1 receptor with positron emission tomography | Type 1 cannabinoid receptor mapping with [18F]MK-9470 PET in the rat brain after quinolinic acid lesion: A comparison to dopamine receptors and glucose metabolism | Widespread Decrease of Type 1 Cannabinoid Receptor Availability in Huntington Disease In Vivo | Automated quantitative gait analysis in animal models of movement disorders | Additional file 1 | Additional file 3 | Additional file 2 | Influence of Chronic Bromocriptine and Levodopa Administration on Cerebral Type 1 Cannabinoid Receptor Binding | Morphologic and functional changes in the unilateral 6-hydroxydopamine lesion rat model for Parkinson’s disease discerned with μSPECT and quantitative MRI | The effect of anaesthesia on [F-18]MK-9470 binding to the type 1 cannabinoid receptor in the rat brain | Influence of Chronic Nicotine Administration on Cerebral Type 1 Cannabinoid Receptor Binding: An In Vivo Micro-PET Study in the Rat Using [18F]MK-9470 | In vivo type 1 cannabinoid receptor mapping in the 6-hydroxydopamine lesion rat model of Parkinson’s disease | Diffusion tensor imaging in a rat model of Parkinson's disease after lesioning of the nigrostriatal tract | Towards a neurocircuitry in anorexia nervosa: Evidence from functional neuroimaging studies | Relationship of Type 1 Cannabinoid Receptor Availability in the Human Brain to Novelty-Seeking Temperament | AN IMAGE ANALYSIS PIPELINE FOR QUANTITATIVE ANALYSIS OF MULTI-TEMPORAL AND MULTI-MODAL IN VIVO SMALL ANIMAL IMAGES | In Vivo PET Brain Imaging of the Type 1 Cannabinoid Receptor in Early and Advanced Parkinson's Disease | An in vivo [18F]MK-9470 microPET study of type 1 cannabinoid receptor binding in Wistar rats after chronic administration of valproate and levetiracetam | Gender-dependent increases with healthy aging of the human cerebral cannabinoid-type 1 receptor binding using [(18)F]MK-9470 PET | Metabolic-dopaminergic mapping of the 6-hydroxydopamine rat model for Parkinson's disease | 3.131 In vivo imaging of the human cerebral cannabinoid-type 1 receptor in Huntington's disease | Motor- and food-related metabolic cerebral changes in the activity-based rat model for anorexia nervosa: A voxel-based microPET study | Non-invasive imaging of neuropathology in a rat model of ??-synuclein overexpression | Construction and evaluation of multitracer small-animal PET probabilistic atlases for voxel-based functional mapping of the rat brain | Dual-tracer dopamine transporter and perfusion SPECT in differential diagnosis of parkinsonism using template-based discriminant analysis</t>
+        </is>
+      </c>
+      <c r="M162" s="3" t="inlineStr">
+        <is>
+          <t>Huntington's Disease | Parkinson's Disease | Molecular Imaging | Kinetic Modeling | Statistical Parametric Mapping | small-animal PET | PET</t>
+        </is>
+      </c>
+    </row>
+    <row r="163" ht="80" customHeight="1" s="4">
+      <c r="B163" s="3" t="inlineStr">
+        <is>
+          <t>Robin Martin Heidemann</t>
+        </is>
+      </c>
+      <c r="C163" s="3" t="inlineStr">
+        <is>
+          <t>Robin-Heidemann</t>
+        </is>
+      </c>
+      <c r="E163" s="3" t="n">
+        <v>23942</v>
+      </c>
+      <c r="F163" s="3" t="n">
+        <v>9291</v>
+      </c>
+      <c r="G163" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="H163" s="3" t="inlineStr">
+        <is>
+          <t>Christoph-Forman | Robert-Turner-31 | Gabriele-Lohmann | Alfred-Anwander | Nicole-Seiberlich | Ulrich-Bogdahn | Lawrence-Wald | Martin-Blaimer | Berthold-Kiefer | Dimo-Ivanov | Joern-Kaufmann | Christian-Meixner | Joerg-Stadler | Norbert-Weidner-2 | Peter-Jakob-2 | Felix-Breuer | Thomas-Knoesche | Mark-Griswold-3 | Sebastian-Baecke | Vladimir-Jellus | Armin-Nagel | Cornelius-Eichner | David-Porter-14 | Thorsten-Feiweier | Enrico-Reimer | Beatrice-Sandner | Johannes-Bernarding | Matthias-Mueller-30 | Ralf-Luetzkendorf | Fabrizio-Fasano | Patrick-Liebig | Jakob-Peter-2 | Arnd-Doerfler-2054785768 | Johannes-Bernarding-2098557297 | Eike-Budinger-2109501921 | Gerhard-Schuierer-2110034570 | Bernhard-Hensel-2148063013 | Manuel-Schmidt-2148678524 | Deepu-R-Pillai-33848203 | Robert-Trampel-38553187 | Mathias-Nittka-39158129 | Axel-Haase-39632997 | Stephan-Kannengiesser-40041904 | Andreas-Schaefer-42604667 | Felix-Schlachetzki-44480128 | Jianmin-Wang-46345762 | Peter-Speier-57909506 | Sebastian-Schmitter-59222767 | Josef-Pfeuffer-9194494</t>
+        </is>
+      </c>
+      <c r="I163" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="J163" s="3" t="inlineStr">
+        <is>
+          <t>Fabrizio Fasano | Roland Bammer | Ferenc A Jolesz | Robert Turner | Alfred Anwander | Joseph V Hajnal | Daniel F Kacher | Nicole Seiberlich | Gregor Adriany | Essa Yacoub | Lawrence L Wald | David G Norris | Martin Blaimer | Berthold Kiefer | James William Goldfarb | Robert Edelman | John M Pauly | Steen Moeller | Jacques-Donald Tournier | Daniel Sodickson | Carl-Fredrik Westin | Lawrence Panych | Susan Y Bookheimer | Pierre-Francois Van de Moortele | Peter M Jakob | Felix A Breuer | Xiaoping Hu | Walid E Kyriakos | Thomas R. Knösche | Craig H Meyer | Mark Jenkinson | Peter Boesiger | Mark Griswold | Vladimir Jellus | Ponnada A Narayana | Kawin Setsompop | David A Feinberg | Alan Connelly | David Porter | Thorsten Feiweier | Peter van zijl | Michael Garwood | Matthias Mueller | Jens Frahm | Peter J Basser | Arthur Gmitro | Michael Brady | Peter Jezzard | Milan Scheidegger | Warren Manning</t>
+        </is>
+      </c>
+      <c r="K163" s="3" t="n">
+        <v>109</v>
+      </c>
+      <c r="L163" s="3" t="inlineStr">
+        <is>
+          <t>Parallel transmit (pTx) with online pulse design for task-based fMRI at 7 T | A new approach to accelerate readout segmented EPI with compressed sensing | Comparison of 3T and 7T MRI for the visualization of globus pallidus sub-segments | High resolution time-of-flight MR-angiography at 7 T exploiting VERSE saturation, compressed sensing and segmentation | VASE-RESOLVE: Accelerated Readout Segmented Echo Planar Imaging with Compressed Sensing and Variable-Width Readout Segments | Highly Accelerated 3D EPI using Compressed Sensing | Uniform combined reconstruction of multichannel 7T knee MRI receive coil data without the use of a reference scan | High-resolution Time-of-Flight MR-Angiography at 7T exploiting VERSE, Compressed Sensing and Segmentation | Mapping fine-scale anatomy of gray matter, white matter, and trigeminal-root region applying spherical deconvolution to high-resolution 7-T diffusion MRI | Accelerated silent echo-planar imaging | High Resolution Time-of-Flight Angiography of Human Brain at 7 Tesla with VERSE Saturation and Compressed Sensing | Uniform Combined Reconstruction (UNICORN) of Multi-channel Surface-coil Data at 7T without use of a Reference Scan | Investigation of lateral geniculate nucleus volume and diffusion tensor imaging in patients with normal tension glaucoma using 7 tesla magnetic resonance imaging | fMRI at 7 Tesla with 0.5mm Isotropic Resolution and Full Field of View | fMRI with Low Acoustic Noise using Variable-Blipped EPI with Readout Segmentation | High Resolution 7T Diffusion MRI: Diffusion Characteristics of Midbrain Anatomy and Trigeminus | Feasibility study of gradient echo recalled readout segmented EPI with VB-EPI for ultra-silent fMRI | Variable-blipped-EPI (VB-EPI) for Lower Acoustic Noise and Higher Efficiency with non-Cartesian iterative Reconstruction | Shortening acquisition time and increasing resolution to (1 mm)³ isotropic in 7T diffusion MRI (dMRI) still allows resolving fiber orientations and fiber crossings: a step towards clinical applications? | 7T Diffusion MRI to analyze neuronal fiber directions including Gray Matter, Midbrain and cerebellum | Zigzag-Aligned-Projections in Echo-Planar Imaging | Spherical Deconvolution of High-Resolution 7T Whole-Head Diffusion Magnetic Resonance Images shows reduced radial anisotropic diffusion in human primary somatosensory cortex | Super-Resolution Track Density Imaging of 1.4 mm isotropic 7T Whole-Brain Diffusion Magnetic Resonance Images | DTI der Sehbahn bei 7 T: Machbarkeitsstudie und erste Ergebnisse bei Glaukompatienten | Analysis of Gray Matter anisotropy using spherical deconvolution of 7T Diffusion-Weighted MR images | Analysis of Neuronal Fiber Orientation Distribution in Gray Matter and at Gray-White Matter Borders Using Spherical Deconvolution of High-Resolution (1.4 mm)^3 7T DWI Data | Diffusion-Sensitized Ophthalmic Magnetic Resonance Imaging Free of Geometric Distortion at 3.0 and 7.0 T: A Feasibility Study in Healthy Subjects and Patients With Intraocular Masses | Diffusion-sensitized Ophthalmic MRI Free of Geometric Distortion in Patients with Intraocular Masses | High-resolution 7T fMRI of Human Hippocampal Subfields during Associative Learning | The use of Principal Component Analysis (PCA) for estimation of the maximum reduction factor in 2D parallel imaging | Anatomical brain imaging at 7T using two-dimensional GRASE | Slice Accelerated Diffusion-Weighted Imaging at Ultra-High Field Strength | High-resolution MRI and diffusion-weighted imaging of the human habenula at 7T | Non-invasive high-resolution tracking of human neuronal pathways: Diffusion Tensor Imaging at 7T with 1.2 mm isotropic voxel size | Negative BOLD in somatosensory cortex during simple finger tapping | Isotropic submillimeter fMRI in the human brain at 7 T: Combining reduced field-of-view imaging and partially parallel acquisitions | Position-orientation adaptive smoothing of diffusion weighted magnetic resonance data (POAS) | DWI at 7T with a High Performance Gradient System and a 32 Channel Head Coil: Resolution vs Time | Sub-Millimeter Diffusion MRI at 7T: Does Resolution Matter? | Sub-millimeter diffusion MRI at 7T: Does resolution matter? | k-space and q-space: Combining ultra-high spatial and angular resolution in diffusion imaging using ZOOPPA at 7T | Laminar-specific fingerprints of different sensorimotor areas obtained during imagined and actual finger tapping | Isotropic high resolution diffusion MRI at 7T--Issues of slice thickness and fat suppression | A sliding-window re-acquisition scheme for readout-segmented diffusion-weighted EPI at 3T and 7T | How the brain tissue shapes the electric field induced by transcranial magnetic stimulation | K-Space and q-Space: Combining ultra-High Spatial and angular resolution in Diffusion Imaging at 7T | Isotropic Sub-millimeter Diffusion mrI in Humans at 7T | High-resolution Diffusion-Weighted Imaging at 7T--Issues of Slice Thickness and Fat Suppression | Track density imaging (TDI): Validation of super resolution property | In vivo DWI at 7T with a 70 mT/m gradient coil: 24- vs 32-channel head coil | k-Space &amp; Q-Space: Combining Ultra-High Spatial &amp; Angular Resolution in Diffusion Imaging using ZOOPPA at 7T | Whole-Brain, Multi-Shot, Diffusion-Weighted Imaging in Humans at 7T with 1 mm Isotropic Resolution | Comprehensive Small Animal Imaging Strategies on a Clinical 3 T Dedicated Head MR-Scanner; Adapted Methods and Sequence Protocols in CNS Pathologies | High Resolution Functional Mapping of Primary Motor Cortex and Primary Somatosensory Cortex in Humans at 7 T | Visualization of the orientational structure of the stria of Gennari with high-resolution DWI | A Simple Low-SAR Technique for Chemical-Shift Selection with High-Field Spin-Echo Imaging | Spiral demystified | Diffusion imaging in humans at 7 T using readout-segmented EPI and GRAPPA | Isotropic High Resolution Diffusion-Tensor Imaging in Humans at 7T | Isotropic High Resolution Diffusion-Tensor Imaging in Humans at 7T | Isotropic sub-millimeter fMRI in humans at 7T | High Resolution Diffusion-Weighted Imaging Using Readout-Segmented Echo-Planar Imaging, Parallel Imaging and a Two-Dimensional Navigator-Based Reacquisition | Cerebral Ischemia–Reperfusion Injury in Rats—A 3 T MRI Study on Biphasic Blood–Brain Barrier Opening and the Dynamics of Edema Formation | Isotropic SubMillimeter fMRI of V5 in Human at 7T | Anatomical imaging at 7T using 2D GRASE—a comparison with 2D TSE | Anatomical Identification of V5 in Humans at 7 T | High Resolution Diffusion-Weighted Imaging in Human at 7T | High Resolution Diffusion-Weighted Imaging Showing Radial Anisotropy in the Human Cortex in Vivo | High Resolution Single-Shot Diffusion Weighted Imaging with a Combination of Zoomed EPI and Parallel Imaging | In Vivo High-Resolution Imaging of the Injured Rat Spinal Cord Using a 3.0T Clinical MR Scanner | Free Breathing Hyperpolarized 3He Lung Ventilation Spiral MR Imaging | Free Breathing Hyperpolarized 3He Lung Ventilation Spiral Imaging | Improving the accuracy of the RF transmitter adjustment at 7T in vivo with a SE-STE based B1 mapping method | Reconstruction of undersampled non-Cartesian data sets using pseudo-Cartesian GRAPPA in conjunction with GROG | Non-Cartesian Parallel Magnetic Resonance Imaging | Comparison of parallel acquisition techniques generalized autocalibrating partially parallel acquisitions (GRAPPA) and modified sensitivity encoding (mSENSE) in functional MRI (fMRI) at 3T | Fast method for 1D non-Cartesian parallel imaging using GRAPPA | Schnelle GRAPPA-Rekonstruktion für PLANED (Parallele Aufnahme zur effektiven dichte-gewichteten) Bildgebung | 2D-GRAPPA-operator for faster 3D parallel MRI | Direct parallel image reconstructions for spiral trajectories using GRAPPA | Accelerated volumetric MRI with a SENSE/GRAPPA combination | Perspectives and Limitations of Parallel MR Imaging at High Field Strengths | Autocalibrated sensitivity estimation for parallel imaging | Controlled aliasing in volumetric parallel imaging (2D CAIPIRINHA) | Multi-shot, diffusion-weighted imaging at 3T using readout-segmented EPI and GRAPPA | Pseudo-Cartesian GRAPPA Reconstruction of Undersampled Non-Cartesian Data | Parallel Magnetic Resonance Imaging Using the GRAPPA operator formalism | Controlled Aliasing in Parallel Imaging Results in Higher Acceleration (CAIPRINHA) for multi-slice imaging | Finding the optimal sampling pattern in 2D parallel imaging for a given receiver coil configuration | Field-of-view limitations in parallel imaging | SMASH, SENSE, PILS, GRAPPA: how to choose the optimal method | SMASH, SENSE, PILS, GRAPPA | [Feasibilities and limitations of high field parallel MRI]. | M�glichkeiten und Grenzen der parallelen MRT im Hochfeld | A brief review of parallel magnetic resonance imaging | Resolution enhancement in lung 1H imaging using parallel imaging methods | Fast Parallel Image Reconstructions with non-Cartesian Trajectories | Generalized Autocalibrating Partially Parallel Acquisitions (GRAPPA) | The use of an adaptive reconstruction for array coil sensitivity mapping and intensity normalization. In Proceedings of ISMRM, Honolulu, Hawaii | Improving Image Quality by Combining Outer Volume Suppression and Parallel Imaging: zoomed EPI with GRAPPA at 7T</t>
+        </is>
+      </c>
+      <c r="M163" s="3" t="inlineStr">
+        <is>
+          <t>C++ | MATLAB | Magnetic Resonance | Imaging | Brain Imaging | fMRI | Neuroimaging | Neuroscience | Diffusion Magnetic Resonance Imaging | Physics</t>
+        </is>
+      </c>
+    </row>
+    <row r="164" ht="80" customHeight="1" s="4">
+      <c r="B164" s="3" t="inlineStr">
+        <is>
+          <t>Markus Streicher</t>
+        </is>
+      </c>
+      <c r="C164" s="3" t="inlineStr">
+        <is>
+          <t>Markus-Streicher</t>
+        </is>
+      </c>
+      <c r="D164" s="3" t="inlineStr">
+        <is>
+          <t>Max Planck Institute for Human Cognitive and Brain Sciences</t>
+        </is>
+      </c>
+      <c r="E164" s="3" t="n">
+        <v>5577</v>
+      </c>
+      <c r="F164" s="3" t="n">
+        <v>1017</v>
+      </c>
+      <c r="G164" s="3" t="n">
+        <v>41</v>
+      </c>
+      <c r="H164" s="3" t="inlineStr">
+        <is>
+          <t>Katja-Reimann | Robin-Heidemann | Robert-Turner-31 | Pierre-Louis-Bazin | Nirav-Barapatre | Benedikt-Poser | Harald-Moeller | Daniel-Spemann | Dimo-Ivanov | Elisabeth-Roggenhofer | Bjoern-Eskofier | Debra-Rivera | Marcel-Weiss-4 | Miriam-Waehnert | Alexis-Amadon | Carsten-Koegler | Andreas-Deistung | Samuel-Reinfelder | Christian-Labadie | Carsten-Stueber | Enrico-Reimer | Toralf-Mildner | Juergen-Reichenbach-2 | Juliane-Dinse | Bibek-Dhital | Stefan-Kabisch | Benjamin-Groh | Ilona-Henseler-15907619 | Laurentius-Huber-2006686496 | Philipp-Waehnert-2043727182 | Adib-Taraben-2060228317 | Stefan-Geyer-2083922127 | A-Schaefer-2143135756 | Dirk-K-Mueller-37802830 | Andre-Pampel-38368286 | Robert-Trampel-38553187 | Kamil-Uludag-38824730 | Andreas-Schaefer-42604667 | Christoph-Leuze-71648360 | Steffen-N-Krieger-75602308 | Thies-H-Jochimsen-9759791</t>
+        </is>
+      </c>
+      <c r="I164" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="J164" s="3" t="inlineStr">
+        <is>
+          <t>Jun Hua | Will Grissom | Rolf Boelens | Ferenc A Jolesz | Anders M Dale | Robert Turner | Katrin Amunts | Kagayaki Kuroda | Aneurin J Kennerley | Jerry Prince | Penny A Gowland | Susan T Francis | Antje Kickhefel | Gregor Adriany | Jason Berwick | Benedikt A Poser | David G Norris | Harald E. Möller | John D Hazle | John M Pauly | John Thomas Vaughan | Dimo Ivanov | Tao Jin | Anna Devor | Eric C Wong | Bruno Quesson | Tae Kim | Pierre-Francois Van de Moortele | Clare Tempany | Seong-Gi Kim | Richard Bowtell | John F Schenck | Karl K Vigen | Elizabeth M Hillman | Peter Boesiger | Richard B Buxton | David A Feinberg | Axel Schleicher | Joseph Mandeville | Peter van zijl | Hans Ippel | David Boas | Bibek Dhital | Nathan Mcdannold | Jens Frahm | R. Jason Stafford | Bruce Rosen | Peter Jezzard | Patrick Groß | John Mayhew</t>
+        </is>
+      </c>
+      <c r="K164" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="L164" s="3" t="inlineStr">
+        <is>
+          <t>Application of Phase Imaging at High Field - MR Thermometry at 7 Tesla | Slab-Selective, BOLD-Corrected VASO at 7 Tesla Provides Measures of Cerebral Blood Volume Reactivity with High Signal-to-Noise Ratio | Movement prediction in rowing using a Dynamic Time Warping based stroke detection | Myelin and iron concentration in the human brain: A quantitative study of MRI contrast | Fast Accurate MR Thermometry Using Phase Referenced Asymmetric Spin-Echo EPI at High Field | Anatomically motivated modeling of cortical laminae | In vivo estimation of the transverse relaxation time dependence of blood on oxygenation at 7Tesla | Cerebral Blood Volume Changes during Brain Activation | Measuring temperature using MRI: A powerful and versatile technique | Do cortical layers conform to the Laplace equation? | Effects of air susceptibility on proton resonance frequency MR thermometry | A Simple Low-SAR Technique for Chemical-Shift Selection with High-Field Spin-Echo Imaging</t>
+        </is>
+      </c>
+      <c r="M164" s="3" t="inlineStr">
+        <is>
+          <t>Brain Imaging | fMRI | Magnetic Resonance | Imaging | Medical Physics | Radiology | Brain | Sensors | Global Positioning System  | Inertial Measurement Units</t>
+        </is>
+      </c>
+    </row>
+    <row r="165" ht="80" customHeight="1" s="4">
+      <c r="B165" s="3" t="inlineStr">
+        <is>
+          <t>Richard Frackowiak</t>
+        </is>
+      </c>
+      <c r="C165" s="3" t="inlineStr">
+        <is>
+          <t>Richard-Frackowiak</t>
+        </is>
+      </c>
+      <c r="D165" s="3" t="inlineStr">
+        <is>
+          <t>École Polytechnique Fédérale de Lausanne</t>
+        </is>
+      </c>
+      <c r="E165" s="3" t="n">
+        <v>122693</v>
+      </c>
+      <c r="F165" s="3" t="n">
+        <v>154225</v>
+      </c>
+      <c r="G165" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="H165" s="3" t="inlineStr">
+        <is>
+          <t>Robert-Turner-31 | Karl-Friston | Peter-Liddle | David-Brooks-11 | Cornelius-Weiller | Eraldo-Paulesu | Hartwig-Siebner-2 | Klaus-Leenders | Chris-Frith | Ingrid-Johnsrude | Jean-Baptiste-Poline | Martin-Rossor | Catriona-Good | James-Rowe-3 | Christian-Dettmers | Lynsey-Adams-2 | John-Watson-19 | Gianluigi-Lenzi | John-Rothwell-2 | Jeremy-Gibbs | Nick-Ward-9 | Terry-Jones-14 | Bogdan-Draganski | Ferath-Kherif | Semir-Zeki | John-Ashburner | Raymond-Dolan | Adriaan-Lammertsma | CJ-Price-2083254057 | Richard-J-S-Wise-2163070870 | GR-Fink-2179533013 | KM-Stephan-34563356 | G-V-Sawle-38196581 | Stefan-Kloeppel-38402628 | R-E-Passingham-38812716 | Paul-C-Fletcher-39077993 | Sarah-J-Tabrizi-39083708 | John-C-Mazziotta-39157583 | C-J-Bench-39264929 | Paul-M-Grasby-39290385 | Oliver-Josephs-39406270 | David-Silbersweig-39441449 | Christian-Buechel-39657065 | S-Herold-39783124 | D-G-Gadian-39847962 | Douglas-R-Corfield-39873436 | Cathy-J-Price-43385281 | J-D-Heather-4341555 | C-D-Marsden-60921108 | BS-Athwal-7202930</t>
+        </is>
+      </c>
+      <c r="I165" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="J165" s="3" t="inlineStr">
+        <is>
+          <t>Michael Posner | Adriaan Lammertsma | Clifford R Jack | Anders M Dale | Robert Turner | Karl J Friston | Peter F Liddle | Karalyn Patterson | David J Brooks | Cornelius Weiller | Sean Thomas Marrett | Peter Herscovitch | Albert Gjedde | Eraldo Paulesu | Tim Shallice | Hartwig Roman Siebner | Klaus L Leenders | Louis Sokoloff | Stuart C Ramsay | Chris D Frith | Jean-Baptiste Poline | Martin N Rossor | Jean-Claude Baron | Marie-Pierre Deiber | Terence Spinks | James G Colebatch | Martin Reivich | Stanley I Rapoport | John Douglas Glenton Watson | Gianluigi Lenzi | Steve E Petersen | John C Rothwell | Jeremy Gibbs | Alan Charles Evans | Paul Thompson | Terry Jones | Dale Bailey | Peter M Bloomfield | Robert Zatorre | Maurizio Corbetta | Peter Leonard Strick | Fran M Miezin | Per E. Roland | Semir Zeki | John Ashburner | Raymond J Dolan | John Nutt | Michalakis Petrides | Marus Raichle | Catriona Good</t>
+        </is>
+      </c>
+      <c r="K165" s="3" t="n">
+        <v>739</v>
+      </c>
+      <c r="L165" s="3" t="inlineStr">
+        <is>
+          <t>Overcoming fragmentation of health research in Europe: lessons from COVID-19 | Neuroticism, depression, and anxiety traits exacerbate the state of cognitive impairment and hippocampal vulnerability to Alzheimer's disease | Neuroticism, depression, and anxiety traits exacerbate the state of cognitive impairment and hippocampal vulnerability to Alzheimer's disease | Anatomical Modularity of Verbal Working Memory? Functional Anatomical Evidence from a Famous Patient with Short-Term Memory Deficits | Scientific Panel for Health: better research for better health | Outcome Prediction of Consciousness Disorders in the Acute Stage Based on a Complementary Motor Behavioural Tool | Federating and Integrating What We Know About the Brain at All Scales: Computer Science Meets the Clinical Neurosciences | Supplementary Material | New tissue priors for improved automated classification of subcortical brain structures on MRI | Neurobiological origin of spurious brain morphological changes: A quantitative MRI study | Automated detection of white matter and cortical lesions in early stages of multiple sclerosis | Automated detection of white matter and cortical lesions in early-stages of multiple sclerosis | The future of human cerebral cartography: A novel approach | Weakened functional connectivity in patients with psychogenic non-epileptic seizures (PNES) converges on basal ganglia | Do we need to revise the tripartite subdivision hypothesis of the human subthalamic nucleus (STN)? Response to Alkemade and Forstmann | What can modern informatics bring to an understanding of diseases of the brain? | Recovery of biological motion perception and network plasticity after cerebellar tumor removal | Disentangling in vivo the effects of iron content and atrophy on the ageing human brain | Zerebello-temporale Konnektivität während visueller Wahrnehmung von Körperbewegungen | Eyes on the prize | O5: Cerebro-cerebellar plasticity underlying recovery of body motion perception | Influence of magnetic field strength and image registration strategy on voxel-based morphometry in a study of Alzheimer's disease | Computation based diagnosis reveals intermediate Alzheimer's disease phenotypes | Electroconvulsive therapy-induced brain plasticity determines therapeutic outcome in mood disorders | How early can we predict Alzheimer's disease using computational anatomy? | Data protection regulation and the promotion of health research: Getting the balance right | Implications du Human Brain Project pour les neurosciences cliniques | Demyelination in Mild Cognitive Impairment Suggests Progression Path to Alzheimer’s Disease | Figure S1 | Table S5 | Text S1 | Table S2 | Table S3 | Table S1 | Table S4 | Table S6 | Characterizing Aging in the Human Brainstem Using Quantitative Multimodal MRI Analysis | Relationship between Imaging Biomarkers, Age, Progression and Symptom Severity in Alzheimer's Disease | Recovery of biological motion processing and network plasticity after cerebellar lesion | Multiparametric brainstem segmentation using a modified multivariate mixture of Gaussian | Text S1 | Generative FDG-PET and MRI model of aging and disease progression in Alzheimer's disease | Interregional compensatory mechanisms of motor functioning in progressing preclinical neurodegeneration | The functional neuroimaging correlates of psychogenic versus organic dystonia | Reference Cluster Normalization Improves Detection of Frontotemporal Lobar Degeneration by Means of FDG-PET | Supplementary Data | AS09-01 - Impacts of neuroscience on re-definition of mental disorders: a novel epistemology | PL01-01 - The impact of neuroscience on a redefinition of mental disorder: A novel epistemology - The human brain project | Properties of functional brain networks correlate frequency of psychogenic non-epileptic seizures | J13 Distributed neural networks associated with emotion processing are altered in premanifest Huntington's disease and correlated with genetic load | 2008 Clinical Schizophrenia Copertina | 2008 Clinical Schizophrenia Copertina | 2008 Clinical Schizophrenia Copertina | 2008 Clinical Schizophrenia Copertina | 2008 Clinical Schizophrenia Copertina | Evolution of EEG synchronization in early Alzheimer's disease | A new early and automated MRI-based predictor of motor improvement after stroke | NeuroImage Anniversary Issue | MP2RAGE multiple sclerosis magnetic resonance imaging at 3 T | Altered brain mechanisms of emotion processing in pre-manifest Huntington's disease | Supplementary Data | The effect of handedness on the shape of the central sulcus | EEG source synchronization in Alzheimer's disease: One-year follow-up | A new early and automated MRI-based predictor of motor improvement after stroke | Atrofie focali | Introducing the Human Brain Project | Confirmation of functional zones within the human subthalamic nucleus: Patterns of connectivity and sub-parcellation using diffusion weighted imaging | Human Primary Auditory Cortex Follows the Shape of Heschl's Gyrus | Striking parallel between Tonotopy in Auditory Cortex and Retinotopy in Visual Cortex: A human fMRI study at 7 Tesla | Large scale brain activations predict reasoning profiles | Clear Tonotopic Maps in Human Auditory Cortex measured with 7T fMRI. | Inhibition in early Alzheimer's disease: An fMRI-based study of effective connectivity | Early neurorehabilitation in an acute university hospital: From dream to reality | Regional specificity of MRI contrast parameter changes in normal ageing revealed by voxel-based quantification (VBQ) | Psychogenic seizures and frontal disconnection: EEG synchronisation study | Current Opinion in Neurology: Editorial introductions | Deontological and Altruistic Guilt: Evidence for Distinct Neurobiological Substrates | Neurosarcoidosis mimicking meningioma en-plaque: Report of two cases and review of the literature | Supplementary Data | Multispectral brain morphometry in Tourette syndrome persisting in adulthood | Binding under Conflict Conditions: State–Space Analysis of Multivariate EEG Synchronization | Neurophysiological origin of human brain asymmetry for speech and language | FMRI SHOWS AN DISTRIBUTED EXTRASTRIATAL NETWORK OF ALTERED NEURAL ACTIVATION IN PREMANIFEST HUNTINGTON'S DISEASE GENE CARRIERS | Conditional and syllogistic deductive tasks dissociate functionally during premise integration | Low-Frequency Transcranial Magnetic Stimulation over Left Dorsal Premotor Cortex Improves the Dynamic Control of Visuospatially Cued Actions | [Observations on the trends of Swiss neurology] | The neurological pathways involved in the treatment of pain by acupuncture in different belief and expectancy contexts | Nurture versus Nature: Long-Term Impact of Forced Right-Handedness on Structure of Pericentral Cortex and Basal Ganglia | Predicting Clinical Scores from Magnetic Resonance Scans in Alzheimer's Disease | Normal variation in fronto-occipital circuitry and cerebellar structure with an autism-associated polymorphism of CNTNAP2 | Atrophies focales | Supplementary Material 2 | Supplementary Material 1 | Supplementary Material 3 | The Rank Lecture: Has imaging told us anything new about human visual organisation? | Sub-cortical and brainstem sites associated with chemo-stimulated increases in ventilation in humans | Irritability in pre-clinical Huntington's disease | Detecting preclinical neurodegeneration: An example from Huntington's disease | Sex matters: A genetic basis for gender asymmetries in amygdala emotive networks | Grey Matter Morphometry in Magnetization Transfer and T1-weighted Images</t>
+        </is>
+      </c>
+      <c r="M165" s="3" t="inlineStr">
+        <is>
+          <t>Neuroimaging | Cognitive Neuroscience | Brain Imaging | Functional Neuroimaging | Magnetic Resonance | Brain Mapping | Clinical Neuroscience | Functional Imaging | Functional Neuroanatomy</t>
+        </is>
+      </c>
+    </row>
+    <row r="166" ht="80" customHeight="1" s="4">
+      <c r="B166" s="3" t="inlineStr">
+        <is>
+          <t>Sven Zuehlsdorff</t>
+        </is>
+      </c>
+      <c r="C166" s="3" t="inlineStr">
+        <is>
+          <t>Sven-Zuehlsdorff</t>
+        </is>
+      </c>
+      <c r="D166" s="3" t="inlineStr">
+        <is>
+          <t>Siemens Healthineers</t>
+        </is>
+      </c>
+      <c r="E166" s="3" t="n">
+        <v>9017</v>
+      </c>
+      <c r="F166" s="3" t="n">
+        <v>2341</v>
+      </c>
+      <c r="G166" s="3" t="n">
+        <v>48</v>
+      </c>
+      <c r="H166" s="3" t="inlineStr">
+        <is>
+          <t>Ying-Liu-24 | Saurabh-Shah-6 | Peter-Weale | Shaily_Shah3 | Andreas-Greiser | Peter_Hallscheidt | Cormac-Farrelly | Sotirios-Tsaftaris | Xiaoguang-Lu-3 | Christoph-Guetter | Jens-Guehring | Josh-Levitsky | Christian-Fink-6 | Rohan-Dharmakumar | Zhaoyang-Fan | Irene-Buvat | Andrada-Popescu | Peter-Kellman | Renate-Jerecic | Reed-Omary | Qi-Yang-39 | Debiao-Li-2 | Michael-Bock-4 | Reiner-Umathum | W-Ingkanisorn-Bandettini | Jeremy-Collins-2 | Yi-Wang-62 | Bradley-Bolster-Jr | Wolfhard-Semmler | Orlando-Simonetti | Sonia-Nielles-Vallespin | Wolfhard-Semmler-2 | Xiangzhi-Zhou | Hui-Xue-14 | Richard-Tang-7 | Steffen-Volz-10370254 | Arne-Littmann-11760085 | Marie-Pierre-Jolly-14204929 | James-Carr-2073209954 | Xiaoming-Bi-2163361571 | Rachel-Klein-2163743943 | Wolfgang-R-Nitz-35639462 | Christopher-Glielmi-36314972 | Himanshu-Bhat-38352405 | Andrew-E-Arai-39229533 | Li-Yueh-Hsu-39400407 | Shivraman-Giri-50140117 | Veronica-Rundell-50878442</t>
+        </is>
+      </c>
+      <c r="I166" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="J166" s="3" t="inlineStr">
+        <is>
+          <t>Wolfhard Semmler | Christian Fink | Abhinav Jha | Renate Jerecic | Matthias Stuber | Jeffrey L Duerk | Jürgen Hennig | Andreas Greiser | Jonathan S Lewin | Babak Saboury | Daniel Messroghli | Charles M Strother | Jens Guehring | Robert Edelman | Matthias G. Friedrich | Ergin Atalar | John M Pauly | Arman Rahmim | Christine Mancini | Christine H Lorenz | Michael Jerosch-Herold | Daniel Sodickson | Peter M Jakob | Craig H Meyer | Thomas M Grist | Richard Frayne | Peter Boesiger | Mark Griswold | Debiao Li | Michael Bock | Charles A Mistretta | Richard D White | Wolfhard Semmler | Orlando Simonetti | Anthony Aletras | Scott Reeder | David Firmin | Elliot Mcveigh | Jennifer Keegan | Peter D Gatehouse | Christoph Manke | Charles Dumoulin | Jeanette Schulz-Menger | Milan Scheidegger | David Bluemke | Peter Kellman | Rolf W. Guenther | Reed A Omary | Reiner Umathum | Warren Manning</t>
+        </is>
+      </c>
+      <c r="K166" s="3" t="n">
+        <v>135</v>
+      </c>
+      <c r="L166" s="3" t="inlineStr">
+        <is>
+          <t>Correction to: Deep learning for improving PET/CT attenuation correction by elastic registration of anatomical data | Deep learning for improving PET/CT attenuation correction by elastic registration of anatomical data | Artificial Intelligence in Nuclear Medicine: Opportunities, Challenges, and Responsibilities Toward a Trustworthy Ecosystem | Nuclear Medicine and Artificial Intelligence: Best Practices for Evaluation (the RELAINCE Guidelines) | Nuclear Medicine and Artificial Intelligence: Best Practices for Algorithm Development | CALIPER: A software for blood-free parametric Patlak mapping using PET/MRI input function | Deep-Learning F-FDG Uptake Classification Enables Total Metabolic Tumor Volume Estimation in Diffuse Large B-Cell Lymphoma | Single-site 123I-FP-CIT reference values from individuals with non-degenerative parkinsonism—comparison with values from healthy volunteers | 18 F-FDG PET/CT Uptake Classification in Lymphoma and Lung Cancer by Using Deep Convolutional Neural Networks | Assessing Reliability of Myocardial Blood Flow After Motion Correction With Dynamic PET Using a Bayesian Framework | Deep Learning approach for interpretation of 123I-iofloupane SPECT images in patients with suspected Parkinson’s Disease | Right ventricular assessment at cardiac MRI: initial clinical experience utilizing an IS-SENSE reconstruction | Motion Correction in CMR for non-ischaemic cardiomyopathy at 3T | MR imaging system for automatically providing incidental findings | Automatic registration of image series with varying contrast based on synthetic images derived from intensity behavior model | Detection of landmarks and key-frames in cardiac perfusion MRI using a joint spatial-temporal context model | Method and system for retrospective image combination under minimal total deformation constrain for free-breathing cardiac magnetic resonance imaging with motion correction | Temporal interpolation of real-time cine images for ventricular function assessment | Steady-State First-Pass Perfusion (SSFPP): A New Approach to 3D First-Pass Myocardial Perfusion Imaging | Industrial perspective of academic prototypes | Patient support table control system for use in MR imaging | System for dynamically improving medical image acquisition quality | Assessment of left ventricular myocardial scar in coronary artery disease by a three-dimensional MR imaging technique | Phase-Sensitive Inversion Recovery for Myocardial T-1 Mapping with Motion Correction and Parametric Fitting | In Non-Ischemic Cardiomyopathy (NICMP), the Presence of LV Scar Detected by Delayed Enhancement-CMR Is a Stronger Predictor of Cardiovascular Events Than Left Ventricular Ejection Fraction (LVEF) | Left Ventricular Function in a Single Breathhold with 3D Radial CINE bSSFP and 3D Through-time Radial GRAPPA | Myocardial T2 Mapping With Respiratory Navigator and Automatic Nonrigid Motion Correction | MRI-Guided Biopsy to Correlate Tissue Specimens with MR Elastography Stiffness Readings in Liver Transplants | Motion correction for myocardial T1 mapping using image registration with synthetic image estimation | Motion Correction for Myocardial T1 Mapping using Image Registration with Synthetic Image Estimation | Prospective swallowing motion self-gating: a feasibility study in carotid artery wall MRI using 3D variable-flip-angle TSE | Evaluation of fully automated motion corrected first pass myocardial perfusion MRI with semi quantitative perfusion parameter maps in patients with ischemic heart disease | T2 Mapping of the myocardium, a quantitative tool for assessment of myocarditis | Steady-state first-pass perfusion (SSFPP): A 3D TWIST in myocardial first-pass perfusion imaging | Evaluation of semi quantitative perfusion parameter maps generated based on a fully automated non-rigid motion correction during a first pass myocardial perfusion (FPMP) MRI | T2-weighted cardiac MR assessment of the myocardial area-at-risk and salvage area in acute reperfused myocardial infarction: Comparison of state-of-the-art dark blood and bright blood T2-weighted sequences | Prospective self-gating for swallowing motion: A feasibility study in carotid artery wall MRI using three-dimensional variable-flip-angle turbo spin-echo | Evaluation of Fully Automated Motion-corrected First Pass Myocardial Perfusion MRI with Semi-Quantitative Perfusion Parameter Maps | Assessment of left ventricular myocardial scar with three-dimensional MRI | Motion Compensated Magnetic Resonance Reconstruction Using Inverse-Consistent Deformable Registration: Application to Real-Time Cine Imaging | Contrast-Enhanced Whole-Heart Coronary Magnetic Resonance Angiography at 3 T With Radial EPI | On the Mechanisms Enabling Myocardial Edema Contrast in bSSFP-Based Imaging Approaches | Targeted Radiofrequency Field Mapping using 3D Reduced Field-of-View Catalyzed Double-Angle Method | 3D Radial Sampling and 3D Affine Transform-based Respiratory Motion Correction Technique for Free-breathing Whole-Heart Coronary MRA with 100% Imaging Efficiency | T-2-Weighted STIR Imaging of Myocardial Edema Associated With Ischemia-Reperfusion Injury: The Influence of Proton Density Effect on Image Contrast | Coronary wall MR Imaging in patients with rapid heart rates: a feasibility study of black-blood steady-state free precession (SSFP) | Simultaneous detection of landmarks and key-frame in cardiac perfusion MRI using a joint spatial-temporal context model | Assessment of Chronic Hepatitis and Fibrosis: Comparison of MR Elastography and Diffusion-Weighted Imaging | Bright Blood T2 Weighted MRI Has Higher Diagnostic Accuracy Than Dark Blood STIR MRI for Detection of Acute Myocardial Infarction and for Assessment of the Ischemic Area-at-Risk and Myocardial Salvage | Assessment of myocardial strain using strain-encoding (SENC) MRI: comparison of acquisition strategies | Clinical evaluation of inline motion correction for cardiac perfusion MRI | Automatic per-segment analysis of myocardial perfusion MRI | Inline myocardial t2* mapping with iterative robust fitting | Improved motion correction using image registration based on variational synthetic image estimation: application to inline t1 mapping of myocardium | Comparison of arterial input function measured from dual-bolus and dual-sequence dynamic contrast-enhanced cardiac magnetic resonance imaging | A novel, automated method for measuring mitral valve annular velocity from standard cine TrueFISP data - a feasibility study | Image quality and diagnostic accuracy of inline motion-corrected (moco) first-pass stress myocardial perfusion images | An Automated Method for Extraction of Tissue Doppler Like Myocardial Motion Parameters from Conventional Cine Cardiac MR - A Feasibility Study | Improved T2-Weighted Cardiac Imaging using Retrospective Motion Correction and Optimal Image Combination | Myocardial T1 Mapping with Synthetic Image Estimation based Motion Correction | Left Coronary Artery Imaging at 7T: Initial Results using Multiple B1+ Shimming Algorithms and Targets | Basic Examination for Three-dimensional Phase-sensitive Inversion Recovery (3D PSIR) Method by Late Gadolinium Enhancement of Non-breath-hold Cardiac Magnetic Resonance Image | Estimation of Perfusion and Arterial Transit Time in Myocardium Using Free-Breathing Myocardial Arterial Spin Labeling With Navigator-Echo | Contrast-Enhanced Whole-Heart Coronary Magnetic Resonance Angiography at 3 T Using Interleaved Echo Planar Imaging | 3D flow‐independent peripheral vessel wall imaging using T2‐prepared phase‐sensitive inversion‐recovery steady‐state free precession | Assessment of left ventricular myocardial scar in infiltrative and non-ischemic cardiac diseases by free breathing three dimensional phase sensitive inversion recovery (PSIR) TurboFLASH | Artifact-Reduced Two-Dimensional Cine Steady State Free Precession for Myocardial Blood-Oxygen-Level-Dependent Imaging | Non-Contrast-Enhanced Four-Dimensional (4D) Intracranial MR Angiography: A Feasibility Study | Carotid arterial wall MRI at 3T using 3D variable-flip-angle turbo spin-echo (TSE) with flow-sensitive dephasing (FSD) | Abstract No. 63: Real-time MR-guided biopsies to target focal hepatic fibrosis detected with magnetic resonance elastography | Comparison of strain-encoded cardiac MRI images with different k-space acquisition strategies | Single breath-hold whole heart coronary MRA with isotropic spatial resolution using highly-accelerated parallel imaging with a 32-element coil array | Why do we see myocardial edema in acute myocardial infarcts with balanced SSFP imaging? | 3D nongadolinium-enhanced mra using flow-sensitive dephasing (fsd) prepared balanced ssfp: Identification of the optimal first-order gradient moment | Initial Experiences with Non-Contrast Enhanced Renal Angiography at 7.0 Tesla | Improved Correction of Spatial Inhomogeneities of Surface Coils in Quantitative Analysis of First-Pass Myocardial Perfusion Imaging | Artifacts-reduced 2D cine SSFP with flow compensation for myocardial BOLD imaging | Contrast-enhanced whole-heart coronary magnetic resonance angiography (MRA) in less than 5 minutes using radial EPI | Coronary MRA at 3 T using 3d multi-interleaved multi-echo acquisition with varpro fat-water separation | Inline directionally independent magnitude of velocity maps calculated from 3D encoded phase contrast images | Multiecho dixon fat and water separation method for diagnosing pericardial disease | Myocardial edema contrast in acute myocardial infarction: a comparative study of the sensitivity of different CMR Methods | Inline non-rigid motion-corrected t2 mapping of myocardium | On the mechanism of myocardial edema contrast in T2-STIR images | Accelerated Two- and Three-dimensional Cine MR Imaging of the Heart by Using a 32-Channel Coil 1 | Observer Performance With State-of-the-Art T2 Weighted Sequences-T2p-singleshot SSFP, TSESSFP( ACUTE), IR-TSE (TIRM) and BLADE- for the Detection of Acute Myocardial Injury | Three-Dimensional Phase-Sensitive Inversion-Recovery Turbo FLASH Sequence for the Evaluation of Left Ventricular Myocardial Scar | Rapid 3D Radiofrequency Field Mapping Using Catalyzed Double-Angle Method | Unsupervised Inline Analysis of Cardiac Perfusion MRI | Whole-Heart Contrast-Enhanced Coronary Magnetic Resonance Angiography using Gradient Echo Interleaved EPI | 4D Radial Acquisition Contrast-Enhanced MR Angiography and Intracranial Arteriovenous Malformations Quickly Approaching Digital Subtraction Angiography | Assessment of left ventricular function with single breath-hold highly accelerated cine MRI combined with guide-point modeling | Multi-echo Dixon Fat and Water Separation Method for Detecting Fibro-fatty Infiltration in the Myocardium | Assessment of myocardial oxygenation changes in the presence of coronary artery stenosis with three dimensional cardiac phase-resolved SSFP BOLD imaging in canines | Three dimensional Phase Sensitive Inversion Recovery (PSIR) turbo FLASH for evaluation of left ventricular myocardial lesions in infiltrative and non-ischemic cardiac diseases | Accelerated real time 2D and segmented 3D cine imaging – whole heart approaches in a single breath hold | Accuracy of single breath-hold cine MRI analyzed by guide-point modeling for the assessment of Left Ventricular Function | Cine-EPI can be used to detect coronary artery stenoses in canines | Exploring the promise land of 7 T for CMR with T-PAT accelerated imaging techniques – first results for real time cardiac function and tagging in volunteers | Whole-heart contrast-enhanced coronary magnetic resonance angiography in less than 5 minutes using gradient echo interleaved EPI</t>
+        </is>
+      </c>
+      <c r="M166" s="3" t="inlineStr">
+        <is>
+          <t>Biomechanical Engineering | Magnetic Resonance | Molecular Imaging | Cardiovascular Magnetic Resonance</t>
+        </is>
+      </c>
+    </row>
+    <row r="167" ht="80" customHeight="1" s="4">
+      <c r="B167" s="3" t="inlineStr">
+        <is>
+          <t>Saurabh Shah</t>
+        </is>
+      </c>
+      <c r="C167" s="3" t="inlineStr">
+        <is>
+          <t>Saurabh-Shah-6</t>
+        </is>
+      </c>
+      <c r="D167" s="3" t="inlineStr">
+        <is>
+          <t>Medtronic</t>
+        </is>
+      </c>
+      <c r="E167" s="3" t="n">
+        <v>4776</v>
+      </c>
+      <c r="F167" s="3" t="n">
+        <v>1742</v>
+      </c>
+      <c r="G167" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="H167" s="3" t="inlineStr">
+        <is>
+          <t>Sven-Zuehlsdorff | Ying-Liu-24 | Yan-Zhang-13 | Peter-Weale | Michael-Schaer-2 | Matthias-Stuber | Wesley-Gilson | Andreas-Greiser | Cormac-Farrelly | Sotirios-Tsaftaris | Christoph-Guetter | Zongming-Chen | Jens-Guehring | Josh-Levitsky | Shihua-Zhao-3 | Amir-Davarpanah-2 | Rohan-Dharmakumar | Zhaoyang-Fan | Gang-Yin-3 | Minjie-Lu-8 | Kirsi-Taimen | Peter-Kellman | Martin-Ugander | Renate-Jerecic | Reed-Omary | Debiao-Li-2 | Jeremy-Collins-2 | Yi-Wang-62 | Zuo-Xiang-He | Daniel-Ganger | Bradley-Bolster-Jr | Xiuyu-Chen-4 | Orlando-Simonetti | Anthony-Aletras | Evert-Jan-Vonken | Xiangzhi-Zhou | Hui-Xue-14 | Richard-Tang-7 | Marie-Pierre-Jolly-14204929 | Jing-An-2044455423 | James-Carr-2073209954 | Xiaoming-Bi-2163361571 | Rachel-Klein-2163743943 | Shiliang-Jiang-35427778 | Diego-Hernando-38409673 | Andrew-E-Arai-39229533 | Frank-H-Miller-39607141 | Shivraman-Giri-50140117 | Veronica-Rundell-50878442 | Zhi-Pei-Liang-57556316</t>
+        </is>
+      </c>
+      <c r="I167" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="J167" s="3" t="inlineStr">
+        <is>
+          <t>Georgeta Mihai | Pierre Yves Marie | James C Moon | Andreas Greiser | Daniel Messroghli | Kevin Walters | Matthias G. Friedrich | Jeff Fidler | Martin Prince | Norbert J Pelc | Garry Gold | Robert J Herfkens | Christine Mancini | Christine H Lorenz | Charles A Mckenzie | Frank Peeters | John Ridgway | Craig H Meyer | Laurent Huwart | Peter Boesiger | Mark Griswold | Martin Ugander | Debiao Li | Jayant A Talwalkar | Mohan U Sivananthan | William J. McKenna | Jean-Marie Escanyé | Zhifei Wen | Angel R Pineda | Richard D White | Wanyong Shin | Nabard Hassan | Orlando Simonetti | Anthony Aletras | Ralph Sinkus | Victor A Ferrari | Najat Salameh | Jeff Bulte | Lawrence M. Boxt | Leon C. ter Beek | Sven Zuehlsdorff | Scott Reeder | David Firmin | Elliot Mcveigh | Peter D Gatehouse | Nicolas Danchin | Jeanette Schulz-Menger | David Bluemke | Peter Kellman | Venkatesh Mani</t>
+        </is>
+      </c>
+      <c r="K167" s="3" t="n">
+        <v>39</v>
+      </c>
+      <c r="L167" s="3" t="inlineStr">
+        <is>
+          <t>MR imaging system for automatically providing incidental findings | Automatic registration of image series with varying contrast based on synthetic images derived from intensity behavior model | Method and system for retrospective image combination under minimal total deformation constrain for free-breathing cardiac magnetic resonance imaging with motion correction | GW24-e3663 T1 Mapping for Detection of Left Ventricular Myocardial Fibrosis in Hypertrophic Cardiomyopathy: A Preliminary Study | Fat Deposition in Dilated Cardiomyopathy Assessed by CMR | A preliminary study of MR T1 mapping for detection of left ventricular myocardial fibrosis in hypertrophic cardiomyopathy | Myocardial T2 Mapping With Respiratory Navigator and Automatic Nonrigid Motion Correction | Cardiac Magnetic Resonance T2 Mapping in the Monitoring and Follow-Up of Acute Cardiac Transplant Rejection: A Pilot Study. | MRI-Guided Biopsy to Correlate Tissue Specimens with MR Elastography Stiffness Readings in Liver Transplants | ECG-Gated Multiecho Dixon Fat-Water Separation in Cardiac MRI: Advantages Over Conventional Fat-Saturated Imaging | Accuracy of MR Elastography and Anatomic MR Imaging Features in the Diagnosis of Severe Hepatic Fibrosis and Cirrhosis | Motion correction for myocardial T1 mapping using image registration with synthetic image estimation | Myocardial Edema as Detected by Pre-Contrast T1 and T2 CMR Delineates Area at Risk Associated With Acute Myocardial Infarction | Motion Correction for Myocardial T1 Mapping using Image Registration with Synthetic Image Estimation | On the Mechanisms Enabling Myocardial Edema Contrast in bSSFP-Based Imaging Approaches | T-2-Weighted STIR Imaging of Myocardial Edema Associated With Ischemia-Reperfusion Injury: The Influence of Proton Density Effect on Image Contrast | Assessment of Chronic Hepatitis and Fibrosis: Comparison of MR Elastography and Diffusion-Weighted Imaging | Cardiac magnetic resonance T2 mapping for monitoring acute cardiac transplant rejection | Inline myocardial t2* mapping with iterative robust fitting | Improved motion correction using image registration based on variational synthetic image estimation: application to inline t1 mapping of myocardium | Quantitative T1-maps delineate myocardium at risk as accurately as T2-maps - experimental validation with microspheres | SCALE-PWI: A pulse sequence for absolute quantitative cerebral perfusion imaging | Improved R2* Measurement Accuracy with Absolute SNR Truncation and Optimal Coil Combination | 3D flow‐independent peripheral vessel wall imaging using T2‐prepared phase‐sensitive inversion‐recovery steady‐state free precession | Accelerating Time-Resolved MRA With Multiecho Acquisition | Coronary MRA at 3 T using 3d multi-interleaved multi-echo acquisition with varpro fat-water separation | Multiecho dixon fat and water separation method for diagnosing pericardial disease | Myocardial edema contrast in acute myocardial infarction: a comparative study of the sensitivity of different CMR Methods | Inline non-rigid motion-corrected t2 mapping of myocardium | 3D flow-insensitive vessel wall imaging using T2-prepared SSFP with PSIR | On the mechanism of myocardial edema contrast in T2-STIR images | Why do we see myocardial edema in acute myocardial infarcts with balanced SSFP imaging? | Multi-echo Dixon Fat and Water Separation Method for Detecting Fibro-fatty Infiltration in the Myocardium | Improved image quality in subtraction based non-contrast MRA using automated soft tissue motion correction with BRACE | Assessment of myocardial oxygenation changes in the presence of coronary artery stenosis with three dimensional cardiac phase-resolved SSFP BOLD imaging in canines | 1025 Multiecho dixon fat and water separation method for detecting fibro-fatty infiltration in the myocardium | Off-Resonance Angiography: A New Method to Depict Vessels-Phantom and Rabbit Studies | Positive contrast visualization of iron oxide-labeled stem cells using inversion-recovery with ON-resonant water suppression (IRON) | Society for Cardiovascular Magnetic Resonance 2008 – Los Angeles, 2-4 Feb 2008 Title: Multi-echo Dixon Fat and Water Separation Method for Detecting Fibro-fatty Infiltration in the Myocardium</t>
+        </is>
+      </c>
+      <c r="M167" s="3" t="inlineStr">
+        <is>
+          <t>Imaging | Image Registration | Image Reconstruction | Medical Imaging | Diagnostic Radiology | Diagnostic Imaging | Magnetic Resonance</t>
+        </is>
+      </c>
+    </row>
+    <row r="168" ht="80" customHeight="1" s="4">
+      <c r="B168" s="3" t="inlineStr">
+        <is>
+          <t>Alistair A Young</t>
+        </is>
+      </c>
+      <c r="C168" s="3" t="inlineStr">
+        <is>
+          <t>Alistair-Young-2</t>
+        </is>
+      </c>
+      <c r="D168" s="3" t="inlineStr">
+        <is>
+          <t>King's College London</t>
+        </is>
+      </c>
+      <c r="E168" s="3" t="n">
+        <v>48096</v>
+      </c>
+      <c r="F168" s="3" t="n">
+        <v>10543</v>
+      </c>
+      <c r="G168" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="H168" s="3" t="inlineStr">
+        <is>
+          <t>Steffen-Petersen | Denis-Loiselle | Kat-Gilbert | Abdallah-Hasaballa | Jeffrey-Omens | Maxime-Sermesant | Poul-Nielsen-2 | Martyn-Nash | Vicky-Wang-9 | Rob-Kirton | Ralph-Stewart | Malcolm-Legget | Charlene-Mauger-2 | Joao-Lima-71 | Daniel-Lee | John-Ormiston | David-Bluemke | Leon-Axel | Edward-Ferdian | Andreu-Taberner-2 | Bruce-Smaill | Gina-Quill | James-Perry-2 | Thiranja-Babarenda-Gamage | Alexander-Wilson | Avan-Suinesiaputra | Brett-Cowan | Susann-Beier | Oscar-Camara | Pau-Medrano-Gracia | Alan-Kadish | Cyril-Tous | Beau-Pontre | A-Kerr | Ian-Legrice | Greg-Sands | Carissa-G-Fonseca-13184255 | Boris-Lowe-2024297078 | R-Doughty-2062325466 | Sanjeet-Hegde-2105074885 | D-Zhao-2165481210 | I-LeGrice-34245813 | Christopher-J-Occleshaw-38315739 | Andrew-D-McCulloch-38432487 | Peter-Ruygrok-38476112 | Peter-Hunter-38525847 | J-Paul-Finn-39600823 | Mihaela-Pop-48169481 | Brett-Cowan-71960204 | Daniel-B-Ennis-9991438</t>
+        </is>
+      </c>
+      <c r="I168" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="J168" s="3" t="inlineStr">
+        <is>
+          <t>Ian Legrice | Steffen Erhard Petersen | Reza Razavi | Eike Nagel | Jane Francis | Philip J Kilner | Randall Britten | Nicholas Ayache | Pablo Lamata | Alejandro F Frangi | Jeffrey H Omens | Maxime Sermesant | Poul Michael Fønss Nielsen | Martyn P Nash | Vicky Yang Wang | Matthias G. Friedrich | Daniel C Lee | Nathaniel Reichek | Steven A Niederer | Hervé Delingette | Theo Arts | Michael Jerosch-Herold | Bruce H Smaill | Wenzhe Shi | David Nordsletten | Bharath Ambale-Venkatesh | Julius M Guccione | Dominique Chapelle | Avan Suinesiaputra | Brett R Cowan | Wenchao Tao | Wenjia Bai | Bo Li | Pau Medrano-Gracia | Alan Kadish | Abel Carneiro Lima | Nay Aung | David Firmin | Aaron Mark Lee | Elliot Mcveigh | Kat Gilbert | Gregory Burke | Diane Bild | Charlene Mauger | Joao A. C. Lima | David Bluemke | Kenneth Fung | Karim Lekadir | Leon Axel | Lawrence Dougherty</t>
+        </is>
+      </c>
+      <c r="K168" s="3" t="n">
+        <v>480</v>
+      </c>
+      <c r="L168" s="3" t="inlineStr">
+        <is>
+          <t>Machine learning outcome prediction using stress perfusion cardiac magnetic resonance and electronic health records | Whole Heart 3D Shape Reconstruction from Sparse Views: Leveraging Cardiac Computed Tomography for Cardiovascular Magnetic Resonance | Automated Estimation of Left Ventricular Diastolic Chamber Stiffness: Application to Patients with Heart Failure and Aortic Regurgitation | Generating Short-Axis DENSE Images from 4D XCAT Phantoms: A Proof-of-Concept Study | Left Ventricular Work and Power are Constant Despite Varying Cardiac Cycle Length—Implications for Patients with Atrial Fibrillation | Editorial: Current and future role of artificial intelligence in cardiac imaging, volume II | Machine Learning the Right Heart: Leveraging CMR for RV Volume Quantification From 3D Echocardiography | How Hypertension Alters Heart Work: A Pressure-Strain Analysis | Routine Non-Invasive Cardiac Imaging Indices Cannot Reliably Detect Elevated Left Ventricular Filling Pressure | 4D Flow Cardiovascular Magnetic Resonance-Derived Flow Biomarkers for Early Detection of Flow Abnormalities: A Multicohort New Zealand Based Study | Cardiac digital twins of the adult population: linking electrophysiological functions to anatomy | Correcting bias in cardiac geometries derived from multimodal images using spatiotemporal mapping | AI in the Real World | Automated segmentation of long and short axis DENSE cardiovascular magnetic resonance for myocardial strain analysis using spatio-temporal convolutional neural networks - Supplementary Material | Cerebrovascular super-resolution 4D Flow MRI – Sequential combination of resolution enhancement by deep learning and physics-informed image processing to non-invasively quantify intracranial velocity, flow, and relative pressure | Automated segmentation of long and short axis DENSE cardiovascular magnetic resonance for myocardial strain analysis using spatio-temporal convolutional neural networks | MACHINE LEARNING ANALYSIS OF ELECTRONIC HEALTH RECORDS AND CARDIAC MAGNETIC RESONANCE REPORTS AND RELATIONSHIPS WITH OUTCOMES: A SINGLE CENTER EXPERIENCE | A deep learning approach for fully automated cardiac shape modeling in tetralogy of Fallot | Super-resolution 4D flow MRI to quantify aortic regurgitation using computational fluid dynamics and deep learning | Biventricular shape modes discriminate pulmonary valve replacement in tetralogy of Fallot better than imaging indices | Biventricular Statistical Shape Atlas of Unloaded Reference Geometries: A Novel Method to Control for Hemodynamic Variations in End-Diastolic Pressure | Deep learning estimation of three-dimensional left atrial shape from two-chamber and four-chamber cardiac long axis views | Fast and Multi-Platform Motion Correction of Stress-Perfusion Cardiac MRI Using Principal Component Analysis and Deep Learning | Multi-modal Latent-Space Self-alignment for Super-Resolution Cardiac MR Segmentation | Comparison of Semi- and Un-Supervised Domain Adaptation Methods for Whole-Heart Segmentation | Extending DENSEanalysis for automated and faster DENSE strain processing | MITEA: A dataset for machine learning segmentation of the left ventricle in 3D echocardiography using subject-specific labels from cardiac magnetic resonance imaging | Assessment of Transcatheter heart valve Migration and Embolization Risk Following Valve-in-MAC | An automated method for BRISQUE quantification of image quality in echocardiography | Patient-specific fluid simulation of transcatheter mitral valve replacement in mitral annulus calcification | AI-AIF: Artificial intelligence-based arterial input function for quantitative stress perfusion cardiac magnetic resonance | Le Cœur en Sabot: shape associations with adverse events in repaired tetralogy of Fallot | Left ventricular anatomy in obstructive hypertrophic cardiomyopathy: beyond basal septal hypertrophy | Machine learning evaluation of LV outflow obstruction in hypertrophic cardiomyopathy using three-chamber cardiovascular magnetic resonance | Right ventricular quantification using 3D echocardiography: a comparison with CMR | An automated method for BRISQUE quantification of image quality in echocardiography | Multi-Ethnic Study of Atherosclerosis: Relationship between Left Ventricular Shape at Cardiac MRI and 10-year Outcomes | Principal Component Analysis and Deep Learning for Retrospective Motion Correction of Stress-Perfusion Cardiac MRI | Leveraging CMR for 3D echocardiography: an annotated multimodality dataset for AI | Predicting post-contrast information from contrast agent free cardiac MRI using machine learning: Challenges and methods | Estimating passive myocardial mechanical properties from 3D echocardiographic and haemodynamic measurements using personalised biomechanical modelling | Myocardial Mesostructure and Mesofunction | A Deep Learning-based Integrated Framework for Quality-aware Undersampled Cine Cardiac MRI Reconstruction and Analysis | A Deep Learning-based Integrated Framework for Quality-aware Undersampled Cine Cardiac MRI Reconstruction and Analysis | Surface Vision Transformers: Flexible Attention-Based Modelling of Biomedical Surfaces | CardiSort: a convolutional neural network for cross vendor automated sorting of cardiac MR images | Hemodynamic Modeling for Mitral Regurgitation | Improving automated segmentation of long and short axis cine DENSE data using 2D+time convolutional neural networks | Left ventricular dimensions and mass measurement from 3D echocardiography: are we there yet? | WSSNet: Aortic Wall Shear Stress Estimation Using Deep Learning on 4D Flow MRI | Deep Learning Analysis of Cardiac MRI in Legacy Datasets: Multi-Ethnic Study of Atherosclerosis | Right Ventricular Flow Vorticity Relationships With Biventricular Shape in Adult Tetralogy of Fallot | Quality-Aware Cine Cardiac MRI Reconstruction and Analysis from Undersampled K-Space Data | The Impact of Domain Shift on Left and Right Ventricle Segmentation in Short Axis Cardiac MR Images | Biventricular Mechanical Function in Cardiac Amyloidosis | A three-dimensional atlas of child's cardiac anatomy and the unique morphological alterations associated with obesity | Four-dimensional flow cardiovascular magnetic resonance in tetralogy of Fallot: a systematic review | The Future of Cardiac Magnetic Resonance Clinical Trials | Whole Heart Anatomical Refinement from CCTA using Extrapolation and Parcellation | Abstract 10282: Biventricular Shape Markers in Repaired Tetralogy of Fallot Associate with Pulmonary Valve Replacement Better Than Standard Clinical Indices | Abstract 8928: Le Coeur En Sabot: Shape and Regional Function Predict Adverse Outcome in Patients with Repaired Tetralogy of Fallot | Morphological Markers and Determinants of Left Ventricular Systolic Dysfunction in Repaired Tetralogy of Fallot | Deep Learning Analysis of Cardiac MRI in Legacy Datasets: Multi-Ethnic Study of Atherosclerosis | Flow vorticity relationships with right ventricular geometry in adult tetralogy of Fallot | Longitudinal strain measurement by 3D modelling from cine CMR: feasibility and comparison to 2D speckle tracking echocardiography | Derivation of in vivo pressure-volume loops for post-heart transplant patients using real-time 3D echocardiography and left ventricular catheterisation | Right-left ventricular shape variations in tetralogy of Fallot: associations with pulmonary regurgitation | The Impact of Domain Shift on Left and Right Ventricle Segmentation in Short Axis Cardiac MR Images | Systematic Comparison of Left Ventricular Geometry Between 3D-Echocardiography and Cardiac Magnetic Resonance Imaging | CardiSort: a convolutional neural network for cross vendor automated sorting of cardiac MR images | An Implementation of Patient-Specific Biventricular Mechanics Simulations With a Deep Learning and Computational Pipeline | Quality-aware Cine Cardiac MRI Reconstruction and Analysis from Undersampled k-space Data | Assessment of Thrombotic Risk following Transcatheter Mitral Valve Replacement | Cerebrovascular super-resolution 4D Flow MRI – using deep learning to non-invasively quantify velocity, flow, and relative pressure | Noninvasive quantification of cerebrovascular pressure changes using 4D Flow MRI | Automatic segmentation of the aorta on multi-center and multi-vendor phase-contrast enhanced magnetic resonance angiographies and the advantages of transfer learning | Sensitivity of Myocardial Stiffness Estimates to Inter-observer Variability in LV Geometric Modelling | Domain Adaptation for Automatic Aorta Segmentation of 4D Flow Magnetic Resonance Imaging Data from Multiple Vendor Scanners | Whole Heart Anatomical Refinement from CCTA Using Extrapolation and Parcellation | In Vivo Pressure-Volume Loops and Chamber Stiffness Estimation Using Real-Time 3D Echocardiography and Left Ventricular Catheterization – Application to Post-heart Transplant Patients | Comparison of Global Longitudinal Strain Measurement by Cardiac Magnetic Resonance Imaging and Speckle Tracking Echocardiography | Heterogeneous Differences in Regional Left Ventricular Geometry Between 3D-Echocardiography and Cardiac Magnetic Resonance Imaging | ACE Inhibitor Treatment Normalizes Apparent Diffusion Coefficient in Spontaneously Hypertensive Rats | Automated analysis of 3D-echocardiography using spatially registered patient-specific CMR meshes | The strain-7 study: multimodal, multivendor, multifield strength, scan:rescan comparison of global longitudinal and circumferential strain in healthy volunteers | Ventricular myocyte tractography in specimens of tetralogy of Fallot, dextro and levo transposition of the great arteries and systemic right ventricle. | Statistical Atlases and Computational Models of the Heart. M&amp;Ms and EMIDEC Challenges 11th International Workshop, STACOM 2020, Held in Conjunction with MICCAI 2020, Lima, Peru, October 4, 2020, Revised Selected Papers: 11th International Workshop, STACOM 2020, Held in Conjunction with MICCAI 2020, Lima, Peru, October 4, 2020, Revised Selected Papers | Effects of CPAP treatment on cardiac structure and function in individuals with obstructive sleep apnea and cardiovascular disease: a prospective 6-month randomised control trial | Ex vivo cardiovascular magnetic resonance diffusion weighted imaging in congenital heart disease, an insight into the microstructures of tetralogy of Fallot, biventricular and univentricular systemic right ventricle | Computational analysis of cardiac structure and function in congenital heart disease: Translating discoveries to clinical strategies | Personalisation of a Circulation Model Using a Modified Kalman Filter | Comparison of MRI-Derived Left Ventricular End-Diastolic Pressure-Volume Relationship with Ex Vivo Measurements | Editorial: Current and Future Role of Artificial Intelligence in Cardiac Imaging | Reproducibility of diffusion tensor imaging (DTI) on 12 clinical scanners: Towards validation of cardiac DTI sequences | 09131012.pdf | Myocardial Laminar Organization Is Retained in Angiotensin-Converting Enzyme Inhibitor Treated SHRs | "AI in Medical Imaging Informatics: Current Challenges and Future Directions." | Reproducibility of diffusion tensor imaging (DTI) on 12 clinical scanners: Towards validation of cardiac DTI sequences | Artificial Intelligence in Cardiac Imaging With Statistical Atlases of Cardiac Anatomy | AI in Medical Imaging Informatics: Current Challenges and Future Directions</t>
+        </is>
+      </c>
+      <c r="M168" s="3" t="inlineStr">
+        <is>
+          <t>Cardiac Imaging | CMR | Cardiovascular | Magnetic Resonance | Myocardial Infarction | Heart</t>
+        </is>
+      </c>
+    </row>
+    <row r="169" ht="80" customHeight="1" s="4">
+      <c r="B169" s="3" t="inlineStr">
+        <is>
+          <t>Helen Chmura</t>
+        </is>
+      </c>
+      <c r="C169" s="3" t="inlineStr">
+        <is>
+          <t>Helen-Chmura</t>
+        </is>
+      </c>
+      <c r="D169" s="3" t="inlineStr">
+        <is>
+          <t>US Forest Service</t>
+        </is>
+      </c>
+      <c r="E169" s="3" t="n">
+        <v>6629</v>
+      </c>
+      <c r="F169" s="3" t="n">
+        <v>837</v>
+      </c>
+      <c r="G169" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="H169" s="3" t="inlineStr">
+        <is>
+          <t>Brian-Barnes-8 | Ashley-Asmus | Zoltan-Nemeth-11 | Cory-Williams-6 | Karen-Word | Elizabeth-Schultz-7 | Marilyn-Ramenofsky | Simone-Meddle | Scott-Goetz-2 | Heather-Watts-2 | Laura-Gough-3 | Helen-Christian-2 | Lee-Vierling | Kerri-Vierling | Christopher-Tonra | Daniel-Blumstein | Toke-Hoye | Joseph-Holbrook | Junior-Tremblay | C-Loren-Buck | Rebecca-Calisi | Troy-Magney | Jamie-Cornelius-2 | Jan-Eitel | Simeon-Lisovski | Emily-Rivest | Kevin-Guay | Kathleen-Hunt-4 | Heather-Greaves-2 | Tina-Wey | Bruce-Stein | Kathryn-Wilsterman-2 | Jesse-Krause | Jonathan-Perez-9 | Shannan-Sweet | Amanda-Rodewald | Kathleen-Brazeal | Bryant-Dossman | Victor-Zhang-2 | Scott-A-MacDougall-Shackleton-10590587 | Natalie-T-Boelman-10629946 | Lisa-N-Quach-2082242185 | Michaela-A-McGuigan-2082273353 | Ben-Saer-2139972345 | Brian-McRae-Barnes-2156516398 | Cassandra-Duncan-2157069947 | Jeanette-T-Moore-2222067831 | Thomas-P-Hahn-38726529 | John-C-Wingfield-39232930</t>
+        </is>
+      </c>
+      <c r="I169" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="J169" s="3" t="inlineStr">
+        <is>
+          <t>George Ed Bentley | Brian Barnes | Cory Williams | Ellen Ketterson | Gregory F Ball | Frédéric Angelier | Marilyn Ramenofsky | Takashi Yoshimura | Nicola Saino | Øivind Tøien | Simone L Meddle | Peter J Sharp | Scott J Goetz | Masayuki Iigo | Shizufumi Ebihara | Stephan J Schoech | Masaru Wada | Bengt Silverin | Phillip Gienapp | Laura Gough | Nicole Perfito | Theunis Piersma | Michael J Sheriff | Wolfgang Goymann | Gaius R Shaver | Toke Thomas Høye | Niels Martin Schmidt | C. Loren Buck | Christiaan Both | L. Michael Romero | Michaela Hau | Anders Pape Moller | Barbara Helm | Noah T Ashley | Kathleen E Hunt | Melanie Richter | Jesse S Krause | Jonathan Pérez | Shannan K. Sweet | Marcel E Visser | Olivier Chastel | Peter Marra | Ryan Norris | Tim Sparks | Creagh Breuner | Ashley Asmus | Diego Rubolini | Eric Post | Mads Forchhammer | Lee Astheimer</t>
+        </is>
+      </c>
+      <c r="K169" s="3" t="n">
+        <v>43</v>
+      </c>
+      <c r="L169" s="3" t="inlineStr">
+        <is>
+          <t>Climate change is altering the physiology and phenology of an arctic hibernator | Songbirds initiate migratory flights synchronously relative to civil dusk | Pyrodiversity in a Warming World: Research Challenges and Opportunities | A cross-taxonomic perspective on the integration of temperature cues in vertebrate seasonal neuroendocrine pathways | Effects of Spring Warming on Seasonal Neuroendocrinology and Activation of the Reproductive Axis in Hibernating Arctic Ground Squirrels | Hypothalamic remodeling of thyroid hormone signaling during hibernation in the arctic ground squirrel | Sex-Differences in Phenology: A Tinbergian Perspective | Annual schedules | Annual regulation of adrenocortical function in migrant and resident subspecies of white-crowned sparrow | Plasticity and repeatability of activity patterns in free-living Arctic ground squirrels | Autumn migratory departure is influenced by reproductive timing and weather in an Arctic passerine | Non‐photic environmental cues and avian reproduction in an era of global change | Ultrastructural changes of neuroendocrine and endocrine responding cells associated with reproductive timing in a hibernating mammal | Environmental heterogeneity affects seasonal variation in thyroid hormone physiology of free-living arctic ground squirrels | The mechanisms of phenology: the patterns and processes of phenological shifts | Supplementary data 2 | Supplementary data 1 | Biologging Physiological and Ecological Responses to Climatic Variation: New Tools for the Climate Change Era | Shrub shading moderates the effects of weather on arthropod activity in arctic tundra | Weathering the storm: Do arctic blizzards cause repeatable changes in stress physiology and body condition in breeding songbirds? | http://advances.sciencemag.org/cgi/content/full/4/6/eaaq1084/DC1 | Late‐season snowfall is associated with decreased offspring survival in two migratory arctic‐breeding songbird species | Eavesdropping on the Arctic: Automated bioacoustics reveal dynamics in songbird breeding phenology | Tundra avian community composition during recovery from the Anaktuvuk River Fire | Extreme spring conditions in the Arctic delay spring phenology of long-distance migratory songbirds | Effects of a social cue on reproductive development and pre-alternate molt in seasonally breeding migrant and resident female songbirds ( Zonotrichia leucophrys ) | How birds cope physiologically and behaviourally with extreme climatic events | Assessing the sensitivity of foraging and vigilance to internal state and environmental variables in yellow-bellied marmots (Marmota flaviventris) | Airborne laser scanning and spectral remote sensing give a bird's eye perspective on arctic tundra breeding habitat at multiple spatial scales | The effect of extreme spring weather on body condition and stress physiology in Lapland longspurs and white-crowned sparrows breeding in the Arctic | The stress response is attenuated during inclement weather in parental, but not in pre-parental, Lapland longspurs (Calcarius lapponicus) breeding in the Low Arctic | Nestling growth rates in relation to food abundance and weather in the Arctic | Breeding on the leading edge of a northward range expansion: differences in morphology and the stress response in the arctic Gambel’s white-crowned sparrow | Annual Hematocrit Profiles in Two Subspecies of White-Crowned Sparrow: A Migrant and a Resident Comparison | Supplementary Material 1 | Supplementary Material 2 | Supplementary Material | Supplementary Material | A Mechanistic Approach to Understanding Range Shifts in a Changing World: What Makes a Pioneer? | Reproductive success in the White-crowned sparrow (Zonotrichia leucophrys gambelli) and Lapland longspur (Calcarius lapponicus): Reproductive Timing and Implications for Global Change | Annual Schedules | Greater shrub dominance alters breeding habitat and food resources for migratory songbirds in Alaskan arctic tundra | Moving the Conservation Goalposts: A Review of Climate Adaptation Literature</t>
+        </is>
+      </c>
+      <c r="M169" s="3" t="inlineStr">
+        <is>
+          <t>Endocrinology | Biologging | Telemetry | RIA | Phenology | Quantitative PCR | Statistical Methods</t>
+        </is>
+      </c>
+    </row>
+    <row r="170" ht="80" customHeight="1" s="4">
+      <c r="B170" s="3" t="inlineStr">
+        <is>
+          <t>Craig Heller</t>
+        </is>
+      </c>
+      <c r="C170" s="3" t="inlineStr">
+        <is>
+          <t>Craig-Heller</t>
+        </is>
+      </c>
+      <c r="D170" s="3" t="inlineStr">
+        <is>
+          <t>Stanford University</t>
+        </is>
+      </c>
+      <c r="E170" s="3" t="n">
+        <v>48647</v>
+      </c>
+      <c r="F170" s="3" t="n">
+        <v>18243</v>
+      </c>
+      <c r="G170" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="H170" s="3" t="inlineStr">
+        <is>
+          <t>Phung-Gip | Frank-Sharp | Jane-Antony-2 | Bayarsaikhan-Chuluun-2 | Thomas-Kilduff | Luis-De-Lecea | Robert-Sapolsky | Jamie-Zeitzer | Bruce-Ohara | Christelle-Peyron | Paul-Franken | Marcos-Frank | Rebecca-Prosser | Dennis-Grahn | William-Dement | Juergen-Markl | Fabian-Xose-Fernandez | Craig-Garner-2 | Gary-Colliver | Fiona-Watson | Nathan-Fisher-12 | John-Dark-3 | Asya-Rolls | Grant-Lipman | Benedetta-Nicolis-Di-Robilant | Greg-Florant-2 | Joseph-Miller-11 | Damien-Colas-3 | David-Hillis | Vinh-H-Cao-11400042 | Sally-D-Hacker-14153670 | C-M-Radeke-2021266852 | R-Graf-2047926719 | H-T-Hammel-2126909750 | L-Trachsel-34682370 | Steven-F-Glotzbach-3776028 | Grace-Hagiwara-38634095 | Irving-Zucker-39067455 | Anthony-N-van-den-Pol-39231916 | Norman-F-Ruby-39492477 | Dale-M-Edgar-4745001 | David-Sadava-54233593 | Dennis-Grahn-5524504 | Louise-Bitting-5807235 | J-M-Walker-63762658 | Joel-H-Benington-6464179 | R-J-Berger-66522732 | Steven-W-Wiler-7455653 | Jennie-E-Larkin-9825543</t>
+        </is>
+      </c>
+      <c r="I170" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="J170" s="3" t="inlineStr">
+        <is>
+          <t>Charles Fuller | Martina Blank | Giulio Tononi | Martin Ralph | Thomas S Kilduff | Luis de Lecea | Samer Hattar | Louis Sokoloff | Jamie Zeitzer | Dennis Mcginty | Derk-Jan Dijk | Ted Abel | Alexander M Kleschevnikov | Bruce F O'Hara | Paul Franken | Marcos G Frank | Martha U Gillette | Rebecca A Prosser | William C Dement | Shigenobu Shibata | Charles Czeisler | Priyattam J Shiromani | William Mobley | Gordon G Giesbrecht | Mark S Blumberg | Joseph S Takahashi | John Dark | Gyorgy Buzsáki | Mehdi Tafti | Sara Aton | Stephen Mangar | Pierre Magistretti | Tom Deboer | Pavel V Belichenko | Tom Curran | Irene Tobler | Joseph D Miller | Damien Colas | Benjamin Rusak | James m Krueger | Jeanne F Duffy | Frank R Sharp | Ralph Mistlberger | Robert Sapolsky | Robert Stickgold | Dwight Nelson | Majid Mirmiran | David A. McCormick | Fabian-Xosé Fernandez | Craig Garner</t>
+        </is>
+      </c>
+      <c r="K170" s="3" t="n">
+        <v>350</v>
+      </c>
+      <c r="L170" s="3" t="inlineStr">
+        <is>
+          <t>Reversible Suppression of Fear Memory Recall by Transient Circadian Arrhythmia | Handling, task complexity, time-of-day, and sleep deprivation as dynamic modulators of recognition memory in mice | Inhibiting USP16 rescues stem cell aging and memory in an Alzheimer's model | “Connecting concepts helps put main ideas together”: cognitive load and usability in learning biology with an AI-enriched textbook | Aging disrupts circadian gene regulation and function in macrophages | Erratum zu: Purves Biologie | Enhancing sleep after training improves memory in Down syndrome model mice | Astrocytes are More Dynamic Players in Brain Functions than Previously Recognized | Question what is “known” | Disruption of circadian timing increases synaptic inhibition and reduces cholinergic responsiveness in the dentate gyrus | The functions of sleep | Inhibiting USP16 rescues stem cell aging and memory in an Alzheimer's model | Loss of Circadian Timing Disrupts Theta Episodes during Object Exploration | Sleep Research Society Statement on Diversity, Inclusion, and Equity | Engaging With Biology by Asking Questions: Investigating Students' Interaction and Learning With an Artificial Intelligence- Enriched Textbook | Suprachiasmatic Lesions Restore Object Recognition in Down Syndrome Model Mice | Biozönosen | Proteine, Kohlenhydrate und Lipide | Samenlose Pflanzen: Übergang vom Wasser ans Land | Stoffwechselwege zur Gewinnung chemischer Energie | Rekombinante DNA und Gentechnik | Bakterien, Archaeen und Viren | Gene, Entwicklung und Evolution | Nucleinsäuren und die Entstehung des Lebens | Mineralstoffversorgung der Pflanzen | Physiologie, Homöostase und Temperaturregulation | Die Entstehung und Diversifizierung der Eukaryoten | Hormone der Tiere | Entwicklung der Tiere | Regulation des Pflanzenwachstums | Die Evolution und Vielfalt der Pilze | Die Biosphäre im Wandel | Kreislaufsysteme | Regulation der Genexpression | Das Nervensystem von Säugern: Struktur und höhere Funktionen | Prozesse der Evolution | Deuterostomier | Wechselbeziehungen zwischen Arten | Die Geschichte des Lebens auf der Erde | Populationen | DNA und ihre Funktion bei der Vererbung | Fortpflanzung bei Blütenpflanzen | Die Rekonstruktion der Phylogenie und ihre Anwendungen | Genmutationen und molekulare Medizin | Fortpflanzung der Tiere | Die Entstehung der Tiere und die Evolution ihrer Körperbaupläne | Reaktionen der Pflanze auf Umweltstress | Transport in Pflanzen | Gasaustausch | Sensorische Systeme | Verhalten von Tieren | Zellen: die kleinsten Einheiten des Lebens | Signalübertragung und Kommunikation zwischen Zellen | Energie, Enzyme und Stoffwechsel | Protostomier | Von der DNA zum Protein: die Genexpression | Nervenzellen, Gliazellen und Nervensysteme | Salzhaushalt, Wasserhaushalt und Stickstoffausscheidung | Artbildung | Die Erforschung des Lebens | Ökosysteme | Zelluläre Membranen | Vererbung, Gene und Chromosomen | Die Evolution der Samenpflanzen | Immunologie: Abwehrsysteme der Tiere | Genome | Der Pflanzenkörper | Zellzyklus und Zellteilung | Ernährung, Verdauung und Resorption | Leben und Chemie: kleine Moleküle | Abiotische Umwelt und Biogeographie der Organismen | Photosynthese: Energie aus dem Sonnenlicht | Muskeln und Skelette | Evolution von Genen und Genomen | What is a Bout of Hibernation? | Immediate Early Gene Expression in Brain Across the Hibernation Cycle | Purves Biologie | Explicating the Logic of Biology to Support Critical Thinking | Usp16 modulates Wnt signaling in primary tissues through Cdkn2a regulation | Supplementary Material 2 | Supplementary Material 1 | Supplementary Material 3 | Supplementary Material 4 | Usp16 modulates Wnt signaling in primary tissues through Cdkn2a regulation | A method to reduce heat strain while clad in encapsulating outerwear | Functional Interactions Between Sleep and Circadian Rhythms in Learning and Learning Disabilities | The Function(s) of Sleep | Sleep: Development and Regulation | Scheduled feeding restores memory and modulates c-Fos expression in the suprachiasmatic nucleus and septohippocampal complex | Supplementary Material | A Novel Cooling Method and Comparison of Active Rewarming of Mildly Hypothermic Subjects | Development of Circadian Sleep Regulation in the Rat: A Longitudinal Study Under Constant Conditions | Short-term treatment with flumazenil restores long-term object memory in a mouse model of Down syndrome | A Novel Cooling Method and Comparison of Active Rewarming of Mild Hypothermia | Cyclooxygenase inhibition targets neurons to prevent early behavioural decline in Alzheimer’s disease model mice | Sleep disruption impairs hematopoietic stem cell transplantation in mice | Supplementary Material | Reentrainment Impairs Spatial Working Memory until Both Activity Onset and Offset Reentrain | A Chemical Heat Pack–Based Method For Consistent Heating of Intravenous Fluids | Loss of Melanopsin Photoreception and Antagonism of the Histamine H3 Receptor by Ciproxifan Inhibit Light-Induced Sleep in Mice</t>
+        </is>
+      </c>
+      <c r="M170" s="3" t="inlineStr">
+        <is>
+          <t>Circadian Rhythms</t>
+        </is>
+      </c>
+    </row>
+    <row r="171" ht="80" customHeight="1" s="4">
+      <c r="B171" s="3" t="inlineStr">
+        <is>
+          <t>Louise Showe</t>
+        </is>
+      </c>
+      <c r="C171" s="3" t="inlineStr">
+        <is>
+          <t>Louise-Showe</t>
+        </is>
+      </c>
+      <c r="D171" s="3" t="inlineStr">
+        <is>
+          <t>Wistar Institute</t>
+        </is>
+      </c>
+      <c r="E171" s="3" t="n">
+        <v>26651</v>
+      </c>
+      <c r="F171" s="3" t="n">
+        <v>10426</v>
+      </c>
+      <c r="G171" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="H171" s="3" t="inlineStr">
+        <is>
+          <t>Susan-Bates | Brian-Barnes-8 | Andrew-Kossenkov | Carla-Nichols | Mk-Showe | Karam-Mounzer | Joerg-Kistler | Vadim-Fedorov-2 | Anil-Vachani | Carmela-Vittorio | Qin-Liu-39 | Oivind-Toien | Fang-Lu-4 | Anna-Goropashnaya | Ramana-Davuluri | Alain-Rook-2 | Agata-Giallongo-2 | Paul-Lieberman-2 | Bernice-Benoit | Jay-Kostman-2 | William-Rom-2 | Hildegund-Ertl | Giorgio-Trinchieri | Kazuko-Nishikura | Laszlo_Kari | Emmanuel-Skordalakes | Raj-Kurupati | Richard-Harvey-22 | Noor-Dawany | Cris-Constantinescu | Luis-Montaner | Andrea-Raymond | Malik-Yousef | Salvatore-Feo | Manjit-K-Braitch-14552266 | Andrey-Loboda-2201839642 | Malavika-S-Giri-34886387 | Celia-Chang-38506763 | David-W-Speicher-38545265 | Maria-Wysocka-38966648 | Bethsebah-Gekonge-39207752 | Steven-M-Albelda-39445855 | M-Ballantine-39471818 | Qihong-Huang-39568787 | G-Trinchieri-39823450 | C-M-Croce-39953378 | Carlo-M-Croce-39980191 | Michael-Nebozhyn-56099907 | Donna-Williams-61592315 | Lin-Zhang-64998273</t>
+        </is>
+      </c>
+      <c r="I171" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="J171" s="3" t="inlineStr">
+        <is>
+          <t>Dezso Peter Virok | Brian Barnes | Ueli Aebi | Elaine S Jaffe | Pablo Tamayo | Madeleine Duvic | Anil Vachani | Carmela C Vittorio | James Cheverud | Lori Frappier | Lindsay W Black | Ellen J Kim | Lars Rogge | Richard A Lempicki | David Botstein | Maria Grazia Bernengo | Richard Piekarz | Ramana V Davuluri | Paul Lieberman | James D Gorham | Bernice Benoit | Titia de Lange | Beverly S Emanuel | William N Rom | Giorgio Trinchieri | Kazuko Nishikura | Patrick O'Reilly Brown | Rebecca A Taub | Phillip Scott | Rosemary Watt | Cris S Constantinescu | Cole Trapnell | Jacqueline M Junkins-Hopkins | Luis Montaner | Francesco Sinigaglia | Malik Yousef | Richard Hoppe | Stuart R Lessin | Dario Altieri | Riccardo Dalla-Favera | Susan Bates | Andrew Kossenkov | Carla Sue Nichols | David Presky | M.K. Showe | Robert Tibshirani | Alain Rook | Ulrich Gubler | Hildegund Ertl | Ellen heber-katz</t>
+        </is>
+      </c>
+      <c r="K171" s="3" t="n">
+        <v>332</v>
+      </c>
+      <c r="L171" s="3" t="inlineStr">
+        <is>
+          <t>GediNET for discovering gene associations across diseases using knowledge based machine learning approach | Telomere dysfunction implicates POT1 in patients with idiopathic pulmonary fibrosis | Functional Annotation of MicroRNAs Using Existing Resources | Lack of Atorvastatin Effect on Monocyte Gene Expression and Inflammatory Markers in HIV-1- infected ART-suppressed Individuals at Risk of non-AIDS Comorbidities | Clinical presentation of COVID-19 – a model derived by a machine learning algorithm | A multi-omics approach to Epstein-Barr virus immortalization of B-cells reveals EBNA1 chromatin pioneering activities targeting nucleotide metabolism | Recursive Cluster Elimination based Rank Function (SVM-RCE-R) implemented in KNIME | PAF-R on activated T cells: Role in the IL-23/Th17 pathway and relevance to multiple sclerosis | Recursive Cluster Elimination based Rank Function (SVM-RCE-R) implemented in KNIME | SATB1 as a novel therapeutic target for methyltransferase inhibitors against Cutaneous T Cell Lymphoma | Epigenetic specifications of host chromosome docking sites for latent Epstein-Barr virus | Evidence for Persistent Monocyte and Immune Dysregulation After Prolonged Viral Suppression Despite Normalization of Monocyte Subsets, sCD14 and sCD163 in HIV-Infected Individuals | Involvement of condensin in cellular senescence through gene regulation and compartmental reorganization | Abstract NT-093: THE N6-METHYLATION OF ADENOSINE (M6A) IN FZD10 MRNA CONTRIBUTES TO RESISTANCE TO PARP INHIBITOR | NK Response Correlates with HIV Decrease in Pegylated IFN-α2a–Treated ART-Suppressed Subjects | N6-methylation of adenosine (m6A) of FZD10 mRNA contributes to PARP inhibitor resistance | A Gene Expression Classifier from Whole Blood Distinguishes Benign from Malignant Lung Nodules Detected by Low-Dose CT | Identification of ‘stress and Ca++ metabolism related gene expression’ in wild Peromyscus exposed to environmental lead using combinatorial data from Mus cDNA microarrays and blood metabolites | Selection of Significant Clusters of Genes Based on Ensemble Clustering and Recursive Cluster Elimination (RCE) | The effect of timing of influenza vaccination and sample collection on antibody titers and responses in the aged | Supplementary Material | ARTICLE Structural and functional analysis of the human POT1-TPP1 telomeric complex | ADAR1 controls apoptosis of stressed cells by inhibiting Staufen1-mediated mRNA decay | Supplementary Information | Age-related changes in the gene expression profile of antigen-specific mouse CD8+ T cells can be partially reversed by blockade of the BTLA/CD160 pathways during vaccination | Supplementary Material | BET inhibitors suppress ALDH activity by targeting ALDH1A1 super-enhancer in ovarian cancer | Transgenic Expression of Mitochondrial Chaperone TRAP1 Accelerates Prostate Cancer Development | A Blood Based Non-small Cell Lung Cancer Diagnostic | TIGIT and Helios are highly expressed on CD4(+) T cells in Sezary syndrome patients | Race-related differences in antibody responses to the inactivated influenza vaccine are linked to distinct pre-vaccination gene expression profiles in blood | Supplementary Material 2 | Supplementary Material 1 | Supplementary Material | Age-related changes in the transcriptome of antibody-secreting cells | Supplementary Material 1 | Supplementary Material 3 | Supplementary Material 2 | The mRNA-edited form of GABRA3 suppresses GABRA3-mediated Akt activation and breast cancer metastasis | Supplementary Information | HIV-1 Negative Female Sex Workers Sustain High Cervical IFNε, Low Immune Activation and Low Expression of HIV-1 Required Host Genes | Telomeric repeat-containing RNA (TERRA) constitutes a nucleoprotein component of extracellular inflammatory exosomes | In-Depth, Label-Free Analysis of the Erythrocyte Cytoplasmic Proteome in Diamond Blackfan Anemia Identifies a Unique Inflammatory Signature | Identification of MEF2B, EBF1, and IL6R as direct gene targets of EBNA1 critical for EBV-infected B-lymphocyte survival | Interaction between TBP and Condensin Drives the Organization and Faithful Segregation of Mitotic Chromosomes | AKAP4 is a circulating biomarker for non-small cell lung cancer | Supplementary Material | Romidepsin in Peripheral and Cutaneous T-Cell Lymphoma: Mechanistic Implications from Clinical and Correlative Data | Effects of pro-inflammatory cytokines on cannabinoid CB1 and CB2 receptors in immune cells | Comparative functional genomics of adaptation to muscular disuse in hibernating mammals | JID 2014 MF CD164 FCRL3 | Inflammation and Its Correlates in Regenerative Wound Healing: An Alternate Perspective | ID1 Promotes Breast Cancer Metastasis by S100A9 Regulation | The transcription factor FOXP1 is a critical negative regulator of the differentiation of follicular helper T cells | 944292 1 | Fine-mapping quantitative trait loci affecting murine external ear tissue regeneration in the LG/J by SM/J advanced intercross line | Identification of a 251 Gene Expression Signature That Can Accurately Detect M-tuberculosis in Patients with and without HIV Co-Infection | Isoform-level gene signature improves prognostic stratification and accurately classifies glioblastoma subtypes | Supplementary Data | The p130 Isoform of Angiomotin Is Required for Yap-Mediated Hepatic Epithelial Cell Proliferation and Tumorigenesis | Abstract 3399: Resistance to the histone deacetylase inhibitor romidepsin is associated with degradation of Bim following MAPK pathway activation. | Abstract 5597: Molecular classification of glioblastoma multiforme using isoform-level gene expression signatures. | CD164 and FCRL3 are highly expressed on CD4+CD26- T cells in sézary syndrome patients | Supplementary Material | Single Cell Analysis of RNA-mediated Histone H3.3 Recruitment to a Cytomegalovirus Promoter-regulated Transcription Site | MAPK pathway activation leads to Bim loss and histone deacetylase inhibitor resistance: rationale to combine romidepsin with an MEK inhibitor | Cyclophilin D Extramitochondrial Signaling Controls Cell Cycle Progression and Chemokine-Directed Cell Motility. | Correlates of relative resistance against low-dose rectal simian immunodeficiency virus challenges in peripheral blood mononuclear cells of vaccinated rhesus macaques | The peripheral immune response and lung cancer prognosis | Human breast cancer associated fibroblasts exhibit subtype specific gene expression profiles | Additional file 2 | Additional file 3 | Additional file 4 | Additional file 1 | Constitutive Gene Expression in Monocytes from Chronic HIV-1 Infection Overlaps with Acute Toll-Like Receptor Induced Monocyte Activation Profiles | Table S1 | Table S2 | Cohesins Repress Kaposi's Sarcoma-Associated Herpesvirus Immediate Early Gene Transcription during Latency | Retinoblastoma protein induction by HIV viremia or CCR5 in monocytes exposed to HIV-1 mediates protection from activation-induced apoptosis: Ex vivo and in vitro study | Chk2 Phosphorylation of Survivin-Delta Ex3 Contributes to a DNA Damage-Sensing Checkpoint in Cancer | Gene expression profiling of flaxseed in mouse lung tissues-modulation of toxicologically relevant genes | Additional file 1 | The histone deacetylase inhibitor, romidepsin, suppresses cellular immune functions of cutaneous T-cell lymphoma patients | Peripheral Immune Cell Gene Expression Predicts Survival of Patients with Non-Small Cell Lung Cancer | Table S2 | Figure S1 | Table S3 | Table S1 | The Rac1 splice form Rac1b promotes K-ras-induced lung tumorigenesis | Identification of Host-Chromosome Binding Sites and Candidate Gene Targets for Kaposi's Sarcoma-Associated Herpesvirus LANA | Supplementary Material | Preservation of bone mass and structure in hibernating black bears (Ursus americanus) through elevated expression of anabolic genes | Delta-Aminolevulinate-Induced Host-Parasite Porphyric Disparity for Selective Photolysis of Transgenic Leishmania in the Phagolysosomes of Mononuclear Phagocytes: a Potential Novel Platform for Vaccine Delivery | Inhibition of Cell-Mediated Immunity by the Histone Deacetylase Inhibitor Vorinostat:Implications for Therapy of Cutaneous T-Cell Lymphoma | Synergistic Enhancement of Cellular Immune Responses by the Novel Toll Receptor 7/8 Agonist 3M 007 and Interferon-γ: Implications for Therapy of Cutaneous T-Cell Lymphoma | Resection of Non-Small Cell Lung Cancers Reverses Tumor-Induced Gene Expression Changes in the Peripheral Immune System | IL-12 inhibits glucocorticoid-induced T cell apoptosis by inducing GMEB1 and activating PI3K/Akt pathway | Alternative transcription exceeds alternative splicing in generating the transcriptome diversity of cerebellar development | Peripheral Blood Mononuclear Cell Gene Expression And Survival In Non-Small Cell Lung Cancer | Modulation of gene expression in heart and liver of hibernating black bears (Ursus americanus)</t>
+        </is>
+      </c>
+      <c r="M171" s="3" t="inlineStr">
+        <is>
+          <t>Gene Expression | Genomics | Cancer Biomarkers | Sequencing | Biomedical Science | Bioinformatics and Computational Biology | Genetics | Proteins | DNA | RNA</t>
+        </is>
+      </c>
+    </row>
+    <row r="172" ht="80" customHeight="1" s="4">
+      <c r="B172" s="3" t="inlineStr">
+        <is>
+          <t>Kevin Luk</t>
+        </is>
+      </c>
+      <c r="C172" s="3" t="inlineStr">
+        <is>
+          <t>Kevin-Luk</t>
+        </is>
+      </c>
+      <c r="D172" s="3" t="inlineStr">
+        <is>
+          <t>University of Massachusetts Medical School</t>
+        </is>
+      </c>
+      <c r="E172" s="3" t="n">
+        <v>8274</v>
+      </c>
+      <c r="F172" s="3" t="n">
+        <v>1246</v>
+      </c>
+      <c r="G172" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="H172" s="3" t="inlineStr">
+        <is>
+          <t>Yetao-Wang-2 | Mehmet-Fatih-Bolukbasi-2 | Nadia-Amrani-2 | Jooyoung-Lee-16 | Jeremy-Luban | Luca-Pinello | Connor-Mcguckin | Kendell-Clement | Selami-Demirci | Lihua-Zhu-6 | Christian-Brendel | Liu-Pengpeng | Juan-Haro-Mora | Daniel-Bauer-22 | Chunyan-Ren | Feston-Idrizi | Yuxuan-Wu-6 | Aamir-Mir-4 | Jing-Zeng-2 | Erik-Sontheimer | Stacy-A-Maitland-2046748746 | Mitchel-A-Cole-2123075880 | Shondra-M-Pruett-Miller-2132013170 | Esther-Mintzer-2135147290 | Shengdar-Q-Tsai-2136936313 | Qiuming-Yao-2139223822 | Shaina-N-Porter-2141527661 | Cicera-R-Lazzarotto-2143204166 | Alexis-Leonard-2143559088 | Karthikeyan-Ponnienselvan-2146186978 | Samantha-F-Kwok-2149778190 | Claire-M-Drysdale-2152743328 | Tina-Nassehi-2152751954 | Anne-H-Shen-2152915687 | Benjamin-P-Roscoe-2155235540 | Sukanya-Iyer-2155575001 | Mir-Hossain-2159224273 | Josias-Soares-de-Brito-2167584768 | Allen-Krouse-38131654 | Lawrence-M-Lifshitz-38213592 | Aylin-Bonifacino-38305952 | Robert-E-Donahue-38458386 | Scot-A-Wolfe-38480593 | Akiko-Shimamura-39142734 | John-P-Manis-39309534 | John-F-Tisdale-39666811 | Mitchell-J-Weiss-39837416 | Naoya-Uchida-39961027 | Divya-S-Vinjamur-58030046</t>
+        </is>
+      </c>
+      <c r="I172" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="J172" s="3" t="inlineStr">
+        <is>
+          <t>Guo-Cheng Yuan | Carlo Brugnara | Mario Amendola | Ophir Shalem | Benjamin P Kleinstiver | George Church | Eugene V Koonin | Fabrizia Urbinati | Jin-Soo Kim | Cole M Haynes | Michael C Holmes | Rasmus O Bak | Jonathan Gootenberg | Manuel Garber | John van der Oost | Luca Pinello | Matthew M Hsieh | Thalia Papayannopoulou | Ayal Hendel | Donald B Kohn | Xuebing Wu | Mara Pavel-Dinu | Lihua Julie Zhu | Kai-Hsin Chang | Christian Brendel | Omar Abudayyeh | Liu Pengpeng | Neville E Sanjana | Daniel E Bauer | Jian Xu | Chunyan Ren | Daesik Kim | Shengdar Tsai | Ved V Topkar | Yuxuan Wu | Alec B Wilkens | Julia Joung | Jing Zeng | Erik J Sontheimer | Winston Yan | Falak Sher | Nhu Nguyen | Patrick Schupp | Joab Camarena | Mehmet Fatih Bolukbasi | Matthew C. Canver | Philip Gregory | Claudio Macias Trevino | Kendell Clement | Feng Zhang</t>
+        </is>
+      </c>
+      <c r="K172" s="3" t="n">
+        <v>45</v>
+      </c>
+      <c r="L172" s="3" t="inlineStr">
+        <is>
+          <t>Transcriptional and chromatin profiling of human blood innate lymphoid cell subsets sheds light on HIV-1 pathogenesis | Targeting a Putative Intronic Splicing Silencer Salvages Expression from the Recurrent SBDS C.258+2T&gt;C Mutant Allele in Shwachman-Diamond Syndrome Patient Cells and Mouse Model | Efficient Homology-Directed Repair with Circular Single-Stranded DNA Donors | Generation of floxed alleles for cell-specific knockout in zebrafish | Efficient Homology-directed Repair with Circular ssDNA Donors 1 2 | Optimization of Nuclear Localization Signal Composition Improves CRISPR-Cas12a Editing Rates in Human Primary Cells | Optimization of NLS Composition Improves CRISPR-Cas12a Editing Rates in Human Primary Cells | LONP-1 and ATFS-1 sustain deleterious heteroplasmy by promoting mtDNA replication in dysfunctional mitochondria | CRISPR-enhanced human adipocyte browning as cell therapy for metabolic disease | Combined +58 and +55 BCL11A enhancer Editing Yields Exceptional Efficiency, Specificity and HbF Induction in Human and NHP Preclinical Models | Clarification of human blood ILC subtype interrelatedness and discovery of amphiregulin production by human NK cells shed light on HIV-1 pathogenesis [preprint] | ZNF410 represses fetal globin by singular control of CHD4 | Global mRNA and chromatin accessibility profiling elucidate how HIV-1 perturbs ILC and NK cell subsets | Dissecting ELANE neutropenia pathogenicity by human HSC gene editing | CRISPR-enhanced human adipocyte 'browning' as cell therapy for metabolic disease | BCL11A enhancer edited hematopoietic stem cells persist in rhesus monkeys without toxicity | Degradation of ATFS-1 by LONP-1 promotes deleterious mitochondrial genome heteroplasmy | ZNF410 represses fetal globin by devoted control of CHD4/NuRD | ZNF410 represses fetal globin by devoted control of CHD4/NuRD [preprint] | Durable Robust Fetal Globin Induction in Rhesus Monkeys Following BCL11A Erythroid Enhancer Edited Autologous Hematopoietic Stem Cell Transplant | Therapeutic base editing of human hematopoietic stem cells | Small-Molecule PAPD5 Inhibitors Restore Telomerase Activity in Patient Stem Cells | Durable and Robust Fetal Globin Induction without Anemia in Rhesus Monkeys Following Autologous Hematopoietic Stem Cell Transplant with BCL11A Erythroid Enhancer Editing | Efficient Homology-directed Repair with Circular ssDNA Donors | CRISPR-Cas9 Genome Editing of γ-Globin Promoters in Human Hematopoietic Stem Cells to Induce Erythrocyte Fetal Hemoglobin for Treatment of β-Hemoglobinopathies | Gene Editing ELANE in Human Hematopoietic Stem and Progenitor Cells Reveals Disease Mechanisms and Therapeutic Strategies for Severe Congenital Neutropenia | Genome editing of HBG1 and HBG2 to induce fetal hemoglobin | Rational targeting of a NuRD subcomplex guided by comprehensive in situ mutagenesis | Evaluating and Enhancing Target Specificity of Gene-Editing Nucleases and Deaminases | Enhanced Cas12a editing in mammalian cells and zebrafish | Supplementary Data | Highly efficient therapeutic gene editing of human hematopoietic stem cells | Precise therapeutic gene correction by a simple nuclease-induced double-stranded break | Editing aberrant splice sites efficiently restores β-globin expression in β-thalassemia | Publisher Correction: Orthogonal Cas9-Cas9 chimeras provide a versatile platform for genome editing | Highly Efficient Therapeutic Gene Editing of BCL11A enhancer in Human Hematopoietic Stem Cells from ß-Hemoglobinopathy Patients for Fetal Hemoglobin Induction | Orthogonal Cas9–Cas9 chimeras provide a versatile platform for genome editing | Supplementary Material 2 | Supplementary Material 7 | Supplementary Material 1 | Supplementary Material 4 | Supplementary Material 3 | Supplementary Material 5 | Supplementary Material 6 | Supplementary Material 8</t>
+        </is>
+      </c>
+    </row>
+    <row r="173" ht="80" customHeight="1" s="4">
+      <c r="B173" s="3" t="inlineStr">
+        <is>
+          <t>Randall Friedline</t>
+        </is>
+      </c>
+      <c r="C173" s="3" t="inlineStr">
+        <is>
+          <t>Randall-Friedline</t>
+        </is>
+      </c>
+      <c r="D173" s="3" t="inlineStr">
+        <is>
+          <t>University of Massachusetts Medical School</t>
+        </is>
+      </c>
+      <c r="E173" s="3" t="n">
+        <v>8515</v>
+      </c>
+      <c r="F173" s="3" t="n">
+        <v>3408</v>
+      </c>
+      <c r="G173" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="H173" s="3" t="inlineStr">
+        <is>
+          <t>Catherine-Chang-4 | Michael-Czech | Kunikazu-Inashima | Batuhan-Yenilmez | Lenka-Zakova | Emmanouela-Tsagkaraki | Deepti-Ramachandran | Paul-Sohn | Hwi-Jin-Ko | Jun-Xie-44 | Roland-Tisch | Ta-Yuan-Chang-2 | Terezie-Panikova | Jong-Kim-18 | Hye-Noh | Jiri-Jiracek | Owen-Mcguinness-2 | Jason-Kim-11 | Joonsoo-Kang | Martina-Chrudinova | Sezin-Dagdeviren-2 | Paul-li-Hao-Huang-2 | Emrah-Altindis-2 | Kalpana-Acharya | Yuefei-Shen-4 | Alexander-Banks-2 | Mark-Kelly-Lat | Francois-Moreau-2 | Felipe-Henriques-2 | Dae-Jung-5 | Jung-Kwon-7 | Eunjung-Lee-2003159938 | Sujin-Suk-2069021243 | Xiaodi-Hu-2071771546 | DUY-A-TRAN-2097055091 | Colin-J-Palmer-2131205815 | Bingshan-Li-2142535488 | Jason-K-Kim-2143178374 | ALLISON-M-KIM-2144149654 | Hye-Lim-Noh-2157073009 | LAUREN-A-TAUER-2158269978 | DaeYoung-Jung-2163853274 | June-K-Corrigan-2166493928 | Michael-J-Jurczak-2166519852 | Jon-J-Ramsey-2166567590 | Yuchen-He-2178510389 | Sarah-M-Nicoloro-38402343 | Ki-Won-Lee-38998440 | Nicholas-Tsitsilianos-71370227</t>
+        </is>
+      </c>
+      <c r="I173" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="J173" s="3" t="inlineStr">
+        <is>
+          <t>Jan Rozman | Matthias Tschöp | Martin Klingenspor | Lenka Zakova | Patrice D Cani | John Speakman | Narisu Narisu | Richard A Flavell | Briony E Forbes | Jongsoon Lee | Mark Christian | Jan Nedergaard | Willem M De Vos | Roland M Tisch | Marc L Reitman | Markku Laakso | Edward H Leiter | Jong Hun Kim | Nathalie Delzenne | Oscar H Franco | Saverio Cinti | Brian Smith | Kathryn E Wellen | Pierre De Meyts | C. Ronald Kahn | Ajay Chawla | Jirí Jirácek | Jason K Kim | Silvia Corvera | Patrick Seale | Amy Shiu Lee | Shingo Kajimura | Leslie Paul Kozak | Pekka Jousilahti | Eun-Gyoung Hong | Gary W Cline | So-Young Park | Alexander S Banks | Muriel Derrien | Roger Davis | James Ntambi | Anthony Ferrante | Dae Young Jung | Michael Czech | Stephen o'Rahilly | Hwi Jin Ko | Ruth Loos | Hye Lim Noh | John Menting | Barbara Cannon</t>
+        </is>
+      </c>
+      <c r="K173" s="3" t="n">
+        <v>67</v>
+      </c>
+      <c r="L173" s="3" t="inlineStr">
+        <is>
+          <t>An Insulin-regulated Arrestin Domain Protein Controls Hepatic Glucagon Action | 293-OR: Macrophage-Derived Interleukin-12 Regulates Obesity-Mediated Insulin Resistance in the Liver | Hepatic Phospholipid Remodeling Modulates Insulin Sensitivity and Systemic Metabolism | A brown fat-enriched adipokine Adissp controls adipose thermogenesis and glucose homeostasis | Differential effects of Akkermansia-enriched fecal microbiota transplant on energy balance in female mice on high-fat diet | Paradoxical activation of transcription factor SREBP1c and de novo lipogenesis by hepatocyte-selective ATP-citrate lyase depletion in obese mice | 270-OR: Loss of Myeloid IFNgamma Signaling Prevents Hepatic Inflammation and NASH in Obesity | Paradoxical activation of SREBP1c and de novo lipogenesis by hepatocyte-selective ACLY depletion in obese mice | CRISPR-enhanced human adipocyte browning as cell therapy for metabolic disease | Distinct Changes in Gut Microbiota Are Associated with Estradiol-Mediated Protection from Diet-Induced Obesity in Female Mice | Characterization of Viral Insulin-Like Peptides Reveals Unique White Adipose Tissue Specific Characteristics | ChrudinovaMolecularMetabolism2021.pdf | Maternal exposure to high‐fat diet during pregnancy and lactation predisposes normal weight offspring mice to develop hepatic inflammation and insulin resistance | Characterization of viral insulins reveals white adipose tissue-specific effects in mice | Characterization of Viral Insulins Reveals White Adipose Tissue Specific Effects in Mice | CRISPR-enhanced human adipocyte 'browning' as cell therapy for metabolic disease | Thioredoxin Interacting Protein Is Required for a Chronic Energy-Rich Diet to Promote Intestinal Fructose Absorption | Characterization of Viral Insulins Reveals White Adipose Tissue Specific Effects in Mice | 1726-P: Male Mice Lacking Estrogen Receptor Beta Develop Obesity but Are Protected from Diet-Induced Insulin Resistance in Skeletal Muscle | 1727-P: Mice Deficient in Myeloid Cell-Derived Interleukin-1a Are Protected from Diet-Induced Obesity and Insulin Resistance | A big-data approach to understanding metabolic rate and response to obesity in laboratory mice | A big-data approach to understanding metabolic rate and response to obesity in laboratory mice | A big-data approach to understanding metabolic rate and response to obesity in laboratory mice | A big-data approach to understanding metabolic rate and response to obesity in laboratory mice | A Receptor of the Immunoglobulin Superfamily Regulates Adaptive Thermogenesis | 1991-P: Mammary Tumors Increase Diet-Induced Obesity and Insulin Resistance in Female MMTV-PyMT Mice | 1992-P: Early and Chronic Exposure to Penicillin Increases Obesity and Insulin Resistance in High-Fat Diet-Fed Mice | SUN-092 Distinct Changes in Gut Microbiota Are Associated with Estradiol-Mediated Protection from Diet-Induced Obesity in Female Mice | Interleukin-6 derived from cutaneous deficiency of stearoyl-CoA desaturase- 1 may mediate metabolic organ crosstalk among skin, adipose tissue and liver | CRISPR delivery particles targeting nuclear receptor-interacting protein 1 ( Nrip1 ) in adipose cells to enhance energy expenditure | CRISPR delivery particles for developing therapeutic strategies in metabolic disease | Early Life Exposure to Antibiotic Alters Energy Balance during Chronic High-Fat Feeding in Adult Male and Female Mice | Myeloid-specific Acat1 ablation attenuates inflammatory responses in macrophages, improves insulin sensitivity, and suppresses diet-induced obesity | Endoplasmic reticulum chaperone GRP78 regulates macrophage function and insulin resistance in diet-induced obesity | CD40 deficiency in mice exacerbates obesity-induced adipose tissue inflammation, hepatic steatosis, and insulin resistance | IL-10 prevents aging-associated inflammation and insulin resistance in skeletal muscle | Altered Interleukin-10 Signaling in Skeletal Muscle Regulates Obesity-Mediated Inflammation and Insulin Resistance | Genetic ablation of lymphocytes and cytokine signaling in nonobese diabetic mice prevents diet-induced obesity and insulin resistance | Safety of Striatal Infusion of siRNA in a Transgenic Huntington’s Disease Mouse Model | IL-1 Signaling in Obesity-Induced Hepatic Lipogenesis and Steatosis | MicroRNA-378 controls classical brown fat expansion to counteract obesity | Myeloid-specific ACAT1 gene ablation improves insulin sensitivity and reduces atherosclerosis development in mice | Myeloid-specific ACAT1 gene ablation reduces adipose tissue macrophage content and fat cell size, and improves insulin sensitivity in mice | KLF15 Is a Molecular Link between Endoplasmic Reticulum Stress and Insulin Resistance | Cardiac Expression of Human Type 2 Iodothyronine Deiodinase Increases Glucose Metabolism and Protects Against Doxorubicin-Induced Cardiac Dysfunction in Male Mice. | Molecular network analysis of phosphotyrosine and lipid metabolism in hepatic PTP1b deletion mice | Short-Term Weight Loss Attenuates Local Tissue Inflammation and Improves Insulin Sensitivity without Affecting Adipose Inflammation in Obese Mice. | CD40 Deficiency in Mice Exacerbates Obesity-induced Adipose Tissue Inflammation, Hepatic Steatosis and Insulin Resistance | GRP78 plays an essential role in adipogenesis and postnatal growth in mice | Long-term, efficient inhibition of microRNRNA function in mice using rAAV vectors | Supplementary Material | TRPM2 Ca2+ channel regulates energy balance and glucose metabolism | Cytoplasmic Polyadenylation Element Binding Protein Deficiency Stimulates PTEN and Stat3 mRNA Translation and Induces Hepatic Insulin Resistance | Figure S1 | Table S1 | Figure S2 | Protocol S1 | Cutting Edge: Dab2 Is a FOXP3 Target Gene Required for Regulatory T Cell Function | Interleukin-10 Prevents Diet-Induced Insulin Resistance by Attenuating Macrophage and Cytokine Response in Skeletal Muscle | Online-Only Appendix | CD4+ regulatory T cells require CTLA-4 for the maintenance of systemic tolerance | CD4+ regulatory T cells require CTLA-4 for the maintenance of systemic tolerance | Heng, T.S. &amp; Painter, M.W. The Immunological Genome Project: networks of gene expression in immune cells. Nat. Immunol. 9, 1091-1094 | L-Selectin Is Not Required for T Cell-Mediated Autoimmune Diabetes | Dendritic Cell Vaccination Induces Cross-Reactive Cytotoxic T Lymphocytes Specific for Wild-Type and Natural Variant Human Immunodeficiency Virus Type 1 Epitopes in HLA-A*0201/Kb Transgenic Mice | A Glutamic Acid Decarboxylase 65-Specific Th2 Cell Clone Immunoregulates Autoimmune Diabetes in Nonobese Diabetic Mice | Class I Major Histocompatibility Complex Anchor Substitutions Alter the Conformation of T Cell Receptor Contacts</t>
+        </is>
+      </c>
+    </row>
+    <row r="174" ht="80" customHeight="1" s="4">
+      <c r="B174" s="3" t="inlineStr">
+        <is>
+          <t>Chunqing Song</t>
+        </is>
+      </c>
+      <c r="C174" s="3" t="inlineStr">
+        <is>
+          <t>Chunqing-Song</t>
+        </is>
+      </c>
+      <c r="D174" s="3" t="inlineStr">
+        <is>
+          <t>University of Massachusetts Medical School</t>
+        </is>
+      </c>
+      <c r="E174" s="3" t="n">
+        <v>10961</v>
+      </c>
+      <c r="F174" s="3" t="n">
+        <v>2743</v>
+      </c>
+      <c r="G174" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="H174" s="3" t="inlineStr">
+        <is>
+          <t>Sneha-Suresh-8 | Luke-Rhym | Bruno-M-D-C-Godinho | Mehmet-Fatih-Bolukbasi-2 | Bing-Yang-14 | Nadia-Amrani-2 | Xin-Wang-247 | Guangping-Gao | Roman-Bogorad | Si-Min-He | Dan-Wang-170 | Meng-Qiu-Dong | Lihua-Zhu-6 | Xiao-Ou-Zhang-2 | Jun-Yan-Liu | Zachary-Kennedy-4 | Stephen-Walsh-9 | Hao-Yin-39 | Ruixiang-Sun-2 | Soren-Hough | Hao-Chi | Deniz-Ozata | Yingxiang-Li-4 | Haiwei-Mou | Jill-Moore | Junmei-Ding-2 | Zhiping-Deng-2 | Aamir-Mir-4 | Wen-Feng-Zeng | Erik-Sontheimer | Chao-Liu-50 | Pan-Zhang-2035049464 | Zuo-Fei-Yuan-2085858379 | Lihua-Julie-Zhu-2096699256 | Qiongqiong-Wu-2096709976 | Ankur-Sheel-2113452765 | Jordan-L-Smith-2125012519 | Suet-Yan-Kwan-2135133065 | Tingting-Jiang-2140586565 | Yueying-Cao-2151149286 | Angela-I-Park-2163441399 | Le-Heng-Wang-38314200 | Scot-A-Wolfe-38480593 | Robert-Langer-38956631 | Victor-Koteliansky-39138876 | Daniel-G-Anderson-39987274 | Wen-Xue-58742765 | Andrew-H-Fischer-58768813 | Yan-Fu-69144030</t>
+        </is>
+      </c>
+      <c r="I174" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="J174" s="3" t="inlineStr">
+        <is>
+          <t>Thales Papagiannakopoulos | Ophir Shalem | George Church | Eugene V Koonin | Jin-Soo Kim | Sidi Chen | Morgan L Maeder | Deepak Reyon | Guangping Gao | Jonathan Gootenberg | Roman L Bogorad | Mikhail M Savitski | Manuel Garber | Mark A Kay | Wen Gao | Dan Wang | Roderick Bronson | Terence Flotte | John R Yates | Roman Zubarev | Xuebing Wu | Snorri S Thorgeirsson | Kevin Esvelt | Lihua Julie Zhu | Stephen C Walsh | Hao Yin | Ruixiang Sun | Yan Zhang | Soren Hough | Le Cong | Andrea J Kriz | Shengdar Tsai | Yingxiang Li | Haiwei Mou | Markus Grompe | Cyd Khayter | Zhiping Deng | Yizhou Dong | Naomi Habib | Erik J Sontheimer | Winston Yan | Sneha Suresh | Silvana Konermann | Nhu Nguyen | Mehmet Fatih Bolukbasi | Alireza Edraki | Eric Benedetti | Ting Chen | Rong Zeng | Feng Zhang</t>
+        </is>
+      </c>
+      <c r="K174" s="3" t="n">
+        <v>34</v>
+      </c>
+      <c r="L174" s="3" t="inlineStr">
+        <is>
+          <t>Imaging Net Retrograde Axonal Transport In Vivo: A Physiological Biomarker | Identification and Validation of Pyroptosis-Related Gene Signature to Predict Prognosis and Reveal Immune Infiltration in Hepatocellular Carcinoma | Targeting de novo purine synthesis pathway via ADSL depletion impairs liver cancer growth by perturbing mitochondrial function | Advances in CRISPR/Cas-based Gene Therapy in Human Genetic Diseases | Adenine base editing in an adult mouse model of tyrosinaemia | Depletion of TRRAP Induces p53-Independent Senescence in Liver Cancer by Down-Regulating Mitotic Genes | Targeted Metabolomics Identifies the Cytochrome P450 Monooxygenase Eicosanoid Pathway as a Novel Therapeutic Target of Colon Tumorigenesis | A Compact, High-Accuracy Cas9 with a Dinucleotide PAM for In Vivo Genome Editing | Cas9-mediated allelic exchange repairs compound heterozygous recessive mutations in mice | Supplementary Material 3 | Supplementary Material 1 | Supplementary Material 2 | All-in-One Adeno-associated Virus Delivery and Genome Editing by Neisseria meningitidis Cas9 in vivo | All-in-One Adeno-associated Virus Delivery and Genome Editing by Neisseria meningitidis Cas9 in vivo | In Vivo Genome Editing Partially Restores Alpha1-Antitrypsin in a Murine Model of AAT Deficiency | Partial DNA-guided Cas9 enables genome editing with reduced off-target activity | CRISPR–Cas-related technologies in basic and translational liver research | Structure-guided chemical modification of guide RNA enables potent non-viral in vivo genome editing | CRISPR/Cas9-mediated genome editing induces exon skipping by alternative splicing or exon deletion | Supplementary Material 1 | Supplementary Material 2 | Genetic disruption of oncogenic Kras sensitizes lung cancer cells to Fas receptor-mediated apoptosis | Genome-Wide CRISPR Screen Identifies Regulators of Mitogen-Activated Protein Kinase as Suppressors of Liver Tumors in Mice | Abstract 3654: In vivo CRISPR screen identidied Nf1 as a new tumor suppressor recurrently inactivated in liver cancer | ms #+ supp mats | Therapeutic genome editing by combined viral and non-viral delivery of CRISPR system components in vivo | Arabidopsis Synaptotagmin 2 Participates in Pollen Germination and Tube Growth and Is Delivered to Plasma Membrane via Conventional Secretion | pQuant Improves Quantitation by Keeping out Interfering Signals and Evaluates the Accuracy of Calculated Ratios. | Mitoflash frequency in early adulthood predicts lifespan in Caenorhabditis elegans | pNovo+: De Novo Peptide Sequencing Using Complementary HCD and ETD Tandem Mass Spectra | Nematode sperm maturation triggered by protease involves sperm-secreted serine protease inhibitor (Serpin) | Improved Peptide Identification for Proteomic Analysis Based on Comprehensive Characterization of Electron Transfer Dissociation Spectra | pNovo: De novo Peptide Sequencing and Identification Using HCD Spectra | Identification and characterization of INMAP, a novel interphase nucleus and mitotic apparatus protein that is involved in spindle formation and cell cycle progression</t>
+        </is>
+      </c>
+    </row>
+    <row r="175" ht="80" customHeight="1" s="4">
+      <c r="B175" s="3" t="inlineStr">
+        <is>
+          <t>Anubhab Nandy</t>
+        </is>
+      </c>
+      <c r="C175" s="3" t="inlineStr">
+        <is>
+          <t>Anubhab-Nandy</t>
+        </is>
+      </c>
+      <c r="D175" s="3" t="inlineStr">
+        <is>
+          <t>University of Massachusetts Medical School</t>
+        </is>
+      </c>
+      <c r="E175" s="3" t="n">
+        <v>255</v>
+      </c>
+      <c r="F175" s="3" t="n">
+        <v>81</v>
+      </c>
+      <c r="G175" s="3" t="n">
+        <v>22</v>
+      </c>
+      <c r="H175" s="3" t="inlineStr">
+        <is>
+          <t>Brian-Monks | Shubhendu-Ghosh | Rosane-B-Deoliveira | Bornali-Bhattacharjee | Vijay-Rathinam | Rahul-Gupta-71 | Arnaud-Firon | Jennie-Chan-2 | Shruti-Sharma-30 | Philipp-Henneke | Parisa-Kalantari | Fabianno-Dutra | Patrick-Trieu-Cuot | Douglas-Golenbock | Te-Chen-Tzeng | Techen-Tzeng-2046334983 | Vijay-Rathinam-2087489149 | Rahul-Gupta-2109204933 | Kate-Fitzgerald-34596583 | Neal-S-Silverman-38232052 | Egil-Lien-38247291 | Katherine-A-Fitzgerald-38757339</t>
+        </is>
+      </c>
+      <c r="I175" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="J175" s="3" t="inlineStr">
+        <is>
+          <t>Wen Liu | Sachin D Deshmukh | Yun Ting | Brian Monks | Eva Szomolanyi-Tsuda | Joël Plumas | Joseph A Duncan | Stefan Bauer | Yevgenya Grinblat | Stephen N Waggoner | Marina A Freudenberg | Giuseppe Mancuso | Mason W Freeman | Lisa Y Ngo | Tatjana Eigenbrod | Laura Bover | Alessandro Costa | Giacomo Signorino | Shino Hanabuchi | Marcia Rench | Musheng Bao | Osamu Takeuchi | Fabio Martinon | Vijay A K Rathinam | Rahul Gupta | Kristina Adams Waldorf | Lakshmi Rajagopal | Eivind Ottersen Samstad | Robin R Ingalls | Shruti Sharma | Alexander H Dalpke | Philipp Henneke | Eicke Latz | Patrick trieu-cuot | Carol J Baker | Douglas Golenbock | Giuseppe Teti | Bernhard Kremer | Annett Halle | Christopher Whidbey | Maria Isabel Harrell | Lakshminarayan Iyer | Concetta Beninati | Gabriel Nunez | Carmelo Biondo | Sandhya Ganesan | Laurence Chaperot | Taeil Kim | Morven Edwards | Richard Malley</t>
+        </is>
+      </c>
+      <c r="K175" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="L175" s="3" t="inlineStr">
+        <is>
+          <t>RNA and beta-Hemolysin of Group B Streptococcus Induce Interleukin-1 beta ( IL-1 beta) by Activating NLRP3 Inflammasomes in Mouse Macrophages | RNA and β-Hemolysin of Group B Streptococcus Induce Interleukin-1β (IL-1β) by Activating NLRP3 Inflammasomes in Mouse Macrophages</t>
+        </is>
+      </c>
+      <c r="M175" s="3" t="inlineStr">
+        <is>
+          <t>Innate Immunity | Inflammation</t>
+        </is>
+      </c>
+    </row>
+    <row r="176" ht="80" customHeight="1" s="4">
+      <c r="B176" s="3" t="inlineStr">
+        <is>
+          <t>Brian Monks</t>
+        </is>
+      </c>
+      <c r="C176" s="3" t="inlineStr">
+        <is>
+          <t>Brian-Monks</t>
+        </is>
+      </c>
+      <c r="D176" s="3" t="inlineStr">
+        <is>
+          <t>University of Massachusetts Medical School</t>
+        </is>
+      </c>
+      <c r="E176" s="3" t="n">
+        <v>16322</v>
+      </c>
+      <c r="F176" s="3" t="n">
+        <v>15936</v>
+      </c>
+      <c r="G176" s="3" t="n">
+        <v>48</v>
+      </c>
+      <c r="H176" s="3" t="inlineStr">
+        <is>
+          <t>Luke-Oneill-2 | Marc-Lamphier | Terje-Espevik | M-Alexandra-Monroy | Anna-Blom | Susan-Carpenter-2 | Martha-Monick | Jean-Michel-Dayer | Peter-Rice-2 | Jutamas-Shaughnessy | Andrew-Webb-14 | Nadege-Goutagny | Melissa-Moore-2 | Holger-Heine-3 | Cherilyn-Sirois | Sanjay-Ram-4 | Zhaozhao-Jiang | Daniel-Caffrey | Bjorn-Dahlback | Vijay-Rathinam | Emiliano-Ricci | Meg-Byron | Meabh-Cullinane | Robin-Ingalls | Shruti-Sharma-30 | Philipp-Henneke | Eicke-Latz | Mei-Gong-6 | Douglas-Golenbock | Russ-Delude | Alberto-Visintin | Philip-Auron | Matthew-J-Fenton-2162969986 | M-J-Fenton-2162970065 | R-Boden-35320141 | Jane-Tian-38116525 | Egil-Lien-38247291 | Jutamas-Ngampasutadol-38499746 | Gary-W-Hunninghake-38528482 | C-Elkins-38617954 | Lisa-L-Hall-38712242 | Katherine-A-Fitzgerald-38757339 | Anthony-J-Coyle-38814015 | Sunita-Gulati-39214294 | Peggy-Parroche-39248259 | Kristen-A-Halmen-39474954 | Gabor-Horvath-39692055 | Catherine-OConnell-6311501</t>
+        </is>
+      </c>
+      <c r="I176" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="J176" s="3" t="inlineStr">
+        <is>
+          <t>Holger Heine | Philip Auron | T. Sakari Jokiranta | Sanna Goyert | Theo Kirkland | Vishva Dixit | Ralf R Schumann | Richard A Flavell | Koichi Fukase | Marina A Freudenberg | Toshihisa Ogawa | Yoshinori Nagai | Paula Pitha | Osamu Takeuchi | Fabio Martinon | Xin Du | Peter F Zipfel | Seppo Meri | Charles A Dinarello | Bjorn Dahlback | Alexander Poltorak | Richard J Ulevitch | Jesse C Chow | Paola Ricciardi-Castagnoli | Robin R Ingalls | Bruce Beutler | Philipp Henneke | Hermann Wagner | Eicke Latz | Ruslan Medzhitov | Shintaro Sato | Douglas Golenbock | Russ Delude | Daniel P McQuillen | Annett Halle | Sachiko Akashi-Takamura | Samuel Wright | Luke O'Neill | Peter Tobias | Gabriel Nunez | Terje Espevik | Tom Maniatis | Stefanie N Vogel | Peter Rice | Masahiro Yamamoto | Anders Sundan | Sanjay Ram | Katsuaki Hoshino | Michael Apicella | Miho Kimoto</t>
+        </is>
+      </c>
+      <c r="K176" s="3" t="n">
+        <v>77</v>
+      </c>
+      <c r="L176" s="3" t="inlineStr">
+        <is>
+          <t>Epigenetic regulation of innate immune genes and enhanced interleukin-10 expression underlie chronic subclinical Plasmodium chabaudi infection | Efficacy and Pharmacology of the NLRP3 Inflammasome Inhibitor CP-456,773 (CRID3) in Murine Models of Dermal and Pulmonary Inflammation | A Fluorescent Reporter Mouse for Inflammasome Assembly Demonstrates an Important Role for Cell-Bound and Free ASC Specks during In Vivo Infection | A Novel Factor H-Fc Chimeric Immunotherapeutic Molecule against Neisseria gonorrhoeae | MCC950 is a potent and specific inhibitor of the NLRP3 inflammasome and a novel potential therapeutic for NLRP3 driven diseases | The adaptor ASC has extracellular and 'prionoid' activities that propagate inflammation | The adaptor ASC has extracellular and 'prionoid' activities that propagate inflammation | RNA and beta-Hemolysin of Group B Streptococcus Induce Interleukin-1 beta ( IL-1 beta) by Activating NLRP3 Inflammasomes in Mouse Macrophages | RNA and β-Hemolysin of Group B Streptococcus Induce Interleukin-1β (IL-1β) by Activating NLRP3 Inflammasomes in Mouse Macrophages | Fluorescent proteins and related methods and compounds | LincRNA-Cox2 is a long noncoding RNA induced by TLRs that mediates both activation and repression of immune response genes | A Long Noncoding RNA Mediates Both Activation and Repression of Immune Response Genes | ASC Speck Formation as a Readout for Inflammasome Activation | Chemical genetics reveals a kinase-independent role for protein kinase R in pyroptosis | Mouse, but not Human STING, Binds and Signals in Response to the Vascular Disrupting Agent 5,6-Dimethylxanthenone-4-Acetic Acid | IGLuc: A luciferase-based inflammasome and protease activity reporter | A long noncoding RNA induced by TLRs mediates both activation and repression of immune response genes | A novel factor H-FC chimeric immunotherapeutic molecule against Neisseria gonorrhoeae | Molecular Characterization of the Interaction between Sialylated Neisseria gonorrhoeae and Factor H | Cytosolic DNA sensing by AIM2 inflammasome is integral to anti-microbial defense (157.5) | Natural Loss-of-function Mutation of Myeloid Differentiation Protein 88 Disrupts Its Ability to Form Myddosomes | MD-2 Residues Tyrosine 42, Arginine 69, Aspartic Acid 122, and Leucine 125 Provide Species Specificity for Lipid IVA | Species specificity of factor H interaction with the uniquely human pathogen, Neisseria gonorrhoeae, resides in arginine substitution at position 1203 in domain 20 | Supplementary Material | The AIM2 inflammasome is essential for host defense against cytosolic bacteria and DNA viruses | Cell-type specific recognition of human Metapneumoviruses by RIG-I and TLR7 and viral interference of RIG-I ligand recognition by HMPVB1 Phosphoprotein | Cell type-specific recognition of human metapneumoviruses (HMPVs) by retinoic acid-inducible gene I (RIG-I) and TLR7 and viral interference of RIG-I ligand recognition by HMPV-B1 phosphoprotein | Amyloid-beta mediates NALP3 inflammasome activation via phagolysosomal damage | Cutting Edge: NF-kappa B Activating Pattern Recognition and Cytokine Receptors License NLRP3 Inflammasome Activation by Regulating NLRP3 Expression | A TIR domain variant of MyD88 adapter-like (Mal)/TIRAP results in loss of MyD88 binding and reduced TLR2/TLR4 signaling | Molecular characterisation of the interaction between porins of Neisseria gonorrhoeae and factor H | The NALP3 inflammasome is involved in the innate immune response to amyloid-? | Human Factor H Interacts Selectively with Neisseria gonorrhoeae and Results in Species-Specific Complement Evasion | Corrigendum: Ligand-induced conformational changes allosterically activate Toll-like receptor 9 | Ligand-induced conformational changes allosterically activate Toll-like receptor 9 | From the Cover: Malaria hemozoin is immunologically inert but radically enhances innate responses by presenting malaria DNA to Toll-like receptor 9 | Serum resistance of Neisseria gonorrhoeae is restricted to humans; a possible explanation for the species specificity of gonococcal infections | Differential type IIFN induction by human Metapneumoviruses | MD-2 expression is not required for cell surface targeting of Toll-like receptor 4 (TLR4) | The myristoylation of TRIF-related adaptor molecule is essential for Toll-like receptor 4 signal transduction | MD-2. | MD2 | Pharmacological Inhibition of Endotoxin Responses Is Achieved by Targeting the TLR4 Coreceptor, MD-2 | The RNA Helicase Lgp2 Inhibits TLR-Independent Sensing of Viral Replication by Retinoic Acid-Inducible Gene-I | TLR9 signals after translocating from the ER to CpG DNA in the lysosome | Lysines 128 and 132 Enable Lipopolysaccharide Binding to MD-2, Leading to Toll-like Receptor-4 Aggregation and Signal Transduction | LPS-Tlr4 signaling to IRF-3/7 and NF-kappaB involves the toll adapters TRAM and TRIF | Cell Distributions and Functions of Toll-like Receptor 4 Studied by Fluorescent Gene Constructs | Lipopolysaccharide Rapidly Traffics to and from the Golgi Apparatus with the Toll-like Receptor 4-MD-2-CD14 Complex in a Process That Is Distinct from the Initiation of Signal Transduction | Involvement of Toll-like Receptor (TLR) 2 and TLR4 in Cell Activation by Mannuronic Acid Polymers | Molecular Genetic Analysis of an Endotoxin Nonresponder Mutant Cell Line: A Point Mutation in a Conserved Region of Md-2 Abolishes Endotoxin-Induced Signaling | C4bp binding to porin mediates stable serum resistance of Neisseria gonorrhoeae | Binding of C4b-Binding Protein to Porin A Molecular Mechanism of Serum Resistance of Neisseria gonorrhoeae | Binding of C4b-Binding Protein to Porin | Cricetulus griseus MD-2 mRNA, complete cds | Divergent Response to LPS and Bacteria in CD14-Deficient Murine Macrophages | Toll-like receptor 4 imparts ligand-specific recognition of bacterial lipopolysaccharide | Bacterial Lipopolysaccharide Induces Expression of the Stress Response Genes hop and H411 | Cutting Edge: Cells That Carry A Null Allele for Toll-Like Receptor 2 Are Capable of Responding to Endotoxin | Membrane expression of soluble endotoxin-binding proteins permits lipopolysaccharide signaling in Chinese hamster ovary fibroblasts independently of CD14. | Membrane Expression of Soluble Endotoxin-binding Proteins Permits Lipopolysaccharide Signaling in Chinese Hamster Ovary Fibroblasts Independently of CD14 | Surface presentation of LPS is sufficient for initiation of signaling events | Surface presentation of LPS is sufficient for initiation of signaling events | Mus musculus Toll-like receptor 2 (Tlr2) mRNA, complete cds | Cricetulus griseus Toll-like receptor 2 (TLR2) mRNA, complete cds | CD11/CD18 and CD14 share a common lipid A signaling pathway | Cricetulus griseus H411 precursor (H411) mRNA, complete cds | Cricetulus griseus interleukin 6 (IL-6) mRNA, partial cds | Targeted Deletion of the Lipopolysaccharide (LPS)-binding Protein Gene Leads to Profound Suppression of LPS Responses Ex Vivo, whereas In Vivo Responses Remain Intact | Cricetulus griseus Hsp70/Hsp90 organizing protein mRNA, complete cds | Dual Effects of LPS Antibodies on Cellular Uptake of LPS and LPS-Induced Proinflammatory Functions | Response of LBP knock-out mice to in vivo LPS challenge. | The NF-βA-binding element, not an overlapping NF-IL-6-binding element, is required for maximal IL-1β gene expression | An upstream protein interacts with a distinct protein that binds to the cap site of the human interleukin 1β gene | The functional importance of a cap site-proximal region of the human prointerleukin 1β gene is defined by viral protein trans-activation | The functional importance of a cap site-proximal region of the human prointerleukin 1 beta gene is defined by viral protein trans-activation | The functional importance of a cap site-proximal region of the human prointerleukin 1[beta] gene is defined</t>
+        </is>
+      </c>
+    </row>
+    <row r="177" ht="80" customHeight="1" s="4">
+      <c r="B177" s="3" t="inlineStr">
+        <is>
+          <t>Bo Dupont</t>
+        </is>
+      </c>
+      <c r="C177" s="3" t="inlineStr">
+        <is>
+          <t>Bo_Dupont</t>
+        </is>
+      </c>
+      <c r="D177" s="3" t="inlineStr">
+        <is>
+          <t>Memorial Sloan Kettering Cancer Center</t>
+        </is>
+      </c>
+      <c r="E177" s="3" t="n">
+        <v>22470</v>
+      </c>
+      <c r="F177" s="3" t="n">
+        <v>46019</v>
+      </c>
+      <c r="K177" s="3" t="n">
+        <v>778</v>
+      </c>
+      <c r="L177" s="3" t="inlineStr">
+        <is>
+          <t>Cell-Extrinsic MHC Class I Molecule Engagement Augments Human NK Cell Education Programmed by Cell-Intrinsic MHC Class I | Soluble and membrane bound IL-15 Rα/IL-15 complexes mediate proliferation of high avidity central memory CD8(+) T-cells for adoptive immunotherapy of cancer and infections | Donor activating KIR2DS1 in leukemia | NK Cell tolerance of self-specific activating receptor KIR2DS1 in individuals with cognate HLA-C2 ligand | Prevention of Leukemia Relapse by Donor Activating KIR2DS1 Reply | HLA-C-dependent prevention of leukemia relapse by donor activating KIR2DS1 | Unlicensed NK cells target neuroblastoma following anti-GD2 antibody treatment | Letter: Enteral nutrition in advanced cirrhosis - A case of missing the boat? Authors' reply | [In Process Citation]. | Killer immunoglobulin-like receptor locus polymorphisms in multiple sclerosis | KIR/HLA GENOTYPES PREDICTIVE OF MISSING KIR LIGANDS ARE ASSOCIATED WITH IMPROVED OUTCOME IN PATIENTS WITH HIGH-RISK NEUROBLASTOMA TREATED WITH ANTI-GD2 MONOCLONAL ANTIBODY THERAPY | [Management of invasive fungal infections in children]. | Diagnostic contribution of positron emission tomography with [18F]fluorodeoxyglucose for invasive fungal infections | Donor KIR2DS1 and KIR3DS1 Are Associated With Improved Outcomes Following Unrelated Allogeneic Stem Cell Transplantation for Acute Myeloid Leukemia | Universal Role for HLA-C and KIR2Dl Ligand Mismatch in Severe Acute Graft-Versus-Host Disease After Unrelated Donor Hematopoietic Stem Cell Transplantation (U-HSCT) in Japanese and Caucasian Transplant Recipients: An Analysis on Behalf of International Histocompatibility Working Group in Hematopoietic Cell Transplantation | Cost effectiveness of posaconazole in the prophylaxis of invasive fungal infections in acute leukaemia patients for the French healthcare system | Abstract 5586: NK cell killer Ig-like receptor (KIR) genotype as a novel biomarker for neuroblastoma patients receiving Anti-GD2 monoclonal antibody 3F8 | KIR2DS1 positive Natural Killer cells from individuals expressing cognate HLA ligand are tolerant | Donor activating KIR3DS1 is associated with decreased acute GVHD in unrelated allogeneic hematopoietic stem cell transplantation | Nomenclature for Factors of the HLA system, 2010 | [What advantages get by binomial activity in anaesthesia for the patient, the organization, the safety, the physician and nurse anaesthetists? An opinion survey in a French university town]. | An update to HLA nomenclature, 2010 | KIR and HLA Genotypes Are Associated with Disease Progression and Survival following Autologous Hematopoietic Stem Cell Transplantation for High-Risk Neuroblastoma | Unusual presentation of chromoblastomycosis due to Cladophialophora carrionii in a renal and pancreas transplant recipient patient successfully treated with posaconazole and surgical excision | The Lytic Potential of Human Liver NK Cells Is Restricted by Their Limited Expression of Inhibitory Killer Ig-Like Receptors | A Panel of Artificial APCs Expressing Prevalent HLA Alleles Permits Generation of Cytotoxic T Cells Specific for Both Dominant and Subdominant Viral Epitopes for Adoptive Therapy1 | Molecular Cloning of Steroid 21-Hydroxylase | Possible pathogenic role for Sporothrix cyanescens isolated from a lung lesion in a heart transplant patient | Vaccination with Recombinant NY-ESO-1 Protein Elicits Immunodominant HLA-DR52b-restricted CD4(+) T Cell Responses with a Conserved T Cell Receptor Repertoire | KIR2DS2 GENE ALTERS NK CELL ALLOREACTIVITY | [A tool to evaluate preoperative anxiety in the operating room]. | Impact of early catheter removal during treatment of invasive candidiasis: analysis from two phase 3 micafungin trials | Nomenclature for Factors of the HLA System, 1991 | Increased frequency of HLA-DRW4 in chronic active hepatitis | HLA Class I-Associated Immunodominance Affects CTL Responsiveness to an ESO Recombinant Protein Tumor Antigen Vaccine | Donor KIR 3DS1 is Associated with Less Acute GvHD Following Unrelated Allogeneic Hematopoietic Cell Transplantation for Hematologic Malignancies | Epicutaneous Immunotherapy In Severe Cow Milk Allergy: A Double Blind Pilot Trial | Allelic Variation in TP53 and MDM2 DNA Repair Genes Constitute Genetic Risk Factors for Long-Term Survival in Allogeneic Stem Cell Transplantation | Plasma growth hormone production and osteoarthropathy in carcinoma of the bronchus | Infusion of haplo-identical killer immunoglobulin-like receptor ligand mismatched NK cells for relapsed myeloma in the setting of autologous stem cell transplantation | Mixed Lymphocyte Culture Technique: Standardization of a Test‐System with 105 Responding and 105 Stimulating Lymphocytes per 1 ml | Joint Report from a Mixed Lymphocyte Culture Workshop | [Coccidioidomycosis: an imported invasive fungal disease in France]. | Coccidioïdomycose : une maladie d’importation d’actualité en France | Une maladie d’importation | Fungemia during murine cryptococcosis sheds some light on pathophysiology 1: Fungemia during experimental cryptococcosis | Safety and Immunogenicity Study of NY-ESO-1b Peptide and Montanide ISA-51 Vaccination of Patients with Epithelial Ovarian Cancer in High-Risk First Remission | Two unusual glandular presentations of tick-borne tularemia | Elimination of Non-Viable Cells by DNase Treatment Prior to Lymphocytotoxicity Test | HLA alleles determine differences in human natural killer cell responsiveness and potency | Histoplasmosis in Europe: Report on an epidemiological survey from the European Confederation of Medical Mycology Working Group | Multifocal Scedosporium apiospermum spondylitis in a cystic fibrosis patient | KIR2DS1-positive NK cells mediate alloresponse against the C2 HLA-KIR ligand group in vitro | Paracoccidioides brasiliensis in a brain abscess: First French case | Hematopoietic stem cell transplantation: Killer immunoglobulin-like receptor component | Nomenclature for factors of the HLA sysem | Nomenclature for factors of the HLA system, 1994 | Infections fongiques invasives du grand prématuré | O140 Micafungin versus caspofungin in patients with invasive candidiasis or candidaemia: a Phase III, randomised, double-blind, parallel group, non-inferiority study | KIR2DSI and 2DS2 induce NK cell cytokine response against allogeneic B-lymphoblastoid cell lines | Donor killer 1G-like receptor haplotype is associated with lower relapse in chronic myelogenous leukemia patients undergoing allogeneic hematopoietic cell transplantation | Pitfalls of Prenatal Diagnosis of 21-Hydroxylase Deficiency Congenital Adrenal Hyperplasia | Molecular Cloning of Steroid 21-Hydroxylase | KIR Ligands and Prediction of Relapse after Unrelated Donor Hematopoietic Cell Transplantation for Hematologic Malignancy | The Effect of KIR Ligand Incompatibility on the Outcome of Unrelated Donor Transplantation: A Report from the Center for International Blood and Marrow Transplant Research, the European Blood and Marrow Transplant Registry, and the Dutch Registry | Genetic interaction among three genomic regions creates distinct contributions to early- and late-onset type 1 diabetes mellitus | Killer Immunoglobulin-Like Receptor Ligand (KIR-Lig) Mismatched Natural Killer (NK) Cell Transfusions for Multiple Myeloma (MM). | Killer Immunoglobulin-Like Receptor Ligand (KIR-L) Mismatched Natural Killer (NK) Cells for Relapsed Myeloma | [Respiratory acidosis during paediatric anaesthesia: eyes wide shut?]. | Acidose ventilatoire peranesthésique chez l'enfant : fermer les yeux ? | Improved outcome in HLA-identical sibling hematopoietic stem-cell transplantation for acute myelogenous leukemia predicted by KIR and HLA genotypes | Nomenclature for Factors of the HLA System, 2004 | Natural killer cell receptors: Regulating innate immune responses to hematologic malignancy | Nomenclature for factors of the HLA System, 2004 | The Wiskott-Aldrich Syndrome Protein Regulates Nuclear Translocation of NFAT2 and NF- B (RelA) Independently of Its Role in Filamentous Actin Polymerization and Actin Cytoskeletal Rearrangement | Nomenclature for factors of the HLA system, 2004 | Missing killer immunoglobulin-like receptor (KIR) ligand confers protection from relapse in recipients of unrelated hematopoietic cell transplantation (HCT) for AML | The Hunter-McAlpine syndrome results from duplication 5q35-qter | Inhibitory killer Ig-like receptor genes and human leukocyte antigen class I ligands in haematopoietic stem cell transplantation | Ligand Binding to Inhibitory Killer Cell Ig-Like Receptors Induce Colocalization with Src Homology Domain 2-Containing Protein Tyrosine Phosphatase 1 and Interruption of Ongoing Activation Signals | D-25 Syndrome de reconstitution immunologique au cours des infections disséminées à Histoplasma capsulatum après introduction du traitement antirétroviral chez des patients infectés par le VIH-1 | Tuberculosis in HIV-infected patients: A comprehensive review | Salvage Therapy with Amprenavir, Lopinavir and Ritonavir 200 Mg/D or 400 Mg/D in HIV-Infected Patients in Virological Failure | Vaccine-induced CD4+ T cell responses to MAGE-3 protein in lung cancer patients | Assessment of Cetirizine, an Antihistamine, to Prevent Cutaneous Reactions to Nevirapine Therapy: Results of the Viramune‐Zyrtec Double‐Blind, Placebo‐Controlled Trial | Ten allele high-resolution DNA typing has a direct impact on the disease free survival (DFS) in pediatric recipients of T-cell depleted (TCD) unrelated donor (URD) hematopoietic stem cell transplant (HCT) | AML patients lacking KIR ligand for donor KIR exhibit increased overall survival in HLA-identical sibling transplants | Impact of Insertions in the HIV-1 P6 Ptapp Region on the Virological Response to Amprenavir | Kikuchi-Fujimoto disease associated with mixed connective tissue disease | Erratum: A randomized, double-blind, double-dummy, multicenter trial of voriconazole and fluconazole in the treatment of esophageal candidiasis in immunocompromised patients (Clinical Infectious Diseases (November 1, 2001) 33 (1447-1454)) | [New antifungal agents: voriconazole and caspofungin] | Evasion from NK Cell Immunity by MHC Class I Chain-Related Molecules Expressing Colon Adenocarcinoma | [Killer Ig-like receptor gene content diversity and haplotype analysis in Chinese Han population in Shanghai] | KIR gene content diversity and haplotype analysis in Chinese Han population in Shanghai area | Killer-cell immunoglobulin-like receptor (KIR) nomenclature report, 2002 | Survey of naturally occurring CD4+ T cell responses against NY-ESO-1 in cancer patients: Correlation with antibody responses | Killer-cell Immunoglobulin-like Receptor (KIR) Nomenclature Report, 2002 | Method for Determination of Minimal Inhibitory Concentration (MIC) by Broth Dilution of Fermentative Yeasts | Topotecan in the Treatment of Acquired Immunodeficiency Syndrome-Related Progressive Multifocal Leukoencephalopathy | Killer-cell Immunoglobulin-like Receptor (KIR): Nomenclature Report, 2002</t>
+        </is>
+      </c>
+    </row>
+    <row r="178" ht="80" customHeight="1" s="4">
+      <c r="B178" s="3" t="inlineStr">
+        <is>
+          <t>Isaac Abrrey Monreal</t>
+        </is>
+      </c>
+      <c r="C178" s="3" t="inlineStr">
+        <is>
+          <t>Isaac-Monreal-3</t>
+        </is>
+      </c>
+      <c r="D178" s="3" t="inlineStr">
+        <is>
+          <t>Aldevron</t>
+        </is>
+      </c>
+      <c r="E178" s="3" t="n">
+        <v>4563</v>
+      </c>
+      <c r="F178" s="3" t="n">
+        <v>475</v>
+      </c>
+      <c r="G178" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="H178" s="3" t="inlineStr">
+        <is>
+          <t>Birgit-Bradel-Tretheway | Avery-August | Lukasz-Cwiklik | Gary-Whittaker | Ivan-Nabi | J-Devlin-2 | Stephanie-Sterling-2 | Sebastien-P-Dion | Xuming-Zhu | Hector-Aguilar-13 | Antoine-Desilets | Dhananjaya_Sahoo | Guang-Gao-3 | Nevin-Uras-Aytemiz | Richard-Leduc-2 | Jonel-Saludes-2 | Shahrzad-Ezzatpour | Erik-Contreras-5 | Tirosh-Shapira | Thierry-Vandal | Julie-Sahler | Gerlinde-Van-De-Walle | Andrea-Olmstead | William-Rees-3 | Alan-Tang-2 | Gunner-Johnston-2 | Jace-Jones-2 | Katherine-Szigety | Pierre-Luc-Boudreault | Mingang-Xu-2039353248 | Jisheng-Yang-2045597749 | Kellie-Ann-Jurado-2109245994 | Victoria-Ortega-2123475451 | Maxwell-Frankfurter-2141966891 | J-Lizbeth-Reyes-Zamora-2155915610 | David-W-Buchholz-2164941563 | Brian-Imbiakha-2169544263 | Mason-Jager-2172197904 | Aaleigha-Chin-2194139515 | Yao-Yu-Yeo-2198187950 | Min-Wang-2209190489 | Peter-Hewins-2209191005 | Siqi-Gao-2209200222 | Patricia-Mericko-Ishizuka-2235397839 | Andrew-Ma-2238794821 | Mark-L-Kahn-38625304 | N-Adrian-Leu-39575217 | Qian-Liu-56537228 | Francois-Jean-62228335 | Barbara-Jagoda-Cwiklik-71990870</t>
+        </is>
+      </c>
+      <c r="I178" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="J178" s="3" t="inlineStr">
+        <is>
+          <t>Stefan Pöhlmann | Trudy Morrison | Samuel H Gellman | Stanley Perlman | Lukasz Cwiklik | J. Paul Devlin | Philippe Plattet | Ronald M Iorio | Melinda Brindley | Hector C Aguilar | Antoine Désilets | Cyrille Mathieu | David K. Meyerholz | Kenneth A Matreyek | Lin-Fa Wang | Katharine N Bossart | Sayantan Bose | Benhur Lee | Paul J. Wooldridge | Rebecca Ellis Dutch | Christopher Broder | George P Leser | Oscar A Negrete | Kum Thong Wong | Hugh Hill Richardson | Nevin Uras-Aytemiz | Richard Leduc | Eric Marsault | Dimiter Dimitrov | Yee-Peng Chan | Anne Moscona | Richard K Plemper | Christine Wohlford-Lenane | Markus Hoffmann | Scott Benjamin Biering | Gunner Pete Johnston | Jeffrey Dabundo | John A. Ripmeester | Branka Horvat | Ralph Baric | Birgit Bradel-Tretheway | Anthony V Nicola | Mark von Itzstein | Zeynep Akyol Ataman | Jacquelyn Gervay-Hague | Matteo Porotto | Sara Tajyar Hashimi | Zhongyu Zhu | Jonel P Saludes | James P Kennett</t>
+        </is>
+      </c>
+      <c r="K178" s="3" t="n">
+        <v>25</v>
+      </c>
+      <c r="L178" s="3" t="inlineStr">
+        <is>
+          <t>Thermophobic Trehalose Glycopolymers as Smart C-Type Lectin Receptor Vaccine Adjuvants | Cell-autonomous requirement for ACE2 across organs in lethal mouse SARS-CoV-2 infection | Multivalent viral particles elicit safe and efficient immunoprotection against Nipah Hendra and Ebola viruses | A TMPRSS2 inhibitor acts as a pan-SARS-CoV-2 prophylactic and therapeutic | Novel Roles of the Nipah Virus Attachment Glycoprotein and Its Mobility in Early and Late Membrane Fusion Steps | New Class of Broad-Spectrum Antivirals Improves Influenza Virus Vaccine Development | SARS-CoV-2 infection of olfactory epithelial cells and neurons drives acute lung injury and lethal COVID-19 in mice | Antivirals targeting paramyxovirus membrane fusion | A novel highly potent inhibitor of TMPRSS2-like proteases blocks SARS-CoV-2 variants of concern and is broadly protective against infection and mortality in mice | Rapid Detection of Viral Envelope Lipids Using Lithium Adducts and AP-MALDI High-Resolution Mass Spectrometry | Roles of Cholesterol in Early and Late Steps of the Nipah Virus Membrane Fusion Cascade | SialoPen peptides are new cationic foldamers with remarkable cell permeability | Third Helical Domain of the Nipah Virus Fusion Glycoprotein Modulates Both Early and Late Steps in the Membrane Fusion Cascade | Branched dimerization of Tat peptide improves permeability to HeLa and hippocampal neuronal cells | Nipah Virus Attachment Glycoprotein Stalk C-Terminal Region Links Receptor Binding to Fusion Triggering | One-pot SSA-catalyzed β-elimination: An efficient and inexpensive protocol for easy access to the glycal of sialic acid | NJC 2014 38-507 | A facile microwave-assisted protocol for rapid synthesis of N-acetylneuraminic acid congeners | Solution Phase Conformation and Proteolytic Stability of Amide-Linked Neuraminic Acid Analogues | Communication: Quantitative Fourier-transform infrared data for competitive loading of small cages during all-vapor instantaneous formation of gas-hydrate aerosols | Controlling Nonclassical Content of Clathrate Hydrates Through the Choice of Molecular Guests and Temperature | Instant Conversion of Air to a Clathrate Hydrate: CO2 Hydrates Directly from Moist Air and Moist CO2(g) | Clathrate–hydrate ultrafast nucleation and crystallization from supercooled aqueous nanodroplets | Classical to Nonclassical Transition of Ether−HCN Clathrate Hydrates at Low Temperature | Clathrate hydrates with hydrogen-bonding guests</t>
+        </is>
+      </c>
+      <c r="M178" s="3" t="inlineStr">
+        <is>
+          <t>Chemical Physics | Spectrometers | Mass Spectrometry | Protein Purification | Protein Structure | Enzymes | Liquid Chromatography | High-Performance Liquid Chromatography | Nuclear Magnetic Resonance | Protein Expression</t>
+        </is>
+      </c>
+    </row>
+    <row r="179" ht="80" customHeight="1" s="4">
+      <c r="B179" s="3" t="inlineStr">
+        <is>
+          <t>Greg Welmaker</t>
+        </is>
+      </c>
+      <c r="C179" s="3" t="inlineStr">
+        <is>
+          <t>Greg-Welmaker</t>
+        </is>
+      </c>
+      <c r="D179" s="3" t="inlineStr">
+        <is>
+          <t>Torrey Pines Institute for Molecular Studies</t>
+        </is>
+      </c>
+      <c r="E179" s="3" t="n">
+        <v>973</v>
+      </c>
+      <c r="F179" s="3" t="n">
+        <v>556</v>
+      </c>
+      <c r="G179" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="H179" s="3" t="inlineStr">
+        <is>
+          <t>Mandy-Netherton | Angelo-Andres | Ben-Gung | James-Barrett-7 | Yuk-Ching-Tse-Dinh | Gagandeep-Narula-2 | Adel-Nefzi | Lindsey-Shaw-2 | Richard-Houghten | Lawrence-Toll | Igor-Goljer | Jay-Mclaughlin | Jose-Medina-Franco | Kyle-Rohde | Colette-Dooley-2 | Marc-Giulianotti | Shayna-Sandhaus | Rashmi-Gupta-30 | Radleigh-Santos | Thirunavukkarasu-Annamalai | Travis-Lavoi-2 | Stacey-Rizzo | Sandra-Geden-2 | Barry-Komm | Sharon-Rosenzweig-Lipson | Keith-Pitts-3 | Eugene-Trybulski | Mengxiao-Shi | Laura-Seestaller-Wehr | Jean_Zhang6 | Michelle-Ganno | Matthew-A-Wilson-15504858 | Joan-E-Sabalski-15521970 | J-A-MARSHALL-2163831680 | Thomas-J-Commons-35535254 | John-Dunlop-38299816 | Joseph-Coupet-38532421 | Jeffrey-C-Kern-39080970 | Boyd-L-Harrison-39090190 | Annmarie-L-Sabb-39339272 | Girija-Krishnamurthy-39598239 | Shoichi-Fukayama-39938107 | Ramesh-A-Bhat-39943895 | Peter-VN-Bodine-40050565 | Robert-L-Vogel-49585568 | William-J-Moore-51126600 | Gary-Filzen-82405405 | Jill-A-Jablonowski-84245191 | James-A-Marshall-9661109 | Hossein-Mazandarani-9681112</t>
+        </is>
+      </c>
+      <c r="I179" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="J179" s="3" t="inlineStr">
+        <is>
+          <t>Hesna Yigit | Clare Williams | Jinhua Wu | Mary F Dallman | Jürgen Bajorath | Jutta Eichler | Anca M Segall | Qing-Tian Niu | Yuk-Ching Tse-Dinh | Dani Brunner | Jane Lian | Clemencia Pinilla | Adel Nefzi | Peter D Evans | Lindsey Neil Shaw | Gerald M Maggiora | Richard A. Houghten | Lawrence Toll | Sylvie E Blondelle | Philip Cowen | Jay P McLaughlin | Jose L Medina-Franco | Yaohong Zhang | Mike Bickerdike | Colette T Dooley | Alison M. Strack | Jeffrey S Rubin | Marc A Giulianotti | Radleigh G Santos | Bokun Cheng | Gianny Rossini | Jonathan R Edwards | Gary Stein | Whittney N Burda | Travis M Lavoi | Tripti Gaur | Stacey J Sukoff Rizzo | Karl Drlica | Laura E. Maida | Roland Baron | Barry S Komm | Sharon Rosenzweig-Lipson | Emeka A Onyia | Thomas John Martin | Susan Akana | Kate J Reilley | Wareed Ahmed | Kathy Traianedes | Paul Hartig | Lawrence Fitzgerald</t>
+        </is>
+      </c>
+      <c r="K179" s="3" t="n">
+        <v>24</v>
+      </c>
+      <c r="L179" s="3" t="inlineStr">
+        <is>
+          <t>Small Molecule Inhibitors Targeting Topoisomerase I as Novel Antituberculosis Agents | Supplementary Material | Direct High Throughput In Vivo Screening: Identification of Individual, Novel Antinociceptive Compounds from a Library of 734,821 Pyrrolidine bis-Piperazines | Combinatorial Libraries As a Tool for the Discovery of Novel, Broad-Spectrum Antibacterial Agents Targeting the ESKAPE Pathogens | ChemInform Abstract: The Relative Reactivities of Allyl, Crotyl, α-Oxygenated Crotyl, γ-Oxygenated α-Methylallyl, and Allenyl Tri-n- butylstannane Reagents in Lewis Acid Promoted Additions to Aldehydes | ChemInform Abstract: On the 1,3-Isomerization of Nonracemic α-(Alkoxy)allyl Stannanes. | ChemInform Abstract: Z- and E-γ-Siloxy Allylic Stannanes. Highly syn-Selective Reagents for SE′ Additions to Aldehydes. | ChemInform Abstract: Enantioselective Synthesis of (+)- and (-)-Muricatacin Through SE2′ Addition of Nonracemic γ-Silyloxy Allylic Stannanes to Aldehydes | ChemInform Abstract: A Simple, Efficient Preparation of 1,1-bis(Trimethylsiloxy)-1,3- butadiene | ChemInform Abstract: A Microwave-Assisted, Green Procedure for the Synthesis of N-Aryl Sulfonyl and N-Aryl Pyrroles | A microwave-assisted, green procedure for the synthesis of N-aryl sulfonyl and N-aryl pyrroles | A small molecule inhibitor of the Wnt antagonist Secreted Frizzled-Related Protein (SFRP)-1 stimulates bone formation | Modulation of Wnt Signaling Through Inhibition of Secreted Frizzled-Related Protein I (sFRP-1) with N-Substituted Piperidinyl Diphenylsulfonyl Sulfonamides † | Antiobesity-like effects of the 5-HT2C receptor agonist WAY-161503 | Cycloalkyl[b][1,4]benzodiazepinoindoles Are Agonists at the Human 5HT2C Receptor | A process for the preparation of 1,2,3,4,8,9,10,10a-octahydro-7b H-cyclopenta[ b][1,4]diazepino[6,7,1- hi]indole | Cycloalkyl[b][1,4]benzodiazepinoindoles Are Agonists at the Human 5-HT2C Receptor | A process for the preparation of 1,2,3,4,8,9,10,10a-octahydro-7bH-cyclopenta6b961,49diazepino66,7,1-hi9indole | ChemInform Abstract: Synthesis and 5Hydroxytryptamine (5HT) Activity of 2,3,4,4a-Tetrahydro-1H-pyrazino[1,2-a]quinoxalin-5-(6H)ones and 2,3,4,4a,5,6-Hexahydro-1H-pyrazino[1,2-a]quinoxalines | Synthesis and 5-Hydroxytryptamine (5-HT) activity of 2,3,4,4a-Tetrahydro-1H-pyrazino[1,2-a]quinoxalin-5-(6H)ones and 2,3,4,4a,5,6-Hexahydro-1H-pyrazino[1,2-a]quinoxalines | On the Relative Reactivities of Allyl, Crotyl, alpha-Oxygenated Crotyl, gamma-Oxygenated alpha-Methylallyl, and Allenyl Tri-n-butylstannane Reagents in Lewis Acid Promoted Additions to Aldehydes | Stereoselective Synthesis of the Cytotoxic Acetogenins (+)- and (-)-Muricatacin | ChemInform Abstract: Chiral γ-Siloxyallylstannanes as Synthetic Reagents. Proof of Absolute Configuration. | The use of ₂-alkoxy and ₂-silyloxy allylic stannanes in organic synthesis /</t>
+        </is>
+      </c>
+    </row>
+    <row r="180" ht="80" customHeight="1" s="4">
+      <c r="B180" s="3" t="inlineStr">
+        <is>
+          <t>Mandy Netherton</t>
+        </is>
+      </c>
+      <c r="C180" s="3" t="inlineStr">
+        <is>
+          <t>Mandy-Netherton</t>
+        </is>
+      </c>
+      <c r="D180" s="3" t="inlineStr">
+        <is>
+          <t>University of North Texas</t>
+        </is>
+      </c>
+      <c r="E180" s="3" t="n">
+        <v>17162</v>
+      </c>
+      <c r="F180" s="3" t="n">
+        <v>168</v>
+      </c>
+      <c r="G180" s="3" t="n">
+        <v>37</v>
+      </c>
+      <c r="H180" s="3" t="inlineStr">
+        <is>
+          <t>Beatrice-Colon | Greg-Welmaker | Bill-Baker-2 | Angelo-Andres | Charles-Rosser | Brian-Vesely | Yuk-Ching-Tse-Dinh | Gagandeep-Narula-2 | Andrea-Kohn | Lindsey-Shaw-2 | Dennis-Kyle | Richard-Houghten | Kyle-Rohde | Marc-Giulianotti | Shayna-Sandhaus | Rashmi-Gupta-30 | Thomas-Byrd-2 | Thirunavukkarasu-Annamalai | Mario-Rodriguez-Perez | Christopher-Rice-4 | Sandra-Geden-2 | Leonid-Moroz-2 | Ashley-Souza-2 | Evan-Gomes-Giacoia-2017202477 | Tatiana-P-Moroz-2028529892 | Jeffrey-P-Barnes-2028535225 | M-Knestrick-2068996625 | Renee-M-Fleeman-2069004876 | D-Demers-2069025030 | Pamela-K-Garcia-2107692749 | Carolina-Rodrigues-Felix-2107695342 | Carlos-Paz-2107701044 | Rahmy-Tawfik-2148249582 | Jeanette-E-Eckel-Passow-38106045 | Steve-Goodison-38427369 | Virginia-Urquidi-39759564 | Daniel-Serie-76391260</t>
+        </is>
+      </c>
+      <c r="I180" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="J180" s="3" t="inlineStr">
+        <is>
+          <t>Nancy Keller | Hesna Yigit | Volker Schroeckh | Yijun Sun | Charles J Rosser | Siouxsie Wiles | Theresa H Ward | Yuk-Ching Tse-Dinh | Gagandeep Narula | Tanya Parish | Clemencia Pinilla | Adel Nefzi | Shahrokh F Shariat | Fuchou Tang | Dennis E Kyle | Richard A. Houghten | Andreas Heyland | Richard james wallace, jr. | Marta Sanchez-Carbayo | Bernd J Schmitz-Dräger | Jose L Medina-Franco | Yair Lotan | Kyle H Rohde | Colette T Dooley | Ka-Lai Pang | Marc A Giulianotti | Taryn Iona Fletcher | Radleigh G Santos | Bokun Cheng | Nuria Andreu | Thomas Frederick Byrd | James Catto | Won-Jung Koh | Jacqueline L. von Salm | Karl Drlica | Sandra E Geden | Leonid Moroz | Robert Svatek | Lourdes Mengual | Paul J O'Sullivan | Li Liu | Xiaohui Wang | Feliksas Jankevicius | Bill J. Baker | Jeffrey Sabina | John K. Reed | Vibha Tandon | Andrea B. Kohn | Tina Susanna Mutka | Rashmi Gupta</t>
+        </is>
+      </c>
+      <c r="K180" s="3" t="n">
+        <v>18</v>
+      </c>
+      <c r="L180" s="3" t="inlineStr">
+        <is>
+          <t>Exploitation of Mangrove Endophytic Fungi for Infectious Disease Drug Discovery | Reporter-Based Assays for High-Throughput Drug Screening against Mycobacterium abscessus | Supplementary Material 2 | Supplementary Material 3 | Supplementary Material 5 | Supplementary Material 1 | Supplementary Material 4 | Supplementary Material 6 | A microRNA biomarker panel for the non-invasive detection of bladder cancer | Supplementary Material 3 | Supplementary Material 2 | Supplementary Material 1 | Urinary mRNA biomarker panel for the detection of urothelial carcinoma | Supplementary Material 1 | Supplementary Material 2 | Supplementary Material 3 | Small Molecule Inhibitors Targeting Topoisomerase I as Novel Antituberculosis Agents | Single-Cell Semiconductor Sequencing</t>
+        </is>
+      </c>
+      <c r="M180" s="3" t="inlineStr">
+        <is>
+          <t>PCR | Cell Culture | Gel Electrophoresis | DNA | Western Blot Analysis | DNA Extraction | RNA | Electrophoresis | RNA Isolation | SDS-PAGE</t>
+        </is>
+      </c>
+    </row>
+    <row r="181" ht="80" customHeight="1" s="4">
+      <c r="B181" s="3" t="inlineStr">
+        <is>
+          <t>Bradley Corbett</t>
+        </is>
+      </c>
+      <c r="C181" s="3" t="inlineStr">
+        <is>
+          <t>Bradley-Corbett</t>
+        </is>
+      </c>
+      <c r="D181" s="3" t="inlineStr">
+        <is>
+          <t>The University of Western Ontario</t>
+        </is>
+      </c>
+      <c r="E181" s="3" t="n">
+        <v>11170</v>
+      </c>
+      <c r="F181" s="3" t="n">
+        <v>753</v>
+      </c>
+      <c r="G181" s="3" t="n">
+        <v>39</v>
+      </c>
+      <c r="H181" s="3" t="inlineStr">
+        <is>
+          <t>Evelyn-Vingilis | Asuri-Prasad | Jorge-Burneo | Charles-Nelson-2 | Elisa-Hurley | Robbie-Babins-Wagner | Anabel-Quan-Haase | Susan-Rodger-2 | Michael-Haight-2 | Amanda-Thompson-16 | Kate-St-Cyr | Ricardas-Zitikis | Leo-Pasquazzi | Alison-Konrad | Yang-Yang-356 | Alan-Leschied | Sharla-Zalmanowitz | Dorothy-Forbes | Jon-Elhai | Daniel-Caro-3 | Allison-Williams | Francesca-Greselin | J-Don-Richardson | Lisa-King-20 | Tanya-Charyk-Stewart-10492992 | Julie-Mitchell-10565985 | Philippe-Shnaider-2001533681 | Rebecca-Williams-2002320115 | Denise-Polgar-2014473549 | Charushree-Prasad-2045421422 | Neil-Parry-2065374469 | David-Sanders-2070862788 | J-Sareen-2128881759 | Mary-Essar-31470054 | Mark-A-Zamorski-34918650 | Murray-J-Girotti-34981272 | Christina-Tieszer-39766626 | Shannon-Gifford-58714171 | X-Sang-58744314</t>
+        </is>
+      </c>
+      <c r="I181" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="J181" s="3" t="inlineStr">
+        <is>
+          <t>Harold Koenig | J Don Richardson | Matti Sillanpää | Gordon J G Asmundson | Samuel Wiebe | Michael Schoenbaum | Shay-Lee Bolton | Eszter Hargittai | Wayne F Velicer | Jitender Sareen | Robert J Ursano | James O Prochaska | Robert E. Kraut | Anabel Quan-Haase | Michael R. Nadorff | William L. Scherlis | Paul Attewell | Joan K Austin | Joseph Lipscomb | Sara Kiesler | Charles W Steinfield | Nicole B Ellison | Alladi Venkatesh | Kenneth A. Frank | Carol S. Fullerton | Donna Hoffman | Margaret Guyer | Robert Duval | Thomas P Novak | Carl Andrew Castro | Mogens Vestergaard | Christopher Z. Mooney | Kenneth A Egol | John A. Ross | James Katz | Nathalie Huguet | Asuri Prasad | Yuli Patrick Hsieh | Hiroshi Ono | Stephen E. Gilman | Jorge Burneo | Katreena Scott | Madeline Zavodny | Barry Wellman | Yong Zhao | Ronald C. Kessler | Tim Bullman | Hans-Ulrich Wittchen | Guilherme Borges | Jon D Elhai</t>
+        </is>
+      </c>
+      <c r="K181" s="3" t="n">
+        <v>21</v>
+      </c>
+      <c r="L181" s="3" t="inlineStr">
+        <is>
+          <t>Organization or Market Oriented HRM Practices? Examining Their Effects on Employee Wages | Insomnia, psychiatric disorders and suicidal ideation in a National Representative Sample of active Canadian Forces members | Epilepsy, birth weight and academic school readiness in Canadian Children: Data from the National Longitudinal Study of Children and Youth | Epilepsy and Its Impact on Psychosocial Outcomes in Canadian Children: Data from the National Longitudinal Study of Children and Youth (NLSCY) | Revisiting the digital divide in Canada: The impact of demographic factors on access to the internet, level of online activity, and social networking site usage | Can High Involvement Work Practices Enhance Equity inCareer Advancement through Promotions? | A national profile of neurodevelopmental disabilities in Canadian children: data from the National Longitudinal Study of Children and Youth | Epilepsy, Comorbid Conditions in Canadian Children: Analysis of Cross Sectional Data from Cycle 3 of the National Longitudinal Study of Children and Youth | Epilepsy, School Readiness in Canadian Children: Data from the National Longitudinal Study of Children and Youth (NLSCY) | INCOME INEQUALITY IN CANADA AND THE MITIGATING INFLUENCE OF PROVINCIAL TAX POLICIES: FINDINGS FROM THE 2006 CENSUS | Revisiting the digital divide in Canada: The impact of demographic factors on access to the internet, level of online activity, and social networking site usage | The Association of Readiness to Change and Motivational Interviewing with Treatment Outcomes in Males involved in Domestic Violence Group Therapy | Operative Versus Nonoperative Treatment of Unstable Lateral Malleolar Fractures: A Randomized Multicenter Trial | Prevalence of Childhood Epilepsy in Canada | Predictors of posttraumatic stress disorder, depression, and suicidal ideation among Canadian Forces personnel in a National Canadian Military Health Survey | Not all measures of income inequality are equal: A comparison between the Gini and the Zenga | Evaluation of an Adolescent Hospital-Based Injury Prevention Program | The Influence of Income on the Experience of Informal Caregiving | Canadian Students' Access to and Use of Information and Communication Technology | Tech and teens: Access and use Tech and teens: Access and use | An impact evaluation of the Ontario ban on smoking in schools and on school property : does the ban on smoking influence high school students' intentions to smoke cigarettes?</t>
+        </is>
+      </c>
+      <c r="M181" s="3" t="inlineStr">
+        <is>
+          <t>Information and Communication Technology | Comorbidity | Public Health | Statistical Analysis | Developmental Disabilities | Data Analysis | Health Promotion | Time Series | Applied Statistics | Statistical Modeling</t>
+        </is>
+      </c>
+    </row>
+    <row r="182" ht="80" customHeight="1" s="4">
+      <c r="B182" s="3" t="inlineStr">
+        <is>
+          <t>Jorge Burneo</t>
+        </is>
+      </c>
+      <c r="C182" s="3" t="inlineStr">
+        <is>
+          <t>Jorge-Burneo</t>
+        </is>
+      </c>
+      <c r="D182" s="3" t="inlineStr">
+        <is>
+          <t>The University of Western Ontario</t>
+        </is>
+      </c>
+      <c r="E182" s="3" t="n">
+        <v>42291</v>
+      </c>
+      <c r="F182" s="3" t="n">
+        <v>4701</v>
+      </c>
+      <c r="G182" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="H182" s="3" t="inlineStr">
+        <is>
+          <t>Michael-Sperling-2 | Juan-Toro-Perez | Tresah-Antaya | Nathalie-Jette | Nita-Limdi | Samuel-Wiebe | Jose-Tellez-Zenteno | Gustavo-Saposnik | Donald-Lee-7 | Edward-Faught | Terry-Peters | Lizbeth-Ronquillo | Ashu-Prasad | Kristen-Riley | Ali-Khan-23 | Elma-Paredes-Aragon | Robert-Hammond-8 | Robert-Knowlton-2 | Jonathan-Lau-10 | Sandrine-De-Ribaupierre | Maged-Goubran | Seyed-Mirsattari-2 | Adrian-Budhram | Salimah-Shariff | Poul-Espino-Alvarado-2 | Keith-Macdougall | David-Diosy | Jeffrey-Blount | Ana-Suller | Roy-Martin-2 | Pongkiat-Kankirawatana-2 | Ruben-Kuzniecky | Holger-Joswig | Terence-Peters-2 | Andrew-Parrent | David-Steven-2 | Brendan-Santyr | Cecilia-E-Aragon-13374309 | Alejandro-L-Escalaya-2049120537 | Willy-Zapata-2069130387 | Fateme-Salehi-2083597787 | Benjamin-Yin-Ming-Kwan-2113481367 | Manuel-Herrera-2144679846 | ME-Jenkins-2165299531 | Luis-C-Mayor-2181221544 | Ana-Suller-Marti-2211642395 | Mary-E-Jenkins-34777931 | R-Morawetz-38173762 | Warren-T-Blume-38420581 | Richard-S-McLachlan-38704889</t>
+        </is>
+      </c>
+      <c r="I182" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="J182" s="3" t="inlineStr">
+        <is>
+          <t>Solomon Moshe | Andrew Parrent | Ley Sander | Oscar Del Brutto | Antonio Carlos Santos | Alexis Arzimanoglou | Samuel Wiebe | José Francisco Tellez-Zenteno | Judith Helen Cross | Ettore Beghi | Frederick Andermann | Arturo Carpio | Shlomo Shinnar | Edward Faught | Patrick Chauvel | Lizbeth Hernández Ronquillo | Marco T Medina | Theodore E Nash | Fernando Cendes | Christian E Elger | Robert C Knowlton | Graeme D Jackson | Ingmar Blümcke | Edwin Javier Pretell | Terence John O’Brien | William Bingaman | Seyed Mirsattari | Gregory Cascino | Ravindra Kumar Garg | David Chadwick | Andres M Kanner | Andrew Mckeon | Andrea Bernasconi | Roy Martin | Chun Kee Chung | Fabrice Bartolomei | Simon Shorvon | Ruben Kuzniecky | John P Girvin | Jacqueline A French | Orrin Devinsky | David A Steven | Michael Sperling | Hector H. Garcia | Nathalie Jette | Philippe Ryvlin | Osvaldo Takayanagui | Gary W Mathern | Emilio Perucca | Keith W. MacDougall</t>
+        </is>
+      </c>
+      <c r="K182" s="3" t="n">
+        <v>307</v>
+      </c>
+      <c r="L182" s="3" t="inlineStr">
+        <is>
+          <t>P.011 Is the effect of the vagus nerve stimulation different in lesional and nonlesional medically resistant epilepsies? | Nationwide Study of Postlegalization Marijuana Use Among Patients With Epilepsy in Canada | Microscopic fractional anisotropy asymmetry in unilateral temporal lobe epilepsy | Deep Brain Stimulation of the Anterior Nucleus of the Thalamus in Drug Resistant Epilepsy in the MORE Multicenter Patient Registry | Seizures and Epilepsy associated with Central Nervous System Tuberculosis | Depression in patients with epilepsy. Pathophysiological and clinical concepts and therapeutic strategies | Pearls and Oy-sters: Salt and Pepper Sign, PLNTY for Drug-Resistant Epilepsy | Mood and Anxiety Disorders and Suicidality in Patients With Newly Diagnosed Focal Epilepsy: An Analysis of a Complex Comorbidity | Outcome in Bilateral Temporal Lobe Epilepsy After Treatment With Vagus Nerve Stimulation | Acute symptomatic seizures, epilepsy, and autoimmune encephalitis: Clarifying terminology in neural antibody‐associated disease | “Obvious” Indications for Neural Antibody Testing in Epilepsy or Seizures: The ONES Checklist | Relationship between déjà vu experiences and recognition-memory impairments in temporal-lobe epilepsy | Epilepsy Surgery in Adult Stroke Survivors with New-Onset Drug-Resistant Epilepsy | HaNDL Syndrome and Seizures: An Unusual Presentation | Epilepsy‐associated death in the Southwestern Ontario: A clinicopathological correlation study | Epilepsy Risk Following Bariatric Surgery for Weight Loss | An update on Neurocysticercosis-related epilepsy | Epilepsia con patrón catamenial | Depression and suicide after temporal lobe epilepsy surgery: A systematic review | Long Term outcomes after NORSE: Treatment with Vagus Nerve Stimulation | An international consortium in epilepsy surgery education: Clinical case-based discussions between Latin-American and Canadian Epilepsy Centers | Quality of Life in Elderly Epilepsy Patients Implanted With Vagus Nerve Stimulators | Cranial trepanation in pre-Columbian Peruvian cultures: was it an option to treat epilepsy? | Timing of referral to evaluate for epilepsy surgery: Expert Consensus Recommendations from the Surgical Therapies Commission of the International League Against Epilepsy | Waveform detection by deep learning reveals multi-area spindles that are selectively modulated by memory load | 4231-Texto del artículo-11790-2-10-20220621.pdf | Inteligencia artificial en la evaluación y manejo de pacientes con epilepsia | P.014 Immunotherapy responses of patients with suspected autoimmune-associated epilepsy with negative neural antibody testing | P.096 Bi-insular responsive neurostimulation artifact on scalp electroencephalogram | Canadian epilepsy priority-setting partnership: Toward a new national research agenda | Epilepsy with catamenial pattern | Burden of epilepsy in Latin America and The Caribbean: a trend analysis of the Global Burden of Disease Study 1990 – 2019 | Dacrystic seizures in MRI-negative patients | Auditory Verbal Hallucinations As Ictal Phenomena In A Patient With Drug-Resistant Epilepsy | “Obvious” indications for Neural antibody testing in Epilepsy or Seizures: The ONES checklist | International Post Stroke Epilepsy Research Consortium (IPSERC): A consortium to accelerate discoveries in preventing epileptogenesis after stroke | Extraoperative electrical stimulation mapping in epilepsy presurgical evaluation: a proposal and review of the literature | Epilepsia partialis continua in relapsing-remitting multiple sclerosis: A possible distinct relapse phenotype | Role of resective surgery in patients older than 60 years with therapy-resistant epilepsy | A.6 Vagus Nerve Stimulation in patients with therapy resistant generalized epilepsy | P.127 Ultra-high field 7-Tesla magnetic resonance imaging and electroencephalography findings in epilepsy | P.129 Bi-insular Responsive Neurostimulation Artifact on Scalp Electroencephalogram | P.125 Discriminating sharp-wave ripples and interictal epileptiform discharges in patients with mesial temporal epilepsy using intracranial EEG recordings | Smartphone devices for diagnosis of epileptic seizures: A systematic review and meta-analysis | A prospective controlled study on the impact of anterior temporal lobectomy on dream content | Ultra-High Field 7-Tesla Magnetic Resonance Imaging and Electroencephalography Findings in Epilepsy | Convulsive Status Epilepticus in a Cohort of Patients from a Peruvian Academic Hospital | Vagus nerve stimulation does not alter brainstem nuclei morphology in patients with refractory epilepsy | Epilepsy surgery in drug-resistant stroke-related epilepsy | An evaluation of the diagnostic equivalence of 18F-FDG-PET between hybrid PET/MRI and PET/CT in drug-resistant epilepsy: A pilot study | Epilepsias mioclónicas progresivas | Evaluación y manejo de primera crisis epiléptica | All that glitters: Contribution of stereo-EEG in patients with lesional epilepsy | Letter by Fridman et al Regarding Article, “Incidence and Association of Reperfusion Therapies With Poststroke Seizures: a Systematic Review and Meta-Analysis” | Stimulation of the Anterior Nucleus of the Thalamus for Epilepsy: A Canadian Experience | Dr. Jose F. Tellez-Zenteno - In Memoriam | Eventos no epilépticos psicógenos: El desafío constante de su diagnóstico y tratamiento | Vagus nerve stimulation in patients with therapy-resistant generalized epilepsy | Temporal plus epilepsy: A review | Epilepsy risk among survivors of intensive care unit hospitalization for sepsis | 18F-FDG PET-guided diffusion tractography reveals white matter abnormalities around the epileptic focus in medically refractory epilepsy: implications for epilepsy surgical evaluation | Can we accurately lateralize the epileptogenic zone in patients who have seizure clusters? A study using stereo-electroencephalography | Stereoelectroencephalography Versus Subdural Strip Electrode Implantations: Feasibility, Complications, and Outcomes in 500 Intracranial Monitoring Cases for Drug-Resistant Epilepsy | Seizure Freedom in Temporal Plus Epilepsy Surgery Following Stereo-Electroencephalography | Position Statement on the Use of Medical Cannabis for the Treatment of Epilepsy in Canada | Experience on the use of Vagus Nerve Stimulation during Pregnancy | Relationship between déjà vu experiences and recognition-memory impairments in temporal-lobe epilepsy | The risk of new-onset epilepsy and refractory epilepsy in older adult stroke survivors | The Predictive Value of Endpoint Quaking-Induced Conversion in Creutzfeldt-Jakob Disease | Robot-Assisted Insular Depth Electrode Implantation Through Oblique Trajectories: 3-Dimensional Anatomical Nuances, Technique, Accuracy, and Safety | SUDEP: Let's talk about it | Diagnosing autoimmune limbic encephalitis | Global Health and Epilepsy: Update and Future Directions | Cirugía en epilepsia refractaria debida a neurocisticercosis | High-dose corticosteroids for acute cytomegalovirus-associated transverse myelitis in the immunocompetent patient: a case report and systematic review | Epilepsia mioclónica juvenil | Population-Based Study of Risk of Acute Kidney Injury with Levetiracetam | Establishment of epilepsy surgery in Peru | Síndrome de Lennox Gastaut. Aproximación diagnóstica y avances terapéuticos: Fármacos antiepilépticos, Canabidiol y otras alternativas. | Focal Epilepsy Secondary to Juxtacortical Lesions in Cerebral Autosomal Dominant Arteriopathy with Subacute Infarcts and Leukoencephalopathy | P.063 Stereotactic targeting of hippocampal substructures using ultra-high field magnetic resonance imaging: Feasibility study in patients with epilepsy | Clinical topography relationship in patients with parenchymal neurocysticercosis and seizures | F07. Using ultra-high field 7T MRI for evaluation of EEG findings in patients with temporal lobe epilepsy | T05. Pre-surgical assessment of drug-resistant insular and peri insular epilepsy: A single center experience | BS16. VNS in generalized epilepsy: An assessment on the efficacy | Intracranial Electroencephalographic Monitoring: From Subdural to Depth Electrodes | Lennox Gastaut Syndrome: Diagnosis approach and therapeutics advances: Antiepileptic drugs, cannabidiol and other alternatives | Novel Connectivity Map Normalization Procedure for Improved Quantitative Investigation of Structural Thalamic Connectivity in Temporal Lobe Epilepsy Patients: Structural Parcellation of the Thalamus | Gabapentin dose and the 30-day risk of altered mental status in older adults: A retrospective population-based study | S5 Table | S1 Table | S2 Table | S4 Table | S6 Table | S3 Table | S1 Fig | Awake perimetry testing for occipital epilepsy surgery | Refractory Epilepsy: The role of positron emission tomography (PET) | La cirugía de epilepsia y el establecimiento de programas quirúrgicos en el Perú: El proyecto de colaboración entre Perú y Canadá. | Neurocysticercosis-related epilepsy</t>
+        </is>
+      </c>
+      <c r="M182" s="3" t="inlineStr">
+        <is>
+          <t>Epilepsy</t>
+        </is>
+      </c>
+    </row>
+    <row r="183" ht="80" customHeight="1" s="4">
+      <c r="B183" s="3" t="inlineStr">
+        <is>
+          <t>Corona-Rivera Alfredo</t>
+        </is>
+      </c>
+      <c r="C183" s="3" t="inlineStr">
+        <is>
+          <t>Corona-Rivera-Alfredo</t>
+        </is>
+      </c>
+      <c r="E183" s="3" t="n">
+        <v>9457</v>
+      </c>
+      <c r="F183" s="3" t="n">
+        <v>696</v>
+      </c>
+      <c r="G183" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="H183" s="3" t="inlineStr">
+        <is>
+          <t>Rene-Perez-Ramirez | Mario-Ramirez-Herrera | Eugenio-Zapata-Aldana | Cesar-Monterrubio-Ledezma | Helia-Pimentel | Rogelio-Troyo-Sanroman | Sylvia-Totsuka-Sutto | Juan-Zenteno-2 | Jorge-Corona-Rivera | J-Jesus-Perez-Molina | Maria-Luisa-Mendoza-Magana | Christian-Pena-Padilla | Izabel-Rios-Flores | Uriel-Francisco-Santana-Bejarano | Jorge-Acosta-20 | Sandra-Olvera-Molina | Sinhue-Brukman-2 | Mireya-Orozco-Vela | Alejandra-Baldomero-Lopez | Teresa-Garcia-Cobian | Cruz-Rosa | Cristian-Aranda-Sanchez | Idalid-Cuero-Quezada | Diana-Garcia-Cruz-2 | Lizbet_Mellin-Sanchez | Moises-Quiles-Corona | Rafael-Nieto-8 | Martin-Zenker-3 | Oscar-Gonzalez-Ramella | Ernesto-Barrios-Prieto | Lucina-Bobadilla-Morales | Veronica-Soto-Chavez | Patricia-Urbina-Cano | Fernando-Sanchez-Zubieta | Dezso-David | Citlalli-Ortega | Sara-A-Estrada-Padilla-15417201 | Rafael-L-Aguirre-Guillen-2006747592 | Francisco-Javier-Martinez-Macias-2036909941 | Ezequiel-Velez-Gomez-2062797098 | Jehu-Rivera-Vargas-2071661205 | Elizabeth-Acosta-Fernandez-2118366028 | Enrique-Corona-Rivera-2135387814 | Luz-Consuelo-Zepeda-Romero-2147326857 | Elizabeth-Torres-Anguiano-2147335201 | Lucero-Mendoza-Maldonado-2155536145 | Aurea-Marquez-Mora-2177984370 | Liuba-M-Aguirre-Salas-2195879886 | Juan-Hernandez-Rocha-30585344 | Eloy-Lopez-Marure-39959896</t>
+        </is>
+      </c>
+      <c r="I183" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="J183" s="3" t="inlineStr">
+        <is>
+          <t>Volker Brinkmann | Rainer Saffrich | Anthony Ho | Steve Twigg | Merlin Butler | Russell S Kirby | Lora J H Bean | John M Graham | Jorge Román Corona-Rivera | J. Jesús Pérez-Molina | Sonja Rasmussen | Jet Bliek | Stuart Tinker | Emily Graves Allen | María Luisa Martínez-Frías | Pierpaolo Mastroiacovo | Margaret Honein | Bengt Källén | S.M Hadi | Bharat Aggarwal | Stephanie L Sherman | Mary L Marazita | Charlotte A Hobbs | Richard Larson | Valérie Cormier-Daire | Ilse Wieland | Marilyn J Bull | John C Carey | Mark A Canfield | Kenneth J Dooley | Wolfgang Wagner | Johannes H M Merks | Martin Zenker | Jean-Pierre Fryns | Marcel Mannens | Robert D Christensen | Lucina Bobadilla-Morales | Charlotte Druschel | Erick Henry | Paresh Vyas | John Opitz | Orit Kollet | Raul Ribeiro | Volker Eckstein | Humaira Dar | Nazneen Rahman | Rudolf Happle | Jelena Roganovic | Osvaldo M Mutchinick | Gary M. Shaw</t>
+        </is>
+      </c>
+      <c r="K183" s="3" t="n">
+        <v>68</v>
+      </c>
+      <c r="L183" s="3" t="inlineStr">
+        <is>
+          <t>Aneurysms involving the coronary arteries in a neonate with neurofibromatosis 1 | Clinical insights from an unusual Turner syndrome manifestation: Congenital cutis verticis gyrata | Identification of a Small Supernumerary Marker Chromosome in a Turner Syndrome Patient with Karyotype mos 46,X,+mar/45,X | Intrafamilial variability and neurological manifestations in two siblings with carbohydrate sulfotransferase 3-related skeletal dysplasia | First Report of Mexican Patients with PACS1-Related Neurodevelopmental Disorder and Review of the PACS1-, PACS2-, and WDR37-Related Ophthalmological Manifestations | Intrafamilial phenotypic variability in autosomal recessive DOCK6-related Adams-Oliver syndrome | Frequency of chromosome 22q11.2 deletion among newborns with non-syndromic congenital heart defects from western Mexico | Usefulness of the MS-MLPA technique in the diagnosis of Beckwith-Wiedemann syndrome and Silver-Russell syndrome | Utilidad de la técnica de MS-MLPA en el diagnóstico de los síndromes de Beckwith-Wiedemann y Silver-Russell | Family history of thyroid disease and risk of congenital hypothyroidism in neonates with Down syndrome | Prader-Willi and Angelman syndromes: case series diagnosed by MS-MLPA assay | MTHFR C677T and A1298C variants in Mexican Mestizo infants with neural tube defects from Western Mexico | Historia familiar de enfermedad tiroidea y riesgo de hipotiroidismo congénito en neonatos con síndrome de Down | Physiological concentrations of short-chain fatty acids induce the formation of neutrophil extracellular traps in vitro | Prevalence of open neural tube defects and risk factors related to isolated anencephaly and spina bifida in live births from the “Dr. Juan I. Menchaca” Civil Hospital of Guadalajara (Jalisco, Mexico) | Sole trisomy 6 an uncommon finding in pediatric acute myeloid leukemia, probably associated to bad prognosis | Complete blood count differences in a cohort of Down syndrome neonates with transient abnormal myelopoiesis screened for GATA1 pathogenic variants | Acute liver failure in a male patient with NGLY1-congenital disorder of deglycosylation | Extracranial midline defects in a patient with craniofrontonasal syndrome with a novel EFNB1 mutation | Maternal risk factors for congenital heart defects in infants with Down syndrome from Western Mexico | In�vitro effect of curcumin in combination with chemotherapy drugs in Ph+ acute lymphoblastic leukemia cells | Prevalence and risk factors for Down syndrome: A hospital‐based single‐center study in Western Mexico | Ring chromosome 6 in a child with anterior segment dysgenesis and review of its overlap with other FOXC1 deletion phenotypes | Expression profile of NF-κB regulated genes in sporadic colorectal cancer patients | Prevalence of orofacial clefts and risks for nonsyndromic cleft lip with or without cleft palate in newborns at a university hospital from West Mexico | Aneuploidy identification in pre-B acute lymphoblastic leukemia patients at diagnosis by Multiplex Ligation-dependent Probe Amplification (MLPA) | Descriptive study of the complete blood count in newborn infants with Down syndrome | Compound heterozygous mutations in the IFT140 gene cause Opitz trigonocephaly C syndrome in a patient with typical features of a ciliopathy | Curcumin potentiates the effect of chemotherapy against acute lymphoblastic leukemia cells via downregulation of NF‑κB | Oblique facial clefts in Johanson-Blizzard syndrome | Pediatric donor cell leukemia after allogeneic hematopoietic stem cell transplantation in AML patient from related donor | Associated congenital anomalies in infants with isolated gastroschisis: A single-institutional experience | Unusual retrospective prenatal findings in a male newborn with Timothy syndrome type 1 | Prevalence and risk factors for gastroschisis in a public hospital from west México: Gastroschisis in west México | [Minor phenotypic variants in patients with acute lymphoblastic leukemia from west México.] | Co-Occurrence of Hemiscrotal Agenesis With Cutis Marmorata Telangiectatica Congenita and Hydronephrosis Affecting the Same Side of the Body | Variantes fenotípicas menores en pacientes con leucemia linfoblástica aguda del occidente de México | [Ataxia telangiectasia. Diagnosis and follow-up in 4 cases] | Aplasia Cutis Congenita of the Scalp in a Female Infant With Anophthalmia/Microphthalmia-Esophageal Atresia Syndrome Negative for SOX2 Mutation | Dysgnathia complex sine holoprosencephaly nor synotia: A case report and discussion of its nosology | Confirmation of the macroblepharon, ectropion, hypertelorism, and macrostomia syndrome | Angelman syndrome and thyroid dysfunction | Modeling SDF-1-induced mobilization in leukemia cell lines | A Translocation t(5;15)(q15;q11-13) Infant Case with Acute Lymphoblastic Leukemia and Literature Review: Prognosis Implications | Agenesis of the vocal cords in a female infant with Robin sequence | MONTH OF BIRTH AND BEGINNING OF DISEASE IN CHILDHOOD LANGERHANS CELL HISTIOCYTOSIS IN A MEXICAN SINGLE INSTITUTION | Characterization of two ectrodactyly-associated translocation breakpoints separated by 2.5 Mb on chromosome 2q14.1-q14.2 | Chromosome instability in a patient with recurrent abortions | Case Report: Corroboration of the lower extremity counterpart of the Poland sequence | Sydney crease frequency changes among the newborns and infants | Protective in vivo effect of curcumin on copper genotoxicity evaluated by comet and micronucleus assays | Hepatoblastoma in a patient with Goldenhar syndrome born to a diabetic mother | Cytotoxic effect of curcumin on Giardia lamblia trophozoites | DNA damage in mouse lymphocytes exposed to curcumin and copper | Cell cycle and centromere FISH studies in premature centromere division | Mental retardation in a boy with anterior cervical hypertrichosis | Occurrence of preterm and term low birth weight deliveries and presence of the Sydney crease | Incidencia de nacimientos pretérmino y de término con peso bajo al nacer y existencia de línea Sydney | Chromosome Instability Induced in Vitro with Mitomycin C in Five Seckel Syndrome Patients | Atypical parasitic ischiopagus conjoined twins | Lumbopedal skin pedicle in an infant with the amniotic band syndrome: A Disorganization-like defect? | Cleft lip and/or palate in two cases of 46,X,i(Xq) Turner syndrome | Report and review of the fetal brain disruption sequence | Holoprosencephaly, hypertelorism, and ectrodactyly in a boy with an apparently balanced de novo t(2;4) (q14.2;q35) | Infant with manifestations of oto‐palato‐digital syndrome type II and of Melnick‐Needles syndrome | Unusual presentation of heteropagus attached to the thorax | Corroboration of the lower extremity counterpart of the Poland sequence | Congenital ichthyosis vulgaris in a patient with trisomy 18</t>
+        </is>
+      </c>
+    </row>
+    <row r="184" ht="80" customHeight="1" s="4">
+      <c r="B184" s="3" t="inlineStr">
+        <is>
+          <t>Jorge Román Corona-Rivera</t>
+        </is>
+      </c>
+      <c r="C184" s="3" t="inlineStr">
+        <is>
+          <t>Jorge-Corona-Rivera</t>
+        </is>
+      </c>
+      <c r="D184" s="3" t="inlineStr">
+        <is>
+          <t>University of Guadalajara</t>
+        </is>
+      </c>
+      <c r="E184" s="3" t="n">
+        <v>16091</v>
+      </c>
+      <c r="F184" s="3" t="n">
+        <v>759</v>
+      </c>
+      <c r="G184" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="H184" s="3" t="inlineStr">
+        <is>
+          <t>Rene-Perez-Ramirez | Corona-Rivera-Alfredo | Eugenio-Zapata-Aldana | Wadih-Bitar-Alatorre | Cesar-Monterrubio-Ledezma | Helia-Pimentel | Juan-Zenteno-2 | J-Jesus-Perez-Molina | Christian-Pena-Padilla | Izabel-Rios-Flores | Uriel-Francisco-Santana-Bejarano | Jorge-Acosta-20 | Sinhue-Brukman-2 | Mireya-Orozco-Vela | Alejandra-Baldomero-Lopez | Teresa-Garcia-Cobian | Cristian-Aranda-Sanchez | Idalid-Cuero-Quezada | Diana-Garcia-Cruz-2 | Lizbet_Mellin-Sanchez | Jose-Garcia-Ortiz-2 | Moises-Quiles-Corona | Rafael-Nieto-8 | Martin-Zenker-3 | Veronica-Loera-Castaneda | Belinda-Gomez-Meda | Oscar-Gonzalez-Ramella | Lucina-Bobadilla-Morales | Fernando-Sanchez-Zubieta | Ana-Sandoval | Citlalli-Ortega | Sara-A-Estrada-Padilla-15417201 | Geronimo-Tavares-Macias-2004427275 | Rafael-L-Aguirre-Guillen-2006747592 | Karla-Miguel-Jimenez-2007837813 | Francisco-Javier-Martinez-Macias-2036909941 | Ezequiel-Velez-Gomez-2062797098 | Jehu-Rivera-Vargas-2071661205 | Elizabeth-Acosta-Fernandez-2118366028 | Enrique-Corona-Rivera-2135387814 | Luz-Consuelo-Zepeda-Romero-2147326857 | Elizabeth-Torres-Anguiano-2147335201 | Lucero-Mendoza-Maldonado-2155536145 | Aurea-Marquez-Mora-2177984370 | Guadalupe-Elena-Morales-Dominguez-2184653251 | Liuba-M-Aguirre-Salas-2195879886 | Juan-Hernandez-Rocha-30585344 | Carmen-O-Romo-Huerta-33671589 | J-Sanchez-Corona-39369456 | Eloy-Lopez-Marure-39959896</t>
+        </is>
+      </c>
+      <c r="I184" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="J184" s="3" t="inlineStr">
+        <is>
+          <t>Cole Ferguson | Corona-Rivera Alfredo | Steve Twigg | Andrea Superti-Furga | Merlin Butler | Russell S Kirby | Lora J H Bean | John M Graham | J. Jesús Pérez-Molina | Sonja Rasmussen | Jet Bliek | Martha M Werler | Emily Graves Allen | María Luisa Martínez-Frías | Pierpaolo Mastroiacovo | Margaret Honein | Bengt Källén | Guy M. Lenk | Bharat Aggarwal | Miriam H Meisler | Stephanie L Sherman | Charlotte A Hobbs | Richard Larson | Valérie Cormier-Daire | Marilyn J Bull | Olivia Torres Bugarin | John C Carey | Mark A Canfield | Johannes H M Merks | Martin Zenker | Jean-Pierre Fryns | Marcel Mannens | Robert D Christensen | Albert de la chapelle | Lucina Bobadilla-Morales | Charlotte Druschel | Lewis B Holmes | Elaine Zackai | Erick Henry | Paresh Vyas | John Opitz | Marcia Feldkamp | Deborah Krakow | William Cookson | Humaira Dar | Nazneen Rahman | Jelena Roganovic | Osvaldo M Mutchinick | Gary M. Shaw | Koen devriendt</t>
+        </is>
+      </c>
+      <c r="K184" s="3" t="n">
+        <v>92</v>
+      </c>
+      <c r="L184" s="3" t="inlineStr">
+        <is>
+          <t>Aneurysms involving the coronary arteries in a neonate with neurofibromatosis 1 | Clinical insights from an unusual Turner syndrome manifestation: Congenital cutis verticis gyrata | Identification of a Small Supernumerary Marker Chromosome in a Turner Syndrome Patient with Karyotype mos 46,X,+mar/45,X | Intrafamilial variability and neurological manifestations in two siblings with carbohydrate sulfotransferase 3-related skeletal dysplasia | First Report of Mexican Patients with PACS1-Related Neurodevelopmental Disorder and Review of the PACS1-, PACS2-, and WDR37-Related Ophthalmological Manifestations | Intrafamilial phenotypic variability in autosomal recessive DOCK6-related Adams-Oliver syndrome | Frequency of chromosome 22q11.2 deletion among newborns with non-syndromic congenital heart defects from western Mexico | Usefulness of the MS-MLPA technique in the diagnosis of Beckwith-Wiedemann syndrome and Silver-Russell syndrome | Utilidad de la técnica de MS-MLPA en el diagnóstico de los síndromes de Beckwith-Wiedemann y Silver-Russell | Aspectos genéticos implicados en el asma | Family history of thyroid disease and risk of congenital hypothyroidism in neonates with Down syndrome | Prader-Willi and Angelman syndromes: case series diagnosed by MS-MLPA assay | MTHFR C677T and A1298C variants in Mexican Mestizo infants with neural tube defects from Western Mexico | Historia familiar de enfermedad tiroidea y riesgo de hipotiroidismo congénito en neonatos con síndrome de Down | Third case of Duchenne muscular dystrophy and West syndrome: Expanding the spectrum of the DMD neuropsychiatric phenotype | Prevalence of open neural tube defects and risk factors related to isolated anencephaly and spina bifida in live births from the “Dr. Juan I. Menchaca” Civil Hospital of Guadalajara (Jalisco, Mexico) | Intraoperative Findings Associated to Inpatient Mortality From Patients With Gastroschisis in Western Mexico | Sole trisomy 6 an uncommon finding in pediatric acute myeloid leukemia, probably associated to bad prognosis | Complete blood count differences in a cohort of Down syndrome neonates with transient abnormal myelopoiesis screened for GATA1 pathogenic variants | Acute liver failure in a male patient with NGLY1-congenital disorder of deglycosylation | Extracranial midline defects in a patient with craniofrontonasal syndrome with a novel EFNB1 mutation | Maternal risk factors for congenital heart defects in infants with Down syndrome from Western Mexico | Pfeiffer Syndrome Type 3 and Prune Belly Anomaly in a Female: Case Report and Review | In�vitro effect of curcumin in combination with chemotherapy drugs in Ph+ acute lymphoblastic leukemia cells | New subtype of familial achondrogenesis type IA (Houston-Harris) | Prevalence and risk factors for Down syndrome: A hospital‐based single‐center study in Western Mexico | Ring chromosome 6 in a child with anterior segment dysgenesis and review of its overlap with other FOXC1 deletion phenotypes | New subtype of familial achondrogenesis type IA (Houston-Harris) | Expression profile of NF-κB regulated genes in sporadic colorectal cancer patients | Prevalence of orofacial clefts and risks for nonsyndromic cleft lip with or without cleft palate in newborns at a university hospital from West Mexico | Severe Craniofacial Involvement due to Amniotic Band Sequence | Aneuploidy identification in pre-B acute lymphoblastic leukemia patients at diagnosis by Multiplex Ligation-dependent Probe Amplification (MLPA) | GATA2 null mutation associated with incomplete penetrance in a family with Emberger syndrome | Descriptive study of the complete blood count in newborn infants with Down syndrome | Cervicovaginal agenesis treated with modified Yang-Monti technique in two steps: Case report and literature review | Compound heterozygous mutations in the IFT140 gene cause Opitz trigonocephaly C syndrome in a patient with typical features of a ciliopathy | Hipertricosis cervical anterior: caso clínico Anterior cervical hypertrichosis: case report | Curcumin potentiates the effect of chemotherapy against acute lymphoblastic leukemia cells via downregulation of NF‑κB | Editorial Comment to Hemiscrotal agenesis: Pathogenesis and management strategies | Oblique facial clefts in Johanson-Blizzard syndrome | [Dermatoglyphics differences among children with nephrotic syndrome according to steroid response] | Novel Mutations in MLH1 and MSH2 Genes in Mexican Patients with Lynch Syndrome | Pediatric donor cell leukemia after allogeneic hematopoietic stem cell transplantation in AML patient from related donor | Associated congenital anomalies in infants with isolated gastroschisis: A single-institutional experience | Broadening the spectrum of Catania brachydactylous type of acrofacial dysostoses | Unusual retrospective prenatal findings in a male newborn with Timothy syndrome type 1 | Prevalence and risk factors for gastroschisis in a public hospital from west México: Gastroschisis in west México | [Minor phenotypic variants in patients with acute lymphoblastic leukemia from west México.] | Co-Occurrence of Hemiscrotal Agenesis With Cutis Marmorata Telangiectatica Congenita and Hydronephrosis Affecting the Same Side of the Body | Variantes fenotípicas menores en pacientes con leucemia linfoblástica aguda del occidente de México | [Ataxia telangiectasia. Diagnosis and follow-up in 4 cases] | Aplasia Cutis Congenita of the Scalp in a Female Infant With Anophthalmia/Microphthalmia-Esophageal Atresia Syndrome Negative for SOX2 Mutation | Dysgnathia complex sine holoprosencephaly nor synotia: A case report and discussion of its nosology | Yunis-Varón Syndrome Is Caused by Mutations in FIG4, Encoding a Phosphoinositide Phosphatase | Confirmation of the macroblepharon, ectropion, hypertelorism, and macrostomia syndrome | [The Yunis-Varon syndrome] | Angelman syndrome and thyroid dysfunction | Agenesis of the vocal cords in a female infant with Robin sequence | New ocular findings in two sisters with Yunis-Varon syndrome and literature review | Holoprosencephaly and Genitourinary Anomalies in Fetal Methotrexate Syndrome | Abnormal oral-pharyngeal swallowing as cause of morbidity and early death in Stuve-Wiedemann syndrome | Further clinical delineation of Fine–Lubinsky syndrome | Umbilical cord disruption sequence caused by long cord in two unrelated infants with amyoplasia | Chromosome instability in a patient with recurrent abortions | Case Report: Corroboration of the lower extremity counterpart of the Poland sequence | Preauricular tags: Prevalence, clinical characteristics and maternal risk factors | Apéndice preauricular: prevalencia, características clínicas y factores de riesgo materno | Sydney crease frequency changes among the newborns and infants | Protective in vivo effect of curcumin on copper genotoxicity evaluated by comet and micronucleus assays | SED-brachydactyly and distinctive speech: Report of two new cases | Airway anomalies in the oculoauriculofrontonasal syndrome | Hepatoblastoma in a patient with Goldenhar syndrome born to a diabetic mother | DNA damage in mouse lymphocytes exposed to curcumin and copper | Pruebas de alergia y características clínicas en lactantes y preescolares con dermatitis atópica | Eritrocitos micronucleados en recién nacidos pretérmino en relación con la patología materna | Cell cycle and centromere FISH studies in premature centromere division | Reply to letter to the editor by Crow: “Probable new syndrome in a Mexican family with congenital palmar polyonychia and postaxial limb defects” | Mental retardation in a boy with anterior cervical hypertrichosis | Occurrence of preterm and term low birth weight deliveries and presence of the Sydney crease | Incidencia de nacimientos pretérmino y de término con peso bajo al nacer y existencia de línea Sydney | Probable New Syndrome in a Mexican Family with Congenital Palmar Polyonychi and Postaxial Limb Defects | Dermatoglifos en niños con asma alérgica | Chromosome Instability Induced in Vitro with Mitomycin C in Five Seckel Syndrome Patients | Atypical parasitic ischiopagus conjoined twins | Lumbopedal skin pedicle in an infant with the amniotic band syndrome: A Disorganization-like defect? | Cleft lip and/or palate in two cases of 46,X,i(Xq) Turner syndrome | Report and review of the fetal brain disruption sequence | Holoprosencephaly, hypertelorism, and ectrodactyly in a boy with an apparently balanced de novo t(2;4) (q14.2;q35) | Infant with manifestations of oto‐palato‐digital syndrome type II and of Melnick‐Needles syndrome | Unusual presentation of heteropagus attached to the thorax | Corroboration of the lower extremity counterpart of the Poland sequence | Congenital ichthyosis vulgaris in a patient with trisomy 18</t>
+        </is>
+      </c>
+      <c r="M184" s="3" t="inlineStr">
+        <is>
+          <t>Cytotoxicity | Genetic Counseling | Clinical Genetics</t>
+        </is>
+      </c>
+    </row>
+    <row r="185" ht="80" customHeight="1" s="4">
+      <c r="B185" s="3" t="inlineStr">
+        <is>
+          <t>Missy Dixon</t>
+        </is>
+      </c>
+      <c r="C185" s="3" t="inlineStr">
+        <is>
+          <t>Missy-Dixon</t>
+        </is>
+      </c>
+      <c r="D185" s="3" t="inlineStr">
+        <is>
+          <t>University of Utah</t>
+        </is>
+      </c>
+      <c r="E185" s="3" t="n">
+        <v>14008</v>
+      </c>
+      <c r="F185" s="3" t="n">
+        <v>6082</v>
+      </c>
+      <c r="G185" s="3" t="n">
+        <v>48</v>
+      </c>
+      <c r="H185" s="3" t="inlineStr">
+        <is>
+          <t>Changqing-Zeng | Deanna-Dibella | Craig-Campbell-14 | Evan-Pucillo | Pardis-Sabeti | Michael-Feolo | Stephen-Schaffner | Barbara-Stranger | Mark-Daly-3 | L-Bottolo | Stephen-Sherry-2 | Alexandre-Montpetit | Eiko-Suda | Ellen-Clayton | John-Belmont-2 | Lalitha-Krishnan | Supriya-Gupta-2 | Melissa-Parkin | Mary-Waye | Liuda-Ziaugra | Hong-Xue-7 | Huanming-Yang | Darryl-Macer | Patricia-Marshall-5 | Man-Hung | Charmaine-Royal | Isaac-Adewole | Vivian-Ota-Wang | Heather-Hayes-6 | Toyin-Aniagwu | Nicholas-Johnson-5 | George-Weinstock | Yan-Shen-7 | Jerry-Bounsanga | Hui-Zhao-58 | Clement-Adebamowo | Gudmundur-Thorisson | Jean-McEwen-13830743 | Yoshimitsu-Fukushima-2030851442 | Ichiro-Matsuda-2035978349 | Russell-J-Butterfield-2038442047 | Becky-Crockett-2096563732 | Mark-F-Leppert-2120664700 | R-Butterfield-2133479321 | Houcan-Zhang-2164493211 | Ike-Ajayi-34269795 | Chibuzor-Nkwodimmah-38241572 | Andy-Peiffer-39752428</t>
+        </is>
+      </c>
+      <c r="I185" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="J185" s="3" t="inlineStr">
+        <is>
+          <t>George Weinstock | Pardis C Sabeti | Anne Shumway-Cook | Stephen Schaffner | Craig M McDonald | Mark Daly | Leanne M Dibbens | L. Bottolo | Alexandre Montpetit | Ellen Wright Clayton | John Belmont | Lotta Sjögreen | Lon Cardon | Patrick Varilly | Pamela Whittaker | Michael Dean | Már Tulinius | Richard Ted Abresch | Anne-Berit Ekström | Stavros Kiliaridis | Patricia A Marshall | Simon R Myers | Elisabet Wentz | Man Hung | T.D. Willis | Paul K H Tam | Daniel J Richter | Richard K Wilson | Pui-Yan Kwok | Vivian Ota Wang | Bartha Maria Knoppers | John David Brook | Kazuto Kato | Nicholas E Johnson | Itsik Pe'er | Elizabeth A Luebbe | Toshihiro Tanaka | Vincent P Stanton | Jerry Bounsanga | Catherine S. Taylor | Deanna DiBella | Craig Campbell | DONALD Lee POWELL | Hiroyuki Aburatani | Evan M. Pucillo | James E. Hilbert | Lucinda Fulton | Morris Foster | Kelly Frazer | Goncalo Abecasis</t>
+        </is>
+      </c>
+      <c r="K185" s="3" t="n">
+        <v>17</v>
+      </c>
+      <c r="L185" s="3" t="inlineStr">
+        <is>
+          <t>Stepping Activity in Children With Congenital Myotonic Dystrophy | The modified Dynamic Gait Index and Limits of Stability in Myotonic Dystrophy type 1: Balance and falls in DM1 | Orofacial strength, dysarthria, and dysphagia in Congenital Myotonic Dystrophy | A longitudinal study of age equivalent receptive communication and performance on functional outcome measures in congenital myotonic dystrophy | Physical Function and Mobility in Children with Congenital Myotonic Dystrophy | Disease burden and functional outcomes in congenital myotonic dystrophy: A cross-sectional study | A COMPARISON OF SIX-MINUTE WALK TEST PERFORMANCE BETWEEN CHILDREN WITH CONGENITAL MYOTONIC DYSTROPHY (CDM) AND HEALTHY CONTROLS | FEASIBILITY OF ASSESSING MUSCLE STRENGTH AND PHYSIOLOGICAL FATIGUE IN ADULTS WITH MYOTONIC DYSTROPHY, PRELIMINARY RESULTS | FEASIBILITY AND RELIABILITY OF THE 2 MINUTE WALK TEST AND 6 MINUTE WALK TEST IN CHILDREN WITH CONGENITAL MYOTONIC DYSTROPHY | AMBULATION, LEARNING DIFFICULTIES, AND VISUAL SPATIAL ABILITIES IN CONGENITAL MYOTONIC DYSTROPHY | ASSESSMENT OF SIX-MINUTE WALK TEST IN CHILDREN WITH CONGENITAL MYOTONIC DYSTROPHY: PRELIMINARY RESULTS | A Role of SCN9A in Human Epilepsies, As a Cause of Febrile Seizures and As a Potential Modifier of Dravet Syndrome | Personality and birth order in large families | A second generation human haplotype map of over 3.1 million SNPs | Genome-wide detection and characterization of positive selection in human populations | Community Engagement and Informed Consent in the International HapMap Project | Diverse macular dystrophy phenotype caused by a novel complex mutation in the ELOVL4 gene</t>
+        </is>
+      </c>
+    </row>
+    <row r="186" ht="80" customHeight="1" s="4">
+      <c r="B186" s="3" t="inlineStr">
+        <is>
+          <t>Evan M. Pucillo</t>
+        </is>
+      </c>
+      <c r="C186" s="3" t="inlineStr">
+        <is>
+          <t>Evan-Pucillo</t>
+        </is>
+      </c>
+      <c r="D186" s="3" t="inlineStr">
+        <is>
+          <t>University of St. Augustine</t>
+        </is>
+      </c>
+      <c r="E186" s="3" t="n">
+        <v>2477</v>
+      </c>
+      <c r="F186" s="3" t="n">
+        <v>111</v>
+      </c>
+      <c r="G186" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="H186" s="3" t="inlineStr">
+        <is>
+          <t>Missy-Dixon | Deanna-Dibella | Craig-Campbell-14 | Eugenio-Zapata-Aldana | Edward-Obryan-2 | Quinn-Tate | Rossniel_Marinas2 | Erica-Kiernan | Man-Hung | Karen-Bax | Mary-Shotwell-2 | Christine-Salmon | Gabriela-Perez-62 | Leiselle-Pilgrim | Carenina-Trujillo | Heather-Hayes-6 | Nicholas-Johnson-5 | Jerry-Bounsanga | Maren-Wright-Voss | Kiera-Berggren | Chad-Heatwole-12886865 | Albert-Gordon-Smith-2007345810 | Russell-J-Butterfield-2038442047 | Becky-Crockett-2096563732 | W-Chen-2096598814 | Brandon-R-Swensen-2114308234 | Nancy-Christensen-Mayer-2114308754 | Blake-R-Bohe-2114322626 | Shelly-D-Poole-2114325583 | Danielle-Freeman-2114343847 | Denise-M-Whitten-2114344503 | Donald-McCorquodale-2115038901 | butterfield-2116295738 | gu-2116296190 | johnson-NE-2116300970 | B-El-Aloul-2116660123 | R-Butterfield-2133479321 | R-Hicks-2133899824 | S-Rogers-2133903735 | Matthew-B-Huish-2138777923 | Ty-T-Dickerson-2138778411 | Delia-Ceballos-Saenz-2144953262 | Kim-B-Smith-2146082891 | Deanna-L-DiBella-2146633107 | Mary-Pautler-2146635776 | Rebecca-Crockett-2147937912 | Jackie-Crossen-Sills-2174309757 | Melissa-McIntyre-2187194576 | Ellen-Lowrie-Black-2197635555 | Vibhor-Agrawal-2211753064</t>
+        </is>
+      </c>
+      <c r="I186" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="J186" s="3" t="inlineStr">
+        <is>
+          <t>Ken Greenwood | Gavin P Williams | Gregory T Carter | Craig M McDonald | Tahereh Changiz | Angelo Schenone | Dianne V Jewell | Richard A Lewis | Rita Bode | Lotta Sjögreen | Shanna Elizabeth Williams | Stephan Zuchner | Mohammed K Khalil | Michel D Landry | Már Tulinius | Tiziana Cavallaro | Jaclyn Broadbent | Richard Ted Abresch | Eric L Logigian | Carly E Siskind | Steven Scherer | John David Brook | Nicholas E Johnson | Elizabeth A Luebbe | Fariba Haghani | Aldo Quattrone | Zahra Jouhari | Barbara G Vickrey | Joshua Burns | Kendra Gagnon | Courtney West | Manuela Koch | Christine A Mccallum | Diana Venskus | Giuseppe Vita | Yuanyuan Zhou | Craig Campbell | Hiroyuki Aburatani | Sindhu Ramchandren | Angie Mackewn | Thomas A Cooper | Jeanne Dekdebrun | James E. Hilbert | Nuran Dilek | Teresa Bachman | Luca Padua | Jack Puymirat | Gail Jensen | Erica Kiernan | Mary Shotwell</t>
+        </is>
+      </c>
+      <c r="K186" s="3" t="n">
+        <v>23</v>
+      </c>
+      <c r="L186" s="3" t="inlineStr">
+        <is>
+          <t>Metacognition and Self-regulation Influence Academic Performance in Occupational and Physical Therapy Students | Faculty perceptions of health professional students' hybrid-online learning strategies: A multi-center qualitative study. | Antisense oligonucleotide targeting DMPK in patients with myotonic dystrophy type 1: a multicentre, randomised, dose-escalation, placebo-controlled, phase 1/2a trial | Admission Variables Predict Success in a Hybrid-Online Physical Therapist Education Program | Do Learning and Study Strategies Predict Success in Hybrid-Online Physical and Occupational Therapist Education? | Do Learning and Study Strategies Predict Success in Hybrid-Online Physical and Occupational Therapist Education? | Learning Strategies and Academic Difficulty in Occupational and Physical Therapy Online Education | The modified Dynamic Gait Index and Limits of Stability in Myotonic Dystrophy type 1: Balance and falls in DM1 | The High-Level Mobility Assessment Tool (HiMAT) in Myotonic Dystrophy type 2: A Case Report | We Are Global Health: A Rejuvenating Perspective | Global Health and Disability: A Review and Call to Action for All Rehabilitation Professions | Disability and Physical Therapy Services in Rural Nicaragua: A Pilot Study | Disability and Perceptions of Physical Therapy Services: A Pilot Study | A longitudinal study of age equivalent receptive communication and performance on functional outcome measures in congenital myotonic dystrophy | FACTORS ASSOCIATED WITH HEALTH-RELATED QUALITY OF LIFE IN CHILDREN WITH CONGENITAL MYOTONIC DYSTROPHY | Perceptions of Disability and Physical Therapy Services in Rural Nicaragua | Physical Function and Mobility in Children with Congenital Myotonic Dystrophy | Functional measures and falls in adult-onset Myotonic Dystrophy type 1: A cross-sectional study | Same-day physical therapy consults in an outpatient neuromuscular disease physician clinic | Disease burden and functional outcomes in congenital myotonic dystrophy: A cross-sectional study | Management of Charcot–Marie–Tooth disease: Improving long-term care with a multidisciplinary approach | A COMPARISON OF SIX-MINUTE WALK TEST PERFORMANCE BETWEEN CHILDREN WITH CONGENITAL MYOTONIC DYSTROPHY (CDM) AND HEALTHY CONTROLS | FEASIBILITY OF ASSESSING MUSCLE STRENGTH AND PHYSIOLOGICAL FATIGUE IN ADULTS WITH MYOTONIC DYSTROPHY, PRELIMINARY RESULTS</t>
+        </is>
+      </c>
+      <c r="M186" s="3" t="inlineStr">
+        <is>
+          <t>Function | Rehabilitation | Physical Therapy</t>
+        </is>
+      </c>
+    </row>
+    <row r="187" ht="80" customHeight="1" s="4">
+      <c r="B187" s="3" t="inlineStr">
+        <is>
+          <t>Katy Eichinger</t>
+        </is>
+      </c>
+      <c r="C187" s="3" t="inlineStr">
+        <is>
+          <t>Katy-Eichinger</t>
+        </is>
+      </c>
+      <c r="D187" s="3" t="inlineStr">
+        <is>
+          <t>University of Rochester</t>
+        </is>
+      </c>
+      <c r="E187" s="3" t="n">
+        <v>4273</v>
+      </c>
+      <c r="F187" s="3" t="n">
+        <v>935</v>
+      </c>
+      <c r="G187" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="H187" s="3" t="inlineStr">
+        <is>
+          <t>Isabella_Moroni | Colleen-Thornton-2 | Emanuela-Pagliano-2 | Jeanne-Dekdebrun | James-Hilbert-2 | Jeffrey-Statland | Kathryn-Wagner-2 | Nuran-Dilek | Katherine-Mathews-3 | Sabrina-Yum | Oranee-Sanmaneechai | Kayla-Cornett | Rabi-Tawil | Srushti-Pandya-2 | Tim-Estilow | Gyula-Acsadi | Doris-Leung-6 | Baziel-Van-Engelen | Rosemary-Shy | Nicholas-Johnson-5 | Joshua-Burns-9 | Richard-Finkel | Wendy-King-3 | Manoj-Menezes | Karlien-Mul | Araya-Puwanant | Perry-Shieh-2 | Chad-Heatwole-12886865 | Michael-E-Shy-14774383 | David-N-Herrmann-14799462 | Leo-H-Wang-2003650213 | Janet-E-Sowden-2008629839 | Russell-J-Butterfield-2038442047 | Richard-T-Moxley-2121342864 | Jeffrey-Statland-2141062523 | Leann-Lewis-2162212547 | Samantha-LoRusso-2162369484 | Kiley-Higgs-2162377094 | Elena-Carraro-2180379851 | Michaela-Walker-2192054279 | R-Moxley-2204735552 | M-E-Shy-2248242446 | Mary-M-Reilly-38135433 | William-B-Martens-39121566 | Charles-A-Thornton-39238999 | Michael-P-McDermott-39314194 | F-Muntoni-39441203 | Matilde-Laura-39806077 | Davide-Pareyson-43666758 | Shree-Pandya-50166343</t>
+        </is>
+      </c>
+      <c r="I187" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="J187" s="3" t="inlineStr">
+        <is>
+          <t>Jeffrey Statland | Gregory T Carter | Craig M McDonald | Enzo Ricci | Corrado Angelini | Kathryn R Wagner | Kent William Hunter | Emma Ciafaloni | Giuliana Galluzzi | Darryl C De Vivo | Laura E Case | Stephen J Tapscott | Maurice S Swanson | Katherine D Mathews | Sabrina Yum | Stephan Zuchner | Richard Ted Abresch | Rabi Tawil | Eric L Logigian | Carly E Siskind | Anna Mayhew | Michelle Eagle | Giuseppe Piscosquito | Jacqueline Montes | Steven Scherer | David R Weber | John David Brook | Baziel Van Engelen | Kate Bushby | Richard Lemmers | Rosemary R Shy | Marika Pane | Nicholas E Johnson | Lucio Santoro | Joshua Burns | Richard S Finkel | Vincent P Stanton | Wendy King | Monique M Ryan | Erik Henricson | Giuseppe Vita | Angela Blackwell | Hiroyuki Aburatani | Colleen Thornton | Thomas A Cooper | Nuran Dilek | David Birnkrant | Sonia Messina | Volker Straub | Seward Rutkove</t>
+        </is>
+      </c>
+      <c r="K187" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="L187" s="3" t="inlineStr">
+        <is>
+          <t>Recruiting for an International Rare Disease Clinical Trial Readiness Study during the COVID ‐19 pandemic: Challenges and solutions | Lean tissue mass measurements by dual-energy X-ray absorptiometry and associations with strength and functional outcome measures in facioscapulohumeral muscular dystrophy | Motor Outcomes to Validate Evaluations in Facioscapulohumeral muscular dystrophy (MOVE FSHD): Preliminary Baseline Characteristics (S7.004) | MANOEUVRE Study Design: A Study of GYM329 (RO7204239) in Patients with Facioscapulohumeral Muscular Dystrophy (FSHD) (S2.010) | The FSHD Composite Outcome Measure (FSHD-COM) is Reliable, Valid, and Measures Disease Progression (S7.005) | Results from a 36-Week Open-Label Study of Recombinant Human Growth Hormone and Testosterone in Facioscapulohumeral Muscular Dystrophy (FSHD) (S48.009) | Antisense oligonucleotide targeting DMPK in patients with myotonic dystrophy type 1: a multicentre, randomised, dose-escalation, placebo-controlled, phase 1/2a trial | P.141 Manoeuvre study design: A study of GYM329 (RO7204239) in patients with facioscapulohumeral muscular dystrophy (FSHD) | Understanding the Perseverance of the Muscular Dystrophy Community One-Year into the COVID-19 Pandemic | Accelerate Clinical Trials in Charcot-Marie-Tooth Disease (ACT-CMT): A Protocol to Address Clinical Trial Readiness in CMT1A | Remote Assessment of Myotonic Dystrophy Type 1: A Feasibility Study | Functional outcome measures in young, steroid-naïve boys with Duchenne muscular dystrophy | Consensus Guidelines for Improving Quality of Assessment and Training for Neuromuscular Diseases | Reliability and validity of the FSHD-Composite Outcome Measure in childhood facioscapulohumeral dystrophy | A Patient‐Focused Survey to Assess the Effects of the COVID‐19 Pandemic and Social Guidelines on People with Muscular Dystrophy | A Roadmap to Patient Engagement: FSHD and the ReSolve Clinical Trial | Longitudinal study of MRI and functional outcome measures in facioscapulohumeral muscular dystrophy | Natural history of Charcot-Marie-Tooth disease type 2A: a large international multicentre study | Mexiletine in Myotonic Dystrophy Type 1: A Randomized, Double-Blind, Placebo-Controlled Trial | FSHD / OPMD / MYOTONIC DYSTROPHY | The care of patients with Duchenne, Becker and other muscular dystrophies in the COVID‐19 pandemic | Nusinersen for older patients with SMA: a real‐world clinical setting experience | P.45Patterns of muscle involvement, predictive characteristics, and meaningful change for functional motor tasks in facioscapulohumeral muscular dystrophy | P.46Clinical trial readiness to solve barriers to drug development in FSHD (ReSolve): protocol of a large, multi-center prospective study | Clinical trial readiness to solve barriers to drug development in FSHD (ReSolve): Protocol of a large, international, multi-center prospective study | Measuring peripheral nerve involvement in Friedreich’s ataxia | Erratum to: Development and validation of the Charcot-Marie-Tooth Disease Infant Scale | Needs management in families affected by childhood-onset dystrophinopathies | Supplementary Material 2 | Supplementary Material 3 | Supplementary Material 1 | Consensus-based care recommendations for adults with myotonic dystrophy type 1 | The Charcot-Marie-Tooth Functional Outcome Measure (CMT-FOM) | Electrical impedance myography in facioscapulohumeral muscular dystrophy: A 1-year follow-up study | The Facioscapulohumeral Muscular Dystrophy Functional Composite Outcome Measure | Validity of the Six Minute Walk Test in Facioscapulohumeral Muscular Dystrophy: 6MWT in FSHD | Patient Reported Falls and Balance Confidence in Individuals with Charcot-Marie-Tooth Disease | Study design of a phase 1/2a trial with ISIS-DMPKRx for the treatment of myotonic dystrophy type 1 | Phenotypic Variability of Childhood Charcot-Marie-Tooth Disease | The myotonic dystrophy health index: Correlations with clinical tests and patient function: MDHI Validation | RATE OF CHARCOT-MARIE-TOOTH DISEASE PROGRESSION DURING CHILDHOOD | HETEROGENEITY OF CHARCOT-MARIE-TOOTH DISEASE SEVERITY DURING CHILDHOOD | Restrictive Lung Involvement in Facioscapulohumeral Muscular Dystrophy | Prospective Study of Muscle Cramps in Charcot-Marie-Tooth Disease | Fidelity Measurement: Case Exemplar of Design and Conduct | Splicing Biomarkers of Disease Severity in Myotonic Dystrophy | P.7.6 Needs of caregivers/families affected by Duchenne and Becker Muscular Dystrophy (DBMD): Data from the Muscular Dystrophy Surveillance, Tracking and Research Network (MD STARnet) | P.18.4 Physical activity profile and barriers to physical activity in individuals with myotonic dystrophy | P.18.3 Test–retest reliability of strength measurements of the long finger flexors (LFF) in patients with myotonic dystrophy type 1 | TWO YEAR NATURAL HISTORY OF DISEASE PROGRESSION IN CHILDHOOD CHARCOT-MARIE-TOOTH DISEASE | DETERMINANTS OF BALANCE DEFICIT IN CHILDREN WITH CHARCOT-MARIE-TOOTH DISEASE | A Quantitative Measure of Handgrip Myotonia in Non-dystrophic Myotonia | Correlation between Biomarkers and Surrogate Markers in Patients with Myotonic Dystrophy Type 1 (DM-1): Data from the Study of Pathogenesis and Progression in DM (STOPP DM) (P05.185) | Relationships between Upper Extremity Strength and the Purdue Pegboard Test and the Jebsen-Taylor Hand Function Test in Patients with Myotonic Dystrophy Type 1 (P05.187) | Symptoms of Myotonia as Reported by Patients with Myotonic Dystrophy Type 1: Location, Description and Severity- Implications for Clinical Trials (P05.184) | Sub-Regional Dual-Energy X-Ray Absorptiometry (DEXA) Analysis: A Potential Endpoint Measure for Therapeutic Trials in Myotonic Dystrophy Type 1 (DM1) | Muscle weakness in myotonic dystrophy associated with misregulated splicing and altered gating of CaV1.1 calcium channel | DEVELOPMENT, RELIABILITY AND VALIDITY OF THE CHARCOT-MARIE-TOOTH DISEASE PEDIATRIC SCALE (CMTPEDS) | FOOT AND ANKLE SYMMETRY IN CHARCOT-MARIE-TOOTH DISEASE | Open-Label Trial of Recombinant Human Insulin-like Growth Factor 1/Recombinant Human Insulin-like Growth Factor Binding Protein 3 in Myotonic Dystrophy Type 1</t>
+        </is>
+      </c>
+      <c r="M187" s="3" t="inlineStr">
+        <is>
+          <t>Neuromuscular Disorders | Neurological Diseases | Neurodegenerative Diseases</t>
+        </is>
+      </c>
+    </row>
+    <row r="188" ht="80" customHeight="1" s="4">
+      <c r="B188" s="3" t="inlineStr">
+        <is>
+          <t>Kathryn R Wagner</t>
+        </is>
+      </c>
+      <c r="C188" s="3" t="inlineStr">
+        <is>
+          <t>Kathryn-Wagner-2</t>
+        </is>
+      </c>
+      <c r="D188" s="3" t="inlineStr">
+        <is>
+          <t>Roche</t>
+        </is>
+      </c>
+      <c r="E188" s="3" t="n">
+        <v>38139</v>
+      </c>
+      <c r="F188" s="3" t="n">
+        <v>8927</v>
+      </c>
+      <c r="G188" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="H188" s="3" t="inlineStr">
+        <is>
+          <t>Katy-Eichinger | Kyla-Britson | Jeffrey-Statland | Craig-Mcdonald-6 | Terry-Partridge | Guido-Stadler | Genila-Bibat | Shama-Iyer | Richard-Lovering | Woodring-Wright | Katherine-Mathews-3 | Thomas-Lloyd-10 | Peter-Jones-17 | Rabi-Tawil | Volker-Straub-2 | Cuixia-Tian | Charles-Emerson-3 | Michelle-Eagle | Dariel-Cadavid | Doris-Leung-6 | Baziel-Van-Engelen | Kate-Bushby | Nicholas-Johnson-5 | Fedik-Rahimov-3 | Yuanfan-Zhang | Cristina-Csimma | Shannon-Marraffino | Congshan-Sun | Perry-Shieh-2 | Eric-Hoffman-6 | Leigh-C-Warsing-15549470 | Russell-J-Butterfield-2038442047 | Hoda-Abdel-Hamid-2039267703 | Francesco-Muntoni-2071904677 | Jeffrey-Statland-2141062523 | Lucienne-Ronco-2159888861 | M-Mellion-2164374562 | Jeffrey-P-Palmer-2175059824 | Lawrence-Charnas-2175069186 | Michela-Guglieri-38375046 | Oliver-D-King-38988128 | Jean-K-Mah-39137820 | Daniel-P-Judge-39313942 | Michael-P-McDermott-39314194 | Louis-M-Kunkel-39540232 | Eugenio-Mercuri-39608160 | Anthony-A-Amato-42668397 | Shree-Pandya-50166343 | Jennifer-C-J-Chen-82558256 | Anne-M-Connolly-9941913</t>
+        </is>
+      </c>
+      <c r="I188" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="J188" s="3" t="inlineStr">
+        <is>
+          <t>J. Philip Miller | Eric Hoffman | Luisa Politano | Craig M McDonald | Enzo Ricci | Terry Partridge | Kevin P Campbell | Corrado Angelini | Enrico Bertini | Michael Kyba | Alexandra Belayew | Joe N Kornegay | Dongsheng Duan | Elisabeth R Barton | Stephen J Tapscott | Rune R Frants | Angela Berardinelli | Linda Pax Lowes | Richard Ted Abresch | Rabi Tawil | Diana M Escolar | Charles P Emerson | Jane E Hewitt | Anna Mayhew | Michelle Eagle | Frédérique Coppée | Adele D'Amico | Gert-Jan B van Ommen | Nathalie Goemans | Baziel Van Engelen | Kevin Flanigan | Kate Bushby | Richard Lemmers | Marika Pane | Lindsay Alfano | Fedik Rahimov | Hanns Lochmuller | Jennifer Morgan | Richard S Finkel | Wendy King | Linda N Geng | Erik Henricson | Daniel Guthrie Miller | Krista Vandenborne | Elena Pegoraro | David Birnkrant | Thomas Voit | Volker Straub | Brenda Wong | Jeffrey Chamberlain</t>
+        </is>
+      </c>
+      <c r="K188" s="3" t="n">
+        <v>177</v>
+      </c>
+      <c r="L188" s="3" t="inlineStr">
+        <is>
+          <t>Correction to: Risdiplam in Patients Previously Treated with Other Therapies for Spinal Muscular Atrophy: An Interim Analysis from the JEWELFISH Study | Lean tissue mass measurements by dual-energy X-ray absorptiometry and associations with strength and functional outcome measures in facioscapulohumeral muscular dystrophy | MANOEUVRE Study Design: A Study of GYM329 (RO7204239) in Patients with Facioscapulohumeral Muscular Dystrophy (FSHD) (S2.010) | Risdiplam in Patients Previously Treated with Other Therapies for Spinal Muscular Atrophy: An Interim Analysis from the JEWELFISH Study | Microdystrophin Expression as a Surrogate Endpoint for Duchenne Muscular Dystrophy Clinical Trials | Engineering Skeletal Muscle Grafts with PAX7::GFP-Sorted Human Pluripotent Stem Cell-Derived Myogenic Progenitors on Fibrin Microfiber Bundles for Tissue Regeneration | Dual-energy X-ray absorptiometry measures of lean body mass as a biomarker for progression in boys with Duchenne muscular dystrophy | P.141 Manoeuvre study design: A study of GYM329 (RO7204239) in patients with facioscapulohumeral muscular dystrophy (FSHD) | Novel approaches to analysis of the North Star Ambulatory Assessment (NSAA) in Duchenne muscular dystrophy (DMD): Observations from a phase 2 trial | Quantitative magnetic resonance imaging measures as biomarkers of disease progression in boys with Duchenne muscular dystrophy: a phase 2 trial of domagrozumab | Quantitative Muscle Analysis in FSHD Using Whole-Body Fat-Referenced MRI: Composite Scores for Longitudinal and Cross-Sectional Analysis | Piezo1: opening the way to preventing muscle atrophy | Quantitative Muscle Analysis in Facioscapulohumeral Muscular Dystrophy Using Whole‐Body Fat‐Referenced MRI: Protocol Development, Multicenter Feasibility, and Repeatability | Human pluripotent stem cell-derived myogenic progenitors undergo maturation to quiescent satellite cells upon engraftment | Randomized Phase 2 Study of ACE‐083, a Muscle‐Promoting Agent, in Facioscapulohumeral Muscular Dystrophy | iMyoblasts for ex vivo and in vivo investigations of human myogenesis and disease modeling | Loss of TDP-43 function and rimmed vacuoles persist after T cell depletion in a xenograft model of sporadic inclusion body myositis | EP.331 Quantitative muscle analysis in FSHD using Whole-Body MRI: Composite muscle measurements for cross-sectional analysis | CLINICAL RESEARCH | REGISTRIES AND CARE OF NMD | Safety and disease monitoring biomarkers in Duchenne muscular dystrophy: results from a Phase II trial | A Combined Prospective and Retrospective Comparison of Long-Term Functional Outcomes Suggests Delayed Loss of Ambulation and Pulmonary Decline with Long-Term Eteplirsen Treatment | Progress in repairing muscle | A Randomized, Double-Blind, Placebo-Controlled, Global Phase 3 Study of Edasalonexent in Pediatric Patients with Duchenne Muscular Dystrophy: Results of the PolarisDMD Trial | Open-Label Evaluation of Eteplirsen in Patients with Duchenne Muscular Dystrophy Amenable to Exon 51 Skipping: PROMOVI Trial | Human muscle stem cells are refractory to aging | Safety, tolerability, and pharmacokinetics of casimersen in patients with Duchenne muscular dystrophy amenable to exon 45 skipping: A randomized, double‐blind, placebo‐controlled, dose‐titration trial | CaMKII oxidation is a critical performance/disease trade-off acquired at the dawn of vertebrate evolution | A phase 1b/2a, open-label, multiple ascending dose trial of domagrozumab in FKRP limb-girdle muscular dystrophy | Loss of TDP-43 function and rimmed vacuoles persist after T cell depletion in a xenograft model of sporadic inclusion body myositis | Casimersen treatment in eligible patients with Duchenne muscular dystrophy: safety, tolerability, and pharmacokinetics over 144 weeks of treatment | Mss51 deletion increases endurance and ameliorates histopathology in the mdx mouse model of Duchenne muscular dystrophy | Corrigendum to “Randomized phase 2 trial and open-label extension of domagrozumab in Duchenne muscular dystrophy” [Neuromuscular Disorders, Vol. 30 (6) 2020, 492-502] | Meeting report: the 2020 FSHD International Research Congress | LIMB GIRDLE MUSCULAR DYSTROPHIES | FSHD / OPMD / MYOTONIC DYSTROPHY | DMD – THERAPY | FSHD / OPMD / MYOTONIC DYSTROPHY | Human muscle stem cells are refractory to aging | The elusive promise of myostatin inhibition for muscular dystrophy | 100 Questions and Answers about Muscular Dystrophy | Engineering 3D skeletal muscle primed for neuromuscular regeneration following volumetric muscle loss | Longitudinal functional and imaging outcome measures in FKRP limb-girdle muscular dystrophy | Randomized phase 2 trial and open-label extension of domagrozumab in Duchenne muscular dystrophy | Duchenne muscular dystrophy hiPSC-derived myoblast drug screen identifies compounds that ameliorate disease in mdx mice | It's not all about muscle: Fibroadipogenic progenitors contribute to facioscapulohumeral muscular dystrophy | The care of patients with Duchenne, Becker and other muscular dystrophies in the COVID‐19 pandemic | Applying genome-wide CRISPR-Cas9 screens for therapeutic discovery in facioscapulohumeral muscular dystrophy | RESULTS FROM A PHASE 2 STUDY OF ACE-083 IN PATIENTS WITH FACIOSCAPULOHUMERAL MUSCULAR DYSTROPHY (FSHD) – IMPLICATIONS FOR FUTURE CLINICAL TRIALS | CaMKII oxidation is a performance-disease tradeoff in vertebrate evolution | Improving translatability of preclinical studies for neuromuscular disorders: Lessons from the TREAT-NMD Advisory Committee for Therapeutics (TACT) | Novel FHL1 Mutation Associated With Hypertrophic Cardiomyopathy, Sudden Cardiac Death, and Myopathy | Identification of the hyaluronic acid pathway as a therapeutic target for facioscapulohumeral muscular dystrophy | Facioscapulohumeral Muscular Dystrophies | A decade of optimizing drug development for rare neuromuscular disorders through TACT | Diabetes, Metformin, and Cancer Risk in Myotonic Dystrophy Type I | P.17Xenograft model of sporadic inclusion body myositis | P.279Pragmatic cognitive and psychosocial health monitoring in clinical practice in Duchenne muscular dystrophy | O.28Safety and tolerability of suvodirsen (WVE-210201) in patients with Duchenne muscular dystrophy: results from a phase 1 clinical trial | EP.83Design of a Phase 2/3 randomized controlled trial of suvodirsen (WVE-210201) in patients with Duchenne muscular dystrophy amenable to exon 51 skipping | P.46Clinical trial readiness to solve barriers to drug development in FSHD (ReSolve): protocol of a large, multi-center prospective study | Stem cell-based therapies for Duchenne muscular dystrophy | Mss51 deletion enhances muscle metabolism and glucose homeostasis in mice | Performing Human Skeletal Muscle Xenografts in Immunodeficient Mice | Performing Human Skeletal Muscle Xenografts in Immunodeficient Mice | CaMKII oxidation is a performance/disease trade-off in vertebrate evolution | Clinical trial readiness to solve barriers to drug development in FSHD (ReSolve): Protocol of a large, international, multi-center prospective study | The NIH Toolbox for cognitive surveillance in Duchenne muscular dystrophy | Multiparametric Deep Learning Tissue Signatures for Muscular Dystrophy: Preliminary Results | Benign tumors in myotonic dystrophy type I target disease‐related cancer sites | AAV9 Edits Muscle Stem Cells in Normal and Dystrophic Adult Mice | Design of Clinical Trials for Gene Therapy in Muscular Dystrophy | Long-read single-molecule maps of the functional methylome | Cancer Risk in Myotonic Dystrophy Type I: Evidence of a Role for Disease Severity | Supplementary Material | Adipose-derived Stem/Stromal Cells on Electrospun Fibrin Microfiber Bundles Enable Moderate Muscle Reconstruction in a Volumetric Muscle Loss Model | A Transition Toolkit for Duchenne Muscular Dystrophy | Cardiac Management of the Patient With Duchenne Muscular Dystrophy | Neurology Care, Diagnostics, and Emerging Therapies of the Patient With Duchenne Muscular Dystrophy | Biological scaffold-mediated delivery of myostatin inhibitor promotes a regenerative immune response in an animal model of Duchenne muscular dystrophy | FRI0415 Human skeletal muscle xenografts to model sporadic inclusion body myositis | Engineering functional and histological regeneration of vascularized skeletal muscle | Diagnosis and management of Duchenne muscular dystrophy, part 1: diagnosis, and neuromuscular, rehabilitation, endocrine, and gastrointestinal and nutritional management | Review Diagnosis and management of Duchenne muscular dystrophy, part 1: diagnosis, and neuromuscular, rehabilitation, endocrine, and gastrointestinal and nutritional management | Multivoxel proton magnetic resonance spectroscopy in facioscapulohumeral muscular dystrophy | Reduced representation optical methylation mapping (R 2 OM 2 ) | ActiMyo home monitoring in adult patients with limb girdle muscular dystrophy type 2B and facioscapulohumeral muscular dystrophy in study ATYR 1940-C-004 | C1QBP Inhibits DUX4-Dependent Gene Activation and Can Be Targeted with 4MU | Reduced representation optical methylation mapping (R 2 OM 2 ) | The TREAT-NMD Advisory Committee for Therapeutics (TACT): facilitating drug development in neuromuscular rare diseases | Bone Health in Facioscapulohumeral Muscular Dystrophy: A Cross-Sectional Study: Bone Health in FSHD | Left Ventricular Dysfunction and Conduction Disturbances in Patients With Myotonic Muscular Dystrophy Type I and II | Supplementary Figures and Tables | Validity of the Six Minute Walk Test in Facioscapulohumeral Muscular Dystrophy: 6MWT in FSHD | Morpholino-mediated Knockdown of DUX4 Toward Facioscapulohumeral Muscular Dystrophy Therapeutics | Concordant but Varied Phenotypes among Duchenne Muscular Dystrophy Patient-Specific Myoblasts Derived using a Human iPSC-Based Model | In vivo selection yields AAV-B1 capsid for CNS and muscle gene therapy | Developing a pro-regenerative biomaterial scaffold microenvironment requires T helper 2 cells | Dystrophin-deficient dogs with reduced myostatin have unequal muscle growth and greater joint contractures | Clinical practice considerations in facioscapulohumeral muscular dystrophy Sydney, Australia, 21 September 2015</t>
+        </is>
+      </c>
+      <c r="M188" s="3" t="inlineStr">
+        <is>
+          <t>Skeletal Muscle | Duchenne Muscular Dystrophy | Muscle Strength | Muscle Biology | Muscle Damage | Muscle Function | Animal Muscular Dystrophy | Limb-Girdle Muscular Dystrophies | Neuromuscular Disorders | Regeneration</t>
+        </is>
+      </c>
+    </row>
+    <row r="189" ht="80" customHeight="1" s="4">
+      <c r="B189" s="3" t="inlineStr">
+        <is>
+          <t>Gregory Minisman</t>
+        </is>
+      </c>
+      <c r="C189" s="3" t="inlineStr">
+        <is>
+          <t>Gregory-Minisman</t>
+        </is>
+      </c>
+      <c r="E189" s="3" t="n">
+        <v>2672</v>
+      </c>
+      <c r="F189" s="3" t="n">
+        <v>937</v>
+      </c>
+      <c r="G189" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="H189" s="3" t="inlineStr">
+        <is>
+          <t>Amelia-Evoli | Richard-Barohn | Stephen-Cassivi | Alexander-Marx-8 | Margherita-Milone | Rup-Tandan | Gil-Wolfe-2 | Robert-Pascuzzi | Tahseen-Mozaffar | Emma-Ciafaloni | Giovanni-Antonini-2 | Lineu-Werneck-2 | Anna-Kostera-Pruszczyk | Hui-Chien-Kuo | Michael-Rivner | Rabeah-Beydoun | Henry-Kaminski | Janice-Massey | Jeannine-Heckmann | Carlayne-Jackson | Joel-Oger | Philipp-Stroebel-2 | Hiroaki-Yoshikawa | Inmaculada-Aban | Robin-Conwit | Alfred-Jaretzki | Gary-Cutter | Gabriel-Cea | Wilfred-Nix | Michael-Pulley-2 | Jon-Sussman-2001342444 | Colin-Chalk-2039721758 | John-T-Kissel-2041356253 | Elza-Dias-Tosta-2044997209 | John-King-2050464548 | Jan-J-G-M-Verschuuren-2070805238 | Marcia-Waddington-Cruz-2080604548 | Guillermo-S-Garcia-Ramos-2113784269 | Rawiphan-Witoonpanich-2113790034 | Bryan-RF-Lecky-2113794322 | John-Newsom-Davis-2123152339 | Camilla-Buckley-2131620797 | Aziz-I-Shaibani-2152705159 | Claudio-Gabriel-Mazia-2174486345 | Joshua-Sonett-38437325 | Bashar-Katirji-38461368 | Angela-Vincent-38913206 | Alexandru-Barboi-39184852 | Michael-Benatar-39949355 | Anthony-A-Amato-42668397</t>
+        </is>
+      </c>
+      <c r="I189" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="J189" s="3" t="inlineStr">
+        <is>
+          <t>Gabriel Cea | Philip Moons | Renato Mantegazza | Rup Tandan | Gil I Wolfe | Robert M Pascuzzi | Emma Ciafaloni | Giovanni Antonini | John Keesey | Damian Eric Myers | Ettore Beghi | Lineu Cesar Werneck | Carlo Antozzi | Anna Kostera-Pruszczyk | Michael Rivner | Henry J Kaminski | Janice M Massey | Ted M Burns | Jeannine M Heckmann | Carlayne E Jackson | Joel Oger | Hiroaki Yoshikawa | Inmaculada B Aban | Johan Van Cleemput | Rabi Tawil | Alfred Jaretzki | Bernadette Lipscomb | David L Simel | Vittorio Cosi | Arthur Melms | Gary R Cutter | Sharon Nations | Masayuki Masuda | Laura Herbelin | Audrey S. Penn | April Mcvey | Michael T. Pulley | Hayden Bosworth | Amelia Evoli | Richard Bedlack | Richard Barohn | Nils Erik Gilhus | Jacqueline Palace | Shigeaki Suzuki | Hui-Chien Kuo | Rabeah Beydoun | Donald Sanders | Philipp Ströbel | Washington Bryan | Ferdinand Cornelio</t>
+        </is>
+      </c>
+      <c r="K189" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="L189" s="3" t="inlineStr">
+        <is>
+          <t>Minimal manifestation status and prednisone withdrawal in the MGTX trial | Long-term effect of thymectomy plus prednisone versus prednisone alone in patients with non-thymomatous myasthenia gravis: 2-year extension of the MGTX randomised trial | Randomized Trial of Thymectomy in Myasthenia Gravis | Biomarker development for myasthenia gravis | Implementing Clinical Trials on an International Platform: Challenges and Perspectives | Erratum to “The MGTX experience: Challenges in planning and executing an international, multicenter clinical trial” [J. Neuroimmunol. 201–202(2008)80–84] | Erratum to “The MGTX experience: Challenges in planning and executing an international, multicenter clinical trial” | Status of the Thymectomy Trial for Nonthymomatous Myasthenia Gravis Patients Receiving Prednisone</t>
+        </is>
+      </c>
+    </row>
+    <row r="190" ht="80" customHeight="1" s="4">
+      <c r="B190" s="3" t="inlineStr">
+        <is>
+          <t>Amelia Evoli</t>
+        </is>
+      </c>
+      <c r="C190" s="3" t="inlineStr">
+        <is>
+          <t>Amelia-Evoli</t>
+        </is>
+      </c>
+      <c r="E190" s="3" t="n">
+        <v>29664</v>
+      </c>
+      <c r="F190" s="3" t="n">
+        <v>11169</v>
+      </c>
+      <c r="G190" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="H190" s="3" t="inlineStr">
+        <is>
+          <t>Andrea-Fattorossi | Diego-Franciotta | Renato-Mantegazza | Alessandra-Battaglia-2 | Nils-Gilhus | Gil-Wolfe-2 | Giovanni-Antonini-2 | Francesca-Andreetta | Carlo-Antozzi | Anna-Kostera-Pruszczyk | Mariapaola_Marino | Henry-Kaminski | Janice-Massey | Donald-Sanders-4 | Gregorio-Spagni | Luca-Padua | Raffaele-Iorio-5 | Irene-Aprile | Flavia-Scuderi | Bruno-Giometto | Ciriaco-Scoppetta-2 | Gabriele-Monte | Giovannella-Palmieri | Chiara-Di-Schino | Giacomo-Cusumano | Silvia-Falso | Pierluigi-Granone | Carlo-Provenzano | Emanuela-Bartoccioni-2 | Giovanni-Zelano | Mirella-Marino | Mauro-Lo-Monaco-2 | Alfredo-Cesario-3 | Maria-Maddalena-Lino-2 | Pietro-Caliandro | Paolo-Alboini | Valentina-Damato-2 | Pietro-Tonali-2054524854 | Roberta-Ricciardi-2065728064 | L-Lauriola-2107994733 | Serenella-Servidei-2121342868 | M-T-Palmisani-38667716 | Anna-Paola-Batocchi-38860092 | Angela-Vincent-38913206 | Stefano-Margaritora-38961150 | Francesca-Marsili-39016331 | P-Tonali-39452797 | Michael-Benatar-39949355 | Libero-Lauriola-39979369 | G-Piccolo-54630617</t>
+        </is>
+      </c>
+      <c r="I190" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="J190" s="3" t="inlineStr">
+        <is>
+          <t>Patrick Joseph Waters | Lin Mei | Alexander Marx | Renato Mantegazza | Gil I Wolfe | Maarten J Titulaer | Mario Losen | Daniel B Drachman | John Keesey | David Beeson | Carlo Antozzi | Josep María Dalmau | James F Howard | Robert P Lisak | Leslie Jacobson | Henry J Kaminski | Janice M Massey | Ted M Burns | Richard J Nowak | Andrew Engel | Flavia Scuderi | Geir OLve Skeie | Berthold Schalke | Sonia Berrih-Aknin | Marc H De Baets | Vern C Juel | Jeffrey T Guptill | Giher Saruhan-Direskeneli | Alfred Jaretzki | Shin J Oh | Arthur Melms | Maartje G Huijbers | Ricard Rojas-García | Socrates J Tzartos | Sarosh R Irani | Emanuela Bartoccioni | Eugenia Martinez-Hernandez | Mauro Lo Monaco | Audrey S. Penn | Steven J Burden | Richard Barohn | Maria Isabel Da Silva Leite | Nils Erik Gilhus | Mariapaola Marino | Donald Sanders | Luca Padua | Raffaele Iorio | Nick Willcox | Philipp Ströbel | Ciriaco Scoppetta</t>
+        </is>
+      </c>
+      <c r="K190" s="3" t="n">
+        <v>237</v>
+      </c>
+      <c r="L190" s="3" t="inlineStr">
+        <is>
+          <t>Clinical, neurophysiological and serological clues for the diagnosis of neuromyotonia and distinction from cramp-fasciculation syndrome | Cancer detection after a 9-year course of Lambert-Eaton Myasthenic Syndrome complicated by anti-Hu associated Limbic Encephalitis | Conventional and emerging treatments and controversies in myasthenia gravis | Immunological response after SARS-CoV-2 infection and mRNA vaccines in patients with myasthenia gravis treated with Rituximab | Reply to the Letter to the Editor in response to “Autoantibody levels as biomarkers of disease activity in management of myasthenia gravis: A systematic review and expert appraisal” | Myasthenia Gravis | Efficacy and safety of rituximab in myelin oligodendrocyte glycoprotein antibody-associated disorders compared with neuromyelitis optica spectrum disorder: a systematic review and meta-analysis | Comparison of Fixed and Live Cell-Based Assay for the Detection of AChR and MuSK Antibodies in Myasthenia Gravis | Clinical value of cell-based assays in the characterisation of seronegative myasthenia gravis | Neurophysiological challenges in myasthenia gravis associated with MuSK antibodies: a case report | Safety and tolerability of SARS‐Cov‐2 vaccination in patients with myasthenia gravis: A multicenter experience | Epidemiology, diagnostics, and biomarkers of autoimmune neuromuscular junction disorders | Identification of genetic risk loci and prioritization of genes and pathways for myasthenia gravis: a genome-wide association study | Clinical features and outcome of patients with autoimmune cerebellar ataxia evaluated with the Scale for Assessment and Rating of Ataxia | Editorial: News and Views in the Management of Myasthenia Gravis | B cell related predictive biomarkers of treatment response in myasthenia gravis | Demographic changes in myasthenia gravis over the last 20 years: A single center experience | Cholinergic hyperactivity in patients with Myasthenia Gravis with MuSK antibodies: a neurophysiological study | Heterogeneity in myasthenia gravis: considerations for disease management | Acetylcholine receptor antibody positivity rate in ocular myasthenia gravis: a matter of age? | Assessing the role of a tissue-based assay in the diagnostic algorithm of autoimmune encephalitis | Response to: “MuSK‐positive myasthenia may not only triggered by SARS‐CoV‐2” | Human Leukocyte Antigen Class II associations in late-onset Myasthenia Gravis | Benefit and danger from immunotherapy in myasthenia gravis | Myasthenia gravis associated with anti‐MuSK antibodies developed after SARS‐CoV‐2 infection | In sickness and in health: when myasthenia gravis is a conjugal matter | Controversies in Ocular Myasthenia Gravis | International Consensus Guidance for Management of Myasthenia Gravis: 2020 Update | Epidemiological evidence for a hereditary contribution to myasthenia gravis: a retrospective cohort study of patients from North America | Minimal manifestation status and prednisone withdrawal in the MGTX trial | An Italian Neurology Outpatient Clinic Facing SARS-CoV-2 Pandemic: Data From 2,167 Patients | Clinical characteristics and outcome of patients with autoimmune encephalitis: clues for paraneoplastic etiology | Long-Lasting Rituximab-Induced Reduction of Specific—But Not Total—IgG4 in MuSK-Positive Myasthenia Gravis | SHP2 inhibitor protects AChRs from effects of myasthenia gravis MuSK antibody | Myasthenia gravis | Subgroup comparison according to clinical phenotype and serostatus in autoimmune encephalitis: a multicenter retrospective study | Management of antibody-mediated autoimmune encephalitis in adults and children: literature review and consensus-based practical recommendations | Randomized phase 2 study of FcRn antagonist efgartigimod in generalized myasthenia gravis | Long-term effect of thymectomy plus prednisone versus prednisone alone in patients with non-thymomatous myasthenia gravis: 2-year extension of the MGTX randomised trial | Italian recommendations for the diagnosis and treatment of myasthenia gravis | Best practices for the management of Thymic Epithelial Tumors: A position paper by the Italian collaborative group for ThYmic MalignanciEs (TYME) | Serological Immunoglobulin-Free Light Chain Profile in Myasthenia Gravis Patients | Supplementary 1 | Supplementary 2 | Paraneoplastic neurological syndromes associated with mediastinal tumors | Myasthenia gravis with antibodies to MuSK: An update | Diagnostics of autoimmune encephalitis associated with antibodies against neuronal surface antigens | Diagnostics of paraneoplastic neurological syndromes | Clinical and immunological characteristics of the spectrum of GFAP autoimmunity: A case series of 22 patients | Pattern of ocular involvement in myasthenia gravis with MuSK antibodies | IgG-specific cell-based assay detects potentially pathogenic MuSK-Abs in seronegative MG | Rituximab in Neuromyelitis Optica Spectrum Disorders—Reply: Why Not as First-Line Therapy | Remission of myasthenia gravis with MuSK antibodies during ruxolitinib treatment | Efficacy and Safety of Rituximab Therapy in Neuromyelitis Optica Spectrum Disorders: A Systematic Review and Meta-analysis | Randomized Trial of Thymectomy in Myasthenia Gravis | International consensus guidance for management of myasthenia gravis: Executive summary | Myasthenia Gravis | Molecular genetic alterations in egfr CA-SSR-1 microsatellite and egfr copy number changes are associated with aggressiveness in thymoma | Longitudinal epitope mapping in MuSK myasthenia gravis: Implications for disease severity | 3,4-diaminopyridine may improve myasthenia gravis with MUSK antibodies | Titin antibodies in “seronegative” myasthenia gravis – A new role for an old antigen | Disease specific enrichment of circulating let-7 family microRNA in MuSK+ myasthenia gravis | Overcoming challenges in the diagnosis and treatment of myasthenia gravis | Flow Cytofluorimetric Analysis of Anti-LRP4 (LDL Receptor-Related Protein 4) Autoantibodies in Italian Patients with Myasthenia Gravis | LTS Prognostic grading after complete resection for thymic malignancies | MuSK autoantibodies in myasthenia gravis detected by cell based assay — A multinational study | Myasthenia gravis with presynaptic neurophysiological signs: Two case reports and literature review | Poly-autoimmunity in patients with myasthenia gravis: A single-center experience | Characterization of B cells in muscle-specific kinase antibody myasthenia gravis | A Genome-Wide Association Study of Myasthenia Gravis | Characteristics of myasthenia gravis with antibodies to muscle-specific kinase and low-density lipoprotein-related receptor protein4 | Efficacy and safety of rituximab for myasthenia gravis: a systematic review and meta-analysis | Paraneoplastic Disorders in Thymoma Patients | Thymic Epithelial Tumors express Vascular Endothelial Growth Factors and their receptors as potential targets of antiangiogenic therapy: a tissue micro array–based multicenter study | The detection of neural autoantibodies in patients with antiepileptic-drug-resistant epilepsy predicts response to immunotherapy | Diagnostic Features and Subtyping of Thymoma Lymph Node Metastases | SFEMG: A piece in the diagnostic puzzle of myasthenia | When myasthenia gravis is not all | Thymectomy in myasthenia gravis: Proposal for a predictive score of postoperative myasthenic crisis | Italian recommendations for Lambert-Eaton myasthenic syndrome (LEMS) management | EFNS/ENS Guidelines for the treatment of ocular myasthenia | Lower motor neuron involvement in longitudinally extensive transverse myelitis with and without aquaporin-4 antibodies | T cell repertoire in DQ5-positive MuSK-positive myasthenia gravis patients | A comprehensive analysis of the epidemiology and clinical characteristics of anti-LRP4 in myasthenia gravis | Reliability of SFEMG in diagnosing Myasthenia Gravis: sensitivity and specificity calculated on 100 prospective cases | Neural autoantibodies and immunotherapy-responsive epilepsy: A prospective study | Distinctive clinical and neuroimaging characteristics of longitudinally extensive transverse myelitis associated with aquaporin-4 autoantibodies | Changes in regulatory T cells after rituximab in two patients with refractory myasthenia gravis | The tiles make a puzzle but the single tile is not the puzzle: The need for a global assessment of the patient | Diagnosis and therapy of myasthenia gravis with antibodies to muscle-specific kinase | Management challenges in muscle-specific tyrosine kinase myasthenia gravis | Supplementary material 1 | A B3 Type-Thymoma in a 7-Year-Old Child with Myasthenia Gravis | Spontaneous recovery from anti-NMDAR encephalitis | Corrigendum to 'Single-center 40-year results of redo operation for recurrent thymomas' [Eur J Cardiothorac Surg 2011;40:894-901] | PTPN22 and myasthenia gravis: Replication in an Italian population and meta-analysis of literature data | Myasthenia gravis with antibodies to MuSK Another step toward solving mystery? | Anti-MuSK antibody Myasthenia Gravis: Clinical findings and response to treatment in two large cohorts | Imatinib mesylate in thymic epithelial malignancies | W6.4 Reliability of SF-EMG in diagnosing myasthenia gravis: sensitivity and specificity calculated on 85 reviewed cases</t>
+        </is>
+      </c>
+      <c r="M190" s="3" t="inlineStr">
+        <is>
+          <t>Autoimmune Disease</t>
         </is>
       </c>
     </row>
